--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,9 @@
     <t>['10', '90+7']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -683,9 +686,6 @@
   </si>
   <si>
     <t>['71', '81']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['17', '24']</t>
@@ -1269,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2146,7 +2146,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2352,7 +2352,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2558,7 +2558,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2970,7 +2970,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3176,7 +3176,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3463,7 +3463,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -4618,7 +4618,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4824,7 +4824,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5442,7 +5442,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -6060,7 +6060,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6472,7 +6472,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6884,7 +6884,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -9231,7 +9231,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ39">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
         <v>0.14</v>
@@ -17184,7 +17184,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17265,7 +17265,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17674,7 +17674,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ80">
         <v>1.86</v>
@@ -19943,7 +19943,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>2.12</v>
@@ -25708,7 +25708,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ119">
         <v>1.14</v>
@@ -25917,7 +25917,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ120">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -36423,7 +36423,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ171">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>1.66</v>
@@ -36626,7 +36626,7 @@
         <v>0.83</v>
       </c>
       <c r="AP172">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ172">
         <v>0.71</v>
@@ -41982,7 +41982,7 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ198">
         <v>1.73</v>
@@ -42397,7 +42397,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ200">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42679,6 +42679,212 @@
       </c>
       <c r="BP201">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7420931</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45412.83333333334</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>83</v>
+      </c>
+      <c r="H202" t="s">
+        <v>92</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>213</v>
+      </c>
+      <c r="P202" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q202">
+        <v>3.75</v>
+      </c>
+      <c r="R202">
+        <v>1.91</v>
+      </c>
+      <c r="S202">
+        <v>3.4</v>
+      </c>
+      <c r="T202">
+        <v>1.53</v>
+      </c>
+      <c r="U202">
+        <v>2.38</v>
+      </c>
+      <c r="V202">
+        <v>3.5</v>
+      </c>
+      <c r="W202">
+        <v>1.29</v>
+      </c>
+      <c r="X202">
+        <v>11</v>
+      </c>
+      <c r="Y202">
+        <v>1.05</v>
+      </c>
+      <c r="Z202">
+        <v>3</v>
+      </c>
+      <c r="AA202">
+        <v>3</v>
+      </c>
+      <c r="AB202">
+        <v>2.55</v>
+      </c>
+      <c r="AC202">
+        <v>1.09</v>
+      </c>
+      <c r="AD202">
+        <v>8</v>
+      </c>
+      <c r="AE202">
+        <v>1.47</v>
+      </c>
+      <c r="AF202">
+        <v>2.75</v>
+      </c>
+      <c r="AG202">
+        <v>2.7</v>
+      </c>
+      <c r="AH202">
+        <v>1.44</v>
+      </c>
+      <c r="AI202">
+        <v>2.2</v>
+      </c>
+      <c r="AJ202">
+        <v>1.62</v>
+      </c>
+      <c r="AK202">
+        <v>1.52</v>
+      </c>
+      <c r="AL202">
+        <v>1.32</v>
+      </c>
+      <c r="AM202">
+        <v>1.45</v>
+      </c>
+      <c r="AN202">
+        <v>1.93</v>
+      </c>
+      <c r="AO202">
+        <v>2</v>
+      </c>
+      <c r="AP202">
+        <v>1.87</v>
+      </c>
+      <c r="AQ202">
+        <v>1.93</v>
+      </c>
+      <c r="AR202">
+        <v>2.2</v>
+      </c>
+      <c r="AS202">
+        <v>1.42</v>
+      </c>
+      <c r="AT202">
+        <v>3.62</v>
+      </c>
+      <c r="AU202">
+        <v>7</v>
+      </c>
+      <c r="AV202">
+        <v>4</v>
+      </c>
+      <c r="AW202">
+        <v>5</v>
+      </c>
+      <c r="AX202">
+        <v>7</v>
+      </c>
+      <c r="AY202">
+        <v>12</v>
+      </c>
+      <c r="AZ202">
+        <v>11</v>
+      </c>
+      <c r="BA202">
+        <v>2</v>
+      </c>
+      <c r="BB202">
+        <v>5</v>
+      </c>
+      <c r="BC202">
+        <v>7</v>
+      </c>
+      <c r="BD202">
+        <v>1.91</v>
+      </c>
+      <c r="BE202">
+        <v>8.4</v>
+      </c>
+      <c r="BF202">
+        <v>2.22</v>
+      </c>
+      <c r="BG202">
+        <v>1.37</v>
+      </c>
+      <c r="BH202">
+        <v>2.84</v>
+      </c>
+      <c r="BI202">
+        <v>1.69</v>
+      </c>
+      <c r="BJ202">
+        <v>2.09</v>
+      </c>
+      <c r="BK202">
+        <v>2.14</v>
+      </c>
+      <c r="BL202">
+        <v>1.63</v>
+      </c>
+      <c r="BM202">
+        <v>2.84</v>
+      </c>
+      <c r="BN202">
+        <v>1.35</v>
+      </c>
+      <c r="BO202">
+        <v>4.09</v>
+      </c>
+      <c r="BP202">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -517,10 +517,10 @@
     <t>['22', '34']</t>
   </si>
   <si>
-    <t>['78', '88']</t>
+    <t>['22', '80', '90+3']</t>
   </si>
   <si>
-    <t>['22', '80', '90+3']</t>
+    <t>['78', '88']</t>
   </si>
   <si>
     <t>['38']</t>
@@ -532,10 +532,10 @@
     <t>['25']</t>
   </si>
   <si>
-    <t>['3', '27', '54', '68']</t>
+    <t>['34', '62']</t>
   </si>
   <si>
-    <t>['34', '62']</t>
+    <t>['3', '27', '54', '68']</t>
   </si>
   <si>
     <t>['26', '49', '60', '81']</t>
@@ -604,16 +604,16 @@
     <t>['9', '30', '49', '56', '72']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
-    <t>['37']</t>
+    <t>['38', '59', '80']</t>
   </si>
   <si>
     <t>['38', '56', '58']</t>
-  </si>
-  <si>
-    <t>['38', '59', '80']</t>
   </si>
   <si>
     <t>['6', '56']</t>
@@ -817,10 +817,10 @@
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['42']</t>
   </si>
   <si>
-    <t>['42']</t>
+    <t>['41']</t>
   </si>
   <si>
     <t>['33', '47']</t>
@@ -874,10 +874,10 @@
     <t>['3', '24']</t>
   </si>
   <si>
-    <t>['80', '85']</t>
+    <t>['25', '90+3']</t>
   </si>
   <si>
-    <t>['25', '90+3']</t>
+    <t>['80', '85']</t>
   </si>
   <si>
     <t>['14']</t>
@@ -889,19 +889,19 @@
     <t>['74', '76']</t>
   </si>
   <si>
+    <t>['57', '62', '73']</t>
+  </si>
+  <si>
     <t>['50', '52']</t>
   </si>
   <si>
     <t>['1', '68', '90+2']</t>
   </si>
   <si>
-    <t>['57', '62', '73']</t>
+    <t>['77', '90+6']</t>
   </si>
   <si>
     <t>['9', '18', '87', '90']</t>
-  </si>
-  <si>
-    <t>['77', '90+6']</t>
   </si>
   <si>
     <t>['24', '68']</t>
@@ -5236,7 +5236,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -7296,7 +7296,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -13640,7 +13640,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7345542</v>
+        <v>7345539</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13655,190 +13655,190 @@
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="P61" t="s">
         <v>98</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R61">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="S61">
-        <v>4.5</v>
+        <v>5.51</v>
       </c>
       <c r="T61">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="U61">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V61">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W61">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y61">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Z61">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AA61">
         <v>2.83</v>
       </c>
       <c r="AB61">
-        <v>3.64</v>
+        <v>4.17</v>
       </c>
       <c r="AC61">
         <v>1.11</v>
       </c>
       <c r="AD61">
-        <v>7.5</v>
+        <v>6.28</v>
       </c>
       <c r="AE61">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AF61">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AG61">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AH61">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AI61">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AJ61">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AK61">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AL61">
         <v>1.4</v>
       </c>
       <c r="AM61">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AN61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR61">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="AS61">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="AT61">
-        <v>3.38</v>
+        <v>3.16</v>
       </c>
       <c r="AU61">
+        <v>9</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>8</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>17</v>
+      </c>
+      <c r="AZ61">
         <v>6</v>
       </c>
-      <c r="AV61">
-        <v>2</v>
-      </c>
-      <c r="AW61">
-        <v>7</v>
-      </c>
-      <c r="AX61">
-        <v>2</v>
-      </c>
-      <c r="AY61">
-        <v>13</v>
-      </c>
-      <c r="AZ61">
-        <v>4</v>
-      </c>
       <c r="BA61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
         <v>5</v>
-      </c>
-      <c r="BC61">
-        <v>11</v>
       </c>
       <c r="BD61">
         <v>1.53</v>
       </c>
       <c r="BE61">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF61">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="BG61">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BH61">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BI61">
-        <v>1.47</v>
+        <v>1.92</v>
       </c>
       <c r="BJ61">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="BK61">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="BL61">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="BM61">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="BN61">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="BO61">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="BP61">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13846,7 +13846,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7345539</v>
+        <v>7345542</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13861,190 +13861,190 @@
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="P62" t="s">
         <v>98</v>
       </c>
       <c r="Q62">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R62">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="S62">
-        <v>5.51</v>
+        <v>4.5</v>
       </c>
       <c r="T62">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="U62">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V62">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W62">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y62">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Z62">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AA62">
         <v>2.83</v>
       </c>
       <c r="AB62">
-        <v>4.17</v>
+        <v>3.64</v>
       </c>
       <c r="AC62">
         <v>1.11</v>
       </c>
       <c r="AD62">
-        <v>6.28</v>
+        <v>7.5</v>
       </c>
       <c r="AE62">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AF62">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AG62">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AH62">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AI62">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="AJ62">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AK62">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AL62">
         <v>1.4</v>
       </c>
       <c r="AM62">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="AS62">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="AT62">
-        <v>3.16</v>
+        <v>3.38</v>
       </c>
       <c r="AU62">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV62">
+        <v>2</v>
+      </c>
+      <c r="AW62">
+        <v>7</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
         <v>4</v>
       </c>
-      <c r="AW62">
-        <v>8</v>
-      </c>
-      <c r="AX62">
-        <v>2</v>
-      </c>
-      <c r="AY62">
-        <v>17</v>
-      </c>
-      <c r="AZ62">
+      <c r="BA62">
         <v>6</v>
       </c>
-      <c r="BA62">
+      <c r="BB62">
         <v>5</v>
       </c>
-      <c r="BB62">
-        <v>0</v>
-      </c>
       <c r="BC62">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD62">
         <v>1.53</v>
       </c>
       <c r="BE62">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF62">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="BG62">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BH62">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BI62">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="BJ62">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="BK62">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="BL62">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="BM62">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="BN62">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BO62">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP62">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -17966,7 +17966,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7345563</v>
+        <v>7345562</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17981,190 +17981,190 @@
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>98</v>
+      </c>
+      <c r="P82" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q82">
+        <v>3.1</v>
+      </c>
+      <c r="R82">
+        <v>1.83</v>
+      </c>
+      <c r="S82">
+        <v>4.75</v>
+      </c>
+      <c r="T82">
+        <v>1.62</v>
+      </c>
+      <c r="U82">
+        <v>2.2</v>
+      </c>
+      <c r="V82">
         <v>4</v>
       </c>
-      <c r="L82">
-        <v>4</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
+      <c r="W82">
+        <v>1.22</v>
+      </c>
+      <c r="X82">
+        <v>13</v>
+      </c>
+      <c r="Y82">
+        <v>1.04</v>
+      </c>
+      <c r="Z82">
+        <v>2.2</v>
+      </c>
+      <c r="AA82">
+        <v>3</v>
+      </c>
+      <c r="AB82">
+        <v>3.75</v>
+      </c>
+      <c r="AC82">
+        <v>1.13</v>
+      </c>
+      <c r="AD82">
+        <v>6.45</v>
+      </c>
+      <c r="AE82">
+        <v>1.59</v>
+      </c>
+      <c r="AF82">
+        <v>2.36</v>
+      </c>
+      <c r="AG82">
+        <v>3.1</v>
+      </c>
+      <c r="AH82">
+        <v>1.36</v>
+      </c>
+      <c r="AI82">
+        <v>2.5</v>
+      </c>
+      <c r="AJ82">
+        <v>1.5</v>
+      </c>
+      <c r="AK82">
+        <v>1.32</v>
+      </c>
+      <c r="AL82">
+        <v>1.5</v>
+      </c>
+      <c r="AM82">
+        <v>1.55</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>1.14</v>
+      </c>
+      <c r="AQ82">
+        <v>1.14</v>
+      </c>
+      <c r="AR82">
+        <v>1.58</v>
+      </c>
+      <c r="AS82">
+        <v>1.56</v>
+      </c>
+      <c r="AT82">
+        <v>3.14</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
         <v>5</v>
       </c>
-      <c r="O82" t="s">
-        <v>143</v>
-      </c>
-      <c r="P82" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q82">
-        <v>2.88</v>
-      </c>
-      <c r="R82">
-        <v>1.91</v>
-      </c>
-      <c r="S82">
-        <v>5</v>
-      </c>
-      <c r="T82">
-        <v>1.67</v>
-      </c>
-      <c r="U82">
-        <v>2.1</v>
-      </c>
-      <c r="V82">
-        <v>4.33</v>
-      </c>
-      <c r="W82">
-        <v>1.2</v>
-      </c>
-      <c r="X82">
-        <v>15</v>
-      </c>
-      <c r="Y82">
-        <v>1.03</v>
-      </c>
-      <c r="Z82">
-        <v>2.1</v>
-      </c>
-      <c r="AA82">
-        <v>3.1</v>
-      </c>
-      <c r="AB82">
-        <v>4</v>
-      </c>
-      <c r="AC82">
-        <v>1.14</v>
-      </c>
-      <c r="AD82">
-        <v>6.1</v>
-      </c>
-      <c r="AE82">
-        <v>1.63</v>
-      </c>
-      <c r="AF82">
-        <v>2.3</v>
-      </c>
-      <c r="AG82">
-        <v>2.88</v>
-      </c>
-      <c r="AH82">
-        <v>1.4</v>
-      </c>
-      <c r="AI82">
-        <v>2.38</v>
-      </c>
-      <c r="AJ82">
-        <v>1.53</v>
-      </c>
-      <c r="AK82">
-        <v>1.24</v>
-      </c>
-      <c r="AL82">
-        <v>1.41</v>
-      </c>
-      <c r="AM82">
-        <v>1.75</v>
-      </c>
-      <c r="AN82">
-        <v>0.5</v>
-      </c>
-      <c r="AO82">
-        <v>0.67</v>
-      </c>
-      <c r="AP82">
-        <v>0.86</v>
-      </c>
-      <c r="AQ82">
-        <v>0.71</v>
-      </c>
-      <c r="AR82">
-        <v>1.36</v>
-      </c>
-      <c r="AS82">
-        <v>1.19</v>
-      </c>
-      <c r="AT82">
-        <v>2.55</v>
-      </c>
-      <c r="AU82">
-        <v>8</v>
-      </c>
-      <c r="AV82">
-        <v>3</v>
-      </c>
       <c r="AW82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX82">
         <v>4</v>
       </c>
       <c r="AY82">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
+      <c r="BB82">
+        <v>2</v>
+      </c>
+      <c r="BC82">
         <v>7</v>
       </c>
-      <c r="BA82">
-        <v>2</v>
-      </c>
-      <c r="BB82">
-        <v>4</v>
-      </c>
-      <c r="BC82">
-        <v>6</v>
-      </c>
       <c r="BD82">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="BE82">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="BF82">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="BG82">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH82">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BI82">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BJ82">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="BK82">
-        <v>1.92</v>
+        <v>2.21</v>
       </c>
       <c r="BL82">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="BM82">
-        <v>2.55</v>
+        <v>2.98</v>
       </c>
       <c r="BN82">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="BO82">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP82">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -18172,7 +18172,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7345562</v>
+        <v>7345563</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -18187,190 +18187,190 @@
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O83" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="Q83">
+        <v>2.88</v>
+      </c>
+      <c r="R83">
+        <v>1.91</v>
+      </c>
+      <c r="S83">
+        <v>5</v>
+      </c>
+      <c r="T83">
+        <v>1.67</v>
+      </c>
+      <c r="U83">
+        <v>2.1</v>
+      </c>
+      <c r="V83">
+        <v>4.33</v>
+      </c>
+      <c r="W83">
+        <v>1.2</v>
+      </c>
+      <c r="X83">
+        <v>15</v>
+      </c>
+      <c r="Y83">
+        <v>1.03</v>
+      </c>
+      <c r="Z83">
+        <v>2.1</v>
+      </c>
+      <c r="AA83">
         <v>3.1</v>
       </c>
-      <c r="R83">
-        <v>1.83</v>
-      </c>
-      <c r="S83">
-        <v>4.75</v>
-      </c>
-      <c r="T83">
-        <v>1.62</v>
-      </c>
-      <c r="U83">
-        <v>2.2</v>
-      </c>
-      <c r="V83">
+      <c r="AB83">
         <v>4</v>
       </c>
-      <c r="W83">
-        <v>1.22</v>
-      </c>
-      <c r="X83">
-        <v>13</v>
-      </c>
-      <c r="Y83">
-        <v>1.04</v>
-      </c>
-      <c r="Z83">
-        <v>2.2</v>
-      </c>
-      <c r="AA83">
-        <v>3</v>
-      </c>
-      <c r="AB83">
-        <v>3.75</v>
-      </c>
       <c r="AC83">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AD83">
-        <v>6.45</v>
+        <v>6.1</v>
       </c>
       <c r="AE83">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AF83">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="AG83">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AH83">
+        <v>1.4</v>
+      </c>
+      <c r="AI83">
+        <v>2.38</v>
+      </c>
+      <c r="AJ83">
+        <v>1.53</v>
+      </c>
+      <c r="AK83">
+        <v>1.24</v>
+      </c>
+      <c r="AL83">
+        <v>1.41</v>
+      </c>
+      <c r="AM83">
+        <v>1.75</v>
+      </c>
+      <c r="AN83">
+        <v>0.5</v>
+      </c>
+      <c r="AO83">
+        <v>0.67</v>
+      </c>
+      <c r="AP83">
+        <v>0.86</v>
+      </c>
+      <c r="AQ83">
+        <v>0.71</v>
+      </c>
+      <c r="AR83">
         <v>1.36</v>
       </c>
-      <c r="AI83">
-        <v>2.5</v>
-      </c>
-      <c r="AJ83">
-        <v>1.5</v>
-      </c>
-      <c r="AK83">
-        <v>1.32</v>
-      </c>
-      <c r="AL83">
-        <v>1.5</v>
-      </c>
-      <c r="AM83">
-        <v>1.55</v>
-      </c>
-      <c r="AN83">
-        <v>0</v>
-      </c>
-      <c r="AO83">
-        <v>0</v>
-      </c>
-      <c r="AP83">
-        <v>1.14</v>
-      </c>
-      <c r="AQ83">
-        <v>1.14</v>
-      </c>
-      <c r="AR83">
-        <v>1.58</v>
-      </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="AT83">
-        <v>3.14</v>
+        <v>2.55</v>
       </c>
       <c r="AU83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
         <v>5</v>
-      </c>
-      <c r="AW83">
-        <v>6</v>
       </c>
       <c r="AX83">
         <v>4</v>
       </c>
       <c r="AY83">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD83">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BE83">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF83">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="BG83">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH83">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BI83">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="BJ83">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="BK83">
-        <v>2.21</v>
+        <v>1.92</v>
       </c>
       <c r="BL83">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="BM83">
-        <v>2.98</v>
+        <v>2.55</v>
       </c>
       <c r="BN83">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="BO83">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP83">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18996,7 +18996,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7345568</v>
+        <v>7345573</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -19011,190 +19011,190 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O87" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="Q87">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R87">
+        <v>1.91</v>
+      </c>
+      <c r="S87">
+        <v>3.25</v>
+      </c>
+      <c r="T87">
+        <v>1.57</v>
+      </c>
+      <c r="U87">
+        <v>2.25</v>
+      </c>
+      <c r="V87">
+        <v>3.75</v>
+      </c>
+      <c r="W87">
+        <v>1.25</v>
+      </c>
+      <c r="X87">
+        <v>13</v>
+      </c>
+      <c r="Y87">
+        <v>1.04</v>
+      </c>
+      <c r="Z87">
+        <v>3.2</v>
+      </c>
+      <c r="AA87">
+        <v>3.1</v>
+      </c>
+      <c r="AB87">
+        <v>2.45</v>
+      </c>
+      <c r="AC87">
+        <v>1.09</v>
+      </c>
+      <c r="AD87">
+        <v>6.83</v>
+      </c>
+      <c r="AE87">
+        <v>1.52</v>
+      </c>
+      <c r="AF87">
+        <v>2.56</v>
+      </c>
+      <c r="AG87">
+        <v>2.6</v>
+      </c>
+      <c r="AH87">
+        <v>1.48</v>
+      </c>
+      <c r="AI87">
+        <v>2.1</v>
+      </c>
+      <c r="AJ87">
+        <v>1.67</v>
+      </c>
+      <c r="AK87">
+        <v>1.7</v>
+      </c>
+      <c r="AL87">
+        <v>1.32</v>
+      </c>
+      <c r="AM87">
+        <v>1.3</v>
+      </c>
+      <c r="AN87">
+        <v>1.33</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>0.86</v>
+      </c>
+      <c r="AQ87">
+        <v>1.43</v>
+      </c>
+      <c r="AR87">
+        <v>1.49</v>
+      </c>
+      <c r="AS87">
+        <v>1.8</v>
+      </c>
+      <c r="AT87">
+        <v>3.29</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>3</v>
+      </c>
+      <c r="AX87">
+        <v>7</v>
+      </c>
+      <c r="AY87">
+        <v>6</v>
+      </c>
+      <c r="AZ87">
+        <v>12</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>6</v>
+      </c>
+      <c r="BD87">
+        <v>2.4</v>
+      </c>
+      <c r="BE87">
+        <v>7.7</v>
+      </c>
+      <c r="BF87">
+        <v>1.84</v>
+      </c>
+      <c r="BG87">
+        <v>1.28</v>
+      </c>
+      <c r="BH87">
+        <v>3.35</v>
+      </c>
+      <c r="BI87">
+        <v>1.53</v>
+      </c>
+      <c r="BJ87">
+        <v>2.33</v>
+      </c>
+      <c r="BK87">
+        <v>1.99</v>
+      </c>
+      <c r="BL87">
         <v>1.73</v>
       </c>
-      <c r="S87">
-        <v>4.33</v>
-      </c>
-      <c r="T87">
-        <v>1.73</v>
-      </c>
-      <c r="U87">
-        <v>2</v>
-      </c>
-      <c r="V87">
-        <v>4.5</v>
-      </c>
-      <c r="W87">
-        <v>1.18</v>
-      </c>
-      <c r="X87">
-        <v>15</v>
-      </c>
-      <c r="Y87">
-        <v>1.03</v>
-      </c>
-      <c r="Z87">
-        <v>2.63</v>
-      </c>
-      <c r="AA87">
-        <v>2.63</v>
-      </c>
-      <c r="AB87">
-        <v>3.4</v>
-      </c>
-      <c r="AC87">
-        <v>1.15</v>
-      </c>
-      <c r="AD87">
-        <v>5.25</v>
-      </c>
-      <c r="AE87">
-        <v>1.7</v>
-      </c>
-      <c r="AF87">
-        <v>2.1</v>
-      </c>
-      <c r="AG87">
-        <v>3.5</v>
-      </c>
-      <c r="AH87">
+      <c r="BM87">
+        <v>2.62</v>
+      </c>
+      <c r="BN87">
+        <v>1.43</v>
+      </c>
+      <c r="BO87">
+        <v>3.35</v>
+      </c>
+      <c r="BP87">
         <v>1.3</v>
-      </c>
-      <c r="AI87">
-        <v>2.63</v>
-      </c>
-      <c r="AJ87">
-        <v>1.44</v>
-      </c>
-      <c r="AK87">
-        <v>1.35</v>
-      </c>
-      <c r="AL87">
-        <v>1.41</v>
-      </c>
-      <c r="AM87">
-        <v>1.49</v>
-      </c>
-      <c r="AN87">
-        <v>0.5</v>
-      </c>
-      <c r="AO87">
-        <v>0.5</v>
-      </c>
-      <c r="AP87">
-        <v>1.71</v>
-      </c>
-      <c r="AQ87">
-        <v>0.71</v>
-      </c>
-      <c r="AR87">
-        <v>1.09</v>
-      </c>
-      <c r="AS87">
-        <v>1.34</v>
-      </c>
-      <c r="AT87">
-        <v>2.43</v>
-      </c>
-      <c r="AU87">
-        <v>0</v>
-      </c>
-      <c r="AV87">
-        <v>2</v>
-      </c>
-      <c r="AW87">
-        <v>5</v>
-      </c>
-      <c r="AX87">
-        <v>5</v>
-      </c>
-      <c r="AY87">
-        <v>5</v>
-      </c>
-      <c r="AZ87">
-        <v>7</v>
-      </c>
-      <c r="BA87">
-        <v>2</v>
-      </c>
-      <c r="BB87">
-        <v>1</v>
-      </c>
-      <c r="BC87">
-        <v>3</v>
-      </c>
-      <c r="BD87">
-        <v>1.67</v>
-      </c>
-      <c r="BE87">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF87">
-        <v>2.71</v>
-      </c>
-      <c r="BG87">
-        <v>1.44</v>
-      </c>
-      <c r="BH87">
-        <v>2.65</v>
-      </c>
-      <c r="BI87">
-        <v>1.85</v>
-      </c>
-      <c r="BJ87">
-        <v>1.95</v>
-      </c>
-      <c r="BK87">
-        <v>2.25</v>
-      </c>
-      <c r="BL87">
-        <v>1.6</v>
-      </c>
-      <c r="BM87">
-        <v>2.95</v>
-      </c>
-      <c r="BN87">
-        <v>1.36</v>
-      </c>
-      <c r="BO87">
-        <v>4.1</v>
-      </c>
-      <c r="BP87">
-        <v>1.22</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -19202,7 +19202,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7345573</v>
+        <v>7345568</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -19217,190 +19217,190 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="Q88">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R88">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S88">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="T88">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <v>4.5</v>
+      </c>
+      <c r="W88">
+        <v>1.18</v>
+      </c>
+      <c r="X88">
+        <v>15</v>
+      </c>
+      <c r="Y88">
+        <v>1.03</v>
+      </c>
+      <c r="Z88">
+        <v>2.63</v>
+      </c>
+      <c r="AA88">
+        <v>2.63</v>
+      </c>
+      <c r="AB88">
+        <v>3.4</v>
+      </c>
+      <c r="AC88">
+        <v>1.15</v>
+      </c>
+      <c r="AD88">
+        <v>5.25</v>
+      </c>
+      <c r="AE88">
+        <v>1.7</v>
+      </c>
+      <c r="AF88">
+        <v>2.1</v>
+      </c>
+      <c r="AG88">
+        <v>3.5</v>
+      </c>
+      <c r="AH88">
+        <v>1.3</v>
+      </c>
+      <c r="AI88">
+        <v>2.63</v>
+      </c>
+      <c r="AJ88">
+        <v>1.44</v>
+      </c>
+      <c r="AK88">
+        <v>1.35</v>
+      </c>
+      <c r="AL88">
+        <v>1.41</v>
+      </c>
+      <c r="AM88">
+        <v>1.49</v>
+      </c>
+      <c r="AN88">
+        <v>0.5</v>
+      </c>
+      <c r="AO88">
+        <v>0.5</v>
+      </c>
+      <c r="AP88">
+        <v>1.71</v>
+      </c>
+      <c r="AQ88">
+        <v>0.71</v>
+      </c>
+      <c r="AR88">
+        <v>1.09</v>
+      </c>
+      <c r="AS88">
+        <v>1.34</v>
+      </c>
+      <c r="AT88">
+        <v>2.43</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>5</v>
+      </c>
+      <c r="AZ88">
+        <v>7</v>
+      </c>
+      <c r="BA88">
+        <v>2</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>3</v>
+      </c>
+      <c r="BD88">
+        <v>1.67</v>
+      </c>
+      <c r="BE88">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF88">
+        <v>2.71</v>
+      </c>
+      <c r="BG88">
+        <v>1.44</v>
+      </c>
+      <c r="BH88">
+        <v>2.65</v>
+      </c>
+      <c r="BI88">
+        <v>1.85</v>
+      </c>
+      <c r="BJ88">
+        <v>1.95</v>
+      </c>
+      <c r="BK88">
         <v>2.25</v>
       </c>
-      <c r="V88">
-        <v>3.75</v>
-      </c>
-      <c r="W88">
-        <v>1.25</v>
-      </c>
-      <c r="X88">
-        <v>13</v>
-      </c>
-      <c r="Y88">
-        <v>1.04</v>
-      </c>
-      <c r="Z88">
-        <v>3.2</v>
-      </c>
-      <c r="AA88">
-        <v>3.1</v>
-      </c>
-      <c r="AB88">
-        <v>2.45</v>
-      </c>
-      <c r="AC88">
-        <v>1.09</v>
-      </c>
-      <c r="AD88">
-        <v>6.83</v>
-      </c>
-      <c r="AE88">
-        <v>1.52</v>
-      </c>
-      <c r="AF88">
-        <v>2.56</v>
-      </c>
-      <c r="AG88">
-        <v>2.6</v>
-      </c>
-      <c r="AH88">
-        <v>1.48</v>
-      </c>
-      <c r="AI88">
-        <v>2.1</v>
-      </c>
-      <c r="AJ88">
-        <v>1.67</v>
-      </c>
-      <c r="AK88">
-        <v>1.7</v>
-      </c>
-      <c r="AL88">
-        <v>1.32</v>
-      </c>
-      <c r="AM88">
-        <v>1.3</v>
-      </c>
-      <c r="AN88">
-        <v>1.33</v>
-      </c>
-      <c r="AO88">
-        <v>1.33</v>
-      </c>
-      <c r="AP88">
-        <v>0.86</v>
-      </c>
-      <c r="AQ88">
-        <v>1.43</v>
-      </c>
-      <c r="AR88">
-        <v>1.49</v>
-      </c>
-      <c r="AS88">
-        <v>1.8</v>
-      </c>
-      <c r="AT88">
-        <v>3.29</v>
-      </c>
-      <c r="AU88">
-        <v>3</v>
-      </c>
-      <c r="AV88">
-        <v>5</v>
-      </c>
-      <c r="AW88">
-        <v>3</v>
-      </c>
-      <c r="AX88">
-        <v>7</v>
-      </c>
-      <c r="AY88">
-        <v>6</v>
-      </c>
-      <c r="AZ88">
-        <v>12</v>
-      </c>
-      <c r="BA88">
-        <v>6</v>
-      </c>
-      <c r="BB88">
-        <v>0</v>
-      </c>
-      <c r="BC88">
-        <v>6</v>
-      </c>
-      <c r="BD88">
-        <v>2.4</v>
-      </c>
-      <c r="BE88">
-        <v>7.7</v>
-      </c>
-      <c r="BF88">
-        <v>1.84</v>
-      </c>
-      <c r="BG88">
-        <v>1.28</v>
-      </c>
-      <c r="BH88">
-        <v>3.35</v>
-      </c>
-      <c r="BI88">
-        <v>1.53</v>
-      </c>
-      <c r="BJ88">
-        <v>2.33</v>
-      </c>
-      <c r="BK88">
-        <v>1.99</v>
-      </c>
       <c r="BL88">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="BM88">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="BN88">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="BO88">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="BP88">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -25588,7 +25588,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7345607</v>
+        <v>7345609</v>
       </c>
       <c r="C119" t="s">
         <v>68</v>
@@ -25603,10 +25603,10 @@
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H119" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -25621,64 +25621,64 @@
         <v>1</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O119" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="Q119">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S119">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="T119">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="U119">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="V119">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="W119">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="X119">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="Y119">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="Z119">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="AA119">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AB119">
-        <v>6</v>
+        <v>2.38</v>
       </c>
       <c r="AC119">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AD119">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AE119">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AF119">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AG119">
         <v>2.6</v>
@@ -25687,106 +25687,106 @@
         <v>1.48</v>
       </c>
       <c r="AI119">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AJ119">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AK119">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="AL119">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AM119">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="AN119">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AP119">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ119">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="AS119">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT119">
-        <v>3.74</v>
+        <v>3.03</v>
       </c>
       <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>3</v>
+      </c>
+      <c r="AW119">
         <v>6</v>
       </c>
-      <c r="AV119">
-        <v>3</v>
-      </c>
-      <c r="AW119">
-        <v>7</v>
-      </c>
       <c r="AX119">
         <v>2</v>
       </c>
       <c r="AY119">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ119">
         <v>5</v>
       </c>
       <c r="BA119">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB119">
         <v>3</v>
       </c>
       <c r="BC119">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD119">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="BE119">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BF119">
-        <v>3.1</v>
+        <v>2.34</v>
       </c>
       <c r="BG119">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="BH119">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="BI119">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="BJ119">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BK119">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="BL119">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="BM119">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="BN119">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BO119">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="BP119">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="120" spans="1:68">
@@ -25794,7 +25794,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7345609</v>
+        <v>7345607</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25809,10 +25809,10 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H120" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -25827,64 +25827,64 @@
         <v>1</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O120" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>98</v>
+        <v>263</v>
       </c>
       <c r="Q120">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="R120">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
+        <v>6</v>
+      </c>
+      <c r="T120">
+        <v>1.44</v>
+      </c>
+      <c r="U120">
+        <v>2.62</v>
+      </c>
+      <c r="V120">
+        <v>2.95</v>
+      </c>
+      <c r="W120">
+        <v>1.34</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.07</v>
+      </c>
+      <c r="Z120">
+        <v>1.75</v>
+      </c>
+      <c r="AA120">
         <v>3.2</v>
       </c>
-      <c r="T120">
-        <v>1.52</v>
-      </c>
-      <c r="U120">
-        <v>2.35</v>
-      </c>
-      <c r="V120">
-        <v>3.4</v>
-      </c>
-      <c r="W120">
-        <v>1.28</v>
-      </c>
-      <c r="X120">
-        <v>9.75</v>
-      </c>
-      <c r="Y120">
-        <v>1.04</v>
-      </c>
-      <c r="Z120">
-        <v>3.5</v>
-      </c>
-      <c r="AA120">
-        <v>2.9</v>
-      </c>
       <c r="AB120">
-        <v>2.38</v>
+        <v>6</v>
       </c>
       <c r="AC120">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AD120">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE120">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AF120">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AG120">
         <v>2.6</v>
@@ -25893,106 +25893,106 @@
         <v>1.48</v>
       </c>
       <c r="AI120">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ120">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AK120">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="AL120">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AM120">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="AN120">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AO120">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AP120">
+        <v>2.13</v>
+      </c>
+      <c r="AQ120">
         <v>1.14</v>
       </c>
-      <c r="AQ120">
-        <v>1.5</v>
-      </c>
       <c r="AR120">
-        <v>1.58</v>
+        <v>2.14</v>
       </c>
       <c r="AS120">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AT120">
-        <v>3.03</v>
+        <v>3.74</v>
       </c>
       <c r="AU120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV120">
         <v>3</v>
       </c>
       <c r="AW120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX120">
         <v>2</v>
       </c>
       <c r="AY120">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ120">
         <v>5</v>
       </c>
       <c r="BA120">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB120">
         <v>3</v>
       </c>
       <c r="BC120">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD120">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="BE120">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BF120">
-        <v>2.34</v>
+        <v>3.1</v>
       </c>
       <c r="BG120">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="BH120">
-        <v>2.23</v>
+        <v>2.6</v>
       </c>
       <c r="BI120">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="BJ120">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BK120">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="BL120">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="BM120">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BN120">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BO120">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="BP120">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -26000,7 +26000,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7345602</v>
+        <v>7345604</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -26015,190 +26015,190 @@
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H121" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O121" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="Q121">
-        <v>1.57</v>
+        <v>2.88</v>
       </c>
       <c r="R121">
+        <v>1.83</v>
+      </c>
+      <c r="S121">
+        <v>5</v>
+      </c>
+      <c r="T121">
+        <v>1.52</v>
+      </c>
+      <c r="U121">
+        <v>2.35</v>
+      </c>
+      <c r="V121">
+        <v>3.3</v>
+      </c>
+      <c r="W121">
+        <v>1.28</v>
+      </c>
+      <c r="X121">
+        <v>9.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.05</v>
+      </c>
+      <c r="Z121">
+        <v>2</v>
+      </c>
+      <c r="AA121">
+        <v>3</v>
+      </c>
+      <c r="AB121">
+        <v>4.33</v>
+      </c>
+      <c r="AC121">
+        <v>1.12</v>
+      </c>
+      <c r="AD121">
+        <v>5.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.53</v>
+      </c>
+      <c r="AF121">
+        <v>2.38</v>
+      </c>
+      <c r="AG121">
         <v>2.88</v>
       </c>
-      <c r="S121">
-        <v>10</v>
-      </c>
-      <c r="T121">
-        <v>1.33</v>
-      </c>
-      <c r="U121">
-        <v>3</v>
-      </c>
-      <c r="V121">
-        <v>2.6</v>
-      </c>
-      <c r="W121">
-        <v>1.42</v>
-      </c>
-      <c r="X121">
-        <v>6.5</v>
-      </c>
-      <c r="Y121">
-        <v>1.07</v>
-      </c>
-      <c r="Z121">
-        <v>1.2</v>
-      </c>
-      <c r="AA121">
-        <v>7</v>
-      </c>
-      <c r="AB121">
-        <v>15</v>
-      </c>
-      <c r="AC121">
-        <v>1.01</v>
-      </c>
-      <c r="AD121">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AE121">
-        <v>1.26</v>
-      </c>
-      <c r="AF121">
-        <v>3.34</v>
-      </c>
-      <c r="AG121">
-        <v>1.44</v>
-      </c>
       <c r="AH121">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="AI121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AJ121">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AK121">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AL121">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="AM121">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="AN121">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO121">
         <v>0.75</v>
       </c>
       <c r="AP121">
-        <v>1.88</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121">
-        <v>0.71</v>
+        <v>1.71</v>
       </c>
       <c r="AR121">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="AT121">
-        <v>3.47</v>
+        <v>2.99</v>
       </c>
       <c r="AU121">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AV121">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX121">
         <v>2</v>
       </c>
       <c r="AY121">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ121">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA121">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB121">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC121">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD121">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="BE121">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="BF121">
-        <v>4.16</v>
+        <v>2.4</v>
       </c>
       <c r="BG121">
         <v>1.31</v>
       </c>
       <c r="BH121">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BI121">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BJ121">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="BK121">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="BL121">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BM121">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="BN121">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BO121">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP121">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -26206,7 +26206,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7345604</v>
+        <v>7345602</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26221,190 +26221,190 @@
         <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O122" t="s">
+        <v>166</v>
+      </c>
+      <c r="P122" t="s">
         <v>98</v>
       </c>
-      <c r="P122" t="s">
-        <v>264</v>
-      </c>
       <c r="Q122">
+        <v>1.57</v>
+      </c>
+      <c r="R122">
         <v>2.88</v>
       </c>
-      <c r="R122">
-        <v>1.83</v>
-      </c>
       <c r="S122">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T122">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="U122">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="V122">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="W122">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="X122">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z122">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AA122">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB122">
-        <v>4.33</v>
+        <v>15</v>
       </c>
       <c r="AC122">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AD122">
-        <v>5.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE122">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="AF122">
-        <v>2.38</v>
+        <v>3.34</v>
       </c>
       <c r="AG122">
-        <v>2.88</v>
+        <v>1.44</v>
       </c>
       <c r="AH122">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="AI122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AJ122">
+        <v>1.73</v>
+      </c>
+      <c r="AK122">
+        <v>1.06</v>
+      </c>
+      <c r="AL122">
+        <v>1.15</v>
+      </c>
+      <c r="AM122">
+        <v>3.25</v>
+      </c>
+      <c r="AN122">
         <v>1.5</v>
-      </c>
-      <c r="AK122">
-        <v>1.31</v>
-      </c>
-      <c r="AL122">
-        <v>1.39</v>
-      </c>
-      <c r="AM122">
-        <v>1.55</v>
-      </c>
-      <c r="AN122">
-        <v>1</v>
       </c>
       <c r="AO122">
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>1.71</v>
+        <v>0.71</v>
       </c>
       <c r="AR122">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AS122">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="AT122">
-        <v>2.99</v>
+        <v>3.47</v>
       </c>
       <c r="AU122">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AV122">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW122">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX122">
         <v>2</v>
       </c>
       <c r="AY122">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>3</v>
+      </c>
+      <c r="BB122">
         <v>8</v>
       </c>
-      <c r="BA122">
-        <v>8</v>
-      </c>
-      <c r="BB122">
-        <v>2</v>
-      </c>
       <c r="BC122">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD122">
-        <v>1.84</v>
+        <v>1.35</v>
       </c>
       <c r="BE122">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF122">
-        <v>2.4</v>
+        <v>4.16</v>
       </c>
       <c r="BG122">
         <v>1.31</v>
       </c>
       <c r="BH122">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="BI122">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BJ122">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="BK122">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="BL122">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BM122">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="BN122">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BO122">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BP122">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -27236,7 +27236,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7345616</v>
+        <v>7345623</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27251,49 +27251,49 @@
         <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H127" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O127" t="s">
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S127">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T127">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U127">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V127">
         <v>3.75</v>
@@ -27302,139 +27302,139 @@
         <v>1.25</v>
       </c>
       <c r="X127">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y127">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z127">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="AA127">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB127">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="AC127">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD127">
-        <v>6.83</v>
+        <v>7.61</v>
       </c>
       <c r="AE127">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AF127">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="AG127">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="AH127">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AI127">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ127">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK127">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="AL127">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AM127">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AN127">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO127">
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.43</v>
+        <v>0.57</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR127">
-        <v>1.95</v>
+        <v>1.32</v>
       </c>
       <c r="AS127">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="AT127">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="AU127">
+        <v>4</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>7</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>11</v>
+      </c>
+      <c r="AZ127">
+        <v>7</v>
+      </c>
+      <c r="BA127">
         <v>5</v>
       </c>
-      <c r="AV127">
-        <v>5</v>
-      </c>
-      <c r="AW127">
-        <v>14</v>
-      </c>
-      <c r="AX127">
-        <v>1</v>
-      </c>
-      <c r="AY127">
-        <v>19</v>
-      </c>
-      <c r="AZ127">
-        <v>6</v>
-      </c>
-      <c r="BA127">
-        <v>10</v>
-      </c>
       <c r="BB127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC127">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD127">
-        <v>1.85</v>
+        <v>2.86</v>
       </c>
       <c r="BE127">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF127">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="BG127">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="BH127">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="BI127">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BJ127">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BK127">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="BL127">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="BM127">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BN127">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="BO127">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="BP127">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -27442,7 +27442,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7345623</v>
+        <v>7345616</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27457,49 +27457,49 @@
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H128" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O128" t="s">
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="Q128">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R128">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T128">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U128">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V128">
         <v>3.75</v>
@@ -27508,139 +27508,139 @@
         <v>1.25</v>
       </c>
       <c r="X128">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y128">
+        <v>1.04</v>
+      </c>
+      <c r="Z128">
+        <v>2.25</v>
+      </c>
+      <c r="AA128">
+        <v>3.2</v>
+      </c>
+      <c r="AB128">
+        <v>3.4</v>
+      </c>
+      <c r="AC128">
+        <v>1.09</v>
+      </c>
+      <c r="AD128">
+        <v>6.83</v>
+      </c>
+      <c r="AE128">
+        <v>1.49</v>
+      </c>
+      <c r="AF128">
+        <v>2.54</v>
+      </c>
+      <c r="AG128">
+        <v>2.25</v>
+      </c>
+      <c r="AH128">
+        <v>1.62</v>
+      </c>
+      <c r="AI128">
+        <v>1.91</v>
+      </c>
+      <c r="AJ128">
+        <v>1.8</v>
+      </c>
+      <c r="AK128">
+        <v>1.47</v>
+      </c>
+      <c r="AL128">
+        <v>1.37</v>
+      </c>
+      <c r="AM128">
+        <v>1.4</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>2</v>
+      </c>
+      <c r="AP128">
+        <v>1.43</v>
+      </c>
+      <c r="AQ128">
+        <v>1.5</v>
+      </c>
+      <c r="AR128">
+        <v>1.95</v>
+      </c>
+      <c r="AS128">
         <v>1.05</v>
       </c>
-      <c r="Z128">
-        <v>2.9</v>
-      </c>
-      <c r="AA128">
-        <v>3.1</v>
-      </c>
-      <c r="AB128">
-        <v>2.55</v>
-      </c>
-      <c r="AC128">
-        <v>1.07</v>
-      </c>
-      <c r="AD128">
-        <v>7.61</v>
-      </c>
-      <c r="AE128">
-        <v>1.45</v>
-      </c>
-      <c r="AF128">
-        <v>2.66</v>
-      </c>
-      <c r="AG128">
-        <v>2.7</v>
-      </c>
-      <c r="AH128">
-        <v>1.44</v>
-      </c>
-      <c r="AI128">
-        <v>2.1</v>
-      </c>
-      <c r="AJ128">
-        <v>1.67</v>
-      </c>
-      <c r="AK128">
-        <v>1.88</v>
-      </c>
-      <c r="AL128">
-        <v>1.32</v>
-      </c>
-      <c r="AM128">
-        <v>1.2</v>
-      </c>
-      <c r="AN128">
-        <v>0.25</v>
-      </c>
-      <c r="AO128">
-        <v>2</v>
-      </c>
-      <c r="AP128">
-        <v>0.57</v>
-      </c>
-      <c r="AQ128">
-        <v>1.57</v>
-      </c>
-      <c r="AR128">
-        <v>1.32</v>
-      </c>
-      <c r="AS128">
+      <c r="AT128">
+        <v>3</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>14</v>
+      </c>
+      <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128">
+        <v>19</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>10</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>13</v>
+      </c>
+      <c r="BD128">
+        <v>1.85</v>
+      </c>
+      <c r="BE128">
+        <v>8.1</v>
+      </c>
+      <c r="BF128">
+        <v>2.35</v>
+      </c>
+      <c r="BG128">
+        <v>1.16</v>
+      </c>
+      <c r="BH128">
+        <v>4.9</v>
+      </c>
+      <c r="BI128">
         <v>1.29</v>
       </c>
-      <c r="AT128">
-        <v>2.61</v>
-      </c>
-      <c r="AU128">
-        <v>4</v>
-      </c>
-      <c r="AV128">
-        <v>3</v>
-      </c>
-      <c r="AW128">
-        <v>7</v>
-      </c>
-      <c r="AX128">
-        <v>4</v>
-      </c>
-      <c r="AY128">
-        <v>11</v>
-      </c>
-      <c r="AZ128">
-        <v>7</v>
-      </c>
-      <c r="BA128">
-        <v>5</v>
-      </c>
-      <c r="BB128">
-        <v>4</v>
-      </c>
-      <c r="BC128">
-        <v>9</v>
-      </c>
-      <c r="BD128">
-        <v>2.86</v>
-      </c>
-      <c r="BE128">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF128">
-        <v>1.6</v>
-      </c>
-      <c r="BG128">
-        <v>1.22</v>
-      </c>
-      <c r="BH128">
-        <v>4</v>
-      </c>
-      <c r="BI128">
-        <v>1.41</v>
-      </c>
       <c r="BJ128">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BK128">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="BL128">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="BM128">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BN128">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BO128">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="BP128">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -28308,7 +28308,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28678,7 +28678,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7345613</v>
+        <v>7345621</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28693,28 +28693,28 @@
         <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H134" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>1</v>
       </c>
       <c r="K134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <v>1</v>
       </c>
       <c r="N134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O134" t="s">
         <v>172</v>
@@ -28723,130 +28723,130 @@
         <v>267</v>
       </c>
       <c r="Q134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S134">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T134">
+        <v>1.62</v>
+      </c>
+      <c r="U134">
+        <v>2.2</v>
+      </c>
+      <c r="V134">
+        <v>4</v>
+      </c>
+      <c r="W134">
+        <v>1.22</v>
+      </c>
+      <c r="X134">
+        <v>13</v>
+      </c>
+      <c r="Y134">
+        <v>1.04</v>
+      </c>
+      <c r="Z134">
+        <v>2.25</v>
+      </c>
+      <c r="AA134">
+        <v>3</v>
+      </c>
+      <c r="AB134">
+        <v>3.75</v>
+      </c>
+      <c r="AC134">
+        <v>1.11</v>
+      </c>
+      <c r="AD134">
+        <v>6.28</v>
+      </c>
+      <c r="AE134">
+        <v>1.57</v>
+      </c>
+      <c r="AF134">
+        <v>2.43</v>
+      </c>
+      <c r="AG134">
+        <v>2.5</v>
+      </c>
+      <c r="AH134">
         <v>1.5</v>
       </c>
-      <c r="U134">
-        <v>2.5</v>
-      </c>
-      <c r="V134">
-        <v>3.5</v>
-      </c>
-      <c r="W134">
-        <v>1.29</v>
-      </c>
-      <c r="X134">
-        <v>11</v>
-      </c>
-      <c r="Y134">
-        <v>1.05</v>
-      </c>
-      <c r="Z134">
-        <v>2.05</v>
-      </c>
-      <c r="AA134">
-        <v>3.1</v>
-      </c>
-      <c r="AB134">
-        <v>4.2</v>
-      </c>
-      <c r="AC134">
-        <v>1.06</v>
-      </c>
-      <c r="AD134">
-        <v>8.09</v>
-      </c>
-      <c r="AE134">
-        <v>1.45</v>
-      </c>
-      <c r="AF134">
-        <v>2.66</v>
-      </c>
-      <c r="AG134">
-        <v>2.25</v>
-      </c>
-      <c r="AH134">
-        <v>1.62</v>
-      </c>
       <c r="AI134">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ134">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK134">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AL134">
+        <v>1.32</v>
+      </c>
+      <c r="AM134">
+        <v>1.78</v>
+      </c>
+      <c r="AN134">
         <v>1.25</v>
       </c>
-      <c r="AM134">
-        <v>2.15</v>
-      </c>
-      <c r="AN134">
-        <v>1.75</v>
-      </c>
       <c r="AO134">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="AP134">
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>0.29</v>
+        <v>1.71</v>
       </c>
       <c r="AR134">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="AT134">
-        <v>3.57</v>
+        <v>2.86</v>
       </c>
       <c r="AU134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV134">
         <v>5</v>
       </c>
       <c r="AW134">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX134">
         <v>6</v>
       </c>
       <c r="AY134">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ134">
         <v>11</v>
       </c>
       <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
         <v>4</v>
       </c>
-      <c r="BB134">
-        <v>9</v>
-      </c>
       <c r="BC134">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD134">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="BE134">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BF134">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="BG134">
         <v>1.27</v>
@@ -28855,16 +28855,16 @@
         <v>3.55</v>
       </c>
       <c r="BI134">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BJ134">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="BK134">
         <v>2.38</v>
       </c>
       <c r="BL134">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BM134">
         <v>2.37</v>
@@ -28884,7 +28884,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7345621</v>
+        <v>7345613</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H135" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135">
         <v>1</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M135">
         <v>1</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O135" t="s">
         <v>173</v>
@@ -28929,130 +28929,130 @@
         <v>268</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R135">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T135">
+        <v>1.5</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>3.5</v>
+      </c>
+      <c r="W135">
+        <v>1.29</v>
+      </c>
+      <c r="X135">
+        <v>11</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>2.05</v>
+      </c>
+      <c r="AA135">
+        <v>3.1</v>
+      </c>
+      <c r="AB135">
+        <v>4.2</v>
+      </c>
+      <c r="AC135">
+        <v>1.06</v>
+      </c>
+      <c r="AD135">
+        <v>8.09</v>
+      </c>
+      <c r="AE135">
+        <v>1.45</v>
+      </c>
+      <c r="AF135">
+        <v>2.66</v>
+      </c>
+      <c r="AG135">
+        <v>2.25</v>
+      </c>
+      <c r="AH135">
         <v>1.62</v>
       </c>
-      <c r="U135">
-        <v>2.2</v>
-      </c>
-      <c r="V135">
-        <v>4</v>
-      </c>
-      <c r="W135">
-        <v>1.22</v>
-      </c>
-      <c r="X135">
-        <v>13</v>
-      </c>
-      <c r="Y135">
-        <v>1.04</v>
-      </c>
-      <c r="Z135">
-        <v>2.25</v>
-      </c>
-      <c r="AA135">
-        <v>3</v>
-      </c>
-      <c r="AB135">
-        <v>3.75</v>
-      </c>
-      <c r="AC135">
-        <v>1.11</v>
-      </c>
-      <c r="AD135">
-        <v>6.28</v>
-      </c>
-      <c r="AE135">
-        <v>1.57</v>
-      </c>
-      <c r="AF135">
-        <v>2.43</v>
-      </c>
-      <c r="AG135">
-        <v>2.5</v>
-      </c>
-      <c r="AH135">
-        <v>1.5</v>
-      </c>
       <c r="AI135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ135">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK135">
+        <v>1.16</v>
+      </c>
+      <c r="AL135">
         <v>1.25</v>
       </c>
-      <c r="AL135">
-        <v>1.32</v>
-      </c>
       <c r="AM135">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="AN135">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO135">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AP135">
         <v>2</v>
       </c>
       <c r="AQ135">
-        <v>1.71</v>
+        <v>0.29</v>
       </c>
       <c r="AR135">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="AS135">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="AT135">
-        <v>2.86</v>
+        <v>3.57</v>
       </c>
       <c r="AU135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV135">
         <v>5</v>
       </c>
       <c r="AW135">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX135">
         <v>6</v>
       </c>
       <c r="AY135">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ135">
         <v>11</v>
       </c>
       <c r="BA135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB135">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC135">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD135">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="BE135">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF135">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="BG135">
         <v>1.27</v>
@@ -29061,16 +29061,16 @@
         <v>3.55</v>
       </c>
       <c r="BI135">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BJ135">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="BK135">
         <v>2.38</v>
       </c>
       <c r="BL135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BM135">
         <v>2.37</v>
@@ -33622,7 +33622,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7345650</v>
+        <v>7345647</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33637,130 +33637,130 @@
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H158" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L158">
         <v>1</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O158" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>3.6</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S158">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T158">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="U158">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="V158">
-        <v>3.41</v>
+        <v>3.68</v>
       </c>
       <c r="W158">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="X158">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y158">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z158">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AA158">
         <v>3.1</v>
       </c>
       <c r="AB158">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AC158">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AD158">
-        <v>7.15</v>
+        <v>6.28</v>
       </c>
       <c r="AE158">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AF158">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="AG158">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AH158">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AI158">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ158">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK158">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AL158">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AM158">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AN158">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AO158">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="AQ158">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR158">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AS158">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AT158">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="AU158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV158">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW158">
         <v>5</v>
@@ -33769,58 +33769,58 @@
         <v>5</v>
       </c>
       <c r="AY158">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ158">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
         <v>4</v>
       </c>
-      <c r="BB158">
+      <c r="BC158">
         <v>9</v>
       </c>
-      <c r="BC158">
-        <v>13</v>
-      </c>
       <c r="BD158">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BE158">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="BF158">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="BG158">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="BH158">
-        <v>3.55</v>
+        <v>2.77</v>
       </c>
       <c r="BI158">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BJ158">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="BK158">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="BL158">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="BM158">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="BN158">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BO158">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="BP158">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33828,7 +33828,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7345647</v>
+        <v>7345650</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33843,130 +33843,130 @@
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H159" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L159">
         <v>1</v>
       </c>
       <c r="M159">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
       </c>
       <c r="R159">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T159">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="U159">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="V159">
-        <v>3.68</v>
+        <v>3.41</v>
       </c>
       <c r="W159">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="X159">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y159">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z159">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AA159">
         <v>3.1</v>
       </c>
       <c r="AB159">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="AC159">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AD159">
-        <v>6.28</v>
+        <v>7.15</v>
       </c>
       <c r="AE159">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AF159">
-        <v>2.48</v>
+        <v>2.69</v>
       </c>
       <c r="AG159">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AH159">
+        <v>1.57</v>
+      </c>
+      <c r="AI159">
+        <v>1.91</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
         <v>1.5</v>
       </c>
-      <c r="AI159">
-        <v>2.1</v>
-      </c>
-      <c r="AJ159">
-        <v>1.67</v>
-      </c>
-      <c r="AK159">
-        <v>1.52</v>
-      </c>
       <c r="AL159">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AM159">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AN159">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AO159">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="AP159">
-        <v>0.57</v>
+        <v>2</v>
       </c>
       <c r="AQ159">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AR159">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AS159">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="AT159">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="AU159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV159">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW159">
         <v>5</v>
@@ -33975,58 +33975,58 @@
         <v>5</v>
       </c>
       <c r="AY159">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ159">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB159">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC159">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD159">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BE159">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="BF159">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="BG159">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="BH159">
-        <v>2.77</v>
+        <v>3.55</v>
       </c>
       <c r="BI159">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="BJ159">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="BK159">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="BL159">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="BM159">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="BN159">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="BO159">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="BP159">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -34858,7 +34858,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7345652</v>
+        <v>7345643</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34873,130 +34873,130 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H164" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M164">
         <v>1</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O164" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="P164" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q164">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="R164">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="T164">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="U164">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V164">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W164">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X164">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y164">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z164">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB164">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="AC164">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AD164">
-        <v>5.78</v>
+        <v>7.61</v>
       </c>
       <c r="AE164">
+        <v>1.45</v>
+      </c>
+      <c r="AF164">
+        <v>2.66</v>
+      </c>
+      <c r="AG164">
+        <v>2.4</v>
+      </c>
+      <c r="AH164">
+        <v>1.53</v>
+      </c>
+      <c r="AI164">
+        <v>2.2</v>
+      </c>
+      <c r="AJ164">
         <v>1.62</v>
       </c>
-      <c r="AF164">
-        <v>2.25</v>
-      </c>
-      <c r="AG164">
-        <v>3.1</v>
-      </c>
-      <c r="AH164">
-        <v>1.36</v>
-      </c>
-      <c r="AI164">
-        <v>2.38</v>
-      </c>
-      <c r="AJ164">
-        <v>1.53</v>
-      </c>
       <c r="AK164">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="AL164">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AM164">
-        <v>1.33</v>
+        <v>1.96</v>
       </c>
       <c r="AN164">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP164">
-        <v>0.57</v>
+        <v>1.43</v>
       </c>
       <c r="AQ164">
-        <v>1.86</v>
+        <v>0.86</v>
       </c>
       <c r="AR164">
-        <v>1.35</v>
+        <v>1.98</v>
       </c>
       <c r="AS164">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AT164">
-        <v>2.55</v>
+        <v>3.04</v>
       </c>
       <c r="AU164">
         <v>6</v>
       </c>
       <c r="AV164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW164">
         <v>8</v>
@@ -35008,52 +35008,52 @@
         <v>14</v>
       </c>
       <c r="AZ164">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA164">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB164">
         <v>4</v>
       </c>
       <c r="BC164">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD164">
-        <v>2.27</v>
+        <v>1.47</v>
       </c>
       <c r="BE164">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF164">
-        <v>1.9</v>
+        <v>3.45</v>
       </c>
       <c r="BG164">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BH164">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BI164">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BJ164">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="BK164">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="BL164">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="BM164">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="BN164">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="BO164">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BP164">
         <v>1.29</v>
@@ -35064,7 +35064,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7345643</v>
+        <v>7345652</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35079,130 +35079,130 @@
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H165" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M165">
         <v>1</v>
       </c>
       <c r="N165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O165" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="P165" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="Q165">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S165">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="T165">
+        <v>1.67</v>
+      </c>
+      <c r="U165">
+        <v>2.1</v>
+      </c>
+      <c r="V165">
+        <v>4</v>
+      </c>
+      <c r="W165">
+        <v>1.22</v>
+      </c>
+      <c r="X165">
+        <v>15</v>
+      </c>
+      <c r="Y165">
+        <v>1.03</v>
+      </c>
+      <c r="Z165">
+        <v>3.25</v>
+      </c>
+      <c r="AA165">
+        <v>3.1</v>
+      </c>
+      <c r="AB165">
+        <v>2.38</v>
+      </c>
+      <c r="AC165">
+        <v>1.12</v>
+      </c>
+      <c r="AD165">
+        <v>5.78</v>
+      </c>
+      <c r="AE165">
+        <v>1.62</v>
+      </c>
+      <c r="AF165">
+        <v>2.25</v>
+      </c>
+      <c r="AG165">
+        <v>3.1</v>
+      </c>
+      <c r="AH165">
+        <v>1.36</v>
+      </c>
+      <c r="AI165">
+        <v>2.38</v>
+      </c>
+      <c r="AJ165">
         <v>1.53</v>
       </c>
-      <c r="U165">
-        <v>2.38</v>
-      </c>
-      <c r="V165">
-        <v>3.5</v>
-      </c>
-      <c r="W165">
-        <v>1.29</v>
-      </c>
-      <c r="X165">
-        <v>11</v>
-      </c>
-      <c r="Y165">
-        <v>1.05</v>
-      </c>
-      <c r="Z165">
-        <v>1.8</v>
-      </c>
-      <c r="AA165">
-        <v>3.4</v>
-      </c>
-      <c r="AB165">
-        <v>5</v>
-      </c>
-      <c r="AC165">
-        <v>1.07</v>
-      </c>
-      <c r="AD165">
-        <v>7.61</v>
-      </c>
-      <c r="AE165">
-        <v>1.45</v>
-      </c>
-      <c r="AF165">
-        <v>2.66</v>
-      </c>
-      <c r="AG165">
-        <v>2.4</v>
-      </c>
-      <c r="AH165">
-        <v>1.53</v>
-      </c>
-      <c r="AI165">
-        <v>2.2</v>
-      </c>
-      <c r="AJ165">
-        <v>1.62</v>
-      </c>
       <c r="AK165">
+        <v>1.58</v>
+      </c>
+      <c r="AL165">
+        <v>1.36</v>
+      </c>
+      <c r="AM165">
+        <v>1.33</v>
+      </c>
+      <c r="AN165">
+        <v>0.8</v>
+      </c>
+      <c r="AO165">
+        <v>2</v>
+      </c>
+      <c r="AP165">
+        <v>0.57</v>
+      </c>
+      <c r="AQ165">
+        <v>1.86</v>
+      </c>
+      <c r="AR165">
+        <v>1.35</v>
+      </c>
+      <c r="AS165">
         <v>1.2</v>
       </c>
-      <c r="AL165">
-        <v>1.28</v>
-      </c>
-      <c r="AM165">
-        <v>1.96</v>
-      </c>
-      <c r="AN165">
-        <v>1.4</v>
-      </c>
-      <c r="AO165">
-        <v>1</v>
-      </c>
-      <c r="AP165">
-        <v>1.43</v>
-      </c>
-      <c r="AQ165">
-        <v>0.86</v>
-      </c>
-      <c r="AR165">
-        <v>1.98</v>
-      </c>
-      <c r="AS165">
-        <v>1.06</v>
-      </c>
       <c r="AT165">
-        <v>3.04</v>
+        <v>2.55</v>
       </c>
       <c r="AU165">
         <v>6</v>
       </c>
       <c r="AV165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW165">
         <v>8</v>
@@ -35214,52 +35214,52 @@
         <v>14</v>
       </c>
       <c r="AZ165">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA165">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB165">
         <v>4</v>
       </c>
       <c r="BC165">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD165">
-        <v>1.47</v>
+        <v>2.27</v>
       </c>
       <c r="BE165">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="BF165">
-        <v>3.45</v>
+        <v>1.9</v>
       </c>
       <c r="BG165">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BH165">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BI165">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BJ165">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="BK165">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="BL165">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="BM165">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="BN165">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="BO165">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BP165">
         <v>1.29</v>
@@ -36506,7 +36506,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7345665</v>
+        <v>7345664</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36521,190 +36521,190 @@
         <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H172" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N172">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O172" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="Q172">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="R172">
+        <v>1.91</v>
+      </c>
+      <c r="S172">
+        <v>3.75</v>
+      </c>
+      <c r="T172">
+        <v>1.62</v>
+      </c>
+      <c r="U172">
         <v>2.2</v>
       </c>
-      <c r="S172">
-        <v>7.5</v>
-      </c>
-      <c r="T172">
+      <c r="V172">
+        <v>4</v>
+      </c>
+      <c r="W172">
+        <v>1.22</v>
+      </c>
+      <c r="X172">
+        <v>13</v>
+      </c>
+      <c r="Y172">
+        <v>1.04</v>
+      </c>
+      <c r="Z172">
+        <v>2.5</v>
+      </c>
+      <c r="AA172">
+        <v>3.1</v>
+      </c>
+      <c r="AB172">
+        <v>3</v>
+      </c>
+      <c r="AC172">
+        <v>1.11</v>
+      </c>
+      <c r="AD172">
+        <v>6.28</v>
+      </c>
+      <c r="AE172">
+        <v>1.57</v>
+      </c>
+      <c r="AF172">
+        <v>2.41</v>
+      </c>
+      <c r="AG172">
+        <v>2.7</v>
+      </c>
+      <c r="AH172">
         <v>1.44</v>
       </c>
-      <c r="U172">
-        <v>2.63</v>
-      </c>
-      <c r="V172">
-        <v>3.25</v>
-      </c>
-      <c r="W172">
-        <v>1.33</v>
-      </c>
-      <c r="X172">
+      <c r="AI172">
+        <v>2.2</v>
+      </c>
+      <c r="AJ172">
+        <v>1.62</v>
+      </c>
+      <c r="AK172">
+        <v>1.28</v>
+      </c>
+      <c r="AL172">
+        <v>1.32</v>
+      </c>
+      <c r="AM172">
+        <v>1.7</v>
+      </c>
+      <c r="AN172">
+        <v>1.83</v>
+      </c>
+      <c r="AO172">
+        <v>1.5</v>
+      </c>
+      <c r="AP172">
+        <v>1.57</v>
+      </c>
+      <c r="AQ172">
+        <v>1.63</v>
+      </c>
+      <c r="AR172">
+        <v>1.58</v>
+      </c>
+      <c r="AS172">
+        <v>1.36</v>
+      </c>
+      <c r="AT172">
+        <v>2.94</v>
+      </c>
+      <c r="AU172">
+        <v>2</v>
+      </c>
+      <c r="AV172">
+        <v>7</v>
+      </c>
+      <c r="AW172">
+        <v>8</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
         <v>10</v>
       </c>
-      <c r="Y172">
-        <v>1.06</v>
-      </c>
-      <c r="Z172">
-        <v>1.45</v>
-      </c>
-      <c r="AA172">
-        <v>4</v>
-      </c>
-      <c r="AB172">
-        <v>8.5</v>
-      </c>
-      <c r="AC172">
-        <v>1.06</v>
-      </c>
-      <c r="AD172">
-        <v>8.27</v>
-      </c>
-      <c r="AE172">
-        <v>1.39</v>
-      </c>
-      <c r="AF172">
-        <v>2.91</v>
-      </c>
-      <c r="AG172">
-        <v>2.15</v>
-      </c>
-      <c r="AH172">
-        <v>1.67</v>
-      </c>
-      <c r="AI172">
-        <v>2.38</v>
-      </c>
-      <c r="AJ172">
-        <v>1.53</v>
-      </c>
-      <c r="AK172">
-        <v>1.1</v>
-      </c>
-      <c r="AL172">
-        <v>1.22</v>
-      </c>
-      <c r="AM172">
-        <v>2.5</v>
-      </c>
-      <c r="AN172">
-        <v>2</v>
-      </c>
-      <c r="AO172">
-        <v>0.83</v>
-      </c>
-      <c r="AP172">
-        <v>2.13</v>
-      </c>
-      <c r="AQ172">
-        <v>0.71</v>
-      </c>
-      <c r="AR172">
-        <v>2.1</v>
-      </c>
-      <c r="AS172">
-        <v>1.07</v>
-      </c>
-      <c r="AT172">
-        <v>3.17</v>
-      </c>
-      <c r="AU172">
-        <v>15</v>
-      </c>
-      <c r="AV172">
-        <v>2</v>
-      </c>
-      <c r="AW172">
+      <c r="AZ172">
+        <v>10</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
         <v>7</v>
       </c>
-      <c r="AX172">
-        <v>6</v>
-      </c>
-      <c r="AY172">
-        <v>22</v>
-      </c>
-      <c r="AZ172">
-        <v>8</v>
-      </c>
-      <c r="BA172">
-        <v>7</v>
-      </c>
-      <c r="BB172">
-        <v>2</v>
-      </c>
-      <c r="BC172">
-        <v>9</v>
-      </c>
       <c r="BD172">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="BE172">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF172">
-        <v>3.75</v>
+        <v>2.81</v>
       </c>
       <c r="BG172">
         <v>1.36</v>
       </c>
       <c r="BH172">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="BI172">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="BJ172">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="BK172">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="BL172">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BM172">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BN172">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BO172">
         <v>4.1</v>
       </c>
       <c r="BP172">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36712,7 +36712,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7345664</v>
+        <v>7345665</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36727,190 +36727,190 @@
         <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H173" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O173" t="s">
+        <v>195</v>
+      </c>
+      <c r="P173" t="s">
         <v>98</v>
       </c>
-      <c r="P173" t="s">
-        <v>284</v>
-      </c>
       <c r="Q173">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="R173">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S173">
+        <v>7.5</v>
+      </c>
+      <c r="T173">
+        <v>1.44</v>
+      </c>
+      <c r="U173">
+        <v>2.63</v>
+      </c>
+      <c r="V173">
+        <v>3.25</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>10</v>
+      </c>
+      <c r="Y173">
+        <v>1.06</v>
+      </c>
+      <c r="Z173">
+        <v>1.45</v>
+      </c>
+      <c r="AA173">
+        <v>4</v>
+      </c>
+      <c r="AB173">
+        <v>8.5</v>
+      </c>
+      <c r="AC173">
+        <v>1.06</v>
+      </c>
+      <c r="AD173">
+        <v>8.27</v>
+      </c>
+      <c r="AE173">
+        <v>1.39</v>
+      </c>
+      <c r="AF173">
+        <v>2.91</v>
+      </c>
+      <c r="AG173">
+        <v>2.15</v>
+      </c>
+      <c r="AH173">
+        <v>1.67</v>
+      </c>
+      <c r="AI173">
+        <v>2.38</v>
+      </c>
+      <c r="AJ173">
+        <v>1.53</v>
+      </c>
+      <c r="AK173">
+        <v>1.1</v>
+      </c>
+      <c r="AL173">
+        <v>1.22</v>
+      </c>
+      <c r="AM173">
+        <v>2.5</v>
+      </c>
+      <c r="AN173">
+        <v>2</v>
+      </c>
+      <c r="AO173">
+        <v>0.83</v>
+      </c>
+      <c r="AP173">
+        <v>2.13</v>
+      </c>
+      <c r="AQ173">
+        <v>0.71</v>
+      </c>
+      <c r="AR173">
+        <v>2.1</v>
+      </c>
+      <c r="AS173">
+        <v>1.07</v>
+      </c>
+      <c r="AT173">
+        <v>3.17</v>
+      </c>
+      <c r="AU173">
+        <v>15</v>
+      </c>
+      <c r="AV173">
+        <v>2</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>6</v>
+      </c>
+      <c r="AY173">
+        <v>22</v>
+      </c>
+      <c r="AZ173">
+        <v>8</v>
+      </c>
+      <c r="BA173">
+        <v>7</v>
+      </c>
+      <c r="BB173">
+        <v>2</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.42</v>
+      </c>
+      <c r="BE173">
+        <v>8.4</v>
+      </c>
+      <c r="BF173">
         <v>3.75</v>
-      </c>
-      <c r="T173">
-        <v>1.62</v>
-      </c>
-      <c r="U173">
-        <v>2.2</v>
-      </c>
-      <c r="V173">
-        <v>4</v>
-      </c>
-      <c r="W173">
-        <v>1.22</v>
-      </c>
-      <c r="X173">
-        <v>13</v>
-      </c>
-      <c r="Y173">
-        <v>1.04</v>
-      </c>
-      <c r="Z173">
-        <v>2.5</v>
-      </c>
-      <c r="AA173">
-        <v>3.1</v>
-      </c>
-      <c r="AB173">
-        <v>3</v>
-      </c>
-      <c r="AC173">
-        <v>1.11</v>
-      </c>
-      <c r="AD173">
-        <v>6.28</v>
-      </c>
-      <c r="AE173">
-        <v>1.57</v>
-      </c>
-      <c r="AF173">
-        <v>2.41</v>
-      </c>
-      <c r="AG173">
-        <v>2.7</v>
-      </c>
-      <c r="AH173">
-        <v>1.44</v>
-      </c>
-      <c r="AI173">
-        <v>2.2</v>
-      </c>
-      <c r="AJ173">
-        <v>1.62</v>
-      </c>
-      <c r="AK173">
-        <v>1.28</v>
-      </c>
-      <c r="AL173">
-        <v>1.32</v>
-      </c>
-      <c r="AM173">
-        <v>1.7</v>
-      </c>
-      <c r="AN173">
-        <v>1.83</v>
-      </c>
-      <c r="AO173">
-        <v>1.5</v>
-      </c>
-      <c r="AP173">
-        <v>1.57</v>
-      </c>
-      <c r="AQ173">
-        <v>1.63</v>
-      </c>
-      <c r="AR173">
-        <v>1.58</v>
-      </c>
-      <c r="AS173">
-        <v>1.36</v>
-      </c>
-      <c r="AT173">
-        <v>2.94</v>
-      </c>
-      <c r="AU173">
-        <v>2</v>
-      </c>
-      <c r="AV173">
-        <v>7</v>
-      </c>
-      <c r="AW173">
-        <v>8</v>
-      </c>
-      <c r="AX173">
-        <v>3</v>
-      </c>
-      <c r="AY173">
-        <v>10</v>
-      </c>
-      <c r="AZ173">
-        <v>10</v>
-      </c>
-      <c r="BA173">
-        <v>6</v>
-      </c>
-      <c r="BB173">
-        <v>1</v>
-      </c>
-      <c r="BC173">
-        <v>7</v>
-      </c>
-      <c r="BD173">
-        <v>1.62</v>
-      </c>
-      <c r="BE173">
-        <v>8.6</v>
-      </c>
-      <c r="BF173">
-        <v>2.81</v>
       </c>
       <c r="BG173">
         <v>1.36</v>
       </c>
       <c r="BH173">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="BI173">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="BJ173">
+        <v>2.12</v>
+      </c>
+      <c r="BK173">
         <v>2.15</v>
       </c>
-      <c r="BK173">
-        <v>2.38</v>
-      </c>
       <c r="BL173">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BM173">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BN173">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BO173">
         <v>4.1</v>
       </c>
       <c r="BP173">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -36918,7 +36918,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7345667</v>
+        <v>7345660</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36933,190 +36933,190 @@
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H174" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L174">
         <v>1</v>
       </c>
       <c r="M174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O174" t="s">
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="Q174">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="R174">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="S174">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T174">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="U174">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="V174">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>8</v>
+      </c>
+      <c r="Y174">
+        <v>1.08</v>
+      </c>
+      <c r="Z174">
+        <v>1.44</v>
+      </c>
+      <c r="AA174">
+        <v>4.2</v>
+      </c>
+      <c r="AB174">
+        <v>8.5</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>9.4</v>
+      </c>
+      <c r="AE174">
         <v>1.25</v>
       </c>
-      <c r="X174">
-        <v>11</v>
-      </c>
-      <c r="Y174">
-        <v>1.05</v>
-      </c>
-      <c r="Z174">
-        <v>1.75</v>
-      </c>
-      <c r="AA174">
-        <v>3.3</v>
-      </c>
-      <c r="AB174">
-        <v>5.25</v>
-      </c>
-      <c r="AC174">
-        <v>0</v>
-      </c>
-      <c r="AD174">
-        <v>0</v>
-      </c>
-      <c r="AE174">
-        <v>1.56</v>
-      </c>
       <c r="AF174">
-        <v>2.48</v>
+        <v>3.42</v>
       </c>
       <c r="AG174">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AH174">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AI174">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AJ174">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AK174">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AL174">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM174">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AN174">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO174">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP174">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AQ174">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AR174">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="AS174">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AT174">
-        <v>2.87</v>
+        <v>3.42</v>
       </c>
       <c r="AU174">
         <v>6</v>
       </c>
       <c r="AV174">
+        <v>4</v>
+      </c>
+      <c r="AW174">
+        <v>11</v>
+      </c>
+      <c r="AX174">
+        <v>1</v>
+      </c>
+      <c r="AY174">
+        <v>17</v>
+      </c>
+      <c r="AZ174">
         <v>5</v>
       </c>
-      <c r="AW174">
-        <v>8</v>
-      </c>
-      <c r="AX174">
-        <v>5</v>
-      </c>
-      <c r="AY174">
-        <v>14</v>
-      </c>
-      <c r="AZ174">
-        <v>10</v>
-      </c>
       <c r="BA174">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC174">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BD174">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BE174">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="BF174">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BG174">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BH174">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="BI174">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BJ174">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BK174">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BL174">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BM174">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="BN174">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BO174">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BP174">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -37124,7 +37124,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7345660</v>
+        <v>7345667</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37139,190 +37139,190 @@
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H175" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L175">
         <v>1</v>
       </c>
       <c r="M175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O175" t="s">
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="Q175">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>5.5</v>
+      </c>
+      <c r="T175">
+        <v>1.53</v>
+      </c>
+      <c r="U175">
         <v>2.38</v>
       </c>
-      <c r="S175">
-        <v>6.5</v>
-      </c>
-      <c r="T175">
-        <v>1.36</v>
-      </c>
-      <c r="U175">
-        <v>3</v>
-      </c>
       <c r="V175">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="W175">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="X175">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y175">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z175">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AA175">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB175">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="AC175">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD175">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AE175">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AF175">
-        <v>3.42</v>
+        <v>2.48</v>
       </c>
       <c r="AG175">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AH175">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AI175">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AJ175">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AK175">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AL175">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AM175">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AN175">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO175">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AQ175">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR175">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="AS175">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AT175">
-        <v>3.42</v>
+        <v>2.87</v>
       </c>
       <c r="AU175">
         <v>6</v>
       </c>
       <c r="AV175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW175">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY175">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ175">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA175">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC175">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD175">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BE175">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="BF175">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="BG175">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BH175">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="BI175">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="BJ175">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="BK175">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL175">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BM175">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="BN175">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BO175">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BP175">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37330,7 +37330,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7345655</v>
+        <v>7345658</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37345,19 +37345,19 @@
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H176" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L176">
         <v>3</v>
@@ -37375,160 +37375,160 @@
         <v>286</v>
       </c>
       <c r="Q176">
+        <v>2.63</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>4.5</v>
+      </c>
+      <c r="T176">
+        <v>1.53</v>
+      </c>
+      <c r="U176">
+        <v>2.38</v>
+      </c>
+      <c r="V176">
         <v>3.75</v>
       </c>
-      <c r="R176">
+      <c r="W176">
+        <v>1.25</v>
+      </c>
+      <c r="X176">
+        <v>11</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>1.95</v>
+      </c>
+      <c r="AA176">
+        <v>3.2</v>
+      </c>
+      <c r="AB176">
+        <v>4.5</v>
+      </c>
+      <c r="AC176">
+        <v>1.08</v>
+      </c>
+      <c r="AD176">
+        <v>7.15</v>
+      </c>
+      <c r="AE176">
+        <v>1.47</v>
+      </c>
+      <c r="AF176">
+        <v>2.59</v>
+      </c>
+      <c r="AG176">
+        <v>2.2</v>
+      </c>
+      <c r="AH176">
+        <v>1.65</v>
+      </c>
+      <c r="AI176">
         <v>1.91</v>
       </c>
-      <c r="S176">
-        <v>3.4</v>
-      </c>
-      <c r="T176">
-        <v>1.62</v>
-      </c>
-      <c r="U176">
-        <v>2.2</v>
-      </c>
-      <c r="V176">
+      <c r="AJ176">
+        <v>1.8</v>
+      </c>
+      <c r="AK176">
+        <v>1.22</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.92</v>
+      </c>
+      <c r="AN176">
+        <v>0.83</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>1.14</v>
+      </c>
+      <c r="AQ176">
+        <v>0.86</v>
+      </c>
+      <c r="AR176">
+        <v>1.88</v>
+      </c>
+      <c r="AS176">
+        <v>1.29</v>
+      </c>
+      <c r="AT176">
+        <v>3.17</v>
+      </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
+      <c r="AV176">
         <v>4</v>
       </c>
-      <c r="W176">
-        <v>1.22</v>
-      </c>
-      <c r="X176">
-        <v>13</v>
-      </c>
-      <c r="Y176">
-        <v>1.04</v>
-      </c>
-      <c r="Z176">
-        <v>2.9</v>
-      </c>
-      <c r="AA176">
-        <v>3.1</v>
-      </c>
-      <c r="AB176">
-        <v>2.6</v>
-      </c>
-      <c r="AC176">
-        <v>1.12</v>
-      </c>
-      <c r="AD176">
-        <v>5.5</v>
-      </c>
-      <c r="AE176">
-        <v>1.56</v>
-      </c>
-      <c r="AF176">
-        <v>2.44</v>
-      </c>
-      <c r="AG176">
-        <v>2.5</v>
-      </c>
-      <c r="AH176">
-        <v>1.5</v>
-      </c>
-      <c r="AI176">
-        <v>2.1</v>
-      </c>
-      <c r="AJ176">
-        <v>1.67</v>
-      </c>
-      <c r="AK176">
-        <v>1.5</v>
-      </c>
-      <c r="AL176">
-        <v>1.35</v>
-      </c>
-      <c r="AM176">
-        <v>1.44</v>
-      </c>
-      <c r="AN176">
-        <v>1.83</v>
-      </c>
-      <c r="AO176">
-        <v>1.8</v>
-      </c>
-      <c r="AP176">
-        <v>2</v>
-      </c>
-      <c r="AQ176">
-        <v>1.5</v>
-      </c>
-      <c r="AR176">
-        <v>1.55</v>
-      </c>
-      <c r="AS176">
-        <v>1.45</v>
-      </c>
-      <c r="AT176">
-        <v>3</v>
-      </c>
-      <c r="AU176">
+      <c r="AW176">
         <v>7</v>
       </c>
-      <c r="AV176">
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>15</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
         <v>6</v>
       </c>
-      <c r="AW176">
-        <v>3</v>
-      </c>
-      <c r="AX176">
-        <v>14</v>
-      </c>
-      <c r="AY176">
-        <v>10</v>
-      </c>
-      <c r="AZ176">
-        <v>20</v>
-      </c>
-      <c r="BA176">
-        <v>4</v>
-      </c>
       <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
         <v>8</v>
       </c>
-      <c r="BC176">
-        <v>12</v>
-      </c>
       <c r="BD176">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="BE176">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="BF176">
-        <v>2.05</v>
+        <v>2.86</v>
       </c>
       <c r="BG176">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="BH176">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="BI176">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="BJ176">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="BK176">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BL176">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="BM176">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="BN176">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="BO176">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="BP176">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -37536,7 +37536,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7345658</v>
+        <v>7345655</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37551,19 +37551,19 @@
         <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H177" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>3</v>
@@ -37581,160 +37581,160 @@
         <v>287</v>
       </c>
       <c r="Q177">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="R177">
+        <v>1.91</v>
+      </c>
+      <c r="S177">
+        <v>3.4</v>
+      </c>
+      <c r="T177">
+        <v>1.62</v>
+      </c>
+      <c r="U177">
+        <v>2.2</v>
+      </c>
+      <c r="V177">
+        <v>4</v>
+      </c>
+      <c r="W177">
+        <v>1.22</v>
+      </c>
+      <c r="X177">
+        <v>13</v>
+      </c>
+      <c r="Y177">
+        <v>1.04</v>
+      </c>
+      <c r="Z177">
+        <v>2.9</v>
+      </c>
+      <c r="AA177">
+        <v>3.1</v>
+      </c>
+      <c r="AB177">
+        <v>2.6</v>
+      </c>
+      <c r="AC177">
+        <v>1.12</v>
+      </c>
+      <c r="AD177">
+        <v>5.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.56</v>
+      </c>
+      <c r="AF177">
+        <v>2.44</v>
+      </c>
+      <c r="AG177">
+        <v>2.5</v>
+      </c>
+      <c r="AH177">
+        <v>1.5</v>
+      </c>
+      <c r="AI177">
+        <v>2.1</v>
+      </c>
+      <c r="AJ177">
+        <v>1.67</v>
+      </c>
+      <c r="AK177">
+        <v>1.5</v>
+      </c>
+      <c r="AL177">
+        <v>1.35</v>
+      </c>
+      <c r="AM177">
+        <v>1.44</v>
+      </c>
+      <c r="AN177">
+        <v>1.83</v>
+      </c>
+      <c r="AO177">
+        <v>1.8</v>
+      </c>
+      <c r="AP177">
+        <v>2</v>
+      </c>
+      <c r="AQ177">
+        <v>1.5</v>
+      </c>
+      <c r="AR177">
+        <v>1.55</v>
+      </c>
+      <c r="AS177">
+        <v>1.45</v>
+      </c>
+      <c r="AT177">
+        <v>3</v>
+      </c>
+      <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>6</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>14</v>
+      </c>
+      <c r="AY177">
+        <v>10</v>
+      </c>
+      <c r="AZ177">
+        <v>20</v>
+      </c>
+      <c r="BA177">
+        <v>4</v>
+      </c>
+      <c r="BB177">
+        <v>8</v>
+      </c>
+      <c r="BC177">
+        <v>12</v>
+      </c>
+      <c r="BD177">
+        <v>2.08</v>
+      </c>
+      <c r="BE177">
+        <v>7.7</v>
+      </c>
+      <c r="BF177">
         <v>2.05</v>
       </c>
-      <c r="S177">
-        <v>4.5</v>
-      </c>
-      <c r="T177">
-        <v>1.53</v>
-      </c>
-      <c r="U177">
-        <v>2.38</v>
-      </c>
-      <c r="V177">
-        <v>3.75</v>
-      </c>
-      <c r="W177">
-        <v>1.25</v>
-      </c>
-      <c r="X177">
-        <v>11</v>
-      </c>
-      <c r="Y177">
-        <v>1.05</v>
-      </c>
-      <c r="Z177">
-        <v>1.95</v>
-      </c>
-      <c r="AA177">
-        <v>3.2</v>
-      </c>
-      <c r="AB177">
-        <v>4.5</v>
-      </c>
-      <c r="AC177">
-        <v>1.08</v>
-      </c>
-      <c r="AD177">
-        <v>7.15</v>
-      </c>
-      <c r="AE177">
-        <v>1.47</v>
-      </c>
-      <c r="AF177">
-        <v>2.59</v>
-      </c>
-      <c r="AG177">
-        <v>2.2</v>
-      </c>
-      <c r="AH177">
-        <v>1.65</v>
-      </c>
-      <c r="AI177">
-        <v>1.91</v>
-      </c>
-      <c r="AJ177">
-        <v>1.8</v>
-      </c>
-      <c r="AK177">
-        <v>1.22</v>
-      </c>
-      <c r="AL177">
-        <v>1.28</v>
-      </c>
-      <c r="AM177">
-        <v>1.92</v>
-      </c>
-      <c r="AN177">
-        <v>0.83</v>
-      </c>
-      <c r="AO177">
-        <v>1</v>
-      </c>
-      <c r="AP177">
-        <v>1.14</v>
-      </c>
-      <c r="AQ177">
-        <v>0.86</v>
-      </c>
-      <c r="AR177">
-        <v>1.88</v>
-      </c>
-      <c r="AS177">
-        <v>1.29</v>
-      </c>
-      <c r="AT177">
-        <v>3.17</v>
-      </c>
-      <c r="AU177">
-        <v>8</v>
-      </c>
-      <c r="AV177">
-        <v>4</v>
-      </c>
-      <c r="AW177">
-        <v>7</v>
-      </c>
-      <c r="AX177">
-        <v>4</v>
-      </c>
-      <c r="AY177">
-        <v>15</v>
-      </c>
-      <c r="AZ177">
-        <v>8</v>
-      </c>
-      <c r="BA177">
-        <v>6</v>
-      </c>
-      <c r="BB177">
-        <v>2</v>
-      </c>
-      <c r="BC177">
-        <v>8</v>
-      </c>
-      <c r="BD177">
-        <v>1.59</v>
-      </c>
-      <c r="BE177">
-        <v>9</v>
-      </c>
-      <c r="BF177">
-        <v>2.86</v>
-      </c>
       <c r="BG177">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="BH177">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI177">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="BJ177">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="BK177">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="BL177">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="BM177">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="BN177">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="BO177">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP177">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -39802,7 +39802,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7345669</v>
+        <v>7345673</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39817,82 +39817,82 @@
         <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H188" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N188">
         <v>4</v>
       </c>
       <c r="O188" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="P188" t="s">
         <v>291</v>
       </c>
       <c r="Q188">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="R188">
         <v>1.95</v>
       </c>
       <c r="S188">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T188">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U188">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V188">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W188">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X188">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y188">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z188">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="AA188">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB188">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="AC188">
         <v>1.08</v>
       </c>
       <c r="AD188">
-        <v>7.29</v>
+        <v>9.15</v>
       </c>
       <c r="AE188">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AF188">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AG188">
         <v>2.4</v>
@@ -39907,100 +39907,100 @@
         <v>1.67</v>
       </c>
       <c r="AK188">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AL188">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AM188">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="AN188">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO188">
         <v>1.5</v>
       </c>
       <c r="AP188">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR188">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AS188">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="AT188">
-        <v>3.29</v>
+        <v>3.05</v>
       </c>
       <c r="AU188">
+        <v>2</v>
+      </c>
+      <c r="AV188">
+        <v>10</v>
+      </c>
+      <c r="AW188">
+        <v>6</v>
+      </c>
+      <c r="AX188">
+        <v>6</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>16</v>
+      </c>
+      <c r="BA188">
+        <v>4</v>
+      </c>
+      <c r="BB188">
+        <v>7</v>
+      </c>
+      <c r="BC188">
+        <v>11</v>
+      </c>
+      <c r="BD188">
+        <v>2.86</v>
+      </c>
+      <c r="BE188">
         <v>9</v>
       </c>
-      <c r="AV188">
-        <v>6</v>
-      </c>
-      <c r="AW188">
-        <v>9</v>
-      </c>
-      <c r="AX188">
-        <v>3</v>
-      </c>
-      <c r="AY188">
-        <v>18</v>
-      </c>
-      <c r="AZ188">
-        <v>9</v>
-      </c>
-      <c r="BA188">
-        <v>10</v>
-      </c>
-      <c r="BB188">
-        <v>2</v>
-      </c>
-      <c r="BC188">
-        <v>12</v>
-      </c>
-      <c r="BD188">
-        <v>1.6</v>
-      </c>
-      <c r="BE188">
-        <v>8.550000000000001</v>
-      </c>
       <c r="BF188">
-        <v>2.93</v>
+        <v>1.59</v>
       </c>
       <c r="BG188">
+        <v>1.13</v>
+      </c>
+      <c r="BH188">
+        <v>5.07</v>
+      </c>
+      <c r="BI188">
         <v>1.26</v>
       </c>
-      <c r="BH188">
+      <c r="BJ188">
         <v>3.45</v>
       </c>
-      <c r="BI188">
-        <v>1.53</v>
-      </c>
-      <c r="BJ188">
-        <v>2.28</v>
-      </c>
       <c r="BK188">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="BL188">
-        <v>1.79</v>
+        <v>2.55</v>
       </c>
       <c r="BM188">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="BN188">
-        <v>1.44</v>
+        <v>1.97</v>
       </c>
       <c r="BO188">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="BP188">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40008,7 +40008,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7345674</v>
+        <v>7345669</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40023,190 +40023,190 @@
         <v>14</v>
       </c>
       <c r="G189" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H189" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
         <v>4</v>
       </c>
-      <c r="L189">
-        <v>3</v>
-      </c>
-      <c r="M189">
-        <v>3</v>
-      </c>
-      <c r="N189">
-        <v>6</v>
-      </c>
       <c r="O189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P189" t="s">
         <v>292</v>
       </c>
       <c r="Q189">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T189">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U189">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W189">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X189">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y189">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z189">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="AA189">
         <v>3.1</v>
       </c>
       <c r="AB189">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="AC189">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD189">
-        <v>7.9</v>
+        <v>7.29</v>
       </c>
       <c r="AE189">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AF189">
-        <v>2.97</v>
+        <v>2.65</v>
       </c>
       <c r="AG189">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="AH189">
+        <v>1.53</v>
+      </c>
+      <c r="AI189">
+        <v>2.1</v>
+      </c>
+      <c r="AJ189">
         <v>1.67</v>
       </c>
-      <c r="AI189">
-        <v>1.91</v>
-      </c>
-      <c r="AJ189">
-        <v>1.8</v>
-      </c>
       <c r="AK189">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AL189">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AM189">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AN189">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO189">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AP189">
-        <v>2.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR189">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AS189">
-        <v>1.14</v>
+        <v>1.65</v>
       </c>
       <c r="AT189">
-        <v>2.84</v>
+        <v>3.29</v>
       </c>
       <c r="AU189">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV189">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW189">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY189">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ189">
         <v>9</v>
       </c>
       <c r="BA189">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC189">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD189">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="BE189">
-        <v>8.35</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="BF189">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
       <c r="BG189">
+        <v>1.26</v>
+      </c>
+      <c r="BH189">
+        <v>3.45</v>
+      </c>
+      <c r="BI189">
+        <v>1.53</v>
+      </c>
+      <c r="BJ189">
+        <v>2.28</v>
+      </c>
+      <c r="BK189">
+        <v>1.92</v>
+      </c>
+      <c r="BL189">
+        <v>1.79</v>
+      </c>
+      <c r="BM189">
+        <v>2.5</v>
+      </c>
+      <c r="BN189">
+        <v>1.44</v>
+      </c>
+      <c r="BO189">
+        <v>3</v>
+      </c>
+      <c r="BP189">
         <v>1.35</v>
-      </c>
-      <c r="BH189">
-        <v>3</v>
-      </c>
-      <c r="BI189">
-        <v>1.62</v>
-      </c>
-      <c r="BJ189">
-        <v>2.2</v>
-      </c>
-      <c r="BK189">
-        <v>2.38</v>
-      </c>
-      <c r="BL189">
-        <v>1.75</v>
-      </c>
-      <c r="BM189">
-        <v>2.6</v>
-      </c>
-      <c r="BN189">
-        <v>1.45</v>
-      </c>
-      <c r="BO189">
-        <v>3.51</v>
-      </c>
-      <c r="BP189">
-        <v>1.26</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40214,7 +40214,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7345673</v>
+        <v>7345674</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40229,55 +40229,55 @@
         <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H190" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M190">
         <v>3</v>
       </c>
       <c r="N190">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O190" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="P190" t="s">
         <v>293</v>
       </c>
       <c r="Q190">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S190">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="T190">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U190">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V190">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W190">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X190">
         <v>10</v>
@@ -40286,133 +40286,133 @@
         <v>1.06</v>
       </c>
       <c r="Z190">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="AA190">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB190">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="AC190">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AD190">
-        <v>9.15</v>
+        <v>7.9</v>
       </c>
       <c r="AE190">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AF190">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AG190">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="AH190">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AI190">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AJ190">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK190">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="AL190">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AM190">
-        <v>1.18</v>
+        <v>1.75</v>
       </c>
       <c r="AN190">
+        <v>3</v>
+      </c>
+      <c r="AO190">
+        <v>1.83</v>
+      </c>
+      <c r="AP190">
+        <v>2.33</v>
+      </c>
+      <c r="AQ190">
+        <v>1.5</v>
+      </c>
+      <c r="AR190">
+        <v>1.7</v>
+      </c>
+      <c r="AS190">
         <v>1.14</v>
       </c>
-      <c r="AO190">
-        <v>1.5</v>
-      </c>
-      <c r="AP190">
-        <v>1</v>
-      </c>
-      <c r="AQ190">
-        <v>1.71</v>
-      </c>
-      <c r="AR190">
-        <v>1.51</v>
-      </c>
-      <c r="AS190">
-        <v>1.54</v>
-      </c>
       <c r="AT190">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="AU190">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV190">
+        <v>7</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>2</v>
+      </c>
+      <c r="AY190">
+        <v>12</v>
+      </c>
+      <c r="AZ190">
+        <v>9</v>
+      </c>
+      <c r="BA190">
+        <v>7</v>
+      </c>
+      <c r="BB190">
+        <v>3</v>
+      </c>
+      <c r="BC190">
         <v>10</v>
       </c>
-      <c r="AW190">
-        <v>6</v>
-      </c>
-      <c r="AX190">
-        <v>6</v>
-      </c>
-      <c r="AY190">
-        <v>8</v>
-      </c>
-      <c r="AZ190">
-        <v>16</v>
-      </c>
-      <c r="BA190">
-        <v>4</v>
-      </c>
-      <c r="BB190">
-        <v>7</v>
-      </c>
-      <c r="BC190">
-        <v>11</v>
-      </c>
       <c r="BD190">
-        <v>2.86</v>
+        <v>1.58</v>
       </c>
       <c r="BE190">
-        <v>9</v>
+        <v>8.35</v>
       </c>
       <c r="BF190">
-        <v>1.59</v>
+        <v>3.03</v>
       </c>
       <c r="BG190">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="BH190">
-        <v>5.07</v>
+        <v>3</v>
       </c>
       <c r="BI190">
+        <v>1.62</v>
+      </c>
+      <c r="BJ190">
+        <v>2.2</v>
+      </c>
+      <c r="BK190">
+        <v>2.38</v>
+      </c>
+      <c r="BL190">
+        <v>1.75</v>
+      </c>
+      <c r="BM190">
+        <v>2.6</v>
+      </c>
+      <c r="BN190">
+        <v>1.45</v>
+      </c>
+      <c r="BO190">
+        <v>3.51</v>
+      </c>
+      <c r="BP190">
         <v>1.26</v>
-      </c>
-      <c r="BJ190">
-        <v>3.45</v>
-      </c>
-      <c r="BK190">
-        <v>1.91</v>
-      </c>
-      <c r="BL190">
-        <v>2.55</v>
-      </c>
-      <c r="BM190">
-        <v>1.78</v>
-      </c>
-      <c r="BN190">
-        <v>1.97</v>
-      </c>
-      <c r="BO190">
-        <v>2.2</v>
-      </c>
-      <c r="BP190">
-        <v>1.62</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40462,7 +40462,7 @@
         <v>98</v>
       </c>
       <c r="P191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40626,7 +40626,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7345676</v>
+        <v>7345680</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40641,43 +40641,43 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H192" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O192" t="s">
+        <v>189</v>
+      </c>
+      <c r="P192" t="s">
         <v>98</v>
       </c>
-      <c r="P192" t="s">
-        <v>294</v>
-      </c>
       <c r="Q192">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S192">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="T192">
         <v>1.5</v>
@@ -40686,37 +40686,37 @@
         <v>2.5</v>
       </c>
       <c r="V192">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W192">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X192">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y192">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z192">
-        <v>4.33</v>
+        <v>1.57</v>
       </c>
       <c r="AA192">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AB192">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="AC192">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AD192">
-        <v>10</v>
+        <v>7.61</v>
       </c>
       <c r="AE192">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AF192">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="AG192">
         <v>2.15</v>
@@ -40725,106 +40725,106 @@
         <v>1.67</v>
       </c>
       <c r="AI192">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ192">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AK192">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="AL192">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM192">
-        <v>1.26</v>
+        <v>1.92</v>
       </c>
       <c r="AN192">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO192">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AP192">
-        <v>0.86</v>
+        <v>2.43</v>
       </c>
       <c r="AQ192">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR192">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="AS192">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AT192">
-        <v>2.89</v>
+        <v>3.25</v>
       </c>
       <c r="AU192">
         <v>6</v>
       </c>
       <c r="AV192">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX192">
         <v>5</v>
       </c>
       <c r="AY192">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ192">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC192">
         <v>7</v>
       </c>
       <c r="BD192">
-        <v>2.45</v>
+        <v>1.52</v>
       </c>
       <c r="BE192">
-        <v>8.5</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="BF192">
-        <v>1.67</v>
+        <v>3.27</v>
       </c>
       <c r="BG192">
+        <v>1.44</v>
+      </c>
+      <c r="BH192">
+        <v>2.65</v>
+      </c>
+      <c r="BI192">
+        <v>1.75</v>
+      </c>
+      <c r="BJ192">
+        <v>2</v>
+      </c>
+      <c r="BK192">
+        <v>2.25</v>
+      </c>
+      <c r="BL192">
+        <v>1.6</v>
+      </c>
+      <c r="BM192">
+        <v>2.95</v>
+      </c>
+      <c r="BN192">
         <v>1.36</v>
       </c>
-      <c r="BH192">
-        <v>2.79</v>
-      </c>
-      <c r="BI192">
-        <v>1.65</v>
-      </c>
-      <c r="BJ192">
-        <v>2.13</v>
-      </c>
-      <c r="BK192">
-        <v>2.05</v>
-      </c>
-      <c r="BL192">
-        <v>1.7</v>
-      </c>
-      <c r="BM192">
-        <v>2.75</v>
-      </c>
-      <c r="BN192">
-        <v>1.41</v>
-      </c>
       <c r="BO192">
-        <v>3.9</v>
+        <v>4.03</v>
       </c>
       <c r="BP192">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40874,7 +40874,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41038,7 +41038,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7345680</v>
+        <v>7345676</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41053,43 +41053,43 @@
         <v>14</v>
       </c>
       <c r="G194" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H194" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O194" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="P194" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="Q194">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="R194">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S194">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="T194">
         <v>1.5</v>
@@ -41098,37 +41098,37 @@
         <v>2.5</v>
       </c>
       <c r="V194">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W194">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y194">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z194">
-        <v>1.57</v>
+        <v>4.33</v>
       </c>
       <c r="AA194">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AB194">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="AC194">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AD194">
-        <v>7.61</v>
+        <v>10</v>
       </c>
       <c r="AE194">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AF194">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="AG194">
         <v>2.15</v>
@@ -41137,106 +41137,106 @@
         <v>1.67</v>
       </c>
       <c r="AI194">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AJ194">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AK194">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="AL194">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM194">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="AN194">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO194">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AP194">
-        <v>2.43</v>
+        <v>0.86</v>
       </c>
       <c r="AQ194">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR194">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="AS194">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT194">
-        <v>3.25</v>
+        <v>2.89</v>
       </c>
       <c r="AU194">
         <v>6</v>
       </c>
       <c r="AV194">
+        <v>10</v>
+      </c>
+      <c r="AW194">
         <v>5</v>
-      </c>
-      <c r="AW194">
-        <v>4</v>
       </c>
       <c r="AX194">
         <v>5</v>
       </c>
       <c r="AY194">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC194">
         <v>7</v>
       </c>
       <c r="BD194">
-        <v>1.52</v>
+        <v>2.45</v>
       </c>
       <c r="BE194">
-        <v>8.449999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="BF194">
-        <v>3.27</v>
+        <v>1.67</v>
       </c>
       <c r="BG194">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="BH194">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="BI194">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="BJ194">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="BK194">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="BL194">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BM194">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="BN194">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="BO194">
-        <v>4.03</v>
+        <v>3.9</v>
       </c>
       <c r="BP194">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -42728,7 +42728,7 @@
         <v>213</v>
       </c>
       <c r="P202" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42824,19 +42824,19 @@
         <v>7</v>
       </c>
       <c r="AV202">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW202">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX202">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY202">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ202">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA202">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['82', '90+4']</t>
+  </si>
+  <si>
+    <t>['21', '45+8', '58']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -911,6 +917,12 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['40', '55']</t>
+  </si>
+  <si>
+    <t>['6', '41']</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP203"/>
+  <dimension ref="A1:BP206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2024,7 +2036,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2149,7 +2161,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2355,7 +2367,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2561,7 +2573,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2973,7 +2985,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3179,7 +3191,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4003,7 +4015,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4621,7 +4633,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4827,7 +4839,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5239,7 +5251,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5729,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ22">
         <v>0.86</v>
@@ -5938,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6063,7 +6075,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6475,7 +6487,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7093,7 +7105,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7505,7 +7517,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7586,7 +7598,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR31">
         <v>2.28</v>
@@ -8613,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>1.14</v>
@@ -9153,7 +9165,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9565,7 +9577,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9646,7 +9658,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9771,7 +9783,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9849,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42">
         <v>1.63</v>
@@ -10801,7 +10813,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11213,7 +11225,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11419,7 +11431,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11497,7 +11509,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -11831,7 +11843,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12243,7 +12255,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12530,7 +12542,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -12861,7 +12873,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13067,7 +13079,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13145,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -13479,7 +13491,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13972,7 +13984,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR62">
         <v>1.83</v>
@@ -14097,7 +14109,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14175,7 +14187,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63">
         <v>2.14</v>
@@ -14303,7 +14315,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15127,7 +15139,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15539,7 +15551,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15620,7 +15632,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -15745,7 +15757,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16157,7 +16169,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16363,7 +16375,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16775,7 +16787,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16981,7 +16993,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17187,7 +17199,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -18298,7 +18310,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18423,7 +18435,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18501,7 +18513,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ84">
         <v>0.71</v>
@@ -18629,7 +18641,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19041,7 +19053,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19737,7 +19749,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ90">
         <v>1.5</v>
@@ -19865,7 +19877,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20355,10 +20367,10 @@
         <v>0.33</v>
       </c>
       <c r="AP93">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20483,7 +20495,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20689,7 +20701,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21101,7 +21113,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21179,10 +21191,10 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.9</v>
@@ -21307,7 +21319,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21719,7 +21731,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21800,7 +21812,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR100">
         <v>2.14</v>
@@ -22006,7 +22018,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR101">
         <v>0.96</v>
@@ -22131,7 +22143,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22955,7 +22967,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23033,7 +23045,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ106">
         <v>1.71</v>
@@ -23367,7 +23379,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23573,7 +23585,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23779,7 +23791,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23985,7 +23997,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24191,7 +24203,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24397,7 +24409,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24475,7 +24487,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
         <v>0.71</v>
@@ -24809,7 +24821,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25302,7 +25314,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR117">
         <v>1.88</v>
@@ -25505,7 +25517,7 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ118">
         <v>0.86</v>
@@ -25633,7 +25645,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25714,7 +25726,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>2.14</v>
@@ -26251,7 +26263,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26947,7 +26959,7 @@
         <v>0.25</v>
       </c>
       <c r="AP125">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ125">
         <v>0.14</v>
@@ -27487,7 +27499,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27565,7 +27577,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ128">
         <v>1.57</v>
@@ -27980,7 +27992,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR130">
         <v>1.23</v>
@@ -28311,7 +28323,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28723,7 +28735,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28929,7 +28941,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29135,7 +29147,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29341,7 +29353,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29547,7 +29559,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29753,7 +29765,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29959,7 +29971,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30449,10 +30461,10 @@
         <v>0.8</v>
       </c>
       <c r="AP142">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -30989,7 +31001,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31276,7 +31288,7 @@
         <v>2</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR146">
         <v>1.91</v>
@@ -32225,7 +32237,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32509,10 +32521,10 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ152">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR152">
         <v>1.69</v>
@@ -32637,7 +32649,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33049,7 +33061,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33255,7 +33267,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33461,7 +33473,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33873,7 +33885,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34491,7 +34503,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34981,7 +34993,7 @@
         <v>2</v>
       </c>
       <c r="AP164">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ164">
         <v>1.86</v>
@@ -35315,7 +35327,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35521,7 +35533,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35727,7 +35739,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36345,7 +36357,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36423,7 +36435,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
         <v>1.5</v>
@@ -36551,7 +36563,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37169,7 +37181,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37375,7 +37387,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37581,7 +37593,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37662,7 +37674,7 @@
         <v>2</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR177">
         <v>1.55</v>
@@ -38074,7 +38086,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ179">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR179">
         <v>2.3</v>
@@ -38405,7 +38417,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39307,10 +39319,10 @@
         <v>0.83</v>
       </c>
       <c r="AP185">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ185">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR185">
         <v>1.41</v>
@@ -39435,7 +39447,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39847,7 +39859,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -39925,7 +39937,7 @@
         <v>1.83</v>
       </c>
       <c r="AP188">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ188">
         <v>1.5</v>
@@ -40053,7 +40065,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40259,7 +40271,7 @@
         <v>98</v>
       </c>
       <c r="P190" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -40465,7 +40477,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40671,7 +40683,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40877,7 +40889,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41779,7 +41791,7 @@
         <v>1.86</v>
       </c>
       <c r="AP197">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ197">
         <v>1.8</v>
@@ -42113,7 +42125,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42319,7 +42331,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42603,7 +42615,7 @@
         <v>1.87</v>
       </c>
       <c r="AP201">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ201">
         <v>1.76</v>
@@ -42731,7 +42743,7 @@
         <v>213</v>
       </c>
       <c r="P202" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42937,7 +42949,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43094,6 +43106,624 @@
       </c>
       <c r="BP203">
         <v>1.88</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7345111</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45422.79166666666</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
+        <v>97</v>
+      </c>
+      <c r="H204" t="s">
+        <v>70</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204" t="s">
+        <v>188</v>
+      </c>
+      <c r="P204" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q204">
+        <v>4.5</v>
+      </c>
+      <c r="R204">
+        <v>1.83</v>
+      </c>
+      <c r="S204">
+        <v>3.1</v>
+      </c>
+      <c r="T204">
+        <v>1.67</v>
+      </c>
+      <c r="U204">
+        <v>2.1</v>
+      </c>
+      <c r="V204">
+        <v>4.33</v>
+      </c>
+      <c r="W204">
+        <v>1.2</v>
+      </c>
+      <c r="X204">
+        <v>15</v>
+      </c>
+      <c r="Y204">
+        <v>1.03</v>
+      </c>
+      <c r="Z204">
+        <v>3.75</v>
+      </c>
+      <c r="AA204">
+        <v>3</v>
+      </c>
+      <c r="AB204">
+        <v>2.2</v>
+      </c>
+      <c r="AC204">
+        <v>1.11</v>
+      </c>
+      <c r="AD204">
+        <v>5.9</v>
+      </c>
+      <c r="AE204">
+        <v>1.58</v>
+      </c>
+      <c r="AF204">
+        <v>2.25</v>
+      </c>
+      <c r="AG204">
+        <v>2.88</v>
+      </c>
+      <c r="AH204">
+        <v>1.4</v>
+      </c>
+      <c r="AI204">
+        <v>2.25</v>
+      </c>
+      <c r="AJ204">
+        <v>1.57</v>
+      </c>
+      <c r="AK204">
+        <v>1.41</v>
+      </c>
+      <c r="AL204">
+        <v>1.44</v>
+      </c>
+      <c r="AM204">
+        <v>1.38</v>
+      </c>
+      <c r="AN204">
+        <v>0.64</v>
+      </c>
+      <c r="AO204">
+        <v>1.21</v>
+      </c>
+      <c r="AP204">
+        <v>0.6</v>
+      </c>
+      <c r="AQ204">
+        <v>1.33</v>
+      </c>
+      <c r="AR204">
+        <v>1.29</v>
+      </c>
+      <c r="AS204">
+        <v>1.56</v>
+      </c>
+      <c r="AT204">
+        <v>2.85</v>
+      </c>
+      <c r="AU204">
+        <v>6</v>
+      </c>
+      <c r="AV204">
+        <v>4</v>
+      </c>
+      <c r="AW204">
+        <v>6</v>
+      </c>
+      <c r="AX204">
+        <v>4</v>
+      </c>
+      <c r="AY204">
+        <v>12</v>
+      </c>
+      <c r="AZ204">
+        <v>8</v>
+      </c>
+      <c r="BA204">
+        <v>7</v>
+      </c>
+      <c r="BB204">
+        <v>3</v>
+      </c>
+      <c r="BC204">
+        <v>10</v>
+      </c>
+      <c r="BD204">
+        <v>2.2</v>
+      </c>
+      <c r="BE204">
+        <v>8</v>
+      </c>
+      <c r="BF204">
+        <v>1.91</v>
+      </c>
+      <c r="BG204">
+        <v>1.33</v>
+      </c>
+      <c r="BH204">
+        <v>3</v>
+      </c>
+      <c r="BI204">
+        <v>1.47</v>
+      </c>
+      <c r="BJ204">
+        <v>2.48</v>
+      </c>
+      <c r="BK204">
+        <v>2.25</v>
+      </c>
+      <c r="BL204">
+        <v>1.98</v>
+      </c>
+      <c r="BM204">
+        <v>2.3</v>
+      </c>
+      <c r="BN204">
+        <v>1.53</v>
+      </c>
+      <c r="BO204">
+        <v>3.05</v>
+      </c>
+      <c r="BP204">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7345115</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45422.88541666666</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s">
+        <v>96</v>
+      </c>
+      <c r="H205" t="s">
+        <v>79</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>215</v>
+      </c>
+      <c r="P205" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q205">
+        <v>2.75</v>
+      </c>
+      <c r="R205">
+        <v>1.91</v>
+      </c>
+      <c r="S205">
+        <v>5</v>
+      </c>
+      <c r="T205">
+        <v>1.73</v>
+      </c>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
+        <v>5</v>
+      </c>
+      <c r="W205">
+        <v>1.17</v>
+      </c>
+      <c r="X205">
+        <v>17</v>
+      </c>
+      <c r="Y205">
+        <v>1.03</v>
+      </c>
+      <c r="Z205">
+        <v>2</v>
+      </c>
+      <c r="AA205">
+        <v>3.25</v>
+      </c>
+      <c r="AB205">
+        <v>4.2</v>
+      </c>
+      <c r="AC205">
+        <v>1.02</v>
+      </c>
+      <c r="AD205">
+        <v>5.4</v>
+      </c>
+      <c r="AE205">
+        <v>1.7</v>
+      </c>
+      <c r="AF205">
+        <v>2</v>
+      </c>
+      <c r="AG205">
+        <v>2.7</v>
+      </c>
+      <c r="AH205">
+        <v>1.44</v>
+      </c>
+      <c r="AI205">
+        <v>2.25</v>
+      </c>
+      <c r="AJ205">
+        <v>1.57</v>
+      </c>
+      <c r="AK205">
+        <v>1.19</v>
+      </c>
+      <c r="AL205">
+        <v>1.46</v>
+      </c>
+      <c r="AM205">
+        <v>1.62</v>
+      </c>
+      <c r="AN205">
+        <v>1.5</v>
+      </c>
+      <c r="AO205">
+        <v>1.29</v>
+      </c>
+      <c r="AP205">
+        <v>1.6</v>
+      </c>
+      <c r="AQ205">
+        <v>1.2</v>
+      </c>
+      <c r="AR205">
+        <v>1.67</v>
+      </c>
+      <c r="AS205">
+        <v>1.46</v>
+      </c>
+      <c r="AT205">
+        <v>3.13</v>
+      </c>
+      <c r="AU205">
+        <v>9</v>
+      </c>
+      <c r="AV205">
+        <v>2</v>
+      </c>
+      <c r="AW205">
+        <v>3</v>
+      </c>
+      <c r="AX205">
+        <v>6</v>
+      </c>
+      <c r="AY205">
+        <v>12</v>
+      </c>
+      <c r="AZ205">
+        <v>8</v>
+      </c>
+      <c r="BA205">
+        <v>1</v>
+      </c>
+      <c r="BB205">
+        <v>5</v>
+      </c>
+      <c r="BC205">
+        <v>6</v>
+      </c>
+      <c r="BD205">
+        <v>1.64</v>
+      </c>
+      <c r="BE205">
+        <v>7.5</v>
+      </c>
+      <c r="BF205">
+        <v>2.78</v>
+      </c>
+      <c r="BG205">
+        <v>1.65</v>
+      </c>
+      <c r="BH205">
+        <v>2.08</v>
+      </c>
+      <c r="BI205">
+        <v>2.14</v>
+      </c>
+      <c r="BJ205">
+        <v>1.62</v>
+      </c>
+      <c r="BK205">
+        <v>2.9</v>
+      </c>
+      <c r="BL205">
+        <v>1.35</v>
+      </c>
+      <c r="BM205">
+        <v>4.1</v>
+      </c>
+      <c r="BN205">
+        <v>1.19</v>
+      </c>
+      <c r="BO205">
+        <v>6</v>
+      </c>
+      <c r="BP205">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7345106</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45422.88541666666</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>89</v>
+      </c>
+      <c r="H206" t="s">
+        <v>86</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+      <c r="K206">
+        <v>4</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>5</v>
+      </c>
+      <c r="O206" t="s">
+        <v>216</v>
+      </c>
+      <c r="P206" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q206">
+        <v>2.6</v>
+      </c>
+      <c r="R206">
+        <v>1.95</v>
+      </c>
+      <c r="S206">
+        <v>5.5</v>
+      </c>
+      <c r="T206">
+        <v>1.5</v>
+      </c>
+      <c r="U206">
+        <v>2.5</v>
+      </c>
+      <c r="V206">
+        <v>3.4</v>
+      </c>
+      <c r="W206">
+        <v>1.3</v>
+      </c>
+      <c r="X206">
+        <v>10</v>
+      </c>
+      <c r="Y206">
+        <v>1.06</v>
+      </c>
+      <c r="Z206">
+        <v>1.83</v>
+      </c>
+      <c r="AA206">
+        <v>3.25</v>
+      </c>
+      <c r="AB206">
+        <v>5</v>
+      </c>
+      <c r="AC206">
+        <v>1.07</v>
+      </c>
+      <c r="AD206">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE206">
+        <v>1.41</v>
+      </c>
+      <c r="AF206">
+        <v>2.7</v>
+      </c>
+      <c r="AG206">
+        <v>2.6</v>
+      </c>
+      <c r="AH206">
+        <v>1.48</v>
+      </c>
+      <c r="AI206">
+        <v>2.25</v>
+      </c>
+      <c r="AJ206">
+        <v>1.57</v>
+      </c>
+      <c r="AK206">
+        <v>1.21</v>
+      </c>
+      <c r="AL206">
+        <v>1.33</v>
+      </c>
+      <c r="AM206">
+        <v>1.9</v>
+      </c>
+      <c r="AN206">
+        <v>1.75</v>
+      </c>
+      <c r="AO206">
+        <v>1.07</v>
+      </c>
+      <c r="AP206">
+        <v>1.82</v>
+      </c>
+      <c r="AQ206">
+        <v>1</v>
+      </c>
+      <c r="AR206">
+        <v>1.76</v>
+      </c>
+      <c r="AS206">
+        <v>1.02</v>
+      </c>
+      <c r="AT206">
+        <v>2.78</v>
+      </c>
+      <c r="AU206">
+        <v>10</v>
+      </c>
+      <c r="AV206">
+        <v>5</v>
+      </c>
+      <c r="AW206">
+        <v>7</v>
+      </c>
+      <c r="AX206">
+        <v>4</v>
+      </c>
+      <c r="AY206">
+        <v>17</v>
+      </c>
+      <c r="AZ206">
+        <v>9</v>
+      </c>
+      <c r="BA206">
+        <v>6</v>
+      </c>
+      <c r="BB206">
+        <v>0</v>
+      </c>
+      <c r="BC206">
+        <v>6</v>
+      </c>
+      <c r="BD206">
+        <v>1.37</v>
+      </c>
+      <c r="BE206">
+        <v>9</v>
+      </c>
+      <c r="BF206">
+        <v>3.83</v>
+      </c>
+      <c r="BG206">
+        <v>1.29</v>
+      </c>
+      <c r="BH206">
+        <v>3.3</v>
+      </c>
+      <c r="BI206">
+        <v>1.49</v>
+      </c>
+      <c r="BJ206">
+        <v>2.4</v>
+      </c>
+      <c r="BK206">
+        <v>2.38</v>
+      </c>
+      <c r="BL206">
+        <v>1.9</v>
+      </c>
+      <c r="BM206">
+        <v>2.38</v>
+      </c>
+      <c r="BN206">
+        <v>1.5</v>
+      </c>
+      <c r="BO206">
+        <v>3.2</v>
+      </c>
+      <c r="BP206">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,9 @@
     <t>['21', '45+8', '58']</t>
   </si>
   <si>
+    <t>['45', '59', '90+3']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -1284,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP206"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2161,7 +2164,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2367,7 +2370,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2573,7 +2576,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2985,7 +2988,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3191,7 +3194,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3887,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4015,7 +4018,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4633,7 +4636,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4711,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4839,7 +4842,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5251,7 +5254,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6075,7 +6078,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6487,7 +6490,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7105,7 +7108,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7517,7 +7520,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8010,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8831,7 +8834,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>2.14</v>
@@ -9165,7 +9168,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9577,7 +9580,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9783,7 +9786,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9864,7 +9867,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ42">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10479,7 +10482,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10813,7 +10816,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11225,7 +11228,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11431,7 +11434,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11718,7 +11721,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ51">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11843,7 +11846,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12255,7 +12258,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12873,7 +12876,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13079,7 +13082,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13491,7 +13494,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13775,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ61">
         <v>1.71</v>
@@ -14109,7 +14112,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14315,7 +14318,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14396,7 +14399,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ64">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -14602,7 +14605,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -15139,7 +15142,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15551,7 +15554,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15757,7 +15760,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16169,7 +16172,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16375,7 +16378,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16787,7 +16790,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16993,7 +16996,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17199,7 +17202,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -18435,7 +18438,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18641,7 +18644,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19053,7 +19056,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19337,7 +19340,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>0.71</v>
@@ -19752,7 +19755,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.4</v>
@@ -19877,7 +19880,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20495,7 +20498,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20701,7 +20704,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21113,7 +21116,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21319,7 +21322,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21731,7 +21734,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22015,7 +22018,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ101">
         <v>0.44</v>
@@ -22143,7 +22146,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22224,7 +22227,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -22967,7 +22970,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23379,7 +23382,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23585,7 +23588,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23791,7 +23794,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23869,7 +23872,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ110">
         <v>1.57</v>
@@ -23997,7 +24000,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24203,7 +24206,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24409,7 +24412,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24821,7 +24824,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25645,7 +25648,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26263,7 +26266,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27168,7 +27171,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ126">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27374,7 +27377,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR127">
         <v>1.95</v>
@@ -27499,7 +27502,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28323,7 +28326,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28401,7 +28404,7 @@
         <v>2.25</v>
       </c>
       <c r="AP132">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
         <v>1.86</v>
@@ -28607,7 +28610,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28735,7 +28738,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28941,7 +28944,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29147,7 +29150,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29353,7 +29356,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29559,7 +29562,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29765,7 +29768,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29971,7 +29974,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30876,7 +30879,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ144">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31001,7 +31004,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31491,7 +31494,7 @@
         <v>0.2</v>
       </c>
       <c r="AP147">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ147">
         <v>0.14</v>
@@ -32237,7 +32240,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32649,7 +32652,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33061,7 +33064,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33267,7 +33270,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33348,7 +33351,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ156">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR156">
         <v>1.28</v>
@@ -33473,7 +33476,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33885,7 +33888,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34169,7 +34172,7 @@
         <v>1.8</v>
       </c>
       <c r="AP160">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ160">
         <v>1.71</v>
@@ -34503,7 +34506,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35327,7 +35330,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35533,7 +35536,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35739,7 +35742,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36357,7 +36360,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36563,7 +36566,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36644,7 +36647,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ172">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR172">
         <v>1.58</v>
@@ -37181,7 +37184,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37387,7 +37390,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37593,7 +37596,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38417,7 +38420,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38701,7 +38704,7 @@
         <v>0.83</v>
       </c>
       <c r="AP182">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ182">
         <v>0.71</v>
@@ -39113,7 +39116,7 @@
         <v>0.33</v>
       </c>
       <c r="AP184">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ184">
         <v>0.29</v>
@@ -39447,7 +39450,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39859,7 +39862,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -39940,7 +39943,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR188">
         <v>1.7</v>
@@ -40065,7 +40068,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40271,7 +40274,7 @@
         <v>98</v>
       </c>
       <c r="P190" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -40477,7 +40480,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40683,7 +40686,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40889,7 +40892,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41794,7 +41797,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ197">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR197">
         <v>1.7</v>
@@ -42000,7 +42003,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ198">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR198">
         <v>2.23</v>
@@ -42125,7 +42128,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42203,7 +42206,7 @@
         <v>1.79</v>
       </c>
       <c r="AP199">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ199">
         <v>1.76</v>
@@ -42331,7 +42334,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42743,7 +42746,7 @@
         <v>213</v>
       </c>
       <c r="P202" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42949,7 +42952,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43155,7 +43158,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43567,7 +43570,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43724,6 +43727,418 @@
       </c>
       <c r="BP206">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7345113</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45423.60416666666</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>84</v>
+      </c>
+      <c r="H207" t="s">
+        <v>90</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207" t="s">
+        <v>217</v>
+      </c>
+      <c r="P207" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q207">
+        <v>2.88</v>
+      </c>
+      <c r="R207">
+        <v>1.95</v>
+      </c>
+      <c r="S207">
+        <v>4.5</v>
+      </c>
+      <c r="T207">
+        <v>1.62</v>
+      </c>
+      <c r="U207">
+        <v>2.2</v>
+      </c>
+      <c r="V207">
+        <v>4</v>
+      </c>
+      <c r="W207">
+        <v>1.22</v>
+      </c>
+      <c r="X207">
+        <v>13</v>
+      </c>
+      <c r="Y207">
+        <v>1.04</v>
+      </c>
+      <c r="Z207">
+        <v>2.15</v>
+      </c>
+      <c r="AA207">
+        <v>3.1</v>
+      </c>
+      <c r="AB207">
+        <v>3.8</v>
+      </c>
+      <c r="AC207">
+        <v>1.02</v>
+      </c>
+      <c r="AD207">
+        <v>2.3</v>
+      </c>
+      <c r="AE207">
+        <v>1.52</v>
+      </c>
+      <c r="AF207">
+        <v>2.35</v>
+      </c>
+      <c r="AG207">
+        <v>2.4</v>
+      </c>
+      <c r="AH207">
+        <v>1.53</v>
+      </c>
+      <c r="AI207">
+        <v>2.05</v>
+      </c>
+      <c r="AJ207">
+        <v>1.7</v>
+      </c>
+      <c r="AK207">
+        <v>1.3</v>
+      </c>
+      <c r="AL207">
+        <v>1.45</v>
+      </c>
+      <c r="AM207">
+        <v>1.74</v>
+      </c>
+      <c r="AN207">
+        <v>1.14</v>
+      </c>
+      <c r="AO207">
+        <v>1.8</v>
+      </c>
+      <c r="AP207">
+        <v>1.27</v>
+      </c>
+      <c r="AQ207">
+        <v>1.69</v>
+      </c>
+      <c r="AR207">
+        <v>1.3</v>
+      </c>
+      <c r="AS207">
+        <v>1.3</v>
+      </c>
+      <c r="AT207">
+        <v>2.6</v>
+      </c>
+      <c r="AU207">
+        <v>7</v>
+      </c>
+      <c r="AV207">
+        <v>5</v>
+      </c>
+      <c r="AW207">
+        <v>4</v>
+      </c>
+      <c r="AX207">
+        <v>7</v>
+      </c>
+      <c r="AY207">
+        <v>11</v>
+      </c>
+      <c r="AZ207">
+        <v>12</v>
+      </c>
+      <c r="BA207">
+        <v>6</v>
+      </c>
+      <c r="BB207">
+        <v>5</v>
+      </c>
+      <c r="BC207">
+        <v>11</v>
+      </c>
+      <c r="BD207">
+        <v>1.62</v>
+      </c>
+      <c r="BE207">
+        <v>7.7</v>
+      </c>
+      <c r="BF207">
+        <v>2.91</v>
+      </c>
+      <c r="BG207">
+        <v>1.36</v>
+      </c>
+      <c r="BH207">
+        <v>2.85</v>
+      </c>
+      <c r="BI207">
+        <v>1.64</v>
+      </c>
+      <c r="BJ207">
+        <v>2.1</v>
+      </c>
+      <c r="BK207">
+        <v>2.08</v>
+      </c>
+      <c r="BL207">
+        <v>1.65</v>
+      </c>
+      <c r="BM207">
+        <v>2.75</v>
+      </c>
+      <c r="BN207">
+        <v>1.38</v>
+      </c>
+      <c r="BO207">
+        <v>3.85</v>
+      </c>
+      <c r="BP207">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7345110</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45423.64583333334</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
+        <v>81</v>
+      </c>
+      <c r="H208" t="s">
+        <v>74</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>98</v>
+      </c>
+      <c r="P208" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q208">
+        <v>2.3</v>
+      </c>
+      <c r="R208">
+        <v>2.1</v>
+      </c>
+      <c r="S208">
+        <v>5.5</v>
+      </c>
+      <c r="T208">
+        <v>1.57</v>
+      </c>
+      <c r="U208">
+        <v>2.25</v>
+      </c>
+      <c r="V208">
+        <v>3.75</v>
+      </c>
+      <c r="W208">
+        <v>1.25</v>
+      </c>
+      <c r="X208">
+        <v>13</v>
+      </c>
+      <c r="Y208">
+        <v>1.04</v>
+      </c>
+      <c r="Z208">
+        <v>1.7</v>
+      </c>
+      <c r="AA208">
+        <v>3.4</v>
+      </c>
+      <c r="AB208">
+        <v>5.75</v>
+      </c>
+      <c r="AC208">
+        <v>1.08</v>
+      </c>
+      <c r="AD208">
+        <v>6.2</v>
+      </c>
+      <c r="AE208">
+        <v>1.5</v>
+      </c>
+      <c r="AF208">
+        <v>2.45</v>
+      </c>
+      <c r="AG208">
+        <v>2.15</v>
+      </c>
+      <c r="AH208">
+        <v>1.67</v>
+      </c>
+      <c r="AI208">
+        <v>2.05</v>
+      </c>
+      <c r="AJ208">
+        <v>1.7</v>
+      </c>
+      <c r="AK208">
+        <v>1.18</v>
+      </c>
+      <c r="AL208">
+        <v>1.37</v>
+      </c>
+      <c r="AM208">
+        <v>1.7</v>
+      </c>
+      <c r="AN208">
+        <v>1.93</v>
+      </c>
+      <c r="AO208">
+        <v>1.73</v>
+      </c>
+      <c r="AP208">
+        <v>1.81</v>
+      </c>
+      <c r="AQ208">
+        <v>1.81</v>
+      </c>
+      <c r="AR208">
+        <v>1.91</v>
+      </c>
+      <c r="AS208">
+        <v>1.15</v>
+      </c>
+      <c r="AT208">
+        <v>3.06</v>
+      </c>
+      <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>5</v>
+      </c>
+      <c r="AW208">
+        <v>11</v>
+      </c>
+      <c r="AX208">
+        <v>2</v>
+      </c>
+      <c r="AY208">
+        <v>18</v>
+      </c>
+      <c r="AZ208">
+        <v>7</v>
+      </c>
+      <c r="BA208">
+        <v>7</v>
+      </c>
+      <c r="BB208">
+        <v>5</v>
+      </c>
+      <c r="BC208">
+        <v>12</v>
+      </c>
+      <c r="BD208">
+        <v>1.49</v>
+      </c>
+      <c r="BE208">
+        <v>7.3</v>
+      </c>
+      <c r="BF208">
+        <v>3.55</v>
+      </c>
+      <c r="BG208">
+        <v>1.48</v>
+      </c>
+      <c r="BH208">
+        <v>2.45</v>
+      </c>
+      <c r="BI208">
+        <v>1.85</v>
+      </c>
+      <c r="BJ208">
+        <v>1.95</v>
+      </c>
+      <c r="BK208">
+        <v>2.4</v>
+      </c>
+      <c r="BL208">
+        <v>1.49</v>
+      </c>
+      <c r="BM208">
+        <v>3.3</v>
+      </c>
+      <c r="BN208">
+        <v>1.28</v>
+      </c>
+      <c r="BO208">
+        <v>4.7</v>
+      </c>
+      <c r="BP208">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,10 +670,13 @@
     <t>['45', '59', '90+3']</t>
   </si>
   <si>
-    <t>['90+5']</t>
+    <t>['10']</t>
   </si>
   <si>
-    <t>['10']</t>
+    <t>['6', '30', '86']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
   <si>
     <t>['69']</t>
@@ -926,6 +929,9 @@
   </si>
   <si>
     <t>['6', '41']</t>
+  </si>
+  <si>
+    <t>['8', '81', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2164,7 +2170,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2370,7 +2376,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2576,7 +2582,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2988,7 +2994,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3194,7 +3200,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4018,7 +4024,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4096,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4636,7 +4642,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4717,7 +4723,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4842,7 +4848,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5254,7 +5260,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6078,7 +6084,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6490,7 +6496,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7108,7 +7114,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7392,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30">
         <v>0.86</v>
@@ -7520,7 +7526,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8216,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1.6</v>
@@ -8425,7 +8431,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ35">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR35">
         <v>0.9</v>
@@ -9168,7 +9174,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9580,7 +9586,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9786,7 +9792,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10816,7 +10822,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11228,7 +11234,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11434,7 +11440,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11846,7 +11852,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12258,7 +12264,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12876,7 +12882,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12957,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13082,7 +13088,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13494,7 +13500,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13984,7 +13990,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62">
         <v>0.44</v>
@@ -14112,7 +14118,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14318,7 +14324,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14811,7 +14817,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR66">
         <v>1.82</v>
@@ -15142,7 +15148,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15554,7 +15560,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15760,7 +15766,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16172,7 +16178,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16378,7 +16384,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16790,7 +16796,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16996,7 +17002,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17074,7 +17080,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -17202,7 +17208,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17901,7 +17907,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -18438,7 +18444,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18644,7 +18650,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18725,7 +18731,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR85">
         <v>1.69</v>
@@ -18928,7 +18934,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -19056,7 +19062,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19137,7 +19143,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ87">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -19880,7 +19886,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19958,7 +19964,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -20498,7 +20504,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20704,7 +20710,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21116,7 +21122,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21322,7 +21328,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21734,7 +21740,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22146,7 +22152,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22433,7 +22439,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ103">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22970,7 +22976,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23382,7 +23388,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23460,7 +23466,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23588,7 +23594,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23794,7 +23800,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24000,7 +24006,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24206,7 +24212,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24412,7 +24418,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24824,7 +24830,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25648,7 +25654,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26138,7 +26144,7 @@
         <v>0.75</v>
       </c>
       <c r="AP121">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
         <v>0.71</v>
@@ -26266,7 +26272,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26553,7 +26559,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR123">
         <v>1.2</v>
@@ -26759,7 +26765,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ124">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR124">
         <v>1.21</v>
@@ -27502,7 +27508,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27786,7 +27792,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ129">
         <v>1.71</v>
@@ -28326,7 +28332,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28738,7 +28744,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28944,7 +28950,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29150,7 +29156,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29356,7 +29362,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29562,7 +29568,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29768,7 +29774,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29974,7 +29980,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31004,7 +31010,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31906,7 +31912,7 @@
         <v>1.2</v>
       </c>
       <c r="AP149">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
         <v>0.86</v>
@@ -32115,7 +32121,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ150">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR150">
         <v>1.58</v>
@@ -32240,7 +32246,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32321,7 +32327,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ151">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR151">
         <v>1.57</v>
@@ -32652,7 +32658,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33064,7 +33070,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33270,7 +33276,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33476,7 +33482,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33888,7 +33894,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34506,7 +34512,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35330,7 +35336,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35408,7 +35414,7 @@
         <v>0.2</v>
       </c>
       <c r="AP166">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ166">
         <v>0.29</v>
@@ -35536,7 +35542,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35742,7 +35748,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36360,7 +36366,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36566,7 +36572,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36853,7 +36859,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR173">
         <v>2.1</v>
@@ -37184,7 +37190,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37390,7 +37396,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37596,7 +37602,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38086,7 +38092,7 @@
         <v>0.57</v>
       </c>
       <c r="AP179">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ179">
         <v>0.44</v>
@@ -38420,7 +38426,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39450,7 +39456,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39862,7 +39868,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40068,7 +40074,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40146,10 +40152,10 @@
         <v>1.5</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ189">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR189">
         <v>1.64</v>
@@ -40274,7 +40280,7 @@
         <v>98</v>
       </c>
       <c r="P190" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -40480,7 +40486,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40686,7 +40692,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40892,7 +40898,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -42128,7 +42134,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42334,7 +42340,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42412,7 +42418,7 @@
         <v>1.92</v>
       </c>
       <c r="AP200">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ200">
         <v>1.93</v>
@@ -42746,7 +42752,7 @@
         <v>213</v>
       </c>
       <c r="P202" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42952,7 +42958,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43158,7 +43164,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43570,7 +43576,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43982,7 +43988,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44139,6 +44145,418 @@
       </c>
       <c r="BP208">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7345116</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45423.72916666666</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209" t="s">
+        <v>94</v>
+      </c>
+      <c r="H209" t="s">
+        <v>75</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>3</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>218</v>
+      </c>
+      <c r="P209" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q209">
+        <v>2.88</v>
+      </c>
+      <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>4.5</v>
+      </c>
+      <c r="T209">
+        <v>1.57</v>
+      </c>
+      <c r="U209">
+        <v>2.25</v>
+      </c>
+      <c r="V209">
+        <v>3.75</v>
+      </c>
+      <c r="W209">
+        <v>1.25</v>
+      </c>
+      <c r="X209">
+        <v>13</v>
+      </c>
+      <c r="Y209">
+        <v>1.04</v>
+      </c>
+      <c r="Z209">
+        <v>2.1</v>
+      </c>
+      <c r="AA209">
+        <v>3.25</v>
+      </c>
+      <c r="AB209">
+        <v>3.75</v>
+      </c>
+      <c r="AC209">
+        <v>1.08</v>
+      </c>
+      <c r="AD209">
+        <v>6.2</v>
+      </c>
+      <c r="AE209">
+        <v>1.5</v>
+      </c>
+      <c r="AF209">
+        <v>2.45</v>
+      </c>
+      <c r="AG209">
+        <v>2.5</v>
+      </c>
+      <c r="AH209">
+        <v>1.5</v>
+      </c>
+      <c r="AI209">
+        <v>2.2</v>
+      </c>
+      <c r="AJ209">
+        <v>1.62</v>
+      </c>
+      <c r="AK209">
+        <v>1.29</v>
+      </c>
+      <c r="AL209">
+        <v>1.36</v>
+      </c>
+      <c r="AM209">
+        <v>1.68</v>
+      </c>
+      <c r="AN209">
+        <v>1.64</v>
+      </c>
+      <c r="AO209">
+        <v>1.71</v>
+      </c>
+      <c r="AP209">
+        <v>1.53</v>
+      </c>
+      <c r="AQ209">
+        <v>1.8</v>
+      </c>
+      <c r="AR209">
+        <v>1.74</v>
+      </c>
+      <c r="AS209">
+        <v>1.59</v>
+      </c>
+      <c r="AT209">
+        <v>3.33</v>
+      </c>
+      <c r="AU209">
+        <v>6</v>
+      </c>
+      <c r="AV209">
+        <v>6</v>
+      </c>
+      <c r="AW209">
+        <v>1</v>
+      </c>
+      <c r="AX209">
+        <v>5</v>
+      </c>
+      <c r="AY209">
+        <v>7</v>
+      </c>
+      <c r="AZ209">
+        <v>11</v>
+      </c>
+      <c r="BA209">
+        <v>10</v>
+      </c>
+      <c r="BB209">
+        <v>5</v>
+      </c>
+      <c r="BC209">
+        <v>15</v>
+      </c>
+      <c r="BD209">
+        <v>1.57</v>
+      </c>
+      <c r="BE209">
+        <v>7.6</v>
+      </c>
+      <c r="BF209">
+        <v>3.1</v>
+      </c>
+      <c r="BG209">
+        <v>1.24</v>
+      </c>
+      <c r="BH209">
+        <v>3.48</v>
+      </c>
+      <c r="BI209">
+        <v>1.52</v>
+      </c>
+      <c r="BJ209">
+        <v>2.33</v>
+      </c>
+      <c r="BK209">
+        <v>2</v>
+      </c>
+      <c r="BL209">
+        <v>1.8</v>
+      </c>
+      <c r="BM209">
+        <v>2.45</v>
+      </c>
+      <c r="BN209">
+        <v>1.47</v>
+      </c>
+      <c r="BO209">
+        <v>3.3</v>
+      </c>
+      <c r="BP209">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7345104</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45423.82291666666</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210" t="s">
+        <v>82</v>
+      </c>
+      <c r="H210" t="s">
+        <v>73</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>219</v>
+      </c>
+      <c r="P210" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q210">
+        <v>1.62</v>
+      </c>
+      <c r="R210">
+        <v>2.75</v>
+      </c>
+      <c r="S210">
+        <v>10</v>
+      </c>
+      <c r="T210">
+        <v>1.36</v>
+      </c>
+      <c r="U210">
+        <v>3</v>
+      </c>
+      <c r="V210">
+        <v>2.75</v>
+      </c>
+      <c r="W210">
+        <v>1.4</v>
+      </c>
+      <c r="X210">
+        <v>7</v>
+      </c>
+      <c r="Y210">
+        <v>1.1</v>
+      </c>
+      <c r="Z210">
+        <v>1.22</v>
+      </c>
+      <c r="AA210">
+        <v>7</v>
+      </c>
+      <c r="AB210">
+        <v>11</v>
+      </c>
+      <c r="AC210">
+        <v>1.05</v>
+      </c>
+      <c r="AD210">
+        <v>9.5</v>
+      </c>
+      <c r="AE210">
+        <v>1.25</v>
+      </c>
+      <c r="AF210">
+        <v>3.7</v>
+      </c>
+      <c r="AG210">
+        <v>1.53</v>
+      </c>
+      <c r="AH210">
+        <v>2.4</v>
+      </c>
+      <c r="AI210">
+        <v>2.2</v>
+      </c>
+      <c r="AJ210">
+        <v>1.62</v>
+      </c>
+      <c r="AK210">
+        <v>1.05</v>
+      </c>
+      <c r="AL210">
+        <v>1.15</v>
+      </c>
+      <c r="AM210">
+        <v>3.25</v>
+      </c>
+      <c r="AN210">
+        <v>1.8</v>
+      </c>
+      <c r="AO210">
+        <v>0.79</v>
+      </c>
+      <c r="AP210">
+        <v>1.88</v>
+      </c>
+      <c r="AQ210">
+        <v>0.73</v>
+      </c>
+      <c r="AR210">
+        <v>2.26</v>
+      </c>
+      <c r="AS210">
+        <v>1.05</v>
+      </c>
+      <c r="AT210">
+        <v>3.31</v>
+      </c>
+      <c r="AU210">
+        <v>14</v>
+      </c>
+      <c r="AV210">
+        <v>2</v>
+      </c>
+      <c r="AW210">
+        <v>5</v>
+      </c>
+      <c r="AX210">
+        <v>3</v>
+      </c>
+      <c r="AY210">
+        <v>19</v>
+      </c>
+      <c r="AZ210">
+        <v>5</v>
+      </c>
+      <c r="BA210">
+        <v>7</v>
+      </c>
+      <c r="BB210">
+        <v>2</v>
+      </c>
+      <c r="BC210">
+        <v>9</v>
+      </c>
+      <c r="BD210">
+        <v>1.2</v>
+      </c>
+      <c r="BE210">
+        <v>10.5</v>
+      </c>
+      <c r="BF210">
+        <v>6.17</v>
+      </c>
+      <c r="BG210">
+        <v>1.21</v>
+      </c>
+      <c r="BH210">
+        <v>3.74</v>
+      </c>
+      <c r="BI210">
+        <v>1.49</v>
+      </c>
+      <c r="BJ210">
+        <v>2.4</v>
+      </c>
+      <c r="BK210">
+        <v>2.38</v>
+      </c>
+      <c r="BL210">
+        <v>1.92</v>
+      </c>
+      <c r="BM210">
+        <v>2.38</v>
+      </c>
+      <c r="BN210">
+        <v>1.5</v>
+      </c>
+      <c r="BO210">
+        <v>3.2</v>
+      </c>
+      <c r="BP210">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,15 @@
     <t>['6', '30', '86']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['9', '77', '81', '85']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -752,9 +761,6 @@
   </si>
   <si>
     <t>['24', '71']</t>
-  </si>
-  <si>
-    <t>['29']</t>
   </si>
   <si>
     <t>['60', '64']</t>
@@ -932,6 +938,12 @@
   </si>
   <si>
     <t>['8', '81', '90+7']</t>
+  </si>
+  <si>
+    <t>['12', '28', '45+2', '56']</t>
+  </si>
+  <si>
+    <t>['9', '84']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>0.71</v>
@@ -2042,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>0.44</v>
@@ -2170,7 +2182,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2582,7 +2594,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2994,7 +3006,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3200,7 +3212,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3487,7 +3499,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4024,7 +4036,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4642,7 +4654,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4848,7 +4860,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4929,7 +4941,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ18">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5260,7 +5272,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5338,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>1.86</v>
@@ -6084,7 +6096,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6162,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ24">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6496,7 +6508,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6989,7 +7001,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ28">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7114,7 +7126,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7526,7 +7538,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8016,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -9174,7 +9186,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9252,10 +9264,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9461,7 +9473,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9586,7 +9598,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9792,7 +9804,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10076,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10285,7 +10297,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ44">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.02</v>
@@ -10822,7 +10834,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11234,7 +11246,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11315,7 +11327,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11440,7 +11452,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11852,7 +11864,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11930,7 +11942,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52">
         <v>2.14</v>
@@ -12264,7 +12276,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12342,7 +12354,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>1.71</v>
@@ -12548,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12882,7 +12894,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13088,7 +13100,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13169,7 +13181,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13375,7 +13387,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13500,7 +13512,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14118,7 +14130,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14324,7 +14336,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14402,7 +14414,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
         <v>1.44</v>
@@ -15020,7 +15032,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>1.71</v>
@@ -15148,7 +15160,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15226,7 +15238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -15560,7 +15572,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15766,7 +15778,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16178,7 +16190,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16384,7 +16396,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16796,7 +16808,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17002,7 +17014,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17208,7 +17220,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17286,10 +17298,10 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17492,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
         <v>0.29</v>
@@ -18110,7 +18122,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ82">
         <v>0.71</v>
@@ -18444,7 +18456,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18525,7 +18537,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.76</v>
@@ -18650,7 +18662,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18937,7 +18949,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19062,7 +19074,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19140,7 +19152,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ87">
         <v>1.63</v>
@@ -19349,7 +19361,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ88">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR88">
         <v>1.09</v>
@@ -19555,7 +19567,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19886,7 +19898,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19967,7 +19979,7 @@
         <v>2</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>2.12</v>
@@ -20173,7 +20185,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ92">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR92">
         <v>2.48</v>
@@ -20504,7 +20516,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20582,7 +20594,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>1.71</v>
@@ -20710,7 +20722,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21122,7 +21134,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21328,7 +21340,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21740,7 +21752,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22152,7 +22164,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22436,7 +22448,7 @@
         <v>0.33</v>
       </c>
       <c r="AP103">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ103">
         <v>0.63</v>
@@ -22645,7 +22657,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22976,7 +22988,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23260,7 +23272,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
         <v>1.6</v>
@@ -23388,7 +23400,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23594,7 +23606,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23800,7 +23812,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23881,7 +23893,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ110">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
         <v>2.03</v>
@@ -24006,7 +24018,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24212,7 +24224,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24418,7 +24430,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24499,7 +24511,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR113">
         <v>1.66</v>
@@ -24830,7 +24842,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25654,7 +25666,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25941,7 +25953,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26147,7 +26159,7 @@
         <v>2</v>
       </c>
       <c r="AQ121">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>2.1</v>
@@ -26272,7 +26284,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26350,7 +26362,7 @@
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
         <v>1.71</v>
@@ -26556,7 +26568,7 @@
         <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123">
         <v>1.63</v>
@@ -26762,7 +26774,7 @@
         <v>0.25</v>
       </c>
       <c r="AP124">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>0.63</v>
@@ -27174,7 +27186,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ126">
         <v>1.44</v>
@@ -27508,7 +27520,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27589,7 +27601,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ128">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR128">
         <v>1.32</v>
@@ -28207,7 +28219,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ131">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR131">
         <v>1.26</v>
@@ -28332,7 +28344,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28744,7 +28756,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28950,7 +28962,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29156,7 +29168,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29237,7 +29249,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29362,7 +29374,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29440,7 +29452,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ137">
         <v>2.14</v>
@@ -29568,7 +29580,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29774,7 +29786,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29980,7 +29992,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30264,7 +30276,7 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ141">
         <v>2</v>
@@ -31010,7 +31022,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31088,10 +31100,10 @@
         <v>0.6</v>
       </c>
       <c r="AP145">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ145">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.88</v>
@@ -32246,7 +32258,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32658,7 +32670,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32736,7 +32748,7 @@
         <v>2.4</v>
       </c>
       <c r="AP153">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ153">
         <v>2.14</v>
@@ -33070,7 +33082,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33148,7 +33160,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
         <v>1.71</v>
@@ -33276,7 +33288,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33482,7 +33494,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33769,7 +33781,7 @@
         <v>2</v>
       </c>
       <c r="AQ158">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR158">
         <v>1.69</v>
@@ -33894,7 +33906,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -33972,7 +33984,7 @@
         <v>0.4</v>
       </c>
       <c r="AP159">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ159">
         <v>1.14</v>
@@ -34387,7 +34399,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ161">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34512,7 +34524,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34593,7 +34605,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR162">
         <v>1.29</v>
@@ -35336,7 +35348,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35542,7 +35554,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35748,7 +35760,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36366,7 +36378,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36447,7 +36459,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ171">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR171">
         <v>1.66</v>
@@ -36572,7 +36584,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37065,7 +37077,7 @@
         <v>2</v>
       </c>
       <c r="AQ174">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>2.02</v>
@@ -37190,7 +37202,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37396,7 +37408,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37474,7 +37486,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ176">
         <v>0.86</v>
@@ -37602,7 +37614,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38298,7 +38310,7 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ180">
         <v>0.57</v>
@@ -38426,7 +38438,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38916,7 +38928,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ183">
         <v>1.71</v>
@@ -39456,7 +39468,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39743,7 +39755,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ187">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR187">
         <v>1.31</v>
@@ -39868,7 +39880,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40074,7 +40086,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40280,7 +40292,7 @@
         <v>98</v>
       </c>
       <c r="P190" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -40486,7 +40498,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40692,7 +40704,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40770,10 +40782,10 @@
         <v>1.83</v>
       </c>
       <c r="AP192">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR192">
         <v>1.48</v>
@@ -40898,7 +40910,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -40976,10 +40988,10 @@
         <v>1.33</v>
       </c>
       <c r="AP193">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ193">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -42006,7 +42018,7 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ198">
         <v>1.81</v>
@@ -42134,7 +42146,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42340,7 +42352,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42421,7 +42433,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ200">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42752,7 +42764,7 @@
         <v>213</v>
       </c>
       <c r="P202" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42830,10 +42842,10 @@
         <v>2</v>
       </c>
       <c r="AP202">
+        <v>1.88</v>
+      </c>
+      <c r="AQ202">
         <v>1.81</v>
-      </c>
-      <c r="AQ202">
-        <v>1.93</v>
       </c>
       <c r="AR202">
         <v>2.2</v>
@@ -42958,7 +42970,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43036,7 +43048,7 @@
         <v>1.81</v>
       </c>
       <c r="AP203">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ203">
         <v>1.76</v>
@@ -43164,7 +43176,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43576,7 +43588,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43988,7 +44000,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44194,7 +44206,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44557,6 +44569,1036 @@
       </c>
       <c r="BP210">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7345107</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s">
+        <v>71</v>
+      </c>
+      <c r="H211" t="s">
+        <v>83</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>98</v>
+      </c>
+      <c r="P211" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q211">
+        <v>4.5</v>
+      </c>
+      <c r="R211">
+        <v>1.91</v>
+      </c>
+      <c r="S211">
+        <v>3</v>
+      </c>
+      <c r="T211">
+        <v>1.62</v>
+      </c>
+      <c r="U211">
+        <v>2.2</v>
+      </c>
+      <c r="V211">
+        <v>4</v>
+      </c>
+      <c r="W211">
+        <v>1.22</v>
+      </c>
+      <c r="X211">
+        <v>13</v>
+      </c>
+      <c r="Y211">
+        <v>1.04</v>
+      </c>
+      <c r="Z211">
+        <v>3.6</v>
+      </c>
+      <c r="AA211">
+        <v>3.1</v>
+      </c>
+      <c r="AB211">
+        <v>2.15</v>
+      </c>
+      <c r="AC211">
+        <v>1.1</v>
+      </c>
+      <c r="AD211">
+        <v>6.6</v>
+      </c>
+      <c r="AE211">
+        <v>1.55</v>
+      </c>
+      <c r="AF211">
+        <v>2.39</v>
+      </c>
+      <c r="AG211">
+        <v>2.5</v>
+      </c>
+      <c r="AH211">
+        <v>1.5</v>
+      </c>
+      <c r="AI211">
+        <v>2.2</v>
+      </c>
+      <c r="AJ211">
+        <v>1.62</v>
+      </c>
+      <c r="AK211">
+        <v>1.53</v>
+      </c>
+      <c r="AL211">
+        <v>1.33</v>
+      </c>
+      <c r="AM211">
+        <v>1.4</v>
+      </c>
+      <c r="AN211">
+        <v>0.36</v>
+      </c>
+      <c r="AO211">
+        <v>1.81</v>
+      </c>
+      <c r="AP211">
+        <v>0.33</v>
+      </c>
+      <c r="AQ211">
+        <v>1.88</v>
+      </c>
+      <c r="AR211">
+        <v>1.49</v>
+      </c>
+      <c r="AS211">
+        <v>1.29</v>
+      </c>
+      <c r="AT211">
+        <v>2.78</v>
+      </c>
+      <c r="AU211">
+        <v>3</v>
+      </c>
+      <c r="AV211">
+        <v>4</v>
+      </c>
+      <c r="AW211">
+        <v>7</v>
+      </c>
+      <c r="AX211">
+        <v>4</v>
+      </c>
+      <c r="AY211">
+        <v>10</v>
+      </c>
+      <c r="AZ211">
+        <v>8</v>
+      </c>
+      <c r="BA211">
+        <v>8</v>
+      </c>
+      <c r="BB211">
+        <v>2</v>
+      </c>
+      <c r="BC211">
+        <v>10</v>
+      </c>
+      <c r="BD211">
+        <v>2.2</v>
+      </c>
+      <c r="BE211">
+        <v>6.9</v>
+      </c>
+      <c r="BF211">
+        <v>2</v>
+      </c>
+      <c r="BG211">
+        <v>1.36</v>
+      </c>
+      <c r="BH211">
+        <v>2.8</v>
+      </c>
+      <c r="BI211">
+        <v>1.65</v>
+      </c>
+      <c r="BJ211">
+        <v>2.08</v>
+      </c>
+      <c r="BK211">
+        <v>2.05</v>
+      </c>
+      <c r="BL211">
+        <v>1.7</v>
+      </c>
+      <c r="BM211">
+        <v>2.8</v>
+      </c>
+      <c r="BN211">
+        <v>1.37</v>
+      </c>
+      <c r="BO211">
+        <v>3.85</v>
+      </c>
+      <c r="BP211">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7345108</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
+        <v>95</v>
+      </c>
+      <c r="H212" t="s">
+        <v>78</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>220</v>
+      </c>
+      <c r="P212" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q212">
+        <v>3.75</v>
+      </c>
+      <c r="R212">
+        <v>1.8</v>
+      </c>
+      <c r="S212">
+        <v>3.75</v>
+      </c>
+      <c r="T212">
+        <v>1.62</v>
+      </c>
+      <c r="U212">
+        <v>2.2</v>
+      </c>
+      <c r="V212">
+        <v>4</v>
+      </c>
+      <c r="W212">
+        <v>1.22</v>
+      </c>
+      <c r="X212">
+        <v>13</v>
+      </c>
+      <c r="Y212">
+        <v>1.04</v>
+      </c>
+      <c r="Z212">
+        <v>3</v>
+      </c>
+      <c r="AA212">
+        <v>2.75</v>
+      </c>
+      <c r="AB212">
+        <v>2.88</v>
+      </c>
+      <c r="AC212">
+        <v>1.11</v>
+      </c>
+      <c r="AD212">
+        <v>6.18</v>
+      </c>
+      <c r="AE212">
+        <v>1.55</v>
+      </c>
+      <c r="AF212">
+        <v>2.3</v>
+      </c>
+      <c r="AG212">
+        <v>3.1</v>
+      </c>
+      <c r="AH212">
+        <v>1.36</v>
+      </c>
+      <c r="AI212">
+        <v>2.38</v>
+      </c>
+      <c r="AJ212">
+        <v>1.53</v>
+      </c>
+      <c r="AK212">
+        <v>1.44</v>
+      </c>
+      <c r="AL212">
+        <v>1.36</v>
+      </c>
+      <c r="AM212">
+        <v>1.4</v>
+      </c>
+      <c r="AN212">
+        <v>0.93</v>
+      </c>
+      <c r="AO212">
+        <v>1.14</v>
+      </c>
+      <c r="AP212">
+        <v>1.07</v>
+      </c>
+      <c r="AQ212">
+        <v>1.07</v>
+      </c>
+      <c r="AR212">
+        <v>1.26</v>
+      </c>
+      <c r="AS212">
+        <v>1.24</v>
+      </c>
+      <c r="AT212">
+        <v>2.5</v>
+      </c>
+      <c r="AU212">
+        <v>4</v>
+      </c>
+      <c r="AV212">
+        <v>0</v>
+      </c>
+      <c r="AW212">
+        <v>4</v>
+      </c>
+      <c r="AX212">
+        <v>4</v>
+      </c>
+      <c r="AY212">
+        <v>8</v>
+      </c>
+      <c r="AZ212">
+        <v>4</v>
+      </c>
+      <c r="BA212">
+        <v>3</v>
+      </c>
+      <c r="BB212">
+        <v>4</v>
+      </c>
+      <c r="BC212">
+        <v>7</v>
+      </c>
+      <c r="BD212">
+        <v>2.16</v>
+      </c>
+      <c r="BE212">
+        <v>6.8</v>
+      </c>
+      <c r="BF212">
+        <v>2.05</v>
+      </c>
+      <c r="BG212">
+        <v>1.48</v>
+      </c>
+      <c r="BH212">
+        <v>2.45</v>
+      </c>
+      <c r="BI212">
+        <v>1.95</v>
+      </c>
+      <c r="BJ212">
+        <v>1.85</v>
+      </c>
+      <c r="BK212">
+        <v>2.4</v>
+      </c>
+      <c r="BL212">
+        <v>1.49</v>
+      </c>
+      <c r="BM212">
+        <v>3.3</v>
+      </c>
+      <c r="BN212">
+        <v>1.28</v>
+      </c>
+      <c r="BO212">
+        <v>4.7</v>
+      </c>
+      <c r="BP212">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7345105</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45424.73958333334</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
+        <v>91</v>
+      </c>
+      <c r="H213" t="s">
+        <v>80</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>3</v>
+      </c>
+      <c r="K213">
+        <v>4</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>4</v>
+      </c>
+      <c r="N213">
+        <v>8</v>
+      </c>
+      <c r="O213" t="s">
+        <v>221</v>
+      </c>
+      <c r="P213" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q213">
+        <v>4</v>
+      </c>
+      <c r="R213">
+        <v>2.05</v>
+      </c>
+      <c r="S213">
+        <v>3</v>
+      </c>
+      <c r="T213">
+        <v>1.5</v>
+      </c>
+      <c r="U213">
+        <v>2.5</v>
+      </c>
+      <c r="V213">
+        <v>3.4</v>
+      </c>
+      <c r="W213">
+        <v>1.3</v>
+      </c>
+      <c r="X213">
+        <v>10</v>
+      </c>
+      <c r="Y213">
+        <v>1.06</v>
+      </c>
+      <c r="Z213">
+        <v>3.3</v>
+      </c>
+      <c r="AA213">
+        <v>3.3</v>
+      </c>
+      <c r="AB213">
+        <v>2.25</v>
+      </c>
+      <c r="AC213">
+        <v>1.02</v>
+      </c>
+      <c r="AD213">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE213">
+        <v>1.4</v>
+      </c>
+      <c r="AF213">
+        <v>2.82</v>
+      </c>
+      <c r="AG213">
+        <v>2.25</v>
+      </c>
+      <c r="AH213">
+        <v>1.62</v>
+      </c>
+      <c r="AI213">
+        <v>1.95</v>
+      </c>
+      <c r="AJ213">
+        <v>1.8</v>
+      </c>
+      <c r="AK213">
+        <v>1.76</v>
+      </c>
+      <c r="AL213">
+        <v>1.37</v>
+      </c>
+      <c r="AM213">
+        <v>1.33</v>
+      </c>
+      <c r="AN213">
+        <v>1</v>
+      </c>
+      <c r="AO213">
+        <v>1.71</v>
+      </c>
+      <c r="AP213">
+        <v>1</v>
+      </c>
+      <c r="AQ213">
+        <v>1.67</v>
+      </c>
+      <c r="AR213">
+        <v>1.51</v>
+      </c>
+      <c r="AS213">
+        <v>1.51</v>
+      </c>
+      <c r="AT213">
+        <v>3.02</v>
+      </c>
+      <c r="AU213">
+        <v>5</v>
+      </c>
+      <c r="AV213">
+        <v>10</v>
+      </c>
+      <c r="AW213">
+        <v>4</v>
+      </c>
+      <c r="AX213">
+        <v>4</v>
+      </c>
+      <c r="AY213">
+        <v>9</v>
+      </c>
+      <c r="AZ213">
+        <v>14</v>
+      </c>
+      <c r="BA213">
+        <v>4</v>
+      </c>
+      <c r="BB213">
+        <v>9</v>
+      </c>
+      <c r="BC213">
+        <v>13</v>
+      </c>
+      <c r="BD213">
+        <v>2.3</v>
+      </c>
+      <c r="BE213">
+        <v>6.9</v>
+      </c>
+      <c r="BF213">
+        <v>1.93</v>
+      </c>
+      <c r="BG213">
+        <v>1.48</v>
+      </c>
+      <c r="BH213">
+        <v>2.45</v>
+      </c>
+      <c r="BI213">
+        <v>1.92</v>
+      </c>
+      <c r="BJ213">
+        <v>1.88</v>
+      </c>
+      <c r="BK213">
+        <v>2.4</v>
+      </c>
+      <c r="BL213">
+        <v>1.49</v>
+      </c>
+      <c r="BM213">
+        <v>3.3</v>
+      </c>
+      <c r="BN213">
+        <v>1.28</v>
+      </c>
+      <c r="BO213">
+        <v>4.7</v>
+      </c>
+      <c r="BP213">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7345109</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45424.73958333334</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>87</v>
+      </c>
+      <c r="H214" t="s">
+        <v>76</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>98</v>
+      </c>
+      <c r="P214" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q214">
+        <v>2.3</v>
+      </c>
+      <c r="R214">
+        <v>2.1</v>
+      </c>
+      <c r="S214">
+        <v>5.5</v>
+      </c>
+      <c r="T214">
+        <v>1.44</v>
+      </c>
+      <c r="U214">
+        <v>2.63</v>
+      </c>
+      <c r="V214">
+        <v>3.4</v>
+      </c>
+      <c r="W214">
+        <v>1.3</v>
+      </c>
+      <c r="X214">
+        <v>10</v>
+      </c>
+      <c r="Y214">
+        <v>1.06</v>
+      </c>
+      <c r="Z214">
+        <v>1.67</v>
+      </c>
+      <c r="AA214">
+        <v>3.6</v>
+      </c>
+      <c r="AB214">
+        <v>5.25</v>
+      </c>
+      <c r="AC214">
+        <v>1.04</v>
+      </c>
+      <c r="AD214">
+        <v>7.8</v>
+      </c>
+      <c r="AE214">
+        <v>1.35</v>
+      </c>
+      <c r="AF214">
+        <v>2.9</v>
+      </c>
+      <c r="AG214">
+        <v>2.15</v>
+      </c>
+      <c r="AH214">
+        <v>1.67</v>
+      </c>
+      <c r="AI214">
+        <v>2.05</v>
+      </c>
+      <c r="AJ214">
+        <v>1.7</v>
+      </c>
+      <c r="AK214">
+        <v>1.12</v>
+      </c>
+      <c r="AL214">
+        <v>1.22</v>
+      </c>
+      <c r="AM214">
+        <v>2.4</v>
+      </c>
+      <c r="AN214">
+        <v>1.64</v>
+      </c>
+      <c r="AO214">
+        <v>0.57</v>
+      </c>
+      <c r="AP214">
+        <v>1.53</v>
+      </c>
+      <c r="AQ214">
+        <v>0.73</v>
+      </c>
+      <c r="AR214">
+        <v>1.43</v>
+      </c>
+      <c r="AS214">
+        <v>1.32</v>
+      </c>
+      <c r="AT214">
+        <v>2.75</v>
+      </c>
+      <c r="AU214">
+        <v>3</v>
+      </c>
+      <c r="AV214">
+        <v>5</v>
+      </c>
+      <c r="AW214">
+        <v>12</v>
+      </c>
+      <c r="AX214">
+        <v>1</v>
+      </c>
+      <c r="AY214">
+        <v>15</v>
+      </c>
+      <c r="AZ214">
+        <v>6</v>
+      </c>
+      <c r="BA214">
+        <v>6</v>
+      </c>
+      <c r="BB214">
+        <v>3</v>
+      </c>
+      <c r="BC214">
+        <v>9</v>
+      </c>
+      <c r="BD214">
+        <v>1.48</v>
+      </c>
+      <c r="BE214">
+        <v>7.5</v>
+      </c>
+      <c r="BF214">
+        <v>3.55</v>
+      </c>
+      <c r="BG214">
+        <v>1.48</v>
+      </c>
+      <c r="BH214">
+        <v>2.45</v>
+      </c>
+      <c r="BI214">
+        <v>1.92</v>
+      </c>
+      <c r="BJ214">
+        <v>1.88</v>
+      </c>
+      <c r="BK214">
+        <v>2.4</v>
+      </c>
+      <c r="BL214">
+        <v>1.49</v>
+      </c>
+      <c r="BM214">
+        <v>3.3</v>
+      </c>
+      <c r="BN214">
+        <v>1.28</v>
+      </c>
+      <c r="BO214">
+        <v>4.7</v>
+      </c>
+      <c r="BP214">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7345117</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45424.84375</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215" t="s">
+        <v>72</v>
+      </c>
+      <c r="H215" t="s">
+        <v>92</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>222</v>
+      </c>
+      <c r="P215" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q215">
+        <v>3.75</v>
+      </c>
+      <c r="R215">
+        <v>1.91</v>
+      </c>
+      <c r="S215">
+        <v>3.4</v>
+      </c>
+      <c r="T215">
+        <v>1.57</v>
+      </c>
+      <c r="U215">
+        <v>2.25</v>
+      </c>
+      <c r="V215">
+        <v>3.75</v>
+      </c>
+      <c r="W215">
+        <v>1.25</v>
+      </c>
+      <c r="X215">
+        <v>13</v>
+      </c>
+      <c r="Y215">
+        <v>1.04</v>
+      </c>
+      <c r="Z215">
+        <v>2.9</v>
+      </c>
+      <c r="AA215">
+        <v>3</v>
+      </c>
+      <c r="AB215">
+        <v>2.6</v>
+      </c>
+      <c r="AC215">
+        <v>1.02</v>
+      </c>
+      <c r="AD215">
+        <v>2.46</v>
+      </c>
+      <c r="AE215">
+        <v>1.5</v>
+      </c>
+      <c r="AF215">
+        <v>2.4</v>
+      </c>
+      <c r="AG215">
+        <v>2.6</v>
+      </c>
+      <c r="AH215">
+        <v>1.48</v>
+      </c>
+      <c r="AI215">
+        <v>2.1</v>
+      </c>
+      <c r="AJ215">
+        <v>1.67</v>
+      </c>
+      <c r="AK215">
+        <v>1.5</v>
+      </c>
+      <c r="AL215">
+        <v>1.36</v>
+      </c>
+      <c r="AM215">
+        <v>1.4</v>
+      </c>
+      <c r="AN215">
+        <v>0.71</v>
+      </c>
+      <c r="AO215">
+        <v>1.93</v>
+      </c>
+      <c r="AP215">
+        <v>0.87</v>
+      </c>
+      <c r="AQ215">
+        <v>1.81</v>
+      </c>
+      <c r="AR215">
+        <v>1.91</v>
+      </c>
+      <c r="AS215">
+        <v>1.44</v>
+      </c>
+      <c r="AT215">
+        <v>3.35</v>
+      </c>
+      <c r="AU215">
+        <v>6</v>
+      </c>
+      <c r="AV215">
+        <v>5</v>
+      </c>
+      <c r="AW215">
+        <v>4</v>
+      </c>
+      <c r="AX215">
+        <v>2</v>
+      </c>
+      <c r="AY215">
+        <v>10</v>
+      </c>
+      <c r="AZ215">
+        <v>7</v>
+      </c>
+      <c r="BA215">
+        <v>3</v>
+      </c>
+      <c r="BB215">
+        <v>13</v>
+      </c>
+      <c r="BC215">
+        <v>16</v>
+      </c>
+      <c r="BD215">
+        <v>2.02</v>
+      </c>
+      <c r="BE215">
+        <v>6.9</v>
+      </c>
+      <c r="BF215">
+        <v>2.18</v>
+      </c>
+      <c r="BG215">
+        <v>1.48</v>
+      </c>
+      <c r="BH215">
+        <v>2.45</v>
+      </c>
+      <c r="BI215">
+        <v>1.88</v>
+      </c>
+      <c r="BJ215">
+        <v>1.92</v>
+      </c>
+      <c r="BK215">
+        <v>2.4</v>
+      </c>
+      <c r="BL215">
+        <v>1.49</v>
+      </c>
+      <c r="BM215">
+        <v>3.3</v>
+      </c>
+      <c r="BN215">
+        <v>1.28</v>
+      </c>
+      <c r="BO215">
+        <v>4.7</v>
+      </c>
+      <c r="BP215">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,9 @@
     <t>['29']</t>
   </si>
   <si>
+    <t>['39', '51', '68']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -943,7 +946,10 @@
     <t>['12', '28', '45+2', '56']</t>
   </si>
   <si>
-    <t>['9', '84']</t>
+    <t>['9', '83']</t>
+  </si>
+  <si>
+    <t>['82']</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2182,7 +2188,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2469,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2594,7 +2600,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3006,7 +3012,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3212,7 +3218,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4036,7 +4042,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4654,7 +4660,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4860,7 +4866,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4938,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5147,7 +5153,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5272,7 +5278,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6096,7 +6102,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6508,7 +6514,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6998,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -7126,7 +7132,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7538,7 +7544,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8237,7 +8243,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR34">
         <v>1.54</v>
@@ -9186,7 +9192,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9598,7 +9604,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9804,7 +9810,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10834,7 +10840,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10912,7 +10918,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>1.86</v>
@@ -11246,7 +11252,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11452,7 +11458,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11533,7 +11539,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11864,7 +11870,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12276,7 +12282,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12894,7 +12900,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13100,7 +13106,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13512,7 +13518,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13590,7 +13596,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
         <v>0.57</v>
@@ -14130,7 +14136,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14336,7 +14342,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15160,7 +15166,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15241,7 +15247,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15572,7 +15578,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16190,7 +16196,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16396,7 +16402,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16808,7 +16814,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17014,7 +17020,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17095,7 +17101,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.76</v>
@@ -17220,7 +17226,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -18328,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18456,7 +18462,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18662,7 +18668,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19074,7 +19080,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19564,7 +19570,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19898,7 +19904,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20182,7 +20188,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ92">
         <v>1.75</v>
@@ -20516,7 +20522,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20597,7 +20603,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.3</v>
@@ -20722,7 +20728,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21134,7 +21140,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21340,7 +21346,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21752,7 +21758,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21830,7 +21836,7 @@
         <v>3</v>
       </c>
       <c r="AP100">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>1.71</v>
@@ -22164,7 +22170,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22988,7 +22994,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23275,7 +23281,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23606,7 +23612,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23812,7 +23818,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24018,7 +24024,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24224,7 +24230,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24430,7 +24436,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24842,7 +24848,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25666,7 +25672,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25950,7 +25956,7 @@
         <v>1.25</v>
       </c>
       <c r="AP120">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120">
         <v>1.33</v>
@@ -26284,7 +26290,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26365,7 +26371,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR122">
         <v>1.8</v>
@@ -27392,7 +27398,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ127">
         <v>1.67</v>
@@ -27520,7 +27526,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28344,7 +28350,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28756,7 +28762,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28962,7 +28968,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29168,7 +29174,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29374,7 +29380,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29580,7 +29586,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29786,7 +29792,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29867,7 +29873,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ139">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR139">
         <v>1.56</v>
@@ -29992,7 +29998,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31022,7 +31028,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -32258,7 +32264,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32336,7 +32342,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ151">
         <v>0.63</v>
@@ -32670,7 +32676,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33082,7 +33088,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33288,7 +33294,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33494,7 +33500,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33906,7 +33912,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34524,7 +34530,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34811,7 +34817,7 @@
         <v>2</v>
       </c>
       <c r="AQ163">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR163">
         <v>2.03</v>
@@ -35220,7 +35226,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ165">
         <v>0.86</v>
@@ -35348,7 +35354,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35554,7 +35560,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35635,7 +35641,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ167">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR167">
         <v>1.49</v>
@@ -35760,7 +35766,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36378,7 +36384,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36584,7 +36590,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37202,7 +37208,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37280,7 +37286,7 @@
         <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ175">
         <v>1.14</v>
@@ -37408,7 +37414,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37614,7 +37620,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38438,7 +38444,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39468,7 +39474,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39546,10 +39552,10 @@
         <v>1.5</v>
       </c>
       <c r="AP186">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ186">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR186">
         <v>1.95</v>
@@ -39880,7 +39886,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40086,7 +40092,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40292,7 +40298,7 @@
         <v>98</v>
       </c>
       <c r="P190" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -40373,7 +40379,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ190">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR190">
         <v>1.46</v>
@@ -40498,7 +40504,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40704,7 +40710,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40910,7 +40916,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -42146,7 +42152,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42227,7 +42233,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ199">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR199">
         <v>2.01</v>
@@ -42352,7 +42358,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42639,7 +42645,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ201">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -42764,7 +42770,7 @@
         <v>213</v>
       </c>
       <c r="P202" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42970,7 +42976,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43051,7 +43057,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ203">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR203">
         <v>2.12</v>
@@ -43176,7 +43182,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43588,7 +43594,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -44000,7 +44006,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44206,7 +44212,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -45030,7 +45036,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45236,7 +45242,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45598,6 +45604,418 @@
         <v>4.7</v>
       </c>
       <c r="BP215">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7345114</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45425.79166666666</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
+        <v>85</v>
+      </c>
+      <c r="H216" t="s">
+        <v>88</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>3</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>4</v>
+      </c>
+      <c r="O216" t="s">
+        <v>223</v>
+      </c>
+      <c r="P216" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q216">
+        <v>3.6</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>3.25</v>
+      </c>
+      <c r="T216">
+        <v>1.44</v>
+      </c>
+      <c r="U216">
+        <v>2.63</v>
+      </c>
+      <c r="V216">
+        <v>3.25</v>
+      </c>
+      <c r="W216">
+        <v>1.33</v>
+      </c>
+      <c r="X216">
+        <v>10</v>
+      </c>
+      <c r="Y216">
+        <v>1.06</v>
+      </c>
+      <c r="Z216">
+        <v>2.9</v>
+      </c>
+      <c r="AA216">
+        <v>3.1</v>
+      </c>
+      <c r="AB216">
+        <v>2.55</v>
+      </c>
+      <c r="AC216">
+        <v>1.07</v>
+      </c>
+      <c r="AD216">
+        <v>8</v>
+      </c>
+      <c r="AE216">
+        <v>1.38</v>
+      </c>
+      <c r="AF216">
+        <v>2.95</v>
+      </c>
+      <c r="AG216">
+        <v>2.25</v>
+      </c>
+      <c r="AH216">
+        <v>1.62</v>
+      </c>
+      <c r="AI216">
+        <v>1.95</v>
+      </c>
+      <c r="AJ216">
+        <v>1.8</v>
+      </c>
+      <c r="AK216">
+        <v>1.01</v>
+      </c>
+      <c r="AL216">
+        <v>1.4</v>
+      </c>
+      <c r="AM216">
+        <v>1.01</v>
+      </c>
+      <c r="AN216">
+        <v>1.14</v>
+      </c>
+      <c r="AO216">
+        <v>1.76</v>
+      </c>
+      <c r="AP216">
+        <v>1.27</v>
+      </c>
+      <c r="AQ216">
+        <v>1.67</v>
+      </c>
+      <c r="AR216">
+        <v>1.89</v>
+      </c>
+      <c r="AS216">
+        <v>1.5</v>
+      </c>
+      <c r="AT216">
+        <v>3.39</v>
+      </c>
+      <c r="AU216">
+        <v>6</v>
+      </c>
+      <c r="AV216">
+        <v>5</v>
+      </c>
+      <c r="AW216">
+        <v>7</v>
+      </c>
+      <c r="AX216">
+        <v>5</v>
+      </c>
+      <c r="AY216">
+        <v>13</v>
+      </c>
+      <c r="AZ216">
+        <v>10</v>
+      </c>
+      <c r="BA216">
+        <v>4</v>
+      </c>
+      <c r="BB216">
+        <v>7</v>
+      </c>
+      <c r="BC216">
+        <v>11</v>
+      </c>
+      <c r="BD216">
+        <v>1.87</v>
+      </c>
+      <c r="BE216">
+        <v>7.2</v>
+      </c>
+      <c r="BF216">
+        <v>2.4</v>
+      </c>
+      <c r="BG216">
+        <v>1.2</v>
+      </c>
+      <c r="BH216">
+        <v>4.3</v>
+      </c>
+      <c r="BI216">
+        <v>1.35</v>
+      </c>
+      <c r="BJ216">
+        <v>2.9</v>
+      </c>
+      <c r="BK216">
+        <v>2.38</v>
+      </c>
+      <c r="BL216">
+        <v>2.16</v>
+      </c>
+      <c r="BM216">
+        <v>2</v>
+      </c>
+      <c r="BN216">
+        <v>1.71</v>
+      </c>
+      <c r="BO216">
+        <v>2.6</v>
+      </c>
+      <c r="BP216">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7345112</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45425.875</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s">
+        <v>93</v>
+      </c>
+      <c r="H217" t="s">
+        <v>77</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>133</v>
+      </c>
+      <c r="P217" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q217">
+        <v>3.4</v>
+      </c>
+      <c r="R217">
+        <v>1.83</v>
+      </c>
+      <c r="S217">
+        <v>4.33</v>
+      </c>
+      <c r="T217">
+        <v>1.62</v>
+      </c>
+      <c r="U217">
+        <v>2.2</v>
+      </c>
+      <c r="V217">
+        <v>4</v>
+      </c>
+      <c r="W217">
+        <v>1.22</v>
+      </c>
+      <c r="X217">
+        <v>15</v>
+      </c>
+      <c r="Y217">
+        <v>1.03</v>
+      </c>
+      <c r="Z217">
+        <v>2.45</v>
+      </c>
+      <c r="AA217">
+        <v>2.75</v>
+      </c>
+      <c r="AB217">
+        <v>3.6</v>
+      </c>
+      <c r="AC217">
+        <v>1.12</v>
+      </c>
+      <c r="AD217">
+        <v>6</v>
+      </c>
+      <c r="AE217">
+        <v>1.58</v>
+      </c>
+      <c r="AF217">
+        <v>2.25</v>
+      </c>
+      <c r="AG217">
+        <v>2.88</v>
+      </c>
+      <c r="AH217">
+        <v>1.4</v>
+      </c>
+      <c r="AI217">
+        <v>2.25</v>
+      </c>
+      <c r="AJ217">
+        <v>1.57</v>
+      </c>
+      <c r="AK217">
+        <v>1.01</v>
+      </c>
+      <c r="AL217">
+        <v>1.48</v>
+      </c>
+      <c r="AM217">
+        <v>1.07</v>
+      </c>
+      <c r="AN217">
+        <v>1.43</v>
+      </c>
+      <c r="AO217">
+        <v>1.21</v>
+      </c>
+      <c r="AP217">
+        <v>1.53</v>
+      </c>
+      <c r="AQ217">
+        <v>1.13</v>
+      </c>
+      <c r="AR217">
+        <v>1.67</v>
+      </c>
+      <c r="AS217">
+        <v>1.37</v>
+      </c>
+      <c r="AT217">
+        <v>3.04</v>
+      </c>
+      <c r="AU217">
+        <v>7</v>
+      </c>
+      <c r="AV217">
+        <v>2</v>
+      </c>
+      <c r="AW217">
+        <v>8</v>
+      </c>
+      <c r="AX217">
+        <v>3</v>
+      </c>
+      <c r="AY217">
+        <v>15</v>
+      </c>
+      <c r="AZ217">
+        <v>5</v>
+      </c>
+      <c r="BA217">
+        <v>4</v>
+      </c>
+      <c r="BB217">
+        <v>2</v>
+      </c>
+      <c r="BC217">
+        <v>6</v>
+      </c>
+      <c r="BD217">
+        <v>1.62</v>
+      </c>
+      <c r="BE217">
+        <v>7.7</v>
+      </c>
+      <c r="BF217">
+        <v>2.91</v>
+      </c>
+      <c r="BG217">
+        <v>1.48</v>
+      </c>
+      <c r="BH217">
+        <v>2.45</v>
+      </c>
+      <c r="BI217">
+        <v>1.85</v>
+      </c>
+      <c r="BJ217">
+        <v>1.95</v>
+      </c>
+      <c r="BK217">
+        <v>2.4</v>
+      </c>
+      <c r="BL217">
+        <v>1.49</v>
+      </c>
+      <c r="BM217">
+        <v>3.3</v>
+      </c>
+      <c r="BN217">
+        <v>1.28</v>
+      </c>
+      <c r="BO217">
+        <v>4.7</v>
+      </c>
+      <c r="BP217">
         <v>1.14</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -45971,13 +45971,13 @@
         <v>5</v>
       </c>
       <c r="BA217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB217">
         <v>2</v>
       </c>
       <c r="BC217">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD217">
         <v>1.62</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,12 @@
     <t>['39', '51', '68']</t>
   </si>
   <si>
+    <t>['35', '81', '86']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -841,9 +847,6 @@
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['41']</t>
-  </si>
-  <si>
     <t>['42']</t>
   </si>
   <si>
@@ -950,6 +953,9 @@
   </si>
   <si>
     <t>['82']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2188,7 +2194,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2600,7 +2606,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2681,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2884,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -3012,7 +3018,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3218,7 +3224,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3711,7 +3717,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4042,7 +4048,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4120,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4329,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4660,7 +4666,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4866,7 +4872,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5278,7 +5284,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5974,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6102,7 +6108,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6514,7 +6520,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7132,7 +7138,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7213,7 +7219,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ29">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>0.9</v>
@@ -7419,7 +7425,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7544,7 +7550,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7828,7 +7834,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
         <v>0.57</v>
@@ -8240,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ34">
         <v>1.45</v>
@@ -8655,7 +8661,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ36">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -9067,7 +9073,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ38">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR38">
         <v>1.15</v>
@@ -9192,7 +9198,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9604,7 +9610,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9810,7 +9816,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10840,7 +10846,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11127,7 +11133,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>1.98</v>
@@ -11252,7 +11258,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11458,7 +11464,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11870,7 +11876,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11951,7 +11957,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.08</v>
@@ -12282,7 +12288,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12900,7 +12906,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13106,7 +13112,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13518,7 +13524,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13805,7 +13811,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR61">
         <v>1.97</v>
@@ -14136,7 +14142,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14342,7 +14348,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15166,7 +15172,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15453,7 +15459,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15578,7 +15584,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15656,7 +15662,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ70">
         <v>1.71</v>
@@ -16196,7 +16202,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16277,7 +16283,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.55</v>
@@ -16402,7 +16408,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16483,7 +16489,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR74">
         <v>1.14</v>
@@ -16814,7 +16820,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17020,7 +17026,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17098,7 +17104,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17226,7 +17232,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -18462,7 +18468,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18668,7 +18674,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18746,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85">
         <v>0.63</v>
@@ -19080,7 +19086,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19904,7 +19910,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19982,7 +19988,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -20522,7 +20528,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20728,7 +20734,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20809,7 +20815,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -21012,7 +21018,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ96">
         <v>0.86</v>
@@ -21140,7 +21146,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21346,7 +21352,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21758,7 +21764,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22170,7 +22176,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22248,7 +22254,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ102">
         <v>1.67</v>
@@ -22994,7 +23000,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23075,7 +23081,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ106">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23612,7 +23618,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23818,7 +23824,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24024,7 +24030,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24102,7 +24108,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111">
         <v>2.14</v>
@@ -24230,7 +24236,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24311,7 +24317,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ112">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.69</v>
@@ -24436,7 +24442,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24848,7 +24854,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25547,7 +25553,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ118">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR118">
         <v>1.8</v>
@@ -25672,7 +25678,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26162,7 +26168,7 @@
         <v>0.75</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26290,7 +26296,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27526,7 +27532,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28350,7 +28356,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28762,7 +28768,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28968,7 +28974,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29046,10 +29052,10 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ135">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR135">
         <v>1.67</v>
@@ -29174,7 +29180,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29380,7 +29386,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29586,7 +29592,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29664,7 +29670,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ138">
         <v>0.86</v>
@@ -29792,7 +29798,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29998,7 +30004,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30079,7 +30085,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ140">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.2</v>
@@ -31028,7 +31034,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31930,10 +31936,10 @@
         <v>1.2</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ149">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR149">
         <v>2.23</v>
@@ -32264,7 +32270,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32676,7 +32682,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32963,7 +32969,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ154">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR154">
         <v>1.68</v>
@@ -33088,7 +33094,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33169,7 +33175,7 @@
         <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR155">
         <v>1.3</v>
@@ -33294,7 +33300,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33500,7 +33506,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33784,7 +33790,7 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
         <v>1.75</v>
@@ -33912,7 +33918,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -33993,7 +33999,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ159">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.64</v>
@@ -34530,7 +34536,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35354,7 +35360,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35560,7 +35566,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35638,7 +35644,7 @@
         <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ167">
         <v>1.5</v>
@@ -35766,7 +35772,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35847,7 +35853,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ168">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR168">
         <v>1.3</v>
@@ -36384,7 +36390,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36590,7 +36596,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37208,7 +37214,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37289,7 +37295,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ175">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.61</v>
@@ -37414,7 +37420,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37495,7 +37501,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ176">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37620,7 +37626,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38110,7 +38116,7 @@
         <v>0.57</v>
       </c>
       <c r="AP179">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ179">
         <v>0.44</v>
@@ -38444,7 +38450,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38937,7 +38943,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ183">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR183">
         <v>1.55</v>
@@ -39474,7 +39480,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39886,7 +39892,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40092,7 +40098,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40298,7 +40304,7 @@
         <v>98</v>
       </c>
       <c r="P190" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -40376,7 +40382,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ190">
         <v>1.45</v>
@@ -40504,7 +40510,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40710,7 +40716,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40916,7 +40922,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41200,7 +41206,7 @@
         <v>2.17</v>
       </c>
       <c r="AP194">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ194">
         <v>1.86</v>
@@ -41409,7 +41415,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ195">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR195">
         <v>1.76</v>
@@ -41821,7 +41827,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ197">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR197">
         <v>1.7</v>
@@ -42152,7 +42158,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42230,7 +42236,7 @@
         <v>1.79</v>
       </c>
       <c r="AP199">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ199">
         <v>1.67</v>
@@ -42358,7 +42364,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42436,7 +42442,7 @@
         <v>1.92</v>
       </c>
       <c r="AP200">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ200">
         <v>1.81</v>
@@ -42770,7 +42776,7 @@
         <v>213</v>
       </c>
       <c r="P202" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42976,7 +42982,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43182,7 +43188,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43263,7 +43269,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ204">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43594,7 +43600,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43881,7 +43887,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ207">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR207">
         <v>1.3</v>
@@ -44006,7 +44012,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44084,7 +44090,7 @@
         <v>1.73</v>
       </c>
       <c r="AP208">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ208">
         <v>1.81</v>
@@ -44212,7 +44218,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44496,7 +44502,7 @@
         <v>0.79</v>
       </c>
       <c r="AP210">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210">
         <v>0.73</v>
@@ -45036,7 +45042,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45114,7 +45120,7 @@
         <v>1.71</v>
       </c>
       <c r="AP213">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ213">
         <v>1.67</v>
@@ -45242,7 +45248,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45323,7 +45329,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ214">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -45654,7 +45660,7 @@
         <v>223</v>
       </c>
       <c r="P216" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45732,7 +45738,7 @@
         <v>1.76</v>
       </c>
       <c r="AP216">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ216">
         <v>1.67</v>
@@ -45938,7 +45944,7 @@
         <v>1.21</v>
       </c>
       <c r="AP217">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ217">
         <v>1.13</v>
@@ -46017,6 +46023,830 @@
       </c>
       <c r="BP217">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7345126</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45430.64583333334</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="G218" t="s">
+        <v>76</v>
+      </c>
+      <c r="H218" t="s">
+        <v>81</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>98</v>
+      </c>
+      <c r="P218" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q218">
+        <v>4.5</v>
+      </c>
+      <c r="R218">
+        <v>1.91</v>
+      </c>
+      <c r="S218">
+        <v>3.1</v>
+      </c>
+      <c r="T218">
+        <v>1.62</v>
+      </c>
+      <c r="U218">
+        <v>2.2</v>
+      </c>
+      <c r="V218">
+        <v>4</v>
+      </c>
+      <c r="W218">
+        <v>1.22</v>
+      </c>
+      <c r="X218">
+        <v>13</v>
+      </c>
+      <c r="Y218">
+        <v>1.04</v>
+      </c>
+      <c r="Z218">
+        <v>3.6</v>
+      </c>
+      <c r="AA218">
+        <v>3.1</v>
+      </c>
+      <c r="AB218">
+        <v>2.2</v>
+      </c>
+      <c r="AC218">
+        <v>1.11</v>
+      </c>
+      <c r="AD218">
+        <v>5.3</v>
+      </c>
+      <c r="AE218">
+        <v>1.55</v>
+      </c>
+      <c r="AF218">
+        <v>2.35</v>
+      </c>
+      <c r="AG218">
+        <v>2.7</v>
+      </c>
+      <c r="AH218">
+        <v>1.44</v>
+      </c>
+      <c r="AI218">
+        <v>2.2</v>
+      </c>
+      <c r="AJ218">
+        <v>1.62</v>
+      </c>
+      <c r="AK218">
+        <v>1.72</v>
+      </c>
+      <c r="AL218">
+        <v>1.33</v>
+      </c>
+      <c r="AM218">
+        <v>1.2</v>
+      </c>
+      <c r="AN218">
+        <v>0.73</v>
+      </c>
+      <c r="AO218">
+        <v>1.81</v>
+      </c>
+      <c r="AP218">
+        <v>0.75</v>
+      </c>
+      <c r="AQ218">
+        <v>1.76</v>
+      </c>
+      <c r="AR218">
+        <v>1.42</v>
+      </c>
+      <c r="AS218">
+        <v>1.47</v>
+      </c>
+      <c r="AT218">
+        <v>2.89</v>
+      </c>
+      <c r="AU218">
+        <v>0</v>
+      </c>
+      <c r="AV218">
+        <v>3</v>
+      </c>
+      <c r="AW218">
+        <v>6</v>
+      </c>
+      <c r="AX218">
+        <v>13</v>
+      </c>
+      <c r="AY218">
+        <v>6</v>
+      </c>
+      <c r="AZ218">
+        <v>16</v>
+      </c>
+      <c r="BA218">
+        <v>1</v>
+      </c>
+      <c r="BB218">
+        <v>8</v>
+      </c>
+      <c r="BC218">
+        <v>9</v>
+      </c>
+      <c r="BD218">
+        <v>2.81</v>
+      </c>
+      <c r="BE218">
+        <v>7.4</v>
+      </c>
+      <c r="BF218">
+        <v>1.67</v>
+      </c>
+      <c r="BG218">
+        <v>1.45</v>
+      </c>
+      <c r="BH218">
+        <v>2.5</v>
+      </c>
+      <c r="BI218">
+        <v>1.82</v>
+      </c>
+      <c r="BJ218">
+        <v>1.98</v>
+      </c>
+      <c r="BK218">
+        <v>2.33</v>
+      </c>
+      <c r="BL218">
+        <v>1.52</v>
+      </c>
+      <c r="BM218">
+        <v>3.15</v>
+      </c>
+      <c r="BN218">
+        <v>1.29</v>
+      </c>
+      <c r="BO218">
+        <v>4.5</v>
+      </c>
+      <c r="BP218">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7345131</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45430.75</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219" t="s">
+        <v>82</v>
+      </c>
+      <c r="H219" t="s">
+        <v>91</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>224</v>
+      </c>
+      <c r="P219" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q219">
+        <v>1.8</v>
+      </c>
+      <c r="R219">
+        <v>2.5</v>
+      </c>
+      <c r="S219">
+        <v>8</v>
+      </c>
+      <c r="T219">
+        <v>1.39</v>
+      </c>
+      <c r="U219">
+        <v>3.02</v>
+      </c>
+      <c r="V219">
+        <v>2.93</v>
+      </c>
+      <c r="W219">
+        <v>1.4</v>
+      </c>
+      <c r="X219">
+        <v>7.2</v>
+      </c>
+      <c r="Y219">
+        <v>1.08</v>
+      </c>
+      <c r="Z219">
+        <v>1.3</v>
+      </c>
+      <c r="AA219">
+        <v>5</v>
+      </c>
+      <c r="AB219">
+        <v>10</v>
+      </c>
+      <c r="AC219">
+        <v>1.05</v>
+      </c>
+      <c r="AD219">
+        <v>11.5</v>
+      </c>
+      <c r="AE219">
+        <v>1.3</v>
+      </c>
+      <c r="AF219">
+        <v>3.3</v>
+      </c>
+      <c r="AG219">
+        <v>1.67</v>
+      </c>
+      <c r="AH219">
+        <v>2.15</v>
+      </c>
+      <c r="AI219">
+        <v>2.05</v>
+      </c>
+      <c r="AJ219">
+        <v>1.7</v>
+      </c>
+      <c r="AK219">
+        <v>1.09</v>
+      </c>
+      <c r="AL219">
+        <v>1.21</v>
+      </c>
+      <c r="AM219">
+        <v>2.79</v>
+      </c>
+      <c r="AN219">
+        <v>1.88</v>
+      </c>
+      <c r="AO219">
+        <v>1</v>
+      </c>
+      <c r="AP219">
+        <v>1.94</v>
+      </c>
+      <c r="AQ219">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR219">
+        <v>2.31</v>
+      </c>
+      <c r="AS219">
+        <v>1.28</v>
+      </c>
+      <c r="AT219">
+        <v>3.59</v>
+      </c>
+      <c r="AU219">
+        <v>11</v>
+      </c>
+      <c r="AV219">
+        <v>0</v>
+      </c>
+      <c r="AW219">
+        <v>14</v>
+      </c>
+      <c r="AX219">
+        <v>8</v>
+      </c>
+      <c r="AY219">
+        <v>25</v>
+      </c>
+      <c r="AZ219">
+        <v>8</v>
+      </c>
+      <c r="BA219">
+        <v>7</v>
+      </c>
+      <c r="BB219">
+        <v>1</v>
+      </c>
+      <c r="BC219">
+        <v>8</v>
+      </c>
+      <c r="BD219">
+        <v>1.3</v>
+      </c>
+      <c r="BE219">
+        <v>9.5</v>
+      </c>
+      <c r="BF219">
+        <v>4.44</v>
+      </c>
+      <c r="BG219">
+        <v>1.29</v>
+      </c>
+      <c r="BH219">
+        <v>3.3</v>
+      </c>
+      <c r="BI219">
+        <v>1.47</v>
+      </c>
+      <c r="BJ219">
+        <v>2.61</v>
+      </c>
+      <c r="BK219">
+        <v>2</v>
+      </c>
+      <c r="BL219">
+        <v>1.8</v>
+      </c>
+      <c r="BM219">
+        <v>2.28</v>
+      </c>
+      <c r="BN219">
+        <v>1.6</v>
+      </c>
+      <c r="BO219">
+        <v>2.88</v>
+      </c>
+      <c r="BP219">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7345122</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45430.83333333334</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220" t="s">
+        <v>90</v>
+      </c>
+      <c r="H220" t="s">
+        <v>85</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220" t="s">
+        <v>154</v>
+      </c>
+      <c r="P220" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q220">
+        <v>3</v>
+      </c>
+      <c r="R220">
+        <v>2.05</v>
+      </c>
+      <c r="S220">
+        <v>4</v>
+      </c>
+      <c r="T220">
+        <v>1.5</v>
+      </c>
+      <c r="U220">
+        <v>2.5</v>
+      </c>
+      <c r="V220">
+        <v>3.4</v>
+      </c>
+      <c r="W220">
+        <v>1.3</v>
+      </c>
+      <c r="X220">
+        <v>10</v>
+      </c>
+      <c r="Y220">
+        <v>1.06</v>
+      </c>
+      <c r="Z220">
+        <v>2.25</v>
+      </c>
+      <c r="AA220">
+        <v>3.25</v>
+      </c>
+      <c r="AB220">
+        <v>3.3</v>
+      </c>
+      <c r="AC220">
+        <v>1.08</v>
+      </c>
+      <c r="AD220">
+        <v>7.5</v>
+      </c>
+      <c r="AE220">
+        <v>1.42</v>
+      </c>
+      <c r="AF220">
+        <v>2.8</v>
+      </c>
+      <c r="AG220">
+        <v>2.15</v>
+      </c>
+      <c r="AH220">
+        <v>1.67</v>
+      </c>
+      <c r="AI220">
+        <v>1.95</v>
+      </c>
+      <c r="AJ220">
+        <v>1.8</v>
+      </c>
+      <c r="AK220">
+        <v>1.15</v>
+      </c>
+      <c r="AL220">
+        <v>1.33</v>
+      </c>
+      <c r="AM220">
+        <v>1.83</v>
+      </c>
+      <c r="AN220">
+        <v>1.69</v>
+      </c>
+      <c r="AO220">
+        <v>1.27</v>
+      </c>
+      <c r="AP220">
+        <v>1.65</v>
+      </c>
+      <c r="AQ220">
+        <v>1.25</v>
+      </c>
+      <c r="AR220">
+        <v>1.64</v>
+      </c>
+      <c r="AS220">
+        <v>1.29</v>
+      </c>
+      <c r="AT220">
+        <v>2.93</v>
+      </c>
+      <c r="AU220">
+        <v>0</v>
+      </c>
+      <c r="AV220">
+        <v>2</v>
+      </c>
+      <c r="AW220">
+        <v>8</v>
+      </c>
+      <c r="AX220">
+        <v>8</v>
+      </c>
+      <c r="AY220">
+        <v>8</v>
+      </c>
+      <c r="AZ220">
+        <v>10</v>
+      </c>
+      <c r="BA220">
+        <v>3</v>
+      </c>
+      <c r="BB220">
+        <v>7</v>
+      </c>
+      <c r="BC220">
+        <v>10</v>
+      </c>
+      <c r="BD220">
+        <v>1.69</v>
+      </c>
+      <c r="BE220">
+        <v>8.5</v>
+      </c>
+      <c r="BF220">
+        <v>2.62</v>
+      </c>
+      <c r="BG220">
+        <v>1.22</v>
+      </c>
+      <c r="BH220">
+        <v>3.8</v>
+      </c>
+      <c r="BI220">
+        <v>1.36</v>
+      </c>
+      <c r="BJ220">
+        <v>2.88</v>
+      </c>
+      <c r="BK220">
+        <v>2</v>
+      </c>
+      <c r="BL220">
+        <v>2.28</v>
+      </c>
+      <c r="BM220">
+        <v>1.99</v>
+      </c>
+      <c r="BN220">
+        <v>1.81</v>
+      </c>
+      <c r="BO220">
+        <v>2.52</v>
+      </c>
+      <c r="BP220">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7345124</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45430.85416666666</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221" t="s">
+        <v>70</v>
+      </c>
+      <c r="H221" t="s">
+        <v>93</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>225</v>
+      </c>
+      <c r="P221" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q221">
+        <v>3.1</v>
+      </c>
+      <c r="R221">
+        <v>1.83</v>
+      </c>
+      <c r="S221">
+        <v>4.5</v>
+      </c>
+      <c r="T221">
+        <v>1.62</v>
+      </c>
+      <c r="U221">
+        <v>2.2</v>
+      </c>
+      <c r="V221">
+        <v>4</v>
+      </c>
+      <c r="W221">
+        <v>1.22</v>
+      </c>
+      <c r="X221">
+        <v>13</v>
+      </c>
+      <c r="Y221">
+        <v>1.04</v>
+      </c>
+      <c r="Z221">
+        <v>2.25</v>
+      </c>
+      <c r="AA221">
+        <v>2.88</v>
+      </c>
+      <c r="AB221">
+        <v>3.75</v>
+      </c>
+      <c r="AC221">
+        <v>1.12</v>
+      </c>
+      <c r="AD221">
+        <v>5.78</v>
+      </c>
+      <c r="AE221">
+        <v>1.55</v>
+      </c>
+      <c r="AF221">
+        <v>2.3</v>
+      </c>
+      <c r="AG221">
+        <v>2.88</v>
+      </c>
+      <c r="AH221">
+        <v>1.4</v>
+      </c>
+      <c r="AI221">
+        <v>2.25</v>
+      </c>
+      <c r="AJ221">
+        <v>1.57</v>
+      </c>
+      <c r="AK221">
+        <v>1.3</v>
+      </c>
+      <c r="AL221">
+        <v>1.35</v>
+      </c>
+      <c r="AM221">
+        <v>1.62</v>
+      </c>
+      <c r="AN221">
+        <v>1.33</v>
+      </c>
+      <c r="AO221">
+        <v>1.53</v>
+      </c>
+      <c r="AP221">
+        <v>1.31</v>
+      </c>
+      <c r="AQ221">
+        <v>1.5</v>
+      </c>
+      <c r="AR221">
+        <v>1.45</v>
+      </c>
+      <c r="AS221">
+        <v>1.32</v>
+      </c>
+      <c r="AT221">
+        <v>2.77</v>
+      </c>
+      <c r="AU221">
+        <v>0</v>
+      </c>
+      <c r="AV221">
+        <v>2</v>
+      </c>
+      <c r="AW221">
+        <v>8</v>
+      </c>
+      <c r="AX221">
+        <v>9</v>
+      </c>
+      <c r="AY221">
+        <v>8</v>
+      </c>
+      <c r="AZ221">
+        <v>11</v>
+      </c>
+      <c r="BA221">
+        <v>5</v>
+      </c>
+      <c r="BB221">
+        <v>6</v>
+      </c>
+      <c r="BC221">
+        <v>11</v>
+      </c>
+      <c r="BD221">
+        <v>1.95</v>
+      </c>
+      <c r="BE221">
+        <v>7.5</v>
+      </c>
+      <c r="BF221">
+        <v>2.1</v>
+      </c>
+      <c r="BG221">
+        <v>1.33</v>
+      </c>
+      <c r="BH221">
+        <v>3</v>
+      </c>
+      <c r="BI221">
+        <v>1.58</v>
+      </c>
+      <c r="BJ221">
+        <v>2.33</v>
+      </c>
+      <c r="BK221">
+        <v>1.96</v>
+      </c>
+      <c r="BL221">
+        <v>1.83</v>
+      </c>
+      <c r="BM221">
+        <v>2.51</v>
+      </c>
+      <c r="BN221">
+        <v>1.51</v>
+      </c>
+      <c r="BO221">
+        <v>3.2</v>
+      </c>
+      <c r="BP221">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,18 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['45+3', '48']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['3', '45+3']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -800,9 +812,6 @@
   </si>
   <si>
     <t>['37', '60']</t>
-  </si>
-  <si>
-    <t>['80']</t>
   </si>
   <si>
     <t>['48', '52']</t>
@@ -956,6 +965,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['47', '52', '80', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1863,7 +1875,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2194,7 +2206,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2272,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
         <v>1.86</v>
@@ -2478,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
         <v>1.45</v>
@@ -2606,7 +2618,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2684,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ7">
         <v>0.88</v>
@@ -2893,7 +2905,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3018,7 +3030,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3096,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3224,7 +3236,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3508,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4048,7 +4060,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4541,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR16">
         <v>1.36</v>
@@ -4666,7 +4678,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4872,7 +4884,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5284,7 +5296,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5571,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6108,7 +6120,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6520,7 +6532,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6598,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6807,7 +6819,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7138,7 +7150,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7216,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7550,7 +7562,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7628,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>0.44</v>
@@ -7837,7 +7849,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>1.01</v>
@@ -8452,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
         <v>0.63</v>
@@ -9198,7 +9210,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9279,7 +9291,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9610,7 +9622,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9688,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1.71</v>
@@ -9816,7 +9828,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10515,7 +10527,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR45">
         <v>1.39</v>
@@ -10846,7 +10858,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11258,7 +11270,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11464,7 +11476,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11876,7 +11888,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12160,10 +12172,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.01</v>
@@ -12288,7 +12300,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12778,10 +12790,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR56">
         <v>1.77</v>
@@ -12906,7 +12918,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13112,7 +13124,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13524,7 +13536,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13605,7 +13617,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
         <v>2.22</v>
@@ -14142,7 +14154,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14348,7 +14360,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14632,7 +14644,7 @@
         <v>3</v>
       </c>
       <c r="AP65">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65">
         <v>1.67</v>
@@ -15172,7 +15184,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15456,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15584,7 +15596,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15868,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16202,7 +16214,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16408,7 +16420,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16695,7 +16707,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
         <v>2.21</v>
@@ -16820,7 +16832,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16901,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR76">
         <v>1.4</v>
@@ -17026,7 +17038,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17232,7 +17244,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17313,7 +17325,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17519,7 +17531,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR79">
         <v>1.31</v>
@@ -17928,7 +17940,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>1.63</v>
@@ -18137,7 +18149,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ82">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR82">
         <v>1.36</v>
@@ -18468,7 +18480,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18674,7 +18686,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19086,7 +19098,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19910,7 +19922,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19991,7 +20003,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>2.12</v>
@@ -20528,7 +20540,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20734,7 +20746,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21146,7 +21158,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21352,7 +21364,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21636,10 +21648,10 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR99">
         <v>1.22</v>
@@ -21764,7 +21776,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22176,7 +22188,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22666,7 +22678,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
         <v>1.88</v>
@@ -22872,7 +22884,7 @@
         <v>0.67</v>
       </c>
       <c r="AP105">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ105">
         <v>0.86</v>
@@ -23000,7 +23012,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23618,7 +23630,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23696,7 +23708,7 @@
         <v>2.33</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ109">
         <v>1.71</v>
@@ -23824,7 +23836,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24030,7 +24042,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24236,7 +24248,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24442,7 +24454,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24729,7 +24741,7 @@
         <v>1</v>
       </c>
       <c r="AQ114">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24854,7 +24866,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -24932,10 +24944,10 @@
         <v>2.5</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR115">
         <v>1.58</v>
@@ -25141,7 +25153,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.72</v>
@@ -25678,7 +25690,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25965,7 +25977,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26296,7 +26308,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27532,7 +27544,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28228,7 +28240,7 @@
         <v>0.75</v>
       </c>
       <c r="AP131">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
         <v>0.63</v>
@@ -28356,7 +28368,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28846,10 +28858,10 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ134">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR134">
         <v>2.05</v>
@@ -28974,7 +28986,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29180,7 +29192,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29386,7 +29398,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29592,7 +29604,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29798,7 +29810,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29876,7 +29888,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ139">
         <v>1.45</v>
@@ -30004,7 +30016,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30082,7 +30094,7 @@
         <v>0.25</v>
       </c>
       <c r="AP140">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30291,7 +30303,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ141">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR141">
         <v>1.3</v>
@@ -30703,7 +30715,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ143">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR143">
         <v>1.63</v>
@@ -31034,7 +31046,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31730,10 +31742,10 @@
         <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ148">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR148">
         <v>1.53</v>
@@ -32142,7 +32154,7 @@
         <v>1.6</v>
       </c>
       <c r="AP150">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ150">
         <v>1.63</v>
@@ -32270,7 +32282,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32682,7 +32694,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33094,7 +33106,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33300,7 +33312,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33506,7 +33518,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33918,7 +33930,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34536,7 +34548,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34614,7 +34626,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ162">
         <v>1.88</v>
@@ -34820,7 +34832,7 @@
         <v>1.6</v>
       </c>
       <c r="AP163">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ163">
         <v>1.45</v>
@@ -35360,7 +35372,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35441,7 +35453,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ166">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR166">
         <v>1.61</v>
@@ -35566,7 +35578,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35772,7 +35784,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35850,7 +35862,7 @@
         <v>2.4</v>
       </c>
       <c r="AP168">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ168">
         <v>2</v>
@@ -36262,10 +36274,10 @@
         <v>1.83</v>
       </c>
       <c r="AP170">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ170">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR170">
         <v>1.5</v>
@@ -36390,7 +36402,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36471,7 +36483,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ171">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>1.66</v>
@@ -36596,7 +36608,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37086,7 +37098,7 @@
         <v>0.67</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -37214,7 +37226,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37420,7 +37432,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37626,7 +37638,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37704,7 +37716,7 @@
         <v>1.8</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ177">
         <v>1.71</v>
@@ -38325,7 +38337,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ180">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR180">
         <v>1.27</v>
@@ -38450,7 +38462,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38528,7 +38540,7 @@
         <v>0.17</v>
       </c>
       <c r="AP181">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ181">
         <v>0.14</v>
@@ -38737,7 +38749,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ182">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR182">
         <v>2.05</v>
@@ -39149,7 +39161,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ184">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR184">
         <v>1.21</v>
@@ -39480,7 +39492,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39764,7 +39776,7 @@
         <v>0.67</v>
       </c>
       <c r="AP187">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ187">
         <v>0.63</v>
@@ -39892,7 +39904,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40098,7 +40110,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40510,7 +40522,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40716,7 +40728,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40922,7 +40934,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -42033,7 +42045,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ198">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR198">
         <v>2.23</v>
@@ -42158,7 +42170,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42364,7 +42376,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42445,7 +42457,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ200">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42857,7 +42869,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ202">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR202">
         <v>2.2</v>
@@ -42982,7 +42994,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43188,7 +43200,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43266,7 +43278,7 @@
         <v>1.21</v>
       </c>
       <c r="AP204">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ204">
         <v>1.31</v>
@@ -43475,7 +43487,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ205">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR205">
         <v>1.67</v>
@@ -43600,7 +43612,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43884,7 +43896,7 @@
         <v>1.8</v>
       </c>
       <c r="AP207">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ207">
         <v>1.65</v>
@@ -44012,7 +44024,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44093,7 +44105,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ208">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR208">
         <v>1.91</v>
@@ -44218,7 +44230,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44296,10 +44308,10 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR209">
         <v>1.74</v>
@@ -44505,7 +44517,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ210">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR210">
         <v>2.26</v>
@@ -45042,7 +45054,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45248,7 +45260,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45532,10 +45544,10 @@
         <v>1.93</v>
       </c>
       <c r="AP215">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ215">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -45660,7 +45672,7 @@
         <v>223</v>
       </c>
       <c r="P216" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -46484,7 +46496,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46690,7 +46702,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46847,6 +46859,1036 @@
       </c>
       <c r="BP221">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7345125</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45431.625</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="G222" t="s">
+        <v>74</v>
+      </c>
+      <c r="H222" t="s">
+        <v>97</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>226</v>
+      </c>
+      <c r="P222" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q222">
+        <v>2.88</v>
+      </c>
+      <c r="R222">
+        <v>1.95</v>
+      </c>
+      <c r="S222">
+        <v>4.75</v>
+      </c>
+      <c r="T222">
+        <v>1.64</v>
+      </c>
+      <c r="U222">
+        <v>2.25</v>
+      </c>
+      <c r="V222">
+        <v>4</v>
+      </c>
+      <c r="W222">
+        <v>1.2</v>
+      </c>
+      <c r="X222">
+        <v>15</v>
+      </c>
+      <c r="Y222">
+        <v>1.03</v>
+      </c>
+      <c r="Z222">
+        <v>2.05</v>
+      </c>
+      <c r="AA222">
+        <v>3.2</v>
+      </c>
+      <c r="AB222">
+        <v>4</v>
+      </c>
+      <c r="AC222">
+        <v>1.12</v>
+      </c>
+      <c r="AD222">
+        <v>6.25</v>
+      </c>
+      <c r="AE222">
+        <v>1.6</v>
+      </c>
+      <c r="AF222">
+        <v>2.2</v>
+      </c>
+      <c r="AG222">
+        <v>2.5</v>
+      </c>
+      <c r="AH222">
+        <v>1.5</v>
+      </c>
+      <c r="AI222">
+        <v>2.1</v>
+      </c>
+      <c r="AJ222">
+        <v>1.67</v>
+      </c>
+      <c r="AK222">
+        <v>1.26</v>
+      </c>
+      <c r="AL222">
+        <v>1.33</v>
+      </c>
+      <c r="AM222">
+        <v>1.75</v>
+      </c>
+      <c r="AN222">
+        <v>1.81</v>
+      </c>
+      <c r="AO222">
+        <v>0.6</v>
+      </c>
+      <c r="AP222">
+        <v>1.76</v>
+      </c>
+      <c r="AQ222">
+        <v>0.63</v>
+      </c>
+      <c r="AR222">
+        <v>1.52</v>
+      </c>
+      <c r="AS222">
+        <v>1.29</v>
+      </c>
+      <c r="AT222">
+        <v>2.81</v>
+      </c>
+      <c r="AU222">
+        <v>9</v>
+      </c>
+      <c r="AV222">
+        <v>5</v>
+      </c>
+      <c r="AW222">
+        <v>8</v>
+      </c>
+      <c r="AX222">
+        <v>5</v>
+      </c>
+      <c r="AY222">
+        <v>17</v>
+      </c>
+      <c r="AZ222">
+        <v>10</v>
+      </c>
+      <c r="BA222">
+        <v>5</v>
+      </c>
+      <c r="BB222">
+        <v>2</v>
+      </c>
+      <c r="BC222">
+        <v>7</v>
+      </c>
+      <c r="BD222">
+        <v>1.57</v>
+      </c>
+      <c r="BE222">
+        <v>8.5</v>
+      </c>
+      <c r="BF222">
+        <v>2.7</v>
+      </c>
+      <c r="BG222">
+        <v>1.27</v>
+      </c>
+      <c r="BH222">
+        <v>3.28</v>
+      </c>
+      <c r="BI222">
+        <v>1.49</v>
+      </c>
+      <c r="BJ222">
+        <v>2.56</v>
+      </c>
+      <c r="BK222">
+        <v>2.2</v>
+      </c>
+      <c r="BL222">
+        <v>1.98</v>
+      </c>
+      <c r="BM222">
+        <v>2.3</v>
+      </c>
+      <c r="BN222">
+        <v>1.6</v>
+      </c>
+      <c r="BO222">
+        <v>3.34</v>
+      </c>
+      <c r="BP222">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7345120</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45431.64583333334</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="G223" t="s">
+        <v>79</v>
+      </c>
+      <c r="H223" t="s">
+        <v>94</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223" t="s">
+        <v>98</v>
+      </c>
+      <c r="P223" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q223">
+        <v>4.33</v>
+      </c>
+      <c r="R223">
+        <v>1.8</v>
+      </c>
+      <c r="S223">
+        <v>3.4</v>
+      </c>
+      <c r="T223">
+        <v>1.67</v>
+      </c>
+      <c r="U223">
+        <v>2.1</v>
+      </c>
+      <c r="V223">
+        <v>4</v>
+      </c>
+      <c r="W223">
+        <v>1.2</v>
+      </c>
+      <c r="X223">
+        <v>11</v>
+      </c>
+      <c r="Y223">
+        <v>1.01</v>
+      </c>
+      <c r="Z223">
+        <v>3.3</v>
+      </c>
+      <c r="AA223">
+        <v>2.9</v>
+      </c>
+      <c r="AB223">
+        <v>2.45</v>
+      </c>
+      <c r="AC223">
+        <v>1.13</v>
+      </c>
+      <c r="AD223">
+        <v>5</v>
+      </c>
+      <c r="AE223">
+        <v>1.67</v>
+      </c>
+      <c r="AF223">
+        <v>2.1</v>
+      </c>
+      <c r="AG223">
+        <v>3.1</v>
+      </c>
+      <c r="AH223">
+        <v>1.36</v>
+      </c>
+      <c r="AI223">
+        <v>2.38</v>
+      </c>
+      <c r="AJ223">
+        <v>1.53</v>
+      </c>
+      <c r="AK223">
+        <v>1.5</v>
+      </c>
+      <c r="AL223">
+        <v>1.44</v>
+      </c>
+      <c r="AM223">
+        <v>1.35</v>
+      </c>
+      <c r="AN223">
+        <v>1.2</v>
+      </c>
+      <c r="AO223">
+        <v>1.53</v>
+      </c>
+      <c r="AP223">
+        <v>1.19</v>
+      </c>
+      <c r="AQ223">
+        <v>1.5</v>
+      </c>
+      <c r="AR223">
+        <v>1.31</v>
+      </c>
+      <c r="AS223">
+        <v>1.52</v>
+      </c>
+      <c r="AT223">
+        <v>2.83</v>
+      </c>
+      <c r="AU223">
+        <v>5</v>
+      </c>
+      <c r="AV223">
+        <v>5</v>
+      </c>
+      <c r="AW223">
+        <v>10</v>
+      </c>
+      <c r="AX223">
+        <v>1</v>
+      </c>
+      <c r="AY223">
+        <v>15</v>
+      </c>
+      <c r="AZ223">
+        <v>6</v>
+      </c>
+      <c r="BA223">
+        <v>3</v>
+      </c>
+      <c r="BB223">
+        <v>1</v>
+      </c>
+      <c r="BC223">
+        <v>4</v>
+      </c>
+      <c r="BD223">
+        <v>2.1</v>
+      </c>
+      <c r="BE223">
+        <v>6.8</v>
+      </c>
+      <c r="BF223">
+        <v>2.1</v>
+      </c>
+      <c r="BG223">
+        <v>1.36</v>
+      </c>
+      <c r="BH223">
+        <v>2.79</v>
+      </c>
+      <c r="BI223">
+        <v>1.88</v>
+      </c>
+      <c r="BJ223">
+        <v>1.92</v>
+      </c>
+      <c r="BK223">
+        <v>2.16</v>
+      </c>
+      <c r="BL223">
+        <v>1.65</v>
+      </c>
+      <c r="BM223">
+        <v>2.89</v>
+      </c>
+      <c r="BN223">
+        <v>1.36</v>
+      </c>
+      <c r="BO223">
+        <v>4</v>
+      </c>
+      <c r="BP223">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7345119</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45431.73958333334</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="G224" t="s">
+        <v>75</v>
+      </c>
+      <c r="H224" t="s">
+        <v>72</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>227</v>
+      </c>
+      <c r="P224" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q224">
+        <v>2.4</v>
+      </c>
+      <c r="R224">
+        <v>2.1</v>
+      </c>
+      <c r="S224">
+        <v>5.5</v>
+      </c>
+      <c r="T224">
+        <v>1.5</v>
+      </c>
+      <c r="U224">
+        <v>2.5</v>
+      </c>
+      <c r="V224">
+        <v>3.4</v>
+      </c>
+      <c r="W224">
+        <v>1.3</v>
+      </c>
+      <c r="X224">
+        <v>10</v>
+      </c>
+      <c r="Y224">
+        <v>1.06</v>
+      </c>
+      <c r="Z224">
+        <v>1.75</v>
+      </c>
+      <c r="AA224">
+        <v>3.6</v>
+      </c>
+      <c r="AB224">
+        <v>5</v>
+      </c>
+      <c r="AC224">
+        <v>1.07</v>
+      </c>
+      <c r="AD224">
+        <v>7.61</v>
+      </c>
+      <c r="AE224">
+        <v>1.43</v>
+      </c>
+      <c r="AF224">
+        <v>2.76</v>
+      </c>
+      <c r="AG224">
+        <v>2.2</v>
+      </c>
+      <c r="AH224">
+        <v>1.65</v>
+      </c>
+      <c r="AI224">
+        <v>2.05</v>
+      </c>
+      <c r="AJ224">
+        <v>1.7</v>
+      </c>
+      <c r="AK224">
+        <v>1.2</v>
+      </c>
+      <c r="AL224">
+        <v>1.28</v>
+      </c>
+      <c r="AM224">
+        <v>2</v>
+      </c>
+      <c r="AN224">
+        <v>1.8</v>
+      </c>
+      <c r="AO224">
+        <v>0.87</v>
+      </c>
+      <c r="AP224">
+        <v>1.88</v>
+      </c>
+      <c r="AQ224">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR224">
+        <v>2</v>
+      </c>
+      <c r="AS224">
+        <v>1.43</v>
+      </c>
+      <c r="AT224">
+        <v>3.43</v>
+      </c>
+      <c r="AU224">
+        <v>4</v>
+      </c>
+      <c r="AV224">
+        <v>5</v>
+      </c>
+      <c r="AW224">
+        <v>9</v>
+      </c>
+      <c r="AX224">
+        <v>15</v>
+      </c>
+      <c r="AY224">
+        <v>13</v>
+      </c>
+      <c r="AZ224">
+        <v>20</v>
+      </c>
+      <c r="BA224">
+        <v>1</v>
+      </c>
+      <c r="BB224">
+        <v>9</v>
+      </c>
+      <c r="BC224">
+        <v>10</v>
+      </c>
+      <c r="BD224">
+        <v>1.62</v>
+      </c>
+      <c r="BE224">
+        <v>7.7</v>
+      </c>
+      <c r="BF224">
+        <v>2.91</v>
+      </c>
+      <c r="BG224">
+        <v>1.33</v>
+      </c>
+      <c r="BH224">
+        <v>3</v>
+      </c>
+      <c r="BI224">
+        <v>1.58</v>
+      </c>
+      <c r="BJ224">
+        <v>2.3</v>
+      </c>
+      <c r="BK224">
+        <v>1.97</v>
+      </c>
+      <c r="BL224">
+        <v>1.83</v>
+      </c>
+      <c r="BM224">
+        <v>2.45</v>
+      </c>
+      <c r="BN224">
+        <v>1.52</v>
+      </c>
+      <c r="BO224">
+        <v>3.85</v>
+      </c>
+      <c r="BP224">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7345123</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45431.73958333334</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="G225" t="s">
+        <v>77</v>
+      </c>
+      <c r="H225" t="s">
+        <v>84</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>228</v>
+      </c>
+      <c r="P225" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q225">
+        <v>3.4</v>
+      </c>
+      <c r="R225">
+        <v>1.83</v>
+      </c>
+      <c r="S225">
+        <v>4.33</v>
+      </c>
+      <c r="T225">
+        <v>1.67</v>
+      </c>
+      <c r="U225">
+        <v>2.1</v>
+      </c>
+      <c r="V225">
+        <v>4.33</v>
+      </c>
+      <c r="W225">
+        <v>1.2</v>
+      </c>
+      <c r="X225">
+        <v>15</v>
+      </c>
+      <c r="Y225">
+        <v>1.03</v>
+      </c>
+      <c r="Z225">
+        <v>2.7</v>
+      </c>
+      <c r="AA225">
+        <v>2.9</v>
+      </c>
+      <c r="AB225">
+        <v>2.9</v>
+      </c>
+      <c r="AC225">
+        <v>1.13</v>
+      </c>
+      <c r="AD225">
+        <v>5.75</v>
+      </c>
+      <c r="AE225">
+        <v>1.6</v>
+      </c>
+      <c r="AF225">
+        <v>2.2</v>
+      </c>
+      <c r="AG225">
+        <v>2.88</v>
+      </c>
+      <c r="AH225">
+        <v>1.4</v>
+      </c>
+      <c r="AI225">
+        <v>2.2</v>
+      </c>
+      <c r="AJ225">
+        <v>1.62</v>
+      </c>
+      <c r="AK225">
+        <v>1.33</v>
+      </c>
+      <c r="AL225">
+        <v>1.35</v>
+      </c>
+      <c r="AM225">
+        <v>1.53</v>
+      </c>
+      <c r="AN225">
+        <v>1.13</v>
+      </c>
+      <c r="AO225">
+        <v>1.27</v>
+      </c>
+      <c r="AP225">
+        <v>1.13</v>
+      </c>
+      <c r="AQ225">
+        <v>1.25</v>
+      </c>
+      <c r="AR225">
+        <v>1.45</v>
+      </c>
+      <c r="AS225">
+        <v>1.58</v>
+      </c>
+      <c r="AT225">
+        <v>3.03</v>
+      </c>
+      <c r="AU225">
+        <v>7</v>
+      </c>
+      <c r="AV225">
+        <v>2</v>
+      </c>
+      <c r="AW225">
+        <v>11</v>
+      </c>
+      <c r="AX225">
+        <v>13</v>
+      </c>
+      <c r="AY225">
+        <v>18</v>
+      </c>
+      <c r="AZ225">
+        <v>15</v>
+      </c>
+      <c r="BA225">
+        <v>6</v>
+      </c>
+      <c r="BB225">
+        <v>1</v>
+      </c>
+      <c r="BC225">
+        <v>7</v>
+      </c>
+      <c r="BD225">
+        <v>1.72</v>
+      </c>
+      <c r="BE225">
+        <v>7.1</v>
+      </c>
+      <c r="BF225">
+        <v>2.72</v>
+      </c>
+      <c r="BG225">
+        <v>1.45</v>
+      </c>
+      <c r="BH225">
+        <v>2.65</v>
+      </c>
+      <c r="BI225">
+        <v>1.79</v>
+      </c>
+      <c r="BJ225">
+        <v>2.01</v>
+      </c>
+      <c r="BK225">
+        <v>2.26</v>
+      </c>
+      <c r="BL225">
+        <v>1.61</v>
+      </c>
+      <c r="BM225">
+        <v>2.98</v>
+      </c>
+      <c r="BN225">
+        <v>1.32</v>
+      </c>
+      <c r="BO225">
+        <v>4.3</v>
+      </c>
+      <c r="BP225">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7345118</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45431.83333333334</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226" t="s">
+        <v>73</v>
+      </c>
+      <c r="H226" t="s">
+        <v>92</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>4</v>
+      </c>
+      <c r="N226">
+        <v>6</v>
+      </c>
+      <c r="O226" t="s">
+        <v>229</v>
+      </c>
+      <c r="P226" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q226">
+        <v>6</v>
+      </c>
+      <c r="R226">
+        <v>2.05</v>
+      </c>
+      <c r="S226">
+        <v>2.38</v>
+      </c>
+      <c r="T226">
+        <v>1.56</v>
+      </c>
+      <c r="U226">
+        <v>2.41</v>
+      </c>
+      <c r="V226">
+        <v>3.64</v>
+      </c>
+      <c r="W226">
+        <v>1.26</v>
+      </c>
+      <c r="X226">
+        <v>10</v>
+      </c>
+      <c r="Y226">
+        <v>1.03</v>
+      </c>
+      <c r="Z226">
+        <v>5.5</v>
+      </c>
+      <c r="AA226">
+        <v>3.5</v>
+      </c>
+      <c r="AB226">
+        <v>1.7</v>
+      </c>
+      <c r="AC226">
+        <v>1.07</v>
+      </c>
+      <c r="AD226">
+        <v>6.25</v>
+      </c>
+      <c r="AE226">
+        <v>1.48</v>
+      </c>
+      <c r="AF226">
+        <v>2.45</v>
+      </c>
+      <c r="AG226">
+        <v>2.3</v>
+      </c>
+      <c r="AH226">
+        <v>1.6</v>
+      </c>
+      <c r="AI226">
+        <v>2.2</v>
+      </c>
+      <c r="AJ226">
+        <v>1.62</v>
+      </c>
+      <c r="AK226">
+        <v>1.9</v>
+      </c>
+      <c r="AL226">
+        <v>1.35</v>
+      </c>
+      <c r="AM226">
+        <v>1.2</v>
+      </c>
+      <c r="AN226">
+        <v>0.73</v>
+      </c>
+      <c r="AO226">
+        <v>1.81</v>
+      </c>
+      <c r="AP226">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ226">
+        <v>1.88</v>
+      </c>
+      <c r="AR226">
+        <v>1.22</v>
+      </c>
+      <c r="AS226">
+        <v>1.42</v>
+      </c>
+      <c r="AT226">
+        <v>2.64</v>
+      </c>
+      <c r="AU226">
+        <v>4</v>
+      </c>
+      <c r="AV226">
+        <v>6</v>
+      </c>
+      <c r="AW226">
+        <v>5</v>
+      </c>
+      <c r="AX226">
+        <v>7</v>
+      </c>
+      <c r="AY226">
+        <v>9</v>
+      </c>
+      <c r="AZ226">
+        <v>13</v>
+      </c>
+      <c r="BA226">
+        <v>2</v>
+      </c>
+      <c r="BB226">
+        <v>6</v>
+      </c>
+      <c r="BC226">
+        <v>8</v>
+      </c>
+      <c r="BD226">
+        <v>2.91</v>
+      </c>
+      <c r="BE226">
+        <v>7.7</v>
+      </c>
+      <c r="BF226">
+        <v>1.62</v>
+      </c>
+      <c r="BG226">
+        <v>1.4</v>
+      </c>
+      <c r="BH226">
+        <v>2.7</v>
+      </c>
+      <c r="BI226">
+        <v>1.67</v>
+      </c>
+      <c r="BJ226">
+        <v>2.16</v>
+      </c>
+      <c r="BK226">
+        <v>2.09</v>
+      </c>
+      <c r="BL226">
+        <v>1.71</v>
+      </c>
+      <c r="BM226">
+        <v>2.95</v>
+      </c>
+      <c r="BN226">
+        <v>1.34</v>
+      </c>
+      <c r="BO226">
+        <v>4.1</v>
+      </c>
+      <c r="BP226">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="321">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,7 +706,13 @@
     <t>['3', '45+3']</t>
   </si>
   <si>
+    <t>['42', '90+1']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['26', '63', '84']</t>
   </si>
   <si>
     <t>['69']</t>
@@ -968,6 +974,9 @@
   </si>
   <si>
     <t>['47', '52', '80', '90+6']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1669,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2206,7 +2215,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2618,7 +2627,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3030,7 +3039,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3236,7 +3245,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3314,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3726,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -4060,7 +4069,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4141,7 +4150,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4344,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4678,7 +4687,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4884,7 +4893,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5168,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5296,7 +5305,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5789,7 +5798,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6120,7 +6129,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6404,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ25">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6532,7 +6541,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7150,7 +7159,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7562,7 +7571,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8879,7 +8888,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.86</v>
@@ -9082,7 +9091,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.63</v>
@@ -9210,7 +9219,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9494,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ40">
         <v>1.88</v>
@@ -9622,7 +9631,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9828,7 +9837,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10115,7 +10124,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR43">
         <v>1.78</v>
@@ -10318,7 +10327,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10730,10 +10739,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ46">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10858,7 +10867,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11270,7 +11279,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11348,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
         <v>0.63</v>
@@ -11476,7 +11485,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11888,7 +11897,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12300,7 +12309,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12918,7 +12927,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13124,7 +13133,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13408,7 +13417,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1.75</v>
@@ -13536,7 +13545,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14154,7 +14163,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14235,7 +14244,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.54</v>
@@ -14360,7 +14369,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15184,7 +15193,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15596,7 +15605,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15883,7 +15892,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR71">
         <v>2.17</v>
@@ -16086,10 +16095,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR72">
         <v>1.56</v>
@@ -16214,7 +16223,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16292,7 +16301,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ73">
         <v>2</v>
@@ -16420,7 +16429,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16498,7 +16507,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
         <v>0.88</v>
@@ -16832,7 +16841,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17038,7 +17047,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17244,7 +17253,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17734,7 +17743,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ80">
         <v>1.86</v>
@@ -18480,7 +18489,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18686,7 +18695,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19098,7 +19107,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19922,7 +19931,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20540,7 +20549,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20746,7 +20755,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21033,7 +21042,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ96">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR96">
         <v>1.56</v>
@@ -21364,7 +21373,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21445,7 +21454,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR98">
         <v>1.94</v>
@@ -21776,7 +21785,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22188,7 +22197,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22887,7 +22896,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ105">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -23012,7 +23021,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23505,7 +23514,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR108">
         <v>1.65</v>
@@ -23630,7 +23639,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23836,7 +23845,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24042,7 +24051,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24123,7 +24132,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR111">
         <v>1.76</v>
@@ -24248,7 +24257,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24454,7 +24463,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24866,7 +24875,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25150,7 +25159,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25690,7 +25699,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25768,7 +25777,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -26308,7 +26317,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27007,7 +27016,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ125">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR125">
         <v>1.65</v>
@@ -27544,7 +27553,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28034,7 +28043,7 @@
         <v>3</v>
       </c>
       <c r="AP130">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
         <v>1.71</v>
@@ -28368,7 +28377,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28655,7 +28664,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR133">
         <v>1.06</v>
@@ -28986,7 +28995,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29192,7 +29201,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29398,7 +29407,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29479,7 +29488,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ137">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29604,7 +29613,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29685,7 +29694,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ138">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR138">
         <v>1.38</v>
@@ -29810,7 +29819,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30016,7 +30025,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30712,7 +30721,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>0.75</v>
@@ -30918,7 +30927,7 @@
         <v>1.6</v>
       </c>
       <c r="AP144">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144">
         <v>1.44</v>
@@ -31046,7 +31055,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31539,7 +31548,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ147">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR147">
         <v>2.04</v>
@@ -32282,7 +32291,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32694,7 +32703,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32775,7 +32784,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ153">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR153">
         <v>1.5</v>
@@ -32978,7 +32987,7 @@
         <v>3</v>
       </c>
       <c r="AP154">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
         <v>2</v>
@@ -33106,7 +33115,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33312,7 +33321,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33390,7 +33399,7 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ156">
         <v>1.67</v>
@@ -33518,7 +33527,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33599,7 +33608,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR157">
         <v>1.55</v>
@@ -33930,7 +33939,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34548,7 +34557,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35247,7 +35256,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ165">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR165">
         <v>1.98</v>
@@ -35372,7 +35381,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35578,7 +35587,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35784,7 +35793,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36071,7 +36080,7 @@
         <v>2</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR169">
         <v>1.83</v>
@@ -36402,7 +36411,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36608,7 +36617,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36686,7 +36695,7 @@
         <v>1.5</v>
       </c>
       <c r="AP172">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
         <v>1.44</v>
@@ -36892,7 +36901,7 @@
         <v>0.83</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ173">
         <v>0.63</v>
@@ -37226,7 +37235,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37432,7 +37441,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37638,7 +37647,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37922,10 +37931,10 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ178">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR178">
         <v>1.89</v>
@@ -38462,7 +38471,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38543,7 +38552,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ181">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR181">
         <v>1.28</v>
@@ -39492,7 +39501,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39904,7 +39913,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40110,7 +40119,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40522,7 +40531,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40728,7 +40737,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40934,7 +40943,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41630,10 +41639,10 @@
         <v>0.83</v>
       </c>
       <c r="AP196">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ196">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR196">
         <v>1.38</v>
@@ -41836,7 +41845,7 @@
         <v>1.86</v>
       </c>
       <c r="AP197">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ197">
         <v>1.65</v>
@@ -42042,7 +42051,7 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ198">
         <v>1.76</v>
@@ -42170,7 +42179,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42376,7 +42385,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42660,7 +42669,7 @@
         <v>1.87</v>
       </c>
       <c r="AP201">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ201">
         <v>1.67</v>
@@ -42866,7 +42875,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ202">
         <v>1.88</v>
@@ -42994,7 +43003,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43072,7 +43081,7 @@
         <v>1.81</v>
       </c>
       <c r="AP203">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ203">
         <v>1.67</v>
@@ -43200,7 +43209,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43612,7 +43621,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43690,7 +43699,7 @@
         <v>1.07</v>
       </c>
       <c r="AP206">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
         <v>1</v>
@@ -44024,7 +44033,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44230,7 +44239,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44720,10 +44729,10 @@
         <v>1.81</v>
       </c>
       <c r="AP211">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ211">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR211">
         <v>1.49</v>
@@ -44926,10 +44935,10 @@
         <v>1.14</v>
       </c>
       <c r="AP212">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ212">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR212">
         <v>1.26</v>
@@ -45054,7 +45063,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45135,7 +45144,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ213">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR213">
         <v>1.51</v>
@@ -45260,7 +45269,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45338,7 +45347,7 @@
         <v>0.57</v>
       </c>
       <c r="AP214">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ214">
         <v>0.75</v>
@@ -45672,7 +45681,7 @@
         <v>223</v>
       </c>
       <c r="P216" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -46496,7 +46505,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46702,7 +46711,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47732,7 +47741,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -47888,6 +47897,830 @@
         <v>4.1</v>
       </c>
       <c r="BP226">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7345127</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45432.79166666666</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="G227" t="s">
+        <v>78</v>
+      </c>
+      <c r="H227" t="s">
+        <v>87</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>114</v>
+      </c>
+      <c r="P227" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q227">
+        <v>3.5</v>
+      </c>
+      <c r="R227">
+        <v>1.83</v>
+      </c>
+      <c r="S227">
+        <v>4</v>
+      </c>
+      <c r="T227">
+        <v>1.67</v>
+      </c>
+      <c r="U227">
+        <v>2.1</v>
+      </c>
+      <c r="V227">
+        <v>4.33</v>
+      </c>
+      <c r="W227">
+        <v>1.2</v>
+      </c>
+      <c r="X227">
+        <v>15</v>
+      </c>
+      <c r="Y227">
+        <v>1.03</v>
+      </c>
+      <c r="Z227">
+        <v>2.6</v>
+      </c>
+      <c r="AA227">
+        <v>2.88</v>
+      </c>
+      <c r="AB227">
+        <v>3.1</v>
+      </c>
+      <c r="AC227">
+        <v>1.12</v>
+      </c>
+      <c r="AD227">
+        <v>5.25</v>
+      </c>
+      <c r="AE227">
+        <v>1.6</v>
+      </c>
+      <c r="AF227">
+        <v>2.2</v>
+      </c>
+      <c r="AG227">
+        <v>3.1</v>
+      </c>
+      <c r="AH227">
+        <v>1.36</v>
+      </c>
+      <c r="AI227">
+        <v>2.25</v>
+      </c>
+      <c r="AJ227">
+        <v>1.57</v>
+      </c>
+      <c r="AK227">
+        <v>1.22</v>
+      </c>
+      <c r="AL227">
+        <v>1.45</v>
+      </c>
+      <c r="AM227">
+        <v>1.52</v>
+      </c>
+      <c r="AN227">
+        <v>1.07</v>
+      </c>
+      <c r="AO227">
+        <v>1.53</v>
+      </c>
+      <c r="AP227">
+        <v>1.06</v>
+      </c>
+      <c r="AQ227">
+        <v>1.5</v>
+      </c>
+      <c r="AR227">
+        <v>1.52</v>
+      </c>
+      <c r="AS227">
+        <v>1.54</v>
+      </c>
+      <c r="AT227">
+        <v>3.06</v>
+      </c>
+      <c r="AU227">
+        <v>9</v>
+      </c>
+      <c r="AV227">
+        <v>13</v>
+      </c>
+      <c r="AW227">
+        <v>13</v>
+      </c>
+      <c r="AX227">
+        <v>10</v>
+      </c>
+      <c r="AY227">
+        <v>22</v>
+      </c>
+      <c r="AZ227">
+        <v>23</v>
+      </c>
+      <c r="BA227">
+        <v>7</v>
+      </c>
+      <c r="BB227">
+        <v>6</v>
+      </c>
+      <c r="BC227">
+        <v>13</v>
+      </c>
+      <c r="BD227">
+        <v>1.67</v>
+      </c>
+      <c r="BE227">
+        <v>7.7</v>
+      </c>
+      <c r="BF227">
+        <v>2.76</v>
+      </c>
+      <c r="BG227">
+        <v>1.4</v>
+      </c>
+      <c r="BH227">
+        <v>2.72</v>
+      </c>
+      <c r="BI227">
+        <v>1.74</v>
+      </c>
+      <c r="BJ227">
+        <v>2.02</v>
+      </c>
+      <c r="BK227">
+        <v>2.21</v>
+      </c>
+      <c r="BL227">
+        <v>1.59</v>
+      </c>
+      <c r="BM227">
+        <v>2.98</v>
+      </c>
+      <c r="BN227">
+        <v>1.32</v>
+      </c>
+      <c r="BO227">
+        <v>4.25</v>
+      </c>
+      <c r="BP227">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7345128</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45432.79166666666</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+      <c r="G228" t="s">
+        <v>83</v>
+      </c>
+      <c r="H228" t="s">
+        <v>95</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>230</v>
+      </c>
+      <c r="P228" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q228">
+        <v>2.1</v>
+      </c>
+      <c r="R228">
+        <v>2.1</v>
+      </c>
+      <c r="S228">
+        <v>8</v>
+      </c>
+      <c r="T228">
+        <v>1.57</v>
+      </c>
+      <c r="U228">
+        <v>2.25</v>
+      </c>
+      <c r="V228">
+        <v>3.5</v>
+      </c>
+      <c r="W228">
+        <v>1.29</v>
+      </c>
+      <c r="X228">
+        <v>11</v>
+      </c>
+      <c r="Y228">
+        <v>1.05</v>
+      </c>
+      <c r="Z228">
+        <v>1.48</v>
+      </c>
+      <c r="AA228">
+        <v>3.8</v>
+      </c>
+      <c r="AB228">
+        <v>9</v>
+      </c>
+      <c r="AC228">
+        <v>1.11</v>
+      </c>
+      <c r="AD228">
+        <v>6.25</v>
+      </c>
+      <c r="AE228">
+        <v>1.48</v>
+      </c>
+      <c r="AF228">
+        <v>2.6</v>
+      </c>
+      <c r="AG228">
+        <v>2.25</v>
+      </c>
+      <c r="AH228">
+        <v>1.62</v>
+      </c>
+      <c r="AI228">
+        <v>2.5</v>
+      </c>
+      <c r="AJ228">
+        <v>1.5</v>
+      </c>
+      <c r="AK228">
+        <v>1.05</v>
+      </c>
+      <c r="AL228">
+        <v>1.3</v>
+      </c>
+      <c r="AM228">
+        <v>2.25</v>
+      </c>
+      <c r="AN228">
+        <v>1.88</v>
+      </c>
+      <c r="AO228">
+        <v>1.07</v>
+      </c>
+      <c r="AP228">
+        <v>1.94</v>
+      </c>
+      <c r="AQ228">
+        <v>1</v>
+      </c>
+      <c r="AR228">
+        <v>2.09</v>
+      </c>
+      <c r="AS228">
+        <v>0.98</v>
+      </c>
+      <c r="AT228">
+        <v>3.07</v>
+      </c>
+      <c r="AU228">
+        <v>9</v>
+      </c>
+      <c r="AV228">
+        <v>3</v>
+      </c>
+      <c r="AW228">
+        <v>15</v>
+      </c>
+      <c r="AX228">
+        <v>5</v>
+      </c>
+      <c r="AY228">
+        <v>24</v>
+      </c>
+      <c r="AZ228">
+        <v>8</v>
+      </c>
+      <c r="BA228">
+        <v>6</v>
+      </c>
+      <c r="BB228">
+        <v>3</v>
+      </c>
+      <c r="BC228">
+        <v>9</v>
+      </c>
+      <c r="BD228">
+        <v>1.2</v>
+      </c>
+      <c r="BE228">
+        <v>10.5</v>
+      </c>
+      <c r="BF228">
+        <v>6.17</v>
+      </c>
+      <c r="BG228">
+        <v>1.36</v>
+      </c>
+      <c r="BH228">
+        <v>2.8</v>
+      </c>
+      <c r="BI228">
+        <v>1.65</v>
+      </c>
+      <c r="BJ228">
+        <v>2.08</v>
+      </c>
+      <c r="BK228">
+        <v>2.05</v>
+      </c>
+      <c r="BL228">
+        <v>1.7</v>
+      </c>
+      <c r="BM228">
+        <v>2.8</v>
+      </c>
+      <c r="BN228">
+        <v>1.37</v>
+      </c>
+      <c r="BO228">
+        <v>3.85</v>
+      </c>
+      <c r="BP228">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7345129</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45432.88541666666</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229" t="s">
+        <v>86</v>
+      </c>
+      <c r="H229" t="s">
+        <v>71</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>231</v>
+      </c>
+      <c r="P229" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q229">
+        <v>2.5</v>
+      </c>
+      <c r="R229">
+        <v>2.05</v>
+      </c>
+      <c r="S229">
+        <v>5.5</v>
+      </c>
+      <c r="T229">
+        <v>1.53</v>
+      </c>
+      <c r="U229">
+        <v>2.38</v>
+      </c>
+      <c r="V229">
+        <v>3.5</v>
+      </c>
+      <c r="W229">
+        <v>1.29</v>
+      </c>
+      <c r="X229">
+        <v>11</v>
+      </c>
+      <c r="Y229">
+        <v>1.05</v>
+      </c>
+      <c r="Z229">
+        <v>1.8</v>
+      </c>
+      <c r="AA229">
+        <v>3.5</v>
+      </c>
+      <c r="AB229">
+        <v>5</v>
+      </c>
+      <c r="AC229">
+        <v>1.08</v>
+      </c>
+      <c r="AD229">
+        <v>7.2</v>
+      </c>
+      <c r="AE229">
+        <v>1.46</v>
+      </c>
+      <c r="AF229">
+        <v>2.65</v>
+      </c>
+      <c r="AG229">
+        <v>2.35</v>
+      </c>
+      <c r="AH229">
+        <v>1.57</v>
+      </c>
+      <c r="AI229">
+        <v>2.1</v>
+      </c>
+      <c r="AJ229">
+        <v>1.67</v>
+      </c>
+      <c r="AK229">
+        <v>1.2</v>
+      </c>
+      <c r="AL229">
+        <v>1.3</v>
+      </c>
+      <c r="AM229">
+        <v>1.92</v>
+      </c>
+      <c r="AN229">
+        <v>1</v>
+      </c>
+      <c r="AO229">
+        <v>0.33</v>
+      </c>
+      <c r="AP229">
+        <v>1</v>
+      </c>
+      <c r="AQ229">
+        <v>0.38</v>
+      </c>
+      <c r="AR229">
+        <v>1.56</v>
+      </c>
+      <c r="AS229">
+        <v>1.2</v>
+      </c>
+      <c r="AT229">
+        <v>2.76</v>
+      </c>
+      <c r="AU229">
+        <v>5</v>
+      </c>
+      <c r="AV229">
+        <v>4</v>
+      </c>
+      <c r="AW229">
+        <v>4</v>
+      </c>
+      <c r="AX229">
+        <v>6</v>
+      </c>
+      <c r="AY229">
+        <v>9</v>
+      </c>
+      <c r="AZ229">
+        <v>10</v>
+      </c>
+      <c r="BA229">
+        <v>7</v>
+      </c>
+      <c r="BB229">
+        <v>2</v>
+      </c>
+      <c r="BC229">
+        <v>9</v>
+      </c>
+      <c r="BD229">
+        <v>1.62</v>
+      </c>
+      <c r="BE229">
+        <v>7.1</v>
+      </c>
+      <c r="BF229">
+        <v>3.01</v>
+      </c>
+      <c r="BG229">
+        <v>1.32</v>
+      </c>
+      <c r="BH229">
+        <v>3</v>
+      </c>
+      <c r="BI229">
+        <v>1.58</v>
+      </c>
+      <c r="BJ229">
+        <v>2.18</v>
+      </c>
+      <c r="BK229">
+        <v>2</v>
+      </c>
+      <c r="BL229">
+        <v>1.71</v>
+      </c>
+      <c r="BM229">
+        <v>2.63</v>
+      </c>
+      <c r="BN229">
+        <v>1.42</v>
+      </c>
+      <c r="BO229">
+        <v>3.6</v>
+      </c>
+      <c r="BP229">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7345130</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45432.88541666666</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="G230" t="s">
+        <v>80</v>
+      </c>
+      <c r="H230" t="s">
+        <v>89</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>232</v>
+      </c>
+      <c r="P230" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q230">
+        <v>2.6</v>
+      </c>
+      <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
+        <v>4.75</v>
+      </c>
+      <c r="T230">
+        <v>1.44</v>
+      </c>
+      <c r="U230">
+        <v>2.63</v>
+      </c>
+      <c r="V230">
+        <v>3.25</v>
+      </c>
+      <c r="W230">
+        <v>1.33</v>
+      </c>
+      <c r="X230">
+        <v>10</v>
+      </c>
+      <c r="Y230">
+        <v>1.06</v>
+      </c>
+      <c r="Z230">
+        <v>1.9</v>
+      </c>
+      <c r="AA230">
+        <v>3.25</v>
+      </c>
+      <c r="AB230">
+        <v>4.5</v>
+      </c>
+      <c r="AC230">
+        <v>1.09</v>
+      </c>
+      <c r="AD230">
+        <v>6.4</v>
+      </c>
+      <c r="AE230">
+        <v>1.38</v>
+      </c>
+      <c r="AF230">
+        <v>2.94</v>
+      </c>
+      <c r="AG230">
+        <v>2.15</v>
+      </c>
+      <c r="AH230">
+        <v>1.67</v>
+      </c>
+      <c r="AI230">
+        <v>1.95</v>
+      </c>
+      <c r="AJ230">
+        <v>1.8</v>
+      </c>
+      <c r="AK230">
+        <v>1.26</v>
+      </c>
+      <c r="AL230">
+        <v>1.28</v>
+      </c>
+      <c r="AM230">
+        <v>1.83</v>
+      </c>
+      <c r="AN230">
+        <v>1.67</v>
+      </c>
+      <c r="AO230">
+        <v>1.82</v>
+      </c>
+      <c r="AP230">
+        <v>1.75</v>
+      </c>
+      <c r="AQ230">
+        <v>1.72</v>
+      </c>
+      <c r="AR230">
+        <v>1.85</v>
+      </c>
+      <c r="AS230">
+        <v>1.31</v>
+      </c>
+      <c r="AT230">
+        <v>3.16</v>
+      </c>
+      <c r="AU230">
+        <v>10</v>
+      </c>
+      <c r="AV230">
+        <v>0</v>
+      </c>
+      <c r="AW230">
+        <v>9</v>
+      </c>
+      <c r="AX230">
+        <v>7</v>
+      </c>
+      <c r="AY230">
+        <v>19</v>
+      </c>
+      <c r="AZ230">
+        <v>7</v>
+      </c>
+      <c r="BA230">
+        <v>3</v>
+      </c>
+      <c r="BB230">
+        <v>4</v>
+      </c>
+      <c r="BC230">
+        <v>7</v>
+      </c>
+      <c r="BD230">
+        <v>1.62</v>
+      </c>
+      <c r="BE230">
+        <v>7.1</v>
+      </c>
+      <c r="BF230">
+        <v>3.01</v>
+      </c>
+      <c r="BG230">
+        <v>1.4</v>
+      </c>
+      <c r="BH230">
+        <v>2.7</v>
+      </c>
+      <c r="BI230">
+        <v>1.71</v>
+      </c>
+      <c r="BJ230">
+        <v>2</v>
+      </c>
+      <c r="BK230">
+        <v>2.2</v>
+      </c>
+      <c r="BL230">
+        <v>1.58</v>
+      </c>
+      <c r="BM230">
+        <v>2.95</v>
+      </c>
+      <c r="BN230">
+        <v>1.34</v>
+      </c>
+      <c r="BO230">
+        <v>4.1</v>
+      </c>
+      <c r="BP230">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="321">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['26', '63', '84']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -803,9 +806,6 @@
   </si>
   <si>
     <t>['83']</t>
-  </si>
-  <si>
-    <t>['20']</t>
   </si>
   <si>
     <t>['31', '48']</t>
@@ -1338,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2296,7 +2296,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3039,7 +3039,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3245,7 +3245,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4069,7 +4069,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4687,7 +4687,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4893,7 +4893,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5305,7 +5305,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ21">
         <v>1.88</v>
@@ -6129,7 +6129,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6541,7 +6541,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7159,7 +7159,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7571,7 +7571,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -9219,7 +9219,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9631,7 +9631,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9837,7 +9837,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10867,7 +10867,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10948,7 +10948,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11151,7 +11151,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -11279,7 +11279,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11485,7 +11485,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11897,7 +11897,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12309,7 +12309,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12927,7 +12927,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13133,7 +13133,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13545,7 +13545,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14163,7 +14163,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14369,7 +14369,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15193,7 +15193,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15605,7 +15605,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16223,7 +16223,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16429,7 +16429,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16713,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ75">
         <v>0.63</v>
@@ -16841,7 +16841,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17047,7 +17047,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17746,7 +17746,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ80">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
         <v>1.9</v>
@@ -18489,7 +18489,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18695,7 +18695,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ98">
         <v>0.25</v>
@@ -25365,7 +25365,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ117">
         <v>0.44</v>
@@ -28458,7 +28458,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR132">
         <v>2.04</v>
@@ -31339,7 +31339,7 @@
         <v>2.25</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ146">
         <v>1.71</v>
@@ -32703,7 +32703,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -35050,7 +35050,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ164">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35381,7 +35381,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -36077,7 +36077,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ169">
         <v>0.88</v>
@@ -41230,7 +41230,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ194">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR194">
         <v>1.58</v>
@@ -42260,7 +42260,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ199">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR199">
         <v>2.01</v>
@@ -42672,7 +42672,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ201">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -43084,7 +43084,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ203">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR203">
         <v>2.12</v>
@@ -43493,7 +43493,7 @@
         <v>1.29</v>
       </c>
       <c r="AP205">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ205">
         <v>1.19</v>
@@ -44033,7 +44033,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -45762,7 +45762,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ216">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR216">
         <v>1.89</v>
@@ -48722,6 +48722,212 @@
       </c>
       <c r="BP230">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7345121</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45433.83333333334</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="G231" t="s">
+        <v>88</v>
+      </c>
+      <c r="H231" t="s">
+        <v>96</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
+        <v>233</v>
+      </c>
+      <c r="P231" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q231">
+        <v>3</v>
+      </c>
+      <c r="R231">
+        <v>1.91</v>
+      </c>
+      <c r="S231">
+        <v>4.5</v>
+      </c>
+      <c r="T231">
+        <v>1.62</v>
+      </c>
+      <c r="U231">
+        <v>2.2</v>
+      </c>
+      <c r="V231">
+        <v>4</v>
+      </c>
+      <c r="W231">
+        <v>1.22</v>
+      </c>
+      <c r="X231">
+        <v>13</v>
+      </c>
+      <c r="Y231">
+        <v>1.04</v>
+      </c>
+      <c r="Z231">
+        <v>2.2</v>
+      </c>
+      <c r="AA231">
+        <v>3</v>
+      </c>
+      <c r="AB231">
+        <v>3.8</v>
+      </c>
+      <c r="AC231">
+        <v>1.1</v>
+      </c>
+      <c r="AD231">
+        <v>6.5</v>
+      </c>
+      <c r="AE231">
+        <v>1.55</v>
+      </c>
+      <c r="AF231">
+        <v>2.25</v>
+      </c>
+      <c r="AG231">
+        <v>2.7</v>
+      </c>
+      <c r="AH231">
+        <v>1.44</v>
+      </c>
+      <c r="AI231">
+        <v>2.2</v>
+      </c>
+      <c r="AJ231">
+        <v>1.62</v>
+      </c>
+      <c r="AK231">
+        <v>1.23</v>
+      </c>
+      <c r="AL231">
+        <v>1.36</v>
+      </c>
+      <c r="AM231">
+        <v>1.76</v>
+      </c>
+      <c r="AN231">
+        <v>1.67</v>
+      </c>
+      <c r="AO231">
+        <v>1.6</v>
+      </c>
+      <c r="AP231">
+        <v>1.74</v>
+      </c>
+      <c r="AQ231">
+        <v>1.5</v>
+      </c>
+      <c r="AR231">
+        <v>1.81</v>
+      </c>
+      <c r="AS231">
+        <v>1.19</v>
+      </c>
+      <c r="AT231">
+        <v>3</v>
+      </c>
+      <c r="AU231">
+        <v>3</v>
+      </c>
+      <c r="AV231">
+        <v>3</v>
+      </c>
+      <c r="AW231">
+        <v>3</v>
+      </c>
+      <c r="AX231">
+        <v>4</v>
+      </c>
+      <c r="AY231">
+        <v>6</v>
+      </c>
+      <c r="AZ231">
+        <v>7</v>
+      </c>
+      <c r="BA231">
+        <v>2</v>
+      </c>
+      <c r="BB231">
+        <v>4</v>
+      </c>
+      <c r="BC231">
+        <v>6</v>
+      </c>
+      <c r="BD231">
+        <v>1.89</v>
+      </c>
+      <c r="BE231">
+        <v>6.9</v>
+      </c>
+      <c r="BF231">
+        <v>2.42</v>
+      </c>
+      <c r="BG231">
+        <v>1.48</v>
+      </c>
+      <c r="BH231">
+        <v>2.45</v>
+      </c>
+      <c r="BI231">
+        <v>1.85</v>
+      </c>
+      <c r="BJ231">
+        <v>1.95</v>
+      </c>
+      <c r="BK231">
+        <v>2.4</v>
+      </c>
+      <c r="BL231">
+        <v>1.49</v>
+      </c>
+      <c r="BM231">
+        <v>3.3</v>
+      </c>
+      <c r="BN231">
+        <v>1.28</v>
+      </c>
+      <c r="BO231">
+        <v>4.7</v>
+      </c>
+      <c r="BP231">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,13 +709,19 @@
     <t>['42', '90+1']</t>
   </si>
   <si>
+    <t>['26', '63', '84']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
-    <t>['26', '63', '84']</t>
+    <t>['20']</t>
   </si>
   <si>
-    <t>['20']</t>
+    <t>['46', '84']</t>
+  </si>
+  <si>
+    <t>['58', '68']</t>
   </si>
   <si>
     <t>['69']</t>
@@ -977,6 +983,12 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['9', '88']</t>
+  </si>
+  <si>
+    <t>['7', '45+2', '50', '77']</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1881,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -2090,7 +2102,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2215,7 +2227,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2627,7 +2639,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3039,7 +3051,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3245,7 +3257,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4069,7 +4081,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4687,7 +4699,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4893,7 +4905,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5305,7 +5317,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5383,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
         <v>1.63</v>
@@ -6129,7 +6141,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6207,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ24">
         <v>0.63</v>
@@ -6541,7 +6553,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7034,7 +7046,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7159,7 +7171,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7571,7 +7583,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7652,7 +7664,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR31">
         <v>2.28</v>
@@ -8061,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -8476,7 +8488,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR35">
         <v>0.9</v>
@@ -9219,7 +9231,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9297,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -9506,7 +9518,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ40">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9631,7 +9643,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9837,7 +9849,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10867,7 +10879,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11279,7 +11291,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11485,7 +11497,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11897,7 +11909,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11975,7 +11987,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -12309,7 +12321,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12387,7 +12399,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54">
         <v>1.71</v>
@@ -12593,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12927,7 +12939,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13133,7 +13145,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13214,7 +13226,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13420,7 +13432,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13545,7 +13557,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14038,7 +14050,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR62">
         <v>1.83</v>
@@ -14163,7 +14175,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14369,7 +14381,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14447,7 +14459,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ64">
         <v>1.44</v>
@@ -14862,7 +14874,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ66">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR66">
         <v>1.82</v>
@@ -15193,7 +15205,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15271,7 +15283,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ68">
         <v>1.45</v>
@@ -15605,7 +15617,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16223,7 +16235,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16429,7 +16441,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16841,7 +16853,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17047,7 +17059,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17253,7 +17265,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17331,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -17537,7 +17549,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ79">
         <v>0.25</v>
@@ -18155,7 +18167,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
         <v>0.75</v>
@@ -18489,7 +18501,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18776,7 +18788,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ85">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR85">
         <v>1.69</v>
@@ -18982,7 +18994,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19107,7 +19119,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19185,7 +19197,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ87">
         <v>1.63</v>
@@ -19931,7 +19943,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20218,7 +20230,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ92">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR92">
         <v>2.48</v>
@@ -20424,7 +20436,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20549,7 +20561,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20627,7 +20639,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -20755,7 +20767,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21373,7 +21385,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21785,7 +21797,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22072,7 +22084,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR101">
         <v>0.96</v>
@@ -22197,7 +22209,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22481,10 +22493,10 @@
         <v>0.33</v>
       </c>
       <c r="AP103">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ103">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22690,7 +22702,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23021,7 +23033,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23639,7 +23651,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23845,7 +23857,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23926,7 +23938,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ110">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR110">
         <v>2.03</v>
@@ -24051,7 +24063,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24257,7 +24269,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24463,7 +24475,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24875,7 +24887,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25368,7 +25380,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ117">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR117">
         <v>1.88</v>
@@ -25699,7 +25711,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26317,7 +26329,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26601,7 +26613,7 @@
         <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ123">
         <v>1.63</v>
@@ -26807,10 +26819,10 @@
         <v>0.25</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ124">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR124">
         <v>1.21</v>
@@ -27219,7 +27231,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ126">
         <v>1.44</v>
@@ -27553,7 +27565,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27634,7 +27646,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ128">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR128">
         <v>1.32</v>
@@ -28377,7 +28389,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28995,7 +29007,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29201,7 +29213,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29282,7 +29294,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ136">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29407,7 +29419,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29485,7 +29497,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ137">
         <v>2</v>
@@ -29613,7 +29625,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29819,7 +29831,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30025,7 +30037,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30309,7 +30321,7 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ141">
         <v>1.88</v>
@@ -31055,7 +31067,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -32291,7 +32303,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32372,7 +32384,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ151">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR151">
         <v>1.57</v>
@@ -32578,7 +32590,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ152">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR152">
         <v>1.69</v>
@@ -32703,7 +32715,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32781,7 +32793,7 @@
         <v>2.4</v>
       </c>
       <c r="AP153">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ153">
         <v>2</v>
@@ -33115,7 +33127,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33193,7 +33205,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ155">
         <v>1.63</v>
@@ -33321,7 +33333,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33527,7 +33539,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33814,7 +33826,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ158">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR158">
         <v>1.69</v>
@@ -33939,7 +33951,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34017,7 +34029,7 @@
         <v>0.4</v>
       </c>
       <c r="AP159">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34557,7 +34569,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34638,7 +34650,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ162">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR162">
         <v>1.29</v>
@@ -35381,7 +35393,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35587,7 +35599,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35793,7 +35805,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36411,7 +36423,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36617,7 +36629,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36904,7 +36916,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ173">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR173">
         <v>2.1</v>
@@ -37235,7 +37247,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37441,7 +37453,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37647,7 +37659,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38140,7 +38152,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ179">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR179">
         <v>2.3</v>
@@ -38343,7 +38355,7 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ180">
         <v>0.63</v>
@@ -38471,7 +38483,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38961,7 +38973,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ183">
         <v>1.63</v>
@@ -39501,7 +39513,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39913,7 +39925,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40119,7 +40131,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40531,7 +40543,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40737,7 +40749,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40815,10 +40827,10 @@
         <v>1.83</v>
       </c>
       <c r="AP192">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ192">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR192">
         <v>1.48</v>
@@ -40943,7 +40955,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41021,10 +41033,10 @@
         <v>1.33</v>
       </c>
       <c r="AP193">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ193">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -42051,7 +42063,7 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ198">
         <v>1.76</v>
@@ -42179,7 +42191,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42385,7 +42397,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42875,7 +42887,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ202">
         <v>1.88</v>
@@ -43003,7 +43015,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43081,7 +43093,7 @@
         <v>1.81</v>
       </c>
       <c r="AP203">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ203">
         <v>1.74</v>
@@ -43209,7 +43221,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43621,7 +43633,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43702,7 +43714,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR206">
         <v>1.76</v>
@@ -44033,7 +44045,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44239,7 +44251,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44526,7 +44538,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ210">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR210">
         <v>2.26</v>
@@ -44729,10 +44741,10 @@
         <v>1.81</v>
       </c>
       <c r="AP211">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ211">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR211">
         <v>1.49</v>
@@ -44935,7 +44947,7 @@
         <v>1.14</v>
       </c>
       <c r="AP212">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ212">
         <v>1.06</v>
@@ -45063,7 +45075,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45141,10 +45153,10 @@
         <v>1.71</v>
       </c>
       <c r="AP213">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ213">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR213">
         <v>1.51</v>
@@ -45269,7 +45281,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45347,7 +45359,7 @@
         <v>0.57</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ214">
         <v>0.75</v>
@@ -45681,7 +45693,7 @@
         <v>223</v>
       </c>
       <c r="P216" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -46380,7 +46392,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ219">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR219">
         <v>2.31</v>
@@ -46505,7 +46517,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46711,7 +46723,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47741,7 +47753,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -47819,7 +47831,7 @@
         <v>1.81</v>
       </c>
       <c r="AP226">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ226">
         <v>1.88</v>
@@ -47905,7 +47917,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7345127</v>
+        <v>7345128</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47920,190 +47932,190 @@
         <v>2</v>
       </c>
       <c r="G227" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H227" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227">
         <v>1</v>
       </c>
       <c r="L227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N227">
         <v>2</v>
       </c>
       <c r="O227" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="P227" t="s">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="Q227">
+        <v>2.1</v>
+      </c>
+      <c r="R227">
+        <v>2.1</v>
+      </c>
+      <c r="S227">
+        <v>8</v>
+      </c>
+      <c r="T227">
+        <v>1.57</v>
+      </c>
+      <c r="U227">
+        <v>2.25</v>
+      </c>
+      <c r="V227">
         <v>3.5</v>
       </c>
-      <c r="R227">
-        <v>1.83</v>
-      </c>
-      <c r="S227">
-        <v>4</v>
-      </c>
-      <c r="T227">
-        <v>1.67</v>
-      </c>
-      <c r="U227">
-        <v>2.1</v>
-      </c>
-      <c r="V227">
-        <v>4.33</v>
-      </c>
       <c r="W227">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="X227">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y227">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z227">
+        <v>1.48</v>
+      </c>
+      <c r="AA227">
+        <v>3.8</v>
+      </c>
+      <c r="AB227">
+        <v>9</v>
+      </c>
+      <c r="AC227">
+        <v>1.11</v>
+      </c>
+      <c r="AD227">
+        <v>6.25</v>
+      </c>
+      <c r="AE227">
+        <v>1.48</v>
+      </c>
+      <c r="AF227">
         <v>2.6</v>
       </c>
-      <c r="AA227">
-        <v>2.88</v>
-      </c>
-      <c r="AB227">
-        <v>3.1</v>
-      </c>
-      <c r="AC227">
-        <v>1.12</v>
-      </c>
-      <c r="AD227">
-        <v>5.25</v>
-      </c>
-      <c r="AE227">
-        <v>1.6</v>
-      </c>
-      <c r="AF227">
-        <v>2.2</v>
-      </c>
       <c r="AG227">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="AH227">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AI227">
+        <v>2.5</v>
+      </c>
+      <c r="AJ227">
+        <v>1.5</v>
+      </c>
+      <c r="AK227">
+        <v>1.05</v>
+      </c>
+      <c r="AL227">
+        <v>1.3</v>
+      </c>
+      <c r="AM227">
         <v>2.25</v>
       </c>
-      <c r="AJ227">
-        <v>1.57</v>
-      </c>
-      <c r="AK227">
-        <v>1.22</v>
-      </c>
-      <c r="AL227">
-        <v>1.45</v>
-      </c>
-      <c r="AM227">
-        <v>1.52</v>
-      </c>
       <c r="AN227">
+        <v>1.88</v>
+      </c>
+      <c r="AO227">
         <v>1.07</v>
       </c>
-      <c r="AO227">
-        <v>1.53</v>
-      </c>
       <c r="AP227">
-        <v>1.06</v>
+        <v>1.84</v>
       </c>
       <c r="AQ227">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
-        <v>1.52</v>
+        <v>2.09</v>
       </c>
       <c r="AS227">
-        <v>1.54</v>
+        <v>0.98</v>
       </c>
       <c r="AT227">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AU227">
         <v>9</v>
       </c>
       <c r="AV227">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AW227">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX227">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY227">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ227">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="BA227">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB227">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC227">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD227">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="BE227">
-        <v>7.7</v>
+        <v>10.5</v>
       </c>
       <c r="BF227">
-        <v>2.76</v>
+        <v>6.17</v>
       </c>
       <c r="BG227">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BH227">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="BI227">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="BJ227">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="BK227">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="BL227">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="BM227">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="BN227">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BO227">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="BP227">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="228" spans="1:68">
@@ -48111,7 +48123,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7345128</v>
+        <v>7345127</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48126,190 +48138,190 @@
         <v>2</v>
       </c>
       <c r="G228" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H228" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228">
         <v>1</v>
       </c>
       <c r="L228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228">
         <v>2</v>
       </c>
       <c r="O228" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
       <c r="Q228">
+        <v>3.5</v>
+      </c>
+      <c r="R228">
+        <v>1.83</v>
+      </c>
+      <c r="S228">
+        <v>4</v>
+      </c>
+      <c r="T228">
+        <v>1.67</v>
+      </c>
+      <c r="U228">
         <v>2.1</v>
       </c>
-      <c r="R228">
-        <v>2.1</v>
-      </c>
-      <c r="S228">
-        <v>8</v>
-      </c>
-      <c r="T228">
+      <c r="V228">
+        <v>4.33</v>
+      </c>
+      <c r="W228">
+        <v>1.2</v>
+      </c>
+      <c r="X228">
+        <v>15</v>
+      </c>
+      <c r="Y228">
+        <v>1.03</v>
+      </c>
+      <c r="Z228">
+        <v>2.6</v>
+      </c>
+      <c r="AA228">
+        <v>2.88</v>
+      </c>
+      <c r="AB228">
+        <v>3.1</v>
+      </c>
+      <c r="AC228">
+        <v>1.12</v>
+      </c>
+      <c r="AD228">
+        <v>5.25</v>
+      </c>
+      <c r="AE228">
+        <v>1.6</v>
+      </c>
+      <c r="AF228">
+        <v>2.2</v>
+      </c>
+      <c r="AG228">
+        <v>3.1</v>
+      </c>
+      <c r="AH228">
+        <v>1.36</v>
+      </c>
+      <c r="AI228">
+        <v>2.25</v>
+      </c>
+      <c r="AJ228">
         <v>1.57</v>
       </c>
-      <c r="U228">
-        <v>2.25</v>
-      </c>
-      <c r="V228">
-        <v>3.5</v>
-      </c>
-      <c r="W228">
-        <v>1.29</v>
-      </c>
-      <c r="X228">
-        <v>11</v>
-      </c>
-      <c r="Y228">
-        <v>1.05</v>
-      </c>
-      <c r="Z228">
-        <v>1.48</v>
-      </c>
-      <c r="AA228">
-        <v>3.8</v>
-      </c>
-      <c r="AB228">
-        <v>9</v>
-      </c>
-      <c r="AC228">
-        <v>1.11</v>
-      </c>
-      <c r="AD228">
-        <v>6.25</v>
-      </c>
-      <c r="AE228">
-        <v>1.48</v>
-      </c>
-      <c r="AF228">
-        <v>2.6</v>
-      </c>
-      <c r="AG228">
-        <v>2.25</v>
-      </c>
-      <c r="AH228">
-        <v>1.62</v>
-      </c>
-      <c r="AI228">
-        <v>2.5</v>
-      </c>
-      <c r="AJ228">
-        <v>1.5</v>
-      </c>
       <c r="AK228">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AL228">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AM228">
-        <v>2.25</v>
+        <v>1.52</v>
       </c>
       <c r="AN228">
-        <v>1.88</v>
+        <v>1.07</v>
       </c>
       <c r="AO228">
-        <v>1.07</v>
+        <v>1.53</v>
       </c>
       <c r="AP228">
-        <v>1.94</v>
+        <v>1.06</v>
       </c>
       <c r="AQ228">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="AR228">
-        <v>2.09</v>
+        <v>1.52</v>
       </c>
       <c r="AS228">
-        <v>0.98</v>
+        <v>1.54</v>
       </c>
       <c r="AT228">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="AU228">
         <v>9</v>
       </c>
       <c r="AV228">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AW228">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX228">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY228">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ228">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BA228">
+        <v>7</v>
+      </c>
+      <c r="BB228">
         <v>6</v>
       </c>
-      <c r="BB228">
-        <v>3</v>
-      </c>
       <c r="BC228">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD228">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="BE228">
-        <v>10.5</v>
+        <v>7.7</v>
       </c>
       <c r="BF228">
-        <v>6.17</v>
+        <v>2.76</v>
       </c>
       <c r="BG228">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH228">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="BI228">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="BJ228">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="BK228">
-        <v>2.05</v>
+        <v>2.21</v>
       </c>
       <c r="BL228">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="BM228">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="BN228">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BO228">
-        <v>3.85</v>
+        <v>4.25</v>
       </c>
       <c r="BP228">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="229" spans="1:68">
@@ -48317,7 +48329,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7345129</v>
+        <v>7345130</v>
       </c>
       <c r="C229" t="s">
         <v>68</v>
@@ -48332,151 +48344,151 @@
         <v>2</v>
       </c>
       <c r="G229" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H229" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229">
         <v>1</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O229" t="s">
         <v>231</v>
       </c>
       <c r="P229" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="Q229">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R229">
         <v>2.05</v>
       </c>
       <c r="S229">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="T229">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U229">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V229">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W229">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X229">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y229">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z229">
+        <v>1.9</v>
+      </c>
+      <c r="AA229">
+        <v>3.25</v>
+      </c>
+      <c r="AB229">
+        <v>4.5</v>
+      </c>
+      <c r="AC229">
+        <v>1.09</v>
+      </c>
+      <c r="AD229">
+        <v>6.4</v>
+      </c>
+      <c r="AE229">
+        <v>1.38</v>
+      </c>
+      <c r="AF229">
+        <v>2.94</v>
+      </c>
+      <c r="AG229">
+        <v>2.15</v>
+      </c>
+      <c r="AH229">
+        <v>1.67</v>
+      </c>
+      <c r="AI229">
+        <v>1.95</v>
+      </c>
+      <c r="AJ229">
         <v>1.8</v>
       </c>
-      <c r="AA229">
-        <v>3.5</v>
-      </c>
-      <c r="AB229">
-        <v>5</v>
-      </c>
-      <c r="AC229">
-        <v>1.08</v>
-      </c>
-      <c r="AD229">
-        <v>7.2</v>
-      </c>
-      <c r="AE229">
-        <v>1.46</v>
-      </c>
-      <c r="AF229">
-        <v>2.65</v>
-      </c>
-      <c r="AG229">
-        <v>2.35</v>
-      </c>
-      <c r="AH229">
-        <v>1.57</v>
-      </c>
-      <c r="AI229">
-        <v>2.1</v>
-      </c>
-      <c r="AJ229">
+      <c r="AK229">
+        <v>1.26</v>
+      </c>
+      <c r="AL229">
+        <v>1.28</v>
+      </c>
+      <c r="AM229">
+        <v>1.83</v>
+      </c>
+      <c r="AN229">
         <v>1.67</v>
       </c>
-      <c r="AK229">
-        <v>1.2</v>
-      </c>
-      <c r="AL229">
-        <v>1.3</v>
-      </c>
-      <c r="AM229">
-        <v>1.92</v>
-      </c>
-      <c r="AN229">
-        <v>1</v>
-      </c>
       <c r="AO229">
-        <v>0.33</v>
+        <v>1.82</v>
       </c>
       <c r="AP229">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="AQ229">
-        <v>0.38</v>
+        <v>1.72</v>
       </c>
       <c r="AR229">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="AS229">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT229">
-        <v>2.76</v>
+        <v>3.16</v>
       </c>
       <c r="AU229">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV229">
+        <v>0</v>
+      </c>
+      <c r="AW229">
+        <v>9</v>
+      </c>
+      <c r="AX229">
+        <v>7</v>
+      </c>
+      <c r="AY229">
+        <v>19</v>
+      </c>
+      <c r="AZ229">
+        <v>7</v>
+      </c>
+      <c r="BA229">
+        <v>3</v>
+      </c>
+      <c r="BB229">
         <v>4</v>
       </c>
-      <c r="AW229">
-        <v>4</v>
-      </c>
-      <c r="AX229">
-        <v>6</v>
-      </c>
-      <c r="AY229">
-        <v>9</v>
-      </c>
-      <c r="AZ229">
-        <v>10</v>
-      </c>
-      <c r="BA229">
+      <c r="BC229">
         <v>7</v>
-      </c>
-      <c r="BB229">
-        <v>2</v>
-      </c>
-      <c r="BC229">
-        <v>9</v>
       </c>
       <c r="BD229">
         <v>1.62</v>
@@ -48488,34 +48500,34 @@
         <v>3.01</v>
       </c>
       <c r="BG229">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BH229">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BI229">
+        <v>1.71</v>
+      </c>
+      <c r="BJ229">
+        <v>2</v>
+      </c>
+      <c r="BK229">
+        <v>2.2</v>
+      </c>
+      <c r="BL229">
         <v>1.58</v>
       </c>
-      <c r="BJ229">
-        <v>2.18</v>
-      </c>
-      <c r="BK229">
-        <v>2</v>
-      </c>
-      <c r="BL229">
-        <v>1.71</v>
-      </c>
       <c r="BM229">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="BN229">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BO229">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="BP229">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="230" spans="1:68">
@@ -48523,7 +48535,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7345130</v>
+        <v>7345129</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48538,151 +48550,151 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H230" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K230">
         <v>1</v>
       </c>
       <c r="L230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O230" t="s">
         <v>232</v>
       </c>
       <c r="P230" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="Q230">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R230">
         <v>2.05</v>
       </c>
       <c r="S230">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="T230">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U230">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V230">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W230">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X230">
+        <v>11</v>
+      </c>
+      <c r="Y230">
+        <v>1.05</v>
+      </c>
+      <c r="Z230">
+        <v>1.8</v>
+      </c>
+      <c r="AA230">
+        <v>3.5</v>
+      </c>
+      <c r="AB230">
+        <v>5</v>
+      </c>
+      <c r="AC230">
+        <v>1.08</v>
+      </c>
+      <c r="AD230">
+        <v>7.2</v>
+      </c>
+      <c r="AE230">
+        <v>1.46</v>
+      </c>
+      <c r="AF230">
+        <v>2.65</v>
+      </c>
+      <c r="AG230">
+        <v>2.35</v>
+      </c>
+      <c r="AH230">
+        <v>1.57</v>
+      </c>
+      <c r="AI230">
+        <v>2.1</v>
+      </c>
+      <c r="AJ230">
+        <v>1.67</v>
+      </c>
+      <c r="AK230">
+        <v>1.2</v>
+      </c>
+      <c r="AL230">
+        <v>1.3</v>
+      </c>
+      <c r="AM230">
+        <v>1.92</v>
+      </c>
+      <c r="AN230">
+        <v>1</v>
+      </c>
+      <c r="AO230">
+        <v>0.33</v>
+      </c>
+      <c r="AP230">
+        <v>1.12</v>
+      </c>
+      <c r="AQ230">
+        <v>0.35</v>
+      </c>
+      <c r="AR230">
+        <v>1.56</v>
+      </c>
+      <c r="AS230">
+        <v>1.2</v>
+      </c>
+      <c r="AT230">
+        <v>2.76</v>
+      </c>
+      <c r="AU230">
+        <v>5</v>
+      </c>
+      <c r="AV230">
+        <v>4</v>
+      </c>
+      <c r="AW230">
+        <v>4</v>
+      </c>
+      <c r="AX230">
+        <v>6</v>
+      </c>
+      <c r="AY230">
+        <v>9</v>
+      </c>
+      <c r="AZ230">
         <v>10</v>
       </c>
-      <c r="Y230">
-        <v>1.06</v>
-      </c>
-      <c r="Z230">
-        <v>1.9</v>
-      </c>
-      <c r="AA230">
-        <v>3.25</v>
-      </c>
-      <c r="AB230">
-        <v>4.5</v>
-      </c>
-      <c r="AC230">
-        <v>1.09</v>
-      </c>
-      <c r="AD230">
-        <v>6.4</v>
-      </c>
-      <c r="AE230">
-        <v>1.38</v>
-      </c>
-      <c r="AF230">
-        <v>2.94</v>
-      </c>
-      <c r="AG230">
-        <v>2.15</v>
-      </c>
-      <c r="AH230">
-        <v>1.67</v>
-      </c>
-      <c r="AI230">
-        <v>1.95</v>
-      </c>
-      <c r="AJ230">
-        <v>1.8</v>
-      </c>
-      <c r="AK230">
-        <v>1.26</v>
-      </c>
-      <c r="AL230">
-        <v>1.28</v>
-      </c>
-      <c r="AM230">
-        <v>1.83</v>
-      </c>
-      <c r="AN230">
-        <v>1.67</v>
-      </c>
-      <c r="AO230">
-        <v>1.82</v>
-      </c>
-      <c r="AP230">
-        <v>1.75</v>
-      </c>
-      <c r="AQ230">
-        <v>1.72</v>
-      </c>
-      <c r="AR230">
-        <v>1.85</v>
-      </c>
-      <c r="AS230">
-        <v>1.31</v>
-      </c>
-      <c r="AT230">
-        <v>3.16</v>
-      </c>
-      <c r="AU230">
-        <v>10</v>
-      </c>
-      <c r="AV230">
-        <v>0</v>
-      </c>
-      <c r="AW230">
+      <c r="BA230">
+        <v>7</v>
+      </c>
+      <c r="BB230">
+        <v>2</v>
+      </c>
+      <c r="BC230">
         <v>9</v>
-      </c>
-      <c r="AX230">
-        <v>7</v>
-      </c>
-      <c r="AY230">
-        <v>19</v>
-      </c>
-      <c r="AZ230">
-        <v>7</v>
-      </c>
-      <c r="BA230">
-        <v>3</v>
-      </c>
-      <c r="BB230">
-        <v>4</v>
-      </c>
-      <c r="BC230">
-        <v>7</v>
       </c>
       <c r="BD230">
         <v>1.62</v>
@@ -48694,34 +48706,34 @@
         <v>3.01</v>
       </c>
       <c r="BG230">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BH230">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BI230">
+        <v>1.58</v>
+      </c>
+      <c r="BJ230">
+        <v>2.18</v>
+      </c>
+      <c r="BK230">
+        <v>2</v>
+      </c>
+      <c r="BL230">
         <v>1.71</v>
       </c>
-      <c r="BJ230">
-        <v>2</v>
-      </c>
-      <c r="BK230">
-        <v>2.2</v>
-      </c>
-      <c r="BL230">
-        <v>1.58</v>
-      </c>
       <c r="BM230">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BN230">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BO230">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="BP230">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="231" spans="1:68">
@@ -48928,6 +48940,830 @@
       </c>
       <c r="BP231">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7345135</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45436.64583333334</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+      <c r="G232" t="s">
+        <v>95</v>
+      </c>
+      <c r="H232" t="s">
+        <v>86</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>98</v>
+      </c>
+      <c r="P232" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q232">
+        <v>3.2</v>
+      </c>
+      <c r="R232">
+        <v>1.83</v>
+      </c>
+      <c r="S232">
+        <v>4.5</v>
+      </c>
+      <c r="T232">
+        <v>1.62</v>
+      </c>
+      <c r="U232">
+        <v>2.2</v>
+      </c>
+      <c r="V232">
+        <v>4</v>
+      </c>
+      <c r="W232">
+        <v>1.22</v>
+      </c>
+      <c r="X232">
+        <v>13</v>
+      </c>
+      <c r="Y232">
+        <v>1.04</v>
+      </c>
+      <c r="Z232">
+        <v>2.3</v>
+      </c>
+      <c r="AA232">
+        <v>2.9</v>
+      </c>
+      <c r="AB232">
+        <v>3.6</v>
+      </c>
+      <c r="AC232">
+        <v>1.11</v>
+      </c>
+      <c r="AD232">
+        <v>6.25</v>
+      </c>
+      <c r="AE232">
+        <v>1.52</v>
+      </c>
+      <c r="AF232">
+        <v>2.35</v>
+      </c>
+      <c r="AG232">
+        <v>3.1</v>
+      </c>
+      <c r="AH232">
+        <v>1.36</v>
+      </c>
+      <c r="AI232">
+        <v>2.25</v>
+      </c>
+      <c r="AJ232">
+        <v>1.57</v>
+      </c>
+      <c r="AK232">
+        <v>1.36</v>
+      </c>
+      <c r="AL232">
+        <v>1.33</v>
+      </c>
+      <c r="AM232">
+        <v>1.5</v>
+      </c>
+      <c r="AN232">
+        <v>1</v>
+      </c>
+      <c r="AO232">
+        <v>1</v>
+      </c>
+      <c r="AP232">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ232">
+        <v>1.12</v>
+      </c>
+      <c r="AR232">
+        <v>1.23</v>
+      </c>
+      <c r="AS232">
+        <v>1.04</v>
+      </c>
+      <c r="AT232">
+        <v>2.27</v>
+      </c>
+      <c r="AU232">
+        <v>13</v>
+      </c>
+      <c r="AV232">
+        <v>8</v>
+      </c>
+      <c r="AW232">
+        <v>5</v>
+      </c>
+      <c r="AX232">
+        <v>2</v>
+      </c>
+      <c r="AY232">
+        <v>18</v>
+      </c>
+      <c r="AZ232">
+        <v>10</v>
+      </c>
+      <c r="BA232">
+        <v>7</v>
+      </c>
+      <c r="BB232">
+        <v>1</v>
+      </c>
+      <c r="BC232">
+        <v>8</v>
+      </c>
+      <c r="BD232">
+        <v>1.98</v>
+      </c>
+      <c r="BE232">
+        <v>7</v>
+      </c>
+      <c r="BF232">
+        <v>2.22</v>
+      </c>
+      <c r="BG232">
+        <v>1.36</v>
+      </c>
+      <c r="BH232">
+        <v>2.85</v>
+      </c>
+      <c r="BI232">
+        <v>1.64</v>
+      </c>
+      <c r="BJ232">
+        <v>2.1</v>
+      </c>
+      <c r="BK232">
+        <v>2.08</v>
+      </c>
+      <c r="BL232">
+        <v>1.65</v>
+      </c>
+      <c r="BM232">
+        <v>2.75</v>
+      </c>
+      <c r="BN232">
+        <v>1.38</v>
+      </c>
+      <c r="BO232">
+        <v>3.85</v>
+      </c>
+      <c r="BP232">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7345134</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45436.79166666666</v>
+      </c>
+      <c r="F233">
+        <v>3</v>
+      </c>
+      <c r="G233" t="s">
+        <v>71</v>
+      </c>
+      <c r="H233" t="s">
+        <v>80</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>2</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>4</v>
+      </c>
+      <c r="N233">
+        <v>4</v>
+      </c>
+      <c r="O233" t="s">
+        <v>98</v>
+      </c>
+      <c r="P233" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q233">
+        <v>5</v>
+      </c>
+      <c r="R233">
+        <v>2.2</v>
+      </c>
+      <c r="S233">
+        <v>2.3</v>
+      </c>
+      <c r="T233">
+        <v>1.44</v>
+      </c>
+      <c r="U233">
+        <v>2.63</v>
+      </c>
+      <c r="V233">
+        <v>3.25</v>
+      </c>
+      <c r="W233">
+        <v>1.33</v>
+      </c>
+      <c r="X233">
+        <v>9</v>
+      </c>
+      <c r="Y233">
+        <v>1.07</v>
+      </c>
+      <c r="Z233">
+        <v>5.25</v>
+      </c>
+      <c r="AA233">
+        <v>3.7</v>
+      </c>
+      <c r="AB233">
+        <v>1.7</v>
+      </c>
+      <c r="AC233">
+        <v>1.06</v>
+      </c>
+      <c r="AD233">
+        <v>8.4</v>
+      </c>
+      <c r="AE233">
+        <v>1.38</v>
+      </c>
+      <c r="AF233">
+        <v>2.94</v>
+      </c>
+      <c r="AG233">
+        <v>1.95</v>
+      </c>
+      <c r="AH233">
+        <v>1.85</v>
+      </c>
+      <c r="AI233">
+        <v>1.95</v>
+      </c>
+      <c r="AJ233">
+        <v>1.8</v>
+      </c>
+      <c r="AK233">
+        <v>1.83</v>
+      </c>
+      <c r="AL233">
+        <v>1.31</v>
+      </c>
+      <c r="AM233">
+        <v>1.26</v>
+      </c>
+      <c r="AN233">
+        <v>0.38</v>
+      </c>
+      <c r="AO233">
+        <v>1.75</v>
+      </c>
+      <c r="AP233">
+        <v>0.35</v>
+      </c>
+      <c r="AQ233">
+        <v>1.82</v>
+      </c>
+      <c r="AR233">
+        <v>1.47</v>
+      </c>
+      <c r="AS233">
+        <v>1.56</v>
+      </c>
+      <c r="AT233">
+        <v>3.03</v>
+      </c>
+      <c r="AU233">
+        <v>4</v>
+      </c>
+      <c r="AV233">
+        <v>11</v>
+      </c>
+      <c r="AW233">
+        <v>9</v>
+      </c>
+      <c r="AX233">
+        <v>5</v>
+      </c>
+      <c r="AY233">
+        <v>13</v>
+      </c>
+      <c r="AZ233">
+        <v>16</v>
+      </c>
+      <c r="BA233">
+        <v>1</v>
+      </c>
+      <c r="BB233">
+        <v>3</v>
+      </c>
+      <c r="BC233">
+        <v>4</v>
+      </c>
+      <c r="BD233">
+        <v>2.86</v>
+      </c>
+      <c r="BE233">
+        <v>7.4</v>
+      </c>
+      <c r="BF233">
+        <v>1.65</v>
+      </c>
+      <c r="BG233">
+        <v>1.45</v>
+      </c>
+      <c r="BH233">
+        <v>2.5</v>
+      </c>
+      <c r="BI233">
+        <v>1.82</v>
+      </c>
+      <c r="BJ233">
+        <v>1.98</v>
+      </c>
+      <c r="BK233">
+        <v>2.33</v>
+      </c>
+      <c r="BL233">
+        <v>1.52</v>
+      </c>
+      <c r="BM233">
+        <v>3.15</v>
+      </c>
+      <c r="BN233">
+        <v>1.29</v>
+      </c>
+      <c r="BO233">
+        <v>4.5</v>
+      </c>
+      <c r="BP233">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7345136</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45436.88541666666</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+      <c r="G234" t="s">
+        <v>87</v>
+      </c>
+      <c r="H234" t="s">
+        <v>83</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>2</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234" t="s">
+        <v>234</v>
+      </c>
+      <c r="P234" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q234">
+        <v>3.4</v>
+      </c>
+      <c r="R234">
+        <v>1.95</v>
+      </c>
+      <c r="S234">
+        <v>3.75</v>
+      </c>
+      <c r="T234">
+        <v>1.53</v>
+      </c>
+      <c r="U234">
+        <v>2.38</v>
+      </c>
+      <c r="V234">
+        <v>3.75</v>
+      </c>
+      <c r="W234">
+        <v>1.25</v>
+      </c>
+      <c r="X234">
+        <v>11</v>
+      </c>
+      <c r="Y234">
+        <v>1.05</v>
+      </c>
+      <c r="Z234">
+        <v>2.55</v>
+      </c>
+      <c r="AA234">
+        <v>3</v>
+      </c>
+      <c r="AB234">
+        <v>3.1</v>
+      </c>
+      <c r="AC234">
+        <v>1.1</v>
+      </c>
+      <c r="AD234">
+        <v>6.5</v>
+      </c>
+      <c r="AE234">
+        <v>1.5</v>
+      </c>
+      <c r="AF234">
+        <v>2.5</v>
+      </c>
+      <c r="AG234">
+        <v>2.5</v>
+      </c>
+      <c r="AH234">
+        <v>1.5</v>
+      </c>
+      <c r="AI234">
+        <v>2.05</v>
+      </c>
+      <c r="AJ234">
+        <v>1.7</v>
+      </c>
+      <c r="AK234">
+        <v>1.4</v>
+      </c>
+      <c r="AL234">
+        <v>1.36</v>
+      </c>
+      <c r="AM234">
+        <v>1.53</v>
+      </c>
+      <c r="AN234">
+        <v>1.5</v>
+      </c>
+      <c r="AO234">
+        <v>1.94</v>
+      </c>
+      <c r="AP234">
+        <v>1.59</v>
+      </c>
+      <c r="AQ234">
+        <v>1.84</v>
+      </c>
+      <c r="AR234">
+        <v>1.44</v>
+      </c>
+      <c r="AS234">
+        <v>1.25</v>
+      </c>
+      <c r="AT234">
+        <v>2.69</v>
+      </c>
+      <c r="AU234">
+        <v>6</v>
+      </c>
+      <c r="AV234">
+        <v>7</v>
+      </c>
+      <c r="AW234">
+        <v>7</v>
+      </c>
+      <c r="AX234">
+        <v>7</v>
+      </c>
+      <c r="AY234">
+        <v>13</v>
+      </c>
+      <c r="AZ234">
+        <v>14</v>
+      </c>
+      <c r="BA234">
+        <v>1</v>
+      </c>
+      <c r="BB234">
+        <v>5</v>
+      </c>
+      <c r="BC234">
+        <v>6</v>
+      </c>
+      <c r="BD234">
+        <v>2.05</v>
+      </c>
+      <c r="BE234">
+        <v>6.9</v>
+      </c>
+      <c r="BF234">
+        <v>2.15</v>
+      </c>
+      <c r="BG234">
+        <v>1.31</v>
+      </c>
+      <c r="BH234">
+        <v>3.04</v>
+      </c>
+      <c r="BI234">
+        <v>1.52</v>
+      </c>
+      <c r="BJ234">
+        <v>2.33</v>
+      </c>
+      <c r="BK234">
+        <v>2</v>
+      </c>
+      <c r="BL234">
+        <v>1.8</v>
+      </c>
+      <c r="BM234">
+        <v>2.45</v>
+      </c>
+      <c r="BN234">
+        <v>1.47</v>
+      </c>
+      <c r="BO234">
+        <v>3.3</v>
+      </c>
+      <c r="BP234">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7345132</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45436.88541666666</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+      <c r="G235" t="s">
+        <v>91</v>
+      </c>
+      <c r="H235" t="s">
+        <v>73</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>235</v>
+      </c>
+      <c r="P235" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q235">
+        <v>2.3</v>
+      </c>
+      <c r="R235">
+        <v>2.2</v>
+      </c>
+      <c r="S235">
+        <v>5.5</v>
+      </c>
+      <c r="T235">
+        <v>1.55</v>
+      </c>
+      <c r="U235">
+        <v>2.3</v>
+      </c>
+      <c r="V235">
+        <v>3.55</v>
+      </c>
+      <c r="W235">
+        <v>1.25</v>
+      </c>
+      <c r="X235">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y235">
+        <v>1.04</v>
+      </c>
+      <c r="Z235">
+        <v>1.7</v>
+      </c>
+      <c r="AA235">
+        <v>3.6</v>
+      </c>
+      <c r="AB235">
+        <v>5.5</v>
+      </c>
+      <c r="AC235">
+        <v>1.1</v>
+      </c>
+      <c r="AD235">
+        <v>6.5</v>
+      </c>
+      <c r="AE235">
+        <v>1.5</v>
+      </c>
+      <c r="AF235">
+        <v>2.55</v>
+      </c>
+      <c r="AG235">
+        <v>2.05</v>
+      </c>
+      <c r="AH235">
+        <v>1.75</v>
+      </c>
+      <c r="AI235">
+        <v>1.95</v>
+      </c>
+      <c r="AJ235">
+        <v>1.8</v>
+      </c>
+      <c r="AK235">
+        <v>1.17</v>
+      </c>
+      <c r="AL235">
+        <v>1.28</v>
+      </c>
+      <c r="AM235">
+        <v>1.93</v>
+      </c>
+      <c r="AN235">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO235">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP235">
+        <v>1.06</v>
+      </c>
+      <c r="AQ235">
+        <v>0.65</v>
+      </c>
+      <c r="AR235">
+        <v>1.47</v>
+      </c>
+      <c r="AS235">
+        <v>0.99</v>
+      </c>
+      <c r="AT235">
+        <v>2.46</v>
+      </c>
+      <c r="AU235">
+        <v>7</v>
+      </c>
+      <c r="AV235">
+        <v>4</v>
+      </c>
+      <c r="AW235">
+        <v>7</v>
+      </c>
+      <c r="AX235">
+        <v>9</v>
+      </c>
+      <c r="AY235">
+        <v>14</v>
+      </c>
+      <c r="AZ235">
+        <v>13</v>
+      </c>
+      <c r="BA235">
+        <v>4</v>
+      </c>
+      <c r="BB235">
+        <v>7</v>
+      </c>
+      <c r="BC235">
+        <v>11</v>
+      </c>
+      <c r="BD235">
+        <v>1.57</v>
+      </c>
+      <c r="BE235">
+        <v>7.6</v>
+      </c>
+      <c r="BF235">
+        <v>3.1</v>
+      </c>
+      <c r="BG235">
+        <v>1.4</v>
+      </c>
+      <c r="BH235">
+        <v>2.7</v>
+      </c>
+      <c r="BI235">
+        <v>1.71</v>
+      </c>
+      <c r="BJ235">
+        <v>2</v>
+      </c>
+      <c r="BK235">
+        <v>2.2</v>
+      </c>
+      <c r="BL235">
+        <v>1.58</v>
+      </c>
+      <c r="BM235">
+        <v>2.95</v>
+      </c>
+      <c r="BN235">
+        <v>1.34</v>
+      </c>
+      <c r="BO235">
+        <v>4.1</v>
+      </c>
+      <c r="BP235">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1350,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3956,7 +3956,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ17">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -6634,7 +6634,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27">
         <v>0.75</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -9930,7 +9930,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11781,10 +11781,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ51">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -12402,7 +12402,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.2</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13223,7 +13223,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -14462,7 +14462,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ64">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -14871,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ66">
         <v>0.5600000000000001</v>
@@ -15080,7 +15080,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.68</v>
@@ -17964,7 +17964,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -18579,7 +18579,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -19200,7 +19200,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ87">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -20433,7 +20433,7 @@
         <v>0.33</v>
       </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
         <v>0.7</v>
@@ -21257,7 +21257,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -23732,7 +23732,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ109">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>2.06</v>
@@ -24347,7 +24347,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24553,7 +24553,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ113">
         <v>0.63</v>
@@ -25583,7 +25583,7 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ118">
         <v>0.88</v>
@@ -26616,7 +26616,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ123">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR123">
         <v>1.2</v>
@@ -27025,7 +27025,7 @@
         <v>0.25</v>
       </c>
       <c r="AP125">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
         <v>0.25</v>
@@ -27234,7 +27234,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27852,7 +27852,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ129">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -29291,7 +29291,7 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ136">
         <v>2</v>
@@ -30527,7 +30527,7 @@
         <v>0.8</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30942,7 +30942,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ144">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -32178,7 +32178,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ150">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR150">
         <v>1.58</v>
@@ -32587,7 +32587,7 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ152">
         <v>0.7</v>
@@ -34238,7 +34238,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ160">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
         <v>1.18</v>
@@ -34441,7 +34441,7 @@
         <v>0.8</v>
       </c>
       <c r="AP161">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ161">
         <v>0.63</v>
@@ -36501,7 +36501,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ171">
         <v>1.5</v>
@@ -36710,7 +36710,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR172">
         <v>1.58</v>
@@ -40003,7 +40003,7 @@
         <v>1.83</v>
       </c>
       <c r="AP188">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ188">
         <v>1.67</v>
@@ -40212,7 +40212,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ189">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR189">
         <v>1.64</v>
@@ -40624,7 +40624,7 @@
         <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR191">
         <v>1.51</v>
@@ -41445,7 +41445,7 @@
         <v>2.5</v>
       </c>
       <c r="AP195">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ195">
         <v>2</v>
@@ -41857,10 +41857,10 @@
         <v>1.86</v>
       </c>
       <c r="AP197">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ197">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR197">
         <v>1.7</v>
@@ -42475,10 +42475,10 @@
         <v>1.92</v>
       </c>
       <c r="AP200">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ200">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42681,7 +42681,7 @@
         <v>1.87</v>
       </c>
       <c r="AP201">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ201">
         <v>1.74</v>
@@ -42890,7 +42890,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ202">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR202">
         <v>2.2</v>
@@ -43505,7 +43505,7 @@
         <v>1.29</v>
       </c>
       <c r="AP205">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ205">
         <v>1.19</v>
@@ -43711,7 +43711,7 @@
         <v>1.07</v>
       </c>
       <c r="AP206">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ206">
         <v>1.12</v>
@@ -43920,7 +43920,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ207">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR207">
         <v>1.3</v>
@@ -44332,7 +44332,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR209">
         <v>1.74</v>
@@ -44535,7 +44535,7 @@
         <v>0.79</v>
       </c>
       <c r="AP210">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ210">
         <v>0.65</v>
@@ -45568,7 +45568,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ215">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -46389,7 +46389,7 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ219">
         <v>1.06</v>
@@ -46595,7 +46595,7 @@
         <v>1.27</v>
       </c>
       <c r="AP220">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ220">
         <v>1.25</v>
@@ -47419,7 +47419,7 @@
         <v>0.87</v>
       </c>
       <c r="AP224">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ224">
         <v>0.8100000000000001</v>
@@ -47834,7 +47834,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ226">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR226">
         <v>1.22</v>
@@ -48452,7 +48452,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ229">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR229">
         <v>1.85</v>
@@ -48864,7 +48864,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ231">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR231">
         <v>1.81</v>
@@ -49764,6 +49764,624 @@
       </c>
       <c r="BP235">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7345133</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45437.625</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+      <c r="G236" t="s">
+        <v>89</v>
+      </c>
+      <c r="H236" t="s">
+        <v>82</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>189</v>
+      </c>
+      <c r="P236" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q236">
+        <v>4.75</v>
+      </c>
+      <c r="R236">
+        <v>2.1</v>
+      </c>
+      <c r="S236">
+        <v>2.5</v>
+      </c>
+      <c r="T236">
+        <v>1.44</v>
+      </c>
+      <c r="U236">
+        <v>2.63</v>
+      </c>
+      <c r="V236">
+        <v>3.25</v>
+      </c>
+      <c r="W236">
+        <v>1.33</v>
+      </c>
+      <c r="X236">
+        <v>9</v>
+      </c>
+      <c r="Y236">
+        <v>1.07</v>
+      </c>
+      <c r="Z236">
+        <v>4.33</v>
+      </c>
+      <c r="AA236">
+        <v>3.5</v>
+      </c>
+      <c r="AB236">
+        <v>1.85</v>
+      </c>
+      <c r="AC236">
+        <v>1.07</v>
+      </c>
+      <c r="AD236">
+        <v>8</v>
+      </c>
+      <c r="AE236">
+        <v>1.36</v>
+      </c>
+      <c r="AF236">
+        <v>3.1</v>
+      </c>
+      <c r="AG236">
+        <v>2.1</v>
+      </c>
+      <c r="AH236">
+        <v>1.7</v>
+      </c>
+      <c r="AI236">
+        <v>1.95</v>
+      </c>
+      <c r="AJ236">
+        <v>1.8</v>
+      </c>
+      <c r="AK236">
+        <v>1.75</v>
+      </c>
+      <c r="AL236">
+        <v>1.28</v>
+      </c>
+      <c r="AM236">
+        <v>1.25</v>
+      </c>
+      <c r="AN236">
+        <v>1.72</v>
+      </c>
+      <c r="AO236">
+        <v>1.94</v>
+      </c>
+      <c r="AP236">
+        <v>1.79</v>
+      </c>
+      <c r="AQ236">
+        <v>1.83</v>
+      </c>
+      <c r="AR236">
+        <v>1.82</v>
+      </c>
+      <c r="AS236">
+        <v>1.65</v>
+      </c>
+      <c r="AT236">
+        <v>3.47</v>
+      </c>
+      <c r="AU236">
+        <v>7</v>
+      </c>
+      <c r="AV236">
+        <v>3</v>
+      </c>
+      <c r="AW236">
+        <v>7</v>
+      </c>
+      <c r="AX236">
+        <v>5</v>
+      </c>
+      <c r="AY236">
+        <v>14</v>
+      </c>
+      <c r="AZ236">
+        <v>8</v>
+      </c>
+      <c r="BA236">
+        <v>3</v>
+      </c>
+      <c r="BB236">
+        <v>5</v>
+      </c>
+      <c r="BC236">
+        <v>8</v>
+      </c>
+      <c r="BD236">
+        <v>2.08</v>
+      </c>
+      <c r="BE236">
+        <v>7.3</v>
+      </c>
+      <c r="BF236">
+        <v>2.08</v>
+      </c>
+      <c r="BG236">
+        <v>1.25</v>
+      </c>
+      <c r="BH236">
+        <v>3.42</v>
+      </c>
+      <c r="BI236">
+        <v>1.47</v>
+      </c>
+      <c r="BJ236">
+        <v>2.48</v>
+      </c>
+      <c r="BK236">
+        <v>2.25</v>
+      </c>
+      <c r="BL236">
+        <v>1.98</v>
+      </c>
+      <c r="BM236">
+        <v>2.3</v>
+      </c>
+      <c r="BN236">
+        <v>1.53</v>
+      </c>
+      <c r="BO236">
+        <v>3.05</v>
+      </c>
+      <c r="BP236">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7345142</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45437.72916666666</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+      <c r="G237" t="s">
+        <v>96</v>
+      </c>
+      <c r="H237" t="s">
+        <v>90</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
+        <v>228</v>
+      </c>
+      <c r="P237" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q237">
+        <v>2.5</v>
+      </c>
+      <c r="R237">
+        <v>2.05</v>
+      </c>
+      <c r="S237">
+        <v>5</v>
+      </c>
+      <c r="T237">
+        <v>1.57</v>
+      </c>
+      <c r="U237">
+        <v>2.25</v>
+      </c>
+      <c r="V237">
+        <v>3.75</v>
+      </c>
+      <c r="W237">
+        <v>1.25</v>
+      </c>
+      <c r="X237">
+        <v>13</v>
+      </c>
+      <c r="Y237">
+        <v>1.04</v>
+      </c>
+      <c r="Z237">
+        <v>1.8</v>
+      </c>
+      <c r="AA237">
+        <v>3.3</v>
+      </c>
+      <c r="AB237">
+        <v>4.75</v>
+      </c>
+      <c r="AC237">
+        <v>1.1</v>
+      </c>
+      <c r="AD237">
+        <v>6.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.5</v>
+      </c>
+      <c r="AF237">
+        <v>2.55</v>
+      </c>
+      <c r="AG237">
+        <v>2.25</v>
+      </c>
+      <c r="AH237">
+        <v>1.62</v>
+      </c>
+      <c r="AI237">
+        <v>2.05</v>
+      </c>
+      <c r="AJ237">
+        <v>1.7</v>
+      </c>
+      <c r="AK237">
+        <v>1.22</v>
+      </c>
+      <c r="AL237">
+        <v>1.28</v>
+      </c>
+      <c r="AM237">
+        <v>1.8</v>
+      </c>
+      <c r="AN237">
+        <v>1.5</v>
+      </c>
+      <c r="AO237">
+        <v>1.65</v>
+      </c>
+      <c r="AP237">
+        <v>1.59</v>
+      </c>
+      <c r="AQ237">
+        <v>1.56</v>
+      </c>
+      <c r="AR237">
+        <v>1.68</v>
+      </c>
+      <c r="AS237">
+        <v>1.32</v>
+      </c>
+      <c r="AT237">
+        <v>3</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>4</v>
+      </c>
+      <c r="AW237">
+        <v>11</v>
+      </c>
+      <c r="AX237">
+        <v>8</v>
+      </c>
+      <c r="AY237">
+        <v>16</v>
+      </c>
+      <c r="AZ237">
+        <v>12</v>
+      </c>
+      <c r="BA237">
+        <v>5</v>
+      </c>
+      <c r="BB237">
+        <v>4</v>
+      </c>
+      <c r="BC237">
+        <v>9</v>
+      </c>
+      <c r="BD237">
+        <v>1.5</v>
+      </c>
+      <c r="BE237">
+        <v>8</v>
+      </c>
+      <c r="BF237">
+        <v>3.34</v>
+      </c>
+      <c r="BG237">
+        <v>1.36</v>
+      </c>
+      <c r="BH237">
+        <v>2.85</v>
+      </c>
+      <c r="BI237">
+        <v>1.64</v>
+      </c>
+      <c r="BJ237">
+        <v>2.1</v>
+      </c>
+      <c r="BK237">
+        <v>2.05</v>
+      </c>
+      <c r="BL237">
+        <v>1.7</v>
+      </c>
+      <c r="BM237">
+        <v>2.75</v>
+      </c>
+      <c r="BN237">
+        <v>1.38</v>
+      </c>
+      <c r="BO237">
+        <v>3.85</v>
+      </c>
+      <c r="BP237">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7345145</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45437.83333333334</v>
+      </c>
+      <c r="F238">
+        <v>3</v>
+      </c>
+      <c r="G238" t="s">
+        <v>92</v>
+      </c>
+      <c r="H238" t="s">
+        <v>75</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238" t="s">
+        <v>98</v>
+      </c>
+      <c r="P238" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q238">
+        <v>2.63</v>
+      </c>
+      <c r="R238">
+        <v>2.05</v>
+      </c>
+      <c r="S238">
+        <v>4.5</v>
+      </c>
+      <c r="T238">
+        <v>1.53</v>
+      </c>
+      <c r="U238">
+        <v>2.52</v>
+      </c>
+      <c r="V238">
+        <v>3.48</v>
+      </c>
+      <c r="W238">
+        <v>1.28</v>
+      </c>
+      <c r="X238">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y238">
+        <v>1.04</v>
+      </c>
+      <c r="Z238">
+        <v>1.91</v>
+      </c>
+      <c r="AA238">
+        <v>3.3</v>
+      </c>
+      <c r="AB238">
+        <v>4.33</v>
+      </c>
+      <c r="AC238">
+        <v>1.06</v>
+      </c>
+      <c r="AD238">
+        <v>6.6</v>
+      </c>
+      <c r="AE238">
+        <v>1.45</v>
+      </c>
+      <c r="AF238">
+        <v>2.48</v>
+      </c>
+      <c r="AG238">
+        <v>2.2</v>
+      </c>
+      <c r="AH238">
+        <v>1.65</v>
+      </c>
+      <c r="AI238">
+        <v>1.95</v>
+      </c>
+      <c r="AJ238">
+        <v>1.8</v>
+      </c>
+      <c r="AK238">
+        <v>1.23</v>
+      </c>
+      <c r="AL238">
+        <v>1.32</v>
+      </c>
+      <c r="AM238">
+        <v>1.72</v>
+      </c>
+      <c r="AN238">
+        <v>1.88</v>
+      </c>
+      <c r="AO238">
+        <v>1.88</v>
+      </c>
+      <c r="AP238">
+        <v>1.83</v>
+      </c>
+      <c r="AQ238">
+        <v>1.82</v>
+      </c>
+      <c r="AR238">
+        <v>1.73</v>
+      </c>
+      <c r="AS238">
+        <v>1.57</v>
+      </c>
+      <c r="AT238">
+        <v>3.3</v>
+      </c>
+      <c r="AU238">
+        <v>4</v>
+      </c>
+      <c r="AV238">
+        <v>3</v>
+      </c>
+      <c r="AW238">
+        <v>4</v>
+      </c>
+      <c r="AX238">
+        <v>6</v>
+      </c>
+      <c r="AY238">
+        <v>8</v>
+      </c>
+      <c r="AZ238">
+        <v>9</v>
+      </c>
+      <c r="BA238">
+        <v>5</v>
+      </c>
+      <c r="BB238">
+        <v>4</v>
+      </c>
+      <c r="BC238">
+        <v>9</v>
+      </c>
+      <c r="BD238">
+        <v>1.62</v>
+      </c>
+      <c r="BE238">
+        <v>7.7</v>
+      </c>
+      <c r="BF238">
+        <v>2.91</v>
+      </c>
+      <c r="BG238">
+        <v>1.36</v>
+      </c>
+      <c r="BH238">
+        <v>2.85</v>
+      </c>
+      <c r="BI238">
+        <v>1.64</v>
+      </c>
+      <c r="BJ238">
+        <v>2.1</v>
+      </c>
+      <c r="BK238">
+        <v>2.38</v>
+      </c>
+      <c r="BL238">
+        <v>1.7</v>
+      </c>
+      <c r="BM238">
+        <v>2.75</v>
+      </c>
+      <c r="BN238">
+        <v>1.38</v>
+      </c>
+      <c r="BO238">
+        <v>3.85</v>
+      </c>
+      <c r="BP238">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,12 @@
     <t>['58', '68']</t>
   </si>
   <si>
+    <t>['90+13']</t>
+  </si>
+  <si>
+    <t>['74', '78', '84']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1350,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP238"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2639,7 +2645,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3051,7 +3057,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3257,7 +3263,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4081,7 +4087,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4699,7 +4705,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4777,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.56</v>
@@ -4905,7 +4911,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4983,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5192,7 +5198,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5317,7 +5323,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6141,7 +6147,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6553,7 +6559,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7171,7 +7177,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7583,7 +7589,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -9231,7 +9237,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9643,7 +9649,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9724,7 +9730,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9849,7 +9855,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9927,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ42">
         <v>1.3</v>
@@ -10342,7 +10348,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR44">
         <v>1.02</v>
@@ -10545,7 +10551,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.88</v>
@@ -10879,7 +10885,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11291,7 +11297,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11497,7 +11503,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11578,7 +11584,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11909,7 +11915,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12321,7 +12327,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12939,7 +12945,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13145,7 +13151,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13557,7 +13563,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13635,7 +13641,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ60">
         <v>0.63</v>
@@ -14175,7 +14181,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14253,7 +14259,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14381,7 +14387,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15205,7 +15211,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15617,7 +15623,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15698,7 +15704,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ70">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -16235,7 +16241,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16441,7 +16447,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16853,7 +16859,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17059,7 +17065,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17140,7 +17146,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.76</v>
@@ -18501,7 +18507,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18582,7 +18588,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR84">
         <v>1.76</v>
@@ -19119,7 +19125,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19403,7 +19409,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>0.63</v>
@@ -19612,7 +19618,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19815,7 +19821,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ90">
         <v>1.67</v>
@@ -19943,7 +19949,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20227,7 +20233,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ92">
         <v>1.56</v>
@@ -20561,7 +20567,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20642,7 +20648,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.3</v>
@@ -20767,7 +20773,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21385,7 +21391,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21797,7 +21803,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21875,10 +21881,10 @@
         <v>3</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
         <v>2.14</v>
@@ -22081,7 +22087,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.7</v>
@@ -22209,7 +22215,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -23033,7 +23039,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23111,7 +23117,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ106">
         <v>1.63</v>
@@ -23651,7 +23657,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23857,7 +23863,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24063,7 +24069,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24269,7 +24275,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24475,7 +24481,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24887,7 +24893,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25711,7 +25717,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26204,7 +26210,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR121">
         <v>2.1</v>
@@ -26329,7 +26335,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26410,7 +26416,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.8</v>
@@ -27437,7 +27443,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ127">
         <v>1.67</v>
@@ -27565,7 +27571,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27643,7 +27649,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ128">
         <v>1.56</v>
@@ -28058,7 +28064,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR130">
         <v>1.23</v>
@@ -28389,7 +28395,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28673,7 +28679,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
         <v>0.88</v>
@@ -29007,7 +29013,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29213,7 +29219,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29419,7 +29425,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29625,7 +29631,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29831,7 +29837,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30037,7 +30043,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31067,7 +31073,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31148,7 +31154,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR145">
         <v>1.88</v>
@@ -31354,7 +31360,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ146">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR146">
         <v>1.91</v>
@@ -32303,7 +32309,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32715,7 +32721,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33127,7 +33133,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33333,7 +33339,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33539,7 +33545,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33951,7 +33957,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34235,7 +34241,7 @@
         <v>1.8</v>
       </c>
       <c r="AP160">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
         <v>1.5</v>
@@ -34569,7 +34575,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35059,7 +35065,7 @@
         <v>2</v>
       </c>
       <c r="AP164">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ164">
         <v>1.63</v>
@@ -35265,7 +35271,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ165">
         <v>0.75</v>
@@ -35393,7 +35399,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35599,7 +35605,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35680,7 +35686,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ167">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR167">
         <v>1.49</v>
@@ -35805,7 +35811,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36423,7 +36429,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36629,7 +36635,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37122,7 +37128,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR174">
         <v>2.02</v>
@@ -37247,7 +37253,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37453,7 +37459,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37659,7 +37665,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37740,7 +37746,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ177">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR177">
         <v>1.55</v>
@@ -38483,7 +38489,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39179,7 +39185,7 @@
         <v>0.33</v>
       </c>
       <c r="AP184">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
         <v>0.25</v>
@@ -39385,7 +39391,7 @@
         <v>0.83</v>
       </c>
       <c r="AP185">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ185">
         <v>1</v>
@@ -39513,7 +39519,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39591,10 +39597,10 @@
         <v>1.5</v>
       </c>
       <c r="AP186">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ186">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR186">
         <v>1.95</v>
@@ -39925,7 +39931,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40131,7 +40137,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40543,7 +40549,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40749,7 +40755,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40955,7 +40961,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -42191,7 +42197,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42397,7 +42403,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -43015,7 +43021,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43221,7 +43227,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43299,10 +43305,10 @@
         <v>1.21</v>
       </c>
       <c r="AP204">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ204">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43633,7 +43639,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43917,7 +43923,7 @@
         <v>1.8</v>
       </c>
       <c r="AP207">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ207">
         <v>1.56</v>
@@ -44045,7 +44051,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44251,7 +44257,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -45075,7 +45081,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45281,7 +45287,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45362,7 +45368,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ214">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -45693,7 +45699,7 @@
         <v>223</v>
       </c>
       <c r="P216" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45771,7 +45777,7 @@
         <v>1.76</v>
       </c>
       <c r="AP216">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ216">
         <v>1.74</v>
@@ -45980,7 +45986,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ217">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR217">
         <v>1.67</v>
@@ -46183,7 +46189,7 @@
         <v>1.81</v>
       </c>
       <c r="AP218">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ218">
         <v>1.76</v>
@@ -46517,7 +46523,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46598,7 +46604,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ220">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR220">
         <v>1.64</v>
@@ -46723,7 +46729,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46801,7 +46807,7 @@
         <v>1.53</v>
       </c>
       <c r="AP221">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ221">
         <v>1.5</v>
@@ -47010,7 +47016,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ222">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR222">
         <v>1.52</v>
@@ -47625,10 +47631,10 @@
         <v>1.27</v>
       </c>
       <c r="AP225">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR225">
         <v>1.45</v>
@@ -47753,7 +47759,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -48165,7 +48171,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48989,7 +48995,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49195,7 +49201,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49607,7 +49613,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -50382,6 +50388,624 @@
       </c>
       <c r="BP238">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7345140</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45438.64583333334</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
+      </c>
+      <c r="G239" t="s">
+        <v>84</v>
+      </c>
+      <c r="H239" t="s">
+        <v>70</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
+        <v>236</v>
+      </c>
+      <c r="P239" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q239">
+        <v>2.75</v>
+      </c>
+      <c r="R239">
+        <v>1.91</v>
+      </c>
+      <c r="S239">
+        <v>5</v>
+      </c>
+      <c r="T239">
+        <v>1.67</v>
+      </c>
+      <c r="U239">
+        <v>2.1</v>
+      </c>
+      <c r="V239">
+        <v>4.33</v>
+      </c>
+      <c r="W239">
+        <v>1.2</v>
+      </c>
+      <c r="X239">
+        <v>15</v>
+      </c>
+      <c r="Y239">
+        <v>1.03</v>
+      </c>
+      <c r="Z239">
+        <v>1.95</v>
+      </c>
+      <c r="AA239">
+        <v>3.2</v>
+      </c>
+      <c r="AB239">
+        <v>4.33</v>
+      </c>
+      <c r="AC239">
+        <v>1.14</v>
+      </c>
+      <c r="AD239">
+        <v>5.7</v>
+      </c>
+      <c r="AE239">
+        <v>1.65</v>
+      </c>
+      <c r="AF239">
+        <v>2.26</v>
+      </c>
+      <c r="AG239">
+        <v>2.7</v>
+      </c>
+      <c r="AH239">
+        <v>1.44</v>
+      </c>
+      <c r="AI239">
+        <v>2.25</v>
+      </c>
+      <c r="AJ239">
+        <v>1.57</v>
+      </c>
+      <c r="AK239">
+        <v>1.27</v>
+      </c>
+      <c r="AL239">
+        <v>1.39</v>
+      </c>
+      <c r="AM239">
+        <v>1.68</v>
+      </c>
+      <c r="AN239">
+        <v>1.25</v>
+      </c>
+      <c r="AO239">
+        <v>1.31</v>
+      </c>
+      <c r="AP239">
+        <v>1.35</v>
+      </c>
+      <c r="AQ239">
+        <v>1.24</v>
+      </c>
+      <c r="AR239">
+        <v>1.32</v>
+      </c>
+      <c r="AS239">
+        <v>1.51</v>
+      </c>
+      <c r="AT239">
+        <v>2.83</v>
+      </c>
+      <c r="AU239">
+        <v>4</v>
+      </c>
+      <c r="AV239">
+        <v>4</v>
+      </c>
+      <c r="AW239">
+        <v>5</v>
+      </c>
+      <c r="AX239">
+        <v>9</v>
+      </c>
+      <c r="AY239">
+        <v>9</v>
+      </c>
+      <c r="AZ239">
+        <v>13</v>
+      </c>
+      <c r="BA239">
+        <v>7</v>
+      </c>
+      <c r="BB239">
+        <v>3</v>
+      </c>
+      <c r="BC239">
+        <v>10</v>
+      </c>
+      <c r="BD239">
+        <v>1.65</v>
+      </c>
+      <c r="BE239">
+        <v>7.4</v>
+      </c>
+      <c r="BF239">
+        <v>2.86</v>
+      </c>
+      <c r="BG239">
+        <v>1.34</v>
+      </c>
+      <c r="BH239">
+        <v>2.88</v>
+      </c>
+      <c r="BI239">
+        <v>1.65</v>
+      </c>
+      <c r="BJ239">
+        <v>2.11</v>
+      </c>
+      <c r="BK239">
+        <v>2</v>
+      </c>
+      <c r="BL239">
+        <v>1.73</v>
+      </c>
+      <c r="BM239">
+        <v>2.8</v>
+      </c>
+      <c r="BN239">
+        <v>1.38</v>
+      </c>
+      <c r="BO239">
+        <v>3.9</v>
+      </c>
+      <c r="BP239">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7345138</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45438.72916666666</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+      <c r="G240" t="s">
+        <v>97</v>
+      </c>
+      <c r="H240" t="s">
+        <v>76</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
+        <v>98</v>
+      </c>
+      <c r="P240" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q240">
+        <v>3.1</v>
+      </c>
+      <c r="R240">
+        <v>1.91</v>
+      </c>
+      <c r="S240">
+        <v>4.5</v>
+      </c>
+      <c r="T240">
+        <v>1.67</v>
+      </c>
+      <c r="U240">
+        <v>2.1</v>
+      </c>
+      <c r="V240">
+        <v>4.33</v>
+      </c>
+      <c r="W240">
+        <v>1.2</v>
+      </c>
+      <c r="X240">
+        <v>15</v>
+      </c>
+      <c r="Y240">
+        <v>1.03</v>
+      </c>
+      <c r="Z240">
+        <v>2.2</v>
+      </c>
+      <c r="AA240">
+        <v>2.9</v>
+      </c>
+      <c r="AB240">
+        <v>3.8</v>
+      </c>
+      <c r="AC240">
+        <v>1.11</v>
+      </c>
+      <c r="AD240">
+        <v>5.3</v>
+      </c>
+      <c r="AE240">
+        <v>1.69</v>
+      </c>
+      <c r="AF240">
+        <v>2.18</v>
+      </c>
+      <c r="AG240">
+        <v>2.88</v>
+      </c>
+      <c r="AH240">
+        <v>1.4</v>
+      </c>
+      <c r="AI240">
+        <v>2.25</v>
+      </c>
+      <c r="AJ240">
+        <v>1.57</v>
+      </c>
+      <c r="AK240">
+        <v>1.33</v>
+      </c>
+      <c r="AL240">
+        <v>1.36</v>
+      </c>
+      <c r="AM240">
+        <v>1.58</v>
+      </c>
+      <c r="AN240">
+        <v>0.63</v>
+      </c>
+      <c r="AO240">
+        <v>0.75</v>
+      </c>
+      <c r="AP240">
+        <v>0.59</v>
+      </c>
+      <c r="AQ240">
+        <v>0.88</v>
+      </c>
+      <c r="AR240">
+        <v>1.33</v>
+      </c>
+      <c r="AS240">
+        <v>1.27</v>
+      </c>
+      <c r="AT240">
+        <v>2.6</v>
+      </c>
+      <c r="AU240">
+        <v>3</v>
+      </c>
+      <c r="AV240">
+        <v>3</v>
+      </c>
+      <c r="AW240">
+        <v>5</v>
+      </c>
+      <c r="AX240">
+        <v>8</v>
+      </c>
+      <c r="AY240">
+        <v>8</v>
+      </c>
+      <c r="AZ240">
+        <v>11</v>
+      </c>
+      <c r="BA240">
+        <v>5</v>
+      </c>
+      <c r="BB240">
+        <v>3</v>
+      </c>
+      <c r="BC240">
+        <v>8</v>
+      </c>
+      <c r="BD240">
+        <v>1.92</v>
+      </c>
+      <c r="BE240">
+        <v>6.8</v>
+      </c>
+      <c r="BF240">
+        <v>2.37</v>
+      </c>
+      <c r="BG240">
+        <v>1.45</v>
+      </c>
+      <c r="BH240">
+        <v>2.5</v>
+      </c>
+      <c r="BI240">
+        <v>1.8</v>
+      </c>
+      <c r="BJ240">
+        <v>2</v>
+      </c>
+      <c r="BK240">
+        <v>2.33</v>
+      </c>
+      <c r="BL240">
+        <v>1.52</v>
+      </c>
+      <c r="BM240">
+        <v>3.15</v>
+      </c>
+      <c r="BN240">
+        <v>1.29</v>
+      </c>
+      <c r="BO240">
+        <v>4.5</v>
+      </c>
+      <c r="BP240">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7345141</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45438.73958333334</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+      <c r="G241" t="s">
+        <v>85</v>
+      </c>
+      <c r="H241" t="s">
+        <v>77</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>3</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>3</v>
+      </c>
+      <c r="O241" t="s">
+        <v>237</v>
+      </c>
+      <c r="P241" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q241">
+        <v>2.6</v>
+      </c>
+      <c r="R241">
+        <v>2.05</v>
+      </c>
+      <c r="S241">
+        <v>5</v>
+      </c>
+      <c r="T241">
+        <v>1.53</v>
+      </c>
+      <c r="U241">
+        <v>2.38</v>
+      </c>
+      <c r="V241">
+        <v>3.75</v>
+      </c>
+      <c r="W241">
+        <v>1.25</v>
+      </c>
+      <c r="X241">
+        <v>11</v>
+      </c>
+      <c r="Y241">
+        <v>1.05</v>
+      </c>
+      <c r="Z241">
+        <v>1.9</v>
+      </c>
+      <c r="AA241">
+        <v>3.25</v>
+      </c>
+      <c r="AB241">
+        <v>4.75</v>
+      </c>
+      <c r="AC241">
+        <v>1.11</v>
+      </c>
+      <c r="AD241">
+        <v>6.75</v>
+      </c>
+      <c r="AE241">
+        <v>1.5</v>
+      </c>
+      <c r="AF241">
+        <v>2.64</v>
+      </c>
+      <c r="AG241">
+        <v>2.3</v>
+      </c>
+      <c r="AH241">
+        <v>1.6</v>
+      </c>
+      <c r="AI241">
+        <v>2.05</v>
+      </c>
+      <c r="AJ241">
+        <v>1.7</v>
+      </c>
+      <c r="AK241">
+        <v>1.25</v>
+      </c>
+      <c r="AL241">
+        <v>1.28</v>
+      </c>
+      <c r="AM241">
+        <v>1.7</v>
+      </c>
+      <c r="AN241">
+        <v>1.25</v>
+      </c>
+      <c r="AO241">
+        <v>1.13</v>
+      </c>
+      <c r="AP241">
+        <v>1.35</v>
+      </c>
+      <c r="AQ241">
+        <v>1.06</v>
+      </c>
+      <c r="AR241">
+        <v>1.85</v>
+      </c>
+      <c r="AS241">
+        <v>1.29</v>
+      </c>
+      <c r="AT241">
+        <v>3.14</v>
+      </c>
+      <c r="AU241">
+        <v>11</v>
+      </c>
+      <c r="AV241">
+        <v>5</v>
+      </c>
+      <c r="AW241">
+        <v>15</v>
+      </c>
+      <c r="AX241">
+        <v>6</v>
+      </c>
+      <c r="AY241">
+        <v>26</v>
+      </c>
+      <c r="AZ241">
+        <v>11</v>
+      </c>
+      <c r="BA241">
+        <v>3</v>
+      </c>
+      <c r="BB241">
+        <v>5</v>
+      </c>
+      <c r="BC241">
+        <v>8</v>
+      </c>
+      <c r="BD241">
+        <v>1.62</v>
+      </c>
+      <c r="BE241">
+        <v>7.7</v>
+      </c>
+      <c r="BF241">
+        <v>2.91</v>
+      </c>
+      <c r="BG241">
+        <v>1.23</v>
+      </c>
+      <c r="BH241">
+        <v>3.56</v>
+      </c>
+      <c r="BI241">
+        <v>1.45</v>
+      </c>
+      <c r="BJ241">
+        <v>2.55</v>
+      </c>
+      <c r="BK241">
+        <v>2.25</v>
+      </c>
+      <c r="BL241">
+        <v>1.73</v>
+      </c>
+      <c r="BM241">
+        <v>2.29</v>
+      </c>
+      <c r="BN241">
+        <v>1.55</v>
+      </c>
+      <c r="BO241">
+        <v>3.04</v>
+      </c>
+      <c r="BP241">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['74', '78', '84']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -959,9 +962,6 @@
   </si>
   <si>
     <t>['45+1', '62', '67']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['40', '55']</t>
@@ -1356,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2520,7 +2520,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3057,7 +3057,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3263,7 +3263,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4087,7 +4087,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4705,7 +4705,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4911,7 +4911,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5323,7 +5323,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6147,7 +6147,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6559,7 +6559,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7177,7 +7177,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7461,7 +7461,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7589,7 +7589,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8288,7 +8288,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ34">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR34">
         <v>1.54</v>
@@ -9237,7 +9237,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9649,7 +9649,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9855,7 +9855,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10885,7 +10885,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11297,7 +11297,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11503,7 +11503,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11915,7 +11915,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12327,7 +12327,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12945,7 +12945,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13151,7 +13151,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13563,7 +13563,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14053,7 +14053,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ62">
         <v>0.7</v>
@@ -14181,7 +14181,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14387,7 +14387,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15211,7 +15211,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15292,7 +15292,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ68">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15623,7 +15623,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16241,7 +16241,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16447,7 +16447,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16859,7 +16859,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17065,7 +17065,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -18507,7 +18507,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18997,7 +18997,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -19125,7 +19125,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19949,7 +19949,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20567,7 +20567,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20773,7 +20773,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21391,7 +21391,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21803,7 +21803,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22215,7 +22215,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -23039,7 +23039,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23326,7 +23326,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23529,7 +23529,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ108">
         <v>0.88</v>
@@ -23657,7 +23657,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23863,7 +23863,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24069,7 +24069,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24275,7 +24275,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24481,7 +24481,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24893,7 +24893,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25717,7 +25717,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26335,7 +26335,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27571,7 +27571,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27855,7 +27855,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -28395,7 +28395,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -29013,7 +29013,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29219,7 +29219,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29425,7 +29425,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29631,7 +29631,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29837,7 +29837,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29918,7 +29918,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ139">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR139">
         <v>1.56</v>
@@ -30043,7 +30043,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31073,7 +31073,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -32309,7 +32309,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32721,7 +32721,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33133,7 +33133,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33339,7 +33339,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33545,7 +33545,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33957,7 +33957,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34575,7 +34575,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34862,7 +34862,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ163">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR163">
         <v>2.03</v>
@@ -35399,7 +35399,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35477,7 +35477,7 @@
         <v>0.2</v>
       </c>
       <c r="AP166">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ166">
         <v>0.25</v>
@@ -35605,7 +35605,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35811,7 +35811,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36429,7 +36429,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36635,7 +36635,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37253,7 +37253,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37459,7 +37459,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37665,7 +37665,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38489,7 +38489,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39519,7 +39519,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39931,7 +39931,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40137,7 +40137,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40215,7 +40215,7 @@
         <v>1.5</v>
       </c>
       <c r="AP189">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ189">
         <v>1.56</v>
@@ -40424,7 +40424,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ190">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR190">
         <v>1.46</v>
@@ -40549,7 +40549,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40755,7 +40755,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40961,7 +40961,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -42197,7 +42197,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42278,7 +42278,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ199">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AR199">
         <v>2.01</v>
@@ -42403,7 +42403,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42690,7 +42690,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ201">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -43021,7 +43021,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -43102,7 +43102,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ203">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AR203">
         <v>2.12</v>
@@ -44051,7 +44051,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44335,7 +44335,7 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ209">
         <v>1.82</v>
@@ -45780,7 +45780,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ216">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AR216">
         <v>1.89</v>
@@ -46523,7 +46523,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -47222,7 +47222,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ223">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR223">
         <v>1.31</v>
@@ -48867,7 +48867,7 @@
         <v>1.6</v>
       </c>
       <c r="AP231">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ231">
         <v>1.59</v>
@@ -49613,7 +49613,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -50643,7 +50643,7 @@
         <v>98</v>
       </c>
       <c r="P240" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -51006,6 +51006,212 @@
       </c>
       <c r="BP241">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7345143</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45438.83333333334</v>
+      </c>
+      <c r="F242">
+        <v>3</v>
+      </c>
+      <c r="G242" t="s">
+        <v>94</v>
+      </c>
+      <c r="H242" t="s">
+        <v>88</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242" t="s">
+        <v>238</v>
+      </c>
+      <c r="P242" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q242">
+        <v>3.5</v>
+      </c>
+      <c r="R242">
+        <v>1.83</v>
+      </c>
+      <c r="S242">
+        <v>3.75</v>
+      </c>
+      <c r="T242">
+        <v>1.67</v>
+      </c>
+      <c r="U242">
+        <v>2.1</v>
+      </c>
+      <c r="V242">
+        <v>4.33</v>
+      </c>
+      <c r="W242">
+        <v>1.2</v>
+      </c>
+      <c r="X242">
+        <v>15</v>
+      </c>
+      <c r="Y242">
+        <v>1.03</v>
+      </c>
+      <c r="Z242">
+        <v>2.63</v>
+      </c>
+      <c r="AA242">
+        <v>2.9</v>
+      </c>
+      <c r="AB242">
+        <v>3</v>
+      </c>
+      <c r="AC242">
+        <v>1.12</v>
+      </c>
+      <c r="AD242">
+        <v>5.75</v>
+      </c>
+      <c r="AE242">
+        <v>1.6</v>
+      </c>
+      <c r="AF242">
+        <v>2.2</v>
+      </c>
+      <c r="AG242">
+        <v>2.88</v>
+      </c>
+      <c r="AH242">
+        <v>1.4</v>
+      </c>
+      <c r="AI242">
+        <v>2.2</v>
+      </c>
+      <c r="AJ242">
+        <v>1.62</v>
+      </c>
+      <c r="AK242">
+        <v>1.3</v>
+      </c>
+      <c r="AL242">
+        <v>1.33</v>
+      </c>
+      <c r="AM242">
+        <v>1.6</v>
+      </c>
+      <c r="AN242">
+        <v>1.5</v>
+      </c>
+      <c r="AO242">
+        <v>1.74</v>
+      </c>
+      <c r="AP242">
+        <v>1.47</v>
+      </c>
+      <c r="AQ242">
+        <v>1.7</v>
+      </c>
+      <c r="AR242">
+        <v>1.68</v>
+      </c>
+      <c r="AS242">
+        <v>1.48</v>
+      </c>
+      <c r="AT242">
+        <v>3.16</v>
+      </c>
+      <c r="AU242">
+        <v>0</v>
+      </c>
+      <c r="AV242">
+        <v>2</v>
+      </c>
+      <c r="AW242">
+        <v>2</v>
+      </c>
+      <c r="AX242">
+        <v>7</v>
+      </c>
+      <c r="AY242">
+        <v>2</v>
+      </c>
+      <c r="AZ242">
+        <v>9</v>
+      </c>
+      <c r="BA242">
+        <v>4</v>
+      </c>
+      <c r="BB242">
+        <v>3</v>
+      </c>
+      <c r="BC242">
+        <v>7</v>
+      </c>
+      <c r="BD242">
+        <v>1.62</v>
+      </c>
+      <c r="BE242">
+        <v>7.7</v>
+      </c>
+      <c r="BF242">
+        <v>2.91</v>
+      </c>
+      <c r="BG242">
+        <v>1.32</v>
+      </c>
+      <c r="BH242">
+        <v>2.98</v>
+      </c>
+      <c r="BI242">
+        <v>1.7</v>
+      </c>
+      <c r="BJ242">
+        <v>2.05</v>
+      </c>
+      <c r="BK242">
+        <v>2.06</v>
+      </c>
+      <c r="BL242">
+        <v>1.71</v>
+      </c>
+      <c r="BM242">
+        <v>2.72</v>
+      </c>
+      <c r="BN242">
+        <v>1.4</v>
+      </c>
+      <c r="BO242">
+        <v>3.74</v>
+      </c>
+      <c r="BP242">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,12 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['44', '90+4']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -977,9 +983,6 @@
   </si>
   <si>
     <t>['9', '83']</t>
-  </si>
-  <si>
-    <t>['82']</t>
   </si>
   <si>
     <t>['33']</t>
@@ -1356,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP242"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2105,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>0.7</v>
@@ -2645,7 +2648,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3057,7 +3060,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3263,7 +3266,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4087,7 +4090,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4705,7 +4708,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4911,7 +4914,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5323,7 +5326,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6147,7 +6150,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6559,7 +6562,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7049,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>1.56</v>
@@ -7177,7 +7180,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7589,7 +7592,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8082,7 +8085,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -9237,7 +9240,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9649,7 +9652,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9855,7 +9858,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10139,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>0.88</v>
@@ -10885,7 +10888,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10963,7 +10966,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
         <v>1.63</v>
@@ -11297,7 +11300,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11503,7 +11506,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11915,7 +11918,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12327,7 +12330,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12945,7 +12948,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13151,7 +13154,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13563,7 +13566,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14181,7 +14184,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14387,7 +14390,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14674,7 +14677,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -15083,7 +15086,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -15211,7 +15214,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15623,7 +15626,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16241,7 +16244,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16447,7 +16450,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16859,7 +16862,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17065,7 +17068,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -18379,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18507,7 +18510,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19125,7 +19128,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19615,7 +19618,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
         <v>1.22</v>
@@ -19824,7 +19827,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.4</v>
@@ -19949,7 +19952,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20567,7 +20570,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20773,7 +20776,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21391,7 +21394,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21803,7 +21806,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22215,7 +22218,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22296,7 +22299,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ102">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -23039,7 +23042,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23323,7 +23326,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
         <v>1.42</v>
@@ -23657,7 +23660,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23863,7 +23866,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24069,7 +24072,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24275,7 +24278,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24481,7 +24484,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24893,7 +24896,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25717,7 +25720,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26001,7 +26004,7 @@
         <v>1.25</v>
       </c>
       <c r="AP120">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -26335,7 +26338,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26413,7 +26416,7 @@
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -27446,7 +27449,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ127">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.95</v>
@@ -27571,7 +27574,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28395,7 +28398,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -29013,7 +29016,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29219,7 +29222,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29425,7 +29428,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29631,7 +29634,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29837,7 +29840,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30043,7 +30046,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31073,7 +31076,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31151,7 +31154,7 @@
         <v>0.6</v>
       </c>
       <c r="AP145">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
         <v>1.22</v>
@@ -32309,7 +32312,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32387,7 +32390,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ151">
         <v>0.5600000000000001</v>
@@ -32721,7 +32724,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33133,7 +33136,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33339,7 +33342,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33420,7 +33423,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ156">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR156">
         <v>1.28</v>
@@ -33545,7 +33548,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33957,7 +33960,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34575,7 +34578,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35399,7 +35402,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35605,7 +35608,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35811,7 +35814,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36429,7 +36432,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36635,7 +36638,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37253,7 +37256,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37331,7 +37334,7 @@
         <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37459,7 +37462,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37537,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ176">
         <v>0.88</v>
@@ -37665,7 +37668,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38489,7 +38492,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39519,7 +39522,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39931,7 +39934,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40012,7 +40015,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ188">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
         <v>1.7</v>
@@ -40137,7 +40140,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40549,7 +40552,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40755,7 +40758,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40961,7 +40964,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -42072,7 +42075,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ198">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR198">
         <v>2.23</v>
@@ -42197,7 +42200,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42403,7 +42406,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -43227,7 +43230,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43514,7 +43517,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ205">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR205">
         <v>1.67</v>
@@ -43639,7 +43642,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -44051,7 +44054,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44132,7 +44135,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ208">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR208">
         <v>1.91</v>
@@ -44257,7 +44260,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -45081,7 +45084,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45287,7 +45290,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45571,7 +45574,7 @@
         <v>1.93</v>
       </c>
       <c r="AP215">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ215">
         <v>1.83</v>
@@ -45699,7 +45702,7 @@
         <v>223</v>
       </c>
       <c r="P216" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45983,7 +45986,7 @@
         <v>1.21</v>
       </c>
       <c r="AP217">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ217">
         <v>1.06</v>
@@ -46523,7 +46526,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46729,7 +46732,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46810,7 +46813,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ221">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR221">
         <v>1.45</v>
@@ -47013,7 +47016,7 @@
         <v>0.6</v>
       </c>
       <c r="AP222">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ222">
         <v>0.59</v>
@@ -47219,7 +47222,7 @@
         <v>1.53</v>
       </c>
       <c r="AP223">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ223">
         <v>1.47</v>
@@ -47428,7 +47431,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ224">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR224">
         <v>2</v>
@@ -47759,7 +47762,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -48171,7 +48174,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48995,7 +48998,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49201,7 +49204,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49613,7 +49616,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -50643,7 +50646,7 @@
         <v>98</v>
       </c>
       <c r="P240" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -51211,6 +51214,418 @@
         <v>3.74</v>
       </c>
       <c r="BP242">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7345139</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45439.79166666666</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+      <c r="G243" t="s">
+        <v>93</v>
+      </c>
+      <c r="H243" t="s">
+        <v>74</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>239</v>
+      </c>
+      <c r="P243" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q243">
+        <v>2.6</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>5</v>
+      </c>
+      <c r="T243">
+        <v>1.53</v>
+      </c>
+      <c r="U243">
+        <v>2.38</v>
+      </c>
+      <c r="V243">
+        <v>3.75</v>
+      </c>
+      <c r="W243">
+        <v>1.25</v>
+      </c>
+      <c r="X243">
+        <v>11</v>
+      </c>
+      <c r="Y243">
+        <v>1.05</v>
+      </c>
+      <c r="Z243">
+        <v>1.85</v>
+      </c>
+      <c r="AA243">
+        <v>3.3</v>
+      </c>
+      <c r="AB243">
+        <v>4.75</v>
+      </c>
+      <c r="AC243">
+        <v>1.07</v>
+      </c>
+      <c r="AD243">
+        <v>6.35</v>
+      </c>
+      <c r="AE243">
+        <v>1.56</v>
+      </c>
+      <c r="AF243">
+        <v>2.43</v>
+      </c>
+      <c r="AG243">
+        <v>2.35</v>
+      </c>
+      <c r="AH243">
+        <v>1.57</v>
+      </c>
+      <c r="AI243">
+        <v>2.1</v>
+      </c>
+      <c r="AJ243">
+        <v>1.67</v>
+      </c>
+      <c r="AK243">
+        <v>1.24</v>
+      </c>
+      <c r="AL243">
+        <v>1.3</v>
+      </c>
+      <c r="AM243">
+        <v>1.83</v>
+      </c>
+      <c r="AN243">
+        <v>1.5</v>
+      </c>
+      <c r="AO243">
+        <v>1.76</v>
+      </c>
+      <c r="AP243">
+        <v>1.59</v>
+      </c>
+      <c r="AQ243">
+        <v>1.67</v>
+      </c>
+      <c r="AR243">
+        <v>1.69</v>
+      </c>
+      <c r="AS243">
+        <v>1.14</v>
+      </c>
+      <c r="AT243">
+        <v>2.83</v>
+      </c>
+      <c r="AU243">
+        <v>8</v>
+      </c>
+      <c r="AV243">
+        <v>3</v>
+      </c>
+      <c r="AW243">
+        <v>20</v>
+      </c>
+      <c r="AX243">
+        <v>12</v>
+      </c>
+      <c r="AY243">
+        <v>28</v>
+      </c>
+      <c r="AZ243">
+        <v>15</v>
+      </c>
+      <c r="BA243">
+        <v>5</v>
+      </c>
+      <c r="BB243">
+        <v>3</v>
+      </c>
+      <c r="BC243">
+        <v>8</v>
+      </c>
+      <c r="BD243">
+        <v>1.46</v>
+      </c>
+      <c r="BE243">
+        <v>8.1</v>
+      </c>
+      <c r="BF243">
+        <v>3.55</v>
+      </c>
+      <c r="BG243">
+        <v>1.29</v>
+      </c>
+      <c r="BH243">
+        <v>3.14</v>
+      </c>
+      <c r="BI243">
+        <v>1.56</v>
+      </c>
+      <c r="BJ243">
+        <v>2.27</v>
+      </c>
+      <c r="BK243">
+        <v>1.96</v>
+      </c>
+      <c r="BL243">
+        <v>1.79</v>
+      </c>
+      <c r="BM243">
+        <v>2.52</v>
+      </c>
+      <c r="BN243">
+        <v>1.46</v>
+      </c>
+      <c r="BO243">
+        <v>3.42</v>
+      </c>
+      <c r="BP243">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7345144</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45439.875</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+      <c r="G244" t="s">
+        <v>72</v>
+      </c>
+      <c r="H244" t="s">
+        <v>79</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>240</v>
+      </c>
+      <c r="P244" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q244">
+        <v>2.88</v>
+      </c>
+      <c r="R244">
+        <v>1.91</v>
+      </c>
+      <c r="S244">
+        <v>5</v>
+      </c>
+      <c r="T244">
+        <v>1.62</v>
+      </c>
+      <c r="U244">
+        <v>2.2</v>
+      </c>
+      <c r="V244">
+        <v>4</v>
+      </c>
+      <c r="W244">
+        <v>1.22</v>
+      </c>
+      <c r="X244">
+        <v>13</v>
+      </c>
+      <c r="Y244">
+        <v>1.04</v>
+      </c>
+      <c r="Z244">
+        <v>2.05</v>
+      </c>
+      <c r="AA244">
+        <v>3</v>
+      </c>
+      <c r="AB244">
+        <v>4.33</v>
+      </c>
+      <c r="AC244">
+        <v>1.11</v>
+      </c>
+      <c r="AD244">
+        <v>6.18</v>
+      </c>
+      <c r="AE244">
+        <v>1.52</v>
+      </c>
+      <c r="AF244">
+        <v>2.35</v>
+      </c>
+      <c r="AG244">
+        <v>2.88</v>
+      </c>
+      <c r="AH244">
+        <v>1.4</v>
+      </c>
+      <c r="AI244">
+        <v>2.38</v>
+      </c>
+      <c r="AJ244">
+        <v>1.53</v>
+      </c>
+      <c r="AK244">
+        <v>1.24</v>
+      </c>
+      <c r="AL244">
+        <v>1.36</v>
+      </c>
+      <c r="AM244">
+        <v>1.78</v>
+      </c>
+      <c r="AN244">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO244">
+        <v>1.19</v>
+      </c>
+      <c r="AP244">
+        <v>0.82</v>
+      </c>
+      <c r="AQ244">
+        <v>1.18</v>
+      </c>
+      <c r="AR244">
+        <v>1.83</v>
+      </c>
+      <c r="AS244">
+        <v>1.41</v>
+      </c>
+      <c r="AT244">
+        <v>3.24</v>
+      </c>
+      <c r="AU244">
+        <v>6</v>
+      </c>
+      <c r="AV244">
+        <v>3</v>
+      </c>
+      <c r="AW244">
+        <v>16</v>
+      </c>
+      <c r="AX244">
+        <v>4</v>
+      </c>
+      <c r="AY244">
+        <v>22</v>
+      </c>
+      <c r="AZ244">
+        <v>7</v>
+      </c>
+      <c r="BA244">
+        <v>6</v>
+      </c>
+      <c r="BB244">
+        <v>0</v>
+      </c>
+      <c r="BC244">
+        <v>6</v>
+      </c>
+      <c r="BD244">
+        <v>1.72</v>
+      </c>
+      <c r="BE244">
+        <v>7.1</v>
+      </c>
+      <c r="BF244">
+        <v>2.72</v>
+      </c>
+      <c r="BG244">
+        <v>1.36</v>
+      </c>
+      <c r="BH244">
+        <v>2.8</v>
+      </c>
+      <c r="BI244">
+        <v>1.65</v>
+      </c>
+      <c r="BJ244">
+        <v>2.08</v>
+      </c>
+      <c r="BK244">
+        <v>2.05</v>
+      </c>
+      <c r="BL244">
+        <v>1.7</v>
+      </c>
+      <c r="BM244">
+        <v>2.8</v>
+      </c>
+      <c r="BN244">
+        <v>1.37</v>
+      </c>
+      <c r="BO244">
+        <v>3.85</v>
+      </c>
+      <c r="BP244">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,9 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -833,9 +836,6 @@
   </si>
   <si>
     <t>['70']</t>
-  </si>
-  <si>
-    <t>['90+6']</t>
   </si>
   <si>
     <t>['37', '60']</t>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t>['7', '45+2', '50', '77']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2648,7 +2651,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3060,7 +3063,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3266,7 +3269,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3756,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -4090,7 +4093,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4171,7 +4174,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4583,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>1.36</v>
@@ -4708,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4914,7 +4917,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5326,7 +5329,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5610,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.88</v>
@@ -5819,7 +5822,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6150,7 +6153,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6228,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ24">
         <v>0.63</v>
@@ -6434,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ25">
         <v>0.25</v>
@@ -6562,7 +6565,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7180,7 +7183,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7592,7 +7595,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -9240,7 +9243,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9652,7 +9655,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9858,7 +9861,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10145,7 +10148,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR43">
         <v>1.78</v>
@@ -10888,7 +10891,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11172,7 +11175,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -11300,7 +11303,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11378,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49">
         <v>0.63</v>
@@ -11506,7 +11509,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11918,7 +11921,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11996,7 +11999,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -12330,7 +12333,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12823,7 +12826,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR56">
         <v>1.77</v>
@@ -12948,7 +12951,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13154,7 +13157,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13566,7 +13569,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14184,7 +14187,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14390,7 +14393,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15214,7 +15217,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15626,7 +15629,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15913,7 +15916,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ71">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR71">
         <v>2.17</v>
@@ -16244,7 +16247,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16322,7 +16325,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ73">
         <v>2</v>
@@ -16450,7 +16453,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16734,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.63</v>
@@ -16862,7 +16865,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17068,7 +17071,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17561,7 +17564,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ79">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR79">
         <v>1.31</v>
@@ -18176,7 +18179,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82">
         <v>0.75</v>
@@ -18510,7 +18513,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19128,7 +19131,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19206,7 +19209,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ87">
         <v>1.56</v>
@@ -19952,7 +19955,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20570,7 +20573,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21063,7 +21066,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ96">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR96">
         <v>1.56</v>
@@ -21472,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>0.25</v>
@@ -21681,7 +21684,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR99">
         <v>1.22</v>
@@ -22917,7 +22920,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ105">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -23535,7 +23538,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ108">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR108">
         <v>1.65</v>
@@ -25180,7 +25183,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25386,7 +25389,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>0.7</v>
@@ -27240,7 +27243,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ126">
         <v>1.3</v>
@@ -28685,7 +28688,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR133">
         <v>1.06</v>
@@ -28891,7 +28894,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ134">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR134">
         <v>2.05</v>
@@ -29715,7 +29718,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ138">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR138">
         <v>1.38</v>
@@ -30948,7 +30951,7 @@
         <v>1.6</v>
       </c>
       <c r="AP144">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ144">
         <v>1.3</v>
@@ -31360,7 +31363,7 @@
         <v>2.25</v>
       </c>
       <c r="AP146">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -32724,7 +32727,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32802,7 +32805,7 @@
         <v>2.4</v>
       </c>
       <c r="AP153">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ153">
         <v>2</v>
@@ -33629,7 +33632,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR157">
         <v>1.55</v>
@@ -35277,7 +35280,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ165">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR165">
         <v>1.98</v>
@@ -35402,7 +35405,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35483,7 +35486,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ166">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR166">
         <v>1.61</v>
@@ -36098,10 +36101,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR169">
         <v>1.83</v>
@@ -37952,7 +37955,7 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ178">
         <v>2</v>
@@ -39191,7 +39194,7 @@
         <v>2</v>
       </c>
       <c r="AQ184">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR184">
         <v>1.21</v>
@@ -40836,7 +40839,7 @@
         <v>1.83</v>
       </c>
       <c r="AP192">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ192">
         <v>2</v>
@@ -41663,7 +41666,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ196">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR196">
         <v>1.38</v>
@@ -41866,7 +41869,7 @@
         <v>1.86</v>
       </c>
       <c r="AP197">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ197">
         <v>1.56</v>
@@ -42281,7 +42284,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ199">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR199">
         <v>2.01</v>
@@ -42690,10 +42693,10 @@
         <v>1.87</v>
       </c>
       <c r="AP201">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ201">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -43105,7 +43108,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ203">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR203">
         <v>2.12</v>
@@ -43720,7 +43723,7 @@
         <v>1.07</v>
       </c>
       <c r="AP206">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ206">
         <v>1.12</v>
@@ -44054,7 +44057,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44956,7 +44959,7 @@
         <v>1.14</v>
       </c>
       <c r="AP212">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ212">
         <v>1.06</v>
@@ -45162,10 +45165,10 @@
         <v>1.71</v>
       </c>
       <c r="AP213">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ213">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR213">
         <v>1.51</v>
@@ -45574,7 +45577,7 @@
         <v>1.93</v>
       </c>
       <c r="AP215">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ215">
         <v>1.83</v>
@@ -45783,7 +45786,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ216">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR216">
         <v>1.89</v>
@@ -46401,7 +46404,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ219">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR219">
         <v>2.31</v>
@@ -47431,7 +47434,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ224">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR224">
         <v>2</v>
@@ -48049,7 +48052,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ227">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR227">
         <v>2.09</v>
@@ -48458,10 +48461,10 @@
         <v>1.82</v>
       </c>
       <c r="AP229">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ229">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AR229">
         <v>1.85</v>
@@ -48870,7 +48873,7 @@
         <v>1.6</v>
       </c>
       <c r="AP231">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AQ231">
         <v>1.59</v>
@@ -49076,7 +49079,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ232">
         <v>1.12</v>
@@ -49285,7 +49288,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ233">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR233">
         <v>1.47</v>
@@ -49694,7 +49697,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP235">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ235">
         <v>0.65</v>
@@ -49900,7 +49903,7 @@
         <v>1.94</v>
       </c>
       <c r="AP236">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ236">
         <v>1.83</v>
@@ -50646,7 +50649,7 @@
         <v>98</v>
       </c>
       <c r="P240" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -51139,7 +51142,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ242">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR242">
         <v>1.68</v>
@@ -51548,7 +51551,7 @@
         <v>1.19</v>
       </c>
       <c r="AP244">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ244">
         <v>1.18</v>
@@ -51627,6 +51630,624 @@
       </c>
       <c r="BP244">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7345157</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45444.75</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="G245" t="s">
+        <v>80</v>
+      </c>
+      <c r="H245" t="s">
+        <v>95</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>241</v>
+      </c>
+      <c r="P245" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q245">
+        <v>1.95</v>
+      </c>
+      <c r="R245">
+        <v>2.3</v>
+      </c>
+      <c r="S245">
+        <v>7.5</v>
+      </c>
+      <c r="T245">
+        <v>1.33</v>
+      </c>
+      <c r="U245">
+        <v>3.25</v>
+      </c>
+      <c r="V245">
+        <v>2.63</v>
+      </c>
+      <c r="W245">
+        <v>1.44</v>
+      </c>
+      <c r="X245">
+        <v>6.5</v>
+      </c>
+      <c r="Y245">
+        <v>1.11</v>
+      </c>
+      <c r="Z245">
+        <v>1.4</v>
+      </c>
+      <c r="AA245">
+        <v>4.33</v>
+      </c>
+      <c r="AB245">
+        <v>9.5</v>
+      </c>
+      <c r="AC245">
+        <v>1.04</v>
+      </c>
+      <c r="AD245">
+        <v>10</v>
+      </c>
+      <c r="AE245">
+        <v>1.25</v>
+      </c>
+      <c r="AF245">
+        <v>3.85</v>
+      </c>
+      <c r="AG245">
+        <v>1.95</v>
+      </c>
+      <c r="AH245">
+        <v>1.85</v>
+      </c>
+      <c r="AI245">
+        <v>2.2</v>
+      </c>
+      <c r="AJ245">
+        <v>1.62</v>
+      </c>
+      <c r="AK245">
+        <v>1.05</v>
+      </c>
+      <c r="AL245">
+        <v>1.15</v>
+      </c>
+      <c r="AM245">
+        <v>3.25</v>
+      </c>
+      <c r="AN245">
+        <v>1.82</v>
+      </c>
+      <c r="AO245">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP245">
+        <v>1.89</v>
+      </c>
+      <c r="AQ245">
+        <v>0.89</v>
+      </c>
+      <c r="AR245">
+        <v>1.91</v>
+      </c>
+      <c r="AS245">
+        <v>0.99</v>
+      </c>
+      <c r="AT245">
+        <v>2.9</v>
+      </c>
+      <c r="AU245">
+        <v>4</v>
+      </c>
+      <c r="AV245">
+        <v>3</v>
+      </c>
+      <c r="AW245">
+        <v>9</v>
+      </c>
+      <c r="AX245">
+        <v>2</v>
+      </c>
+      <c r="AY245">
+        <v>13</v>
+      </c>
+      <c r="AZ245">
+        <v>5</v>
+      </c>
+      <c r="BA245">
+        <v>12</v>
+      </c>
+      <c r="BB245">
+        <v>6</v>
+      </c>
+      <c r="BC245">
+        <v>18</v>
+      </c>
+      <c r="BD245">
+        <v>1.25</v>
+      </c>
+      <c r="BE245">
+        <v>10.5</v>
+      </c>
+      <c r="BF245">
+        <v>5.15</v>
+      </c>
+      <c r="BG245">
+        <v>1.36</v>
+      </c>
+      <c r="BH245">
+        <v>2.8</v>
+      </c>
+      <c r="BI245">
+        <v>1.65</v>
+      </c>
+      <c r="BJ245">
+        <v>2.08</v>
+      </c>
+      <c r="BK245">
+        <v>2.05</v>
+      </c>
+      <c r="BL245">
+        <v>1.7</v>
+      </c>
+      <c r="BM245">
+        <v>2.8</v>
+      </c>
+      <c r="BN245">
+        <v>1.37</v>
+      </c>
+      <c r="BO245">
+        <v>3.85</v>
+      </c>
+      <c r="BP245">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7345148</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45444.84375</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+      <c r="G246" t="s">
+        <v>88</v>
+      </c>
+      <c r="H246" t="s">
+        <v>72</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>115</v>
+      </c>
+      <c r="P246" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q246">
+        <v>2.75</v>
+      </c>
+      <c r="R246">
+        <v>1.95</v>
+      </c>
+      <c r="S246">
+        <v>5</v>
+      </c>
+      <c r="T246">
+        <v>1.55</v>
+      </c>
+      <c r="U246">
+        <v>2.35</v>
+      </c>
+      <c r="V246">
+        <v>3.4</v>
+      </c>
+      <c r="W246">
+        <v>1.27</v>
+      </c>
+      <c r="X246">
+        <v>11.5</v>
+      </c>
+      <c r="Y246">
+        <v>1.04</v>
+      </c>
+      <c r="Z246">
+        <v>1.95</v>
+      </c>
+      <c r="AA246">
+        <v>3.4</v>
+      </c>
+      <c r="AB246">
+        <v>4.1</v>
+      </c>
+      <c r="AC246">
+        <v>1.08</v>
+      </c>
+      <c r="AD246">
+        <v>8</v>
+      </c>
+      <c r="AE246">
+        <v>1.45</v>
+      </c>
+      <c r="AF246">
+        <v>2.55</v>
+      </c>
+      <c r="AG246">
+        <v>2.5</v>
+      </c>
+      <c r="AH246">
+        <v>1.5</v>
+      </c>
+      <c r="AI246">
+        <v>2.2</v>
+      </c>
+      <c r="AJ246">
+        <v>1.62</v>
+      </c>
+      <c r="AK246">
+        <v>1.19</v>
+      </c>
+      <c r="AL246">
+        <v>1.25</v>
+      </c>
+      <c r="AM246">
+        <v>1.95</v>
+      </c>
+      <c r="AN246">
+        <v>1.7</v>
+      </c>
+      <c r="AO246">
+        <v>0.82</v>
+      </c>
+      <c r="AP246">
+        <v>1.67</v>
+      </c>
+      <c r="AQ246">
+        <v>0.83</v>
+      </c>
+      <c r="AR246">
+        <v>1.69</v>
+      </c>
+      <c r="AS246">
+        <v>1.49</v>
+      </c>
+      <c r="AT246">
+        <v>3.18</v>
+      </c>
+      <c r="AU246">
+        <v>8</v>
+      </c>
+      <c r="AV246">
+        <v>5</v>
+      </c>
+      <c r="AW246">
+        <v>3</v>
+      </c>
+      <c r="AX246">
+        <v>6</v>
+      </c>
+      <c r="AY246">
+        <v>11</v>
+      </c>
+      <c r="AZ246">
+        <v>11</v>
+      </c>
+      <c r="BA246">
+        <v>9</v>
+      </c>
+      <c r="BB246">
+        <v>4</v>
+      </c>
+      <c r="BC246">
+        <v>13</v>
+      </c>
+      <c r="BD246">
+        <v>1.62</v>
+      </c>
+      <c r="BE246">
+        <v>7.7</v>
+      </c>
+      <c r="BF246">
+        <v>2.91</v>
+      </c>
+      <c r="BG246">
+        <v>1.28</v>
+      </c>
+      <c r="BH246">
+        <v>3.18</v>
+      </c>
+      <c r="BI246">
+        <v>1.52</v>
+      </c>
+      <c r="BJ246">
+        <v>2.33</v>
+      </c>
+      <c r="BK246">
+        <v>2</v>
+      </c>
+      <c r="BL246">
+        <v>1.8</v>
+      </c>
+      <c r="BM246">
+        <v>2.45</v>
+      </c>
+      <c r="BN246">
+        <v>1.47</v>
+      </c>
+      <c r="BO246">
+        <v>3.3</v>
+      </c>
+      <c r="BP246">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7345159</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45444.84375</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+      <c r="G247" t="s">
+        <v>91</v>
+      </c>
+      <c r="H247" t="s">
+        <v>89</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247" t="s">
+        <v>185</v>
+      </c>
+      <c r="P247" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q247">
+        <v>3.6</v>
+      </c>
+      <c r="R247">
+        <v>1.91</v>
+      </c>
+      <c r="S247">
+        <v>3.5</v>
+      </c>
+      <c r="T247">
+        <v>1.52</v>
+      </c>
+      <c r="U247">
+        <v>2.54</v>
+      </c>
+      <c r="V247">
+        <v>3.4</v>
+      </c>
+      <c r="W247">
+        <v>1.28</v>
+      </c>
+      <c r="X247">
+        <v>8</v>
+      </c>
+      <c r="Y247">
+        <v>1.05</v>
+      </c>
+      <c r="Z247">
+        <v>2.8</v>
+      </c>
+      <c r="AA247">
+        <v>3</v>
+      </c>
+      <c r="AB247">
+        <v>2.7</v>
+      </c>
+      <c r="AC247">
+        <v>1.1</v>
+      </c>
+      <c r="AD247">
+        <v>6.5</v>
+      </c>
+      <c r="AE247">
+        <v>1.48</v>
+      </c>
+      <c r="AF247">
+        <v>2.6</v>
+      </c>
+      <c r="AG247">
+        <v>2.6</v>
+      </c>
+      <c r="AH247">
+        <v>1.48</v>
+      </c>
+      <c r="AI247">
+        <v>2.05</v>
+      </c>
+      <c r="AJ247">
+        <v>1.7</v>
+      </c>
+      <c r="AK247">
+        <v>1.48</v>
+      </c>
+      <c r="AL247">
+        <v>1.33</v>
+      </c>
+      <c r="AM247">
+        <v>1.4</v>
+      </c>
+      <c r="AN247">
+        <v>1.06</v>
+      </c>
+      <c r="AO247">
+        <v>1.79</v>
+      </c>
+      <c r="AP247">
+        <v>1.17</v>
+      </c>
+      <c r="AQ247">
+        <v>1.7</v>
+      </c>
+      <c r="AR247">
+        <v>1.49</v>
+      </c>
+      <c r="AS247">
+        <v>1.24</v>
+      </c>
+      <c r="AT247">
+        <v>2.73</v>
+      </c>
+      <c r="AU247">
+        <v>4</v>
+      </c>
+      <c r="AV247">
+        <v>3</v>
+      </c>
+      <c r="AW247">
+        <v>4</v>
+      </c>
+      <c r="AX247">
+        <v>11</v>
+      </c>
+      <c r="AY247">
+        <v>8</v>
+      </c>
+      <c r="AZ247">
+        <v>14</v>
+      </c>
+      <c r="BA247">
+        <v>1</v>
+      </c>
+      <c r="BB247">
+        <v>9</v>
+      </c>
+      <c r="BC247">
+        <v>10</v>
+      </c>
+      <c r="BD247">
+        <v>2.3</v>
+      </c>
+      <c r="BE247">
+        <v>7</v>
+      </c>
+      <c r="BF247">
+        <v>1.92</v>
+      </c>
+      <c r="BG247">
+        <v>1.33</v>
+      </c>
+      <c r="BH247">
+        <v>2.93</v>
+      </c>
+      <c r="BI247">
+        <v>1.8</v>
+      </c>
+      <c r="BJ247">
+        <v>2</v>
+      </c>
+      <c r="BK247">
+        <v>2.33</v>
+      </c>
+      <c r="BL247">
+        <v>1.52</v>
+      </c>
+      <c r="BM247">
+        <v>3.15</v>
+      </c>
+      <c r="BN247">
+        <v>1.29</v>
+      </c>
+      <c r="BO247">
+        <v>4.5</v>
+      </c>
+      <c r="BP247">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,15 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['45+3', '74']</t>
+  </si>
+  <si>
+    <t>['13', '53', '57']</t>
+  </si>
+  <si>
+    <t>['29', '81']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1001,6 +1010,9 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['9', '48', '70', '78']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1908,7 +1920,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2317,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1.63</v>
@@ -2651,7 +2663,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2732,7 +2744,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3063,7 +3075,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3269,7 +3281,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3347,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3553,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4093,7 +4105,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4171,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ14">
         <v>0.78</v>
@@ -4583,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -4711,7 +4723,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4792,7 +4804,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4917,7 +4929,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5201,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5329,7 +5341,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6153,7 +6165,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6440,7 +6452,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6565,7 +6577,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6852,7 +6864,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7183,7 +7195,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7261,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7470,7 +7482,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7595,7 +7607,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8291,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ34">
         <v>1.42</v>
@@ -8497,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35">
         <v>0.5600000000000001</v>
@@ -8912,7 +8924,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR37">
         <v>1.86</v>
@@ -9115,7 +9127,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>1.63</v>
@@ -9243,7 +9255,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9324,7 +9336,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9655,7 +9667,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9861,7 +9873,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10351,7 +10363,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ44">
         <v>1.22</v>
@@ -10766,7 +10778,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ46">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10891,7 +10903,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11178,7 +11190,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR48">
         <v>1.98</v>
@@ -11303,7 +11315,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11509,7 +11521,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11921,7 +11933,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12205,10 +12217,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.01</v>
@@ -12333,7 +12345,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12951,7 +12963,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13029,10 +13041,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13157,7 +13169,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13441,7 +13453,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1.56</v>
@@ -13569,7 +13581,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14187,7 +14199,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14268,7 +14280,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR63">
         <v>1.54</v>
@@ -14393,7 +14405,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15217,7 +15229,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15501,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15629,7 +15641,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16119,10 +16131,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR72">
         <v>1.56</v>
@@ -16247,7 +16259,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16453,7 +16465,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16531,10 +16543,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR74">
         <v>1.14</v>
@@ -16865,7 +16877,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16943,7 +16955,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ76">
         <v>1.88</v>
@@ -17071,7 +17083,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17149,7 +17161,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17358,7 +17370,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17976,7 +17988,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -18182,7 +18194,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.36</v>
@@ -18513,7 +18525,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19131,7 +19143,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19212,7 +19224,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ87">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -19955,7 +19967,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20033,10 +20045,10 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR91">
         <v>2.12</v>
@@ -20779,7 +20791,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20857,7 +20869,7 @@
         <v>3</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
         <v>2</v>
@@ -21397,7 +21409,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21478,7 +21490,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR98">
         <v>1.94</v>
@@ -21681,7 +21693,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ99">
         <v>0.33</v>
@@ -21809,7 +21821,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22221,7 +22233,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22711,7 +22723,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -23045,7 +23057,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23663,7 +23675,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23869,7 +23881,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24075,7 +24087,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24156,7 +24168,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR111">
         <v>1.76</v>
@@ -24281,7 +24293,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24487,7 +24499,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24771,7 +24783,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ114">
         <v>0.63</v>
@@ -24899,7 +24911,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25186,7 +25198,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.72</v>
@@ -25598,7 +25610,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR118">
         <v>1.8</v>
@@ -25723,7 +25735,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26010,7 +26022,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26213,7 +26225,7 @@
         <v>0.75</v>
       </c>
       <c r="AP121">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ121">
         <v>1.22</v>
@@ -26341,7 +26353,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26628,7 +26640,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ123">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR123">
         <v>1.2</v>
@@ -27040,7 +27052,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR125">
         <v>1.65</v>
@@ -27577,7 +27589,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28067,7 +28079,7 @@
         <v>3</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ130">
         <v>1.5</v>
@@ -28273,7 +28285,7 @@
         <v>0.75</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
         <v>0.63</v>
@@ -28401,7 +28413,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -29019,7 +29031,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29225,7 +29237,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29431,7 +29443,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29512,7 +29524,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ137">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29637,7 +29649,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29843,7 +29855,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30049,7 +30061,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30127,7 +30139,7 @@
         <v>0.25</v>
       </c>
       <c r="AP140">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30745,10 +30757,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.63</v>
@@ -31079,7 +31091,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31572,7 +31584,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ147">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR147">
         <v>2.04</v>
@@ -31981,10 +31993,10 @@
         <v>1.2</v>
       </c>
       <c r="AP149">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ149">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR149">
         <v>2.23</v>
@@ -32190,7 +32202,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ150">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR150">
         <v>1.58</v>
@@ -32315,7 +32327,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32727,7 +32739,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32808,7 +32820,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR153">
         <v>1.5</v>
@@ -33011,7 +33023,7 @@
         <v>3</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
         <v>2</v>
@@ -33139,7 +33151,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33345,7 +33357,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33423,7 +33435,7 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ156">
         <v>1.5</v>
@@ -33551,7 +33563,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33629,7 +33641,7 @@
         <v>0.6</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ157">
         <v>0.78</v>
@@ -33963,7 +33975,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34581,7 +34593,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34659,7 +34671,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ162">
         <v>2</v>
@@ -35405,7 +35417,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35611,7 +35623,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35817,7 +35829,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35895,7 +35907,7 @@
         <v>2.4</v>
       </c>
       <c r="AP168">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ168">
         <v>2</v>
@@ -36435,7 +36447,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36516,7 +36528,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ171">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR171">
         <v>1.66</v>
@@ -36641,7 +36653,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36719,7 +36731,7 @@
         <v>1.5</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ172">
         <v>1.3</v>
@@ -37259,7 +37271,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37465,7 +37477,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37546,7 +37558,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ176">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37671,7 +37683,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37958,7 +37970,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ178">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR178">
         <v>1.89</v>
@@ -38161,7 +38173,7 @@
         <v>0.57</v>
       </c>
       <c r="AP179">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ179">
         <v>0.7</v>
@@ -38495,7 +38507,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38573,10 +38585,10 @@
         <v>0.17</v>
       </c>
       <c r="AP181">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ181">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR181">
         <v>1.28</v>
@@ -38782,7 +38794,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ182">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR182">
         <v>2.05</v>
@@ -39525,7 +39537,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39809,7 +39821,7 @@
         <v>0.67</v>
       </c>
       <c r="AP187">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ187">
         <v>0.63</v>
@@ -39937,7 +39949,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40143,7 +40155,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40224,7 +40236,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ189">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR189">
         <v>1.64</v>
@@ -40555,7 +40567,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40633,7 +40645,7 @@
         <v>1.5</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ191">
         <v>1.5</v>
@@ -40761,7 +40773,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40967,7 +40979,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41663,7 +41675,7 @@
         <v>0.83</v>
       </c>
       <c r="AP196">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ196">
         <v>0.67</v>
@@ -42203,7 +42215,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42409,7 +42421,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42487,10 +42499,10 @@
         <v>1.92</v>
       </c>
       <c r="AP200">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ200">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42902,7 +42914,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ202">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR202">
         <v>2.2</v>
@@ -43233,7 +43245,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43311,10 +43323,10 @@
         <v>1.21</v>
       </c>
       <c r="AP204">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ204">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43520,7 +43532,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ205">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR205">
         <v>1.67</v>
@@ -43645,7 +43657,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43726,7 +43738,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ206">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR206">
         <v>1.76</v>
@@ -44057,7 +44069,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44263,7 +44275,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44344,7 +44356,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ209">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR209">
         <v>1.74</v>
@@ -44547,10 +44559,10 @@
         <v>0.79</v>
       </c>
       <c r="AP210">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ210">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR210">
         <v>2.26</v>
@@ -44753,7 +44765,7 @@
         <v>1.81</v>
       </c>
       <c r="AP211">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AQ211">
         <v>1.84</v>
@@ -44962,7 +44974,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ212">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR212">
         <v>1.26</v>
@@ -45087,7 +45099,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45293,7 +45305,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45371,7 +45383,7 @@
         <v>0.57</v>
       </c>
       <c r="AP214">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ214">
         <v>0.88</v>
@@ -45580,7 +45592,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ215">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -45783,7 +45795,7 @@
         <v>1.76</v>
       </c>
       <c r="AP216">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ216">
         <v>1.67</v>
@@ -46401,7 +46413,7 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ219">
         <v>1.17</v>
@@ -46529,7 +46541,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46610,7 +46622,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ220">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR220">
         <v>1.64</v>
@@ -46735,7 +46747,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46813,7 +46825,7 @@
         <v>1.53</v>
       </c>
       <c r="AP221">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ221">
         <v>1.59</v>
@@ -47022,7 +47034,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ222">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR222">
         <v>1.52</v>
@@ -47225,7 +47237,7 @@
         <v>1.53</v>
       </c>
       <c r="AP223">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ223">
         <v>1.47</v>
@@ -47431,7 +47443,7 @@
         <v>0.87</v>
       </c>
       <c r="AP224">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ224">
         <v>0.83</v>
@@ -47765,7 +47777,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -47843,10 +47855,10 @@
         <v>1.81</v>
       </c>
       <c r="AP226">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ226">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR226">
         <v>1.22</v>
@@ -48177,7 +48189,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48255,10 +48267,10 @@
         <v>1.53</v>
       </c>
       <c r="AP228">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ228">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -48667,10 +48679,10 @@
         <v>0.33</v>
       </c>
       <c r="AP230">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ230">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR230">
         <v>1.56</v>
@@ -49001,7 +49013,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49082,7 +49094,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ232">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR232">
         <v>1.23</v>
@@ -49207,7 +49219,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49285,7 +49297,7 @@
         <v>1.75</v>
       </c>
       <c r="AP233">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AQ233">
         <v>1.89</v>
@@ -49491,7 +49503,7 @@
         <v>1.94</v>
       </c>
       <c r="AP234">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ234">
         <v>1.84</v>
@@ -49619,7 +49631,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -49700,7 +49712,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ235">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR235">
         <v>1.47</v>
@@ -49906,7 +49918,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ236">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR236">
         <v>1.82</v>
@@ -50315,10 +50327,10 @@
         <v>1.88</v>
       </c>
       <c r="AP238">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ238">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR238">
         <v>1.73</v>
@@ -50524,7 +50536,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ239">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR239">
         <v>1.32</v>
@@ -50649,7 +50661,7 @@
         <v>98</v>
       </c>
       <c r="P240" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50727,7 +50739,7 @@
         <v>0.75</v>
       </c>
       <c r="AP240">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AQ240">
         <v>0.88</v>
@@ -50933,7 +50945,7 @@
         <v>1.13</v>
       </c>
       <c r="AP241">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ241">
         <v>1.06</v>
@@ -51554,7 +51566,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ244">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR244">
         <v>1.83</v>
@@ -51885,7 +51897,7 @@
         <v>115</v>
       </c>
       <c r="P246" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52248,6 +52260,1242 @@
       </c>
       <c r="BP247">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7345147</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45445.60416666666</v>
+      </c>
+      <c r="F248">
+        <v>4</v>
+      </c>
+      <c r="G248" t="s">
+        <v>79</v>
+      </c>
+      <c r="H248" t="s">
+        <v>92</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
+        <v>185</v>
+      </c>
+      <c r="P248" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q248">
+        <v>5</v>
+      </c>
+      <c r="R248">
+        <v>1.91</v>
+      </c>
+      <c r="S248">
+        <v>2.88</v>
+      </c>
+      <c r="T248">
+        <v>1.62</v>
+      </c>
+      <c r="U248">
+        <v>2.2</v>
+      </c>
+      <c r="V248">
+        <v>4</v>
+      </c>
+      <c r="W248">
+        <v>1.22</v>
+      </c>
+      <c r="X248">
+        <v>13</v>
+      </c>
+      <c r="Y248">
+        <v>1.04</v>
+      </c>
+      <c r="Z248">
+        <v>4.5</v>
+      </c>
+      <c r="AA248">
+        <v>2.9</v>
+      </c>
+      <c r="AB248">
+        <v>2.05</v>
+      </c>
+      <c r="AC248">
+        <v>1.08</v>
+      </c>
+      <c r="AD248">
+        <v>6</v>
+      </c>
+      <c r="AE248">
+        <v>1.52</v>
+      </c>
+      <c r="AF248">
+        <v>2.35</v>
+      </c>
+      <c r="AG248">
+        <v>2.88</v>
+      </c>
+      <c r="AH248">
+        <v>1.4</v>
+      </c>
+      <c r="AI248">
+        <v>2.25</v>
+      </c>
+      <c r="AJ248">
+        <v>1.57</v>
+      </c>
+      <c r="AK248">
+        <v>1.62</v>
+      </c>
+      <c r="AL248">
+        <v>1.42</v>
+      </c>
+      <c r="AM248">
+        <v>1.18</v>
+      </c>
+      <c r="AN248">
+        <v>1.18</v>
+      </c>
+      <c r="AO248">
+        <v>1.83</v>
+      </c>
+      <c r="AP248">
+        <v>1.28</v>
+      </c>
+      <c r="AQ248">
+        <v>1.74</v>
+      </c>
+      <c r="AR248">
+        <v>1.36</v>
+      </c>
+      <c r="AS248">
+        <v>1.44</v>
+      </c>
+      <c r="AT248">
+        <v>2.8</v>
+      </c>
+      <c r="AU248">
+        <v>7</v>
+      </c>
+      <c r="AV248">
+        <v>5</v>
+      </c>
+      <c r="AW248">
+        <v>3</v>
+      </c>
+      <c r="AX248">
+        <v>4</v>
+      </c>
+      <c r="AY248">
+        <v>10</v>
+      </c>
+      <c r="AZ248">
+        <v>9</v>
+      </c>
+      <c r="BA248">
+        <v>7</v>
+      </c>
+      <c r="BB248">
+        <v>6</v>
+      </c>
+      <c r="BC248">
+        <v>13</v>
+      </c>
+      <c r="BD248">
+        <v>2.37</v>
+      </c>
+      <c r="BE248">
+        <v>6.8</v>
+      </c>
+      <c r="BF248">
+        <v>1.92</v>
+      </c>
+      <c r="BG248">
+        <v>1.57</v>
+      </c>
+      <c r="BH248">
+        <v>2.23</v>
+      </c>
+      <c r="BI248">
+        <v>2</v>
+      </c>
+      <c r="BJ248">
+        <v>1.73</v>
+      </c>
+      <c r="BK248">
+        <v>2.65</v>
+      </c>
+      <c r="BL248">
+        <v>1.4</v>
+      </c>
+      <c r="BM248">
+        <v>3.7</v>
+      </c>
+      <c r="BN248">
+        <v>1.22</v>
+      </c>
+      <c r="BO248">
+        <v>5.4</v>
+      </c>
+      <c r="BP248">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7345156</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45445.75</v>
+      </c>
+      <c r="F249">
+        <v>4</v>
+      </c>
+      <c r="G249" t="s">
+        <v>86</v>
+      </c>
+      <c r="H249" t="s">
+        <v>87</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>103</v>
+      </c>
+      <c r="P249" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q249">
+        <v>3.1</v>
+      </c>
+      <c r="R249">
+        <v>1.91</v>
+      </c>
+      <c r="S249">
+        <v>4.33</v>
+      </c>
+      <c r="T249">
+        <v>1.57</v>
+      </c>
+      <c r="U249">
+        <v>2.25</v>
+      </c>
+      <c r="V249">
+        <v>3.75</v>
+      </c>
+      <c r="W249">
+        <v>1.25</v>
+      </c>
+      <c r="X249">
+        <v>13</v>
+      </c>
+      <c r="Y249">
+        <v>1.04</v>
+      </c>
+      <c r="Z249">
+        <v>2.2</v>
+      </c>
+      <c r="AA249">
+        <v>3.2</v>
+      </c>
+      <c r="AB249">
+        <v>3.5</v>
+      </c>
+      <c r="AC249">
+        <v>1.07</v>
+      </c>
+      <c r="AD249">
+        <v>6.4</v>
+      </c>
+      <c r="AE249">
+        <v>1.48</v>
+      </c>
+      <c r="AF249">
+        <v>2.45</v>
+      </c>
+      <c r="AG249">
+        <v>2.6</v>
+      </c>
+      <c r="AH249">
+        <v>1.48</v>
+      </c>
+      <c r="AI249">
+        <v>2.2</v>
+      </c>
+      <c r="AJ249">
+        <v>1.62</v>
+      </c>
+      <c r="AK249">
+        <v>1.38</v>
+      </c>
+      <c r="AL249">
+        <v>1.38</v>
+      </c>
+      <c r="AM249">
+        <v>1.55</v>
+      </c>
+      <c r="AN249">
+        <v>1.12</v>
+      </c>
+      <c r="AO249">
+        <v>1.59</v>
+      </c>
+      <c r="AP249">
+        <v>1.11</v>
+      </c>
+      <c r="AQ249">
+        <v>1.56</v>
+      </c>
+      <c r="AR249">
+        <v>1.52</v>
+      </c>
+      <c r="AS249">
+        <v>1.66</v>
+      </c>
+      <c r="AT249">
+        <v>3.18</v>
+      </c>
+      <c r="AU249">
+        <v>6</v>
+      </c>
+      <c r="AV249">
+        <v>2</v>
+      </c>
+      <c r="AW249">
+        <v>9</v>
+      </c>
+      <c r="AX249">
+        <v>2</v>
+      </c>
+      <c r="AY249">
+        <v>15</v>
+      </c>
+      <c r="AZ249">
+        <v>4</v>
+      </c>
+      <c r="BA249">
+        <v>6</v>
+      </c>
+      <c r="BB249">
+        <v>1</v>
+      </c>
+      <c r="BC249">
+        <v>7</v>
+      </c>
+      <c r="BD249">
+        <v>1.87</v>
+      </c>
+      <c r="BE249">
+        <v>7.1</v>
+      </c>
+      <c r="BF249">
+        <v>2.42</v>
+      </c>
+      <c r="BG249">
+        <v>1.28</v>
+      </c>
+      <c r="BH249">
+        <v>3.4</v>
+      </c>
+      <c r="BI249">
+        <v>1.52</v>
+      </c>
+      <c r="BJ249">
+        <v>2.33</v>
+      </c>
+      <c r="BK249">
+        <v>1.98</v>
+      </c>
+      <c r="BL249">
+        <v>1.82</v>
+      </c>
+      <c r="BM249">
+        <v>2.45</v>
+      </c>
+      <c r="BN249">
+        <v>1.47</v>
+      </c>
+      <c r="BO249">
+        <v>3.3</v>
+      </c>
+      <c r="BP249">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7345146</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45445.75</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
+      </c>
+      <c r="G250" t="s">
+        <v>73</v>
+      </c>
+      <c r="H250" t="s">
+        <v>75</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>4</v>
+      </c>
+      <c r="N250">
+        <v>6</v>
+      </c>
+      <c r="O250" t="s">
+        <v>242</v>
+      </c>
+      <c r="P250" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q250">
+        <v>5</v>
+      </c>
+      <c r="R250">
+        <v>2.1</v>
+      </c>
+      <c r="S250">
+        <v>2.4</v>
+      </c>
+      <c r="T250">
+        <v>1.44</v>
+      </c>
+      <c r="U250">
+        <v>2.63</v>
+      </c>
+      <c r="V250">
+        <v>3</v>
+      </c>
+      <c r="W250">
+        <v>1.36</v>
+      </c>
+      <c r="X250">
+        <v>9</v>
+      </c>
+      <c r="Y250">
+        <v>1.07</v>
+      </c>
+      <c r="Z250">
+        <v>4.75</v>
+      </c>
+      <c r="AA250">
+        <v>3.7</v>
+      </c>
+      <c r="AB250">
+        <v>1.75</v>
+      </c>
+      <c r="AC250">
+        <v>1.06</v>
+      </c>
+      <c r="AD250">
+        <v>10</v>
+      </c>
+      <c r="AE250">
+        <v>1.32</v>
+      </c>
+      <c r="AF250">
+        <v>3.1</v>
+      </c>
+      <c r="AG250">
+        <v>2.05</v>
+      </c>
+      <c r="AH250">
+        <v>1.75</v>
+      </c>
+      <c r="AI250">
+        <v>1.95</v>
+      </c>
+      <c r="AJ250">
+        <v>1.8</v>
+      </c>
+      <c r="AK250">
+        <v>1.91</v>
+      </c>
+      <c r="AL250">
+        <v>1.25</v>
+      </c>
+      <c r="AM250">
+        <v>1.22</v>
+      </c>
+      <c r="AN250">
+        <v>0.65</v>
+      </c>
+      <c r="AO250">
+        <v>1.82</v>
+      </c>
+      <c r="AP250">
+        <v>0.61</v>
+      </c>
+      <c r="AQ250">
+        <v>1.89</v>
+      </c>
+      <c r="AR250">
+        <v>1.22</v>
+      </c>
+      <c r="AS250">
+        <v>1.51</v>
+      </c>
+      <c r="AT250">
+        <v>2.73</v>
+      </c>
+      <c r="AU250">
+        <v>4</v>
+      </c>
+      <c r="AV250">
+        <v>9</v>
+      </c>
+      <c r="AW250">
+        <v>4</v>
+      </c>
+      <c r="AX250">
+        <v>7</v>
+      </c>
+      <c r="AY250">
+        <v>8</v>
+      </c>
+      <c r="AZ250">
+        <v>16</v>
+      </c>
+      <c r="BA250">
+        <v>5</v>
+      </c>
+      <c r="BB250">
+        <v>0</v>
+      </c>
+      <c r="BC250">
+        <v>5</v>
+      </c>
+      <c r="BD250">
+        <v>2.42</v>
+      </c>
+      <c r="BE250">
+        <v>7.1</v>
+      </c>
+      <c r="BF250">
+        <v>1.87</v>
+      </c>
+      <c r="BG250">
+        <v>1.36</v>
+      </c>
+      <c r="BH250">
+        <v>2.85</v>
+      </c>
+      <c r="BI250">
+        <v>1.7</v>
+      </c>
+      <c r="BJ250">
+        <v>2.05</v>
+      </c>
+      <c r="BK250">
+        <v>2.38</v>
+      </c>
+      <c r="BL250">
+        <v>1.65</v>
+      </c>
+      <c r="BM250">
+        <v>2.75</v>
+      </c>
+      <c r="BN250">
+        <v>1.38</v>
+      </c>
+      <c r="BO250">
+        <v>3.85</v>
+      </c>
+      <c r="BP250">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7345158</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45445.84375</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
+      </c>
+      <c r="G251" t="s">
+        <v>82</v>
+      </c>
+      <c r="H251" t="s">
+        <v>71</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
+      <c r="L251">
+        <v>3</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251">
+        <v>4</v>
+      </c>
+      <c r="O251" t="s">
+        <v>243</v>
+      </c>
+      <c r="P251" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q251">
+        <v>1.67</v>
+      </c>
+      <c r="R251">
+        <v>2.75</v>
+      </c>
+      <c r="S251">
+        <v>9.5</v>
+      </c>
+      <c r="T251">
+        <v>1.29</v>
+      </c>
+      <c r="U251">
+        <v>3.5</v>
+      </c>
+      <c r="V251">
+        <v>2.25</v>
+      </c>
+      <c r="W251">
+        <v>1.57</v>
+      </c>
+      <c r="X251">
+        <v>5.5</v>
+      </c>
+      <c r="Y251">
+        <v>1.14</v>
+      </c>
+      <c r="Z251">
+        <v>1.25</v>
+      </c>
+      <c r="AA251">
+        <v>6.25</v>
+      </c>
+      <c r="AB251">
+        <v>11</v>
+      </c>
+      <c r="AC251">
+        <v>1.02</v>
+      </c>
+      <c r="AD251">
+        <v>19</v>
+      </c>
+      <c r="AE251">
+        <v>1.15</v>
+      </c>
+      <c r="AF251">
+        <v>4.45</v>
+      </c>
+      <c r="AG251">
+        <v>1.6</v>
+      </c>
+      <c r="AH251">
+        <v>2.3</v>
+      </c>
+      <c r="AI251">
+        <v>2.1</v>
+      </c>
+      <c r="AJ251">
+        <v>1.67</v>
+      </c>
+      <c r="AK251">
+        <v>1.04</v>
+      </c>
+      <c r="AL251">
+        <v>1.09</v>
+      </c>
+      <c r="AM251">
+        <v>4.25</v>
+      </c>
+      <c r="AN251">
+        <v>1.83</v>
+      </c>
+      <c r="AO251">
+        <v>0.35</v>
+      </c>
+      <c r="AP251">
+        <v>1.89</v>
+      </c>
+      <c r="AQ251">
+        <v>0.33</v>
+      </c>
+      <c r="AR251">
+        <v>2.37</v>
+      </c>
+      <c r="AS251">
+        <v>1.19</v>
+      </c>
+      <c r="AT251">
+        <v>3.56</v>
+      </c>
+      <c r="AU251">
+        <v>10</v>
+      </c>
+      <c r="AV251">
+        <v>3</v>
+      </c>
+      <c r="AW251">
+        <v>4</v>
+      </c>
+      <c r="AX251">
+        <v>4</v>
+      </c>
+      <c r="AY251">
+        <v>14</v>
+      </c>
+      <c r="AZ251">
+        <v>7</v>
+      </c>
+      <c r="BA251">
+        <v>6</v>
+      </c>
+      <c r="BB251">
+        <v>5</v>
+      </c>
+      <c r="BC251">
+        <v>11</v>
+      </c>
+      <c r="BD251">
+        <v>1.26</v>
+      </c>
+      <c r="BE251">
+        <v>11</v>
+      </c>
+      <c r="BF251">
+        <v>4.86</v>
+      </c>
+      <c r="BG251">
+        <v>1.36</v>
+      </c>
+      <c r="BH251">
+        <v>2.85</v>
+      </c>
+      <c r="BI251">
+        <v>1.7</v>
+      </c>
+      <c r="BJ251">
+        <v>2.05</v>
+      </c>
+      <c r="BK251">
+        <v>2.38</v>
+      </c>
+      <c r="BL251">
+        <v>1.65</v>
+      </c>
+      <c r="BM251">
+        <v>2.75</v>
+      </c>
+      <c r="BN251">
+        <v>1.38</v>
+      </c>
+      <c r="BO251">
+        <v>3.85</v>
+      </c>
+      <c r="BP251">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7345151</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45445.84375</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="G252" t="s">
+        <v>70</v>
+      </c>
+      <c r="H252" t="s">
+        <v>85</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>3</v>
+      </c>
+      <c r="O252" t="s">
+        <v>244</v>
+      </c>
+      <c r="P252" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q252">
+        <v>3.1</v>
+      </c>
+      <c r="R252">
+        <v>1.95</v>
+      </c>
+      <c r="S252">
+        <v>4</v>
+      </c>
+      <c r="T252">
+        <v>1.57</v>
+      </c>
+      <c r="U252">
+        <v>2.25</v>
+      </c>
+      <c r="V252">
+        <v>3.7</v>
+      </c>
+      <c r="W252">
+        <v>1.22</v>
+      </c>
+      <c r="X252">
+        <v>8</v>
+      </c>
+      <c r="Y252">
+        <v>1.05</v>
+      </c>
+      <c r="Z252">
+        <v>2.3</v>
+      </c>
+      <c r="AA252">
+        <v>3.2</v>
+      </c>
+      <c r="AB252">
+        <v>3.2</v>
+      </c>
+      <c r="AC252">
+        <v>1.09</v>
+      </c>
+      <c r="AD252">
+        <v>7.5</v>
+      </c>
+      <c r="AE252">
+        <v>1.48</v>
+      </c>
+      <c r="AF252">
+        <v>2.45</v>
+      </c>
+      <c r="AG252">
+        <v>2.4</v>
+      </c>
+      <c r="AH252">
+        <v>1.53</v>
+      </c>
+      <c r="AI252">
+        <v>2.05</v>
+      </c>
+      <c r="AJ252">
+        <v>1.7</v>
+      </c>
+      <c r="AK252">
+        <v>1.3</v>
+      </c>
+      <c r="AL252">
+        <v>1.28</v>
+      </c>
+      <c r="AM252">
+        <v>1.65</v>
+      </c>
+      <c r="AN252">
+        <v>1.24</v>
+      </c>
+      <c r="AO252">
+        <v>1.35</v>
+      </c>
+      <c r="AP252">
+        <v>1.33</v>
+      </c>
+      <c r="AQ252">
+        <v>1.28</v>
+      </c>
+      <c r="AR252">
+        <v>1.37</v>
+      </c>
+      <c r="AS252">
+        <v>1.28</v>
+      </c>
+      <c r="AT252">
+        <v>2.65</v>
+      </c>
+      <c r="AU252">
+        <v>3</v>
+      </c>
+      <c r="AV252">
+        <v>5</v>
+      </c>
+      <c r="AW252">
+        <v>5</v>
+      </c>
+      <c r="AX252">
+        <v>5</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>10</v>
+      </c>
+      <c r="BA252">
+        <v>4</v>
+      </c>
+      <c r="BB252">
+        <v>3</v>
+      </c>
+      <c r="BC252">
+        <v>7</v>
+      </c>
+      <c r="BD252">
+        <v>1.7</v>
+      </c>
+      <c r="BE252">
+        <v>7.5</v>
+      </c>
+      <c r="BF252">
+        <v>2.71</v>
+      </c>
+      <c r="BG252">
+        <v>1.28</v>
+      </c>
+      <c r="BH252">
+        <v>3.4</v>
+      </c>
+      <c r="BI252">
+        <v>1.52</v>
+      </c>
+      <c r="BJ252">
+        <v>2.33</v>
+      </c>
+      <c r="BK252">
+        <v>1.98</v>
+      </c>
+      <c r="BL252">
+        <v>1.82</v>
+      </c>
+      <c r="BM252">
+        <v>2.45</v>
+      </c>
+      <c r="BN252">
+        <v>1.47</v>
+      </c>
+      <c r="BO252">
+        <v>3.3</v>
+      </c>
+      <c r="BP252">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7345154</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45446.79166666666</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+      <c r="G253" t="s">
+        <v>78</v>
+      </c>
+      <c r="H253" t="s">
+        <v>97</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
+        <v>98</v>
+      </c>
+      <c r="P253" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q253">
+        <v>2.75</v>
+      </c>
+      <c r="R253">
+        <v>1.8</v>
+      </c>
+      <c r="S253">
+        <v>6</v>
+      </c>
+      <c r="T253">
+        <v>1.57</v>
+      </c>
+      <c r="U253">
+        <v>2.25</v>
+      </c>
+      <c r="V253">
+        <v>3.75</v>
+      </c>
+      <c r="W253">
+        <v>1.25</v>
+      </c>
+      <c r="X253">
+        <v>13</v>
+      </c>
+      <c r="Y253">
+        <v>1.04</v>
+      </c>
+      <c r="Z253">
+        <v>1.9</v>
+      </c>
+      <c r="AA253">
+        <v>2.88</v>
+      </c>
+      <c r="AB253">
+        <v>5.5</v>
+      </c>
+      <c r="AC253">
+        <v>1.07</v>
+      </c>
+      <c r="AD253">
+        <v>6.25</v>
+      </c>
+      <c r="AE253">
+        <v>1.48</v>
+      </c>
+      <c r="AF253">
+        <v>2.45</v>
+      </c>
+      <c r="AG253">
+        <v>3.5</v>
+      </c>
+      <c r="AH253">
+        <v>1.3</v>
+      </c>
+      <c r="AI253">
+        <v>2.75</v>
+      </c>
+      <c r="AJ253">
+        <v>1.4</v>
+      </c>
+      <c r="AK253">
+        <v>1.16</v>
+      </c>
+      <c r="AL253">
+        <v>1.28</v>
+      </c>
+      <c r="AM253">
+        <v>2.05</v>
+      </c>
+      <c r="AN253">
+        <v>1.06</v>
+      </c>
+      <c r="AO253">
+        <v>0.59</v>
+      </c>
+      <c r="AP253">
+        <v>1</v>
+      </c>
+      <c r="AQ253">
+        <v>0.72</v>
+      </c>
+      <c r="AR253">
+        <v>1.64</v>
+      </c>
+      <c r="AS253">
+        <v>1.29</v>
+      </c>
+      <c r="AT253">
+        <v>2.93</v>
+      </c>
+      <c r="AU253">
+        <v>5</v>
+      </c>
+      <c r="AV253">
+        <v>3</v>
+      </c>
+      <c r="AW253">
+        <v>10</v>
+      </c>
+      <c r="AX253">
+        <v>1</v>
+      </c>
+      <c r="AY253">
+        <v>15</v>
+      </c>
+      <c r="AZ253">
+        <v>4</v>
+      </c>
+      <c r="BA253">
+        <v>10</v>
+      </c>
+      <c r="BB253">
+        <v>0</v>
+      </c>
+      <c r="BC253">
+        <v>10</v>
+      </c>
+      <c r="BD253">
+        <v>1.57</v>
+      </c>
+      <c r="BE253">
+        <v>7.6</v>
+      </c>
+      <c r="BF253">
+        <v>3.1</v>
+      </c>
+      <c r="BG253">
+        <v>1.33</v>
+      </c>
+      <c r="BH253">
+        <v>3.15</v>
+      </c>
+      <c r="BI253">
+        <v>1.57</v>
+      </c>
+      <c r="BJ253">
+        <v>2.3</v>
+      </c>
+      <c r="BK253">
+        <v>1.95</v>
+      </c>
+      <c r="BL253">
+        <v>1.8</v>
+      </c>
+      <c r="BM253">
+        <v>2.5</v>
+      </c>
+      <c r="BN253">
+        <v>1.48</v>
+      </c>
+      <c r="BO253">
+        <v>3.35</v>
+      </c>
+      <c r="BP253">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,9 @@
     <t>['29', '81']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -833,9 +836,6 @@
   </si>
   <si>
     <t>['26', '32']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>['9', '48', '70', '78']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2663,7 +2666,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2950,7 +2953,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3075,7 +3078,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3281,7 +3284,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4105,7 +4108,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4389,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4723,7 +4726,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4929,7 +4932,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5341,7 +5344,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5628,7 +5631,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6037,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6165,7 +6168,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6577,7 +6580,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7195,7 +7198,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7276,7 +7279,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR29">
         <v>0.9</v>
@@ -7607,7 +7610,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -9255,7 +9258,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9539,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9667,7 +9670,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9873,7 +9876,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10572,7 +10575,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
         <v>1.39</v>
@@ -10775,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.22</v>
@@ -10903,7 +10906,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11315,7 +11318,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11521,7 +11524,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11933,7 +11936,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12014,7 +12017,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR52">
         <v>1.08</v>
@@ -12345,7 +12348,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12963,7 +12966,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13169,7 +13172,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13581,7 +13584,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14199,7 +14202,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14405,7 +14408,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15229,7 +15232,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15641,7 +15644,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16259,7 +16262,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16340,7 +16343,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR73">
         <v>1.55</v>
@@ -16465,7 +16468,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16877,7 +16880,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16958,7 +16961,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ76">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR76">
         <v>1.4</v>
@@ -17083,7 +17086,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17779,7 +17782,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1.63</v>
@@ -18809,7 +18812,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ85">
         <v>0.5600000000000001</v>
@@ -20872,7 +20875,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -21075,7 +21078,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ96">
         <v>0.67</v>
@@ -24165,7 +24168,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ111">
         <v>1.89</v>
@@ -24992,7 +24995,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR115">
         <v>1.58</v>
@@ -25813,7 +25816,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -29109,7 +29112,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ135">
         <v>1.63</v>
@@ -30348,7 +30351,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ141">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR141">
         <v>1.3</v>
@@ -32739,7 +32742,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33026,7 +33029,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ154">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR154">
         <v>1.68</v>
@@ -33847,7 +33850,7 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ158">
         <v>1.56</v>
@@ -35417,7 +35420,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35910,7 +35913,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ168">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR168">
         <v>1.3</v>
@@ -36322,7 +36325,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ170">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR170">
         <v>1.5</v>
@@ -36937,7 +36940,7 @@
         <v>0.83</v>
       </c>
       <c r="AP173">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ173">
         <v>0.5600000000000001</v>
@@ -41263,7 +41266,7 @@
         <v>2.17</v>
       </c>
       <c r="AP194">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ194">
         <v>1.63</v>
@@ -41472,7 +41475,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ195">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR195">
         <v>1.76</v>
@@ -41884,7 +41887,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ197">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR197">
         <v>1.7</v>
@@ -42087,7 +42090,7 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ198">
         <v>1.67</v>
@@ -42293,7 +42296,7 @@
         <v>1.79</v>
       </c>
       <c r="AP199">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ199">
         <v>1.67</v>
@@ -42911,7 +42914,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ202">
         <v>1.74</v>
@@ -43117,7 +43120,7 @@
         <v>1.81</v>
       </c>
       <c r="AP203">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ203">
         <v>1.67</v>
@@ -43944,7 +43947,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ207">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR207">
         <v>1.3</v>
@@ -44069,7 +44072,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44147,7 +44150,7 @@
         <v>1.73</v>
       </c>
       <c r="AP208">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ208">
         <v>1.67</v>
@@ -44353,7 +44356,7 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ209">
         <v>1.89</v>
@@ -44768,7 +44771,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ211">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AR211">
         <v>1.49</v>
@@ -46210,7 +46213,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ218">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR218">
         <v>1.42</v>
@@ -46619,7 +46622,7 @@
         <v>1.27</v>
       </c>
       <c r="AP220">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ220">
         <v>1.28</v>
@@ -47240,7 +47243,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ223">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR223">
         <v>1.31</v>
@@ -48061,7 +48064,7 @@
         <v>1.07</v>
       </c>
       <c r="AP227">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ227">
         <v>0.89</v>
@@ -49506,7 +49509,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ234">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AR234">
         <v>1.44</v>
@@ -50124,7 +50127,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ237">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR237">
         <v>1.68</v>
@@ -50661,7 +50664,7 @@
         <v>98</v>
       </c>
       <c r="P240" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -51151,7 +51154,7 @@
         <v>1.74</v>
       </c>
       <c r="AP242">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ242">
         <v>1.67</v>
@@ -53496,6 +53499,418 @@
       </c>
       <c r="BP253">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7345149</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45446.88541666666</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254" t="s">
+        <v>90</v>
+      </c>
+      <c r="H254" t="s">
+        <v>94</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254" t="s">
+        <v>98</v>
+      </c>
+      <c r="P254" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q254">
+        <v>3.6</v>
+      </c>
+      <c r="R254">
+        <v>1.91</v>
+      </c>
+      <c r="S254">
+        <v>3.75</v>
+      </c>
+      <c r="T254">
+        <v>1.53</v>
+      </c>
+      <c r="U254">
+        <v>2.38</v>
+      </c>
+      <c r="V254">
+        <v>3.5</v>
+      </c>
+      <c r="W254">
+        <v>1.29</v>
+      </c>
+      <c r="X254">
+        <v>11</v>
+      </c>
+      <c r="Y254">
+        <v>1.05</v>
+      </c>
+      <c r="Z254">
+        <v>2.75</v>
+      </c>
+      <c r="AA254">
+        <v>3.1</v>
+      </c>
+      <c r="AB254">
+        <v>2.75</v>
+      </c>
+      <c r="AC254">
+        <v>1.08</v>
+      </c>
+      <c r="AD254">
+        <v>7.46</v>
+      </c>
+      <c r="AE254">
+        <v>1.46</v>
+      </c>
+      <c r="AF254">
+        <v>2.65</v>
+      </c>
+      <c r="AG254">
+        <v>2.7</v>
+      </c>
+      <c r="AH254">
+        <v>1.44</v>
+      </c>
+      <c r="AI254">
+        <v>2.2</v>
+      </c>
+      <c r="AJ254">
+        <v>1.62</v>
+      </c>
+      <c r="AK254">
+        <v>1.44</v>
+      </c>
+      <c r="AL254">
+        <v>1.36</v>
+      </c>
+      <c r="AM254">
+        <v>1.4</v>
+      </c>
+      <c r="AN254">
+        <v>1.56</v>
+      </c>
+      <c r="AO254">
+        <v>1.47</v>
+      </c>
+      <c r="AP254">
+        <v>1.53</v>
+      </c>
+      <c r="AQ254">
+        <v>1.44</v>
+      </c>
+      <c r="AR254">
+        <v>1.54</v>
+      </c>
+      <c r="AS254">
+        <v>1.45</v>
+      </c>
+      <c r="AT254">
+        <v>2.99</v>
+      </c>
+      <c r="AU254">
+        <v>3</v>
+      </c>
+      <c r="AV254">
+        <v>4</v>
+      </c>
+      <c r="AW254">
+        <v>7</v>
+      </c>
+      <c r="AX254">
+        <v>4</v>
+      </c>
+      <c r="AY254">
+        <v>10</v>
+      </c>
+      <c r="AZ254">
+        <v>8</v>
+      </c>
+      <c r="BA254">
+        <v>4</v>
+      </c>
+      <c r="BB254">
+        <v>6</v>
+      </c>
+      <c r="BC254">
+        <v>10</v>
+      </c>
+      <c r="BD254">
+        <v>2.2</v>
+      </c>
+      <c r="BE254">
+        <v>7.2</v>
+      </c>
+      <c r="BF254">
+        <v>1.98</v>
+      </c>
+      <c r="BG254">
+        <v>1.27</v>
+      </c>
+      <c r="BH254">
+        <v>3.55</v>
+      </c>
+      <c r="BI254">
+        <v>1.48</v>
+      </c>
+      <c r="BJ254">
+        <v>2.5</v>
+      </c>
+      <c r="BK254">
+        <v>1.8</v>
+      </c>
+      <c r="BL254">
+        <v>1.95</v>
+      </c>
+      <c r="BM254">
+        <v>2.25</v>
+      </c>
+      <c r="BN254">
+        <v>1.57</v>
+      </c>
+      <c r="BO254">
+        <v>2.95</v>
+      </c>
+      <c r="BP254">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7345155</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45446.88541666666</v>
+      </c>
+      <c r="F255">
+        <v>4</v>
+      </c>
+      <c r="G255" t="s">
+        <v>83</v>
+      </c>
+      <c r="H255" t="s">
+        <v>81</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>2</v>
+      </c>
+      <c r="O255" t="s">
+        <v>245</v>
+      </c>
+      <c r="P255" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q255">
+        <v>2.5</v>
+      </c>
+      <c r="R255">
+        <v>1.95</v>
+      </c>
+      <c r="S255">
+        <v>6</v>
+      </c>
+      <c r="T255">
+        <v>1.57</v>
+      </c>
+      <c r="U255">
+        <v>2.25</v>
+      </c>
+      <c r="V255">
+        <v>3.75</v>
+      </c>
+      <c r="W255">
+        <v>1.25</v>
+      </c>
+      <c r="X255">
+        <v>13</v>
+      </c>
+      <c r="Y255">
+        <v>1.04</v>
+      </c>
+      <c r="Z255">
+        <v>1.75</v>
+      </c>
+      <c r="AA255">
+        <v>3.4</v>
+      </c>
+      <c r="AB255">
+        <v>5</v>
+      </c>
+      <c r="AC255">
+        <v>1.07</v>
+      </c>
+      <c r="AD255">
+        <v>6.3</v>
+      </c>
+      <c r="AE255">
+        <v>1.48</v>
+      </c>
+      <c r="AF255">
+        <v>2.45</v>
+      </c>
+      <c r="AG255">
+        <v>2.6</v>
+      </c>
+      <c r="AH255">
+        <v>1.48</v>
+      </c>
+      <c r="AI255">
+        <v>2.38</v>
+      </c>
+      <c r="AJ255">
+        <v>1.53</v>
+      </c>
+      <c r="AK255">
+        <v>1.17</v>
+      </c>
+      <c r="AL255">
+        <v>1.33</v>
+      </c>
+      <c r="AM255">
+        <v>1.91</v>
+      </c>
+      <c r="AN255">
+        <v>1.84</v>
+      </c>
+      <c r="AO255">
+        <v>1.76</v>
+      </c>
+      <c r="AP255">
+        <v>1.8</v>
+      </c>
+      <c r="AQ255">
+        <v>1.72</v>
+      </c>
+      <c r="AR255">
+        <v>2.14</v>
+      </c>
+      <c r="AS255">
+        <v>1.49</v>
+      </c>
+      <c r="AT255">
+        <v>3.63</v>
+      </c>
+      <c r="AU255">
+        <v>10</v>
+      </c>
+      <c r="AV255">
+        <v>3</v>
+      </c>
+      <c r="AW255">
+        <v>8</v>
+      </c>
+      <c r="AX255">
+        <v>4</v>
+      </c>
+      <c r="AY255">
+        <v>18</v>
+      </c>
+      <c r="AZ255">
+        <v>7</v>
+      </c>
+      <c r="BA255">
+        <v>5</v>
+      </c>
+      <c r="BB255">
+        <v>2</v>
+      </c>
+      <c r="BC255">
+        <v>7</v>
+      </c>
+      <c r="BD255">
+        <v>1.57</v>
+      </c>
+      <c r="BE255">
+        <v>7.6</v>
+      </c>
+      <c r="BF255">
+        <v>3.1</v>
+      </c>
+      <c r="BG255">
+        <v>1.4</v>
+      </c>
+      <c r="BH255">
+        <v>2.75</v>
+      </c>
+      <c r="BI255">
+        <v>1.72</v>
+      </c>
+      <c r="BJ255">
+        <v>2.05</v>
+      </c>
+      <c r="BK255">
+        <v>2.2</v>
+      </c>
+      <c r="BL255">
+        <v>1.65</v>
+      </c>
+      <c r="BM255">
+        <v>2.85</v>
+      </c>
+      <c r="BN255">
+        <v>1.38</v>
+      </c>
+      <c r="BO255">
+        <v>4</v>
+      </c>
+      <c r="BP255">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,9 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['89', '90+1']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1016,6 +1019,9 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['42', '87']</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2335,7 +2341,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2538,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>1.42</v>
@@ -2666,7 +2672,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2950,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ8">
         <v>1.78</v>
@@ -3078,7 +3084,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3156,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3284,7 +3290,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3777,7 +3783,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4108,7 +4114,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4726,7 +4732,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4932,7 +4938,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5344,7 +5350,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5425,7 +5431,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ20">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6168,7 +6174,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6580,7 +6586,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6658,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -7198,7 +7204,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7610,7 +7616,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7894,10 +7900,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>1.01</v>
@@ -9133,7 +9139,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR38">
         <v>1.15</v>
@@ -9258,7 +9264,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9670,7 +9676,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9748,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9876,7 +9882,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10906,7 +10912,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10987,7 +10993,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11318,7 +11324,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11524,7 +11530,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11936,7 +11942,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12348,7 +12354,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12838,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>0.33</v>
@@ -12966,7 +12972,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13172,7 +13178,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13584,7 +13590,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13665,7 +13671,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ60">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>2.22</v>
@@ -13871,7 +13877,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ61">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR61">
         <v>1.97</v>
@@ -14202,7 +14208,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14408,7 +14414,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14692,7 +14698,7 @@
         <v>3</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -15232,7 +15238,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15644,7 +15650,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15722,7 +15728,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -16262,7 +16268,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16468,7 +16474,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16755,7 +16761,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
         <v>2.21</v>
@@ -16880,7 +16886,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17785,7 +17791,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.9</v>
@@ -17988,7 +17994,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
         <v>1.7</v>
@@ -18528,7 +18534,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19146,7 +19152,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19970,7 +19976,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20794,7 +20800,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21412,7 +21418,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21824,7 +21830,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22236,7 +22242,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22314,7 +22320,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22932,7 +22938,7 @@
         <v>0.67</v>
       </c>
       <c r="AP105">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -23060,7 +23066,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23141,7 +23147,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ106">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23678,7 +23684,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23884,7 +23890,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24090,7 +24096,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24296,7 +24302,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24502,7 +24508,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24789,7 +24795,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ114">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24914,7 +24920,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -24992,7 +24998,7 @@
         <v>2.5</v>
       </c>
       <c r="AP115">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ115">
         <v>1.78</v>
@@ -25738,7 +25744,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26356,7 +26362,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27592,7 +27598,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28416,7 +28422,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28497,7 +28503,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR132">
         <v>2.04</v>
@@ -29034,7 +29040,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29115,7 +29121,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ135">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR135">
         <v>1.67</v>
@@ -29240,7 +29246,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29446,7 +29452,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29652,7 +29658,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29730,7 +29736,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ138">
         <v>0.67</v>
@@ -29858,7 +29864,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29936,7 +29942,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>1.42</v>
@@ -30064,7 +30070,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31094,7 +31100,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31790,10 +31796,10 @@
         <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR148">
         <v>1.53</v>
@@ -32202,7 +32208,7 @@
         <v>1.6</v>
       </c>
       <c r="AP150">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
         <v>1.7</v>
@@ -32330,7 +32336,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32742,7 +32748,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33154,7 +33160,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33235,7 +33241,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ155">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR155">
         <v>1.3</v>
@@ -33360,7 +33366,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33566,7 +33572,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33978,7 +33984,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34596,7 +34602,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35089,7 +35095,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ164">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35420,7 +35426,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35626,7 +35632,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35704,7 +35710,7 @@
         <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ167">
         <v>1.33</v>
@@ -35832,7 +35838,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36322,7 +36328,7 @@
         <v>1.83</v>
       </c>
       <c r="AP170">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ170">
         <v>1.78</v>
@@ -36450,7 +36456,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36656,7 +36662,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37274,7 +37280,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37480,7 +37486,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37686,7 +37692,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37764,7 +37770,7 @@
         <v>1.8</v>
       </c>
       <c r="AP177">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ177">
         <v>1.5</v>
@@ -38385,7 +38391,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ180">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR180">
         <v>1.27</v>
@@ -38510,7 +38516,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39003,7 +39009,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ183">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR183">
         <v>1.55</v>
@@ -39540,7 +39546,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39952,7 +39958,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40158,7 +40164,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40442,7 +40448,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ190">
         <v>1.42</v>
@@ -40570,7 +40576,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40776,7 +40782,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40982,7 +40988,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41269,7 +41275,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ194">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR194">
         <v>1.58</v>
@@ -42093,7 +42099,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ198">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AR198">
         <v>2.23</v>
@@ -42218,7 +42224,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42424,7 +42430,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -43248,7 +43254,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43532,7 +43538,7 @@
         <v>1.29</v>
       </c>
       <c r="AP205">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ205">
         <v>1.28</v>
@@ -43660,7 +43666,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43944,7 +43950,7 @@
         <v>1.8</v>
       </c>
       <c r="AP207">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ207">
         <v>1.53</v>
@@ -44072,7 +44078,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44153,7 +44159,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ208">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AR208">
         <v>1.91</v>
@@ -44278,7 +44284,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -45102,7 +45108,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45308,7 +45314,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45389,7 +45395,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ214">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -46004,10 +46010,10 @@
         <v>1.21</v>
       </c>
       <c r="AP217">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ217">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
         <v>1.67</v>
@@ -46210,7 +46216,7 @@
         <v>1.81</v>
       </c>
       <c r="AP218">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ218">
         <v>1.72</v>
@@ -46544,7 +46550,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46750,7 +46756,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46831,7 +46837,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ221">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR221">
         <v>1.45</v>
@@ -47034,7 +47040,7 @@
         <v>0.6</v>
       </c>
       <c r="AP222">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ222">
         <v>0.72</v>
@@ -47652,10 +47658,10 @@
         <v>1.27</v>
       </c>
       <c r="AP225">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ225">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR225">
         <v>1.45</v>
@@ -47780,7 +47786,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -48192,7 +48198,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48891,7 +48897,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ231">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR231">
         <v>1.81</v>
@@ -49016,7 +49022,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49222,7 +49228,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49634,7 +49640,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -50124,7 +50130,7 @@
         <v>1.65</v>
       </c>
       <c r="AP237">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ237">
         <v>1.53</v>
@@ -50536,7 +50542,7 @@
         <v>1.31</v>
       </c>
       <c r="AP239">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ239">
         <v>1.33</v>
@@ -50745,7 +50751,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ240">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR240">
         <v>1.33</v>
@@ -50951,7 +50957,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ241">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR241">
         <v>1.85</v>
@@ -51360,10 +51366,10 @@
         <v>1.76</v>
       </c>
       <c r="AP243">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ243">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AR243">
         <v>1.69</v>
@@ -51900,7 +51906,7 @@
         <v>115</v>
       </c>
       <c r="P246" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52724,7 +52730,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52930,7 +52936,7 @@
         <v>243</v>
       </c>
       <c r="P251" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q251">
         <v>1.67</v>
@@ -53342,7 +53348,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53754,7 +53760,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53911,6 +53917,624 @@
       </c>
       <c r="BP255">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7345152</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45447.625</v>
+      </c>
+      <c r="F256">
+        <v>4</v>
+      </c>
+      <c r="G256" t="s">
+        <v>74</v>
+      </c>
+      <c r="H256" t="s">
+        <v>84</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256" t="s">
+        <v>98</v>
+      </c>
+      <c r="P256" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q256">
+        <v>4</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>3</v>
+      </c>
+      <c r="T256">
+        <v>1.53</v>
+      </c>
+      <c r="U256">
+        <v>2.38</v>
+      </c>
+      <c r="V256">
+        <v>3.5</v>
+      </c>
+      <c r="W256">
+        <v>1.29</v>
+      </c>
+      <c r="X256">
+        <v>11</v>
+      </c>
+      <c r="Y256">
+        <v>1.05</v>
+      </c>
+      <c r="Z256">
+        <v>3.3</v>
+      </c>
+      <c r="AA256">
+        <v>3.2</v>
+      </c>
+      <c r="AB256">
+        <v>2.25</v>
+      </c>
+      <c r="AC256">
+        <v>1.06</v>
+      </c>
+      <c r="AD256">
+        <v>7</v>
+      </c>
+      <c r="AE256">
+        <v>1.42</v>
+      </c>
+      <c r="AF256">
+        <v>2.6</v>
+      </c>
+      <c r="AG256">
+        <v>2.3</v>
+      </c>
+      <c r="AH256">
+        <v>1.6</v>
+      </c>
+      <c r="AI256">
+        <v>1.95</v>
+      </c>
+      <c r="AJ256">
+        <v>1.8</v>
+      </c>
+      <c r="AK256">
+        <v>1.66</v>
+      </c>
+      <c r="AL256">
+        <v>1.35</v>
+      </c>
+      <c r="AM256">
+        <v>1.32</v>
+      </c>
+      <c r="AN256">
+        <v>1.67</v>
+      </c>
+      <c r="AO256">
+        <v>1.35</v>
+      </c>
+      <c r="AP256">
+        <v>1.58</v>
+      </c>
+      <c r="AQ256">
+        <v>1.44</v>
+      </c>
+      <c r="AR256">
+        <v>1.58</v>
+      </c>
+      <c r="AS256">
+        <v>1.54</v>
+      </c>
+      <c r="AT256">
+        <v>3.12</v>
+      </c>
+      <c r="AU256">
+        <v>5</v>
+      </c>
+      <c r="AV256">
+        <v>7</v>
+      </c>
+      <c r="AW256">
+        <v>6</v>
+      </c>
+      <c r="AX256">
+        <v>7</v>
+      </c>
+      <c r="AY256">
+        <v>11</v>
+      </c>
+      <c r="AZ256">
+        <v>14</v>
+      </c>
+      <c r="BA256">
+        <v>3</v>
+      </c>
+      <c r="BB256">
+        <v>3</v>
+      </c>
+      <c r="BC256">
+        <v>6</v>
+      </c>
+      <c r="BD256">
+        <v>2.1</v>
+      </c>
+      <c r="BE256">
+        <v>6.8</v>
+      </c>
+      <c r="BF256">
+        <v>2.1</v>
+      </c>
+      <c r="BG256">
+        <v>1.35</v>
+      </c>
+      <c r="BH256">
+        <v>3</v>
+      </c>
+      <c r="BI256">
+        <v>1.62</v>
+      </c>
+      <c r="BJ256">
+        <v>2.2</v>
+      </c>
+      <c r="BK256">
+        <v>2</v>
+      </c>
+      <c r="BL256">
+        <v>1.75</v>
+      </c>
+      <c r="BM256">
+        <v>2.6</v>
+      </c>
+      <c r="BN256">
+        <v>1.45</v>
+      </c>
+      <c r="BO256">
+        <v>3.55</v>
+      </c>
+      <c r="BP256">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7345153</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45447.83333333334</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
+      </c>
+      <c r="G257" t="s">
+        <v>76</v>
+      </c>
+      <c r="H257" t="s">
+        <v>93</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257">
+        <v>1</v>
+      </c>
+      <c r="O257" t="s">
+        <v>98</v>
+      </c>
+      <c r="P257" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q257">
+        <v>4.5</v>
+      </c>
+      <c r="R257">
+        <v>1.83</v>
+      </c>
+      <c r="S257">
+        <v>3.25</v>
+      </c>
+      <c r="T257">
+        <v>1.57</v>
+      </c>
+      <c r="U257">
+        <v>2.25</v>
+      </c>
+      <c r="V257">
+        <v>3.75</v>
+      </c>
+      <c r="W257">
+        <v>1.25</v>
+      </c>
+      <c r="X257">
+        <v>11</v>
+      </c>
+      <c r="Y257">
+        <v>1.05</v>
+      </c>
+      <c r="Z257">
+        <v>3.4</v>
+      </c>
+      <c r="AA257">
+        <v>3.1</v>
+      </c>
+      <c r="AB257">
+        <v>2.3</v>
+      </c>
+      <c r="AC257">
+        <v>1.09</v>
+      </c>
+      <c r="AD257">
+        <v>6</v>
+      </c>
+      <c r="AE257">
+        <v>1.48</v>
+      </c>
+      <c r="AF257">
+        <v>2.45</v>
+      </c>
+      <c r="AG257">
+        <v>3.4</v>
+      </c>
+      <c r="AH257">
+        <v>1.33</v>
+      </c>
+      <c r="AI257">
+        <v>2.5</v>
+      </c>
+      <c r="AJ257">
+        <v>1.5</v>
+      </c>
+      <c r="AK257">
+        <v>1.55</v>
+      </c>
+      <c r="AL257">
+        <v>1.38</v>
+      </c>
+      <c r="AM257">
+        <v>1.38</v>
+      </c>
+      <c r="AN257">
+        <v>0.88</v>
+      </c>
+      <c r="AO257">
+        <v>1.59</v>
+      </c>
+      <c r="AP257">
+        <v>0.83</v>
+      </c>
+      <c r="AQ257">
+        <v>1.67</v>
+      </c>
+      <c r="AR257">
+        <v>1.32</v>
+      </c>
+      <c r="AS257">
+        <v>1.31</v>
+      </c>
+      <c r="AT257">
+        <v>2.63</v>
+      </c>
+      <c r="AU257">
+        <v>6</v>
+      </c>
+      <c r="AV257">
+        <v>2</v>
+      </c>
+      <c r="AW257">
+        <v>4</v>
+      </c>
+      <c r="AX257">
+        <v>7</v>
+      </c>
+      <c r="AY257">
+        <v>10</v>
+      </c>
+      <c r="AZ257">
+        <v>9</v>
+      </c>
+      <c r="BA257">
+        <v>4</v>
+      </c>
+      <c r="BB257">
+        <v>3</v>
+      </c>
+      <c r="BC257">
+        <v>7</v>
+      </c>
+      <c r="BD257">
+        <v>2.22</v>
+      </c>
+      <c r="BE257">
+        <v>6.7</v>
+      </c>
+      <c r="BF257">
+        <v>2</v>
+      </c>
+      <c r="BG257">
+        <v>1.42</v>
+      </c>
+      <c r="BH257">
+        <v>2.7</v>
+      </c>
+      <c r="BI257">
+        <v>1.72</v>
+      </c>
+      <c r="BJ257">
+        <v>2.05</v>
+      </c>
+      <c r="BK257">
+        <v>2.2</v>
+      </c>
+      <c r="BL257">
+        <v>1.62</v>
+      </c>
+      <c r="BM257">
+        <v>2.9</v>
+      </c>
+      <c r="BN257">
+        <v>1.37</v>
+      </c>
+      <c r="BO257">
+        <v>4.1</v>
+      </c>
+      <c r="BP257">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7345150</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45447.83333333334</v>
+      </c>
+      <c r="F258">
+        <v>4</v>
+      </c>
+      <c r="G258" t="s">
+        <v>77</v>
+      </c>
+      <c r="H258" t="s">
+        <v>96</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>246</v>
+      </c>
+      <c r="P258" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q258">
+        <v>4.33</v>
+      </c>
+      <c r="R258">
+        <v>1.83</v>
+      </c>
+      <c r="S258">
+        <v>3.4</v>
+      </c>
+      <c r="T258">
+        <v>1.62</v>
+      </c>
+      <c r="U258">
+        <v>2.2</v>
+      </c>
+      <c r="V258">
+        <v>4</v>
+      </c>
+      <c r="W258">
+        <v>1.22</v>
+      </c>
+      <c r="X258">
+        <v>13</v>
+      </c>
+      <c r="Y258">
+        <v>1.04</v>
+      </c>
+      <c r="Z258">
+        <v>3.4</v>
+      </c>
+      <c r="AA258">
+        <v>2.88</v>
+      </c>
+      <c r="AB258">
+        <v>2.45</v>
+      </c>
+      <c r="AC258">
+        <v>1.09</v>
+      </c>
+      <c r="AD258">
+        <v>5.8</v>
+      </c>
+      <c r="AE258">
+        <v>1.55</v>
+      </c>
+      <c r="AF258">
+        <v>2.25</v>
+      </c>
+      <c r="AG258">
+        <v>2.88</v>
+      </c>
+      <c r="AH258">
+        <v>1.4</v>
+      </c>
+      <c r="AI258">
+        <v>2.25</v>
+      </c>
+      <c r="AJ258">
+        <v>1.57</v>
+      </c>
+      <c r="AK258">
+        <v>1.33</v>
+      </c>
+      <c r="AL258">
+        <v>1.35</v>
+      </c>
+      <c r="AM258">
+        <v>1.6</v>
+      </c>
+      <c r="AN258">
+        <v>1.06</v>
+      </c>
+      <c r="AO258">
+        <v>1.59</v>
+      </c>
+      <c r="AP258">
+        <v>1.17</v>
+      </c>
+      <c r="AQ258">
+        <v>1.5</v>
+      </c>
+      <c r="AR258">
+        <v>1.53</v>
+      </c>
+      <c r="AS258">
+        <v>1.16</v>
+      </c>
+      <c r="AT258">
+        <v>2.69</v>
+      </c>
+      <c r="AU258">
+        <v>6</v>
+      </c>
+      <c r="AV258">
+        <v>6</v>
+      </c>
+      <c r="AW258">
+        <v>6</v>
+      </c>
+      <c r="AX258">
+        <v>1</v>
+      </c>
+      <c r="AY258">
+        <v>12</v>
+      </c>
+      <c r="AZ258">
+        <v>7</v>
+      </c>
+      <c r="BA258">
+        <v>6</v>
+      </c>
+      <c r="BB258">
+        <v>3</v>
+      </c>
+      <c r="BC258">
+        <v>9</v>
+      </c>
+      <c r="BD258">
+        <v>1.65</v>
+      </c>
+      <c r="BE258">
+        <v>7.4</v>
+      </c>
+      <c r="BF258">
+        <v>2.86</v>
+      </c>
+      <c r="BG258">
+        <v>1.35</v>
+      </c>
+      <c r="BH258">
+        <v>3</v>
+      </c>
+      <c r="BI258">
+        <v>1.62</v>
+      </c>
+      <c r="BJ258">
+        <v>2.2</v>
+      </c>
+      <c r="BK258">
+        <v>2</v>
+      </c>
+      <c r="BL258">
+        <v>1.75</v>
+      </c>
+      <c r="BM258">
+        <v>2.6</v>
+      </c>
+      <c r="BN258">
+        <v>1.45</v>
+      </c>
+      <c r="BO258">
+        <v>3.55</v>
+      </c>
+      <c r="BP258">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,18 @@
     <t>['89', '90+1']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['13', '58']</t>
+  </si>
+  <si>
+    <t>['29', '85']</t>
+  </si>
+  <si>
+    <t>['3', '52']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -890,9 +902,6 @@
   </si>
   <si>
     <t>['8']</t>
-  </si>
-  <si>
-    <t>['45+3']</t>
   </si>
   <si>
     <t>['42']</t>
@@ -1383,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2135,7 +2144,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2672,7 +2681,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3084,7 +3093,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3290,7 +3299,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3986,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.3</v>
@@ -4114,7 +4123,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4732,7 +4741,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4938,7 +4947,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5016,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ18">
         <v>1.22</v>
@@ -5225,7 +5234,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5350,7 +5359,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5840,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -6174,7 +6183,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6586,7 +6595,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7204,7 +7213,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7488,7 +7497,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ30">
         <v>0.78</v>
@@ -7616,7 +7625,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7697,7 +7706,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR31">
         <v>2.28</v>
@@ -8109,7 +8118,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8521,7 +8530,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ35">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>0.9</v>
@@ -8930,7 +8939,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1.89</v>
@@ -9264,7 +9273,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9676,7 +9685,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9882,7 +9891,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10912,7 +10921,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11324,7 +11333,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11530,7 +11539,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11608,10 +11617,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11942,7 +11951,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12354,7 +12363,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12972,7 +12981,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13178,7 +13187,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13590,7 +13599,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13668,7 +13677,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ60">
         <v>0.89</v>
@@ -13874,7 +13883,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.78</v>
@@ -14080,10 +14089,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ62">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR62">
         <v>1.83</v>
@@ -14208,7 +14217,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14414,7 +14423,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14701,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -14907,7 +14916,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ66">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.82</v>
@@ -15238,7 +15247,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15650,7 +15659,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16268,7 +16277,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16474,7 +16483,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16886,7 +16895,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17173,7 +17182,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.76</v>
@@ -18534,7 +18543,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18612,7 +18621,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
         <v>1.22</v>
@@ -18821,7 +18830,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ85">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.69</v>
@@ -19024,7 +19033,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -19152,7 +19161,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19851,7 +19860,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR90">
         <v>1.4</v>
@@ -19976,7 +19985,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20260,7 +20269,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ92">
         <v>1.56</v>
@@ -20469,7 +20478,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20675,7 +20684,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR94">
         <v>1.3</v>
@@ -20800,7 +20809,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21290,7 +21299,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21418,7 +21427,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21830,7 +21839,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21908,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="AP100">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
         <v>1.5</v>
@@ -22117,7 +22126,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>0.96</v>
@@ -22242,7 +22251,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22323,7 +22332,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -22529,7 +22538,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ103">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -23066,7 +23075,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23556,7 +23565,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108">
         <v>0.78</v>
@@ -23684,7 +23693,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23890,7 +23899,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23968,7 +23977,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.56</v>
@@ -24096,7 +24105,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24302,7 +24311,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24508,7 +24517,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24920,7 +24929,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25413,7 +25422,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR117">
         <v>1.88</v>
@@ -25616,7 +25625,7 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118">
         <v>0.78</v>
@@ -25744,7 +25753,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26362,7 +26371,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26443,7 +26452,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR122">
         <v>1.8</v>
@@ -26855,7 +26864,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ124">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR124">
         <v>1.21</v>
@@ -27470,10 +27479,10 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR127">
         <v>1.95</v>
@@ -27598,7 +27607,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27882,7 +27891,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -28422,7 +28431,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28500,7 +28509,7 @@
         <v>2.25</v>
       </c>
       <c r="AP132">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>1.44</v>
@@ -29040,7 +29049,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29246,7 +29255,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29452,7 +29461,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29658,7 +29667,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29864,7 +29873,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30070,7 +30079,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31100,7 +31109,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31590,7 +31599,7 @@
         <v>0.2</v>
       </c>
       <c r="AP147">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>0.22</v>
@@ -32336,7 +32345,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32417,7 +32426,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ151">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR151">
         <v>1.57</v>
@@ -32620,10 +32629,10 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ152">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR152">
         <v>1.69</v>
@@ -32748,7 +32757,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33160,7 +33169,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33366,7 +33375,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33447,7 +33456,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ156">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR156">
         <v>1.28</v>
@@ -33572,7 +33581,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33984,7 +33993,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34602,7 +34611,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35298,7 +35307,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ165">
         <v>0.67</v>
@@ -35426,7 +35435,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35504,7 +35513,7 @@
         <v>0.2</v>
       </c>
       <c r="AP166">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ166">
         <v>0.33</v>
@@ -35632,7 +35641,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35713,7 +35722,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR167">
         <v>1.49</v>
@@ -35838,7 +35847,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36456,7 +36465,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36662,7 +36671,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36949,7 +36958,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR173">
         <v>2.1</v>
@@ -37280,7 +37289,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37486,7 +37495,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37692,7 +37701,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38185,7 +38194,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ179">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR179">
         <v>2.3</v>
@@ -38516,7 +38525,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38800,7 +38809,7 @@
         <v>0.83</v>
       </c>
       <c r="AP182">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
         <v>1</v>
@@ -39546,7 +39555,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39624,10 +39633,10 @@
         <v>1.5</v>
       </c>
       <c r="AP186">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ186">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR186">
         <v>1.95</v>
@@ -39958,7 +39967,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40036,10 +40045,10 @@
         <v>1.83</v>
       </c>
       <c r="AP188">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR188">
         <v>1.7</v>
@@ -40164,7 +40173,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40242,7 +40251,7 @@
         <v>1.5</v>
       </c>
       <c r="AP189">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ189">
         <v>1.7</v>
@@ -40576,7 +40585,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40782,7 +40791,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40988,7 +40997,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41890,7 +41899,7 @@
         <v>1.86</v>
       </c>
       <c r="AP197">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AQ197">
         <v>1.53</v>
@@ -42099,7 +42108,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ198">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR198">
         <v>2.23</v>
@@ -42224,7 +42233,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42302,7 +42311,7 @@
         <v>1.79</v>
       </c>
       <c r="AP199">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ199">
         <v>1.67</v>
@@ -42430,7 +42439,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42714,7 +42723,7 @@
         <v>1.87</v>
       </c>
       <c r="AP201">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AQ201">
         <v>1.67</v>
@@ -43254,7 +43263,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43666,7 +43675,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43744,7 +43753,7 @@
         <v>1.07</v>
       </c>
       <c r="AP206">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AQ206">
         <v>1.11</v>
@@ -44078,7 +44087,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44156,10 +44165,10 @@
         <v>1.73</v>
       </c>
       <c r="AP208">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ208">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR208">
         <v>1.91</v>
@@ -44284,7 +44293,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44362,7 +44371,7 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
         <v>1.89</v>
@@ -44571,7 +44580,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ210">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR210">
         <v>2.26</v>
@@ -45108,7 +45117,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45314,7 +45323,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45804,7 +45813,7 @@
         <v>1.76</v>
       </c>
       <c r="AP216">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ216">
         <v>1.67</v>
@@ -46013,7 +46022,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ217">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR217">
         <v>1.67</v>
@@ -46219,7 +46228,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ218">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR218">
         <v>1.42</v>
@@ -46550,7 +46559,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46631,7 +46640,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ220">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR220">
         <v>1.64</v>
@@ -46756,7 +46765,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47040,7 +47049,7 @@
         <v>0.6</v>
       </c>
       <c r="AP222">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222">
         <v>0.72</v>
@@ -47249,7 +47258,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ223">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR223">
         <v>1.31</v>
@@ -47658,7 +47667,7 @@
         <v>1.27</v>
       </c>
       <c r="AP225">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ225">
         <v>1.44</v>
@@ -47786,7 +47795,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -47864,7 +47873,7 @@
         <v>1.81</v>
       </c>
       <c r="AP226">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AQ226">
         <v>1.74</v>
@@ -48198,7 +48207,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48485,7 +48494,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ229">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AR229">
         <v>1.85</v>
@@ -49022,7 +49031,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49228,7 +49237,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49640,7 +49649,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -49721,7 +49730,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ235">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR235">
         <v>1.47</v>
@@ -49924,7 +49933,7 @@
         <v>1.94</v>
       </c>
       <c r="AP236">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AQ236">
         <v>1.89</v>
@@ -50954,10 +50963,10 @@
         <v>1.13</v>
       </c>
       <c r="AP241">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ241">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR241">
         <v>1.85</v>
@@ -51160,7 +51169,7 @@
         <v>1.74</v>
       </c>
       <c r="AP242">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ242">
         <v>1.67</v>
@@ -51369,7 +51378,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ243">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR243">
         <v>1.69</v>
@@ -51906,7 +51915,7 @@
         <v>115</v>
       </c>
       <c r="P246" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52193,7 +52202,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ247">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AR247">
         <v>1.49</v>
@@ -52730,7 +52739,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52808,7 +52817,7 @@
         <v>1.82</v>
       </c>
       <c r="AP250">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AQ250">
         <v>1.89</v>
@@ -52936,7 +52945,7 @@
         <v>243</v>
       </c>
       <c r="P251" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="Q251">
         <v>1.67</v>
@@ -53223,7 +53232,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ252">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR252">
         <v>1.37</v>
@@ -53348,7 +53357,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53635,7 +53644,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ254">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR254">
         <v>1.54</v>
@@ -53760,7 +53769,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53841,7 +53850,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ255">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR255">
         <v>2.14</v>
@@ -53966,7 +53975,7 @@
         <v>98</v>
       </c>
       <c r="P256" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54044,7 +54053,7 @@
         <v>1.35</v>
       </c>
       <c r="AP256">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AQ256">
         <v>1.44</v>
@@ -54456,7 +54465,7 @@
         <v>1.59</v>
       </c>
       <c r="AP258">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ258">
         <v>1.5</v>
@@ -54534,6 +54543,830 @@
         <v>3.55</v>
       </c>
       <c r="BP258">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7345164</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45455.70833333334</v>
+      </c>
+      <c r="F259">
+        <v>5</v>
+      </c>
+      <c r="G259" t="s">
+        <v>81</v>
+      </c>
+      <c r="H259" t="s">
+        <v>86</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>247</v>
+      </c>
+      <c r="P259" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q259">
+        <v>3</v>
+      </c>
+      <c r="R259">
+        <v>1.91</v>
+      </c>
+      <c r="S259">
+        <v>4.5</v>
+      </c>
+      <c r="T259">
+        <v>1.53</v>
+      </c>
+      <c r="U259">
+        <v>2.38</v>
+      </c>
+      <c r="V259">
+        <v>3.75</v>
+      </c>
+      <c r="W259">
+        <v>1.25</v>
+      </c>
+      <c r="X259">
+        <v>11</v>
+      </c>
+      <c r="Y259">
+        <v>1.05</v>
+      </c>
+      <c r="Z259">
+        <v>2.15</v>
+      </c>
+      <c r="AA259">
+        <v>3.1</v>
+      </c>
+      <c r="AB259">
+        <v>3.7</v>
+      </c>
+      <c r="AC259">
+        <v>1.06</v>
+      </c>
+      <c r="AD259">
+        <v>6.6</v>
+      </c>
+      <c r="AE259">
+        <v>1.5</v>
+      </c>
+      <c r="AF259">
+        <v>2.6</v>
+      </c>
+      <c r="AG259">
+        <v>2.7</v>
+      </c>
+      <c r="AH259">
+        <v>1.44</v>
+      </c>
+      <c r="AI259">
+        <v>2.25</v>
+      </c>
+      <c r="AJ259">
+        <v>1.57</v>
+      </c>
+      <c r="AK259">
+        <v>1.26</v>
+      </c>
+      <c r="AL259">
+        <v>1.3</v>
+      </c>
+      <c r="AM259">
+        <v>1.8</v>
+      </c>
+      <c r="AN259">
+        <v>1.72</v>
+      </c>
+      <c r="AO259">
+        <v>1.11</v>
+      </c>
+      <c r="AP259">
+        <v>1.68</v>
+      </c>
+      <c r="AQ259">
+        <v>1.11</v>
+      </c>
+      <c r="AR259">
+        <v>1.92</v>
+      </c>
+      <c r="AS259">
+        <v>1.07</v>
+      </c>
+      <c r="AT259">
+        <v>2.99</v>
+      </c>
+      <c r="AU259">
+        <v>4</v>
+      </c>
+      <c r="AV259">
+        <v>5</v>
+      </c>
+      <c r="AW259">
+        <v>4</v>
+      </c>
+      <c r="AX259">
+        <v>5</v>
+      </c>
+      <c r="AY259">
+        <v>8</v>
+      </c>
+      <c r="AZ259">
+        <v>10</v>
+      </c>
+      <c r="BA259">
+        <v>2</v>
+      </c>
+      <c r="BB259">
+        <v>5</v>
+      </c>
+      <c r="BC259">
+        <v>7</v>
+      </c>
+      <c r="BD259">
+        <v>1.59</v>
+      </c>
+      <c r="BE259">
+        <v>7.8</v>
+      </c>
+      <c r="BF259">
+        <v>3</v>
+      </c>
+      <c r="BG259">
+        <v>1.35</v>
+      </c>
+      <c r="BH259">
+        <v>3</v>
+      </c>
+      <c r="BI259">
+        <v>1.73</v>
+      </c>
+      <c r="BJ259">
+        <v>2</v>
+      </c>
+      <c r="BK259">
+        <v>2</v>
+      </c>
+      <c r="BL259">
+        <v>1.75</v>
+      </c>
+      <c r="BM259">
+        <v>2.6</v>
+      </c>
+      <c r="BN259">
+        <v>1.45</v>
+      </c>
+      <c r="BO259">
+        <v>3.55</v>
+      </c>
+      <c r="BP259">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7345160</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45455.79166666666</v>
+      </c>
+      <c r="F260">
+        <v>5</v>
+      </c>
+      <c r="G260" t="s">
+        <v>89</v>
+      </c>
+      <c r="H260" t="s">
+        <v>73</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>3</v>
+      </c>
+      <c r="O260" t="s">
+        <v>248</v>
+      </c>
+      <c r="P260" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q260">
+        <v>1.95</v>
+      </c>
+      <c r="R260">
+        <v>2.3</v>
+      </c>
+      <c r="S260">
+        <v>7.5</v>
+      </c>
+      <c r="T260">
+        <v>1.4</v>
+      </c>
+      <c r="U260">
+        <v>2.75</v>
+      </c>
+      <c r="V260">
+        <v>3</v>
+      </c>
+      <c r="W260">
+        <v>1.36</v>
+      </c>
+      <c r="X260">
+        <v>8</v>
+      </c>
+      <c r="Y260">
+        <v>1.08</v>
+      </c>
+      <c r="Z260">
+        <v>1.4</v>
+      </c>
+      <c r="AA260">
+        <v>4.33</v>
+      </c>
+      <c r="AB260">
+        <v>9</v>
+      </c>
+      <c r="AC260">
+        <v>1.03</v>
+      </c>
+      <c r="AD260">
+        <v>9</v>
+      </c>
+      <c r="AE260">
+        <v>1.3</v>
+      </c>
+      <c r="AF260">
+        <v>3.2</v>
+      </c>
+      <c r="AG260">
+        <v>1.85</v>
+      </c>
+      <c r="AH260">
+        <v>1.95</v>
+      </c>
+      <c r="AI260">
+        <v>2.1</v>
+      </c>
+      <c r="AJ260">
+        <v>1.67</v>
+      </c>
+      <c r="AK260">
+        <v>1.08</v>
+      </c>
+      <c r="AL260">
+        <v>1.22</v>
+      </c>
+      <c r="AM260">
+        <v>2.6</v>
+      </c>
+      <c r="AN260">
+        <v>1.7</v>
+      </c>
+      <c r="AO260">
+        <v>0.61</v>
+      </c>
+      <c r="AP260">
+        <v>1.76</v>
+      </c>
+      <c r="AQ260">
+        <v>0.58</v>
+      </c>
+      <c r="AR260">
+        <v>1.81</v>
+      </c>
+      <c r="AS260">
+        <v>1.04</v>
+      </c>
+      <c r="AT260">
+        <v>2.85</v>
+      </c>
+      <c r="AU260">
+        <v>6</v>
+      </c>
+      <c r="AV260">
+        <v>2</v>
+      </c>
+      <c r="AW260">
+        <v>5</v>
+      </c>
+      <c r="AX260">
+        <v>4</v>
+      </c>
+      <c r="AY260">
+        <v>11</v>
+      </c>
+      <c r="AZ260">
+        <v>6</v>
+      </c>
+      <c r="BA260">
+        <v>5</v>
+      </c>
+      <c r="BB260">
+        <v>0</v>
+      </c>
+      <c r="BC260">
+        <v>5</v>
+      </c>
+      <c r="BD260">
+        <v>1.28</v>
+      </c>
+      <c r="BE260">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF260">
+        <v>4.86</v>
+      </c>
+      <c r="BG260">
+        <v>1.35</v>
+      </c>
+      <c r="BH260">
+        <v>3</v>
+      </c>
+      <c r="BI260">
+        <v>1.62</v>
+      </c>
+      <c r="BJ260">
+        <v>2.2</v>
+      </c>
+      <c r="BK260">
+        <v>2.05</v>
+      </c>
+      <c r="BL260">
+        <v>1.7</v>
+      </c>
+      <c r="BM260">
+        <v>2.6</v>
+      </c>
+      <c r="BN260">
+        <v>1.45</v>
+      </c>
+      <c r="BO260">
+        <v>3.55</v>
+      </c>
+      <c r="BP260">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7345168</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45455.88541666666</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+      <c r="G261" t="s">
+        <v>85</v>
+      </c>
+      <c r="H261" t="s">
+        <v>74</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>249</v>
+      </c>
+      <c r="P261" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q261">
+        <v>2.2</v>
+      </c>
+      <c r="R261">
+        <v>2.25</v>
+      </c>
+      <c r="S261">
+        <v>5.5</v>
+      </c>
+      <c r="T261">
+        <v>1.44</v>
+      </c>
+      <c r="U261">
+        <v>2.63</v>
+      </c>
+      <c r="V261">
+        <v>3.25</v>
+      </c>
+      <c r="W261">
+        <v>1.33</v>
+      </c>
+      <c r="X261">
+        <v>9</v>
+      </c>
+      <c r="Y261">
+        <v>1.07</v>
+      </c>
+      <c r="Z261">
+        <v>1.62</v>
+      </c>
+      <c r="AA261">
+        <v>4</v>
+      </c>
+      <c r="AB261">
+        <v>5.25</v>
+      </c>
+      <c r="AC261">
+        <v>1.06</v>
+      </c>
+      <c r="AD261">
+        <v>8.6</v>
+      </c>
+      <c r="AE261">
+        <v>1.38</v>
+      </c>
+      <c r="AF261">
+        <v>2.94</v>
+      </c>
+      <c r="AG261">
+        <v>1.95</v>
+      </c>
+      <c r="AH261">
+        <v>1.85</v>
+      </c>
+      <c r="AI261">
+        <v>1.95</v>
+      </c>
+      <c r="AJ261">
+        <v>1.8</v>
+      </c>
+      <c r="AK261">
+        <v>1.19</v>
+      </c>
+      <c r="AL261">
+        <v>1.26</v>
+      </c>
+      <c r="AM261">
+        <v>2.1</v>
+      </c>
+      <c r="AN261">
+        <v>1.28</v>
+      </c>
+      <c r="AO261">
+        <v>1.58</v>
+      </c>
+      <c r="AP261">
+        <v>1.37</v>
+      </c>
+      <c r="AQ261">
+        <v>1.5</v>
+      </c>
+      <c r="AR261">
+        <v>1.96</v>
+      </c>
+      <c r="AS261">
+        <v>1.17</v>
+      </c>
+      <c r="AT261">
+        <v>3.13</v>
+      </c>
+      <c r="AU261">
+        <v>5</v>
+      </c>
+      <c r="AV261">
+        <v>7</v>
+      </c>
+      <c r="AW261">
+        <v>6</v>
+      </c>
+      <c r="AX261">
+        <v>10</v>
+      </c>
+      <c r="AY261">
+        <v>11</v>
+      </c>
+      <c r="AZ261">
+        <v>17</v>
+      </c>
+      <c r="BA261">
+        <v>4</v>
+      </c>
+      <c r="BB261">
+        <v>10</v>
+      </c>
+      <c r="BC261">
+        <v>14</v>
+      </c>
+      <c r="BD261">
+        <v>1.46</v>
+      </c>
+      <c r="BE261">
+        <v>8.1</v>
+      </c>
+      <c r="BF261">
+        <v>3.55</v>
+      </c>
+      <c r="BG261">
+        <v>1.28</v>
+      </c>
+      <c r="BH261">
+        <v>3.5</v>
+      </c>
+      <c r="BI261">
+        <v>1.48</v>
+      </c>
+      <c r="BJ261">
+        <v>2.5</v>
+      </c>
+      <c r="BK261">
+        <v>2.1</v>
+      </c>
+      <c r="BL261">
+        <v>1.8</v>
+      </c>
+      <c r="BM261">
+        <v>2.3</v>
+      </c>
+      <c r="BN261">
+        <v>1.57</v>
+      </c>
+      <c r="BO261">
+        <v>3</v>
+      </c>
+      <c r="BP261">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7345170</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45455.88541666666</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+      <c r="G262" t="s">
+        <v>94</v>
+      </c>
+      <c r="H262" t="s">
+        <v>77</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>2</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>3</v>
+      </c>
+      <c r="O262" t="s">
+        <v>250</v>
+      </c>
+      <c r="P262" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q262">
+        <v>2.63</v>
+      </c>
+      <c r="R262">
+        <v>1.95</v>
+      </c>
+      <c r="S262">
+        <v>5.5</v>
+      </c>
+      <c r="T262">
+        <v>1.62</v>
+      </c>
+      <c r="U262">
+        <v>2.2</v>
+      </c>
+      <c r="V262">
+        <v>4</v>
+      </c>
+      <c r="W262">
+        <v>1.22</v>
+      </c>
+      <c r="X262">
+        <v>13</v>
+      </c>
+      <c r="Y262">
+        <v>1.04</v>
+      </c>
+      <c r="Z262">
+        <v>1.9</v>
+      </c>
+      <c r="AA262">
+        <v>3.25</v>
+      </c>
+      <c r="AB262">
+        <v>4.75</v>
+      </c>
+      <c r="AC262">
+        <v>1.1</v>
+      </c>
+      <c r="AD262">
+        <v>6.6</v>
+      </c>
+      <c r="AE262">
+        <v>1.52</v>
+      </c>
+      <c r="AF262">
+        <v>2.35</v>
+      </c>
+      <c r="AG262">
+        <v>2.6</v>
+      </c>
+      <c r="AH262">
+        <v>1.48</v>
+      </c>
+      <c r="AI262">
+        <v>2.25</v>
+      </c>
+      <c r="AJ262">
+        <v>1.57</v>
+      </c>
+      <c r="AK262">
+        <v>1.24</v>
+      </c>
+      <c r="AL262">
+        <v>1.32</v>
+      </c>
+      <c r="AM262">
+        <v>1.83</v>
+      </c>
+      <c r="AN262">
+        <v>1.44</v>
+      </c>
+      <c r="AO262">
+        <v>1.17</v>
+      </c>
+      <c r="AP262">
+        <v>1.53</v>
+      </c>
+      <c r="AQ262">
+        <v>1.11</v>
+      </c>
+      <c r="AR262">
+        <v>1.55</v>
+      </c>
+      <c r="AS262">
+        <v>1.3</v>
+      </c>
+      <c r="AT262">
+        <v>2.85</v>
+      </c>
+      <c r="AU262">
+        <v>7</v>
+      </c>
+      <c r="AV262">
+        <v>5</v>
+      </c>
+      <c r="AW262">
+        <v>5</v>
+      </c>
+      <c r="AX262">
+        <v>2</v>
+      </c>
+      <c r="AY262">
+        <v>12</v>
+      </c>
+      <c r="AZ262">
+        <v>7</v>
+      </c>
+      <c r="BA262">
+        <v>5</v>
+      </c>
+      <c r="BB262">
+        <v>6</v>
+      </c>
+      <c r="BC262">
+        <v>11</v>
+      </c>
+      <c r="BD262">
+        <v>1.59</v>
+      </c>
+      <c r="BE262">
+        <v>7.8</v>
+      </c>
+      <c r="BF262">
+        <v>3</v>
+      </c>
+      <c r="BG262">
+        <v>1.35</v>
+      </c>
+      <c r="BH262">
+        <v>3</v>
+      </c>
+      <c r="BI262">
+        <v>1.67</v>
+      </c>
+      <c r="BJ262">
+        <v>2.1</v>
+      </c>
+      <c r="BK262">
+        <v>2</v>
+      </c>
+      <c r="BL262">
+        <v>1.75</v>
+      </c>
+      <c r="BM262">
+        <v>2.6</v>
+      </c>
+      <c r="BN262">
+        <v>1.45</v>
+      </c>
+      <c r="BO262">
+        <v>3.55</v>
+      </c>
+      <c r="BP262">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,15 @@
     <t>['3', '52']</t>
   </si>
   <si>
+    <t>['56', '90+2']</t>
+  </si>
+  <si>
+    <t>['58', '67']</t>
+  </si>
+  <si>
+    <t>['44', '65']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1031,6 +1040,9 @@
   </si>
   <si>
     <t>['42', '87']</t>
+  </si>
+  <si>
+    <t>['8', '57']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1935,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2681,7 +2693,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3093,7 +3105,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3299,7 +3311,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4123,7 +4135,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4741,7 +4753,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4947,7 +4959,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5359,7 +5371,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5437,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>1.44</v>
@@ -6183,7 +6195,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6595,7 +6607,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6676,7 +6688,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -7088,7 +7100,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7213,7 +7225,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7625,7 +7637,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8115,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ33">
         <v>1.36</v>
@@ -8733,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -9273,7 +9285,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9351,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>1.36</v>
@@ -9560,7 +9572,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9685,7 +9697,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9766,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9891,7 +9903,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9969,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ42">
         <v>1.3</v>
@@ -10921,7 +10933,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11333,7 +11345,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11539,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11951,7 +11963,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12363,7 +12375,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12441,10 +12453,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.2</v>
@@ -12647,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12981,7 +12993,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13187,7 +13199,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13265,10 +13277,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13474,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13599,7 +13611,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14217,7 +14229,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14295,7 +14307,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ63">
         <v>1.89</v>
@@ -14423,7 +14435,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14501,7 +14513,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
         <v>1.3</v>
@@ -15122,7 +15134,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR67">
         <v>1.68</v>
@@ -15247,7 +15259,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15325,7 +15337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
         <v>1.42</v>
@@ -15659,7 +15671,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15740,7 +15752,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -16277,7 +16289,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16483,7 +16495,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16895,7 +16907,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17385,7 +17397,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>1.36</v>
@@ -17591,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ79">
         <v>0.33</v>
@@ -18543,7 +18555,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19036,7 +19048,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19161,7 +19173,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19857,7 +19869,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ90">
         <v>1.36</v>
@@ -19985,7 +19997,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20272,7 +20284,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ92">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR92">
         <v>2.48</v>
@@ -20475,7 +20487,7 @@
         <v>0.33</v>
       </c>
       <c r="AP93">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
         <v>0.73</v>
@@ -20681,7 +20693,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ94">
         <v>1.2</v>
@@ -20809,7 +20821,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21427,7 +21439,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21839,7 +21851,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21920,7 +21932,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
         <v>2.14</v>
@@ -22251,7 +22263,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22535,7 +22547,7 @@
         <v>0.33</v>
       </c>
       <c r="AP103">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ103">
         <v>0.5</v>
@@ -22744,7 +22756,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23075,7 +23087,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23153,7 +23165,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ106">
         <v>1.78</v>
@@ -23693,7 +23705,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23774,7 +23786,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>2.06</v>
@@ -23899,7 +23911,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23980,7 +23992,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR110">
         <v>2.03</v>
@@ -24105,7 +24117,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24311,7 +24323,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24517,7 +24529,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24595,7 +24607,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
         <v>0.63</v>
@@ -24929,7 +24941,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25753,7 +25765,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26371,7 +26383,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26655,7 +26667,7 @@
         <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ123">
         <v>1.7</v>
@@ -26861,7 +26873,7 @@
         <v>0.25</v>
       </c>
       <c r="AP124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124">
         <v>0.5</v>
@@ -27067,7 +27079,7 @@
         <v>0.25</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ125">
         <v>0.22</v>
@@ -27607,7 +27619,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27685,10 +27697,10 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ128">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR128">
         <v>1.32</v>
@@ -27894,7 +27906,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28100,7 +28112,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR130">
         <v>1.23</v>
@@ -29049,7 +29061,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29255,7 +29267,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29336,7 +29348,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29461,7 +29473,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29539,7 +29551,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ137">
         <v>1.89</v>
@@ -29667,7 +29679,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29873,7 +29885,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30079,7 +30091,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30363,7 +30375,7 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ141">
         <v>1.78</v>
@@ -30569,7 +30581,7 @@
         <v>0.8</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -31109,7 +31121,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31396,7 +31408,7 @@
         <v>2</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR146">
         <v>1.91</v>
@@ -32345,7 +32357,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32757,7 +32769,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33169,7 +33181,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33247,7 +33259,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ155">
         <v>1.78</v>
@@ -33375,7 +33387,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33581,7 +33593,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33868,7 +33880,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ158">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR158">
         <v>1.69</v>
@@ -33993,7 +34005,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34071,7 +34083,7 @@
         <v>0.4</v>
       </c>
       <c r="AP159">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34280,7 +34292,7 @@
         <v>2</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR160">
         <v>1.18</v>
@@ -34611,7 +34623,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34692,7 +34704,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR162">
         <v>1.29</v>
@@ -35101,7 +35113,7 @@
         <v>2</v>
       </c>
       <c r="AP164">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ164">
         <v>1.44</v>
@@ -35435,7 +35447,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35641,7 +35653,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35847,7 +35859,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36465,7 +36477,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36543,7 +36555,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ171">
         <v>1.36</v>
@@ -36671,7 +36683,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37289,7 +37301,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37495,7 +37507,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37701,7 +37713,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37782,7 +37794,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR177">
         <v>1.55</v>
@@ -38397,7 +38409,7 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ180">
         <v>0.89</v>
@@ -38525,7 +38537,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39015,7 +39027,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ183">
         <v>1.78</v>
@@ -39427,7 +39439,7 @@
         <v>0.83</v>
       </c>
       <c r="AP185">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ185">
         <v>1</v>
@@ -39555,7 +39567,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39967,7 +39979,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40173,7 +40185,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40585,7 +40597,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40666,7 +40678,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ191">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR191">
         <v>1.51</v>
@@ -40791,7 +40803,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40872,7 +40884,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ192">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR192">
         <v>1.48</v>
@@ -40997,7 +41009,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41075,10 +41087,10 @@
         <v>1.33</v>
       </c>
       <c r="AP193">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -42105,7 +42117,7 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ198">
         <v>1.5</v>
@@ -42233,7 +42245,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42439,7 +42451,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42517,7 +42529,7 @@
         <v>1.92</v>
       </c>
       <c r="AP200">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ200">
         <v>1.74</v>
@@ -42929,7 +42941,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ202">
         <v>1.74</v>
@@ -43135,7 +43147,7 @@
         <v>1.81</v>
       </c>
       <c r="AP203">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ203">
         <v>1.67</v>
@@ -43263,7 +43275,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43341,10 +43353,10 @@
         <v>1.21</v>
       </c>
       <c r="AP204">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AQ204">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43547,7 +43559,7 @@
         <v>1.29</v>
       </c>
       <c r="AP205">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ205">
         <v>1.28</v>
@@ -43675,7 +43687,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -44087,7 +44099,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44293,7 +44305,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44577,7 +44589,7 @@
         <v>0.79</v>
       </c>
       <c r="AP210">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ210">
         <v>0.58</v>
@@ -44783,10 +44795,10 @@
         <v>1.81</v>
       </c>
       <c r="AP211">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AQ211">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR211">
         <v>1.49</v>
@@ -44989,7 +45001,7 @@
         <v>1.14</v>
       </c>
       <c r="AP212">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ212">
         <v>1</v>
@@ -45117,7 +45129,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45195,10 +45207,10 @@
         <v>1.71</v>
       </c>
       <c r="AP213">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ213">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR213">
         <v>1.51</v>
@@ -45323,7 +45335,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45401,7 +45413,7 @@
         <v>0.57</v>
       </c>
       <c r="AP214">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ214">
         <v>0.83</v>
@@ -46431,10 +46443,10 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ219">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR219">
         <v>2.31</v>
@@ -46559,7 +46571,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46765,7 +46777,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46843,7 +46855,7 @@
         <v>1.53</v>
       </c>
       <c r="AP221">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ221">
         <v>1.67</v>
@@ -47052,7 +47064,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ222">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR222">
         <v>1.52</v>
@@ -47795,7 +47807,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -48079,10 +48091,10 @@
         <v>1.07</v>
       </c>
       <c r="AP227">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ227">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR227">
         <v>2.09</v>
@@ -48207,7 +48219,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48288,7 +48300,7 @@
         <v>1</v>
       </c>
       <c r="AQ228">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -48491,7 +48503,7 @@
         <v>1.82</v>
       </c>
       <c r="AP229">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ229">
         <v>1.76</v>
@@ -48700,7 +48712,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ230">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR230">
         <v>1.56</v>
@@ -48906,7 +48918,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ231">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR231">
         <v>1.81</v>
@@ -49031,7 +49043,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49109,7 +49121,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ232">
         <v>1.11</v>
@@ -49237,7 +49249,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49315,10 +49327,10 @@
         <v>1.75</v>
       </c>
       <c r="AP233">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AQ233">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR233">
         <v>1.47</v>
@@ -49521,10 +49533,10 @@
         <v>1.94</v>
       </c>
       <c r="AP234">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ234">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR234">
         <v>1.44</v>
@@ -49649,7 +49661,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -49727,7 +49739,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP235">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ235">
         <v>0.58</v>
@@ -49936,7 +49948,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ236">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR236">
         <v>1.82</v>
@@ -50139,7 +50151,7 @@
         <v>1.65</v>
       </c>
       <c r="AP237">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ237">
         <v>1.53</v>
@@ -50554,7 +50566,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ239">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR239">
         <v>1.32</v>
@@ -50757,7 +50769,7 @@
         <v>0.75</v>
       </c>
       <c r="AP240">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AQ240">
         <v>0.83</v>
@@ -51787,10 +51799,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP245">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ245">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -51915,7 +51927,7 @@
         <v>115</v>
       </c>
       <c r="P246" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52199,7 +52211,7 @@
         <v>1.79</v>
       </c>
       <c r="AP247">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ247">
         <v>1.76</v>
@@ -52614,7 +52626,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ249">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR249">
         <v>1.52</v>
@@ -52739,7 +52751,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -53023,10 +53035,10 @@
         <v>0.35</v>
       </c>
       <c r="AP251">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ251">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR251">
         <v>2.37</v>
@@ -53229,7 +53241,7 @@
         <v>1.35</v>
       </c>
       <c r="AP252">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ252">
         <v>1.37</v>
@@ -53357,7 +53369,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53438,7 +53450,7 @@
         <v>1</v>
       </c>
       <c r="AQ253">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR253">
         <v>1.64</v>
@@ -53769,7 +53781,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53847,7 +53859,7 @@
         <v>1.76</v>
       </c>
       <c r="AP255">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ255">
         <v>1.68</v>
@@ -53975,7 +53987,7 @@
         <v>98</v>
       </c>
       <c r="P256" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54468,7 +54480,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ258">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR258">
         <v>1.53</v>
@@ -54799,7 +54811,7 @@
         <v>248</v>
       </c>
       <c r="P260" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55367,6 +55379,1036 @@
         <v>3.55</v>
       </c>
       <c r="BP262">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7345162</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45456.625</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+      <c r="G263" t="s">
+        <v>95</v>
+      </c>
+      <c r="H263" t="s">
+        <v>82</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" t="s">
+        <v>251</v>
+      </c>
+      <c r="P263" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q263">
+        <v>7</v>
+      </c>
+      <c r="R263">
+        <v>2.2</v>
+      </c>
+      <c r="S263">
+        <v>2.1</v>
+      </c>
+      <c r="T263">
+        <v>1.4</v>
+      </c>
+      <c r="U263">
+        <v>2.75</v>
+      </c>
+      <c r="V263">
+        <v>2.75</v>
+      </c>
+      <c r="W263">
+        <v>1.4</v>
+      </c>
+      <c r="X263">
+        <v>8</v>
+      </c>
+      <c r="Y263">
+        <v>1.08</v>
+      </c>
+      <c r="Z263">
+        <v>6.25</v>
+      </c>
+      <c r="AA263">
+        <v>4.33</v>
+      </c>
+      <c r="AB263">
+        <v>1.5</v>
+      </c>
+      <c r="AC263">
+        <v>1.02</v>
+      </c>
+      <c r="AD263">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE263">
+        <v>1.28</v>
+      </c>
+      <c r="AF263">
+        <v>3.18</v>
+      </c>
+      <c r="AG263">
+        <v>2.05</v>
+      </c>
+      <c r="AH263">
+        <v>1.75</v>
+      </c>
+      <c r="AI263">
+        <v>2.2</v>
+      </c>
+      <c r="AJ263">
+        <v>1.62</v>
+      </c>
+      <c r="AK263">
+        <v>3.04</v>
+      </c>
+      <c r="AL263">
+        <v>1.19</v>
+      </c>
+      <c r="AM263">
+        <v>1.06</v>
+      </c>
+      <c r="AN263">
+        <v>0.89</v>
+      </c>
+      <c r="AO263">
+        <v>1.89</v>
+      </c>
+      <c r="AP263">
+        <v>1</v>
+      </c>
+      <c r="AQ263">
+        <v>1.8</v>
+      </c>
+      <c r="AR263">
+        <v>1.37</v>
+      </c>
+      <c r="AS263">
+        <v>1.57</v>
+      </c>
+      <c r="AT263">
+        <v>2.94</v>
+      </c>
+      <c r="AU263">
+        <v>4</v>
+      </c>
+      <c r="AV263">
+        <v>3</v>
+      </c>
+      <c r="AW263">
+        <v>1</v>
+      </c>
+      <c r="AX263">
+        <v>8</v>
+      </c>
+      <c r="AY263">
+        <v>5</v>
+      </c>
+      <c r="AZ263">
+        <v>11</v>
+      </c>
+      <c r="BA263">
+        <v>1</v>
+      </c>
+      <c r="BB263">
+        <v>3</v>
+      </c>
+      <c r="BC263">
+        <v>4</v>
+      </c>
+      <c r="BD263">
+        <v>3.86</v>
+      </c>
+      <c r="BE263">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF263">
+        <v>1.41</v>
+      </c>
+      <c r="BG263">
+        <v>1.28</v>
+      </c>
+      <c r="BH263">
+        <v>3.4</v>
+      </c>
+      <c r="BI263">
+        <v>1.5</v>
+      </c>
+      <c r="BJ263">
+        <v>2.45</v>
+      </c>
+      <c r="BK263">
+        <v>2</v>
+      </c>
+      <c r="BL263">
+        <v>1.8</v>
+      </c>
+      <c r="BM263">
+        <v>2.3</v>
+      </c>
+      <c r="BN263">
+        <v>1.55</v>
+      </c>
+      <c r="BO263">
+        <v>3.05</v>
+      </c>
+      <c r="BP263">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7345161</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45456.79166666666</v>
+      </c>
+      <c r="F264">
+        <v>5</v>
+      </c>
+      <c r="G264" t="s">
+        <v>71</v>
+      </c>
+      <c r="H264" t="s">
+        <v>91</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" t="s">
+        <v>226</v>
+      </c>
+      <c r="P264" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q264">
+        <v>3.5</v>
+      </c>
+      <c r="R264">
+        <v>1.91</v>
+      </c>
+      <c r="S264">
+        <v>3.75</v>
+      </c>
+      <c r="T264">
+        <v>1.5</v>
+      </c>
+      <c r="U264">
+        <v>2.5</v>
+      </c>
+      <c r="V264">
+        <v>3.5</v>
+      </c>
+      <c r="W264">
+        <v>1.29</v>
+      </c>
+      <c r="X264">
+        <v>11</v>
+      </c>
+      <c r="Y264">
+        <v>1.05</v>
+      </c>
+      <c r="Z264">
+        <v>2.63</v>
+      </c>
+      <c r="AA264">
+        <v>2.88</v>
+      </c>
+      <c r="AB264">
+        <v>3</v>
+      </c>
+      <c r="AC264">
+        <v>0</v>
+      </c>
+      <c r="AD264">
+        <v>0</v>
+      </c>
+      <c r="AE264">
+        <v>1.48</v>
+      </c>
+      <c r="AF264">
+        <v>2.45</v>
+      </c>
+      <c r="AG264">
+        <v>2.7</v>
+      </c>
+      <c r="AH264">
+        <v>1.44</v>
+      </c>
+      <c r="AI264">
+        <v>2.1</v>
+      </c>
+      <c r="AJ264">
+        <v>1.67</v>
+      </c>
+      <c r="AK264">
+        <v>0</v>
+      </c>
+      <c r="AL264">
+        <v>0</v>
+      </c>
+      <c r="AM264">
+        <v>0</v>
+      </c>
+      <c r="AN264">
+        <v>0.33</v>
+      </c>
+      <c r="AO264">
+        <v>1.17</v>
+      </c>
+      <c r="AP264">
+        <v>0.37</v>
+      </c>
+      <c r="AQ264">
+        <v>1.16</v>
+      </c>
+      <c r="AR264">
+        <v>1.47</v>
+      </c>
+      <c r="AS264">
+        <v>1.2</v>
+      </c>
+      <c r="AT264">
+        <v>2.67</v>
+      </c>
+      <c r="AU264">
+        <v>5</v>
+      </c>
+      <c r="AV264">
+        <v>5</v>
+      </c>
+      <c r="AW264">
+        <v>3</v>
+      </c>
+      <c r="AX264">
+        <v>8</v>
+      </c>
+      <c r="AY264">
+        <v>8</v>
+      </c>
+      <c r="AZ264">
+        <v>13</v>
+      </c>
+      <c r="BA264">
+        <v>2</v>
+      </c>
+      <c r="BB264">
+        <v>6</v>
+      </c>
+      <c r="BC264">
+        <v>8</v>
+      </c>
+      <c r="BD264">
+        <v>0</v>
+      </c>
+      <c r="BE264">
+        <v>0</v>
+      </c>
+      <c r="BF264">
+        <v>0</v>
+      </c>
+      <c r="BG264">
+        <v>0</v>
+      </c>
+      <c r="BH264">
+        <v>0</v>
+      </c>
+      <c r="BI264">
+        <v>0</v>
+      </c>
+      <c r="BJ264">
+        <v>0</v>
+      </c>
+      <c r="BK264">
+        <v>0</v>
+      </c>
+      <c r="BL264">
+        <v>0</v>
+      </c>
+      <c r="BM264">
+        <v>0</v>
+      </c>
+      <c r="BN264">
+        <v>0</v>
+      </c>
+      <c r="BO264">
+        <v>0</v>
+      </c>
+      <c r="BP264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7345165</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45456.79166666666</v>
+      </c>
+      <c r="F265">
+        <v>5</v>
+      </c>
+      <c r="G265" t="s">
+        <v>97</v>
+      </c>
+      <c r="H265" t="s">
+        <v>83</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>252</v>
+      </c>
+      <c r="P265" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q265">
+        <v>5.5</v>
+      </c>
+      <c r="R265">
+        <v>1.83</v>
+      </c>
+      <c r="S265">
+        <v>2.75</v>
+      </c>
+      <c r="T265">
+        <v>1.62</v>
+      </c>
+      <c r="U265">
+        <v>2.2</v>
+      </c>
+      <c r="V265">
+        <v>4</v>
+      </c>
+      <c r="W265">
+        <v>1.22</v>
+      </c>
+      <c r="X265">
+        <v>13</v>
+      </c>
+      <c r="Y265">
+        <v>1.04</v>
+      </c>
+      <c r="Z265">
+        <v>4.33</v>
+      </c>
+      <c r="AA265">
+        <v>3.1</v>
+      </c>
+      <c r="AB265">
+        <v>2</v>
+      </c>
+      <c r="AC265">
+        <v>1.1</v>
+      </c>
+      <c r="AD265">
+        <v>5.75</v>
+      </c>
+      <c r="AE265">
+        <v>1.52</v>
+      </c>
+      <c r="AF265">
+        <v>2.35</v>
+      </c>
+      <c r="AG265">
+        <v>2.88</v>
+      </c>
+      <c r="AH265">
+        <v>1.4</v>
+      </c>
+      <c r="AI265">
+        <v>2.5</v>
+      </c>
+      <c r="AJ265">
+        <v>1.5</v>
+      </c>
+      <c r="AK265">
+        <v>1.88</v>
+      </c>
+      <c r="AL265">
+        <v>1.35</v>
+      </c>
+      <c r="AM265">
+        <v>1.21</v>
+      </c>
+      <c r="AN265">
+        <v>0.72</v>
+      </c>
+      <c r="AO265">
+        <v>1.8</v>
+      </c>
+      <c r="AP265">
+        <v>0.84</v>
+      </c>
+      <c r="AQ265">
+        <v>1.71</v>
+      </c>
+      <c r="AR265">
+        <v>1.29</v>
+      </c>
+      <c r="AS265">
+        <v>1.31</v>
+      </c>
+      <c r="AT265">
+        <v>2.6</v>
+      </c>
+      <c r="AU265">
+        <v>10</v>
+      </c>
+      <c r="AV265">
+        <v>6</v>
+      </c>
+      <c r="AW265">
+        <v>7</v>
+      </c>
+      <c r="AX265">
+        <v>3</v>
+      </c>
+      <c r="AY265">
+        <v>17</v>
+      </c>
+      <c r="AZ265">
+        <v>9</v>
+      </c>
+      <c r="BA265">
+        <v>5</v>
+      </c>
+      <c r="BB265">
+        <v>6</v>
+      </c>
+      <c r="BC265">
+        <v>11</v>
+      </c>
+      <c r="BD265">
+        <v>2.91</v>
+      </c>
+      <c r="BE265">
+        <v>7.7</v>
+      </c>
+      <c r="BF265">
+        <v>1.62</v>
+      </c>
+      <c r="BG265">
+        <v>1.35</v>
+      </c>
+      <c r="BH265">
+        <v>3</v>
+      </c>
+      <c r="BI265">
+        <v>1.64</v>
+      </c>
+      <c r="BJ265">
+        <v>2.1</v>
+      </c>
+      <c r="BK265">
+        <v>2.05</v>
+      </c>
+      <c r="BL265">
+        <v>1.7</v>
+      </c>
+      <c r="BM265">
+        <v>2.75</v>
+      </c>
+      <c r="BN265">
+        <v>1.38</v>
+      </c>
+      <c r="BO265">
+        <v>3.85</v>
+      </c>
+      <c r="BP265">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7345163</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45456.88541666666</v>
+      </c>
+      <c r="F266">
+        <v>5</v>
+      </c>
+      <c r="G266" t="s">
+        <v>87</v>
+      </c>
+      <c r="H266" t="s">
+        <v>80</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" t="s">
+        <v>253</v>
+      </c>
+      <c r="P266" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q266">
+        <v>4</v>
+      </c>
+      <c r="R266">
+        <v>2.05</v>
+      </c>
+      <c r="S266">
+        <v>3</v>
+      </c>
+      <c r="T266">
+        <v>1.44</v>
+      </c>
+      <c r="U266">
+        <v>2.63</v>
+      </c>
+      <c r="V266">
+        <v>3.25</v>
+      </c>
+      <c r="W266">
+        <v>1.33</v>
+      </c>
+      <c r="X266">
+        <v>10</v>
+      </c>
+      <c r="Y266">
+        <v>1.06</v>
+      </c>
+      <c r="Z266">
+        <v>3.4</v>
+      </c>
+      <c r="AA266">
+        <v>3.2</v>
+      </c>
+      <c r="AB266">
+        <v>2.25</v>
+      </c>
+      <c r="AC266">
+        <v>1.04</v>
+      </c>
+      <c r="AD266">
+        <v>7.6</v>
+      </c>
+      <c r="AE266">
+        <v>1.36</v>
+      </c>
+      <c r="AF266">
+        <v>2.8</v>
+      </c>
+      <c r="AG266">
+        <v>2.2</v>
+      </c>
+      <c r="AH266">
+        <v>1.65</v>
+      </c>
+      <c r="AI266">
+        <v>1.95</v>
+      </c>
+      <c r="AJ266">
+        <v>1.8</v>
+      </c>
+      <c r="AK266">
+        <v>1.6</v>
+      </c>
+      <c r="AL266">
+        <v>1.3</v>
+      </c>
+      <c r="AM266">
+        <v>1.38</v>
+      </c>
+      <c r="AN266">
+        <v>1.56</v>
+      </c>
+      <c r="AO266">
+        <v>1.89</v>
+      </c>
+      <c r="AP266">
+        <v>1.63</v>
+      </c>
+      <c r="AQ266">
+        <v>1.79</v>
+      </c>
+      <c r="AR266">
+        <v>1.45</v>
+      </c>
+      <c r="AS266">
+        <v>1.61</v>
+      </c>
+      <c r="AT266">
+        <v>3.06</v>
+      </c>
+      <c r="AU266">
+        <v>9</v>
+      </c>
+      <c r="AV266">
+        <v>3</v>
+      </c>
+      <c r="AW266">
+        <v>4</v>
+      </c>
+      <c r="AX266">
+        <v>7</v>
+      </c>
+      <c r="AY266">
+        <v>13</v>
+      </c>
+      <c r="AZ266">
+        <v>10</v>
+      </c>
+      <c r="BA266">
+        <v>6</v>
+      </c>
+      <c r="BB266">
+        <v>3</v>
+      </c>
+      <c r="BC266">
+        <v>9</v>
+      </c>
+      <c r="BD266">
+        <v>2.3</v>
+      </c>
+      <c r="BE266">
+        <v>6.9</v>
+      </c>
+      <c r="BF266">
+        <v>1.93</v>
+      </c>
+      <c r="BG266">
+        <v>1.35</v>
+      </c>
+      <c r="BH266">
+        <v>3.05</v>
+      </c>
+      <c r="BI266">
+        <v>1.64</v>
+      </c>
+      <c r="BJ266">
+        <v>2.1</v>
+      </c>
+      <c r="BK266">
+        <v>2.05</v>
+      </c>
+      <c r="BL266">
+        <v>1.7</v>
+      </c>
+      <c r="BM266">
+        <v>2.75</v>
+      </c>
+      <c r="BN266">
+        <v>1.38</v>
+      </c>
+      <c r="BO266">
+        <v>3.85</v>
+      </c>
+      <c r="BP266">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7345169</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45456.88541666666</v>
+      </c>
+      <c r="F267">
+        <v>5</v>
+      </c>
+      <c r="G267" t="s">
+        <v>96</v>
+      </c>
+      <c r="H267" t="s">
+        <v>70</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>2</v>
+      </c>
+      <c r="O267" t="s">
+        <v>98</v>
+      </c>
+      <c r="P267" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q267">
+        <v>3.1</v>
+      </c>
+      <c r="R267">
+        <v>1.83</v>
+      </c>
+      <c r="S267">
+        <v>4.5</v>
+      </c>
+      <c r="T267">
+        <v>1.57</v>
+      </c>
+      <c r="U267">
+        <v>2.25</v>
+      </c>
+      <c r="V267">
+        <v>3.75</v>
+      </c>
+      <c r="W267">
+        <v>1.25</v>
+      </c>
+      <c r="X267">
+        <v>11</v>
+      </c>
+      <c r="Y267">
+        <v>1.05</v>
+      </c>
+      <c r="Z267">
+        <v>2.25</v>
+      </c>
+      <c r="AA267">
+        <v>2.9</v>
+      </c>
+      <c r="AB267">
+        <v>3.75</v>
+      </c>
+      <c r="AC267">
+        <v>1.07</v>
+      </c>
+      <c r="AD267">
+        <v>6.35</v>
+      </c>
+      <c r="AE267">
+        <v>1.48</v>
+      </c>
+      <c r="AF267">
+        <v>2.45</v>
+      </c>
+      <c r="AG267">
+        <v>2.88</v>
+      </c>
+      <c r="AH267">
+        <v>1.4</v>
+      </c>
+      <c r="AI267">
+        <v>2.38</v>
+      </c>
+      <c r="AJ267">
+        <v>1.53</v>
+      </c>
+      <c r="AK267">
+        <v>1.26</v>
+      </c>
+      <c r="AL267">
+        <v>1.35</v>
+      </c>
+      <c r="AM267">
+        <v>1.76</v>
+      </c>
+      <c r="AN267">
+        <v>1.5</v>
+      </c>
+      <c r="AO267">
+        <v>1.33</v>
+      </c>
+      <c r="AP267">
+        <v>1.42</v>
+      </c>
+      <c r="AQ267">
+        <v>1.42</v>
+      </c>
+      <c r="AR267">
+        <v>1.68</v>
+      </c>
+      <c r="AS267">
+        <v>1.49</v>
+      </c>
+      <c r="AT267">
+        <v>3.17</v>
+      </c>
+      <c r="AU267">
+        <v>4</v>
+      </c>
+      <c r="AV267">
+        <v>6</v>
+      </c>
+      <c r="AW267">
+        <v>7</v>
+      </c>
+      <c r="AX267">
+        <v>4</v>
+      </c>
+      <c r="AY267">
+        <v>11</v>
+      </c>
+      <c r="AZ267">
+        <v>10</v>
+      </c>
+      <c r="BA267">
+        <v>7</v>
+      </c>
+      <c r="BB267">
+        <v>1</v>
+      </c>
+      <c r="BC267">
+        <v>8</v>
+      </c>
+      <c r="BD267">
+        <v>1.62</v>
+      </c>
+      <c r="BE267">
+        <v>7.7</v>
+      </c>
+      <c r="BF267">
+        <v>2.91</v>
+      </c>
+      <c r="BG267">
+        <v>1.27</v>
+      </c>
+      <c r="BH267">
+        <v>3.55</v>
+      </c>
+      <c r="BI267">
+        <v>1.52</v>
+      </c>
+      <c r="BJ267">
+        <v>2.33</v>
+      </c>
+      <c r="BK267">
+        <v>2</v>
+      </c>
+      <c r="BL267">
+        <v>1.8</v>
+      </c>
+      <c r="BM267">
+        <v>2.45</v>
+      </c>
+      <c r="BN267">
+        <v>1.47</v>
+      </c>
+      <c r="BO267">
+        <v>3.3</v>
+      </c>
+      <c r="BP267">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,12 @@
     <t>['44', '65']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['7', '71']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -824,9 +830,6 @@
   </si>
   <si>
     <t>['8', '78']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['22', '35', '40']</t>
@@ -1404,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP267"/>
+  <dimension ref="A1:BP269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2568,7 +2571,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2693,7 +2696,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2771,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ7">
         <v>0.78</v>
@@ -3105,7 +3108,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3311,7 +3314,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4135,7 +4138,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4753,7 +4756,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4959,7 +4962,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5371,7 +5374,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6070,7 +6073,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6195,7 +6198,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6607,7 +6610,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6891,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7225,7 +7228,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7637,7 +7640,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7715,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ31">
         <v>0.73</v>
@@ -8336,7 +8339,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ34">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR34">
         <v>1.54</v>
@@ -9285,7 +9288,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9697,7 +9700,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9903,7 +9906,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10933,7 +10936,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11345,7 +11348,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11551,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11835,7 +11838,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
         <v>1.3</v>
@@ -11963,7 +11966,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12375,7 +12378,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12662,7 +12665,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -12993,7 +12996,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13199,7 +13202,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13611,7 +13614,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14229,7 +14232,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14435,7 +14438,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14925,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -15259,7 +15262,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15340,7 +15343,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ68">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15671,7 +15674,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15955,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ71">
         <v>0.78</v>
@@ -16289,7 +16292,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16495,7 +16498,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16907,7 +16910,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -18430,7 +18433,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18555,7 +18558,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19173,7 +19176,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19997,7 +20000,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20821,7 +20824,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21314,7 +21317,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR97">
         <v>1.9</v>
@@ -21439,7 +21442,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21851,7 +21854,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22263,7 +22266,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -23087,7 +23090,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23374,7 +23377,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23705,7 +23708,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23783,7 +23786,7 @@
         <v>2.33</v>
       </c>
       <c r="AP109">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -23911,7 +23914,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24117,7 +24120,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24323,7 +24326,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24401,7 +24404,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24529,7 +24532,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24941,7 +24944,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25765,7 +25768,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25846,7 +25849,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR119">
         <v>2.14</v>
@@ -26383,7 +26386,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27619,7 +27622,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28933,7 +28936,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ134">
         <v>0.33</v>
@@ -29061,7 +29064,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29267,7 +29270,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29345,7 +29348,7 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
         <v>1.8</v>
@@ -29473,7 +29476,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29679,7 +29682,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29885,7 +29888,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29966,7 +29969,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR139">
         <v>1.56</v>
@@ -30091,7 +30094,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30584,7 +30587,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -31121,7 +31124,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -32357,7 +32360,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32769,7 +32772,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33181,7 +33184,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33387,7 +33390,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33593,7 +33596,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -34005,7 +34008,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34495,7 +34498,7 @@
         <v>0.8</v>
       </c>
       <c r="AP161">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ161">
         <v>0.63</v>
@@ -34623,7 +34626,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34907,10 +34910,10 @@
         <v>1.6</v>
       </c>
       <c r="AP163">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ163">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR163">
         <v>2.03</v>
@@ -35447,7 +35450,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35653,7 +35656,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35859,7 +35862,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36477,7 +36480,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36683,7 +36686,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37173,7 +37176,7 @@
         <v>0.67</v>
       </c>
       <c r="AP174">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ174">
         <v>1.22</v>
@@ -37301,7 +37304,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37507,7 +37510,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37713,7 +37716,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38537,7 +38540,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39442,7 +39445,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR185">
         <v>1.41</v>
@@ -39567,7 +39570,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39979,7 +39982,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40185,7 +40188,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40472,7 +40475,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ190">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR190">
         <v>1.46</v>
@@ -40597,7 +40600,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40803,7 +40806,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -41009,7 +41012,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41499,7 +41502,7 @@
         <v>2.5</v>
       </c>
       <c r="AP195">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ195">
         <v>1.89</v>
@@ -42245,7 +42248,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42326,7 +42329,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ199">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR199">
         <v>2.01</v>
@@ -42451,7 +42454,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42532,7 +42535,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ200">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42738,7 +42741,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ201">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -42944,7 +42947,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ202">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR202">
         <v>2.2</v>
@@ -43150,7 +43153,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ203">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR203">
         <v>2.12</v>
@@ -43275,7 +43278,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43562,7 +43565,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ205">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR205">
         <v>1.67</v>
@@ -43687,7 +43690,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -44099,7 +44102,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44305,7 +44308,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44386,7 +44389,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ209">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR209">
         <v>1.74</v>
@@ -45129,7 +45132,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45335,7 +45338,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45622,7 +45625,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ215">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -45828,7 +45831,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ216">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR216">
         <v>1.89</v>
@@ -46571,7 +46574,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46777,7 +46780,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47267,7 +47270,7 @@
         <v>1.53</v>
       </c>
       <c r="AP223">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ223">
         <v>1.53</v>
@@ -47473,7 +47476,7 @@
         <v>0.87</v>
       </c>
       <c r="AP224">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ224">
         <v>0.83</v>
@@ -47807,7 +47810,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -47888,7 +47891,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ226">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR226">
         <v>1.22</v>
@@ -48219,7 +48222,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48915,7 +48918,7 @@
         <v>1.6</v>
       </c>
       <c r="AP231">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ231">
         <v>1.42</v>
@@ -49043,7 +49046,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49249,7 +49252,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49661,7 +49664,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -50357,10 +50360,10 @@
         <v>1.88</v>
       </c>
       <c r="AP238">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AQ238">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR238">
         <v>1.73</v>
@@ -51184,7 +51187,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ242">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR242">
         <v>1.68</v>
@@ -51596,7 +51599,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ244">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR244">
         <v>1.83</v>
@@ -51927,7 +51930,7 @@
         <v>115</v>
       </c>
       <c r="P246" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52005,7 +52008,7 @@
         <v>0.82</v>
       </c>
       <c r="AP246">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ246">
         <v>0.83</v>
@@ -52417,10 +52420,10 @@
         <v>1.83</v>
       </c>
       <c r="AP248">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ248">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR248">
         <v>1.36</v>
@@ -52751,7 +52754,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52832,7 +52835,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ250">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR250">
         <v>1.22</v>
@@ -53369,7 +53372,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53781,7 +53784,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53987,7 +53990,7 @@
         <v>98</v>
       </c>
       <c r="P256" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54811,7 +54814,7 @@
         <v>248</v>
       </c>
       <c r="P260" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -56253,7 +56256,7 @@
         <v>98</v>
       </c>
       <c r="P267" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q267">
         <v>3.1</v>
@@ -56410,6 +56413,418 @@
       </c>
       <c r="BP267">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7345172</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="F268">
+        <v>5</v>
+      </c>
+      <c r="G268" t="s">
+        <v>92</v>
+      </c>
+      <c r="H268" t="s">
+        <v>88</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
+        <v>254</v>
+      </c>
+      <c r="P268" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q268">
+        <v>2.63</v>
+      </c>
+      <c r="R268">
+        <v>2</v>
+      </c>
+      <c r="S268">
+        <v>5</v>
+      </c>
+      <c r="T268">
+        <v>1.53</v>
+      </c>
+      <c r="U268">
+        <v>2.38</v>
+      </c>
+      <c r="V268">
+        <v>3.75</v>
+      </c>
+      <c r="W268">
+        <v>1.25</v>
+      </c>
+      <c r="X268">
+        <v>11</v>
+      </c>
+      <c r="Y268">
+        <v>1.05</v>
+      </c>
+      <c r="Z268">
+        <v>1.91</v>
+      </c>
+      <c r="AA268">
+        <v>3.1</v>
+      </c>
+      <c r="AB268">
+        <v>4.5</v>
+      </c>
+      <c r="AC268">
+        <v>1.08</v>
+      </c>
+      <c r="AD268">
+        <v>7.2</v>
+      </c>
+      <c r="AE268">
+        <v>1.46</v>
+      </c>
+      <c r="AF268">
+        <v>2.65</v>
+      </c>
+      <c r="AG268">
+        <v>2.4</v>
+      </c>
+      <c r="AH268">
+        <v>1.53</v>
+      </c>
+      <c r="AI268">
+        <v>2.1</v>
+      </c>
+      <c r="AJ268">
+        <v>1.67</v>
+      </c>
+      <c r="AK268">
+        <v>1.28</v>
+      </c>
+      <c r="AL268">
+        <v>1.3</v>
+      </c>
+      <c r="AM268">
+        <v>1.75</v>
+      </c>
+      <c r="AN268">
+        <v>1.74</v>
+      </c>
+      <c r="AO268">
+        <v>1.67</v>
+      </c>
+      <c r="AP268">
+        <v>1.8</v>
+      </c>
+      <c r="AQ268">
+        <v>1.59</v>
+      </c>
+      <c r="AR268">
+        <v>1.64</v>
+      </c>
+      <c r="AS268">
+        <v>1.44</v>
+      </c>
+      <c r="AT268">
+        <v>3.08</v>
+      </c>
+      <c r="AU268">
+        <v>4</v>
+      </c>
+      <c r="AV268">
+        <v>4</v>
+      </c>
+      <c r="AW268">
+        <v>5</v>
+      </c>
+      <c r="AX268">
+        <v>4</v>
+      </c>
+      <c r="AY268">
+        <v>9</v>
+      </c>
+      <c r="AZ268">
+        <v>8</v>
+      </c>
+      <c r="BA268">
+        <v>5</v>
+      </c>
+      <c r="BB268">
+        <v>5</v>
+      </c>
+      <c r="BC268">
+        <v>10</v>
+      </c>
+      <c r="BD268">
+        <v>1.57</v>
+      </c>
+      <c r="BE268">
+        <v>7.6</v>
+      </c>
+      <c r="BF268">
+        <v>3.1</v>
+      </c>
+      <c r="BG268">
+        <v>1.36</v>
+      </c>
+      <c r="BH268">
+        <v>2.8</v>
+      </c>
+      <c r="BI268">
+        <v>1.67</v>
+      </c>
+      <c r="BJ268">
+        <v>2.1</v>
+      </c>
+      <c r="BK268">
+        <v>2.1</v>
+      </c>
+      <c r="BL268">
+        <v>1.64</v>
+      </c>
+      <c r="BM268">
+        <v>2.8</v>
+      </c>
+      <c r="BN268">
+        <v>1.37</v>
+      </c>
+      <c r="BO268">
+        <v>3.85</v>
+      </c>
+      <c r="BP268">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7345173</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="F269">
+        <v>5</v>
+      </c>
+      <c r="G269" t="s">
+        <v>75</v>
+      </c>
+      <c r="H269" t="s">
+        <v>79</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+      <c r="N269">
+        <v>3</v>
+      </c>
+      <c r="O269" t="s">
+        <v>255</v>
+      </c>
+      <c r="P269" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q269">
+        <v>2.5</v>
+      </c>
+      <c r="R269">
+        <v>1.91</v>
+      </c>
+      <c r="S269">
+        <v>6.5</v>
+      </c>
+      <c r="T269">
+        <v>1.5</v>
+      </c>
+      <c r="U269">
+        <v>2.5</v>
+      </c>
+      <c r="V269">
+        <v>3.5</v>
+      </c>
+      <c r="W269">
+        <v>1.29</v>
+      </c>
+      <c r="X269">
+        <v>11</v>
+      </c>
+      <c r="Y269">
+        <v>1.05</v>
+      </c>
+      <c r="Z269">
+        <v>1.73</v>
+      </c>
+      <c r="AA269">
+        <v>3.2</v>
+      </c>
+      <c r="AB269">
+        <v>6</v>
+      </c>
+      <c r="AC269">
+        <v>1.05</v>
+      </c>
+      <c r="AD269">
+        <v>6.95</v>
+      </c>
+      <c r="AE269">
+        <v>1.42</v>
+      </c>
+      <c r="AF269">
+        <v>2.57</v>
+      </c>
+      <c r="AG269">
+        <v>2.88</v>
+      </c>
+      <c r="AH269">
+        <v>1.4</v>
+      </c>
+      <c r="AI269">
+        <v>2.5</v>
+      </c>
+      <c r="AJ269">
+        <v>1.5</v>
+      </c>
+      <c r="AK269">
+        <v>1.16</v>
+      </c>
+      <c r="AL269">
+        <v>1.26</v>
+      </c>
+      <c r="AM269">
+        <v>2.15</v>
+      </c>
+      <c r="AN269">
+        <v>1.89</v>
+      </c>
+      <c r="AO269">
+        <v>1.28</v>
+      </c>
+      <c r="AP269">
+        <v>1.95</v>
+      </c>
+      <c r="AQ269">
+        <v>1.21</v>
+      </c>
+      <c r="AR269">
+        <v>1.92</v>
+      </c>
+      <c r="AS269">
+        <v>1.35</v>
+      </c>
+      <c r="AT269">
+        <v>3.27</v>
+      </c>
+      <c r="AU269">
+        <v>7</v>
+      </c>
+      <c r="AV269">
+        <v>3</v>
+      </c>
+      <c r="AW269">
+        <v>7</v>
+      </c>
+      <c r="AX269">
+        <v>7</v>
+      </c>
+      <c r="AY269">
+        <v>14</v>
+      </c>
+      <c r="AZ269">
+        <v>10</v>
+      </c>
+      <c r="BA269">
+        <v>7</v>
+      </c>
+      <c r="BB269">
+        <v>4</v>
+      </c>
+      <c r="BC269">
+        <v>11</v>
+      </c>
+      <c r="BD269">
+        <v>1.59</v>
+      </c>
+      <c r="BE269">
+        <v>7.8</v>
+      </c>
+      <c r="BF269">
+        <v>3</v>
+      </c>
+      <c r="BG269">
+        <v>1.4</v>
+      </c>
+      <c r="BH269">
+        <v>2.7</v>
+      </c>
+      <c r="BI269">
+        <v>1.73</v>
+      </c>
+      <c r="BJ269">
+        <v>2</v>
+      </c>
+      <c r="BK269">
+        <v>2.2</v>
+      </c>
+      <c r="BL269">
+        <v>1.58</v>
+      </c>
+      <c r="BM269">
+        <v>2.95</v>
+      </c>
+      <c r="BN269">
+        <v>1.34</v>
+      </c>
+      <c r="BO269">
+        <v>4.1</v>
+      </c>
+      <c r="BP269">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -784,6 +784,9 @@
     <t>['7', '71']</t>
   </si>
   <si>
+    <t>['79', '83']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1046,6 +1049,9 @@
   </si>
   <si>
     <t>['8', '57']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP269"/>
+  <dimension ref="A1:BP272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2156,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ4">
         <v>0.73</v>
@@ -2696,7 +2702,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3108,7 +3114,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3314,7 +3320,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4013,7 +4019,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4138,7 +4144,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4756,7 +4762,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4834,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ17">
         <v>1.7</v>
@@ -4962,7 +4968,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5043,7 +5049,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5374,7 +5380,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -6198,7 +6204,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6279,7 +6285,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ24">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6610,7 +6616,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7100,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28">
         <v>1.4</v>
@@ -7228,7 +7234,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7640,7 +7646,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -9288,7 +9294,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9700,7 +9706,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9906,7 +9912,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9987,7 +9993,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ42">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10190,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ43">
         <v>0.78</v>
@@ -10399,7 +10405,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ44">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR44">
         <v>1.02</v>
@@ -10602,7 +10608,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ45">
         <v>1.78</v>
@@ -10936,7 +10942,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11014,7 +11020,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47">
         <v>1.44</v>
@@ -11348,7 +11354,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11429,7 +11435,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11554,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11841,7 +11847,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -12378,7 +12384,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12996,7 +13002,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13202,7 +13208,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13614,7 +13620,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14232,7 +14238,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14438,7 +14444,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14519,7 +14525,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -15134,7 +15140,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -15262,7 +15268,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15674,7 +15680,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16292,7 +16298,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16498,7 +16504,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16910,7 +16916,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -18430,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ83">
         <v>0.9</v>
@@ -18558,7 +18564,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18639,7 +18645,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR84">
         <v>1.76</v>
@@ -19176,7 +19182,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19460,10 +19466,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ88">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR88">
         <v>1.09</v>
@@ -19666,10 +19672,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -20000,7 +20006,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20824,7 +20830,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21442,7 +21448,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21854,7 +21860,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22138,7 +22144,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101">
         <v>0.73</v>
@@ -22266,7 +22272,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -23090,7 +23096,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23374,7 +23380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107">
         <v>1.31</v>
@@ -23708,7 +23714,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23914,7 +23920,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24120,7 +24126,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24326,7 +24332,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24532,7 +24538,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24613,7 +24619,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR113">
         <v>1.66</v>
@@ -24944,7 +24950,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25768,7 +25774,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26052,7 +26058,7 @@
         <v>1.25</v>
       </c>
       <c r="AP120">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ120">
         <v>1.36</v>
@@ -26261,7 +26267,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ121">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR121">
         <v>2.1</v>
@@ -26386,7 +26392,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26464,7 +26470,7 @@
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ122">
         <v>1.2</v>
@@ -27291,7 +27297,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ126">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27622,7 +27628,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28321,7 +28327,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR131">
         <v>1.26</v>
@@ -28730,7 +28736,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ133">
         <v>0.78</v>
@@ -29064,7 +29070,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29270,7 +29276,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29476,7 +29482,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29682,7 +29688,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29888,7 +29894,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30094,7 +30100,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30999,7 +31005,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ144">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31124,7 +31130,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31202,10 +31208,10 @@
         <v>0.6</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ145">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR145">
         <v>1.88</v>
@@ -32360,7 +32366,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32438,7 +32444,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ151">
         <v>0.5</v>
@@ -32772,7 +32778,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33184,7 +33190,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33390,7 +33396,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33596,7 +33602,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -34008,7 +34014,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34292,7 +34298,7 @@
         <v>1.8</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ160">
         <v>1.33</v>
@@ -34501,7 +34507,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ161">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34626,7 +34632,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35450,7 +35456,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35656,7 +35662,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35862,7 +35868,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36480,7 +36486,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36686,7 +36692,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36767,7 +36773,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ172">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR172">
         <v>1.58</v>
@@ -37179,7 +37185,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ174">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR174">
         <v>2.02</v>
@@ -37304,7 +37310,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37382,7 +37388,7 @@
         <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37510,7 +37516,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37588,7 +37594,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ176">
         <v>0.78</v>
@@ -37716,7 +37722,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38540,7 +38546,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39236,7 +39242,7 @@
         <v>0.33</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ184">
         <v>0.33</v>
@@ -39570,7 +39576,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39857,7 +39863,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ187">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR187">
         <v>1.31</v>
@@ -39982,7 +39988,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40188,7 +40194,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40600,7 +40606,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40806,7 +40812,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -41012,7 +41018,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41917,7 +41923,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ197">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR197">
         <v>1.7</v>
@@ -42248,7 +42254,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42454,7 +42460,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -43278,7 +43284,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43690,7 +43696,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43974,10 +43980,10 @@
         <v>1.8</v>
       </c>
       <c r="AP207">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ207">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR207">
         <v>1.3</v>
@@ -44102,7 +44108,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44308,7 +44314,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -45007,7 +45013,7 @@
         <v>1</v>
       </c>
       <c r="AQ212">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR212">
         <v>1.26</v>
@@ -45132,7 +45138,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45338,7 +45344,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45419,7 +45425,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ214">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -45622,7 +45628,7 @@
         <v>1.93</v>
       </c>
       <c r="AP215">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ215">
         <v>1.8</v>
@@ -46034,7 +46040,7 @@
         <v>1.21</v>
       </c>
       <c r="AP217">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ217">
         <v>1.11</v>
@@ -46240,7 +46246,7 @@
         <v>1.81</v>
       </c>
       <c r="AP218">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ218">
         <v>1.68</v>
@@ -46574,7 +46580,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46652,7 +46658,7 @@
         <v>1.27</v>
       </c>
       <c r="AP220">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ220">
         <v>1.37</v>
@@ -46780,7 +46786,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46861,7 +46867,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ221">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR221">
         <v>1.45</v>
@@ -47479,7 +47485,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ224">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR224">
         <v>2</v>
@@ -47685,7 +47691,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ225">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR225">
         <v>1.45</v>
@@ -47810,7 +47816,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -48222,7 +48228,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48300,7 +48306,7 @@
         <v>1.53</v>
       </c>
       <c r="AP228">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ228">
         <v>1.63</v>
@@ -49046,7 +49052,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49252,7 +49258,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49664,7 +49670,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -50157,7 +50163,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ237">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR237">
         <v>1.68</v>
@@ -50566,7 +50572,7 @@
         <v>1.31</v>
       </c>
       <c r="AP239">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ239">
         <v>1.42</v>
@@ -50775,7 +50781,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ240">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR240">
         <v>1.33</v>
@@ -51390,7 +51396,7 @@
         <v>1.76</v>
       </c>
       <c r="AP243">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ243">
         <v>1.5</v>
@@ -51596,7 +51602,7 @@
         <v>1.19</v>
       </c>
       <c r="AP244">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ244">
         <v>1.21</v>
@@ -51930,7 +51936,7 @@
         <v>115</v>
       </c>
       <c r="P246" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52011,7 +52017,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ246">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR246">
         <v>1.69</v>
@@ -52754,7 +52760,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -53372,7 +53378,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53450,7 +53456,7 @@
         <v>0.59</v>
       </c>
       <c r="AP253">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ253">
         <v>0.84</v>
@@ -53656,7 +53662,7 @@
         <v>1.47</v>
       </c>
       <c r="AP254">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ254">
         <v>1.53</v>
@@ -53784,7 +53790,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53990,7 +53996,7 @@
         <v>98</v>
       </c>
       <c r="P256" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54071,7 +54077,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ256">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR256">
         <v>1.58</v>
@@ -54274,10 +54280,10 @@
         <v>1.59</v>
       </c>
       <c r="AP257">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ257">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR257">
         <v>1.32</v>
@@ -54814,7 +54820,7 @@
         <v>248</v>
       </c>
       <c r="P260" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -56256,7 +56262,7 @@
         <v>98</v>
       </c>
       <c r="P267" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q267">
         <v>3.1</v>
@@ -56825,6 +56831,624 @@
       </c>
       <c r="BP269">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7345166</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45458.66666666666</v>
+      </c>
+      <c r="F270">
+        <v>5</v>
+      </c>
+      <c r="G270" t="s">
+        <v>93</v>
+      </c>
+      <c r="H270" t="s">
+        <v>78</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>3</v>
+      </c>
+      <c r="O270" t="s">
+        <v>256</v>
+      </c>
+      <c r="P270" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q270">
+        <v>3.25</v>
+      </c>
+      <c r="R270">
+        <v>1.73</v>
+      </c>
+      <c r="S270">
+        <v>4.75</v>
+      </c>
+      <c r="T270">
+        <v>1.67</v>
+      </c>
+      <c r="U270">
+        <v>2.1</v>
+      </c>
+      <c r="V270">
+        <v>4.33</v>
+      </c>
+      <c r="W270">
+        <v>1.2</v>
+      </c>
+      <c r="X270">
+        <v>15</v>
+      </c>
+      <c r="Y270">
+        <v>1.03</v>
+      </c>
+      <c r="Z270">
+        <v>2.25</v>
+      </c>
+      <c r="AA270">
+        <v>2.88</v>
+      </c>
+      <c r="AB270">
+        <v>3.8</v>
+      </c>
+      <c r="AC270">
+        <v>1.14</v>
+      </c>
+      <c r="AD270">
+        <v>5.7</v>
+      </c>
+      <c r="AE270">
+        <v>1.6</v>
+      </c>
+      <c r="AF270">
+        <v>2.2</v>
+      </c>
+      <c r="AG270">
+        <v>3.6</v>
+      </c>
+      <c r="AH270">
+        <v>1.29</v>
+      </c>
+      <c r="AI270">
+        <v>2.63</v>
+      </c>
+      <c r="AJ270">
+        <v>1.44</v>
+      </c>
+      <c r="AK270">
+        <v>1.3</v>
+      </c>
+      <c r="AL270">
+        <v>1.4</v>
+      </c>
+      <c r="AM270">
+        <v>1.62</v>
+      </c>
+      <c r="AN270">
+        <v>1.67</v>
+      </c>
+      <c r="AO270">
+        <v>1</v>
+      </c>
+      <c r="AP270">
+        <v>1.74</v>
+      </c>
+      <c r="AQ270">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR270">
+        <v>1.8</v>
+      </c>
+      <c r="AS270">
+        <v>1.17</v>
+      </c>
+      <c r="AT270">
+        <v>2.97</v>
+      </c>
+      <c r="AU270">
+        <v>9</v>
+      </c>
+      <c r="AV270">
+        <v>4</v>
+      </c>
+      <c r="AW270">
+        <v>4</v>
+      </c>
+      <c r="AX270">
+        <v>1</v>
+      </c>
+      <c r="AY270">
+        <v>13</v>
+      </c>
+      <c r="AZ270">
+        <v>5</v>
+      </c>
+      <c r="BA270">
+        <v>7</v>
+      </c>
+      <c r="BB270">
+        <v>2</v>
+      </c>
+      <c r="BC270">
+        <v>9</v>
+      </c>
+      <c r="BD270">
+        <v>1.6</v>
+      </c>
+      <c r="BE270">
+        <v>7.5</v>
+      </c>
+      <c r="BF270">
+        <v>3.01</v>
+      </c>
+      <c r="BG270">
+        <v>1.35</v>
+      </c>
+      <c r="BH270">
+        <v>3</v>
+      </c>
+      <c r="BI270">
+        <v>1.62</v>
+      </c>
+      <c r="BJ270">
+        <v>2.2</v>
+      </c>
+      <c r="BK270">
+        <v>2</v>
+      </c>
+      <c r="BL270">
+        <v>1.75</v>
+      </c>
+      <c r="BM270">
+        <v>2.6</v>
+      </c>
+      <c r="BN270">
+        <v>1.45</v>
+      </c>
+      <c r="BO270">
+        <v>3.55</v>
+      </c>
+      <c r="BP270">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7345167</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45458.75</v>
+      </c>
+      <c r="F271">
+        <v>5</v>
+      </c>
+      <c r="G271" t="s">
+        <v>84</v>
+      </c>
+      <c r="H271" t="s">
+        <v>76</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>193</v>
+      </c>
+      <c r="P271" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q271">
+        <v>2.38</v>
+      </c>
+      <c r="R271">
+        <v>1.95</v>
+      </c>
+      <c r="S271">
+        <v>6.5</v>
+      </c>
+      <c r="T271">
+        <v>1.5</v>
+      </c>
+      <c r="U271">
+        <v>2.5</v>
+      </c>
+      <c r="V271">
+        <v>3.4</v>
+      </c>
+      <c r="W271">
+        <v>1.3</v>
+      </c>
+      <c r="X271">
+        <v>10</v>
+      </c>
+      <c r="Y271">
+        <v>1.06</v>
+      </c>
+      <c r="Z271">
+        <v>1.67</v>
+      </c>
+      <c r="AA271">
+        <v>3.5</v>
+      </c>
+      <c r="AB271">
+        <v>6</v>
+      </c>
+      <c r="AC271">
+        <v>1.08</v>
+      </c>
+      <c r="AD271">
+        <v>8.6</v>
+      </c>
+      <c r="AE271">
+        <v>1.42</v>
+      </c>
+      <c r="AF271">
+        <v>2.79</v>
+      </c>
+      <c r="AG271">
+        <v>2.6</v>
+      </c>
+      <c r="AH271">
+        <v>1.48</v>
+      </c>
+      <c r="AI271">
+        <v>2.5</v>
+      </c>
+      <c r="AJ271">
+        <v>1.5</v>
+      </c>
+      <c r="AK271">
+        <v>1.12</v>
+      </c>
+      <c r="AL271">
+        <v>1.24</v>
+      </c>
+      <c r="AM271">
+        <v>2.3</v>
+      </c>
+      <c r="AN271">
+        <v>1.44</v>
+      </c>
+      <c r="AO271">
+        <v>0.83</v>
+      </c>
+      <c r="AP271">
+        <v>1.53</v>
+      </c>
+      <c r="AQ271">
+        <v>0.79</v>
+      </c>
+      <c r="AR271">
+        <v>1.3</v>
+      </c>
+      <c r="AS271">
+        <v>1.27</v>
+      </c>
+      <c r="AT271">
+        <v>2.57</v>
+      </c>
+      <c r="AU271">
+        <v>5</v>
+      </c>
+      <c r="AV271">
+        <v>4</v>
+      </c>
+      <c r="AW271">
+        <v>3</v>
+      </c>
+      <c r="AX271">
+        <v>6</v>
+      </c>
+      <c r="AY271">
+        <v>8</v>
+      </c>
+      <c r="AZ271">
+        <v>10</v>
+      </c>
+      <c r="BA271">
+        <v>2</v>
+      </c>
+      <c r="BB271">
+        <v>4</v>
+      </c>
+      <c r="BC271">
+        <v>6</v>
+      </c>
+      <c r="BD271">
+        <v>1.33</v>
+      </c>
+      <c r="BE271">
+        <v>8.1</v>
+      </c>
+      <c r="BF271">
+        <v>4.66</v>
+      </c>
+      <c r="BG271">
+        <v>1.4</v>
+      </c>
+      <c r="BH271">
+        <v>2.75</v>
+      </c>
+      <c r="BI271">
+        <v>1.72</v>
+      </c>
+      <c r="BJ271">
+        <v>2.05</v>
+      </c>
+      <c r="BK271">
+        <v>2.2</v>
+      </c>
+      <c r="BL271">
+        <v>1.65</v>
+      </c>
+      <c r="BM271">
+        <v>2.85</v>
+      </c>
+      <c r="BN271">
+        <v>1.38</v>
+      </c>
+      <c r="BO271">
+        <v>4</v>
+      </c>
+      <c r="BP271">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7345171</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272" t="s">
+        <v>72</v>
+      </c>
+      <c r="H272" t="s">
+        <v>90</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>2</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>191</v>
+      </c>
+      <c r="P272" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q272">
+        <v>2.63</v>
+      </c>
+      <c r="R272">
+        <v>2</v>
+      </c>
+      <c r="S272">
+        <v>5</v>
+      </c>
+      <c r="T272">
+        <v>1.53</v>
+      </c>
+      <c r="U272">
+        <v>2.38</v>
+      </c>
+      <c r="V272">
+        <v>3.5</v>
+      </c>
+      <c r="W272">
+        <v>1.29</v>
+      </c>
+      <c r="X272">
+        <v>11</v>
+      </c>
+      <c r="Y272">
+        <v>1.05</v>
+      </c>
+      <c r="Z272">
+        <v>1.91</v>
+      </c>
+      <c r="AA272">
+        <v>3.4</v>
+      </c>
+      <c r="AB272">
+        <v>4.1</v>
+      </c>
+      <c r="AC272">
+        <v>1.08</v>
+      </c>
+      <c r="AD272">
+        <v>7.6</v>
+      </c>
+      <c r="AE272">
+        <v>1.43</v>
+      </c>
+      <c r="AF272">
+        <v>2.54</v>
+      </c>
+      <c r="AG272">
+        <v>2.35</v>
+      </c>
+      <c r="AH272">
+        <v>1.57</v>
+      </c>
+      <c r="AI272">
+        <v>2.1</v>
+      </c>
+      <c r="AJ272">
+        <v>1.67</v>
+      </c>
+      <c r="AK272">
+        <v>1.26</v>
+      </c>
+      <c r="AL272">
+        <v>1.3</v>
+      </c>
+      <c r="AM272">
+        <v>1.78</v>
+      </c>
+      <c r="AN272">
+        <v>0.83</v>
+      </c>
+      <c r="AO272">
+        <v>1.53</v>
+      </c>
+      <c r="AP272">
+        <v>0.84</v>
+      </c>
+      <c r="AQ272">
+        <v>1.5</v>
+      </c>
+      <c r="AR272">
+        <v>1.88</v>
+      </c>
+      <c r="AS272">
+        <v>1.32</v>
+      </c>
+      <c r="AT272">
+        <v>3.2</v>
+      </c>
+      <c r="AU272">
+        <v>6</v>
+      </c>
+      <c r="AV272">
+        <v>6</v>
+      </c>
+      <c r="AW272">
+        <v>7</v>
+      </c>
+      <c r="AX272">
+        <v>8</v>
+      </c>
+      <c r="AY272">
+        <v>13</v>
+      </c>
+      <c r="AZ272">
+        <v>14</v>
+      </c>
+      <c r="BA272">
+        <v>3</v>
+      </c>
+      <c r="BB272">
+        <v>4</v>
+      </c>
+      <c r="BC272">
+        <v>7</v>
+      </c>
+      <c r="BD272">
+        <v>1.62</v>
+      </c>
+      <c r="BE272">
+        <v>7.7</v>
+      </c>
+      <c r="BF272">
+        <v>2.91</v>
+      </c>
+      <c r="BG272">
+        <v>1.27</v>
+      </c>
+      <c r="BH272">
+        <v>3.55</v>
+      </c>
+      <c r="BI272">
+        <v>1.48</v>
+      </c>
+      <c r="BJ272">
+        <v>2.5</v>
+      </c>
+      <c r="BK272">
+        <v>1.8</v>
+      </c>
+      <c r="BL272">
+        <v>1.95</v>
+      </c>
+      <c r="BM272">
+        <v>2.25</v>
+      </c>
+      <c r="BN272">
+        <v>1.57</v>
+      </c>
+      <c r="BO272">
+        <v>2.95</v>
+      </c>
+      <c r="BP272">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,36 @@
     <t>['89', '90+1']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['13', '58']</t>
+  </si>
+  <si>
+    <t>['29', '85']</t>
+  </si>
+  <si>
+    <t>['3', '52']</t>
+  </si>
+  <si>
+    <t>['56', '90+2']</t>
+  </si>
+  <si>
+    <t>['58', '67']</t>
+  </si>
+  <si>
+    <t>['44', '65']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['7', '71']</t>
+  </si>
+  <si>
+    <t>['79', '83']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -803,9 +833,6 @@
   </si>
   <si>
     <t>['8', '78']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['22', '35', '40']</t>
@@ -890,9 +917,6 @@
   </si>
   <si>
     <t>['8']</t>
-  </si>
-  <si>
-    <t>['45+3']</t>
   </si>
   <si>
     <t>['42']</t>
@@ -1022,6 +1046,12 @@
   </si>
   <si>
     <t>['42', '87']</t>
+  </si>
+  <si>
+    <t>['8', '57']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1926,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2132,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ4">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2547,7 +2577,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2672,7 +2702,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2750,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ7">
         <v>0.78</v>
@@ -3084,7 +3114,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3290,7 +3320,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3986,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4114,7 +4144,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4732,7 +4762,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4810,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ17">
         <v>1.7</v>
@@ -4938,7 +4968,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5016,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5225,7 +5255,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5350,7 +5380,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5428,7 +5458,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>1.44</v>
@@ -5840,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -6049,7 +6079,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6174,7 +6204,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6255,7 +6285,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ24">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6586,7 +6616,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6667,7 +6697,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6870,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7076,10 +7106,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7204,7 +7234,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7488,7 +7518,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ30">
         <v>0.78</v>
@@ -7616,7 +7646,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7694,10 +7724,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ31">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR31">
         <v>2.28</v>
@@ -8106,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8315,7 +8345,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ34">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR34">
         <v>1.54</v>
@@ -8521,7 +8551,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ35">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>0.9</v>
@@ -8724,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8930,7 +8960,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1.89</v>
@@ -9264,7 +9294,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9342,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>1.36</v>
@@ -9551,7 +9581,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9676,7 +9706,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9757,7 +9787,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9882,7 +9912,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9960,10 +9990,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ42">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10166,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ43">
         <v>0.78</v>
@@ -10375,7 +10405,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ44">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR44">
         <v>1.02</v>
@@ -10578,7 +10608,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ45">
         <v>1.78</v>
@@ -10912,7 +10942,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10990,7 +11020,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47">
         <v>1.44</v>
@@ -11324,7 +11354,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11405,7 +11435,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11530,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11608,10 +11638,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11814,10 +11844,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11942,7 +11972,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12354,7 +12384,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12432,10 +12462,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.2</v>
@@ -12638,10 +12668,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -12972,7 +13002,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13178,7 +13208,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13256,10 +13286,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13465,7 +13495,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13590,7 +13620,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13668,7 +13698,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ60">
         <v>0.89</v>
@@ -13874,7 +13904,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.78</v>
@@ -14080,10 +14110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ62">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR62">
         <v>1.83</v>
@@ -14208,7 +14238,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14286,7 +14316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ63">
         <v>1.89</v>
@@ -14414,7 +14444,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14492,10 +14522,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -14701,7 +14731,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -14904,10 +14934,10 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.82</v>
@@ -15110,10 +15140,10 @@
         <v>3</v>
       </c>
       <c r="AP67">
+        <v>1.3</v>
+      </c>
+      <c r="AQ67">
         <v>1.33</v>
-      </c>
-      <c r="AQ67">
-        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.68</v>
@@ -15238,7 +15268,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15316,10 +15346,10 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15650,7 +15680,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15731,7 +15761,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -15934,7 +15964,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ71">
         <v>0.78</v>
@@ -16268,7 +16298,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16474,7 +16504,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16886,7 +16916,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17173,7 +17203,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.76</v>
@@ -17376,7 +17406,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>1.36</v>
@@ -17582,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ79">
         <v>0.33</v>
@@ -18406,10 +18436,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18534,7 +18564,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18612,10 +18642,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR84">
         <v>1.76</v>
@@ -18821,7 +18851,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ85">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.69</v>
@@ -19024,10 +19054,10 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19152,7 +19182,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19436,10 +19466,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ88">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR88">
         <v>1.09</v>
@@ -19642,10 +19672,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19848,10 +19878,10 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR90">
         <v>1.4</v>
@@ -19976,7 +20006,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20260,10 +20290,10 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ92">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR92">
         <v>2.48</v>
@@ -20466,10 +20496,10 @@
         <v>0.33</v>
       </c>
       <c r="AP93">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20672,10 +20702,10 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR94">
         <v>1.3</v>
@@ -20800,7 +20830,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21290,10 +21320,10 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR97">
         <v>1.9</v>
@@ -21418,7 +21448,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21830,7 +21860,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21908,10 +21938,10 @@
         <v>3</v>
       </c>
       <c r="AP100">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
         <v>2.14</v>
@@ -22114,10 +22144,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>0.96</v>
@@ -22242,7 +22272,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22323,7 +22353,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -22526,10 +22556,10 @@
         <v>0.33</v>
       </c>
       <c r="AP103">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ103">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22735,7 +22765,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23066,7 +23096,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23144,7 +23174,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ106">
         <v>1.78</v>
@@ -23350,10 +23380,10 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23556,7 +23586,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108">
         <v>0.78</v>
@@ -23684,7 +23714,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23762,10 +23792,10 @@
         <v>2.33</v>
       </c>
       <c r="AP109">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>2.06</v>
@@ -23890,7 +23920,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23968,10 +23998,10 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR110">
         <v>2.03</v>
@@ -24096,7 +24126,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24302,7 +24332,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24380,7 +24410,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24508,7 +24538,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24586,10 +24616,10 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR113">
         <v>1.66</v>
@@ -24920,7 +24950,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25413,7 +25443,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR117">
         <v>1.88</v>
@@ -25616,7 +25646,7 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118">
         <v>0.78</v>
@@ -25744,7 +25774,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25825,7 +25855,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR119">
         <v>2.14</v>
@@ -26028,7 +26058,7 @@
         <v>1.25</v>
       </c>
       <c r="AP120">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ120">
         <v>1.36</v>
@@ -26237,7 +26267,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ121">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR121">
         <v>2.1</v>
@@ -26362,7 +26392,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26440,10 +26470,10 @@
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR122">
         <v>1.8</v>
@@ -26646,7 +26676,7 @@
         <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ123">
         <v>1.7</v>
@@ -26852,10 +26882,10 @@
         <v>0.25</v>
       </c>
       <c r="AP124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR124">
         <v>1.21</v>
@@ -27058,7 +27088,7 @@
         <v>0.25</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ125">
         <v>0.22</v>
@@ -27267,7 +27297,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ126">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27470,10 +27500,10 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR127">
         <v>1.95</v>
@@ -27598,7 +27628,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27676,10 +27706,10 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ128">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR128">
         <v>1.32</v>
@@ -27882,10 +27912,10 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28091,7 +28121,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR130">
         <v>1.23</v>
@@ -28297,7 +28327,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR131">
         <v>1.26</v>
@@ -28422,7 +28452,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28500,7 +28530,7 @@
         <v>2.25</v>
       </c>
       <c r="AP132">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>1.44</v>
@@ -28706,7 +28736,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ133">
         <v>0.78</v>
@@ -28912,7 +28942,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ134">
         <v>0.33</v>
@@ -29040,7 +29070,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29246,7 +29276,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29324,10 +29354,10 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29452,7 +29482,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29530,7 +29560,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ137">
         <v>1.89</v>
@@ -29658,7 +29688,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29864,7 +29894,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29945,7 +29975,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR139">
         <v>1.56</v>
@@ -30070,7 +30100,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30354,7 +30384,7 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ141">
         <v>1.78</v>
@@ -30560,10 +30590,10 @@
         <v>0.8</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -30975,7 +31005,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ144">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31100,7 +31130,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31178,10 +31208,10 @@
         <v>0.6</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ145">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR145">
         <v>1.88</v>
@@ -31387,7 +31417,7 @@
         <v>2</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR146">
         <v>1.91</v>
@@ -31590,7 +31620,7 @@
         <v>0.2</v>
       </c>
       <c r="AP147">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>0.22</v>
@@ -32336,7 +32366,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32414,10 +32444,10 @@
         <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ151">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR151">
         <v>1.57</v>
@@ -32620,10 +32650,10 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ152">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR152">
         <v>1.69</v>
@@ -32748,7 +32778,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33160,7 +33190,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33238,7 +33268,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ155">
         <v>1.78</v>
@@ -33366,7 +33396,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33447,7 +33477,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ156">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR156">
         <v>1.28</v>
@@ -33572,7 +33602,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33859,7 +33889,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ158">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR158">
         <v>1.69</v>
@@ -33984,7 +34014,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34062,7 +34092,7 @@
         <v>0.4</v>
       </c>
       <c r="AP159">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34268,10 +34298,10 @@
         <v>1.8</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR160">
         <v>1.18</v>
@@ -34474,10 +34504,10 @@
         <v>0.8</v>
       </c>
       <c r="AP161">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ161">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34602,7 +34632,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34683,7 +34713,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR162">
         <v>1.29</v>
@@ -34886,10 +34916,10 @@
         <v>1.6</v>
       </c>
       <c r="AP163">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ163">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR163">
         <v>2.03</v>
@@ -35092,7 +35122,7 @@
         <v>2</v>
       </c>
       <c r="AP164">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ164">
         <v>1.44</v>
@@ -35298,7 +35328,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ165">
         <v>0.67</v>
@@ -35426,7 +35456,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35504,7 +35534,7 @@
         <v>0.2</v>
       </c>
       <c r="AP166">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ166">
         <v>0.33</v>
@@ -35632,7 +35662,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35713,7 +35743,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR167">
         <v>1.49</v>
@@ -35838,7 +35868,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36456,7 +36486,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36534,7 +36564,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ171">
         <v>1.36</v>
@@ -36662,7 +36692,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36743,7 +36773,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ172">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR172">
         <v>1.58</v>
@@ -36949,7 +36979,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR173">
         <v>2.1</v>
@@ -37152,10 +37182,10 @@
         <v>0.67</v>
       </c>
       <c r="AP174">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ174">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR174">
         <v>2.02</v>
@@ -37280,7 +37310,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37358,7 +37388,7 @@
         <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37486,7 +37516,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37564,7 +37594,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ176">
         <v>0.78</v>
@@ -37692,7 +37722,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37773,7 +37803,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR177">
         <v>1.55</v>
@@ -38185,7 +38215,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ179">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR179">
         <v>2.3</v>
@@ -38388,7 +38418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ180">
         <v>0.89</v>
@@ -38516,7 +38546,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38800,7 +38830,7 @@
         <v>0.83</v>
       </c>
       <c r="AP182">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
         <v>1</v>
@@ -39006,7 +39036,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ183">
         <v>1.78</v>
@@ -39212,7 +39242,7 @@
         <v>0.33</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ184">
         <v>0.33</v>
@@ -39418,10 +39448,10 @@
         <v>0.83</v>
       </c>
       <c r="AP185">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR185">
         <v>1.41</v>
@@ -39546,7 +39576,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39624,10 +39654,10 @@
         <v>1.5</v>
       </c>
       <c r="AP186">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ186">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR186">
         <v>1.95</v>
@@ -39833,7 +39863,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ187">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR187">
         <v>1.31</v>
@@ -39958,7 +39988,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40036,10 +40066,10 @@
         <v>1.83</v>
       </c>
       <c r="AP188">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR188">
         <v>1.7</v>
@@ -40164,7 +40194,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40242,7 +40272,7 @@
         <v>1.5</v>
       </c>
       <c r="AP189">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ189">
         <v>1.7</v>
@@ -40451,7 +40481,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ190">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR190">
         <v>1.46</v>
@@ -40576,7 +40606,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40657,7 +40687,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ191">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR191">
         <v>1.51</v>
@@ -40782,7 +40812,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40863,7 +40893,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ192">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR192">
         <v>1.48</v>
@@ -40988,7 +41018,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41066,10 +41096,10 @@
         <v>1.33</v>
       </c>
       <c r="AP193">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41478,7 +41508,7 @@
         <v>2.5</v>
       </c>
       <c r="AP195">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ195">
         <v>1.89</v>
@@ -41890,10 +41920,10 @@
         <v>1.86</v>
       </c>
       <c r="AP197">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AQ197">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR197">
         <v>1.7</v>
@@ -42096,10 +42126,10 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ198">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR198">
         <v>2.23</v>
@@ -42224,7 +42254,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42302,10 +42332,10 @@
         <v>1.79</v>
       </c>
       <c r="AP199">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ199">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR199">
         <v>2.01</v>
@@ -42430,7 +42460,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42508,10 +42538,10 @@
         <v>1.92</v>
       </c>
       <c r="AP200">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ200">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42714,10 +42744,10 @@
         <v>1.87</v>
       </c>
       <c r="AP201">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AQ201">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -42920,10 +42950,10 @@
         <v>2</v>
       </c>
       <c r="AP202">
+        <v>1.71</v>
+      </c>
+      <c r="AQ202">
         <v>1.8</v>
-      </c>
-      <c r="AQ202">
-        <v>1.74</v>
       </c>
       <c r="AR202">
         <v>2.2</v>
@@ -43126,10 +43156,10 @@
         <v>1.81</v>
       </c>
       <c r="AP203">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ203">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR203">
         <v>2.12</v>
@@ -43254,7 +43284,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43332,10 +43362,10 @@
         <v>1.21</v>
       </c>
       <c r="AP204">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AQ204">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43538,10 +43568,10 @@
         <v>1.29</v>
       </c>
       <c r="AP205">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ205">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR205">
         <v>1.67</v>
@@ -43666,7 +43696,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43744,7 +43774,7 @@
         <v>1.07</v>
       </c>
       <c r="AP206">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AQ206">
         <v>1.11</v>
@@ -43950,10 +43980,10 @@
         <v>1.8</v>
       </c>
       <c r="AP207">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ207">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR207">
         <v>1.3</v>
@@ -44078,7 +44108,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44156,10 +44186,10 @@
         <v>1.73</v>
       </c>
       <c r="AP208">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ208">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR208">
         <v>1.91</v>
@@ -44284,7 +44314,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44362,10 +44392,10 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR209">
         <v>1.74</v>
@@ -44568,10 +44598,10 @@
         <v>0.79</v>
       </c>
       <c r="AP210">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ210">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR210">
         <v>2.26</v>
@@ -44774,10 +44804,10 @@
         <v>1.81</v>
       </c>
       <c r="AP211">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AQ211">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR211">
         <v>1.49</v>
@@ -44980,10 +45010,10 @@
         <v>1.14</v>
       </c>
       <c r="AP212">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ212">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR212">
         <v>1.26</v>
@@ -45108,7 +45138,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45186,10 +45216,10 @@
         <v>1.71</v>
       </c>
       <c r="AP213">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ213">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR213">
         <v>1.51</v>
@@ -45314,7 +45344,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45392,10 +45422,10 @@
         <v>0.57</v>
       </c>
       <c r="AP214">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ214">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -45598,10 +45628,10 @@
         <v>1.93</v>
       </c>
       <c r="AP215">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ215">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -45804,10 +45834,10 @@
         <v>1.76</v>
       </c>
       <c r="AP216">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ216">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR216">
         <v>1.89</v>
@@ -46010,10 +46040,10 @@
         <v>1.21</v>
       </c>
       <c r="AP217">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ217">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR217">
         <v>1.67</v>
@@ -46216,10 +46246,10 @@
         <v>1.81</v>
       </c>
       <c r="AP218">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ218">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR218">
         <v>1.42</v>
@@ -46422,10 +46452,10 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ219">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR219">
         <v>2.31</v>
@@ -46550,7 +46580,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46628,10 +46658,10 @@
         <v>1.27</v>
       </c>
       <c r="AP220">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ220">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR220">
         <v>1.64</v>
@@ -46756,7 +46786,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46834,10 +46864,10 @@
         <v>1.53</v>
       </c>
       <c r="AP221">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ221">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR221">
         <v>1.45</v>
@@ -47040,10 +47070,10 @@
         <v>0.6</v>
       </c>
       <c r="AP222">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR222">
         <v>1.52</v>
@@ -47246,10 +47276,10 @@
         <v>1.53</v>
       </c>
       <c r="AP223">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ223">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR223">
         <v>1.31</v>
@@ -47452,10 +47482,10 @@
         <v>0.87</v>
       </c>
       <c r="AP224">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ224">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR224">
         <v>2</v>
@@ -47658,10 +47688,10 @@
         <v>1.27</v>
       </c>
       <c r="AP225">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ225">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR225">
         <v>1.45</v>
@@ -47786,7 +47816,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -47864,10 +47894,10 @@
         <v>1.81</v>
       </c>
       <c r="AP226">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AQ226">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR226">
         <v>1.22</v>
@@ -48070,10 +48100,10 @@
         <v>1.07</v>
       </c>
       <c r="AP227">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ227">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR227">
         <v>2.09</v>
@@ -48198,7 +48228,7 @@
         <v>114</v>
       </c>
       <c r="P228" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q228">
         <v>3.5</v>
@@ -48276,10 +48306,10 @@
         <v>1.53</v>
       </c>
       <c r="AP228">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ228">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -48482,10 +48512,10 @@
         <v>1.82</v>
       </c>
       <c r="AP229">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ229">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AR229">
         <v>1.85</v>
@@ -48691,7 +48721,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ230">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR230">
         <v>1.56</v>
@@ -48894,10 +48924,10 @@
         <v>1.6</v>
       </c>
       <c r="AP231">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ231">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR231">
         <v>1.81</v>
@@ -49022,7 +49052,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49100,7 +49130,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ232">
         <v>1.11</v>
@@ -49228,7 +49258,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49306,10 +49336,10 @@
         <v>1.75</v>
       </c>
       <c r="AP233">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AQ233">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR233">
         <v>1.47</v>
@@ -49512,10 +49542,10 @@
         <v>1.94</v>
       </c>
       <c r="AP234">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ234">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR234">
         <v>1.44</v>
@@ -49640,7 +49670,7 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q235">
         <v>2.3</v>
@@ -49718,10 +49748,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP235">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ235">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR235">
         <v>1.47</v>
@@ -49924,10 +49954,10 @@
         <v>1.94</v>
       </c>
       <c r="AP236">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AQ236">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR236">
         <v>1.82</v>
@@ -50130,10 +50160,10 @@
         <v>1.65</v>
       </c>
       <c r="AP237">
+        <v>1.42</v>
+      </c>
+      <c r="AQ237">
         <v>1.5</v>
-      </c>
-      <c r="AQ237">
-        <v>1.53</v>
       </c>
       <c r="AR237">
         <v>1.68</v>
@@ -50336,10 +50366,10 @@
         <v>1.88</v>
       </c>
       <c r="AP238">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AQ238">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR238">
         <v>1.73</v>
@@ -50542,10 +50572,10 @@
         <v>1.31</v>
       </c>
       <c r="AP239">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ239">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR239">
         <v>1.32</v>
@@ -50748,10 +50778,10 @@
         <v>0.75</v>
       </c>
       <c r="AP240">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AQ240">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR240">
         <v>1.33</v>
@@ -50954,10 +50984,10 @@
         <v>1.13</v>
       </c>
       <c r="AP241">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ241">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR241">
         <v>1.85</v>
@@ -51160,10 +51190,10 @@
         <v>1.74</v>
       </c>
       <c r="AP242">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ242">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR242">
         <v>1.68</v>
@@ -51366,10 +51396,10 @@
         <v>1.76</v>
       </c>
       <c r="AP243">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ243">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR243">
         <v>1.69</v>
@@ -51572,10 +51602,10 @@
         <v>1.19</v>
       </c>
       <c r="AP244">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ244">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR244">
         <v>1.83</v>
@@ -51778,10 +51808,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP245">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ245">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -51906,7 +51936,7 @@
         <v>115</v>
       </c>
       <c r="P246" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -51984,10 +52014,10 @@
         <v>0.82</v>
       </c>
       <c r="AP246">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ246">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR246">
         <v>1.69</v>
@@ -52190,10 +52220,10 @@
         <v>1.79</v>
       </c>
       <c r="AP247">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ247">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AR247">
         <v>1.49</v>
@@ -52396,10 +52426,10 @@
         <v>1.83</v>
       </c>
       <c r="AP248">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ248">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR248">
         <v>1.36</v>
@@ -52605,7 +52635,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ249">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR249">
         <v>1.52</v>
@@ -52730,7 +52760,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52808,10 +52838,10 @@
         <v>1.82</v>
       </c>
       <c r="AP250">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AQ250">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR250">
         <v>1.22</v>
@@ -52936,7 +52966,7 @@
         <v>243</v>
       </c>
       <c r="P251" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="Q251">
         <v>1.67</v>
@@ -53014,10 +53044,10 @@
         <v>0.35</v>
       </c>
       <c r="AP251">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ251">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR251">
         <v>2.37</v>
@@ -53220,10 +53250,10 @@
         <v>1.35</v>
       </c>
       <c r="AP252">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ252">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR252">
         <v>1.37</v>
@@ -53348,7 +53378,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53426,10 +53456,10 @@
         <v>0.59</v>
       </c>
       <c r="AP253">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ253">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR253">
         <v>1.64</v>
@@ -53632,10 +53662,10 @@
         <v>1.47</v>
       </c>
       <c r="AP254">
+        <v>1.5</v>
+      </c>
+      <c r="AQ254">
         <v>1.53</v>
-      </c>
-      <c r="AQ254">
-        <v>1.44</v>
       </c>
       <c r="AR254">
         <v>1.54</v>
@@ -53760,7 +53790,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53838,10 +53868,10 @@
         <v>1.76</v>
       </c>
       <c r="AP255">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ255">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR255">
         <v>2.14</v>
@@ -53966,7 +53996,7 @@
         <v>98</v>
       </c>
       <c r="P256" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54044,10 +54074,10 @@
         <v>1.35</v>
       </c>
       <c r="AP256">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AQ256">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR256">
         <v>1.58</v>
@@ -54250,10 +54280,10 @@
         <v>1.59</v>
       </c>
       <c r="AP257">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ257">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR257">
         <v>1.32</v>
@@ -54456,10 +54486,10 @@
         <v>1.59</v>
       </c>
       <c r="AP258">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ258">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR258">
         <v>1.53</v>
@@ -54535,6 +54565,2890 @@
       </c>
       <c r="BP258">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7345164</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45455.70833333334</v>
+      </c>
+      <c r="F259">
+        <v>5</v>
+      </c>
+      <c r="G259" t="s">
+        <v>81</v>
+      </c>
+      <c r="H259" t="s">
+        <v>86</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>247</v>
+      </c>
+      <c r="P259" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q259">
+        <v>3</v>
+      </c>
+      <c r="R259">
+        <v>1.91</v>
+      </c>
+      <c r="S259">
+        <v>4.5</v>
+      </c>
+      <c r="T259">
+        <v>1.53</v>
+      </c>
+      <c r="U259">
+        <v>2.38</v>
+      </c>
+      <c r="V259">
+        <v>3.75</v>
+      </c>
+      <c r="W259">
+        <v>1.25</v>
+      </c>
+      <c r="X259">
+        <v>11</v>
+      </c>
+      <c r="Y259">
+        <v>1.05</v>
+      </c>
+      <c r="Z259">
+        <v>2.15</v>
+      </c>
+      <c r="AA259">
+        <v>3.1</v>
+      </c>
+      <c r="AB259">
+        <v>3.7</v>
+      </c>
+      <c r="AC259">
+        <v>1.06</v>
+      </c>
+      <c r="AD259">
+        <v>6.6</v>
+      </c>
+      <c r="AE259">
+        <v>1.5</v>
+      </c>
+      <c r="AF259">
+        <v>2.6</v>
+      </c>
+      <c r="AG259">
+        <v>2.7</v>
+      </c>
+      <c r="AH259">
+        <v>1.44</v>
+      </c>
+      <c r="AI259">
+        <v>2.25</v>
+      </c>
+      <c r="AJ259">
+        <v>1.57</v>
+      </c>
+      <c r="AK259">
+        <v>1.26</v>
+      </c>
+      <c r="AL259">
+        <v>1.3</v>
+      </c>
+      <c r="AM259">
+        <v>1.8</v>
+      </c>
+      <c r="AN259">
+        <v>1.72</v>
+      </c>
+      <c r="AO259">
+        <v>1.11</v>
+      </c>
+      <c r="AP259">
+        <v>1.68</v>
+      </c>
+      <c r="AQ259">
+        <v>1.11</v>
+      </c>
+      <c r="AR259">
+        <v>1.92</v>
+      </c>
+      <c r="AS259">
+        <v>1.07</v>
+      </c>
+      <c r="AT259">
+        <v>2.99</v>
+      </c>
+      <c r="AU259">
+        <v>4</v>
+      </c>
+      <c r="AV259">
+        <v>5</v>
+      </c>
+      <c r="AW259">
+        <v>4</v>
+      </c>
+      <c r="AX259">
+        <v>5</v>
+      </c>
+      <c r="AY259">
+        <v>8</v>
+      </c>
+      <c r="AZ259">
+        <v>10</v>
+      </c>
+      <c r="BA259">
+        <v>2</v>
+      </c>
+      <c r="BB259">
+        <v>5</v>
+      </c>
+      <c r="BC259">
+        <v>7</v>
+      </c>
+      <c r="BD259">
+        <v>1.59</v>
+      </c>
+      <c r="BE259">
+        <v>7.8</v>
+      </c>
+      <c r="BF259">
+        <v>3</v>
+      </c>
+      <c r="BG259">
+        <v>1.35</v>
+      </c>
+      <c r="BH259">
+        <v>3</v>
+      </c>
+      <c r="BI259">
+        <v>1.73</v>
+      </c>
+      <c r="BJ259">
+        <v>2</v>
+      </c>
+      <c r="BK259">
+        <v>2</v>
+      </c>
+      <c r="BL259">
+        <v>1.75</v>
+      </c>
+      <c r="BM259">
+        <v>2.6</v>
+      </c>
+      <c r="BN259">
+        <v>1.45</v>
+      </c>
+      <c r="BO259">
+        <v>3.55</v>
+      </c>
+      <c r="BP259">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7345160</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45455.79166666666</v>
+      </c>
+      <c r="F260">
+        <v>5</v>
+      </c>
+      <c r="G260" t="s">
+        <v>89</v>
+      </c>
+      <c r="H260" t="s">
+        <v>73</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>3</v>
+      </c>
+      <c r="O260" t="s">
+        <v>248</v>
+      </c>
+      <c r="P260" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q260">
+        <v>1.95</v>
+      </c>
+      <c r="R260">
+        <v>2.3</v>
+      </c>
+      <c r="S260">
+        <v>7.5</v>
+      </c>
+      <c r="T260">
+        <v>1.4</v>
+      </c>
+      <c r="U260">
+        <v>2.75</v>
+      </c>
+      <c r="V260">
+        <v>3</v>
+      </c>
+      <c r="W260">
+        <v>1.36</v>
+      </c>
+      <c r="X260">
+        <v>8</v>
+      </c>
+      <c r="Y260">
+        <v>1.08</v>
+      </c>
+      <c r="Z260">
+        <v>1.4</v>
+      </c>
+      <c r="AA260">
+        <v>4.33</v>
+      </c>
+      <c r="AB260">
+        <v>9</v>
+      </c>
+      <c r="AC260">
+        <v>1.03</v>
+      </c>
+      <c r="AD260">
+        <v>9</v>
+      </c>
+      <c r="AE260">
+        <v>1.3</v>
+      </c>
+      <c r="AF260">
+        <v>3.2</v>
+      </c>
+      <c r="AG260">
+        <v>1.85</v>
+      </c>
+      <c r="AH260">
+        <v>1.95</v>
+      </c>
+      <c r="AI260">
+        <v>2.1</v>
+      </c>
+      <c r="AJ260">
+        <v>1.67</v>
+      </c>
+      <c r="AK260">
+        <v>1.08</v>
+      </c>
+      <c r="AL260">
+        <v>1.22</v>
+      </c>
+      <c r="AM260">
+        <v>2.6</v>
+      </c>
+      <c r="AN260">
+        <v>1.7</v>
+      </c>
+      <c r="AO260">
+        <v>0.61</v>
+      </c>
+      <c r="AP260">
+        <v>1.76</v>
+      </c>
+      <c r="AQ260">
+        <v>0.58</v>
+      </c>
+      <c r="AR260">
+        <v>1.81</v>
+      </c>
+      <c r="AS260">
+        <v>1.04</v>
+      </c>
+      <c r="AT260">
+        <v>2.85</v>
+      </c>
+      <c r="AU260">
+        <v>6</v>
+      </c>
+      <c r="AV260">
+        <v>2</v>
+      </c>
+      <c r="AW260">
+        <v>5</v>
+      </c>
+      <c r="AX260">
+        <v>4</v>
+      </c>
+      <c r="AY260">
+        <v>11</v>
+      </c>
+      <c r="AZ260">
+        <v>6</v>
+      </c>
+      <c r="BA260">
+        <v>5</v>
+      </c>
+      <c r="BB260">
+        <v>0</v>
+      </c>
+      <c r="BC260">
+        <v>5</v>
+      </c>
+      <c r="BD260">
+        <v>1.28</v>
+      </c>
+      <c r="BE260">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF260">
+        <v>4.86</v>
+      </c>
+      <c r="BG260">
+        <v>1.35</v>
+      </c>
+      <c r="BH260">
+        <v>3</v>
+      </c>
+      <c r="BI260">
+        <v>1.62</v>
+      </c>
+      <c r="BJ260">
+        <v>2.2</v>
+      </c>
+      <c r="BK260">
+        <v>2.05</v>
+      </c>
+      <c r="BL260">
+        <v>1.7</v>
+      </c>
+      <c r="BM260">
+        <v>2.6</v>
+      </c>
+      <c r="BN260">
+        <v>1.45</v>
+      </c>
+      <c r="BO260">
+        <v>3.55</v>
+      </c>
+      <c r="BP260">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7345168</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45455.88541666666</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+      <c r="G261" t="s">
+        <v>85</v>
+      </c>
+      <c r="H261" t="s">
+        <v>74</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>249</v>
+      </c>
+      <c r="P261" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q261">
+        <v>2.2</v>
+      </c>
+      <c r="R261">
+        <v>2.25</v>
+      </c>
+      <c r="S261">
+        <v>5.5</v>
+      </c>
+      <c r="T261">
+        <v>1.44</v>
+      </c>
+      <c r="U261">
+        <v>2.63</v>
+      </c>
+      <c r="V261">
+        <v>3.25</v>
+      </c>
+      <c r="W261">
+        <v>1.33</v>
+      </c>
+      <c r="X261">
+        <v>9</v>
+      </c>
+      <c r="Y261">
+        <v>1.07</v>
+      </c>
+      <c r="Z261">
+        <v>1.62</v>
+      </c>
+      <c r="AA261">
+        <v>4</v>
+      </c>
+      <c r="AB261">
+        <v>5.25</v>
+      </c>
+      <c r="AC261">
+        <v>1.06</v>
+      </c>
+      <c r="AD261">
+        <v>8.6</v>
+      </c>
+      <c r="AE261">
+        <v>1.38</v>
+      </c>
+      <c r="AF261">
+        <v>2.94</v>
+      </c>
+      <c r="AG261">
+        <v>1.95</v>
+      </c>
+      <c r="AH261">
+        <v>1.85</v>
+      </c>
+      <c r="AI261">
+        <v>1.95</v>
+      </c>
+      <c r="AJ261">
+        <v>1.8</v>
+      </c>
+      <c r="AK261">
+        <v>1.19</v>
+      </c>
+      <c r="AL261">
+        <v>1.26</v>
+      </c>
+      <c r="AM261">
+        <v>2.1</v>
+      </c>
+      <c r="AN261">
+        <v>1.28</v>
+      </c>
+      <c r="AO261">
+        <v>1.58</v>
+      </c>
+      <c r="AP261">
+        <v>1.37</v>
+      </c>
+      <c r="AQ261">
+        <v>1.5</v>
+      </c>
+      <c r="AR261">
+        <v>1.96</v>
+      </c>
+      <c r="AS261">
+        <v>1.17</v>
+      </c>
+      <c r="AT261">
+        <v>3.13</v>
+      </c>
+      <c r="AU261">
+        <v>5</v>
+      </c>
+      <c r="AV261">
+        <v>7</v>
+      </c>
+      <c r="AW261">
+        <v>6</v>
+      </c>
+      <c r="AX261">
+        <v>10</v>
+      </c>
+      <c r="AY261">
+        <v>11</v>
+      </c>
+      <c r="AZ261">
+        <v>17</v>
+      </c>
+      <c r="BA261">
+        <v>4</v>
+      </c>
+      <c r="BB261">
+        <v>10</v>
+      </c>
+      <c r="BC261">
+        <v>14</v>
+      </c>
+      <c r="BD261">
+        <v>1.46</v>
+      </c>
+      <c r="BE261">
+        <v>8.1</v>
+      </c>
+      <c r="BF261">
+        <v>3.55</v>
+      </c>
+      <c r="BG261">
+        <v>1.28</v>
+      </c>
+      <c r="BH261">
+        <v>3.5</v>
+      </c>
+      <c r="BI261">
+        <v>1.48</v>
+      </c>
+      <c r="BJ261">
+        <v>2.5</v>
+      </c>
+      <c r="BK261">
+        <v>2.1</v>
+      </c>
+      <c r="BL261">
+        <v>1.8</v>
+      </c>
+      <c r="BM261">
+        <v>2.3</v>
+      </c>
+      <c r="BN261">
+        <v>1.57</v>
+      </c>
+      <c r="BO261">
+        <v>3</v>
+      </c>
+      <c r="BP261">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7345170</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45455.88541666666</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+      <c r="G262" t="s">
+        <v>94</v>
+      </c>
+      <c r="H262" t="s">
+        <v>77</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>2</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>3</v>
+      </c>
+      <c r="O262" t="s">
+        <v>250</v>
+      </c>
+      <c r="P262" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q262">
+        <v>2.63</v>
+      </c>
+      <c r="R262">
+        <v>1.95</v>
+      </c>
+      <c r="S262">
+        <v>5.5</v>
+      </c>
+      <c r="T262">
+        <v>1.62</v>
+      </c>
+      <c r="U262">
+        <v>2.2</v>
+      </c>
+      <c r="V262">
+        <v>4</v>
+      </c>
+      <c r="W262">
+        <v>1.22</v>
+      </c>
+      <c r="X262">
+        <v>13</v>
+      </c>
+      <c r="Y262">
+        <v>1.04</v>
+      </c>
+      <c r="Z262">
+        <v>1.9</v>
+      </c>
+      <c r="AA262">
+        <v>3.25</v>
+      </c>
+      <c r="AB262">
+        <v>4.75</v>
+      </c>
+      <c r="AC262">
+        <v>1.1</v>
+      </c>
+      <c r="AD262">
+        <v>6.6</v>
+      </c>
+      <c r="AE262">
+        <v>1.52</v>
+      </c>
+      <c r="AF262">
+        <v>2.35</v>
+      </c>
+      <c r="AG262">
+        <v>2.6</v>
+      </c>
+      <c r="AH262">
+        <v>1.48</v>
+      </c>
+      <c r="AI262">
+        <v>2.25</v>
+      </c>
+      <c r="AJ262">
+        <v>1.57</v>
+      </c>
+      <c r="AK262">
+        <v>1.24</v>
+      </c>
+      <c r="AL262">
+        <v>1.32</v>
+      </c>
+      <c r="AM262">
+        <v>1.83</v>
+      </c>
+      <c r="AN262">
+        <v>1.44</v>
+      </c>
+      <c r="AO262">
+        <v>1.17</v>
+      </c>
+      <c r="AP262">
+        <v>1.53</v>
+      </c>
+      <c r="AQ262">
+        <v>1.11</v>
+      </c>
+      <c r="AR262">
+        <v>1.55</v>
+      </c>
+      <c r="AS262">
+        <v>1.3</v>
+      </c>
+      <c r="AT262">
+        <v>2.85</v>
+      </c>
+      <c r="AU262">
+        <v>7</v>
+      </c>
+      <c r="AV262">
+        <v>5</v>
+      </c>
+      <c r="AW262">
+        <v>5</v>
+      </c>
+      <c r="AX262">
+        <v>2</v>
+      </c>
+      <c r="AY262">
+        <v>12</v>
+      </c>
+      <c r="AZ262">
+        <v>7</v>
+      </c>
+      <c r="BA262">
+        <v>5</v>
+      </c>
+      <c r="BB262">
+        <v>6</v>
+      </c>
+      <c r="BC262">
+        <v>11</v>
+      </c>
+      <c r="BD262">
+        <v>1.59</v>
+      </c>
+      <c r="BE262">
+        <v>7.8</v>
+      </c>
+      <c r="BF262">
+        <v>3</v>
+      </c>
+      <c r="BG262">
+        <v>1.35</v>
+      </c>
+      <c r="BH262">
+        <v>3</v>
+      </c>
+      <c r="BI262">
+        <v>1.67</v>
+      </c>
+      <c r="BJ262">
+        <v>2.1</v>
+      </c>
+      <c r="BK262">
+        <v>2</v>
+      </c>
+      <c r="BL262">
+        <v>1.75</v>
+      </c>
+      <c r="BM262">
+        <v>2.6</v>
+      </c>
+      <c r="BN262">
+        <v>1.45</v>
+      </c>
+      <c r="BO262">
+        <v>3.55</v>
+      </c>
+      <c r="BP262">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7345162</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45456.625</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+      <c r="G263" t="s">
+        <v>95</v>
+      </c>
+      <c r="H263" t="s">
+        <v>82</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" t="s">
+        <v>251</v>
+      </c>
+      <c r="P263" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q263">
+        <v>7</v>
+      </c>
+      <c r="R263">
+        <v>2.2</v>
+      </c>
+      <c r="S263">
+        <v>2.1</v>
+      </c>
+      <c r="T263">
+        <v>1.4</v>
+      </c>
+      <c r="U263">
+        <v>2.75</v>
+      </c>
+      <c r="V263">
+        <v>2.75</v>
+      </c>
+      <c r="W263">
+        <v>1.4</v>
+      </c>
+      <c r="X263">
+        <v>8</v>
+      </c>
+      <c r="Y263">
+        <v>1.08</v>
+      </c>
+      <c r="Z263">
+        <v>6.25</v>
+      </c>
+      <c r="AA263">
+        <v>4.33</v>
+      </c>
+      <c r="AB263">
+        <v>1.5</v>
+      </c>
+      <c r="AC263">
+        <v>1.02</v>
+      </c>
+      <c r="AD263">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE263">
+        <v>1.28</v>
+      </c>
+      <c r="AF263">
+        <v>3.18</v>
+      </c>
+      <c r="AG263">
+        <v>2.05</v>
+      </c>
+      <c r="AH263">
+        <v>1.75</v>
+      </c>
+      <c r="AI263">
+        <v>2.2</v>
+      </c>
+      <c r="AJ263">
+        <v>1.62</v>
+      </c>
+      <c r="AK263">
+        <v>3.04</v>
+      </c>
+      <c r="AL263">
+        <v>1.19</v>
+      </c>
+      <c r="AM263">
+        <v>1.06</v>
+      </c>
+      <c r="AN263">
+        <v>0.89</v>
+      </c>
+      <c r="AO263">
+        <v>1.89</v>
+      </c>
+      <c r="AP263">
+        <v>1</v>
+      </c>
+      <c r="AQ263">
+        <v>1.8</v>
+      </c>
+      <c r="AR263">
+        <v>1.37</v>
+      </c>
+      <c r="AS263">
+        <v>1.57</v>
+      </c>
+      <c r="AT263">
+        <v>2.94</v>
+      </c>
+      <c r="AU263">
+        <v>4</v>
+      </c>
+      <c r="AV263">
+        <v>3</v>
+      </c>
+      <c r="AW263">
+        <v>1</v>
+      </c>
+      <c r="AX263">
+        <v>8</v>
+      </c>
+      <c r="AY263">
+        <v>5</v>
+      </c>
+      <c r="AZ263">
+        <v>11</v>
+      </c>
+      <c r="BA263">
+        <v>1</v>
+      </c>
+      <c r="BB263">
+        <v>3</v>
+      </c>
+      <c r="BC263">
+        <v>4</v>
+      </c>
+      <c r="BD263">
+        <v>3.86</v>
+      </c>
+      <c r="BE263">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF263">
+        <v>1.41</v>
+      </c>
+      <c r="BG263">
+        <v>1.28</v>
+      </c>
+      <c r="BH263">
+        <v>3.4</v>
+      </c>
+      <c r="BI263">
+        <v>1.5</v>
+      </c>
+      <c r="BJ263">
+        <v>2.45</v>
+      </c>
+      <c r="BK263">
+        <v>2</v>
+      </c>
+      <c r="BL263">
+        <v>1.8</v>
+      </c>
+      <c r="BM263">
+        <v>2.3</v>
+      </c>
+      <c r="BN263">
+        <v>1.55</v>
+      </c>
+      <c r="BO263">
+        <v>3.05</v>
+      </c>
+      <c r="BP263">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7345161</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45456.79166666666</v>
+      </c>
+      <c r="F264">
+        <v>5</v>
+      </c>
+      <c r="G264" t="s">
+        <v>71</v>
+      </c>
+      <c r="H264" t="s">
+        <v>91</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" t="s">
+        <v>226</v>
+      </c>
+      <c r="P264" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q264">
+        <v>3.5</v>
+      </c>
+      <c r="R264">
+        <v>1.91</v>
+      </c>
+      <c r="S264">
+        <v>3.75</v>
+      </c>
+      <c r="T264">
+        <v>1.5</v>
+      </c>
+      <c r="U264">
+        <v>2.5</v>
+      </c>
+      <c r="V264">
+        <v>3.5</v>
+      </c>
+      <c r="W264">
+        <v>1.29</v>
+      </c>
+      <c r="X264">
+        <v>11</v>
+      </c>
+      <c r="Y264">
+        <v>1.05</v>
+      </c>
+      <c r="Z264">
+        <v>2.63</v>
+      </c>
+      <c r="AA264">
+        <v>2.88</v>
+      </c>
+      <c r="AB264">
+        <v>3</v>
+      </c>
+      <c r="AC264">
+        <v>0</v>
+      </c>
+      <c r="AD264">
+        <v>0</v>
+      </c>
+      <c r="AE264">
+        <v>1.48</v>
+      </c>
+      <c r="AF264">
+        <v>2.45</v>
+      </c>
+      <c r="AG264">
+        <v>2.7</v>
+      </c>
+      <c r="AH264">
+        <v>1.44</v>
+      </c>
+      <c r="AI264">
+        <v>2.1</v>
+      </c>
+      <c r="AJ264">
+        <v>1.67</v>
+      </c>
+      <c r="AK264">
+        <v>0</v>
+      </c>
+      <c r="AL264">
+        <v>0</v>
+      </c>
+      <c r="AM264">
+        <v>0</v>
+      </c>
+      <c r="AN264">
+        <v>0.33</v>
+      </c>
+      <c r="AO264">
+        <v>1.17</v>
+      </c>
+      <c r="AP264">
+        <v>0.37</v>
+      </c>
+      <c r="AQ264">
+        <v>1.16</v>
+      </c>
+      <c r="AR264">
+        <v>1.47</v>
+      </c>
+      <c r="AS264">
+        <v>1.2</v>
+      </c>
+      <c r="AT264">
+        <v>2.67</v>
+      </c>
+      <c r="AU264">
+        <v>5</v>
+      </c>
+      <c r="AV264">
+        <v>5</v>
+      </c>
+      <c r="AW264">
+        <v>3</v>
+      </c>
+      <c r="AX264">
+        <v>8</v>
+      </c>
+      <c r="AY264">
+        <v>8</v>
+      </c>
+      <c r="AZ264">
+        <v>13</v>
+      </c>
+      <c r="BA264">
+        <v>2</v>
+      </c>
+      <c r="BB264">
+        <v>6</v>
+      </c>
+      <c r="BC264">
+        <v>8</v>
+      </c>
+      <c r="BD264">
+        <v>0</v>
+      </c>
+      <c r="BE264">
+        <v>0</v>
+      </c>
+      <c r="BF264">
+        <v>0</v>
+      </c>
+      <c r="BG264">
+        <v>0</v>
+      </c>
+      <c r="BH264">
+        <v>0</v>
+      </c>
+      <c r="BI264">
+        <v>0</v>
+      </c>
+      <c r="BJ264">
+        <v>0</v>
+      </c>
+      <c r="BK264">
+        <v>0</v>
+      </c>
+      <c r="BL264">
+        <v>0</v>
+      </c>
+      <c r="BM264">
+        <v>0</v>
+      </c>
+      <c r="BN264">
+        <v>0</v>
+      </c>
+      <c r="BO264">
+        <v>0</v>
+      </c>
+      <c r="BP264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7345165</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45456.79166666666</v>
+      </c>
+      <c r="F265">
+        <v>5</v>
+      </c>
+      <c r="G265" t="s">
+        <v>97</v>
+      </c>
+      <c r="H265" t="s">
+        <v>83</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>252</v>
+      </c>
+      <c r="P265" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q265">
+        <v>5.5</v>
+      </c>
+      <c r="R265">
+        <v>1.83</v>
+      </c>
+      <c r="S265">
+        <v>2.75</v>
+      </c>
+      <c r="T265">
+        <v>1.62</v>
+      </c>
+      <c r="U265">
+        <v>2.2</v>
+      </c>
+      <c r="V265">
+        <v>4</v>
+      </c>
+      <c r="W265">
+        <v>1.22</v>
+      </c>
+      <c r="X265">
+        <v>13</v>
+      </c>
+      <c r="Y265">
+        <v>1.04</v>
+      </c>
+      <c r="Z265">
+        <v>4.33</v>
+      </c>
+      <c r="AA265">
+        <v>3.1</v>
+      </c>
+      <c r="AB265">
+        <v>2</v>
+      </c>
+      <c r="AC265">
+        <v>1.1</v>
+      </c>
+      <c r="AD265">
+        <v>5.75</v>
+      </c>
+      <c r="AE265">
+        <v>1.52</v>
+      </c>
+      <c r="AF265">
+        <v>2.35</v>
+      </c>
+      <c r="AG265">
+        <v>2.88</v>
+      </c>
+      <c r="AH265">
+        <v>1.4</v>
+      </c>
+      <c r="AI265">
+        <v>2.5</v>
+      </c>
+      <c r="AJ265">
+        <v>1.5</v>
+      </c>
+      <c r="AK265">
+        <v>1.88</v>
+      </c>
+      <c r="AL265">
+        <v>1.35</v>
+      </c>
+      <c r="AM265">
+        <v>1.21</v>
+      </c>
+      <c r="AN265">
+        <v>0.72</v>
+      </c>
+      <c r="AO265">
+        <v>1.8</v>
+      </c>
+      <c r="AP265">
+        <v>0.84</v>
+      </c>
+      <c r="AQ265">
+        <v>1.71</v>
+      </c>
+      <c r="AR265">
+        <v>1.29</v>
+      </c>
+      <c r="AS265">
+        <v>1.31</v>
+      </c>
+      <c r="AT265">
+        <v>2.6</v>
+      </c>
+      <c r="AU265">
+        <v>10</v>
+      </c>
+      <c r="AV265">
+        <v>6</v>
+      </c>
+      <c r="AW265">
+        <v>7</v>
+      </c>
+      <c r="AX265">
+        <v>3</v>
+      </c>
+      <c r="AY265">
+        <v>17</v>
+      </c>
+      <c r="AZ265">
+        <v>9</v>
+      </c>
+      <c r="BA265">
+        <v>5</v>
+      </c>
+      <c r="BB265">
+        <v>6</v>
+      </c>
+      <c r="BC265">
+        <v>11</v>
+      </c>
+      <c r="BD265">
+        <v>2.91</v>
+      </c>
+      <c r="BE265">
+        <v>7.7</v>
+      </c>
+      <c r="BF265">
+        <v>1.62</v>
+      </c>
+      <c r="BG265">
+        <v>1.35</v>
+      </c>
+      <c r="BH265">
+        <v>3</v>
+      </c>
+      <c r="BI265">
+        <v>1.64</v>
+      </c>
+      <c r="BJ265">
+        <v>2.1</v>
+      </c>
+      <c r="BK265">
+        <v>2.05</v>
+      </c>
+      <c r="BL265">
+        <v>1.7</v>
+      </c>
+      <c r="BM265">
+        <v>2.75</v>
+      </c>
+      <c r="BN265">
+        <v>1.38</v>
+      </c>
+      <c r="BO265">
+        <v>3.85</v>
+      </c>
+      <c r="BP265">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7345163</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45456.88541666666</v>
+      </c>
+      <c r="F266">
+        <v>5</v>
+      </c>
+      <c r="G266" t="s">
+        <v>87</v>
+      </c>
+      <c r="H266" t="s">
+        <v>80</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" t="s">
+        <v>253</v>
+      </c>
+      <c r="P266" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q266">
+        <v>4</v>
+      </c>
+      <c r="R266">
+        <v>2.05</v>
+      </c>
+      <c r="S266">
+        <v>3</v>
+      </c>
+      <c r="T266">
+        <v>1.44</v>
+      </c>
+      <c r="U266">
+        <v>2.63</v>
+      </c>
+      <c r="V266">
+        <v>3.25</v>
+      </c>
+      <c r="W266">
+        <v>1.33</v>
+      </c>
+      <c r="X266">
+        <v>10</v>
+      </c>
+      <c r="Y266">
+        <v>1.06</v>
+      </c>
+      <c r="Z266">
+        <v>3.4</v>
+      </c>
+      <c r="AA266">
+        <v>3.2</v>
+      </c>
+      <c r="AB266">
+        <v>2.25</v>
+      </c>
+      <c r="AC266">
+        <v>1.04</v>
+      </c>
+      <c r="AD266">
+        <v>7.6</v>
+      </c>
+      <c r="AE266">
+        <v>1.36</v>
+      </c>
+      <c r="AF266">
+        <v>2.8</v>
+      </c>
+      <c r="AG266">
+        <v>2.2</v>
+      </c>
+      <c r="AH266">
+        <v>1.65</v>
+      </c>
+      <c r="AI266">
+        <v>1.95</v>
+      </c>
+      <c r="AJ266">
+        <v>1.8</v>
+      </c>
+      <c r="AK266">
+        <v>1.6</v>
+      </c>
+      <c r="AL266">
+        <v>1.3</v>
+      </c>
+      <c r="AM266">
+        <v>1.38</v>
+      </c>
+      <c r="AN266">
+        <v>1.56</v>
+      </c>
+      <c r="AO266">
+        <v>1.89</v>
+      </c>
+      <c r="AP266">
+        <v>1.63</v>
+      </c>
+      <c r="AQ266">
+        <v>1.79</v>
+      </c>
+      <c r="AR266">
+        <v>1.45</v>
+      </c>
+      <c r="AS266">
+        <v>1.61</v>
+      </c>
+      <c r="AT266">
+        <v>3.06</v>
+      </c>
+      <c r="AU266">
+        <v>9</v>
+      </c>
+      <c r="AV266">
+        <v>3</v>
+      </c>
+      <c r="AW266">
+        <v>4</v>
+      </c>
+      <c r="AX266">
+        <v>7</v>
+      </c>
+      <c r="AY266">
+        <v>13</v>
+      </c>
+      <c r="AZ266">
+        <v>10</v>
+      </c>
+      <c r="BA266">
+        <v>6</v>
+      </c>
+      <c r="BB266">
+        <v>3</v>
+      </c>
+      <c r="BC266">
+        <v>9</v>
+      </c>
+      <c r="BD266">
+        <v>2.3</v>
+      </c>
+      <c r="BE266">
+        <v>6.9</v>
+      </c>
+      <c r="BF266">
+        <v>1.93</v>
+      </c>
+      <c r="BG266">
+        <v>1.35</v>
+      </c>
+      <c r="BH266">
+        <v>3.05</v>
+      </c>
+      <c r="BI266">
+        <v>1.64</v>
+      </c>
+      <c r="BJ266">
+        <v>2.1</v>
+      </c>
+      <c r="BK266">
+        <v>2.05</v>
+      </c>
+      <c r="BL266">
+        <v>1.7</v>
+      </c>
+      <c r="BM266">
+        <v>2.75</v>
+      </c>
+      <c r="BN266">
+        <v>1.38</v>
+      </c>
+      <c r="BO266">
+        <v>3.85</v>
+      </c>
+      <c r="BP266">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7345169</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45456.88541666666</v>
+      </c>
+      <c r="F267">
+        <v>5</v>
+      </c>
+      <c r="G267" t="s">
+        <v>96</v>
+      </c>
+      <c r="H267" t="s">
+        <v>70</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>2</v>
+      </c>
+      <c r="O267" t="s">
+        <v>98</v>
+      </c>
+      <c r="P267" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q267">
+        <v>3.1</v>
+      </c>
+      <c r="R267">
+        <v>1.83</v>
+      </c>
+      <c r="S267">
+        <v>4.5</v>
+      </c>
+      <c r="T267">
+        <v>1.57</v>
+      </c>
+      <c r="U267">
+        <v>2.25</v>
+      </c>
+      <c r="V267">
+        <v>3.75</v>
+      </c>
+      <c r="W267">
+        <v>1.25</v>
+      </c>
+      <c r="X267">
+        <v>11</v>
+      </c>
+      <c r="Y267">
+        <v>1.05</v>
+      </c>
+      <c r="Z267">
+        <v>2.25</v>
+      </c>
+      <c r="AA267">
+        <v>2.9</v>
+      </c>
+      <c r="AB267">
+        <v>3.75</v>
+      </c>
+      <c r="AC267">
+        <v>1.07</v>
+      </c>
+      <c r="AD267">
+        <v>6.35</v>
+      </c>
+      <c r="AE267">
+        <v>1.48</v>
+      </c>
+      <c r="AF267">
+        <v>2.45</v>
+      </c>
+      <c r="AG267">
+        <v>2.88</v>
+      </c>
+      <c r="AH267">
+        <v>1.4</v>
+      </c>
+      <c r="AI267">
+        <v>2.38</v>
+      </c>
+      <c r="AJ267">
+        <v>1.53</v>
+      </c>
+      <c r="AK267">
+        <v>1.26</v>
+      </c>
+      <c r="AL267">
+        <v>1.35</v>
+      </c>
+      <c r="AM267">
+        <v>1.76</v>
+      </c>
+      <c r="AN267">
+        <v>1.5</v>
+      </c>
+      <c r="AO267">
+        <v>1.33</v>
+      </c>
+      <c r="AP267">
+        <v>1.42</v>
+      </c>
+      <c r="AQ267">
+        <v>1.42</v>
+      </c>
+      <c r="AR267">
+        <v>1.68</v>
+      </c>
+      <c r="AS267">
+        <v>1.49</v>
+      </c>
+      <c r="AT267">
+        <v>3.17</v>
+      </c>
+      <c r="AU267">
+        <v>4</v>
+      </c>
+      <c r="AV267">
+        <v>6</v>
+      </c>
+      <c r="AW267">
+        <v>7</v>
+      </c>
+      <c r="AX267">
+        <v>4</v>
+      </c>
+      <c r="AY267">
+        <v>11</v>
+      </c>
+      <c r="AZ267">
+        <v>10</v>
+      </c>
+      <c r="BA267">
+        <v>7</v>
+      </c>
+      <c r="BB267">
+        <v>1</v>
+      </c>
+      <c r="BC267">
+        <v>8</v>
+      </c>
+      <c r="BD267">
+        <v>1.62</v>
+      </c>
+      <c r="BE267">
+        <v>7.7</v>
+      </c>
+      <c r="BF267">
+        <v>2.91</v>
+      </c>
+      <c r="BG267">
+        <v>1.27</v>
+      </c>
+      <c r="BH267">
+        <v>3.55</v>
+      </c>
+      <c r="BI267">
+        <v>1.52</v>
+      </c>
+      <c r="BJ267">
+        <v>2.33</v>
+      </c>
+      <c r="BK267">
+        <v>2</v>
+      </c>
+      <c r="BL267">
+        <v>1.8</v>
+      </c>
+      <c r="BM267">
+        <v>2.45</v>
+      </c>
+      <c r="BN267">
+        <v>1.47</v>
+      </c>
+      <c r="BO267">
+        <v>3.3</v>
+      </c>
+      <c r="BP267">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7345172</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="F268">
+        <v>5</v>
+      </c>
+      <c r="G268" t="s">
+        <v>92</v>
+      </c>
+      <c r="H268" t="s">
+        <v>88</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
+        <v>254</v>
+      </c>
+      <c r="P268" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q268">
+        <v>2.63</v>
+      </c>
+      <c r="R268">
+        <v>2</v>
+      </c>
+      <c r="S268">
+        <v>5</v>
+      </c>
+      <c r="T268">
+        <v>1.53</v>
+      </c>
+      <c r="U268">
+        <v>2.38</v>
+      </c>
+      <c r="V268">
+        <v>3.75</v>
+      </c>
+      <c r="W268">
+        <v>1.25</v>
+      </c>
+      <c r="X268">
+        <v>11</v>
+      </c>
+      <c r="Y268">
+        <v>1.05</v>
+      </c>
+      <c r="Z268">
+        <v>1.91</v>
+      </c>
+      <c r="AA268">
+        <v>3.1</v>
+      </c>
+      <c r="AB268">
+        <v>4.5</v>
+      </c>
+      <c r="AC268">
+        <v>1.08</v>
+      </c>
+      <c r="AD268">
+        <v>7.2</v>
+      </c>
+      <c r="AE268">
+        <v>1.46</v>
+      </c>
+      <c r="AF268">
+        <v>2.65</v>
+      </c>
+      <c r="AG268">
+        <v>2.4</v>
+      </c>
+      <c r="AH268">
+        <v>1.53</v>
+      </c>
+      <c r="AI268">
+        <v>2.1</v>
+      </c>
+      <c r="AJ268">
+        <v>1.67</v>
+      </c>
+      <c r="AK268">
+        <v>1.28</v>
+      </c>
+      <c r="AL268">
+        <v>1.3</v>
+      </c>
+      <c r="AM268">
+        <v>1.75</v>
+      </c>
+      <c r="AN268">
+        <v>1.74</v>
+      </c>
+      <c r="AO268">
+        <v>1.67</v>
+      </c>
+      <c r="AP268">
+        <v>1.8</v>
+      </c>
+      <c r="AQ268">
+        <v>1.59</v>
+      </c>
+      <c r="AR268">
+        <v>1.64</v>
+      </c>
+      <c r="AS268">
+        <v>1.44</v>
+      </c>
+      <c r="AT268">
+        <v>3.08</v>
+      </c>
+      <c r="AU268">
+        <v>4</v>
+      </c>
+      <c r="AV268">
+        <v>4</v>
+      </c>
+      <c r="AW268">
+        <v>5</v>
+      </c>
+      <c r="AX268">
+        <v>4</v>
+      </c>
+      <c r="AY268">
+        <v>9</v>
+      </c>
+      <c r="AZ268">
+        <v>8</v>
+      </c>
+      <c r="BA268">
+        <v>5</v>
+      </c>
+      <c r="BB268">
+        <v>5</v>
+      </c>
+      <c r="BC268">
+        <v>10</v>
+      </c>
+      <c r="BD268">
+        <v>1.57</v>
+      </c>
+      <c r="BE268">
+        <v>7.6</v>
+      </c>
+      <c r="BF268">
+        <v>3.1</v>
+      </c>
+      <c r="BG268">
+        <v>1.36</v>
+      </c>
+      <c r="BH268">
+        <v>2.8</v>
+      </c>
+      <c r="BI268">
+        <v>1.67</v>
+      </c>
+      <c r="BJ268">
+        <v>2.1</v>
+      </c>
+      <c r="BK268">
+        <v>2.1</v>
+      </c>
+      <c r="BL268">
+        <v>1.64</v>
+      </c>
+      <c r="BM268">
+        <v>2.8</v>
+      </c>
+      <c r="BN268">
+        <v>1.37</v>
+      </c>
+      <c r="BO268">
+        <v>3.85</v>
+      </c>
+      <c r="BP268">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7345173</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="F269">
+        <v>5</v>
+      </c>
+      <c r="G269" t="s">
+        <v>75</v>
+      </c>
+      <c r="H269" t="s">
+        <v>79</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+      <c r="N269">
+        <v>3</v>
+      </c>
+      <c r="O269" t="s">
+        <v>255</v>
+      </c>
+      <c r="P269" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q269">
+        <v>2.5</v>
+      </c>
+      <c r="R269">
+        <v>1.91</v>
+      </c>
+      <c r="S269">
+        <v>6.5</v>
+      </c>
+      <c r="T269">
+        <v>1.5</v>
+      </c>
+      <c r="U269">
+        <v>2.5</v>
+      </c>
+      <c r="V269">
+        <v>3.5</v>
+      </c>
+      <c r="W269">
+        <v>1.29</v>
+      </c>
+      <c r="X269">
+        <v>11</v>
+      </c>
+      <c r="Y269">
+        <v>1.05</v>
+      </c>
+      <c r="Z269">
+        <v>1.73</v>
+      </c>
+      <c r="AA269">
+        <v>3.2</v>
+      </c>
+      <c r="AB269">
+        <v>6</v>
+      </c>
+      <c r="AC269">
+        <v>1.05</v>
+      </c>
+      <c r="AD269">
+        <v>6.95</v>
+      </c>
+      <c r="AE269">
+        <v>1.42</v>
+      </c>
+      <c r="AF269">
+        <v>2.57</v>
+      </c>
+      <c r="AG269">
+        <v>2.88</v>
+      </c>
+      <c r="AH269">
+        <v>1.4</v>
+      </c>
+      <c r="AI269">
+        <v>2.5</v>
+      </c>
+      <c r="AJ269">
+        <v>1.5</v>
+      </c>
+      <c r="AK269">
+        <v>1.16</v>
+      </c>
+      <c r="AL269">
+        <v>1.26</v>
+      </c>
+      <c r="AM269">
+        <v>2.15</v>
+      </c>
+      <c r="AN269">
+        <v>1.89</v>
+      </c>
+      <c r="AO269">
+        <v>1.28</v>
+      </c>
+      <c r="AP269">
+        <v>1.95</v>
+      </c>
+      <c r="AQ269">
+        <v>1.21</v>
+      </c>
+      <c r="AR269">
+        <v>1.92</v>
+      </c>
+      <c r="AS269">
+        <v>1.35</v>
+      </c>
+      <c r="AT269">
+        <v>3.27</v>
+      </c>
+      <c r="AU269">
+        <v>7</v>
+      </c>
+      <c r="AV269">
+        <v>3</v>
+      </c>
+      <c r="AW269">
+        <v>7</v>
+      </c>
+      <c r="AX269">
+        <v>7</v>
+      </c>
+      <c r="AY269">
+        <v>14</v>
+      </c>
+      <c r="AZ269">
+        <v>10</v>
+      </c>
+      <c r="BA269">
+        <v>7</v>
+      </c>
+      <c r="BB269">
+        <v>4</v>
+      </c>
+      <c r="BC269">
+        <v>11</v>
+      </c>
+      <c r="BD269">
+        <v>1.59</v>
+      </c>
+      <c r="BE269">
+        <v>7.8</v>
+      </c>
+      <c r="BF269">
+        <v>3</v>
+      </c>
+      <c r="BG269">
+        <v>1.4</v>
+      </c>
+      <c r="BH269">
+        <v>2.7</v>
+      </c>
+      <c r="BI269">
+        <v>1.73</v>
+      </c>
+      <c r="BJ269">
+        <v>2</v>
+      </c>
+      <c r="BK269">
+        <v>2.2</v>
+      </c>
+      <c r="BL269">
+        <v>1.58</v>
+      </c>
+      <c r="BM269">
+        <v>2.95</v>
+      </c>
+      <c r="BN269">
+        <v>1.34</v>
+      </c>
+      <c r="BO269">
+        <v>4.1</v>
+      </c>
+      <c r="BP269">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7345166</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45458.66666666666</v>
+      </c>
+      <c r="F270">
+        <v>5</v>
+      </c>
+      <c r="G270" t="s">
+        <v>93</v>
+      </c>
+      <c r="H270" t="s">
+        <v>78</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>3</v>
+      </c>
+      <c r="O270" t="s">
+        <v>256</v>
+      </c>
+      <c r="P270" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q270">
+        <v>3.25</v>
+      </c>
+      <c r="R270">
+        <v>1.73</v>
+      </c>
+      <c r="S270">
+        <v>4.75</v>
+      </c>
+      <c r="T270">
+        <v>1.67</v>
+      </c>
+      <c r="U270">
+        <v>2.1</v>
+      </c>
+      <c r="V270">
+        <v>4.33</v>
+      </c>
+      <c r="W270">
+        <v>1.2</v>
+      </c>
+      <c r="X270">
+        <v>15</v>
+      </c>
+      <c r="Y270">
+        <v>1.03</v>
+      </c>
+      <c r="Z270">
+        <v>2.25</v>
+      </c>
+      <c r="AA270">
+        <v>2.88</v>
+      </c>
+      <c r="AB270">
+        <v>3.8</v>
+      </c>
+      <c r="AC270">
+        <v>1.14</v>
+      </c>
+      <c r="AD270">
+        <v>5.7</v>
+      </c>
+      <c r="AE270">
+        <v>1.6</v>
+      </c>
+      <c r="AF270">
+        <v>2.2</v>
+      </c>
+      <c r="AG270">
+        <v>3.6</v>
+      </c>
+      <c r="AH270">
+        <v>1.29</v>
+      </c>
+      <c r="AI270">
+        <v>2.63</v>
+      </c>
+      <c r="AJ270">
+        <v>1.44</v>
+      </c>
+      <c r="AK270">
+        <v>1.3</v>
+      </c>
+      <c r="AL270">
+        <v>1.4</v>
+      </c>
+      <c r="AM270">
+        <v>1.62</v>
+      </c>
+      <c r="AN270">
+        <v>1.67</v>
+      </c>
+      <c r="AO270">
+        <v>1</v>
+      </c>
+      <c r="AP270">
+        <v>1.74</v>
+      </c>
+      <c r="AQ270">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR270">
+        <v>1.8</v>
+      </c>
+      <c r="AS270">
+        <v>1.17</v>
+      </c>
+      <c r="AT270">
+        <v>2.97</v>
+      </c>
+      <c r="AU270">
+        <v>9</v>
+      </c>
+      <c r="AV270">
+        <v>4</v>
+      </c>
+      <c r="AW270">
+        <v>4</v>
+      </c>
+      <c r="AX270">
+        <v>1</v>
+      </c>
+      <c r="AY270">
+        <v>13</v>
+      </c>
+      <c r="AZ270">
+        <v>5</v>
+      </c>
+      <c r="BA270">
+        <v>7</v>
+      </c>
+      <c r="BB270">
+        <v>2</v>
+      </c>
+      <c r="BC270">
+        <v>9</v>
+      </c>
+      <c r="BD270">
+        <v>1.6</v>
+      </c>
+      <c r="BE270">
+        <v>7.5</v>
+      </c>
+      <c r="BF270">
+        <v>3.01</v>
+      </c>
+      <c r="BG270">
+        <v>1.35</v>
+      </c>
+      <c r="BH270">
+        <v>3</v>
+      </c>
+      <c r="BI270">
+        <v>1.62</v>
+      </c>
+      <c r="BJ270">
+        <v>2.2</v>
+      </c>
+      <c r="BK270">
+        <v>2</v>
+      </c>
+      <c r="BL270">
+        <v>1.75</v>
+      </c>
+      <c r="BM270">
+        <v>2.6</v>
+      </c>
+      <c r="BN270">
+        <v>1.45</v>
+      </c>
+      <c r="BO270">
+        <v>3.55</v>
+      </c>
+      <c r="BP270">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7345167</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45458.75</v>
+      </c>
+      <c r="F271">
+        <v>5</v>
+      </c>
+      <c r="G271" t="s">
+        <v>84</v>
+      </c>
+      <c r="H271" t="s">
+        <v>76</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>193</v>
+      </c>
+      <c r="P271" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q271">
+        <v>2.38</v>
+      </c>
+      <c r="R271">
+        <v>1.95</v>
+      </c>
+      <c r="S271">
+        <v>6.5</v>
+      </c>
+      <c r="T271">
+        <v>1.5</v>
+      </c>
+      <c r="U271">
+        <v>2.5</v>
+      </c>
+      <c r="V271">
+        <v>3.4</v>
+      </c>
+      <c r="W271">
+        <v>1.3</v>
+      </c>
+      <c r="X271">
+        <v>10</v>
+      </c>
+      <c r="Y271">
+        <v>1.06</v>
+      </c>
+      <c r="Z271">
+        <v>1.67</v>
+      </c>
+      <c r="AA271">
+        <v>3.5</v>
+      </c>
+      <c r="AB271">
+        <v>6</v>
+      </c>
+      <c r="AC271">
+        <v>1.08</v>
+      </c>
+      <c r="AD271">
+        <v>8.6</v>
+      </c>
+      <c r="AE271">
+        <v>1.42</v>
+      </c>
+      <c r="AF271">
+        <v>2.79</v>
+      </c>
+      <c r="AG271">
+        <v>2.6</v>
+      </c>
+      <c r="AH271">
+        <v>1.48</v>
+      </c>
+      <c r="AI271">
+        <v>2.5</v>
+      </c>
+      <c r="AJ271">
+        <v>1.5</v>
+      </c>
+      <c r="AK271">
+        <v>1.12</v>
+      </c>
+      <c r="AL271">
+        <v>1.24</v>
+      </c>
+      <c r="AM271">
+        <v>2.3</v>
+      </c>
+      <c r="AN271">
+        <v>1.44</v>
+      </c>
+      <c r="AO271">
+        <v>0.83</v>
+      </c>
+      <c r="AP271">
+        <v>1.53</v>
+      </c>
+      <c r="AQ271">
+        <v>0.79</v>
+      </c>
+      <c r="AR271">
+        <v>1.3</v>
+      </c>
+      <c r="AS271">
+        <v>1.27</v>
+      </c>
+      <c r="AT271">
+        <v>2.57</v>
+      </c>
+      <c r="AU271">
+        <v>5</v>
+      </c>
+      <c r="AV271">
+        <v>4</v>
+      </c>
+      <c r="AW271">
+        <v>3</v>
+      </c>
+      <c r="AX271">
+        <v>6</v>
+      </c>
+      <c r="AY271">
+        <v>8</v>
+      </c>
+      <c r="AZ271">
+        <v>10</v>
+      </c>
+      <c r="BA271">
+        <v>2</v>
+      </c>
+      <c r="BB271">
+        <v>4</v>
+      </c>
+      <c r="BC271">
+        <v>6</v>
+      </c>
+      <c r="BD271">
+        <v>1.33</v>
+      </c>
+      <c r="BE271">
+        <v>8.1</v>
+      </c>
+      <c r="BF271">
+        <v>4.66</v>
+      </c>
+      <c r="BG271">
+        <v>1.4</v>
+      </c>
+      <c r="BH271">
+        <v>2.75</v>
+      </c>
+      <c r="BI271">
+        <v>1.72</v>
+      </c>
+      <c r="BJ271">
+        <v>2.05</v>
+      </c>
+      <c r="BK271">
+        <v>2.2</v>
+      </c>
+      <c r="BL271">
+        <v>1.65</v>
+      </c>
+      <c r="BM271">
+        <v>2.85</v>
+      </c>
+      <c r="BN271">
+        <v>1.38</v>
+      </c>
+      <c r="BO271">
+        <v>4</v>
+      </c>
+      <c r="BP271">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7345171</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272" t="s">
+        <v>72</v>
+      </c>
+      <c r="H272" t="s">
+        <v>90</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>2</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>191</v>
+      </c>
+      <c r="P272" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q272">
+        <v>2.63</v>
+      </c>
+      <c r="R272">
+        <v>2</v>
+      </c>
+      <c r="S272">
+        <v>5</v>
+      </c>
+      <c r="T272">
+        <v>1.53</v>
+      </c>
+      <c r="U272">
+        <v>2.38</v>
+      </c>
+      <c r="V272">
+        <v>3.5</v>
+      </c>
+      <c r="W272">
+        <v>1.29</v>
+      </c>
+      <c r="X272">
+        <v>11</v>
+      </c>
+      <c r="Y272">
+        <v>1.05</v>
+      </c>
+      <c r="Z272">
+        <v>1.91</v>
+      </c>
+      <c r="AA272">
+        <v>3.4</v>
+      </c>
+      <c r="AB272">
+        <v>4.1</v>
+      </c>
+      <c r="AC272">
+        <v>1.08</v>
+      </c>
+      <c r="AD272">
+        <v>7.6</v>
+      </c>
+      <c r="AE272">
+        <v>1.43</v>
+      </c>
+      <c r="AF272">
+        <v>2.54</v>
+      </c>
+      <c r="AG272">
+        <v>2.35</v>
+      </c>
+      <c r="AH272">
+        <v>1.57</v>
+      </c>
+      <c r="AI272">
+        <v>2.1</v>
+      </c>
+      <c r="AJ272">
+        <v>1.67</v>
+      </c>
+      <c r="AK272">
+        <v>1.26</v>
+      </c>
+      <c r="AL272">
+        <v>1.3</v>
+      </c>
+      <c r="AM272">
+        <v>1.78</v>
+      </c>
+      <c r="AN272">
+        <v>0.83</v>
+      </c>
+      <c r="AO272">
+        <v>1.53</v>
+      </c>
+      <c r="AP272">
+        <v>0.84</v>
+      </c>
+      <c r="AQ272">
+        <v>1.5</v>
+      </c>
+      <c r="AR272">
+        <v>1.88</v>
+      </c>
+      <c r="AS272">
+        <v>1.32</v>
+      </c>
+      <c r="AT272">
+        <v>3.2</v>
+      </c>
+      <c r="AU272">
+        <v>6</v>
+      </c>
+      <c r="AV272">
+        <v>6</v>
+      </c>
+      <c r="AW272">
+        <v>7</v>
+      </c>
+      <c r="AX272">
+        <v>8</v>
+      </c>
+      <c r="AY272">
+        <v>13</v>
+      </c>
+      <c r="AZ272">
+        <v>14</v>
+      </c>
+      <c r="BA272">
+        <v>3</v>
+      </c>
+      <c r="BB272">
+        <v>4</v>
+      </c>
+      <c r="BC272">
+        <v>7</v>
+      </c>
+      <c r="BD272">
+        <v>1.62</v>
+      </c>
+      <c r="BE272">
+        <v>7.7</v>
+      </c>
+      <c r="BF272">
+        <v>2.91</v>
+      </c>
+      <c r="BG272">
+        <v>1.27</v>
+      </c>
+      <c r="BH272">
+        <v>3.55</v>
+      </c>
+      <c r="BI272">
+        <v>1.48</v>
+      </c>
+      <c r="BJ272">
+        <v>2.5</v>
+      </c>
+      <c r="BK272">
+        <v>1.8</v>
+      </c>
+      <c r="BL272">
+        <v>1.95</v>
+      </c>
+      <c r="BM272">
+        <v>2.25</v>
+      </c>
+      <c r="BN272">
+        <v>1.57</v>
+      </c>
+      <c r="BO272">
+        <v>2.95</v>
+      </c>
+      <c r="BP272">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -41926,13 +41926,13 @@
         <v>1.5</v>
       </c>
       <c r="AR197">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AS197">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AT197">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="AU197">
         <v>9</v>
@@ -42132,13 +42132,13 @@
         <v>1.5</v>
       </c>
       <c r="AR198">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="AS198">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AT198">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="AU198">
         <v>7</v>
@@ -42338,13 +42338,13 @@
         <v>1.59</v>
       </c>
       <c r="AR199">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="AS199">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AT199">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="AU199">
         <v>5</v>
@@ -42544,13 +42544,13 @@
         <v>1.8</v>
       </c>
       <c r="AR200">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="AS200">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AT200">
-        <v>3.74</v>
+        <v>3.57</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42750,13 +42750,13 @@
         <v>1.59</v>
       </c>
       <c r="AR201">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AT201">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42956,13 +42956,13 @@
         <v>1.8</v>
       </c>
       <c r="AR202">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="AS202">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AT202">
-        <v>3.62</v>
+        <v>3.31</v>
       </c>
       <c r="AU202">
         <v>7</v>
@@ -43162,13 +43162,13 @@
         <v>1.59</v>
       </c>
       <c r="AR203">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="AS203">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AT203">
-        <v>3.57</v>
+        <v>3.34</v>
       </c>
       <c r="AU203">
         <v>4</v>
@@ -43371,10 +43371,10 @@
         <v>1.29</v>
       </c>
       <c r="AS204">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT204">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43574,13 +43574,13 @@
         <v>1.21</v>
       </c>
       <c r="AR205">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AS205">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AT205">
-        <v>3.13</v>
+        <v>2.82</v>
       </c>
       <c r="AU205">
         <v>9</v>
@@ -43780,13 +43780,13 @@
         <v>1.11</v>
       </c>
       <c r="AR206">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AS206">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="AT206">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="AU206">
         <v>10</v>
@@ -43986,13 +43986,13 @@
         <v>1.5</v>
       </c>
       <c r="AR207">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AS207">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AT207">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AU207">
         <v>7</v>
@@ -44192,13 +44192,13 @@
         <v>1.5</v>
       </c>
       <c r="AR208">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AS208">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AT208">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44398,13 +44398,13 @@
         <v>1.95</v>
       </c>
       <c r="AR209">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AS209">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="AT209">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="AU209">
         <v>6</v>
@@ -44604,13 +44604,13 @@
         <v>0.58</v>
       </c>
       <c r="AR210">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="AS210">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AT210">
-        <v>3.31</v>
+        <v>3.12</v>
       </c>
       <c r="AU210">
         <v>14</v>
@@ -44810,13 +44810,13 @@
         <v>1.71</v>
       </c>
       <c r="AR211">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AS211">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="AT211">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU211">
         <v>3</v>
@@ -45016,10 +45016,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AR212">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AS212">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AT212">
         <v>2.5</v>
@@ -45222,13 +45222,13 @@
         <v>1.79</v>
       </c>
       <c r="AR213">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AS213">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="AT213">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45428,13 +45428,13 @@
         <v>0.79</v>
       </c>
       <c r="AR214">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS214">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT214">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="AU214">
         <v>3</v>
@@ -45634,13 +45634,13 @@
         <v>1.8</v>
       </c>
       <c r="AR215">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AS215">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AT215">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -45840,13 +45840,13 @@
         <v>1.59</v>
       </c>
       <c r="AR216">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="AS216">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT216">
-        <v>3.39</v>
+        <v>3.21</v>
       </c>
       <c r="AU216">
         <v>6</v>
@@ -46046,13 +46046,13 @@
         <v>1.11</v>
       </c>
       <c r="AR217">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AS217">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AT217">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AU217">
         <v>7</v>
@@ -46252,13 +46252,13 @@
         <v>1.68</v>
       </c>
       <c r="AR218">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="AS218">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="AT218">
-        <v>2.89</v>
+        <v>3.06</v>
       </c>
       <c r="AU218">
         <v>0</v>
@@ -46458,13 +46458,13 @@
         <v>1.16</v>
       </c>
       <c r="AR219">
-        <v>2.31</v>
+        <v>2.02</v>
       </c>
       <c r="AS219">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT219">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="AU219">
         <v>11</v>
@@ -46664,13 +46664,13 @@
         <v>1.37</v>
       </c>
       <c r="AR220">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS220">
-        <v>1.29</v>
+        <v>1.59</v>
       </c>
       <c r="AT220">
-        <v>2.93</v>
+        <v>3.05</v>
       </c>
       <c r="AU220">
         <v>0</v>
@@ -46870,13 +46870,13 @@
         <v>1.74</v>
       </c>
       <c r="AR221">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AS221">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="AT221">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="AU221">
         <v>0</v>
@@ -47076,13 +47076,13 @@
         <v>0.84</v>
       </c>
       <c r="AR222">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="AS222">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT222">
-        <v>2.81</v>
+        <v>2.62</v>
       </c>
       <c r="AU222">
         <v>9</v>
@@ -47282,13 +47282,13 @@
         <v>1.53</v>
       </c>
       <c r="AR223">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AS223">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AT223">
-        <v>2.83</v>
+        <v>2.96</v>
       </c>
       <c r="AU223">
         <v>5</v>
@@ -47488,13 +47488,13 @@
         <v>0.84</v>
       </c>
       <c r="AR224">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AS224">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AT224">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="AU224">
         <v>4</v>
@@ -47694,13 +47694,13 @@
         <v>1.53</v>
       </c>
       <c r="AR225">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AS225">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AT225">
-        <v>3.03</v>
+        <v>2.81</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -47900,13 +47900,13 @@
         <v>1.8</v>
       </c>
       <c r="AR226">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AS226">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AT226">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AU226">
         <v>4</v>
@@ -48106,13 +48106,13 @@
         <v>1</v>
       </c>
       <c r="AR227">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="AS227">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="AT227">
-        <v>3.07</v>
+        <v>2.81</v>
       </c>
       <c r="AU227">
         <v>9</v>
@@ -48312,13 +48312,13 @@
         <v>1.63</v>
       </c>
       <c r="AR228">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AS228">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AT228">
-        <v>3.06</v>
+        <v>2.81</v>
       </c>
       <c r="AU228">
         <v>9</v>
@@ -48518,13 +48518,13 @@
         <v>1.76</v>
       </c>
       <c r="AR229">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AS229">
-        <v>1.31</v>
+        <v>1.61</v>
       </c>
       <c r="AT229">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="AU229">
         <v>10</v>
@@ -48724,13 +48724,13 @@
         <v>0.37</v>
       </c>
       <c r="AR230">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AS230">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT230">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="AU230">
         <v>5</v>
@@ -48930,13 +48930,13 @@
         <v>1.42</v>
       </c>
       <c r="AR231">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="AS231">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AT231">
-        <v>3</v>
+        <v>3.06</v>
       </c>
       <c r="AU231">
         <v>3</v>
@@ -49136,13 +49136,13 @@
         <v>1.11</v>
       </c>
       <c r="AR232">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AS232">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="AT232">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="AU232">
         <v>13</v>
@@ -49342,13 +49342,13 @@
         <v>1.79</v>
       </c>
       <c r="AR233">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AS233">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="AT233">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49548,13 +49548,13 @@
         <v>1.71</v>
       </c>
       <c r="AR234">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AS234">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AT234">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="AU234">
         <v>6</v>
@@ -49754,13 +49754,13 @@
         <v>0.58</v>
       </c>
       <c r="AR235">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AS235">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="AT235">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="AU235">
         <v>7</v>
@@ -49960,13 +49960,13 @@
         <v>1.8</v>
       </c>
       <c r="AR236">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="AS236">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="AT236">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="AU236">
         <v>7</v>
@@ -50166,13 +50166,13 @@
         <v>1.5</v>
       </c>
       <c r="AR237">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AS237">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AT237">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AU237">
         <v>5</v>
@@ -50372,10 +50372,10 @@
         <v>1.95</v>
       </c>
       <c r="AR238">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AS238">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AT238">
         <v>3.3</v>
@@ -50578,13 +50578,13 @@
         <v>1.42</v>
       </c>
       <c r="AR239">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS239">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AT239">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50784,10 +50784,10 @@
         <v>0.79</v>
       </c>
       <c r="AR240">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AS240">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AT240">
         <v>2.6</v>
@@ -50990,13 +50990,13 @@
         <v>1.11</v>
       </c>
       <c r="AR241">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AS241">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT241">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
       <c r="AU241">
         <v>11</v>
@@ -51196,13 +51196,13 @@
         <v>1.59</v>
       </c>
       <c r="AR242">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AS242">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AT242">
-        <v>3.16</v>
+        <v>3.13</v>
       </c>
       <c r="AU242">
         <v>0</v>
@@ -51402,13 +51402,13 @@
         <v>1.5</v>
       </c>
       <c r="AR243">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AS243">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="AT243">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AU243">
         <v>8</v>
@@ -51608,13 +51608,13 @@
         <v>1.21</v>
       </c>
       <c r="AR244">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="AS244">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT244">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="AU244">
         <v>6</v>
@@ -51814,13 +51814,13 @@
         <v>1</v>
       </c>
       <c r="AR245">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="AS245">
-        <v>0.99</v>
+        <v>1.19</v>
       </c>
       <c r="AT245">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU245">
         <v>4</v>
@@ -52020,13 +52020,13 @@
         <v>0.84</v>
       </c>
       <c r="AR246">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AS246">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="AT246">
-        <v>3.18</v>
+        <v>3.24</v>
       </c>
       <c r="AU246">
         <v>8</v>
@@ -52226,13 +52226,13 @@
         <v>1.76</v>
       </c>
       <c r="AR247">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AS247">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AT247">
-        <v>2.73</v>
+        <v>2.93</v>
       </c>
       <c r="AU247">
         <v>4</v>
@@ -52432,13 +52432,13 @@
         <v>1.8</v>
       </c>
       <c r="AR248">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS248">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT248">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52638,13 +52638,13 @@
         <v>1.63</v>
       </c>
       <c r="AR249">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="AS249">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="AT249">
-        <v>3.18</v>
+        <v>2.81</v>
       </c>
       <c r="AU249">
         <v>6</v>
@@ -52844,13 +52844,13 @@
         <v>1.95</v>
       </c>
       <c r="AR250">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AS250">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AT250">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="AU250">
         <v>4</v>
@@ -53050,13 +53050,13 @@
         <v>0.37</v>
       </c>
       <c r="AR251">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="AS251">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AT251">
-        <v>3.56</v>
+        <v>3.35</v>
       </c>
       <c r="AU251">
         <v>10</v>
@@ -53256,13 +53256,13 @@
         <v>1.37</v>
       </c>
       <c r="AR252">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AS252">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="AT252">
-        <v>2.65</v>
+        <v>3.07</v>
       </c>
       <c r="AU252">
         <v>3</v>
@@ -53462,13 +53462,13 @@
         <v>0.84</v>
       </c>
       <c r="AR253">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AS253">
         <v>1.29</v>
       </c>
       <c r="AT253">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="AU253">
         <v>5</v>
@@ -53668,13 +53668,13 @@
         <v>1.53</v>
       </c>
       <c r="AR254">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AS254">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT254">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="AU254">
         <v>3</v>
@@ -53874,13 +53874,13 @@
         <v>1.68</v>
       </c>
       <c r="AR255">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="AS255">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="AT255">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="AU255">
         <v>10</v>
@@ -54080,13 +54080,13 @@
         <v>1.53</v>
       </c>
       <c r="AR256">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="AS256">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AT256">
-        <v>3.12</v>
+        <v>2.76</v>
       </c>
       <c r="AU256">
         <v>5</v>
@@ -54286,13 +54286,13 @@
         <v>1.74</v>
       </c>
       <c r="AR257">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS257">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AT257">
-        <v>2.63</v>
+        <v>2.86</v>
       </c>
       <c r="AU257">
         <v>6</v>
@@ -54492,13 +54492,13 @@
         <v>1.42</v>
       </c>
       <c r="AR258">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AS258">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AT258">
-        <v>2.69</v>
+        <v>2.84</v>
       </c>
       <c r="AU258">
         <v>6</v>
@@ -54698,13 +54698,13 @@
         <v>1.11</v>
       </c>
       <c r="AR259">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AS259">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="AT259">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="AU259">
         <v>4</v>
@@ -54904,13 +54904,13 @@
         <v>0.58</v>
       </c>
       <c r="AR260">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="AS260">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AT260">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="AU260">
         <v>6</v>
@@ -55110,13 +55110,13 @@
         <v>1.5</v>
       </c>
       <c r="AR261">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="AS261">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AT261">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="AU261">
         <v>5</v>
@@ -55316,13 +55316,13 @@
         <v>1.11</v>
       </c>
       <c r="AR262">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AS262">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AT262">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU262">
         <v>7</v>
@@ -55522,13 +55522,13 @@
         <v>1.8</v>
       </c>
       <c r="AR263">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="AS263">
-        <v>1.57</v>
+        <v>2.01</v>
       </c>
       <c r="AT263">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="AU263">
         <v>4</v>
@@ -55728,13 +55728,13 @@
         <v>1.16</v>
       </c>
       <c r="AR264">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AS264">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AT264">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU264">
         <v>5</v>
@@ -55934,13 +55934,13 @@
         <v>1.71</v>
       </c>
       <c r="AR265">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AS265">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT265">
-        <v>2.6</v>
+        <v>3.03</v>
       </c>
       <c r="AU265">
         <v>10</v>
@@ -56140,13 +56140,13 @@
         <v>1.79</v>
       </c>
       <c r="AR266">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AS266">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AT266">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="AU266">
         <v>9</v>
@@ -56346,13 +56346,13 @@
         <v>1.42</v>
       </c>
       <c r="AR267">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="AS267">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT267">
-        <v>3.17</v>
+        <v>2.82</v>
       </c>
       <c r="AU267">
         <v>4</v>
@@ -56552,13 +56552,13 @@
         <v>1.59</v>
       </c>
       <c r="AR268">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AS268">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AT268">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AU268">
         <v>4</v>
@@ -56758,13 +56758,13 @@
         <v>1.21</v>
       </c>
       <c r="AR269">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AS269">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT269">
-        <v>3.27</v>
+        <v>3.07</v>
       </c>
       <c r="AU269">
         <v>7</v>
@@ -56964,10 +56964,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AR270">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="AS270">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT270">
         <v>2.97</v>
@@ -57170,13 +57170,13 @@
         <v>0.79</v>
       </c>
       <c r="AR271">
+        <v>1.43</v>
+      </c>
+      <c r="AS271">
         <v>1.3</v>
       </c>
-      <c r="AS271">
-        <v>1.27</v>
-      </c>
       <c r="AT271">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="AU271">
         <v>5</v>
@@ -57376,13 +57376,13 @@
         <v>1.5</v>
       </c>
       <c r="AR272">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AS272">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT272">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="AU272">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -718,10 +718,10 @@
     <t>['20']</t>
   </si>
   <si>
-    <t>['46', '84']</t>
+    <t>['58', '68']</t>
   </si>
   <si>
-    <t>['58', '68']</t>
+    <t>['46', '84']</t>
   </si>
   <si>
     <t>['90+13']</t>
@@ -745,10 +745,10 @@
     <t>['45+3', '74']</t>
   </si>
   <si>
-    <t>['13', '53', '57']</t>
+    <t>['29', '81']</t>
   </si>
   <si>
-    <t>['29', '81']</t>
+    <t>['13', '53', '57']</t>
   </si>
   <si>
     <t>['86']</t>
@@ -778,10 +778,10 @@
     <t>['44', '65']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['7', '71']</t>
   </si>
   <si>
-    <t>['7', '71']</t>
+    <t>['61']</t>
   </si>
   <si>
     <t>['79', '83']</t>
@@ -11972,7 +11972,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -47980,7 +47980,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7345128</v>
+        <v>7345127</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47995,121 +47995,121 @@
         <v>2</v>
       </c>
       <c r="G227" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H227" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227">
         <v>1</v>
       </c>
       <c r="L227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227">
         <v>2</v>
       </c>
       <c r="O227" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="P227" t="s">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="Q227">
+        <v>3.5</v>
+      </c>
+      <c r="R227">
+        <v>1.83</v>
+      </c>
+      <c r="S227">
+        <v>4</v>
+      </c>
+      <c r="T227">
+        <v>1.67</v>
+      </c>
+      <c r="U227">
         <v>2.1</v>
       </c>
-      <c r="R227">
-        <v>2.1</v>
-      </c>
-      <c r="S227">
-        <v>8</v>
-      </c>
-      <c r="T227">
+      <c r="V227">
+        <v>4.33</v>
+      </c>
+      <c r="W227">
+        <v>1.2</v>
+      </c>
+      <c r="X227">
+        <v>15</v>
+      </c>
+      <c r="Y227">
+        <v>1.03</v>
+      </c>
+      <c r="Z227">
+        <v>2.6</v>
+      </c>
+      <c r="AA227">
+        <v>2.88</v>
+      </c>
+      <c r="AB227">
+        <v>3.1</v>
+      </c>
+      <c r="AC227">
+        <v>1.12</v>
+      </c>
+      <c r="AD227">
+        <v>5.25</v>
+      </c>
+      <c r="AE227">
+        <v>1.6</v>
+      </c>
+      <c r="AF227">
+        <v>2.2</v>
+      </c>
+      <c r="AG227">
+        <v>3.1</v>
+      </c>
+      <c r="AH227">
+        <v>1.36</v>
+      </c>
+      <c r="AI227">
+        <v>2.25</v>
+      </c>
+      <c r="AJ227">
         <v>1.57</v>
       </c>
-      <c r="U227">
-        <v>2.25</v>
-      </c>
-      <c r="V227">
-        <v>3.5</v>
-      </c>
-      <c r="W227">
-        <v>1.29</v>
-      </c>
-      <c r="X227">
-        <v>11</v>
-      </c>
-      <c r="Y227">
-        <v>1.05</v>
-      </c>
-      <c r="Z227">
+      <c r="AK227">
+        <v>1.22</v>
+      </c>
+      <c r="AL227">
+        <v>1.45</v>
+      </c>
+      <c r="AM227">
+        <v>1.52</v>
+      </c>
+      <c r="AN227">
+        <v>1.07</v>
+      </c>
+      <c r="AO227">
+        <v>1.53</v>
+      </c>
+      <c r="AP227">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ227">
+        <v>1.63</v>
+      </c>
+      <c r="AR227">
+        <v>1.33</v>
+      </c>
+      <c r="AS227">
         <v>1.48</v>
-      </c>
-      <c r="AA227">
-        <v>3.8</v>
-      </c>
-      <c r="AB227">
-        <v>9</v>
-      </c>
-      <c r="AC227">
-        <v>1.11</v>
-      </c>
-      <c r="AD227">
-        <v>6.25</v>
-      </c>
-      <c r="AE227">
-        <v>1.48</v>
-      </c>
-      <c r="AF227">
-        <v>2.6</v>
-      </c>
-      <c r="AG227">
-        <v>2.25</v>
-      </c>
-      <c r="AH227">
-        <v>1.62</v>
-      </c>
-      <c r="AI227">
-        <v>2.5</v>
-      </c>
-      <c r="AJ227">
-        <v>1.5</v>
-      </c>
-      <c r="AK227">
-        <v>1.05</v>
-      </c>
-      <c r="AL227">
-        <v>1.3</v>
-      </c>
-      <c r="AM227">
-        <v>2.25</v>
-      </c>
-      <c r="AN227">
-        <v>1.88</v>
-      </c>
-      <c r="AO227">
-        <v>1.07</v>
-      </c>
-      <c r="AP227">
-        <v>1.71</v>
-      </c>
-      <c r="AQ227">
-        <v>1</v>
-      </c>
-      <c r="AR227">
-        <v>1.7</v>
-      </c>
-      <c r="AS227">
-        <v>1.11</v>
       </c>
       <c r="AT227">
         <v>2.81</v>
@@ -48118,67 +48118,67 @@
         <v>9</v>
       </c>
       <c r="AV227">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AW227">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX227">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY227">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ227">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BA227">
+        <v>7</v>
+      </c>
+      <c r="BB227">
         <v>6</v>
       </c>
-      <c r="BB227">
-        <v>3</v>
-      </c>
       <c r="BC227">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD227">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="BE227">
-        <v>10.5</v>
+        <v>7.7</v>
       </c>
       <c r="BF227">
-        <v>6.17</v>
+        <v>2.76</v>
       </c>
       <c r="BG227">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH227">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="BI227">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="BJ227">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="BK227">
-        <v>2.05</v>
+        <v>2.21</v>
       </c>
       <c r="BL227">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="BM227">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="BN227">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BO227">
-        <v>3.85</v>
+        <v>4.25</v>
       </c>
       <c r="BP227">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="228" spans="1:68">
@@ -48186,7 +48186,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7345127</v>
+        <v>7345128</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48201,121 +48201,121 @@
         <v>2</v>
       </c>
       <c r="G228" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H228" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228">
         <v>1</v>
       </c>
       <c r="L228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N228">
         <v>2</v>
       </c>
       <c r="O228" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="Q228">
+        <v>2.1</v>
+      </c>
+      <c r="R228">
+        <v>2.1</v>
+      </c>
+      <c r="S228">
+        <v>8</v>
+      </c>
+      <c r="T228">
+        <v>1.57</v>
+      </c>
+      <c r="U228">
+        <v>2.25</v>
+      </c>
+      <c r="V228">
         <v>3.5</v>
       </c>
-      <c r="R228">
-        <v>1.83</v>
-      </c>
-      <c r="S228">
-        <v>4</v>
-      </c>
-      <c r="T228">
-        <v>1.67</v>
-      </c>
-      <c r="U228">
-        <v>2.1</v>
-      </c>
-      <c r="V228">
-        <v>4.33</v>
-      </c>
       <c r="W228">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="X228">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y228">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z228">
+        <v>1.48</v>
+      </c>
+      <c r="AA228">
+        <v>3.8</v>
+      </c>
+      <c r="AB228">
+        <v>9</v>
+      </c>
+      <c r="AC228">
+        <v>1.11</v>
+      </c>
+      <c r="AD228">
+        <v>6.25</v>
+      </c>
+      <c r="AE228">
+        <v>1.48</v>
+      </c>
+      <c r="AF228">
         <v>2.6</v>
       </c>
-      <c r="AA228">
-        <v>2.88</v>
-      </c>
-      <c r="AB228">
-        <v>3.1</v>
-      </c>
-      <c r="AC228">
-        <v>1.12</v>
-      </c>
-      <c r="AD228">
-        <v>5.25</v>
-      </c>
-      <c r="AE228">
-        <v>1.6</v>
-      </c>
-      <c r="AF228">
-        <v>2.2</v>
-      </c>
       <c r="AG228">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="AH228">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AI228">
+        <v>2.5</v>
+      </c>
+      <c r="AJ228">
+        <v>1.5</v>
+      </c>
+      <c r="AK228">
+        <v>1.05</v>
+      </c>
+      <c r="AL228">
+        <v>1.3</v>
+      </c>
+      <c r="AM228">
         <v>2.25</v>
       </c>
-      <c r="AJ228">
-        <v>1.57</v>
-      </c>
-      <c r="AK228">
-        <v>1.22</v>
-      </c>
-      <c r="AL228">
-        <v>1.45</v>
-      </c>
-      <c r="AM228">
-        <v>1.52</v>
-      </c>
       <c r="AN228">
+        <v>1.88</v>
+      </c>
+      <c r="AO228">
         <v>1.07</v>
       </c>
-      <c r="AO228">
-        <v>1.53</v>
-      </c>
       <c r="AP228">
-        <v>0.9399999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="AQ228">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR228">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="AS228">
-        <v>1.48</v>
+        <v>1.11</v>
       </c>
       <c r="AT228">
         <v>2.81</v>
@@ -48324,67 +48324,67 @@
         <v>9</v>
       </c>
       <c r="AV228">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AW228">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX228">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY228">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ228">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="BA228">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC228">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD228">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="BE228">
-        <v>7.7</v>
+        <v>10.5</v>
       </c>
       <c r="BF228">
-        <v>2.76</v>
+        <v>6.17</v>
       </c>
       <c r="BG228">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BH228">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="BI228">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="BJ228">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="BK228">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="BL228">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="BM228">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="BN228">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BO228">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="BP228">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="229" spans="1:68">
@@ -49422,7 +49422,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7345136</v>
+        <v>7345132</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49437,19 +49437,19 @@
         <v>3</v>
       </c>
       <c r="G234" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H234" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234">
         <v>2</v>
@@ -49464,43 +49464,43 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="Q234">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="R234">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S234">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="T234">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U234">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V234">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="W234">
         <v>1.25</v>
       </c>
       <c r="X234">
-        <v>11</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y234">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z234">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="AA234">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AB234">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="AC234">
         <v>1.1</v>
@@ -49512,115 +49512,115 @@
         <v>1.5</v>
       </c>
       <c r="AF234">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AG234">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AH234">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AI234">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ234">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK234">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AL234">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AM234">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="AN234">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO234">
-        <v>1.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP234">
-        <v>1.63</v>
+        <v>1.16</v>
       </c>
       <c r="AQ234">
-        <v>1.71</v>
+        <v>0.58</v>
       </c>
       <c r="AR234">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AS234">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="AT234">
-        <v>3.3</v>
+        <v>2.44</v>
       </c>
       <c r="AU234">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV234">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW234">
         <v>7</v>
       </c>
       <c r="AX234">
+        <v>9</v>
+      </c>
+      <c r="AY234">
+        <v>14</v>
+      </c>
+      <c r="AZ234">
+        <v>13</v>
+      </c>
+      <c r="BA234">
+        <v>4</v>
+      </c>
+      <c r="BB234">
         <v>7</v>
       </c>
-      <c r="AY234">
-        <v>13</v>
-      </c>
-      <c r="AZ234">
-        <v>14</v>
-      </c>
-      <c r="BA234">
-        <v>1</v>
-      </c>
-      <c r="BB234">
-        <v>5</v>
-      </c>
       <c r="BC234">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD234">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="BE234">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="BF234">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="BG234">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="BH234">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
       <c r="BI234">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="BJ234">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="BK234">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BL234">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="BM234">
-        <v>2.45</v>
+        <v>2.95</v>
       </c>
       <c r="BN234">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="BO234">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="BP234">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="235" spans="1:68">
@@ -49628,7 +49628,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>7345132</v>
+        <v>7345136</v>
       </c>
       <c r="C235" t="s">
         <v>68</v>
@@ -49643,19 +49643,19 @@
         <v>3</v>
       </c>
       <c r="G235" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H235" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L235">
         <v>2</v>
@@ -49670,43 +49670,43 @@
         <v>235</v>
       </c>
       <c r="P235" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="Q235">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="R235">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S235">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T235">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U235">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V235">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="W235">
         <v>1.25</v>
       </c>
       <c r="X235">
-        <v>9.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y235">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z235">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="AA235">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AB235">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="AC235">
         <v>1.1</v>
@@ -49718,115 +49718,115 @@
         <v>1.5</v>
       </c>
       <c r="AF235">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AG235">
+        <v>2.5</v>
+      </c>
+      <c r="AH235">
+        <v>1.5</v>
+      </c>
+      <c r="AI235">
         <v>2.05</v>
       </c>
-      <c r="AH235">
+      <c r="AJ235">
+        <v>1.7</v>
+      </c>
+      <c r="AK235">
+        <v>1.4</v>
+      </c>
+      <c r="AL235">
+        <v>1.36</v>
+      </c>
+      <c r="AM235">
+        <v>1.53</v>
+      </c>
+      <c r="AN235">
+        <v>1.5</v>
+      </c>
+      <c r="AO235">
+        <v>1.94</v>
+      </c>
+      <c r="AP235">
+        <v>1.63</v>
+      </c>
+      <c r="AQ235">
+        <v>1.71</v>
+      </c>
+      <c r="AR235">
+        <v>1.55</v>
+      </c>
+      <c r="AS235">
         <v>1.75</v>
       </c>
-      <c r="AI235">
-        <v>1.95</v>
-      </c>
-      <c r="AJ235">
-        <v>1.8</v>
-      </c>
-      <c r="AK235">
-        <v>1.17</v>
-      </c>
-      <c r="AL235">
-        <v>1.28</v>
-      </c>
-      <c r="AM235">
-        <v>1.93</v>
-      </c>
-      <c r="AN235">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AO235">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AP235">
-        <v>1.16</v>
-      </c>
-      <c r="AQ235">
-        <v>0.58</v>
-      </c>
-      <c r="AR235">
-        <v>1.34</v>
-      </c>
-      <c r="AS235">
-        <v>1.1</v>
-      </c>
       <c r="AT235">
-        <v>2.44</v>
+        <v>3.3</v>
       </c>
       <c r="AU235">
+        <v>6</v>
+      </c>
+      <c r="AV235">
         <v>7</v>
-      </c>
-      <c r="AV235">
-        <v>4</v>
       </c>
       <c r="AW235">
         <v>7</v>
       </c>
       <c r="AX235">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY235">
+        <v>13</v>
+      </c>
+      <c r="AZ235">
         <v>14</v>
       </c>
-      <c r="AZ235">
-        <v>13</v>
-      </c>
       <c r="BA235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB235">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC235">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD235">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="BE235">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="BF235">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="BG235">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="BH235">
-        <v>2.7</v>
+        <v>3.04</v>
       </c>
       <c r="BI235">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="BJ235">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="BK235">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL235">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="BM235">
-        <v>2.95</v>
+        <v>2.45</v>
       </c>
       <c r="BN235">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="BO235">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="BP235">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="236" spans="1:68">
@@ -51894,7 +51894,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>7345148</v>
+        <v>7345159</v>
       </c>
       <c r="C246" t="s">
         <v>68</v>
@@ -51909,190 +51909,190 @@
         <v>4</v>
       </c>
       <c r="G246" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H246" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I246">
         <v>0</v>
       </c>
       <c r="J246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L246">
         <v>1</v>
       </c>
       <c r="M246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O246" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="P246" t="s">
-        <v>340</v>
+        <v>98</v>
       </c>
       <c r="Q246">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R246">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="T246">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="U246">
-        <v>2.35</v>
+        <v>2.54</v>
       </c>
       <c r="V246">
         <v>3.4</v>
       </c>
       <c r="W246">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X246">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="Y246">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z246">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="AA246">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AB246">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="AC246">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AD246">
+        <v>6.5</v>
+      </c>
+      <c r="AE246">
+        <v>1.48</v>
+      </c>
+      <c r="AF246">
+        <v>2.6</v>
+      </c>
+      <c r="AG246">
+        <v>2.6</v>
+      </c>
+      <c r="AH246">
+        <v>1.48</v>
+      </c>
+      <c r="AI246">
+        <v>2.05</v>
+      </c>
+      <c r="AJ246">
+        <v>1.7</v>
+      </c>
+      <c r="AK246">
+        <v>1.48</v>
+      </c>
+      <c r="AL246">
+        <v>1.33</v>
+      </c>
+      <c r="AM246">
+        <v>1.4</v>
+      </c>
+      <c r="AN246">
+        <v>1.06</v>
+      </c>
+      <c r="AO246">
+        <v>1.79</v>
+      </c>
+      <c r="AP246">
+        <v>1.16</v>
+      </c>
+      <c r="AQ246">
+        <v>1.76</v>
+      </c>
+      <c r="AR246">
+        <v>1.36</v>
+      </c>
+      <c r="AS246">
+        <v>1.57</v>
+      </c>
+      <c r="AT246">
+        <v>2.93</v>
+      </c>
+      <c r="AU246">
+        <v>4</v>
+      </c>
+      <c r="AV246">
+        <v>3</v>
+      </c>
+      <c r="AW246">
+        <v>4</v>
+      </c>
+      <c r="AX246">
+        <v>11</v>
+      </c>
+      <c r="AY246">
         <v>8</v>
       </c>
-      <c r="AE246">
-        <v>1.45</v>
-      </c>
-      <c r="AF246">
-        <v>2.55</v>
-      </c>
-      <c r="AG246">
-        <v>2.5</v>
-      </c>
-      <c r="AH246">
-        <v>1.5</v>
-      </c>
-      <c r="AI246">
-        <v>2.2</v>
-      </c>
-      <c r="AJ246">
-        <v>1.62</v>
-      </c>
-      <c r="AK246">
-        <v>1.19</v>
-      </c>
-      <c r="AL246">
-        <v>1.25</v>
-      </c>
-      <c r="AM246">
-        <v>1.95</v>
-      </c>
-      <c r="AN246">
-        <v>1.7</v>
-      </c>
-      <c r="AO246">
-        <v>0.82</v>
-      </c>
-      <c r="AP246">
-        <v>1.59</v>
-      </c>
-      <c r="AQ246">
-        <v>0.84</v>
-      </c>
-      <c r="AR246">
-        <v>1.54</v>
-      </c>
-      <c r="AS246">
-        <v>1.7</v>
-      </c>
-      <c r="AT246">
-        <v>3.24</v>
-      </c>
-      <c r="AU246">
-        <v>8</v>
-      </c>
-      <c r="AV246">
-        <v>5</v>
-      </c>
-      <c r="AW246">
-        <v>3</v>
-      </c>
-      <c r="AX246">
-        <v>6</v>
-      </c>
-      <c r="AY246">
-        <v>11</v>
-      </c>
       <c r="AZ246">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA246">
+        <v>1</v>
+      </c>
+      <c r="BB246">
         <v>9</v>
       </c>
-      <c r="BB246">
-        <v>4</v>
-      </c>
       <c r="BC246">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD246">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="BE246">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="BF246">
-        <v>2.91</v>
+        <v>1.92</v>
       </c>
       <c r="BG246">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BH246">
-        <v>3.18</v>
+        <v>2.93</v>
       </c>
       <c r="BI246">
+        <v>1.8</v>
+      </c>
+      <c r="BJ246">
+        <v>2</v>
+      </c>
+      <c r="BK246">
+        <v>2.33</v>
+      </c>
+      <c r="BL246">
         <v>1.52</v>
       </c>
-      <c r="BJ246">
-        <v>2.33</v>
-      </c>
-      <c r="BK246">
-        <v>2</v>
-      </c>
-      <c r="BL246">
-        <v>1.8</v>
-      </c>
       <c r="BM246">
-        <v>2.45</v>
+        <v>3.15</v>
       </c>
       <c r="BN246">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="BO246">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="BP246">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="247" spans="1:68">
@@ -52100,7 +52100,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>7345159</v>
+        <v>7345148</v>
       </c>
       <c r="C247" t="s">
         <v>68</v>
@@ -52115,190 +52115,190 @@
         <v>4</v>
       </c>
       <c r="G247" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H247" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L247">
         <v>1</v>
       </c>
       <c r="M247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O247" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="P247" t="s">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="Q247">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R247">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S247">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T247">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="U247">
-        <v>2.54</v>
+        <v>2.35</v>
       </c>
       <c r="V247">
         <v>3.4</v>
       </c>
       <c r="W247">
+        <v>1.27</v>
+      </c>
+      <c r="X247">
+        <v>11.5</v>
+      </c>
+      <c r="Y247">
+        <v>1.04</v>
+      </c>
+      <c r="Z247">
+        <v>1.95</v>
+      </c>
+      <c r="AA247">
+        <v>3.4</v>
+      </c>
+      <c r="AB247">
+        <v>4.1</v>
+      </c>
+      <c r="AC247">
+        <v>1.08</v>
+      </c>
+      <c r="AD247">
+        <v>8</v>
+      </c>
+      <c r="AE247">
+        <v>1.45</v>
+      </c>
+      <c r="AF247">
+        <v>2.55</v>
+      </c>
+      <c r="AG247">
+        <v>2.5</v>
+      </c>
+      <c r="AH247">
+        <v>1.5</v>
+      </c>
+      <c r="AI247">
+        <v>2.2</v>
+      </c>
+      <c r="AJ247">
+        <v>1.62</v>
+      </c>
+      <c r="AK247">
+        <v>1.19</v>
+      </c>
+      <c r="AL247">
+        <v>1.25</v>
+      </c>
+      <c r="AM247">
+        <v>1.95</v>
+      </c>
+      <c r="AN247">
+        <v>1.7</v>
+      </c>
+      <c r="AO247">
+        <v>0.82</v>
+      </c>
+      <c r="AP247">
+        <v>1.59</v>
+      </c>
+      <c r="AQ247">
+        <v>0.84</v>
+      </c>
+      <c r="AR247">
+        <v>1.54</v>
+      </c>
+      <c r="AS247">
+        <v>1.7</v>
+      </c>
+      <c r="AT247">
+        <v>3.24</v>
+      </c>
+      <c r="AU247">
+        <v>8</v>
+      </c>
+      <c r="AV247">
+        <v>5</v>
+      </c>
+      <c r="AW247">
+        <v>3</v>
+      </c>
+      <c r="AX247">
+        <v>6</v>
+      </c>
+      <c r="AY247">
+        <v>11</v>
+      </c>
+      <c r="AZ247">
+        <v>11</v>
+      </c>
+      <c r="BA247">
+        <v>9</v>
+      </c>
+      <c r="BB247">
+        <v>4</v>
+      </c>
+      <c r="BC247">
+        <v>13</v>
+      </c>
+      <c r="BD247">
+        <v>1.62</v>
+      </c>
+      <c r="BE247">
+        <v>7.7</v>
+      </c>
+      <c r="BF247">
+        <v>2.91</v>
+      </c>
+      <c r="BG247">
         <v>1.28</v>
       </c>
-      <c r="X247">
-        <v>8</v>
-      </c>
-      <c r="Y247">
-        <v>1.05</v>
-      </c>
-      <c r="Z247">
-        <v>2.8</v>
-      </c>
-      <c r="AA247">
-        <v>3</v>
-      </c>
-      <c r="AB247">
-        <v>2.7</v>
-      </c>
-      <c r="AC247">
-        <v>1.1</v>
-      </c>
-      <c r="AD247">
-        <v>6.5</v>
-      </c>
-      <c r="AE247">
-        <v>1.48</v>
-      </c>
-      <c r="AF247">
-        <v>2.6</v>
-      </c>
-      <c r="AG247">
-        <v>2.6</v>
-      </c>
-      <c r="AH247">
-        <v>1.48</v>
-      </c>
-      <c r="AI247">
-        <v>2.05</v>
-      </c>
-      <c r="AJ247">
-        <v>1.7</v>
-      </c>
-      <c r="AK247">
-        <v>1.48</v>
-      </c>
-      <c r="AL247">
-        <v>1.33</v>
-      </c>
-      <c r="AM247">
-        <v>1.4</v>
-      </c>
-      <c r="AN247">
-        <v>1.06</v>
-      </c>
-      <c r="AO247">
-        <v>1.79</v>
-      </c>
-      <c r="AP247">
-        <v>1.16</v>
-      </c>
-      <c r="AQ247">
-        <v>1.76</v>
-      </c>
-      <c r="AR247">
-        <v>1.36</v>
-      </c>
-      <c r="AS247">
-        <v>1.57</v>
-      </c>
-      <c r="AT247">
-        <v>2.93</v>
-      </c>
-      <c r="AU247">
-        <v>4</v>
-      </c>
-      <c r="AV247">
-        <v>3</v>
-      </c>
-      <c r="AW247">
-        <v>4</v>
-      </c>
-      <c r="AX247">
-        <v>11</v>
-      </c>
-      <c r="AY247">
-        <v>8</v>
-      </c>
-      <c r="AZ247">
-        <v>14</v>
-      </c>
-      <c r="BA247">
-        <v>1</v>
-      </c>
-      <c r="BB247">
-        <v>9</v>
-      </c>
-      <c r="BC247">
-        <v>10</v>
-      </c>
-      <c r="BD247">
-        <v>2.3</v>
-      </c>
-      <c r="BE247">
-        <v>7</v>
-      </c>
-      <c r="BF247">
-        <v>1.92</v>
-      </c>
-      <c r="BG247">
-        <v>1.33</v>
-      </c>
       <c r="BH247">
-        <v>2.93</v>
+        <v>3.18</v>
       </c>
       <c r="BI247">
+        <v>1.52</v>
+      </c>
+      <c r="BJ247">
+        <v>2.33</v>
+      </c>
+      <c r="BK247">
+        <v>2</v>
+      </c>
+      <c r="BL247">
         <v>1.8</v>
       </c>
-      <c r="BJ247">
-        <v>2</v>
-      </c>
-      <c r="BK247">
-        <v>2.33</v>
-      </c>
-      <c r="BL247">
-        <v>1.52</v>
-      </c>
       <c r="BM247">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="BN247">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="BO247">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="BP247">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="248" spans="1:68">
@@ -52924,7 +52924,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>7345158</v>
+        <v>7345151</v>
       </c>
       <c r="C251" t="s">
         <v>68</v>
@@ -52939,10 +52939,10 @@
         <v>4</v>
       </c>
       <c r="G251" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H251" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -52954,175 +52954,175 @@
         <v>2</v>
       </c>
       <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251">
         <v>3</v>
-      </c>
-      <c r="M251">
-        <v>1</v>
-      </c>
-      <c r="N251">
-        <v>4</v>
       </c>
       <c r="O251" t="s">
         <v>243</v>
       </c>
       <c r="P251" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="Q251">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="R251">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="T251">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="U251">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="V251">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="W251">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="X251">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y251">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="Z251">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="AA251">
-        <v>6.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB251">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="AC251">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="AD251">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AE251">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="AF251">
-        <v>4.45</v>
+        <v>2.45</v>
       </c>
       <c r="AG251">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AH251">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="AI251">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ251">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AK251">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="AL251">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AM251">
-        <v>4.25</v>
+        <v>1.65</v>
       </c>
       <c r="AN251">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="AO251">
-        <v>0.35</v>
+        <v>1.35</v>
       </c>
       <c r="AP251">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="AQ251">
-        <v>0.37</v>
+        <v>1.37</v>
       </c>
       <c r="AR251">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="AS251">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="AT251">
-        <v>3.35</v>
+        <v>3.07</v>
       </c>
       <c r="AU251">
+        <v>3</v>
+      </c>
+      <c r="AV251">
+        <v>5</v>
+      </c>
+      <c r="AW251">
+        <v>5</v>
+      </c>
+      <c r="AX251">
+        <v>5</v>
+      </c>
+      <c r="AY251">
+        <v>8</v>
+      </c>
+      <c r="AZ251">
         <v>10</v>
       </c>
-      <c r="AV251">
+      <c r="BA251">
+        <v>4</v>
+      </c>
+      <c r="BB251">
         <v>3</v>
       </c>
-      <c r="AW251">
-        <v>4</v>
-      </c>
-      <c r="AX251">
-        <v>4</v>
-      </c>
-      <c r="AY251">
-        <v>14</v>
-      </c>
-      <c r="AZ251">
+      <c r="BC251">
         <v>7</v>
       </c>
-      <c r="BA251">
-        <v>6</v>
-      </c>
-      <c r="BB251">
-        <v>5</v>
-      </c>
-      <c r="BC251">
-        <v>11</v>
-      </c>
       <c r="BD251">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
       <c r="BE251">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="BF251">
-        <v>4.86</v>
+        <v>2.71</v>
       </c>
       <c r="BG251">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BH251">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BI251">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="BJ251">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="BK251">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="BL251">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="BM251">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="BN251">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BO251">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="BP251">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="252" spans="1:68">
@@ -53130,7 +53130,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>7345151</v>
+        <v>7345158</v>
       </c>
       <c r="C252" t="s">
         <v>68</v>
@@ -53145,10 +53145,10 @@
         <v>4</v>
       </c>
       <c r="G252" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H252" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -53160,175 +53160,175 @@
         <v>2</v>
       </c>
       <c r="L252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M252">
         <v>1</v>
       </c>
       <c r="N252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O252" t="s">
         <v>244</v>
       </c>
       <c r="P252" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Q252">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="S252">
+        <v>9.5</v>
+      </c>
+      <c r="T252">
+        <v>1.29</v>
+      </c>
+      <c r="U252">
+        <v>3.5</v>
+      </c>
+      <c r="V252">
+        <v>2.25</v>
+      </c>
+      <c r="W252">
+        <v>1.57</v>
+      </c>
+      <c r="X252">
+        <v>5.5</v>
+      </c>
+      <c r="Y252">
+        <v>1.14</v>
+      </c>
+      <c r="Z252">
+        <v>1.25</v>
+      </c>
+      <c r="AA252">
+        <v>6.25</v>
+      </c>
+      <c r="AB252">
+        <v>11</v>
+      </c>
+      <c r="AC252">
+        <v>1.02</v>
+      </c>
+      <c r="AD252">
+        <v>19</v>
+      </c>
+      <c r="AE252">
+        <v>1.15</v>
+      </c>
+      <c r="AF252">
+        <v>4.45</v>
+      </c>
+      <c r="AG252">
+        <v>1.6</v>
+      </c>
+      <c r="AH252">
+        <v>2.3</v>
+      </c>
+      <c r="AI252">
+        <v>2.1</v>
+      </c>
+      <c r="AJ252">
+        <v>1.67</v>
+      </c>
+      <c r="AK252">
+        <v>1.04</v>
+      </c>
+      <c r="AL252">
+        <v>1.09</v>
+      </c>
+      <c r="AM252">
+        <v>4.25</v>
+      </c>
+      <c r="AN252">
+        <v>1.83</v>
+      </c>
+      <c r="AO252">
+        <v>0.35</v>
+      </c>
+      <c r="AP252">
+        <v>1.8</v>
+      </c>
+      <c r="AQ252">
+        <v>0.37</v>
+      </c>
+      <c r="AR252">
+        <v>2.01</v>
+      </c>
+      <c r="AS252">
+        <v>1.34</v>
+      </c>
+      <c r="AT252">
+        <v>3.35</v>
+      </c>
+      <c r="AU252">
+        <v>10</v>
+      </c>
+      <c r="AV252">
+        <v>3</v>
+      </c>
+      <c r="AW252">
         <v>4</v>
       </c>
-      <c r="T252">
-        <v>1.57</v>
-      </c>
-      <c r="U252">
-        <v>2.25</v>
-      </c>
-      <c r="V252">
-        <v>3.7</v>
-      </c>
-      <c r="W252">
-        <v>1.22</v>
-      </c>
-      <c r="X252">
-        <v>8</v>
-      </c>
-      <c r="Y252">
-        <v>1.05</v>
-      </c>
-      <c r="Z252">
-        <v>2.3</v>
-      </c>
-      <c r="AA252">
-        <v>3.2</v>
-      </c>
-      <c r="AB252">
-        <v>3.2</v>
-      </c>
-      <c r="AC252">
-        <v>1.09</v>
-      </c>
-      <c r="AD252">
-        <v>7.5</v>
-      </c>
-      <c r="AE252">
-        <v>1.48</v>
-      </c>
-      <c r="AF252">
-        <v>2.45</v>
-      </c>
-      <c r="AG252">
-        <v>2.4</v>
-      </c>
-      <c r="AH252">
-        <v>1.53</v>
-      </c>
-      <c r="AI252">
+      <c r="AX252">
+        <v>4</v>
+      </c>
+      <c r="AY252">
+        <v>14</v>
+      </c>
+      <c r="AZ252">
+        <v>7</v>
+      </c>
+      <c r="BA252">
+        <v>6</v>
+      </c>
+      <c r="BB252">
+        <v>5</v>
+      </c>
+      <c r="BC252">
+        <v>11</v>
+      </c>
+      <c r="BD252">
+        <v>1.26</v>
+      </c>
+      <c r="BE252">
+        <v>11</v>
+      </c>
+      <c r="BF252">
+        <v>4.86</v>
+      </c>
+      <c r="BG252">
+        <v>1.36</v>
+      </c>
+      <c r="BH252">
+        <v>2.85</v>
+      </c>
+      <c r="BI252">
+        <v>1.7</v>
+      </c>
+      <c r="BJ252">
         <v>2.05</v>
       </c>
-      <c r="AJ252">
-        <v>1.7</v>
-      </c>
-      <c r="AK252">
-        <v>1.3</v>
-      </c>
-      <c r="AL252">
-        <v>1.28</v>
-      </c>
-      <c r="AM252">
+      <c r="BK252">
+        <v>2.38</v>
+      </c>
+      <c r="BL252">
         <v>1.65</v>
       </c>
-      <c r="AN252">
-        <v>1.24</v>
-      </c>
-      <c r="AO252">
-        <v>1.35</v>
-      </c>
-      <c r="AP252">
-        <v>1.42</v>
-      </c>
-      <c r="AQ252">
-        <v>1.37</v>
-      </c>
-      <c r="AR252">
-        <v>1.43</v>
-      </c>
-      <c r="AS252">
-        <v>1.64</v>
-      </c>
-      <c r="AT252">
-        <v>3.07</v>
-      </c>
-      <c r="AU252">
-        <v>3</v>
-      </c>
-      <c r="AV252">
-        <v>5</v>
-      </c>
-      <c r="AW252">
-        <v>5</v>
-      </c>
-      <c r="AX252">
-        <v>5</v>
-      </c>
-      <c r="AY252">
-        <v>8</v>
-      </c>
-      <c r="AZ252">
-        <v>10</v>
-      </c>
-      <c r="BA252">
-        <v>4</v>
-      </c>
-      <c r="BB252">
-        <v>3</v>
-      </c>
-      <c r="BC252">
-        <v>7</v>
-      </c>
-      <c r="BD252">
-        <v>1.7</v>
-      </c>
-      <c r="BE252">
-        <v>7.5</v>
-      </c>
-      <c r="BF252">
-        <v>2.71</v>
-      </c>
-      <c r="BG252">
-        <v>1.28</v>
-      </c>
-      <c r="BH252">
-        <v>3.4</v>
-      </c>
-      <c r="BI252">
-        <v>1.52</v>
-      </c>
-      <c r="BJ252">
-        <v>2.33</v>
-      </c>
-      <c r="BK252">
-        <v>1.98</v>
-      </c>
-      <c r="BL252">
-        <v>1.82</v>
-      </c>
       <c r="BM252">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="BN252">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BO252">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="BP252">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="253" spans="1:68">
@@ -54160,7 +54160,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>7345153</v>
+        <v>7345150</v>
       </c>
       <c r="C257" t="s">
         <v>68</v>
@@ -54175,10 +54175,10 @@
         <v>4</v>
       </c>
       <c r="G257" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H257" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -54190,175 +54190,175 @@
         <v>0</v>
       </c>
       <c r="L257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O257" t="s">
+        <v>246</v>
+      </c>
+      <c r="P257" t="s">
         <v>98</v>
       </c>
-      <c r="P257" t="s">
-        <v>238</v>
-      </c>
       <c r="Q257">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R257">
         <v>1.83</v>
       </c>
       <c r="S257">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T257">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U257">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V257">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W257">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X257">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y257">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z257">
         <v>3.4</v>
       </c>
       <c r="AA257">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AB257">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AC257">
         <v>1.09</v>
       </c>
       <c r="AD257">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE257">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AF257">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AG257">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="AH257">
+        <v>1.4</v>
+      </c>
+      <c r="AI257">
+        <v>2.25</v>
+      </c>
+      <c r="AJ257">
+        <v>1.57</v>
+      </c>
+      <c r="AK257">
         <v>1.33</v>
       </c>
-      <c r="AI257">
-        <v>2.5</v>
-      </c>
-      <c r="AJ257">
-        <v>1.5</v>
-      </c>
-      <c r="AK257">
-        <v>1.55</v>
-      </c>
       <c r="AL257">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AM257">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AN257">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO257">
         <v>1.59</v>
       </c>
       <c r="AP257">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
       <c r="AQ257">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="AR257">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AS257">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AT257">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AU257">
         <v>6</v>
       </c>
       <c r="AV257">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW257">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX257">
+        <v>1</v>
+      </c>
+      <c r="AY257">
+        <v>12</v>
+      </c>
+      <c r="AZ257">
         <v>7</v>
       </c>
-      <c r="AY257">
-        <v>10</v>
-      </c>
-      <c r="AZ257">
-        <v>9</v>
-      </c>
       <c r="BA257">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB257">
         <v>3</v>
       </c>
       <c r="BC257">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD257">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="BE257">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="BF257">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="BG257">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="BH257">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BI257">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="BJ257">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BK257">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL257">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="BM257">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BN257">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="BO257">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="BP257">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="258" spans="1:68">
@@ -54366,7 +54366,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>7345150</v>
+        <v>7345153</v>
       </c>
       <c r="C258" t="s">
         <v>68</v>
@@ -54381,10 +54381,10 @@
         <v>4</v>
       </c>
       <c r="G258" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H258" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -54396,175 +54396,175 @@
         <v>0</v>
       </c>
       <c r="L258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O258" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="P258" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="Q258">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R258">
         <v>1.83</v>
       </c>
       <c r="S258">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T258">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U258">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V258">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W258">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X258">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y258">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z258">
         <v>3.4</v>
       </c>
       <c r="AA258">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AB258">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AC258">
         <v>1.09</v>
       </c>
       <c r="AD258">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AE258">
+        <v>1.48</v>
+      </c>
+      <c r="AF258">
+        <v>2.45</v>
+      </c>
+      <c r="AG258">
+        <v>3.4</v>
+      </c>
+      <c r="AH258">
+        <v>1.33</v>
+      </c>
+      <c r="AI258">
+        <v>2.5</v>
+      </c>
+      <c r="AJ258">
+        <v>1.5</v>
+      </c>
+      <c r="AK258">
         <v>1.55</v>
       </c>
-      <c r="AF258">
-        <v>2.25</v>
-      </c>
-      <c r="AG258">
-        <v>2.88</v>
-      </c>
-      <c r="AH258">
-        <v>1.4</v>
-      </c>
-      <c r="AI258">
-        <v>2.25</v>
-      </c>
-      <c r="AJ258">
-        <v>1.57</v>
-      </c>
-      <c r="AK258">
-        <v>1.33</v>
-      </c>
       <c r="AL258">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AM258">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AN258">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AO258">
         <v>1.59</v>
       </c>
       <c r="AP258">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="AQ258">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AR258">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AS258">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AT258">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="AU258">
         <v>6</v>
       </c>
       <c r="AV258">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW258">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX258">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY258">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ258">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA258">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB258">
         <v>3</v>
       </c>
       <c r="BC258">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD258">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="BE258">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="BF258">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="BG258">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="BH258">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BI258">
+        <v>1.72</v>
+      </c>
+      <c r="BJ258">
+        <v>2.05</v>
+      </c>
+      <c r="BK258">
+        <v>2.2</v>
+      </c>
+      <c r="BL258">
         <v>1.62</v>
       </c>
-      <c r="BJ258">
-        <v>2.2</v>
-      </c>
-      <c r="BK258">
-        <v>2</v>
-      </c>
-      <c r="BL258">
-        <v>1.75</v>
-      </c>
       <c r="BM258">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BN258">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="BO258">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="BP258">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="259" spans="1:68">
@@ -56426,7 +56426,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>7345172</v>
+        <v>7345173</v>
       </c>
       <c r="C268" t="s">
         <v>68</v>
@@ -56441,55 +56441,55 @@
         <v>5</v>
       </c>
       <c r="G268" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H268" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N268">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O268" t="s">
         <v>254</v>
       </c>
       <c r="P268" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q268">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R268">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S268">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="T268">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U268">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V268">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W268">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X268">
         <v>11</v>
@@ -56498,133 +56498,133 @@
         <v>1.05</v>
       </c>
       <c r="Z268">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AA268">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB268">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AC268">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD268">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="AE268">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AF268">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AG268">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AH268">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AI268">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AJ268">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AK268">
+        <v>1.16</v>
+      </c>
+      <c r="AL268">
+        <v>1.26</v>
+      </c>
+      <c r="AM268">
+        <v>2.15</v>
+      </c>
+      <c r="AN268">
+        <v>1.89</v>
+      </c>
+      <c r="AO268">
         <v>1.28</v>
       </c>
-      <c r="AL268">
-        <v>1.3</v>
-      </c>
-      <c r="AM268">
-        <v>1.75</v>
-      </c>
-      <c r="AN268">
-        <v>1.74</v>
-      </c>
-      <c r="AO268">
-        <v>1.67</v>
-      </c>
       <c r="AP268">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ268">
+        <v>1.21</v>
+      </c>
+      <c r="AR268">
+        <v>1.71</v>
+      </c>
+      <c r="AS268">
+        <v>1.36</v>
+      </c>
+      <c r="AT268">
+        <v>3.07</v>
+      </c>
+      <c r="AU268">
+        <v>7</v>
+      </c>
+      <c r="AV268">
+        <v>3</v>
+      </c>
+      <c r="AW268">
+        <v>7</v>
+      </c>
+      <c r="AX268">
+        <v>7</v>
+      </c>
+      <c r="AY268">
+        <v>14</v>
+      </c>
+      <c r="AZ268">
+        <v>10</v>
+      </c>
+      <c r="BA268">
+        <v>7</v>
+      </c>
+      <c r="BB268">
+        <v>4</v>
+      </c>
+      <c r="BC268">
+        <v>11</v>
+      </c>
+      <c r="BD268">
         <v>1.59</v>
       </c>
-      <c r="AR268">
-        <v>1.51</v>
-      </c>
-      <c r="AS268">
-        <v>1.55</v>
-      </c>
-      <c r="AT268">
-        <v>3.06</v>
-      </c>
-      <c r="AU268">
-        <v>4</v>
-      </c>
-      <c r="AV268">
-        <v>4</v>
-      </c>
-      <c r="AW268">
-        <v>5</v>
-      </c>
-      <c r="AX268">
-        <v>4</v>
-      </c>
-      <c r="AY268">
-        <v>9</v>
-      </c>
-      <c r="AZ268">
-        <v>8</v>
-      </c>
-      <c r="BA268">
-        <v>5</v>
-      </c>
-      <c r="BB268">
-        <v>5</v>
-      </c>
-      <c r="BC268">
-        <v>10</v>
-      </c>
-      <c r="BD268">
-        <v>1.57</v>
-      </c>
       <c r="BE268">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF268">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BG268">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH268">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BI268">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BJ268">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BK268">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL268">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="BM268">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BN268">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="BO268">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="BP268">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="269" spans="1:68">
@@ -56632,7 +56632,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>7345173</v>
+        <v>7345172</v>
       </c>
       <c r="C269" t="s">
         <v>68</v>
@@ -56647,55 +56647,55 @@
         <v>5</v>
       </c>
       <c r="G269" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H269" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O269" t="s">
         <v>255</v>
       </c>
       <c r="P269" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q269">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R269">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S269">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="T269">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U269">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V269">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W269">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X269">
         <v>11</v>
@@ -56704,133 +56704,133 @@
         <v>1.05</v>
       </c>
       <c r="Z269">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AA269">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB269">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AC269">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD269">
-        <v>6.95</v>
+        <v>7.2</v>
       </c>
       <c r="AE269">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AF269">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AG269">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AH269">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AI269">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AJ269">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AK269">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AL269">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AM269">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="AN269">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AO269">
-        <v>1.28</v>
+        <v>1.67</v>
       </c>
       <c r="AP269">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ269">
+        <v>1.59</v>
+      </c>
+      <c r="AR269">
+        <v>1.51</v>
+      </c>
+      <c r="AS269">
+        <v>1.55</v>
+      </c>
+      <c r="AT269">
+        <v>3.06</v>
+      </c>
+      <c r="AU269">
+        <v>4</v>
+      </c>
+      <c r="AV269">
+        <v>4</v>
+      </c>
+      <c r="AW269">
+        <v>5</v>
+      </c>
+      <c r="AX269">
+        <v>4</v>
+      </c>
+      <c r="AY269">
+        <v>9</v>
+      </c>
+      <c r="AZ269">
+        <v>8</v>
+      </c>
+      <c r="BA269">
+        <v>5</v>
+      </c>
+      <c r="BB269">
+        <v>5</v>
+      </c>
+      <c r="BC269">
+        <v>10</v>
+      </c>
+      <c r="BD269">
+        <v>1.57</v>
+      </c>
+      <c r="BE269">
+        <v>7.6</v>
+      </c>
+      <c r="BF269">
+        <v>3.1</v>
+      </c>
+      <c r="BG269">
+        <v>1.36</v>
+      </c>
+      <c r="BH269">
+        <v>2.8</v>
+      </c>
+      <c r="BI269">
+        <v>1.67</v>
+      </c>
+      <c r="BJ269">
+        <v>2.1</v>
+      </c>
+      <c r="BK269">
+        <v>2.1</v>
+      </c>
+      <c r="BL269">
+        <v>1.64</v>
+      </c>
+      <c r="BM269">
+        <v>2.8</v>
+      </c>
+      <c r="BN269">
+        <v>1.37</v>
+      </c>
+      <c r="BO269">
+        <v>3.85</v>
+      </c>
+      <c r="BP269">
         <v>1.21</v>
-      </c>
-      <c r="AR269">
-        <v>1.71</v>
-      </c>
-      <c r="AS269">
-        <v>1.36</v>
-      </c>
-      <c r="AT269">
-        <v>3.07</v>
-      </c>
-      <c r="AU269">
-        <v>7</v>
-      </c>
-      <c r="AV269">
-        <v>3</v>
-      </c>
-      <c r="AW269">
-        <v>7</v>
-      </c>
-      <c r="AX269">
-        <v>7</v>
-      </c>
-      <c r="AY269">
-        <v>14</v>
-      </c>
-      <c r="AZ269">
-        <v>10</v>
-      </c>
-      <c r="BA269">
-        <v>7</v>
-      </c>
-      <c r="BB269">
-        <v>4</v>
-      </c>
-      <c r="BC269">
-        <v>11</v>
-      </c>
-      <c r="BD269">
-        <v>1.59</v>
-      </c>
-      <c r="BE269">
-        <v>7.8</v>
-      </c>
-      <c r="BF269">
-        <v>3</v>
-      </c>
-      <c r="BG269">
-        <v>1.4</v>
-      </c>
-      <c r="BH269">
-        <v>2.7</v>
-      </c>
-      <c r="BI269">
-        <v>1.73</v>
-      </c>
-      <c r="BJ269">
-        <v>2</v>
-      </c>
-      <c r="BK269">
-        <v>2.2</v>
-      </c>
-      <c r="BL269">
-        <v>1.58</v>
-      </c>
-      <c r="BM269">
-        <v>2.95</v>
-      </c>
-      <c r="BN269">
-        <v>1.34</v>
-      </c>
-      <c r="BO269">
-        <v>4.1</v>
-      </c>
-      <c r="BP269">
-        <v>1.19</v>
       </c>
     </row>
     <row r="270" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="348">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -787,6 +787,9 @@
     <t>['79', '83']</t>
   </si>
   <si>
+    <t>['3', '10', '22']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1052,6 +1055,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['15', '70']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP272"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1750,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -2702,7 +2708,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2783,7 +2789,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ7">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2986,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ8">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3114,7 +3120,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3320,7 +3326,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4144,7 +4150,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4634,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -4762,7 +4768,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4968,7 +4974,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5380,7 +5386,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5667,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5870,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -6204,7 +6210,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6491,7 +6497,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ25">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6616,7 +6622,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7234,7 +7240,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7521,7 +7527,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7646,7 +7652,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7930,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -9294,7 +9300,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9706,7 +9712,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9912,7 +9918,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10611,7 +10617,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ45">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.39</v>
@@ -10817,7 +10823,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10942,7 +10948,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11229,7 +11235,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR48">
         <v>1.98</v>
@@ -11354,7 +11360,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11560,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11638,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -12384,7 +12390,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -13002,7 +13008,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13080,7 +13086,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ57">
         <v>1.7</v>
@@ -13208,7 +13214,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13620,7 +13626,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14238,7 +14244,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14444,7 +14450,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15268,7 +15274,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15680,7 +15686,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15758,7 +15764,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -16173,7 +16179,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR72">
         <v>1.56</v>
@@ -16298,7 +16304,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16504,7 +16510,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16585,7 +16591,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ74">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR74">
         <v>1.14</v>
@@ -16916,7 +16922,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16994,10 +17000,10 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ76">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR76">
         <v>1.4</v>
@@ -18564,7 +18570,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18642,7 +18648,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AQ84">
         <v>1.1</v>
@@ -19182,7 +19188,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -20006,7 +20012,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20830,7 +20836,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20908,7 +20914,7 @@
         <v>3</v>
       </c>
       <c r="AP95">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95">
         <v>1.89</v>
@@ -21320,7 +21326,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AQ97">
         <v>0.9</v>
@@ -21448,7 +21454,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21529,7 +21535,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR98">
         <v>1.94</v>
@@ -21860,7 +21866,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22272,7 +22278,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22350,7 +22356,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ102">
         <v>1.36</v>
@@ -23096,7 +23102,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23714,7 +23720,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23920,7 +23926,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24126,7 +24132,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24332,7 +24338,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24538,7 +24544,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24822,7 +24828,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114">
         <v>0.89</v>
@@ -24950,7 +24956,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25031,7 +25037,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ115">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR115">
         <v>1.58</v>
@@ -25646,10 +25652,10 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AQ118">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR118">
         <v>1.8</v>
@@ -25774,7 +25780,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26392,7 +26398,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27091,7 +27097,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ125">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.65</v>
@@ -27628,7 +27634,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -29070,7 +29076,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29276,7 +29282,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29482,7 +29488,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29688,7 +29694,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29766,7 +29772,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ138">
         <v>0.67</v>
@@ -29894,7 +29900,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30100,7 +30106,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30387,7 +30393,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ141">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR141">
         <v>1.3</v>
@@ -31130,7 +31136,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31623,7 +31629,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR147">
         <v>2.04</v>
@@ -32035,7 +32041,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ149">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR149">
         <v>2.23</v>
@@ -32366,7 +32372,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32650,7 +32656,7 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AQ152">
         <v>0.73</v>
@@ -32778,7 +32784,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33190,7 +33196,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33396,7 +33402,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33602,7 +33608,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33680,7 +33686,7 @@
         <v>0.6</v>
       </c>
       <c r="AP157">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ157">
         <v>0.78</v>
@@ -34014,7 +34020,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34632,7 +34638,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35456,7 +35462,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35662,7 +35668,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35740,7 +35746,7 @@
         <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ167">
         <v>1.2</v>
@@ -35868,7 +35874,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36361,7 +36367,7 @@
         <v>1</v>
       </c>
       <c r="AQ170">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR170">
         <v>1.5</v>
@@ -36486,7 +36492,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36692,7 +36698,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37310,7 +37316,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37516,7 +37522,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37597,7 +37603,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ176">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37722,7 +37728,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38546,7 +38552,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38627,7 +38633,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ181">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR181">
         <v>1.28</v>
@@ -39576,7 +39582,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39988,7 +39994,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40066,7 +40072,7 @@
         <v>1.83</v>
       </c>
       <c r="AP188">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AQ188">
         <v>1.36</v>
@@ -40194,7 +40200,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40478,7 +40484,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ190">
         <v>1.31</v>
@@ -40606,7 +40612,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40684,7 +40690,7 @@
         <v>1.5</v>
       </c>
       <c r="AP191">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ191">
         <v>1.33</v>
@@ -40812,7 +40818,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -41018,7 +41024,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41920,7 +41926,7 @@
         <v>1.86</v>
       </c>
       <c r="AP197">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AQ197">
         <v>1.5</v>
@@ -42254,7 +42260,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42460,7 +42466,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42744,7 +42750,7 @@
         <v>1.87</v>
       </c>
       <c r="AP201">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AQ201">
         <v>1.59</v>
@@ -43284,7 +43290,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43365,7 +43371,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ204">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43696,7 +43702,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43774,7 +43780,7 @@
         <v>1.07</v>
       </c>
       <c r="AP206">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AQ206">
         <v>1.11</v>
@@ -44108,7 +44114,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44314,7 +44320,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44392,7 +44398,7 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AQ209">
         <v>1.95</v>
@@ -44804,7 +44810,7 @@
         <v>1.81</v>
       </c>
       <c r="AP211">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="AQ211">
         <v>1.71</v>
@@ -45138,7 +45144,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45344,7 +45350,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45425,7 +45431,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ214">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR214">
         <v>1.48</v>
@@ -45834,7 +45840,7 @@
         <v>1.76</v>
       </c>
       <c r="AP216">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ216">
         <v>1.59</v>
@@ -46246,7 +46252,7 @@
         <v>1.81</v>
       </c>
       <c r="AP218">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ218">
         <v>1.68</v>
@@ -46580,7 +46586,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46661,7 +46667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ220">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR220">
         <v>1.46</v>
@@ -46786,7 +46792,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46864,7 +46870,7 @@
         <v>1.53</v>
       </c>
       <c r="AP221">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ221">
         <v>1.74</v>
@@ -47279,7 +47285,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ223">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR223">
         <v>1.36</v>
@@ -47816,7 +47822,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -48022,7 +48028,7 @@
         <v>114</v>
       </c>
       <c r="P227" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q227">
         <v>3.5</v>
@@ -48515,7 +48521,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ229">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AR229">
         <v>1.71</v>
@@ -48721,7 +48727,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ230">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="AR230">
         <v>1.25</v>
@@ -49052,7 +49058,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49258,7 +49264,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49336,7 +49342,7 @@
         <v>1.75</v>
       </c>
       <c r="AP233">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="AQ233">
         <v>1.79</v>
@@ -49464,7 +49470,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -49954,7 +49960,7 @@
         <v>1.94</v>
       </c>
       <c r="AP236">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AQ236">
         <v>1.8</v>
@@ -50575,7 +50581,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ239">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR239">
         <v>1.43</v>
@@ -50781,7 +50787,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ240">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR240">
         <v>1.31</v>
@@ -50984,7 +50990,7 @@
         <v>1.13</v>
       </c>
       <c r="AP241">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ241">
         <v>1.11</v>
@@ -51190,7 +51196,7 @@
         <v>1.74</v>
       </c>
       <c r="AP242">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AQ242">
         <v>1.59</v>
@@ -52017,7 +52023,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ246">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AR246">
         <v>1.36</v>
@@ -52142,7 +52148,7 @@
         <v>115</v>
       </c>
       <c r="P247" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q247">
         <v>2.75</v>
@@ -52760,7 +52766,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -53044,10 +53050,10 @@
         <v>1.35</v>
       </c>
       <c r="AP251">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ251">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR251">
         <v>1.43</v>
@@ -53253,7 +53259,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ252">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="AR252">
         <v>2.01</v>
@@ -53378,7 +53384,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53665,7 +53671,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ254">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR254">
         <v>1.42</v>
@@ -53790,7 +53796,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53996,7 +54002,7 @@
         <v>98</v>
       </c>
       <c r="P256" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54486,7 +54492,7 @@
         <v>1.59</v>
       </c>
       <c r="AP258">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ258">
         <v>1.74</v>
@@ -54820,7 +54826,7 @@
         <v>248</v>
       </c>
       <c r="P260" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -54898,7 +54904,7 @@
         <v>0.61</v>
       </c>
       <c r="AP260">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AQ260">
         <v>0.58</v>
@@ -55104,7 +55110,7 @@
         <v>1.58</v>
       </c>
       <c r="AP261">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ261">
         <v>1.5</v>
@@ -55310,7 +55316,7 @@
         <v>1.17</v>
       </c>
       <c r="AP262">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AQ262">
         <v>1.11</v>
@@ -55722,7 +55728,7 @@
         <v>1.17</v>
       </c>
       <c r="AP264">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="AQ264">
         <v>1.16</v>
@@ -56262,7 +56268,7 @@
         <v>98</v>
       </c>
       <c r="P267" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q267">
         <v>3.1</v>
@@ -56343,7 +56349,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ267">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR267">
         <v>1.41</v>
@@ -56880,7 +56886,7 @@
         <v>256</v>
       </c>
       <c r="P270" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -57167,7 +57173,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ271">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR271">
         <v>1.43</v>
@@ -57449,6 +57455,624 @@
       </c>
       <c r="BP272">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7345187</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45491.78125</v>
+      </c>
+      <c r="F273">
+        <v>6</v>
+      </c>
+      <c r="G273" t="s">
+        <v>89</v>
+      </c>
+      <c r="H273" t="s">
+        <v>71</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>2</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" t="s">
+        <v>98</v>
+      </c>
+      <c r="P273" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q273">
+        <v>2.6</v>
+      </c>
+      <c r="R273">
+        <v>1.95</v>
+      </c>
+      <c r="S273">
+        <v>5.5</v>
+      </c>
+      <c r="T273">
+        <v>1.45</v>
+      </c>
+      <c r="U273">
+        <v>2.59</v>
+      </c>
+      <c r="V273">
+        <v>3.19</v>
+      </c>
+      <c r="W273">
+        <v>1.31</v>
+      </c>
+      <c r="X273">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="Y273">
+        <v>1.04</v>
+      </c>
+      <c r="Z273">
+        <v>1.85</v>
+      </c>
+      <c r="AA273">
+        <v>3.2</v>
+      </c>
+      <c r="AB273">
+        <v>5</v>
+      </c>
+      <c r="AC273">
+        <v>1.06</v>
+      </c>
+      <c r="AD273">
+        <v>8.27</v>
+      </c>
+      <c r="AE273">
+        <v>1.39</v>
+      </c>
+      <c r="AF273">
+        <v>2.91</v>
+      </c>
+      <c r="AG273">
+        <v>2.5</v>
+      </c>
+      <c r="AH273">
+        <v>1.5</v>
+      </c>
+      <c r="AI273">
+        <v>2.2</v>
+      </c>
+      <c r="AJ273">
+        <v>1.62</v>
+      </c>
+      <c r="AK273">
+        <v>1.11</v>
+      </c>
+      <c r="AL273">
+        <v>1.22</v>
+      </c>
+      <c r="AM273">
+        <v>2.45</v>
+      </c>
+      <c r="AN273">
+        <v>1.76</v>
+      </c>
+      <c r="AO273">
+        <v>0.37</v>
+      </c>
+      <c r="AP273">
+        <v>1.68</v>
+      </c>
+      <c r="AQ273">
+        <v>0.5</v>
+      </c>
+      <c r="AR273">
+        <v>1.57</v>
+      </c>
+      <c r="AS273">
+        <v>1.31</v>
+      </c>
+      <c r="AT273">
+        <v>2.88</v>
+      </c>
+      <c r="AU273">
+        <v>3</v>
+      </c>
+      <c r="AV273">
+        <v>5</v>
+      </c>
+      <c r="AW273">
+        <v>11</v>
+      </c>
+      <c r="AX273">
+        <v>3</v>
+      </c>
+      <c r="AY273">
+        <v>14</v>
+      </c>
+      <c r="AZ273">
+        <v>8</v>
+      </c>
+      <c r="BA273">
+        <v>6</v>
+      </c>
+      <c r="BB273">
+        <v>0</v>
+      </c>
+      <c r="BC273">
+        <v>6</v>
+      </c>
+      <c r="BD273">
+        <v>1.27</v>
+      </c>
+      <c r="BE273">
+        <v>8.5</v>
+      </c>
+      <c r="BF273">
+        <v>4.7</v>
+      </c>
+      <c r="BG273">
+        <v>1.42</v>
+      </c>
+      <c r="BH273">
+        <v>2.7</v>
+      </c>
+      <c r="BI273">
+        <v>1.72</v>
+      </c>
+      <c r="BJ273">
+        <v>2.05</v>
+      </c>
+      <c r="BK273">
+        <v>2.2</v>
+      </c>
+      <c r="BL273">
+        <v>1.65</v>
+      </c>
+      <c r="BM273">
+        <v>2.85</v>
+      </c>
+      <c r="BN273">
+        <v>1.38</v>
+      </c>
+      <c r="BO273">
+        <v>3.9</v>
+      </c>
+      <c r="BP273">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7345180</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45491.79166666666</v>
+      </c>
+      <c r="F274">
+        <v>6</v>
+      </c>
+      <c r="G274" t="s">
+        <v>76</v>
+      </c>
+      <c r="H274" t="s">
+        <v>85</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274" t="s">
+        <v>196</v>
+      </c>
+      <c r="P274" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q274">
+        <v>3.6</v>
+      </c>
+      <c r="R274">
+        <v>1.91</v>
+      </c>
+      <c r="S274">
+        <v>3.6</v>
+      </c>
+      <c r="T274">
+        <v>1.53</v>
+      </c>
+      <c r="U274">
+        <v>2.38</v>
+      </c>
+      <c r="V274">
+        <v>3.5</v>
+      </c>
+      <c r="W274">
+        <v>1.29</v>
+      </c>
+      <c r="X274">
+        <v>11</v>
+      </c>
+      <c r="Y274">
+        <v>1.05</v>
+      </c>
+      <c r="Z274">
+        <v>2.75</v>
+      </c>
+      <c r="AA274">
+        <v>3</v>
+      </c>
+      <c r="AB274">
+        <v>2.8</v>
+      </c>
+      <c r="AC274">
+        <v>1.08</v>
+      </c>
+      <c r="AD274">
+        <v>7.8</v>
+      </c>
+      <c r="AE274">
+        <v>1.45</v>
+      </c>
+      <c r="AF274">
+        <v>2.7</v>
+      </c>
+      <c r="AG274">
+        <v>2.7</v>
+      </c>
+      <c r="AH274">
+        <v>1.44</v>
+      </c>
+      <c r="AI274">
+        <v>2.1</v>
+      </c>
+      <c r="AJ274">
+        <v>1.67</v>
+      </c>
+      <c r="AK274">
+        <v>1.57</v>
+      </c>
+      <c r="AL274">
+        <v>1.3</v>
+      </c>
+      <c r="AM274">
+        <v>1.35</v>
+      </c>
+      <c r="AN274">
+        <v>0.79</v>
+      </c>
+      <c r="AO274">
+        <v>1.37</v>
+      </c>
+      <c r="AP274">
+        <v>0.9</v>
+      </c>
+      <c r="AQ274">
+        <v>1.3</v>
+      </c>
+      <c r="AR274">
+        <v>1.29</v>
+      </c>
+      <c r="AS274">
+        <v>1.61</v>
+      </c>
+      <c r="AT274">
+        <v>2.9</v>
+      </c>
+      <c r="AU274">
+        <v>4</v>
+      </c>
+      <c r="AV274">
+        <v>0</v>
+      </c>
+      <c r="AW274">
+        <v>7</v>
+      </c>
+      <c r="AX274">
+        <v>5</v>
+      </c>
+      <c r="AY274">
+        <v>11</v>
+      </c>
+      <c r="AZ274">
+        <v>5</v>
+      </c>
+      <c r="BA274">
+        <v>4</v>
+      </c>
+      <c r="BB274">
+        <v>0</v>
+      </c>
+      <c r="BC274">
+        <v>4</v>
+      </c>
+      <c r="BD274">
+        <v>2.1</v>
+      </c>
+      <c r="BE274">
+        <v>7.5</v>
+      </c>
+      <c r="BF274">
+        <v>2</v>
+      </c>
+      <c r="BG274">
+        <v>1.38</v>
+      </c>
+      <c r="BH274">
+        <v>2.85</v>
+      </c>
+      <c r="BI274">
+        <v>1.65</v>
+      </c>
+      <c r="BJ274">
+        <v>2.15</v>
+      </c>
+      <c r="BK274">
+        <v>2.05</v>
+      </c>
+      <c r="BL274">
+        <v>1.7</v>
+      </c>
+      <c r="BM274">
+        <v>2.65</v>
+      </c>
+      <c r="BN274">
+        <v>1.42</v>
+      </c>
+      <c r="BO274">
+        <v>3.6</v>
+      </c>
+      <c r="BP274">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7345178</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45491.875</v>
+      </c>
+      <c r="F275">
+        <v>6</v>
+      </c>
+      <c r="G275" t="s">
+        <v>70</v>
+      </c>
+      <c r="H275" t="s">
+        <v>94</v>
+      </c>
+      <c r="I275">
+        <v>3</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>4</v>
+      </c>
+      <c r="L275">
+        <v>3</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>4</v>
+      </c>
+      <c r="O275" t="s">
+        <v>257</v>
+      </c>
+      <c r="P275" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q275">
+        <v>3.25</v>
+      </c>
+      <c r="R275">
+        <v>1.8</v>
+      </c>
+      <c r="S275">
+        <v>4.5</v>
+      </c>
+      <c r="T275">
+        <v>1.67</v>
+      </c>
+      <c r="U275">
+        <v>2.1</v>
+      </c>
+      <c r="V275">
+        <v>4.33</v>
+      </c>
+      <c r="W275">
+        <v>1.2</v>
+      </c>
+      <c r="X275">
+        <v>15</v>
+      </c>
+      <c r="Y275">
+        <v>1.03</v>
+      </c>
+      <c r="Z275">
+        <v>2.3</v>
+      </c>
+      <c r="AA275">
+        <v>3</v>
+      </c>
+      <c r="AB275">
+        <v>3.5</v>
+      </c>
+      <c r="AC275">
+        <v>1.13</v>
+      </c>
+      <c r="AD275">
+        <v>5.6</v>
+      </c>
+      <c r="AE275">
+        <v>1.61</v>
+      </c>
+      <c r="AF275">
+        <v>2.2</v>
+      </c>
+      <c r="AG275">
+        <v>3.1</v>
+      </c>
+      <c r="AH275">
+        <v>1.36</v>
+      </c>
+      <c r="AI275">
+        <v>2.5</v>
+      </c>
+      <c r="AJ275">
+        <v>1.5</v>
+      </c>
+      <c r="AK275">
+        <v>1.38</v>
+      </c>
+      <c r="AL275">
+        <v>1.36</v>
+      </c>
+      <c r="AM275">
+        <v>1.53</v>
+      </c>
+      <c r="AN275">
+        <v>1.42</v>
+      </c>
+      <c r="AO275">
+        <v>1.53</v>
+      </c>
+      <c r="AP275">
+        <v>1.5</v>
+      </c>
+      <c r="AQ275">
+        <v>1.45</v>
+      </c>
+      <c r="AR275">
+        <v>1.4</v>
+      </c>
+      <c r="AS275">
+        <v>1.48</v>
+      </c>
+      <c r="AT275">
+        <v>2.88</v>
+      </c>
+      <c r="AU275">
+        <v>5</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>6</v>
+      </c>
+      <c r="AX275">
+        <v>3</v>
+      </c>
+      <c r="AY275">
+        <v>11</v>
+      </c>
+      <c r="AZ275">
+        <v>7</v>
+      </c>
+      <c r="BA275">
+        <v>8</v>
+      </c>
+      <c r="BB275">
+        <v>3</v>
+      </c>
+      <c r="BC275">
+        <v>11</v>
+      </c>
+      <c r="BD275">
+        <v>1.95</v>
+      </c>
+      <c r="BE275">
+        <v>7.5</v>
+      </c>
+      <c r="BF275">
+        <v>2.15</v>
+      </c>
+      <c r="BG275">
+        <v>1.38</v>
+      </c>
+      <c r="BH275">
+        <v>2.85</v>
+      </c>
+      <c r="BI275">
+        <v>1.65</v>
+      </c>
+      <c r="BJ275">
+        <v>2.15</v>
+      </c>
+      <c r="BK275">
+        <v>2.05</v>
+      </c>
+      <c r="BL275">
+        <v>1.7</v>
+      </c>
+      <c r="BM275">
+        <v>2.65</v>
+      </c>
+      <c r="BN275">
+        <v>1.42</v>
+      </c>
+      <c r="BO275">
+        <v>3.6</v>
+      </c>
+      <c r="BP275">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,12 @@
     <t>['3', '10', '22']</t>
   </si>
   <si>
+    <t>['66', '72']</t>
+  </si>
+  <si>
+    <t>['22', '36', '38', '79']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1058,6 +1064,12 @@
   </si>
   <si>
     <t>['15', '70']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['46', '83']</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1759,7 +1771,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1965,7 +1977,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2377,7 +2389,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2580,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.31</v>
@@ -2708,7 +2720,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3120,7 +3132,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3326,7 +3338,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -4150,7 +4162,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4768,7 +4780,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4974,7 +4986,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5258,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ19">
         <v>1.2</v>
@@ -5386,7 +5398,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5467,7 +5479,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5879,7 +5891,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6210,7 +6222,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6288,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ24">
         <v>0.5600000000000001</v>
@@ -6622,7 +6634,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6700,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6909,7 +6921,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7240,7 +7252,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7652,7 +7664,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -9300,7 +9312,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9712,7 +9724,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9918,7 +9930,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10408,7 +10420,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ44">
         <v>1.1</v>
@@ -10948,7 +10960,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11029,7 +11041,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ47">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11360,7 +11372,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11566,7 +11578,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12056,7 +12068,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ52">
         <v>1.89</v>
@@ -12265,7 +12277,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR53">
         <v>1.01</v>
@@ -12390,7 +12402,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12880,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>0.33</v>
@@ -13008,7 +13020,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13214,7 +13226,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13626,7 +13638,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14244,7 +14256,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14450,7 +14462,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15274,7 +15286,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15686,7 +15698,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16304,7 +16316,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16510,7 +16522,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16588,7 +16600,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74">
         <v>0.7</v>
@@ -16922,7 +16934,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17827,7 +17839,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR80">
         <v>1.9</v>
@@ -18030,7 +18042,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
         <v>1.7</v>
@@ -18236,10 +18248,10 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>1.36</v>
@@ -18570,7 +18582,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -19188,7 +19200,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19266,7 +19278,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ87">
         <v>1.7</v>
@@ -20012,7 +20024,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20836,7 +20848,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21123,7 +21135,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ96">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR96">
         <v>1.56</v>
@@ -21454,7 +21466,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21866,7 +21878,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22278,7 +22290,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22977,7 +22989,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -23102,7 +23114,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23720,7 +23732,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23926,7 +23938,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24132,7 +24144,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24338,7 +24350,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24544,7 +24556,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24956,7 +24968,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25034,7 +25046,7 @@
         <v>2.5</v>
       </c>
       <c r="AP115">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
         <v>1.6</v>
@@ -25243,7 +25255,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR116">
         <v>1.72</v>
@@ -25780,7 +25792,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26398,7 +26410,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27300,7 +27312,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ126">
         <v>1.27</v>
@@ -27634,7 +27646,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28124,7 +28136,7 @@
         <v>3</v>
       </c>
       <c r="AP130">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ130">
         <v>1.67</v>
@@ -28539,7 +28551,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR132">
         <v>2.04</v>
@@ -29076,7 +29088,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29282,7 +29294,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29488,7 +29500,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29694,7 +29706,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29775,7 +29787,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ138">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR138">
         <v>1.38</v>
@@ -29900,7 +29912,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30106,7 +30118,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30805,7 +30817,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR143">
         <v>1.63</v>
@@ -31136,7 +31148,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31832,7 +31844,7 @@
         <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>0.89</v>
@@ -32372,7 +32384,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32784,7 +32796,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32862,7 +32874,7 @@
         <v>2.4</v>
       </c>
       <c r="AP153">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ153">
         <v>1.89</v>
@@ -33196,7 +33208,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33402,7 +33414,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33480,7 +33492,7 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ156">
         <v>1.36</v>
@@ -33608,7 +33620,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -34020,7 +34032,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34638,7 +34650,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35131,7 +35143,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ164">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35337,7 +35349,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ165">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR165">
         <v>1.98</v>
@@ -35462,7 +35474,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35668,7 +35680,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35874,7 +35886,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36492,7 +36504,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36698,7 +36710,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37316,7 +37328,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37522,7 +37534,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37728,7 +37740,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37806,7 +37818,7 @@
         <v>1.8</v>
       </c>
       <c r="AP177">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
         <v>1.67</v>
@@ -38552,7 +38564,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38839,7 +38851,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR182">
         <v>2.05</v>
@@ -39582,7 +39594,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39994,7 +40006,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40200,7 +40212,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40612,7 +40624,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40818,7 +40830,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40896,7 +40908,7 @@
         <v>1.83</v>
       </c>
       <c r="AP192">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ192">
         <v>1.8</v>
@@ -41024,7 +41036,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41311,7 +41323,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ194">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR194">
         <v>1.58</v>
@@ -41720,10 +41732,10 @@
         <v>0.83</v>
       </c>
       <c r="AP196">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ196">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR196">
         <v>1.38</v>
@@ -42135,7 +42147,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ198">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR198">
         <v>1.72</v>
@@ -42260,7 +42272,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42466,7 +42478,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -43290,7 +43302,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43368,7 +43380,7 @@
         <v>1.21</v>
       </c>
       <c r="AP204">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AQ204">
         <v>1.5</v>
@@ -43574,7 +43586,7 @@
         <v>1.29</v>
       </c>
       <c r="AP205">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ205">
         <v>1.21</v>
@@ -43702,7 +43714,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43783,7 +43795,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ206">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR206">
         <v>1.57</v>
@@ -44114,7 +44126,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44195,7 +44207,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ208">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR208">
         <v>1.71</v>
@@ -44320,7 +44332,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -45016,7 +45028,7 @@
         <v>1.14</v>
       </c>
       <c r="AP212">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ212">
         <v>0.9399999999999999</v>
@@ -45144,7 +45156,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45222,7 +45234,7 @@
         <v>1.71</v>
       </c>
       <c r="AP213">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ213">
         <v>1.79</v>
@@ -45350,7 +45362,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -46461,7 +46473,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ219">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR219">
         <v>2.02</v>
@@ -46586,7 +46598,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46792,7 +46804,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47076,10 +47088,10 @@
         <v>0.6</v>
       </c>
       <c r="AP222">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ222">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR222">
         <v>1.31</v>
@@ -47822,7 +47834,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -48028,7 +48040,7 @@
         <v>114</v>
       </c>
       <c r="P227" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q227">
         <v>3.5</v>
@@ -48315,7 +48327,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ228">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR228">
         <v>1.7</v>
@@ -48724,7 +48736,7 @@
         <v>0.33</v>
       </c>
       <c r="AP230">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AQ230">
         <v>0.5</v>
@@ -48933,7 +48945,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ231">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR231">
         <v>1.61</v>
@@ -49058,7 +49070,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49136,10 +49148,10 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ232">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR232">
         <v>1.11</v>
@@ -49264,7 +49276,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49470,7 +49482,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -49548,7 +49560,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP234">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ234">
         <v>0.58</v>
@@ -50166,7 +50178,7 @@
         <v>1.65</v>
       </c>
       <c r="AP237">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ237">
         <v>1.5</v>
@@ -50784,7 +50796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP240">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AQ240">
         <v>0.9</v>
@@ -51405,7 +51417,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ243">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR243">
         <v>1.5</v>
@@ -51817,7 +51829,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ245">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR245">
         <v>1.76</v>
@@ -52020,7 +52032,7 @@
         <v>1.79</v>
       </c>
       <c r="AP246">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ246">
         <v>1.68</v>
@@ -52148,7 +52160,7 @@
         <v>115</v>
       </c>
       <c r="P247" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q247">
         <v>2.75</v>
@@ -52638,7 +52650,7 @@
         <v>1.59</v>
       </c>
       <c r="AP249">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AQ249">
         <v>1.63</v>
@@ -52766,7 +52778,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -53384,7 +53396,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53465,7 +53477,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ253">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR253">
         <v>1.4</v>
@@ -53796,7 +53808,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54002,7 +54014,7 @@
         <v>98</v>
       </c>
       <c r="P256" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54080,7 +54092,7 @@
         <v>1.35</v>
       </c>
       <c r="AP256">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ256">
         <v>1.53</v>
@@ -54289,7 +54301,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ257">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR257">
         <v>1.4</v>
@@ -54701,7 +54713,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ259">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR259">
         <v>1.67</v>
@@ -54826,7 +54838,7 @@
         <v>248</v>
       </c>
       <c r="P260" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55113,7 +55125,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ261">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR261">
         <v>1.62</v>
@@ -55522,7 +55534,7 @@
         <v>1.89</v>
       </c>
       <c r="AP263">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ263">
         <v>1.8</v>
@@ -55731,7 +55743,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ264">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR264">
         <v>1.32</v>
@@ -55934,7 +55946,7 @@
         <v>1.8</v>
       </c>
       <c r="AP265">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AQ265">
         <v>1.71</v>
@@ -56268,7 +56280,7 @@
         <v>98</v>
       </c>
       <c r="P267" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q267">
         <v>3.1</v>
@@ -56346,7 +56358,7 @@
         <v>1.33</v>
       </c>
       <c r="AP267">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ267">
         <v>1.5</v>
@@ -56886,7 +56898,7 @@
         <v>256</v>
       </c>
       <c r="P270" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -57504,7 +57516,7 @@
         <v>98</v>
       </c>
       <c r="P273" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q273">
         <v>2.6</v>
@@ -57615,13 +57627,13 @@
         <v>8</v>
       </c>
       <c r="BA273">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB273">
         <v>0</v>
       </c>
       <c r="BC273">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD273">
         <v>1.27</v>
@@ -58073,6 +58085,624 @@
       </c>
       <c r="BP275">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7345179</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45492.625</v>
+      </c>
+      <c r="F276">
+        <v>6</v>
+      </c>
+      <c r="G276" t="s">
+        <v>74</v>
+      </c>
+      <c r="H276" t="s">
+        <v>96</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>98</v>
+      </c>
+      <c r="P276" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q276">
+        <v>4</v>
+      </c>
+      <c r="R276">
+        <v>1.91</v>
+      </c>
+      <c r="S276">
+        <v>3.2</v>
+      </c>
+      <c r="T276">
+        <v>1.57</v>
+      </c>
+      <c r="U276">
+        <v>2.25</v>
+      </c>
+      <c r="V276">
+        <v>3.75</v>
+      </c>
+      <c r="W276">
+        <v>1.25</v>
+      </c>
+      <c r="X276">
+        <v>13</v>
+      </c>
+      <c r="Y276">
+        <v>1.04</v>
+      </c>
+      <c r="Z276">
+        <v>3.25</v>
+      </c>
+      <c r="AA276">
+        <v>3.1</v>
+      </c>
+      <c r="AB276">
+        <v>2.35</v>
+      </c>
+      <c r="AC276">
+        <v>1.1</v>
+      </c>
+      <c r="AD276">
+        <v>6.6</v>
+      </c>
+      <c r="AE276">
+        <v>1.5</v>
+      </c>
+      <c r="AF276">
+        <v>2.4</v>
+      </c>
+      <c r="AG276">
+        <v>2.5</v>
+      </c>
+      <c r="AH276">
+        <v>1.5</v>
+      </c>
+      <c r="AI276">
+        <v>2.1</v>
+      </c>
+      <c r="AJ276">
+        <v>1.67</v>
+      </c>
+      <c r="AK276">
+        <v>1.6</v>
+      </c>
+      <c r="AL276">
+        <v>1.32</v>
+      </c>
+      <c r="AM276">
+        <v>1.36</v>
+      </c>
+      <c r="AN276">
+        <v>1.5</v>
+      </c>
+      <c r="AO276">
+        <v>1.42</v>
+      </c>
+      <c r="AP276">
+        <v>1.43</v>
+      </c>
+      <c r="AQ276">
+        <v>1.5</v>
+      </c>
+      <c r="AR276">
+        <v>1.37</v>
+      </c>
+      <c r="AS276">
+        <v>1.42</v>
+      </c>
+      <c r="AT276">
+        <v>2.79</v>
+      </c>
+      <c r="AU276">
+        <v>3</v>
+      </c>
+      <c r="AV276">
+        <v>6</v>
+      </c>
+      <c r="AW276">
+        <v>2</v>
+      </c>
+      <c r="AX276">
+        <v>6</v>
+      </c>
+      <c r="AY276">
+        <v>5</v>
+      </c>
+      <c r="AZ276">
+        <v>12</v>
+      </c>
+      <c r="BA276">
+        <v>2</v>
+      </c>
+      <c r="BB276">
+        <v>7</v>
+      </c>
+      <c r="BC276">
+        <v>9</v>
+      </c>
+      <c r="BD276">
+        <v>2.25</v>
+      </c>
+      <c r="BE276">
+        <v>7.1</v>
+      </c>
+      <c r="BF276">
+        <v>1.95</v>
+      </c>
+      <c r="BG276">
+        <v>1.36</v>
+      </c>
+      <c r="BH276">
+        <v>2.8</v>
+      </c>
+      <c r="BI276">
+        <v>1.7</v>
+      </c>
+      <c r="BJ276">
+        <v>2.05</v>
+      </c>
+      <c r="BK276">
+        <v>2.05</v>
+      </c>
+      <c r="BL276">
+        <v>1.7</v>
+      </c>
+      <c r="BM276">
+        <v>2.8</v>
+      </c>
+      <c r="BN276">
+        <v>1.37</v>
+      </c>
+      <c r="BO276">
+        <v>3.85</v>
+      </c>
+      <c r="BP276">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7345186</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45492.79166666666</v>
+      </c>
+      <c r="F277">
+        <v>6</v>
+      </c>
+      <c r="G277" t="s">
+        <v>91</v>
+      </c>
+      <c r="H277" t="s">
+        <v>95</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>3</v>
+      </c>
+      <c r="O277" t="s">
+        <v>258</v>
+      </c>
+      <c r="P277" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q277">
+        <v>2.88</v>
+      </c>
+      <c r="R277">
+        <v>1.83</v>
+      </c>
+      <c r="S277">
+        <v>5</v>
+      </c>
+      <c r="T277">
+        <v>1.57</v>
+      </c>
+      <c r="U277">
+        <v>2.25</v>
+      </c>
+      <c r="V277">
+        <v>4</v>
+      </c>
+      <c r="W277">
+        <v>1.22</v>
+      </c>
+      <c r="X277">
+        <v>13</v>
+      </c>
+      <c r="Y277">
+        <v>1.04</v>
+      </c>
+      <c r="Z277">
+        <v>2.05</v>
+      </c>
+      <c r="AA277">
+        <v>2.88</v>
+      </c>
+      <c r="AB277">
+        <v>4.5</v>
+      </c>
+      <c r="AC277">
+        <v>1.11</v>
+      </c>
+      <c r="AD277">
+        <v>6.2</v>
+      </c>
+      <c r="AE277">
+        <v>1.55</v>
+      </c>
+      <c r="AF277">
+        <v>2.3</v>
+      </c>
+      <c r="AG277">
+        <v>2.88</v>
+      </c>
+      <c r="AH277">
+        <v>1.4</v>
+      </c>
+      <c r="AI277">
+        <v>2.38</v>
+      </c>
+      <c r="AJ277">
+        <v>1.53</v>
+      </c>
+      <c r="AK277">
+        <v>1.18</v>
+      </c>
+      <c r="AL277">
+        <v>1.3</v>
+      </c>
+      <c r="AM277">
+        <v>1.9</v>
+      </c>
+      <c r="AN277">
+        <v>1.16</v>
+      </c>
+      <c r="AO277">
+        <v>1</v>
+      </c>
+      <c r="AP277">
+        <v>1.25</v>
+      </c>
+      <c r="AQ277">
+        <v>0.95</v>
+      </c>
+      <c r="AR277">
+        <v>1.34</v>
+      </c>
+      <c r="AS277">
+        <v>1.14</v>
+      </c>
+      <c r="AT277">
+        <v>2.48</v>
+      </c>
+      <c r="AU277">
+        <v>6</v>
+      </c>
+      <c r="AV277">
+        <v>3</v>
+      </c>
+      <c r="AW277">
+        <v>3</v>
+      </c>
+      <c r="AX277">
+        <v>0</v>
+      </c>
+      <c r="AY277">
+        <v>9</v>
+      </c>
+      <c r="AZ277">
+        <v>3</v>
+      </c>
+      <c r="BA277">
+        <v>8</v>
+      </c>
+      <c r="BB277">
+        <v>1</v>
+      </c>
+      <c r="BC277">
+        <v>9</v>
+      </c>
+      <c r="BD277">
+        <v>1.57</v>
+      </c>
+      <c r="BE277">
+        <v>7.6</v>
+      </c>
+      <c r="BF277">
+        <v>3.1</v>
+      </c>
+      <c r="BG277">
+        <v>1.36</v>
+      </c>
+      <c r="BH277">
+        <v>2.8</v>
+      </c>
+      <c r="BI277">
+        <v>1.7</v>
+      </c>
+      <c r="BJ277">
+        <v>2.05</v>
+      </c>
+      <c r="BK277">
+        <v>2.05</v>
+      </c>
+      <c r="BL277">
+        <v>1.7</v>
+      </c>
+      <c r="BM277">
+        <v>2.8</v>
+      </c>
+      <c r="BN277">
+        <v>1.37</v>
+      </c>
+      <c r="BO277">
+        <v>3.85</v>
+      </c>
+      <c r="BP277">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7345183</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45492.875</v>
+      </c>
+      <c r="F278">
+        <v>6</v>
+      </c>
+      <c r="G278" t="s">
+        <v>86</v>
+      </c>
+      <c r="H278" t="s">
+        <v>97</v>
+      </c>
+      <c r="I278">
+        <v>3</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>3</v>
+      </c>
+      <c r="L278">
+        <v>4</v>
+      </c>
+      <c r="M278">
+        <v>2</v>
+      </c>
+      <c r="N278">
+        <v>6</v>
+      </c>
+      <c r="O278" t="s">
+        <v>259</v>
+      </c>
+      <c r="P278" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q278">
+        <v>3.2</v>
+      </c>
+      <c r="R278">
+        <v>1.8</v>
+      </c>
+      <c r="S278">
+        <v>4.75</v>
+      </c>
+      <c r="T278">
+        <v>1.57</v>
+      </c>
+      <c r="U278">
+        <v>2.25</v>
+      </c>
+      <c r="V278">
+        <v>3.75</v>
+      </c>
+      <c r="W278">
+        <v>1.25</v>
+      </c>
+      <c r="X278">
+        <v>13</v>
+      </c>
+      <c r="Y278">
+        <v>1.04</v>
+      </c>
+      <c r="Z278">
+        <v>2.25</v>
+      </c>
+      <c r="AA278">
+        <v>2.8</v>
+      </c>
+      <c r="AB278">
+        <v>3.9</v>
+      </c>
+      <c r="AC278">
+        <v>1.11</v>
+      </c>
+      <c r="AD278">
+        <v>6.28</v>
+      </c>
+      <c r="AE278">
+        <v>1.53</v>
+      </c>
+      <c r="AF278">
+        <v>2.3</v>
+      </c>
+      <c r="AG278">
+        <v>3.4</v>
+      </c>
+      <c r="AH278">
+        <v>1.33</v>
+      </c>
+      <c r="AI278">
+        <v>2.5</v>
+      </c>
+      <c r="AJ278">
+        <v>1.5</v>
+      </c>
+      <c r="AK278">
+        <v>1.22</v>
+      </c>
+      <c r="AL278">
+        <v>1.3</v>
+      </c>
+      <c r="AM278">
+        <v>1.88</v>
+      </c>
+      <c r="AN278">
+        <v>1.11</v>
+      </c>
+      <c r="AO278">
+        <v>0.84</v>
+      </c>
+      <c r="AP278">
+        <v>1.2</v>
+      </c>
+      <c r="AQ278">
+        <v>0.8</v>
+      </c>
+      <c r="AR278">
+        <v>1.28</v>
+      </c>
+      <c r="AS278">
+        <v>1.29</v>
+      </c>
+      <c r="AT278">
+        <v>2.57</v>
+      </c>
+      <c r="AU278">
+        <v>6</v>
+      </c>
+      <c r="AV278">
+        <v>6</v>
+      </c>
+      <c r="AW278">
+        <v>5</v>
+      </c>
+      <c r="AX278">
+        <v>1</v>
+      </c>
+      <c r="AY278">
+        <v>11</v>
+      </c>
+      <c r="AZ278">
+        <v>7</v>
+      </c>
+      <c r="BA278">
+        <v>5</v>
+      </c>
+      <c r="BB278">
+        <v>2</v>
+      </c>
+      <c r="BC278">
+        <v>7</v>
+      </c>
+      <c r="BD278">
+        <v>1.57</v>
+      </c>
+      <c r="BE278">
+        <v>7.6</v>
+      </c>
+      <c r="BF278">
+        <v>3.1</v>
+      </c>
+      <c r="BG278">
+        <v>1.32</v>
+      </c>
+      <c r="BH278">
+        <v>3</v>
+      </c>
+      <c r="BI278">
+        <v>1.58</v>
+      </c>
+      <c r="BJ278">
+        <v>2.18</v>
+      </c>
+      <c r="BK278">
+        <v>2.05</v>
+      </c>
+      <c r="BL278">
+        <v>1.7</v>
+      </c>
+      <c r="BM278">
+        <v>2.63</v>
+      </c>
+      <c r="BN278">
+        <v>1.42</v>
+      </c>
+      <c r="BO278">
+        <v>3.6</v>
+      </c>
+      <c r="BP278">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="360">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -796,6 +796,21 @@
     <t>['22', '36', '38', '79']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['11', '20', '61']</t>
+  </si>
+  <si>
+    <t>['62', '90+4']</t>
+  </si>
+  <si>
+    <t>['13', '35']</t>
+  </si>
+  <si>
+    <t>['36', '53', '63']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1070,6 +1085,15 @@
   </si>
   <si>
     <t>['46', '83']</t>
+  </si>
+  <si>
+    <t>['49', '90+2']</t>
+  </si>
+  <si>
+    <t>['48', '58']</t>
+  </si>
+  <si>
+    <t>['20', '52']</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2386,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5">
         <v>1.6</v>
@@ -2720,7 +2744,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3132,7 +3156,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3213,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3338,7 +3362,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3416,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3625,7 +3649,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ11">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3828,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ12">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4162,7 +4186,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4240,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ14">
         <v>0.78</v>
@@ -4446,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4655,7 +4679,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR16">
         <v>1.36</v>
@@ -4780,7 +4804,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4861,7 +4885,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ17">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4986,7 +5010,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5398,7 +5422,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5682,7 +5706,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ21">
         <v>1.6</v>
@@ -6094,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ23">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6222,7 +6246,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6506,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6634,7 +6658,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7252,7 +7276,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7330,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR29">
         <v>0.9</v>
@@ -7664,7 +7688,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7951,7 +7975,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ32">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR32">
         <v>1.01</v>
@@ -8360,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ34">
         <v>1.31</v>
@@ -8981,7 +9005,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>1.86</v>
@@ -9184,10 +9208,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ38">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR38">
         <v>1.15</v>
@@ -9312,7 +9336,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9393,7 +9417,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9596,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ40">
         <v>1.8</v>
@@ -9724,7 +9748,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9930,7 +9954,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10832,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10960,7 +10984,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11244,7 +11268,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ48">
         <v>0.7</v>
@@ -11372,7 +11396,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11450,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ49">
         <v>0.5600000000000001</v>
@@ -11578,7 +11602,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12071,7 +12095,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ52">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR52">
         <v>1.08</v>
@@ -12274,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ53">
         <v>0.9</v>
@@ -12402,7 +12426,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12689,7 +12713,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -12895,7 +12919,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR56">
         <v>1.77</v>
@@ -13020,7 +13044,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13101,7 +13125,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ57">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13226,7 +13250,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13510,7 +13534,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ59">
         <v>1.4</v>
@@ -13638,7 +13662,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13719,7 +13743,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ60">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR60">
         <v>2.22</v>
@@ -13925,7 +13949,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR61">
         <v>1.97</v>
@@ -14256,7 +14280,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14337,7 +14361,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ63">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
         <v>1.54</v>
@@ -14462,7 +14486,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -15286,7 +15310,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15698,7 +15722,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16188,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ72">
         <v>0.5</v>
@@ -16316,7 +16340,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16394,10 +16418,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ73">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR73">
         <v>1.55</v>
@@ -16522,7 +16546,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16806,10 +16830,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR75">
         <v>2.21</v>
@@ -16934,7 +16958,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17218,7 +17242,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ77">
         <v>1.2</v>
@@ -17427,7 +17451,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17633,7 +17657,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ79">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR79">
         <v>1.31</v>
@@ -17836,7 +17860,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ80">
         <v>1.6</v>
@@ -18045,7 +18069,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -18457,7 +18481,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ83">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18582,7 +18606,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18866,7 +18890,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -19200,7 +19224,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19281,7 +19305,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ87">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -20024,7 +20048,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20102,10 +20126,10 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ91">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>2.12</v>
@@ -20848,7 +20872,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20929,7 +20953,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ95">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -21132,7 +21156,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ96">
         <v>0.6</v>
@@ -21341,7 +21365,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ97">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR97">
         <v>1.9</v>
@@ -21466,7 +21490,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21544,7 +21568,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21750,10 +21774,10 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ99">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR99">
         <v>1.22</v>
@@ -21878,7 +21902,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22290,7 +22314,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -23114,7 +23138,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23195,7 +23219,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ106">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23732,7 +23756,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23938,7 +23962,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -24144,7 +24168,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24222,10 +24246,10 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ111">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR111">
         <v>1.76</v>
@@ -24350,7 +24374,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24556,7 +24580,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24843,7 +24867,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24968,7 +24992,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25252,7 +25276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ116">
         <v>0.9</v>
@@ -25458,7 +25482,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ117">
         <v>0.73</v>
@@ -25792,7 +25816,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25870,10 +25894,10 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ119">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR119">
         <v>2.14</v>
@@ -26079,7 +26103,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ120">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26282,7 +26306,7 @@
         <v>0.75</v>
       </c>
       <c r="AP121">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ121">
         <v>1.1</v>
@@ -26410,7 +26434,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26697,7 +26721,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ123">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR123">
         <v>1.2</v>
@@ -27646,7 +27670,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28963,7 +28987,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ134">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR134">
         <v>2.05</v>
@@ -29088,7 +29112,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29166,10 +29190,10 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ135">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR135">
         <v>1.67</v>
@@ -29294,7 +29318,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29500,7 +29524,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29581,7 +29605,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ137">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29706,7 +29730,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29912,7 +29936,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30118,7 +30142,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30196,7 +30220,7 @@
         <v>0.25</v>
       </c>
       <c r="AP140">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30611,7 +30635,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ142">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -30814,7 +30838,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ143">
         <v>0.9</v>
@@ -31020,7 +31044,7 @@
         <v>1.6</v>
       </c>
       <c r="AP144">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ144">
         <v>1.27</v>
@@ -31148,7 +31172,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31432,7 +31456,7 @@
         <v>2.25</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ146">
         <v>1.67</v>
@@ -31847,7 +31871,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR148">
         <v>1.53</v>
@@ -32050,7 +32074,7 @@
         <v>1.2</v>
       </c>
       <c r="AP149">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ149">
         <v>0.7</v>
@@ -32259,7 +32283,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR150">
         <v>1.58</v>
@@ -32384,7 +32408,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32796,7 +32820,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32877,7 +32901,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ153">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR153">
         <v>1.5</v>
@@ -33080,10 +33104,10 @@
         <v>3</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ154">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR154">
         <v>1.68</v>
@@ -33208,7 +33232,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33289,7 +33313,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ155">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR155">
         <v>1.3</v>
@@ -33414,7 +33438,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33620,7 +33644,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33904,7 +33928,7 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ158">
         <v>1.4</v>
@@ -34032,7 +34056,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34650,7 +34674,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34728,7 +34752,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ162">
         <v>1.8</v>
@@ -35474,7 +35498,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35555,7 +35579,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ166">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR166">
         <v>1.61</v>
@@ -35680,7 +35704,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35886,7 +35910,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35967,7 +35991,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ168">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR168">
         <v>1.3</v>
@@ -36170,7 +36194,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ169">
         <v>0.78</v>
@@ -36504,7 +36528,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36585,7 +36609,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ171">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR171">
         <v>1.66</v>
@@ -36710,7 +36734,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36788,7 +36812,7 @@
         <v>1.5</v>
       </c>
       <c r="AP172">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ172">
         <v>1.27</v>
@@ -36994,7 +37018,7 @@
         <v>0.83</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ173">
         <v>0.5</v>
@@ -37328,7 +37352,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37534,7 +37558,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37740,7 +37764,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38024,10 +38048,10 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ178">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR178">
         <v>1.89</v>
@@ -38230,7 +38254,7 @@
         <v>0.57</v>
       </c>
       <c r="AP179">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ179">
         <v>0.73</v>
@@ -38439,7 +38463,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ180">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR180">
         <v>1.27</v>
@@ -38564,7 +38588,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39057,7 +39081,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ183">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR183">
         <v>1.55</v>
@@ -39263,7 +39287,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ184">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR184">
         <v>1.21</v>
@@ -39469,7 +39493,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ185">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR185">
         <v>1.41</v>
@@ -39594,7 +39618,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39878,7 +39902,7 @@
         <v>0.67</v>
       </c>
       <c r="AP187">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ187">
         <v>0.5600000000000001</v>
@@ -40006,7 +40030,7 @@
         <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40212,7 +40236,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40293,7 +40317,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ189">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR189">
         <v>1.64</v>
@@ -40624,7 +40648,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40830,7 +40854,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -41036,7 +41060,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41320,7 +41344,7 @@
         <v>2.17</v>
       </c>
       <c r="AP194">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ194">
         <v>1.6</v>
@@ -41529,7 +41553,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ195">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR195">
         <v>1.76</v>
@@ -41941,7 +41965,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ197">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -42144,7 +42168,7 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AQ198">
         <v>1.43</v>
@@ -42272,7 +42296,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42350,10 +42374,10 @@
         <v>1.79</v>
       </c>
       <c r="AP199">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AQ199">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR199">
         <v>1.74</v>
@@ -42478,7 +42502,7 @@
         <v>212</v>
       </c>
       <c r="P200" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42556,10 +42580,10 @@
         <v>1.92</v>
       </c>
       <c r="AP200">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ200">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR200">
         <v>1.99</v>
@@ -42765,7 +42789,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ201">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR201">
         <v>1.56</v>
@@ -42968,10 +42992,10 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AQ202">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR202">
         <v>1.74</v>
@@ -43174,10 +43198,10 @@
         <v>1.81</v>
       </c>
       <c r="AP203">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AQ203">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR203">
         <v>1.73</v>
@@ -43302,7 +43326,7 @@
         <v>188</v>
       </c>
       <c r="P204" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q204">
         <v>4.5</v>
@@ -43589,7 +43613,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ205">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AR205">
         <v>1.43</v>
@@ -43714,7 +43738,7 @@
         <v>216</v>
       </c>
       <c r="P206" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43998,10 +44022,10 @@
         <v>1.8</v>
       </c>
       <c r="AP207">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR207">
         <v>1.44</v>
@@ -44126,7 +44150,7 @@
         <v>98</v>
       </c>
       <c r="P208" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44204,7 +44228,7 @@
         <v>1.73</v>
       </c>
       <c r="AP208">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AQ208">
         <v>1.43</v>
@@ -44332,7 +44356,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q209">
         <v>2.88</v>
@@ -44413,7 +44437,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ209">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AR209">
         <v>1.63</v>
@@ -44616,10 +44640,10 @@
         <v>0.79</v>
       </c>
       <c r="AP210">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ210">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR210">
         <v>1.98</v>
@@ -44825,7 +44849,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ211">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR211">
         <v>1.35</v>
@@ -45031,7 +45055,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ212">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR212">
         <v>1.12</v>
@@ -45156,7 +45180,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45237,7 +45261,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ213">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR213">
         <v>1.39</v>
@@ -45362,7 +45386,7 @@
         <v>98</v>
       </c>
       <c r="P214" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q214">
         <v>2.3</v>
@@ -45440,7 +45464,7 @@
         <v>0.57</v>
       </c>
       <c r="AP214">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AQ214">
         <v>0.9</v>
@@ -45646,10 +45670,10 @@
         <v>1.93</v>
       </c>
       <c r="AP215">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ215">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR215">
         <v>1.67</v>
@@ -45855,7 +45879,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ216">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR216">
         <v>1.59</v>
@@ -46058,10 +46082,10 @@
         <v>1.21</v>
       </c>
       <c r="AP217">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ217">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR217">
         <v>1.5</v>
@@ -46267,7 +46291,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ218">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR218">
         <v>1.34</v>
@@ -46470,7 +46494,7 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ219">
         <v>1.25</v>
@@ -46598,7 +46622,7 @@
         <v>154</v>
       </c>
       <c r="P220" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -46676,7 +46700,7 @@
         <v>1.27</v>
       </c>
       <c r="AP220">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ220">
         <v>1.3</v>
@@ -46804,7 +46828,7 @@
         <v>225</v>
       </c>
       <c r="P221" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46885,7 +46909,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ221">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AR221">
         <v>1.48</v>
@@ -47294,7 +47318,7 @@
         <v>1.53</v>
       </c>
       <c r="AP223">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ223">
         <v>1.45</v>
@@ -47500,10 +47524,10 @@
         <v>0.87</v>
       </c>
       <c r="AP224">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AQ224">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR224">
         <v>1.77</v>
@@ -47706,10 +47730,10 @@
         <v>1.27</v>
       </c>
       <c r="AP225">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ225">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR225">
         <v>1.37</v>
@@ -47834,7 +47858,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -47912,10 +47936,10 @@
         <v>1.81</v>
       </c>
       <c r="AP226">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AQ226">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR226">
         <v>1.1</v>
@@ -48040,7 +48064,7 @@
         <v>114</v>
       </c>
       <c r="P227" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q227">
         <v>3.5</v>
@@ -48118,10 +48142,10 @@
         <v>1.53</v>
       </c>
       <c r="AP227">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ227">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AR227">
         <v>1.33</v>
@@ -48324,7 +48348,7 @@
         <v>1.07</v>
       </c>
       <c r="AP228">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AQ228">
         <v>0.95</v>
@@ -48530,7 +48554,7 @@
         <v>1.82</v>
       </c>
       <c r="AP229">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ229">
         <v>1.68</v>
@@ -48942,7 +48966,7 @@
         <v>1.6</v>
       </c>
       <c r="AP231">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AQ231">
         <v>1.5</v>
@@ -49070,7 +49094,7 @@
         <v>98</v>
       </c>
       <c r="P232" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q232">
         <v>3.2</v>
@@ -49276,7 +49300,7 @@
         <v>98</v>
       </c>
       <c r="P233" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -49357,7 +49381,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ233">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR233">
         <v>1.33</v>
@@ -49482,7 +49506,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -49563,7 +49587,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ234">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR234">
         <v>1.34</v>
@@ -49766,10 +49790,10 @@
         <v>1.94</v>
       </c>
       <c r="AP235">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AQ235">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR235">
         <v>1.55</v>
@@ -49975,7 +49999,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ236">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR236">
         <v>1.56</v>
@@ -50181,7 +50205,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ237">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR237">
         <v>1.42</v>
@@ -50384,10 +50408,10 @@
         <v>1.88</v>
       </c>
       <c r="AP238">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ238">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AR238">
         <v>1.56</v>
@@ -50590,7 +50614,7 @@
         <v>1.31</v>
       </c>
       <c r="AP239">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ239">
         <v>1.5</v>
@@ -51005,7 +51029,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ241">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR241">
         <v>1.57</v>
@@ -51211,7 +51235,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ242">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR242">
         <v>1.56</v>
@@ -51414,7 +51438,7 @@
         <v>1.76</v>
       </c>
       <c r="AP243">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ243">
         <v>1.43</v>
@@ -51620,10 +51644,10 @@
         <v>1.19</v>
       </c>
       <c r="AP244">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ244">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AR244">
         <v>1.66</v>
@@ -51826,7 +51850,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP245">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ245">
         <v>0.95</v>
@@ -52160,7 +52184,7 @@
         <v>115</v>
       </c>
       <c r="P247" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q247">
         <v>2.75</v>
@@ -52238,10 +52262,10 @@
         <v>0.82</v>
       </c>
       <c r="AP247">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AQ247">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR247">
         <v>1.54</v>
@@ -52444,10 +52468,10 @@
         <v>1.83</v>
       </c>
       <c r="AP248">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ248">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR248">
         <v>1.35</v>
@@ -52653,7 +52677,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ249">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AR249">
         <v>1.26</v>
@@ -52778,7 +52802,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52856,10 +52880,10 @@
         <v>1.82</v>
       </c>
       <c r="AP250">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AQ250">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AR250">
         <v>1.12</v>
@@ -53268,7 +53292,7 @@
         <v>0.35</v>
       </c>
       <c r="AP252">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ252">
         <v>0.5</v>
@@ -53396,7 +53420,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53474,7 +53498,7 @@
         <v>0.59</v>
       </c>
       <c r="AP253">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ253">
         <v>0.8</v>
@@ -53680,7 +53704,7 @@
         <v>1.47</v>
       </c>
       <c r="AP254">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ254">
         <v>1.45</v>
@@ -53808,7 +53832,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53886,10 +53910,10 @@
         <v>1.76</v>
       </c>
       <c r="AP255">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AQ255">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR255">
         <v>1.75</v>
@@ -54014,7 +54038,7 @@
         <v>98</v>
       </c>
       <c r="P256" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54095,7 +54119,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ256">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR256">
         <v>1.35</v>
@@ -54298,7 +54322,7 @@
         <v>1.59</v>
       </c>
       <c r="AP257">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ257">
         <v>1.5</v>
@@ -54507,7 +54531,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ258">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AR258">
         <v>1.29</v>
@@ -54710,7 +54734,7 @@
         <v>1.11</v>
       </c>
       <c r="AP259">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AQ259">
         <v>1.2</v>
@@ -54838,7 +54862,7 @@
         <v>248</v>
       </c>
       <c r="P260" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -54919,7 +54943,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ260">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR260">
         <v>1.58</v>
@@ -55331,7 +55355,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ262">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR262">
         <v>1.48</v>
@@ -55537,7 +55561,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ263">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR263">
         <v>1.17</v>
@@ -55949,7 +55973,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ265">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR265">
         <v>1.25</v>
@@ -56152,10 +56176,10 @@
         <v>1.89</v>
       </c>
       <c r="AP266">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AQ266">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR266">
         <v>1.5</v>
@@ -56280,7 +56304,7 @@
         <v>98</v>
       </c>
       <c r="P267" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q267">
         <v>3.1</v>
@@ -56564,10 +56588,10 @@
         <v>1.28</v>
       </c>
       <c r="AP268">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AQ268">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AR268">
         <v>1.71</v>
@@ -56770,10 +56794,10 @@
         <v>1.67</v>
       </c>
       <c r="AP269">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ269">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR269">
         <v>1.51</v>
@@ -56898,7 +56922,7 @@
         <v>256</v>
       </c>
       <c r="P270" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -56976,10 +57000,10 @@
         <v>1</v>
       </c>
       <c r="AP270">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ270">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR270">
         <v>1.54</v>
@@ -57182,7 +57206,7 @@
         <v>0.83</v>
       </c>
       <c r="AP271">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ271">
         <v>0.9</v>
@@ -57388,10 +57412,10 @@
         <v>1.53</v>
       </c>
       <c r="AP272">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ272">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR272">
         <v>1.67</v>
@@ -57516,7 +57540,7 @@
         <v>98</v>
       </c>
       <c r="P273" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q273">
         <v>2.6</v>
@@ -58134,7 +58158,7 @@
         <v>98</v>
       </c>
       <c r="P276" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -58340,7 +58364,7 @@
         <v>258</v>
       </c>
       <c r="P277" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q277">
         <v>2.88</v>
@@ -58546,7 +58570,7 @@
         <v>259</v>
       </c>
       <c r="P278" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58703,6 +58727,1654 @@
       </c>
       <c r="BP278">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7345181</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45493.625</v>
+      </c>
+      <c r="F279">
+        <v>6</v>
+      </c>
+      <c r="G279" t="s">
+        <v>78</v>
+      </c>
+      <c r="H279" t="s">
+        <v>84</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>260</v>
+      </c>
+      <c r="P279" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q279">
+        <v>3.4</v>
+      </c>
+      <c r="R279">
+        <v>1.8</v>
+      </c>
+      <c r="S279">
+        <v>4.33</v>
+      </c>
+      <c r="T279">
+        <v>1.67</v>
+      </c>
+      <c r="U279">
+        <v>2.1</v>
+      </c>
+      <c r="V279">
+        <v>4.33</v>
+      </c>
+      <c r="W279">
+        <v>1.2</v>
+      </c>
+      <c r="X279">
+        <v>15</v>
+      </c>
+      <c r="Y279">
+        <v>1.03</v>
+      </c>
+      <c r="Z279">
+        <v>2.45</v>
+      </c>
+      <c r="AA279">
+        <v>2.75</v>
+      </c>
+      <c r="AB279">
+        <v>3.5</v>
+      </c>
+      <c r="AC279">
+        <v>1.13</v>
+      </c>
+      <c r="AD279">
+        <v>5.7</v>
+      </c>
+      <c r="AE279">
+        <v>1.65</v>
+      </c>
+      <c r="AF279">
+        <v>2.1</v>
+      </c>
+      <c r="AG279">
+        <v>3.5</v>
+      </c>
+      <c r="AH279">
+        <v>1.3</v>
+      </c>
+      <c r="AI279">
+        <v>2.5</v>
+      </c>
+      <c r="AJ279">
+        <v>1.5</v>
+      </c>
+      <c r="AK279">
+        <v>1.4</v>
+      </c>
+      <c r="AL279">
+        <v>1.38</v>
+      </c>
+      <c r="AM279">
+        <v>1.5</v>
+      </c>
+      <c r="AN279">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO279">
+        <v>1.53</v>
+      </c>
+      <c r="AP279">
+        <v>0.95</v>
+      </c>
+      <c r="AQ279">
+        <v>1.5</v>
+      </c>
+      <c r="AR279">
+        <v>1.39</v>
+      </c>
+      <c r="AS279">
+        <v>1.41</v>
+      </c>
+      <c r="AT279">
+        <v>2.8</v>
+      </c>
+      <c r="AU279">
+        <v>4</v>
+      </c>
+      <c r="AV279">
+        <v>3</v>
+      </c>
+      <c r="AW279">
+        <v>8</v>
+      </c>
+      <c r="AX279">
+        <v>2</v>
+      </c>
+      <c r="AY279">
+        <v>12</v>
+      </c>
+      <c r="AZ279">
+        <v>5</v>
+      </c>
+      <c r="BA279">
+        <v>5</v>
+      </c>
+      <c r="BB279">
+        <v>1</v>
+      </c>
+      <c r="BC279">
+        <v>6</v>
+      </c>
+      <c r="BD279">
+        <v>1.93</v>
+      </c>
+      <c r="BE279">
+        <v>6.9</v>
+      </c>
+      <c r="BF279">
+        <v>2.3</v>
+      </c>
+      <c r="BG279">
+        <v>1.4</v>
+      </c>
+      <c r="BH279">
+        <v>2.7</v>
+      </c>
+      <c r="BI279">
+        <v>1.73</v>
+      </c>
+      <c r="BJ279">
+        <v>2</v>
+      </c>
+      <c r="BK279">
+        <v>2.18</v>
+      </c>
+      <c r="BL279">
+        <v>1.58</v>
+      </c>
+      <c r="BM279">
+        <v>2.95</v>
+      </c>
+      <c r="BN279">
+        <v>1.34</v>
+      </c>
+      <c r="BO279">
+        <v>4.1</v>
+      </c>
+      <c r="BP279">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7345184</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45493.70833333334</v>
+      </c>
+      <c r="F280">
+        <v>6</v>
+      </c>
+      <c r="G280" t="s">
+        <v>80</v>
+      </c>
+      <c r="H280" t="s">
+        <v>81</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <v>3</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>261</v>
+      </c>
+      <c r="P280" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q280">
+        <v>2.2</v>
+      </c>
+      <c r="R280">
+        <v>2.2</v>
+      </c>
+      <c r="S280">
+        <v>6</v>
+      </c>
+      <c r="T280">
+        <v>1.4</v>
+      </c>
+      <c r="U280">
+        <v>2.75</v>
+      </c>
+      <c r="V280">
+        <v>3</v>
+      </c>
+      <c r="W280">
+        <v>1.36</v>
+      </c>
+      <c r="X280">
+        <v>9</v>
+      </c>
+      <c r="Y280">
+        <v>1.07</v>
+      </c>
+      <c r="Z280">
+        <v>1.6</v>
+      </c>
+      <c r="AA280">
+        <v>3.8</v>
+      </c>
+      <c r="AB280">
+        <v>6</v>
+      </c>
+      <c r="AC280">
+        <v>1.02</v>
+      </c>
+      <c r="AD280">
+        <v>8.6</v>
+      </c>
+      <c r="AE280">
+        <v>1.3</v>
+      </c>
+      <c r="AF280">
+        <v>3.1</v>
+      </c>
+      <c r="AG280">
+        <v>2.1</v>
+      </c>
+      <c r="AH280">
+        <v>1.7</v>
+      </c>
+      <c r="AI280">
+        <v>2.05</v>
+      </c>
+      <c r="AJ280">
+        <v>1.7</v>
+      </c>
+      <c r="AK280">
+        <v>1.14</v>
+      </c>
+      <c r="AL280">
+        <v>1.22</v>
+      </c>
+      <c r="AM280">
+        <v>2.3</v>
+      </c>
+      <c r="AN280">
+        <v>1.79</v>
+      </c>
+      <c r="AO280">
+        <v>1.68</v>
+      </c>
+      <c r="AP280">
+        <v>1.85</v>
+      </c>
+      <c r="AQ280">
+        <v>1.6</v>
+      </c>
+      <c r="AR280">
+        <v>1.72</v>
+      </c>
+      <c r="AS280">
+        <v>1.64</v>
+      </c>
+      <c r="AT280">
+        <v>3.36</v>
+      </c>
+      <c r="AU280">
+        <v>7</v>
+      </c>
+      <c r="AV280">
+        <v>0</v>
+      </c>
+      <c r="AW280">
+        <v>5</v>
+      </c>
+      <c r="AX280">
+        <v>5</v>
+      </c>
+      <c r="AY280">
+        <v>12</v>
+      </c>
+      <c r="AZ280">
+        <v>5</v>
+      </c>
+      <c r="BA280">
+        <v>3</v>
+      </c>
+      <c r="BB280">
+        <v>3</v>
+      </c>
+      <c r="BC280">
+        <v>6</v>
+      </c>
+      <c r="BD280">
+        <v>1.47</v>
+      </c>
+      <c r="BE280">
+        <v>7.3</v>
+      </c>
+      <c r="BF280">
+        <v>3.66</v>
+      </c>
+      <c r="BG280">
+        <v>1.4</v>
+      </c>
+      <c r="BH280">
+        <v>2.7</v>
+      </c>
+      <c r="BI280">
+        <v>1.7</v>
+      </c>
+      <c r="BJ280">
+        <v>2.05</v>
+      </c>
+      <c r="BK280">
+        <v>2.2</v>
+      </c>
+      <c r="BL280">
+        <v>1.58</v>
+      </c>
+      <c r="BM280">
+        <v>2.95</v>
+      </c>
+      <c r="BN280">
+        <v>1.34</v>
+      </c>
+      <c r="BO280">
+        <v>4.1</v>
+      </c>
+      <c r="BP280">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7345177</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45493.8125</v>
+      </c>
+      <c r="F281">
+        <v>6</v>
+      </c>
+      <c r="G281" t="s">
+        <v>77</v>
+      </c>
+      <c r="H281" t="s">
+        <v>72</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>178</v>
+      </c>
+      <c r="P281" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q281">
+        <v>3.5</v>
+      </c>
+      <c r="R281">
+        <v>1.91</v>
+      </c>
+      <c r="S281">
+        <v>3.75</v>
+      </c>
+      <c r="T281">
+        <v>1.57</v>
+      </c>
+      <c r="U281">
+        <v>2.25</v>
+      </c>
+      <c r="V281">
+        <v>3.75</v>
+      </c>
+      <c r="W281">
+        <v>1.25</v>
+      </c>
+      <c r="X281">
+        <v>13</v>
+      </c>
+      <c r="Y281">
+        <v>1.04</v>
+      </c>
+      <c r="Z281">
+        <v>2.7</v>
+      </c>
+      <c r="AA281">
+        <v>2.88</v>
+      </c>
+      <c r="AB281">
+        <v>3</v>
+      </c>
+      <c r="AC281">
+        <v>1.09</v>
+      </c>
+      <c r="AD281">
+        <v>6.71</v>
+      </c>
+      <c r="AE281">
+        <v>1.5</v>
+      </c>
+      <c r="AF281">
+        <v>2.4</v>
+      </c>
+      <c r="AG281">
+        <v>2.7</v>
+      </c>
+      <c r="AH281">
+        <v>1.44</v>
+      </c>
+      <c r="AI281">
+        <v>2.2</v>
+      </c>
+      <c r="AJ281">
+        <v>1.62</v>
+      </c>
+      <c r="AK281">
+        <v>1.33</v>
+      </c>
+      <c r="AL281">
+        <v>1.32</v>
+      </c>
+      <c r="AM281">
+        <v>1.63</v>
+      </c>
+      <c r="AN281">
+        <v>1.11</v>
+      </c>
+      <c r="AO281">
+        <v>0.84</v>
+      </c>
+      <c r="AP281">
+        <v>1.1</v>
+      </c>
+      <c r="AQ281">
+        <v>0.85</v>
+      </c>
+      <c r="AR281">
+        <v>1.39</v>
+      </c>
+      <c r="AS281">
+        <v>1.67</v>
+      </c>
+      <c r="AT281">
+        <v>3.06</v>
+      </c>
+      <c r="AU281">
+        <v>6</v>
+      </c>
+      <c r="AV281">
+        <v>3</v>
+      </c>
+      <c r="AW281">
+        <v>6</v>
+      </c>
+      <c r="AX281">
+        <v>3</v>
+      </c>
+      <c r="AY281">
+        <v>12</v>
+      </c>
+      <c r="AZ281">
+        <v>6</v>
+      </c>
+      <c r="BA281">
+        <v>10</v>
+      </c>
+      <c r="BB281">
+        <v>0</v>
+      </c>
+      <c r="BC281">
+        <v>10</v>
+      </c>
+      <c r="BD281">
+        <v>1.65</v>
+      </c>
+      <c r="BE281">
+        <v>7.8</v>
+      </c>
+      <c r="BF281">
+        <v>2.81</v>
+      </c>
+      <c r="BG281">
+        <v>1.36</v>
+      </c>
+      <c r="BH281">
+        <v>2.85</v>
+      </c>
+      <c r="BI281">
+        <v>1.7</v>
+      </c>
+      <c r="BJ281">
+        <v>2.05</v>
+      </c>
+      <c r="BK281">
+        <v>2.05</v>
+      </c>
+      <c r="BL281">
+        <v>1.7</v>
+      </c>
+      <c r="BM281">
+        <v>2.75</v>
+      </c>
+      <c r="BN281">
+        <v>1.38</v>
+      </c>
+      <c r="BO281">
+        <v>3.85</v>
+      </c>
+      <c r="BP281">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7345185</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45494.625</v>
+      </c>
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282" t="s">
+        <v>82</v>
+      </c>
+      <c r="H282" t="s">
+        <v>87</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>262</v>
+      </c>
+      <c r="P282" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q282">
+        <v>2.05</v>
+      </c>
+      <c r="R282">
+        <v>2.3</v>
+      </c>
+      <c r="S282">
+        <v>6.5</v>
+      </c>
+      <c r="T282">
+        <v>1.36</v>
+      </c>
+      <c r="U282">
+        <v>3</v>
+      </c>
+      <c r="V282">
+        <v>2.75</v>
+      </c>
+      <c r="W282">
+        <v>1.4</v>
+      </c>
+      <c r="X282">
+        <v>7</v>
+      </c>
+      <c r="Y282">
+        <v>1.1</v>
+      </c>
+      <c r="Z282">
+        <v>1.48</v>
+      </c>
+      <c r="AA282">
+        <v>4.2</v>
+      </c>
+      <c r="AB282">
+        <v>7</v>
+      </c>
+      <c r="AC282">
+        <v>1.05</v>
+      </c>
+      <c r="AD282">
+        <v>12</v>
+      </c>
+      <c r="AE282">
+        <v>1.26</v>
+      </c>
+      <c r="AF282">
+        <v>3.67</v>
+      </c>
+      <c r="AG282">
+        <v>1.85</v>
+      </c>
+      <c r="AH282">
+        <v>1.95</v>
+      </c>
+      <c r="AI282">
+        <v>2</v>
+      </c>
+      <c r="AJ282">
+        <v>1.75</v>
+      </c>
+      <c r="AK282">
+        <v>1.07</v>
+      </c>
+      <c r="AL282">
+        <v>1.18</v>
+      </c>
+      <c r="AM282">
+        <v>2.85</v>
+      </c>
+      <c r="AN282">
+        <v>1.8</v>
+      </c>
+      <c r="AO282">
+        <v>1.63</v>
+      </c>
+      <c r="AP282">
+        <v>1.76</v>
+      </c>
+      <c r="AQ282">
+        <v>1.6</v>
+      </c>
+      <c r="AR282">
+        <v>1.96</v>
+      </c>
+      <c r="AS282">
+        <v>1.51</v>
+      </c>
+      <c r="AT282">
+        <v>3.47</v>
+      </c>
+      <c r="AU282">
+        <v>8</v>
+      </c>
+      <c r="AV282">
+        <v>5</v>
+      </c>
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>3</v>
+      </c>
+      <c r="AY282">
+        <v>13</v>
+      </c>
+      <c r="AZ282">
+        <v>8</v>
+      </c>
+      <c r="BA282">
+        <v>6</v>
+      </c>
+      <c r="BB282">
+        <v>0</v>
+      </c>
+      <c r="BC282">
+        <v>6</v>
+      </c>
+      <c r="BD282">
+        <v>1.31</v>
+      </c>
+      <c r="BE282">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF282">
+        <v>4.56</v>
+      </c>
+      <c r="BG282">
+        <v>1.22</v>
+      </c>
+      <c r="BH282">
+        <v>3.64</v>
+      </c>
+      <c r="BI282">
+        <v>1.49</v>
+      </c>
+      <c r="BJ282">
+        <v>2.4</v>
+      </c>
+      <c r="BK282">
+        <v>2.38</v>
+      </c>
+      <c r="BL282">
+        <v>1.95</v>
+      </c>
+      <c r="BM282">
+        <v>2.38</v>
+      </c>
+      <c r="BN282">
+        <v>1.5</v>
+      </c>
+      <c r="BO282">
+        <v>3.2</v>
+      </c>
+      <c r="BP282">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7345174</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45494.71875</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>73</v>
+      </c>
+      <c r="H283" t="s">
+        <v>79</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283" t="s">
+        <v>98</v>
+      </c>
+      <c r="P283" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q283">
+        <v>4</v>
+      </c>
+      <c r="R283">
+        <v>1.83</v>
+      </c>
+      <c r="S283">
+        <v>3.4</v>
+      </c>
+      <c r="T283">
+        <v>1.44</v>
+      </c>
+      <c r="U283">
+        <v>2.63</v>
+      </c>
+      <c r="V283">
+        <v>3.25</v>
+      </c>
+      <c r="W283">
+        <v>1.33</v>
+      </c>
+      <c r="X283">
+        <v>10</v>
+      </c>
+      <c r="Y283">
+        <v>1.06</v>
+      </c>
+      <c r="Z283">
+        <v>3.1</v>
+      </c>
+      <c r="AA283">
+        <v>3.1</v>
+      </c>
+      <c r="AB283">
+        <v>2.45</v>
+      </c>
+      <c r="AC283">
+        <v>1.05</v>
+      </c>
+      <c r="AD283">
+        <v>8.91</v>
+      </c>
+      <c r="AE283">
+        <v>1.38</v>
+      </c>
+      <c r="AF283">
+        <v>2.94</v>
+      </c>
+      <c r="AG283">
+        <v>2.88</v>
+      </c>
+      <c r="AH283">
+        <v>1.4</v>
+      </c>
+      <c r="AI283">
+        <v>2.25</v>
+      </c>
+      <c r="AJ283">
+        <v>1.57</v>
+      </c>
+      <c r="AK283">
+        <v>1.58</v>
+      </c>
+      <c r="AL283">
+        <v>1.28</v>
+      </c>
+      <c r="AM283">
+        <v>1.42</v>
+      </c>
+      <c r="AN283">
+        <v>0.58</v>
+      </c>
+      <c r="AO283">
+        <v>1.21</v>
+      </c>
+      <c r="AP283">
+        <v>0.55</v>
+      </c>
+      <c r="AQ283">
+        <v>1.3</v>
+      </c>
+      <c r="AR283">
+        <v>1.1</v>
+      </c>
+      <c r="AS283">
+        <v>1.35</v>
+      </c>
+      <c r="AT283">
+        <v>2.45</v>
+      </c>
+      <c r="AU283">
+        <v>3</v>
+      </c>
+      <c r="AV283">
+        <v>3</v>
+      </c>
+      <c r="AW283">
+        <v>6</v>
+      </c>
+      <c r="AX283">
+        <v>2</v>
+      </c>
+      <c r="AY283">
+        <v>9</v>
+      </c>
+      <c r="AZ283">
+        <v>5</v>
+      </c>
+      <c r="BA283">
+        <v>4</v>
+      </c>
+      <c r="BB283">
+        <v>1</v>
+      </c>
+      <c r="BC283">
+        <v>5</v>
+      </c>
+      <c r="BD283">
+        <v>2.2</v>
+      </c>
+      <c r="BE283">
+        <v>6.75</v>
+      </c>
+      <c r="BF283">
+        <v>2</v>
+      </c>
+      <c r="BG283">
+        <v>1.48</v>
+      </c>
+      <c r="BH283">
+        <v>2.45</v>
+      </c>
+      <c r="BI283">
+        <v>1.9</v>
+      </c>
+      <c r="BJ283">
+        <v>1.9</v>
+      </c>
+      <c r="BK283">
+        <v>2.4</v>
+      </c>
+      <c r="BL283">
+        <v>1.49</v>
+      </c>
+      <c r="BM283">
+        <v>3.3</v>
+      </c>
+      <c r="BN283">
+        <v>1.28</v>
+      </c>
+      <c r="BO283">
+        <v>3.8</v>
+      </c>
+      <c r="BP283">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7345182</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45494.71875</v>
+      </c>
+      <c r="F284">
+        <v>6</v>
+      </c>
+      <c r="G284" t="s">
+        <v>83</v>
+      </c>
+      <c r="H284" t="s">
+        <v>93</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+      <c r="O284" t="s">
+        <v>98</v>
+      </c>
+      <c r="P284" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q284">
+        <v>3</v>
+      </c>
+      <c r="R284">
+        <v>1.8</v>
+      </c>
+      <c r="S284">
+        <v>5</v>
+      </c>
+      <c r="T284">
+        <v>1.57</v>
+      </c>
+      <c r="U284">
+        <v>2.25</v>
+      </c>
+      <c r="V284">
+        <v>3.75</v>
+      </c>
+      <c r="W284">
+        <v>1.25</v>
+      </c>
+      <c r="X284">
+        <v>11</v>
+      </c>
+      <c r="Y284">
+        <v>1.05</v>
+      </c>
+      <c r="Z284">
+        <v>2.15</v>
+      </c>
+      <c r="AA284">
+        <v>2.8</v>
+      </c>
+      <c r="AB284">
+        <v>4.2</v>
+      </c>
+      <c r="AC284">
+        <v>1.1</v>
+      </c>
+      <c r="AD284">
+        <v>6.6</v>
+      </c>
+      <c r="AE284">
+        <v>1.48</v>
+      </c>
+      <c r="AF284">
+        <v>2.45</v>
+      </c>
+      <c r="AG284">
+        <v>3.4</v>
+      </c>
+      <c r="AH284">
+        <v>1.33</v>
+      </c>
+      <c r="AI284">
+        <v>2.5</v>
+      </c>
+      <c r="AJ284">
+        <v>1.5</v>
+      </c>
+      <c r="AK284">
+        <v>1.19</v>
+      </c>
+      <c r="AL284">
+        <v>1.3</v>
+      </c>
+      <c r="AM284">
+        <v>1.95</v>
+      </c>
+      <c r="AN284">
+        <v>1.71</v>
+      </c>
+      <c r="AO284">
+        <v>1.74</v>
+      </c>
+      <c r="AP284">
+        <v>1.68</v>
+      </c>
+      <c r="AQ284">
+        <v>1.7</v>
+      </c>
+      <c r="AR284">
+        <v>1.77</v>
+      </c>
+      <c r="AS284">
+        <v>1.56</v>
+      </c>
+      <c r="AT284">
+        <v>3.33</v>
+      </c>
+      <c r="AU284">
+        <v>8</v>
+      </c>
+      <c r="AV284">
+        <v>4</v>
+      </c>
+      <c r="AW284">
+        <v>6</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>14</v>
+      </c>
+      <c r="AZ284">
+        <v>8</v>
+      </c>
+      <c r="BA284">
+        <v>5</v>
+      </c>
+      <c r="BB284">
+        <v>3</v>
+      </c>
+      <c r="BC284">
+        <v>8</v>
+      </c>
+      <c r="BD284">
+        <v>1.57</v>
+      </c>
+      <c r="BE284">
+        <v>7.6</v>
+      </c>
+      <c r="BF284">
+        <v>3.1</v>
+      </c>
+      <c r="BG284">
+        <v>1.4</v>
+      </c>
+      <c r="BH284">
+        <v>2.7</v>
+      </c>
+      <c r="BI284">
+        <v>1.7</v>
+      </c>
+      <c r="BJ284">
+        <v>2.05</v>
+      </c>
+      <c r="BK284">
+        <v>2.2</v>
+      </c>
+      <c r="BL284">
+        <v>1.58</v>
+      </c>
+      <c r="BM284">
+        <v>2.95</v>
+      </c>
+      <c r="BN284">
+        <v>1.34</v>
+      </c>
+      <c r="BO284">
+        <v>4.1</v>
+      </c>
+      <c r="BP284">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7345176</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45494.83333333334</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+      <c r="G285" t="s">
+        <v>90</v>
+      </c>
+      <c r="H285" t="s">
+        <v>92</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>3</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>2</v>
+      </c>
+      <c r="N285">
+        <v>4</v>
+      </c>
+      <c r="O285" t="s">
+        <v>263</v>
+      </c>
+      <c r="P285" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q285">
+        <v>3.6</v>
+      </c>
+      <c r="R285">
+        <v>1.91</v>
+      </c>
+      <c r="S285">
+        <v>3.5</v>
+      </c>
+      <c r="T285">
+        <v>1.5</v>
+      </c>
+      <c r="U285">
+        <v>2.5</v>
+      </c>
+      <c r="V285">
+        <v>3.4</v>
+      </c>
+      <c r="W285">
+        <v>1.3</v>
+      </c>
+      <c r="X285">
+        <v>10</v>
+      </c>
+      <c r="Y285">
+        <v>1.06</v>
+      </c>
+      <c r="Z285">
+        <v>2.8</v>
+      </c>
+      <c r="AA285">
+        <v>3</v>
+      </c>
+      <c r="AB285">
+        <v>2.63</v>
+      </c>
+      <c r="AC285">
+        <v>1.06</v>
+      </c>
+      <c r="AD285">
+        <v>8.09</v>
+      </c>
+      <c r="AE285">
+        <v>1.43</v>
+      </c>
+      <c r="AF285">
+        <v>2.76</v>
+      </c>
+      <c r="AG285">
+        <v>2.6</v>
+      </c>
+      <c r="AH285">
+        <v>1.48</v>
+      </c>
+      <c r="AI285">
+        <v>2.05</v>
+      </c>
+      <c r="AJ285">
+        <v>1.7</v>
+      </c>
+      <c r="AK285">
+        <v>1.75</v>
+      </c>
+      <c r="AL285">
+        <v>1.28</v>
+      </c>
+      <c r="AM285">
+        <v>1.3</v>
+      </c>
+      <c r="AN285">
+        <v>1.5</v>
+      </c>
+      <c r="AO285">
+        <v>1.8</v>
+      </c>
+      <c r="AP285">
+        <v>1.48</v>
+      </c>
+      <c r="AQ285">
+        <v>1.76</v>
+      </c>
+      <c r="AR285">
+        <v>1.41</v>
+      </c>
+      <c r="AS285">
+        <v>1.49</v>
+      </c>
+      <c r="AT285">
+        <v>2.9</v>
+      </c>
+      <c r="AU285">
+        <v>8</v>
+      </c>
+      <c r="AV285">
+        <v>5</v>
+      </c>
+      <c r="AW285">
+        <v>5</v>
+      </c>
+      <c r="AX285">
+        <v>4</v>
+      </c>
+      <c r="AY285">
+        <v>13</v>
+      </c>
+      <c r="AZ285">
+        <v>9</v>
+      </c>
+      <c r="BA285">
+        <v>4</v>
+      </c>
+      <c r="BB285">
+        <v>7</v>
+      </c>
+      <c r="BC285">
+        <v>11</v>
+      </c>
+      <c r="BD285">
+        <v>2.42</v>
+      </c>
+      <c r="BE285">
+        <v>7.1</v>
+      </c>
+      <c r="BF285">
+        <v>1.87</v>
+      </c>
+      <c r="BG285">
+        <v>1.36</v>
+      </c>
+      <c r="BH285">
+        <v>2.85</v>
+      </c>
+      <c r="BI285">
+        <v>1.7</v>
+      </c>
+      <c r="BJ285">
+        <v>2.05</v>
+      </c>
+      <c r="BK285">
+        <v>2.08</v>
+      </c>
+      <c r="BL285">
+        <v>1.65</v>
+      </c>
+      <c r="BM285">
+        <v>2.75</v>
+      </c>
+      <c r="BN285">
+        <v>1.38</v>
+      </c>
+      <c r="BO285">
+        <v>3.85</v>
+      </c>
+      <c r="BP285">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7345175</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45494.83333333334</v>
+      </c>
+      <c r="F286">
+        <v>6</v>
+      </c>
+      <c r="G286" t="s">
+        <v>88</v>
+      </c>
+      <c r="H286" t="s">
+        <v>75</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>264</v>
+      </c>
+      <c r="P286" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q286">
+        <v>3.6</v>
+      </c>
+      <c r="R286">
+        <v>1.91</v>
+      </c>
+      <c r="S286">
+        <v>3.5</v>
+      </c>
+      <c r="T286">
+        <v>1.5</v>
+      </c>
+      <c r="U286">
+        <v>2.5</v>
+      </c>
+      <c r="V286">
+        <v>3.5</v>
+      </c>
+      <c r="W286">
+        <v>1.29</v>
+      </c>
+      <c r="X286">
+        <v>10</v>
+      </c>
+      <c r="Y286">
+        <v>1.06</v>
+      </c>
+      <c r="Z286">
+        <v>2.8</v>
+      </c>
+      <c r="AA286">
+        <v>3.1</v>
+      </c>
+      <c r="AB286">
+        <v>2.7</v>
+      </c>
+      <c r="AC286">
+        <v>1.07</v>
+      </c>
+      <c r="AD286">
+        <v>7.92</v>
+      </c>
+      <c r="AE286">
+        <v>1.43</v>
+      </c>
+      <c r="AF286">
+        <v>2.75</v>
+      </c>
+      <c r="AG286">
+        <v>2.5</v>
+      </c>
+      <c r="AH286">
+        <v>1.5</v>
+      </c>
+      <c r="AI286">
+        <v>2.05</v>
+      </c>
+      <c r="AJ286">
+        <v>1.7</v>
+      </c>
+      <c r="AK286">
+        <v>1.36</v>
+      </c>
+      <c r="AL286">
+        <v>1.3</v>
+      </c>
+      <c r="AM286">
+        <v>1.63</v>
+      </c>
+      <c r="AN286">
+        <v>1.59</v>
+      </c>
+      <c r="AO286">
+        <v>1.95</v>
+      </c>
+      <c r="AP286">
+        <v>1.65</v>
+      </c>
+      <c r="AQ286">
+        <v>1.85</v>
+      </c>
+      <c r="AR286">
+        <v>1.53</v>
+      </c>
+      <c r="AS286">
+        <v>1.71</v>
+      </c>
+      <c r="AT286">
+        <v>3.24</v>
+      </c>
+      <c r="AU286">
+        <v>6</v>
+      </c>
+      <c r="AV286">
+        <v>5</v>
+      </c>
+      <c r="AW286">
+        <v>4</v>
+      </c>
+      <c r="AX286">
+        <v>7</v>
+      </c>
+      <c r="AY286">
+        <v>10</v>
+      </c>
+      <c r="AZ286">
+        <v>12</v>
+      </c>
+      <c r="BA286">
+        <v>2</v>
+      </c>
+      <c r="BB286">
+        <v>8</v>
+      </c>
+      <c r="BC286">
+        <v>10</v>
+      </c>
+      <c r="BD286">
+        <v>1.84</v>
+      </c>
+      <c r="BE286">
+        <v>7.1</v>
+      </c>
+      <c r="BF286">
+        <v>2.47</v>
+      </c>
+      <c r="BG286">
+        <v>1.26</v>
+      </c>
+      <c r="BH286">
+        <v>3.34</v>
+      </c>
+      <c r="BI286">
+        <v>1.52</v>
+      </c>
+      <c r="BJ286">
+        <v>2.33</v>
+      </c>
+      <c r="BK286">
+        <v>2</v>
+      </c>
+      <c r="BL286">
+        <v>1.8</v>
+      </c>
+      <c r="BM286">
+        <v>2.45</v>
+      </c>
+      <c r="BN286">
+        <v>1.47</v>
+      </c>
+      <c r="BO286">
+        <v>3.3</v>
+      </c>
+      <c r="BP286">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,9 @@
     <t>['36', '53', '63']</t>
   </si>
   <si>
+    <t>['58', '79']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -611,6 +614,9 @@
   </si>
   <si>
     <t>['20', '52']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1237,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1437,7 +1443,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1515,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>1.5</v>
@@ -1721,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -1849,7 +1855,7 @@
         <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -2055,7 +2061,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2136,7 +2142,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2261,7 +2267,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2751,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3085,7 +3091,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3291,7 +3297,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3372,7 +3378,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3781,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4193,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
         <v>0.6</v>
@@ -4527,7 +4533,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4608,7 +4614,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>1.43</v>
@@ -4733,7 +4739,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5017,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ20">
         <v>1.17</v>
@@ -5351,7 +5357,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5763,7 +5769,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5969,7 +5975,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6047,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ25">
         <v>1.5</v>
@@ -6256,7 +6262,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.01</v>
@@ -6381,7 +6387,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6668,7 +6674,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -6874,7 +6880,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -6999,7 +7005,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7077,7 +7083,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7205,7 +7211,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7411,7 +7417,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7617,7 +7623,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7901,7 +7907,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -8107,7 +8113,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8728,7 +8734,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -8931,7 +8937,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39">
         <v>0.83</v>
@@ -9059,7 +9065,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9346,7 +9352,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9758,7 +9764,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>2.06</v>
@@ -9883,7 +9889,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10170,7 +10176,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -10501,7 +10507,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10707,7 +10713,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -11200,7 +11206,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR50">
         <v>1.11</v>
@@ -11325,7 +11331,7 @@
         <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11403,7 +11409,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ51">
         <v>1.17</v>
@@ -11737,7 +11743,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11943,7 +11949,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12021,7 +12027,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ54">
         <v>2.33</v>
@@ -12227,7 +12233,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ55">
         <v>2.33</v>
@@ -12436,7 +12442,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.36</v>
@@ -12767,7 +12773,7 @@
         <v>140</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>1.95</v>
@@ -12845,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -12973,7 +12979,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13179,7 +13185,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13257,10 +13263,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR60">
         <v>1.73</v>
@@ -13463,7 +13469,7 @@
         <v>2.25</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
         <v>1.67</v>
@@ -13591,7 +13597,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14209,7 +14215,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14287,7 +14293,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ65">
         <v>2.17</v>
@@ -14621,7 +14627,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14827,7 +14833,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14908,7 +14914,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.68</v>
@@ -15114,7 +15120,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ69">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR69">
         <v>1.39</v>
@@ -15239,7 +15245,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15445,7 +15451,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15523,7 +15529,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>0.83</v>
@@ -15729,10 +15735,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ72">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR72">
         <v>1.08</v>
@@ -16063,7 +16069,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16141,10 +16147,10 @@
         <v>1.2</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR74">
         <v>1.52</v>
@@ -16269,7 +16275,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16350,7 +16356,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16475,7 +16481,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16681,7 +16687,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16759,7 +16765,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ77">
         <v>2.33</v>
@@ -17093,7 +17099,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17299,7 +17305,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17711,7 +17717,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17917,7 +17923,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18280,6 +18286,830 @@
       </c>
       <c r="BP84">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7345189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45496.625</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>161</v>
+      </c>
+      <c r="P85" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q85">
+        <v>4.75</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
+        <v>3.25</v>
+      </c>
+      <c r="T85">
+        <v>1.57</v>
+      </c>
+      <c r="U85">
+        <v>2.25</v>
+      </c>
+      <c r="V85">
+        <v>3.75</v>
+      </c>
+      <c r="W85">
+        <v>1.25</v>
+      </c>
+      <c r="X85">
+        <v>11</v>
+      </c>
+      <c r="Y85">
+        <v>1.05</v>
+      </c>
+      <c r="Z85">
+        <v>3.6</v>
+      </c>
+      <c r="AA85">
+        <v>2.9</v>
+      </c>
+      <c r="AB85">
+        <v>2.35</v>
+      </c>
+      <c r="AC85">
+        <v>1.09</v>
+      </c>
+      <c r="AD85">
+        <v>7</v>
+      </c>
+      <c r="AE85">
+        <v>1.5</v>
+      </c>
+      <c r="AF85">
+        <v>2.55</v>
+      </c>
+      <c r="AG85">
+        <v>3.5</v>
+      </c>
+      <c r="AH85">
+        <v>1.3</v>
+      </c>
+      <c r="AI85">
+        <v>2.63</v>
+      </c>
+      <c r="AJ85">
+        <v>1.44</v>
+      </c>
+      <c r="AK85">
+        <v>1.57</v>
+      </c>
+      <c r="AL85">
+        <v>1.3</v>
+      </c>
+      <c r="AM85">
+        <v>1.33</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>1.5</v>
+      </c>
+      <c r="AP85">
+        <v>1.29</v>
+      </c>
+      <c r="AQ85">
+        <v>1.29</v>
+      </c>
+      <c r="AR85">
+        <v>1.12</v>
+      </c>
+      <c r="AS85">
+        <v>1.58</v>
+      </c>
+      <c r="AT85">
+        <v>2.7</v>
+      </c>
+      <c r="AU85">
+        <v>7</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>2</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>7</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>9</v>
+      </c>
+      <c r="BC85">
+        <v>12</v>
+      </c>
+      <c r="BD85">
+        <v>2.66</v>
+      </c>
+      <c r="BE85">
+        <v>7.5</v>
+      </c>
+      <c r="BF85">
+        <v>1.72</v>
+      </c>
+      <c r="BG85">
+        <v>1.45</v>
+      </c>
+      <c r="BH85">
+        <v>2.6</v>
+      </c>
+      <c r="BI85">
+        <v>1.77</v>
+      </c>
+      <c r="BJ85">
+        <v>1.95</v>
+      </c>
+      <c r="BK85">
+        <v>2.3</v>
+      </c>
+      <c r="BL85">
+        <v>1.58</v>
+      </c>
+      <c r="BM85">
+        <v>3.1</v>
+      </c>
+      <c r="BN85">
+        <v>1.34</v>
+      </c>
+      <c r="BO85">
+        <v>4.4</v>
+      </c>
+      <c r="BP85">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7345195</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45496.78125</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>82</v>
+      </c>
+      <c r="H86" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>102</v>
+      </c>
+      <c r="P86" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q86">
+        <v>3.75</v>
+      </c>
+      <c r="R86">
+        <v>1.91</v>
+      </c>
+      <c r="S86">
+        <v>3.6</v>
+      </c>
+      <c r="T86">
+        <v>1.53</v>
+      </c>
+      <c r="U86">
+        <v>2.38</v>
+      </c>
+      <c r="V86">
+        <v>3.75</v>
+      </c>
+      <c r="W86">
+        <v>1.25</v>
+      </c>
+      <c r="X86">
+        <v>11</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>2.88</v>
+      </c>
+      <c r="AA86">
+        <v>3</v>
+      </c>
+      <c r="AB86">
+        <v>2.75</v>
+      </c>
+      <c r="AC86">
+        <v>1.1</v>
+      </c>
+      <c r="AD86">
+        <v>6.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.48</v>
+      </c>
+      <c r="AF86">
+        <v>2.6</v>
+      </c>
+      <c r="AG86">
+        <v>2.7</v>
+      </c>
+      <c r="AH86">
+        <v>1.44</v>
+      </c>
+      <c r="AI86">
+        <v>2.2</v>
+      </c>
+      <c r="AJ86">
+        <v>1.62</v>
+      </c>
+      <c r="AK86">
+        <v>1.28</v>
+      </c>
+      <c r="AL86">
+        <v>1.3</v>
+      </c>
+      <c r="AM86">
+        <v>1.65</v>
+      </c>
+      <c r="AN86">
+        <v>1.67</v>
+      </c>
+      <c r="AO86">
+        <v>0.4</v>
+      </c>
+      <c r="AP86">
+        <v>1.43</v>
+      </c>
+      <c r="AQ86">
+        <v>0.83</v>
+      </c>
+      <c r="AR86">
+        <v>1.51</v>
+      </c>
+      <c r="AS86">
+        <v>1.42</v>
+      </c>
+      <c r="AT86">
+        <v>2.93</v>
+      </c>
+      <c r="AU86">
+        <v>2</v>
+      </c>
+      <c r="AV86">
+        <v>6</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>7</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
+        <v>9</v>
+      </c>
+      <c r="BB86">
+        <v>1</v>
+      </c>
+      <c r="BC86">
+        <v>10</v>
+      </c>
+      <c r="BD86">
+        <v>1.95</v>
+      </c>
+      <c r="BE86">
+        <v>7.1</v>
+      </c>
+      <c r="BF86">
+        <v>2.25</v>
+      </c>
+      <c r="BG86">
+        <v>1.35</v>
+      </c>
+      <c r="BH86">
+        <v>3.1</v>
+      </c>
+      <c r="BI86">
+        <v>1.7</v>
+      </c>
+      <c r="BJ86">
+        <v>2.05</v>
+      </c>
+      <c r="BK86">
+        <v>2.05</v>
+      </c>
+      <c r="BL86">
+        <v>1.65</v>
+      </c>
+      <c r="BM86">
+        <v>2.6</v>
+      </c>
+      <c r="BN86">
+        <v>1.46</v>
+      </c>
+      <c r="BO86">
+        <v>3.6</v>
+      </c>
+      <c r="BP86">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7345196</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45496.78125</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>102</v>
+      </c>
+      <c r="P87" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q87">
+        <v>2.4</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
+        <v>6.5</v>
+      </c>
+      <c r="T87">
+        <v>1.53</v>
+      </c>
+      <c r="U87">
+        <v>2.48</v>
+      </c>
+      <c r="V87">
+        <v>3.55</v>
+      </c>
+      <c r="W87">
+        <v>1.27</v>
+      </c>
+      <c r="X87">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y87">
+        <v>1.03</v>
+      </c>
+      <c r="Z87">
+        <v>1.67</v>
+      </c>
+      <c r="AA87">
+        <v>3.4</v>
+      </c>
+      <c r="AB87">
+        <v>6.25</v>
+      </c>
+      <c r="AC87">
+        <v>1.06</v>
+      </c>
+      <c r="AD87">
+        <v>6.6</v>
+      </c>
+      <c r="AE87">
+        <v>1.5</v>
+      </c>
+      <c r="AF87">
+        <v>2.6</v>
+      </c>
+      <c r="AG87">
+        <v>2.7</v>
+      </c>
+      <c r="AH87">
+        <v>1.44</v>
+      </c>
+      <c r="AI87">
+        <v>2.5</v>
+      </c>
+      <c r="AJ87">
+        <v>1.5</v>
+      </c>
+      <c r="AK87">
+        <v>1.14</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>2.18</v>
+      </c>
+      <c r="AN87">
+        <v>1.5</v>
+      </c>
+      <c r="AO87">
+        <v>1.67</v>
+      </c>
+      <c r="AP87">
+        <v>1.43</v>
+      </c>
+      <c r="AQ87">
+        <v>1.57</v>
+      </c>
+      <c r="AR87">
+        <v>1.43</v>
+      </c>
+      <c r="AS87">
+        <v>1.12</v>
+      </c>
+      <c r="AT87">
+        <v>2.55</v>
+      </c>
+      <c r="AU87">
+        <v>7</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>12</v>
+      </c>
+      <c r="AZ87">
+        <v>9</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>5</v>
+      </c>
+      <c r="BC87">
+        <v>8</v>
+      </c>
+      <c r="BD87">
+        <v>1.44</v>
+      </c>
+      <c r="BE87">
+        <v>7.3</v>
+      </c>
+      <c r="BF87">
+        <v>3.86</v>
+      </c>
+      <c r="BG87">
+        <v>1.46</v>
+      </c>
+      <c r="BH87">
+        <v>2.55</v>
+      </c>
+      <c r="BI87">
+        <v>1.85</v>
+      </c>
+      <c r="BJ87">
+        <v>1.85</v>
+      </c>
+      <c r="BK87">
+        <v>2.3</v>
+      </c>
+      <c r="BL87">
+        <v>1.55</v>
+      </c>
+      <c r="BM87">
+        <v>3.1</v>
+      </c>
+      <c r="BN87">
+        <v>1.33</v>
+      </c>
+      <c r="BO87">
+        <v>4.4</v>
+      </c>
+      <c r="BP87">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7345197</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45496.875</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s">
+        <v>87</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>102</v>
+      </c>
+      <c r="P88" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q88">
+        <v>2.2</v>
+      </c>
+      <c r="R88">
+        <v>2.2</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+      <c r="T88">
+        <v>1.46</v>
+      </c>
+      <c r="U88">
+        <v>2.61</v>
+      </c>
+      <c r="V88">
+        <v>3.16</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>1.57</v>
+      </c>
+      <c r="AA88">
+        <v>3.8</v>
+      </c>
+      <c r="AB88">
+        <v>6</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>7.8</v>
+      </c>
+      <c r="AE88">
+        <v>1.35</v>
+      </c>
+      <c r="AF88">
+        <v>2.84</v>
+      </c>
+      <c r="AG88">
+        <v>2.05</v>
+      </c>
+      <c r="AH88">
+        <v>1.75</v>
+      </c>
+      <c r="AI88">
+        <v>2.05</v>
+      </c>
+      <c r="AJ88">
+        <v>1.7</v>
+      </c>
+      <c r="AK88">
+        <v>1.17</v>
+      </c>
+      <c r="AL88">
+        <v>1.3</v>
+      </c>
+      <c r="AM88">
+        <v>2.09</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>0.67</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>0.71</v>
+      </c>
+      <c r="AR88">
+        <v>1.06</v>
+      </c>
+      <c r="AS88">
+        <v>1.39</v>
+      </c>
+      <c r="AT88">
+        <v>2.45</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>9</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>14</v>
+      </c>
+      <c r="AZ88">
+        <v>5</v>
+      </c>
+      <c r="BA88">
+        <v>14</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>14</v>
+      </c>
+      <c r="BD88">
+        <v>1.31</v>
+      </c>
+      <c r="BE88">
+        <v>7.8</v>
+      </c>
+      <c r="BF88">
+        <v>4.95</v>
+      </c>
+      <c r="BG88">
+        <v>1.28</v>
+      </c>
+      <c r="BH88">
+        <v>3.2</v>
+      </c>
+      <c r="BI88">
+        <v>1.57</v>
+      </c>
+      <c r="BJ88">
+        <v>2.33</v>
+      </c>
+      <c r="BK88">
+        <v>1.97</v>
+      </c>
+      <c r="BL88">
+        <v>1.83</v>
+      </c>
+      <c r="BM88">
+        <v>2.51</v>
+      </c>
+      <c r="BN88">
+        <v>1.5</v>
+      </c>
+      <c r="BO88">
+        <v>3.42</v>
+      </c>
+      <c r="BP88">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,7 +499,13 @@
     <t>['36', '53', '63']</t>
   </si>
   <si>
-    <t>['58', '79']</t>
+    <t>['59', '79']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['26', '28']</t>
   </si>
   <si>
     <t>['40', '55']</t>
@@ -617,6 +623,12 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1249,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1315,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
         <v>2.17</v>
@@ -1443,7 +1455,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1855,7 +1867,7 @@
         <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -1933,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2061,7 +2073,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2139,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>0.71</v>
@@ -2267,7 +2279,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2348,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2551,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2966,7 +2978,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3091,7 +3103,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3172,7 +3184,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3297,7 +3309,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4202,7 +4214,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0.93</v>
@@ -4405,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ17">
         <v>1.83</v>
@@ -4533,7 +4545,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4611,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -4739,7 +4751,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5026,7 +5038,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5357,7 +5369,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5438,7 +5450,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR22">
         <v>0.71</v>
@@ -5641,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -5769,7 +5781,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5975,7 +5987,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6259,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
         <v>1.29</v>
@@ -6387,7 +6399,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6671,7 +6683,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28">
         <v>1.29</v>
@@ -7005,7 +7017,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7211,7 +7223,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7292,7 +7304,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ31">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7417,7 +7429,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7623,7 +7635,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7704,7 +7716,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR33">
         <v>2.04</v>
@@ -7910,7 +7922,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR34">
         <v>1.51</v>
@@ -8116,7 +8128,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR35">
         <v>1.3</v>
@@ -8322,7 +8334,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.48</v>
@@ -8525,7 +8537,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ37">
         <v>2.17</v>
@@ -8731,7 +8743,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38">
         <v>1.57</v>
@@ -9065,7 +9077,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9761,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -9889,7 +9901,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10507,7 +10519,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10588,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.05</v>
@@ -10713,7 +10725,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -10997,7 +11009,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49">
         <v>0.83</v>
@@ -11331,7 +11343,7 @@
         <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11412,7 +11424,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR51">
         <v>1.56</v>
@@ -11615,7 +11627,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11743,7 +11755,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11821,10 +11833,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.79</v>
@@ -11949,7 +11961,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12030,7 +12042,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12645,7 +12657,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12773,7 +12785,7 @@
         <v>140</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>1.95</v>
@@ -12979,7 +12991,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13185,7 +13197,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13472,7 +13484,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13597,7 +13609,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -13881,10 +13893,10 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14090,7 +14102,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -14215,7 +14227,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14627,7 +14639,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14705,7 +14717,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -14833,7 +14845,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15117,7 +15129,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69">
         <v>1.57</v>
@@ -15245,7 +15257,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15326,7 +15338,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR70">
         <v>1.69</v>
@@ -15451,7 +15463,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16069,7 +16081,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16275,7 +16287,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16481,7 +16493,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16562,7 +16574,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR76">
         <v>1.36</v>
@@ -16687,7 +16699,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16768,7 +16780,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ77">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -16971,10 +16983,10 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.79</v>
@@ -17099,7 +17111,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17305,7 +17317,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17383,7 +17395,7 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -17589,7 +17601,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>2.33</v>
@@ -17717,7 +17729,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17923,7 +17935,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18001,7 +18013,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ83">
         <v>1.33</v>
@@ -18210,7 +18222,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.22</v>
@@ -18541,7 +18553,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19110,6 +19122,830 @@
       </c>
       <c r="BP88">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7345200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45497.70833333334</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>90</v>
+      </c>
+      <c r="H89" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>162</v>
+      </c>
+      <c r="P89" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q89">
+        <v>2.1</v>
+      </c>
+      <c r="R89">
+        <v>2.25</v>
+      </c>
+      <c r="S89">
+        <v>6.5</v>
+      </c>
+      <c r="T89">
+        <v>1.5</v>
+      </c>
+      <c r="U89">
+        <v>2.5</v>
+      </c>
+      <c r="V89">
+        <v>3.4</v>
+      </c>
+      <c r="W89">
+        <v>1.3</v>
+      </c>
+      <c r="X89">
+        <v>10</v>
+      </c>
+      <c r="Y89">
+        <v>1.06</v>
+      </c>
+      <c r="Z89">
+        <v>1.53</v>
+      </c>
+      <c r="AA89">
+        <v>3.75</v>
+      </c>
+      <c r="AB89">
+        <v>7.5</v>
+      </c>
+      <c r="AC89">
+        <v>1.08</v>
+      </c>
+      <c r="AD89">
+        <v>7.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.42</v>
+      </c>
+      <c r="AF89">
+        <v>2.8</v>
+      </c>
+      <c r="AG89">
+        <v>2</v>
+      </c>
+      <c r="AH89">
+        <v>1.8</v>
+      </c>
+      <c r="AI89">
+        <v>2.05</v>
+      </c>
+      <c r="AJ89">
+        <v>1.7</v>
+      </c>
+      <c r="AK89">
+        <v>1.14</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>2.1</v>
+      </c>
+      <c r="AN89">
+        <v>2.17</v>
+      </c>
+      <c r="AO89">
+        <v>0.67</v>
+      </c>
+      <c r="AP89">
+        <v>2</v>
+      </c>
+      <c r="AQ89">
+        <v>0.71</v>
+      </c>
+      <c r="AR89">
+        <v>1.46</v>
+      </c>
+      <c r="AS89">
+        <v>1.34</v>
+      </c>
+      <c r="AT89">
+        <v>2.8</v>
+      </c>
+      <c r="AU89">
+        <v>2</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>6</v>
+      </c>
+      <c r="AZ89">
+        <v>9</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>1.38</v>
+      </c>
+      <c r="BE89">
+        <v>8</v>
+      </c>
+      <c r="BF89">
+        <v>4.16</v>
+      </c>
+      <c r="BG89">
+        <v>1.33</v>
+      </c>
+      <c r="BH89">
+        <v>3.15</v>
+      </c>
+      <c r="BI89">
+        <v>1.57</v>
+      </c>
+      <c r="BJ89">
+        <v>2.3</v>
+      </c>
+      <c r="BK89">
+        <v>2.38</v>
+      </c>
+      <c r="BL89">
+        <v>1.77</v>
+      </c>
+      <c r="BM89">
+        <v>2.5</v>
+      </c>
+      <c r="BN89">
+        <v>1.48</v>
+      </c>
+      <c r="BO89">
+        <v>3.35</v>
+      </c>
+      <c r="BP89">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7345192</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45497.71875</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" t="s">
+        <v>95</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>121</v>
+      </c>
+      <c r="P90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q90">
+        <v>5</v>
+      </c>
+      <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
+        <v>2.63</v>
+      </c>
+      <c r="T90">
+        <v>1.5</v>
+      </c>
+      <c r="U90">
+        <v>2.5</v>
+      </c>
+      <c r="V90">
+        <v>3.4</v>
+      </c>
+      <c r="W90">
+        <v>1.3</v>
+      </c>
+      <c r="X90">
+        <v>10</v>
+      </c>
+      <c r="Y90">
+        <v>1.06</v>
+      </c>
+      <c r="Z90">
+        <v>4.75</v>
+      </c>
+      <c r="AA90">
+        <v>3.1</v>
+      </c>
+      <c r="AB90">
+        <v>1.91</v>
+      </c>
+      <c r="AC90">
+        <v>1.08</v>
+      </c>
+      <c r="AD90">
+        <v>7.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.42</v>
+      </c>
+      <c r="AF90">
+        <v>2.8</v>
+      </c>
+      <c r="AG90">
+        <v>2.6</v>
+      </c>
+      <c r="AH90">
+        <v>1.48</v>
+      </c>
+      <c r="AI90">
+        <v>2.2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.62</v>
+      </c>
+      <c r="AK90">
+        <v>1.73</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>1.25</v>
+      </c>
+      <c r="AN90">
+        <v>1.17</v>
+      </c>
+      <c r="AO90">
+        <v>2.17</v>
+      </c>
+      <c r="AP90">
+        <v>1.43</v>
+      </c>
+      <c r="AQ90">
+        <v>1.86</v>
+      </c>
+      <c r="AR90">
+        <v>1.26</v>
+      </c>
+      <c r="AS90">
+        <v>1.74</v>
+      </c>
+      <c r="AT90">
+        <v>3</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>8</v>
+      </c>
+      <c r="AY90">
+        <v>11</v>
+      </c>
+      <c r="AZ90">
+        <v>11</v>
+      </c>
+      <c r="BA90">
+        <v>1</v>
+      </c>
+      <c r="BB90">
+        <v>11</v>
+      </c>
+      <c r="BC90">
+        <v>12</v>
+      </c>
+      <c r="BD90">
+        <v>2.91</v>
+      </c>
+      <c r="BE90">
+        <v>7.7</v>
+      </c>
+      <c r="BF90">
+        <v>1.62</v>
+      </c>
+      <c r="BG90">
+        <v>1.44</v>
+      </c>
+      <c r="BH90">
+        <v>2.65</v>
+      </c>
+      <c r="BI90">
+        <v>1.65</v>
+      </c>
+      <c r="BJ90">
+        <v>2.05</v>
+      </c>
+      <c r="BK90">
+        <v>2.25</v>
+      </c>
+      <c r="BL90">
+        <v>1.6</v>
+      </c>
+      <c r="BM90">
+        <v>2.95</v>
+      </c>
+      <c r="BN90">
+        <v>1.36</v>
+      </c>
+      <c r="BO90">
+        <v>4.1</v>
+      </c>
+      <c r="BP90">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7345191</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45497.8125</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>163</v>
+      </c>
+      <c r="P91" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q91">
+        <v>4.5</v>
+      </c>
+      <c r="R91">
+        <v>1.95</v>
+      </c>
+      <c r="S91">
+        <v>2.75</v>
+      </c>
+      <c r="T91">
+        <v>1.4</v>
+      </c>
+      <c r="U91">
+        <v>2.75</v>
+      </c>
+      <c r="V91">
+        <v>2.75</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>8</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>3.9</v>
+      </c>
+      <c r="AA91">
+        <v>3.25</v>
+      </c>
+      <c r="AB91">
+        <v>2.05</v>
+      </c>
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>9.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.28</v>
+      </c>
+      <c r="AF91">
+        <v>3.55</v>
+      </c>
+      <c r="AG91">
+        <v>2.4</v>
+      </c>
+      <c r="AH91">
+        <v>1.53</v>
+      </c>
+      <c r="AI91">
+        <v>2.05</v>
+      </c>
+      <c r="AJ91">
+        <v>1.7</v>
+      </c>
+      <c r="AK91">
+        <v>1.67</v>
+      </c>
+      <c r="AL91">
+        <v>1.29</v>
+      </c>
+      <c r="AM91">
+        <v>1.36</v>
+      </c>
+      <c r="AN91">
+        <v>0.6</v>
+      </c>
+      <c r="AO91">
+        <v>1.67</v>
+      </c>
+      <c r="AP91">
+        <v>1</v>
+      </c>
+      <c r="AQ91">
+        <v>1.43</v>
+      </c>
+      <c r="AR91">
+        <v>1.21</v>
+      </c>
+      <c r="AS91">
+        <v>1.9</v>
+      </c>
+      <c r="AT91">
+        <v>3.11</v>
+      </c>
+      <c r="AU91">
+        <v>6</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>6</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>12</v>
+      </c>
+      <c r="AZ91">
+        <v>9</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>8</v>
+      </c>
+      <c r="BC91">
+        <v>14</v>
+      </c>
+      <c r="BD91">
+        <v>2.38</v>
+      </c>
+      <c r="BE91">
+        <v>7.4</v>
+      </c>
+      <c r="BF91">
+        <v>1.87</v>
+      </c>
+      <c r="BG91">
+        <v>1.38</v>
+      </c>
+      <c r="BH91">
+        <v>2.8</v>
+      </c>
+      <c r="BI91">
+        <v>1.7</v>
+      </c>
+      <c r="BJ91">
+        <v>2.05</v>
+      </c>
+      <c r="BK91">
+        <v>2.25</v>
+      </c>
+      <c r="BL91">
+        <v>1.7</v>
+      </c>
+      <c r="BM91">
+        <v>2.75</v>
+      </c>
+      <c r="BN91">
+        <v>1.4</v>
+      </c>
+      <c r="BO91">
+        <v>3.8</v>
+      </c>
+      <c r="BP91">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7345194</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45497.8125</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>93</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>102</v>
+      </c>
+      <c r="P92" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
+        <v>3.6</v>
+      </c>
+      <c r="T92">
+        <v>1.57</v>
+      </c>
+      <c r="U92">
+        <v>2.25</v>
+      </c>
+      <c r="V92">
+        <v>3.75</v>
+      </c>
+      <c r="W92">
+        <v>1.25</v>
+      </c>
+      <c r="X92">
+        <v>11</v>
+      </c>
+      <c r="Y92">
+        <v>1.05</v>
+      </c>
+      <c r="Z92">
+        <v>3.2</v>
+      </c>
+      <c r="AA92">
+        <v>2.63</v>
+      </c>
+      <c r="AB92">
+        <v>2.8</v>
+      </c>
+      <c r="AC92">
+        <v>1.11</v>
+      </c>
+      <c r="AD92">
+        <v>6.25</v>
+      </c>
+      <c r="AE92">
+        <v>1.48</v>
+      </c>
+      <c r="AF92">
+        <v>2.45</v>
+      </c>
+      <c r="AG92">
+        <v>3.4</v>
+      </c>
+      <c r="AH92">
+        <v>1.33</v>
+      </c>
+      <c r="AI92">
+        <v>2.25</v>
+      </c>
+      <c r="AJ92">
+        <v>1.57</v>
+      </c>
+      <c r="AK92">
+        <v>1.28</v>
+      </c>
+      <c r="AL92">
+        <v>1.33</v>
+      </c>
+      <c r="AM92">
+        <v>1.62</v>
+      </c>
+      <c r="AN92">
+        <v>2.33</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
+        <v>2.14</v>
+      </c>
+      <c r="AQ92">
+        <v>1.29</v>
+      </c>
+      <c r="AR92">
+        <v>1.23</v>
+      </c>
+      <c r="AS92">
+        <v>1.87</v>
+      </c>
+      <c r="AT92">
+        <v>3.1</v>
+      </c>
+      <c r="AU92">
+        <v>2</v>
+      </c>
+      <c r="AV92">
+        <v>2</v>
+      </c>
+      <c r="AW92">
+        <v>8</v>
+      </c>
+      <c r="AX92">
+        <v>6</v>
+      </c>
+      <c r="AY92">
+        <v>10</v>
+      </c>
+      <c r="AZ92">
+        <v>8</v>
+      </c>
+      <c r="BA92">
+        <v>7</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>10</v>
+      </c>
+      <c r="BD92">
+        <v>1.77</v>
+      </c>
+      <c r="BE92">
+        <v>7.4</v>
+      </c>
+      <c r="BF92">
+        <v>2.57</v>
+      </c>
+      <c r="BG92">
+        <v>1.4</v>
+      </c>
+      <c r="BH92">
+        <v>2.75</v>
+      </c>
+      <c r="BI92">
+        <v>1.77</v>
+      </c>
+      <c r="BJ92">
+        <v>1.95</v>
+      </c>
+      <c r="BK92">
+        <v>2.2</v>
+      </c>
+      <c r="BL92">
+        <v>1.65</v>
+      </c>
+      <c r="BM92">
+        <v>2.85</v>
+      </c>
+      <c r="BN92">
+        <v>1.38</v>
+      </c>
+      <c r="BO92">
+        <v>4</v>
+      </c>
+      <c r="BP92">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,15 @@
     <t>['26', '28']</t>
   </si>
   <si>
+    <t>['32', '55', '84']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -629,6 +638,12 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['44', '90+1']</t>
+  </si>
+  <si>
+    <t>['41', '90']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1264,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1330,7 +1345,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ2">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1455,7 +1470,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1742,7 +1757,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1867,7 +1882,7 @@
         <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -2073,7 +2088,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2279,7 +2294,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2566,7 +2581,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2975,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3103,7 +3118,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3181,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11">
         <v>1.86</v>
@@ -3309,7 +3324,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3387,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12">
         <v>1.57</v>
@@ -3593,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3802,7 +3817,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4420,7 +4435,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ17">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR17">
         <v>2.66</v>
@@ -4545,7 +4560,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4751,7 +4766,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4829,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19">
         <v>2.33</v>
@@ -5241,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5369,7 +5384,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5656,7 +5671,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR23">
         <v>1.41</v>
@@ -5781,7 +5796,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5859,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -5987,7 +6002,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6068,7 +6083,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6399,7 +6414,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6480,7 +6495,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>1.21</v>
@@ -6889,7 +6904,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ29">
         <v>1.43</v>
@@ -7017,7 +7032,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7223,7 +7238,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7301,7 +7316,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ31">
         <v>1.86</v>
@@ -7429,7 +7444,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7507,10 +7522,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR32">
         <v>0.93</v>
@@ -7635,7 +7650,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7713,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33">
         <v>1.29</v>
@@ -8540,7 +8555,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR37">
         <v>1.37</v>
@@ -9077,7 +9092,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9158,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
         <v>1.09</v>
@@ -9567,10 +9582,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -9901,7 +9916,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9979,10 +9994,10 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR44">
         <v>1.06</v>
@@ -10185,7 +10200,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ45">
         <v>1.29</v>
@@ -10391,7 +10406,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10519,7 +10534,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10597,7 +10612,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AQ47">
         <v>2</v>
@@ -10725,7 +10740,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -10806,7 +10821,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11012,7 +11027,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11215,7 +11230,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ50">
         <v>1.43</v>
@@ -11343,7 +11358,7 @@
         <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11755,7 +11770,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11961,7 +11976,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12785,7 +12800,7 @@
         <v>140</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>1.95</v>
@@ -12866,7 +12881,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -12991,7 +13006,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13197,7 +13212,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13609,7 +13624,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -13687,10 +13702,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ62">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR62">
         <v>1.21</v>
@@ -14099,7 +14114,7 @@
         <v>2.5</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64">
         <v>1.86</v>
@@ -14227,7 +14242,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14308,7 +14323,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR65">
         <v>1.34</v>
@@ -14514,7 +14529,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
         <v>1.28</v>
@@ -14639,7 +14654,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14720,7 +14735,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14845,7 +14860,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15257,7 +15272,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15335,7 +15350,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
         <v>0.71</v>
@@ -15463,7 +15478,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15544,7 +15559,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15953,7 +15968,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16081,7 +16096,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16287,7 +16302,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16365,7 +16380,7 @@
         <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
         <v>1.29</v>
@@ -16493,7 +16508,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16699,7 +16714,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17111,7 +17126,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17192,7 +17207,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -17317,7 +17332,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17398,7 +17413,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.92</v>
@@ -17729,7 +17744,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17807,10 +17822,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR82">
         <v>0.98</v>
@@ -17935,7 +17950,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18219,7 +18234,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -18553,7 +18568,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19171,7 +19186,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19583,7 +19598,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19946,6 +19961,830 @@
       </c>
       <c r="BP92">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7345201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45498.78125</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" t="s">
+        <v>96</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>102</v>
+      </c>
+      <c r="P93" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q93">
+        <v>4.75</v>
+      </c>
+      <c r="R93">
+        <v>1.73</v>
+      </c>
+      <c r="S93">
+        <v>3.5</v>
+      </c>
+      <c r="T93">
+        <v>1.67</v>
+      </c>
+      <c r="U93">
+        <v>2.1</v>
+      </c>
+      <c r="V93">
+        <v>4.33</v>
+      </c>
+      <c r="W93">
+        <v>1.2</v>
+      </c>
+      <c r="X93">
+        <v>15</v>
+      </c>
+      <c r="Y93">
+        <v>1.03</v>
+      </c>
+      <c r="Z93">
+        <v>3.75</v>
+      </c>
+      <c r="AA93">
+        <v>2.7</v>
+      </c>
+      <c r="AB93">
+        <v>2.38</v>
+      </c>
+      <c r="AC93">
+        <v>1.14</v>
+      </c>
+      <c r="AD93">
+        <v>5.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.65</v>
+      </c>
+      <c r="AF93">
+        <v>2.1</v>
+      </c>
+      <c r="AG93">
+        <v>4</v>
+      </c>
+      <c r="AH93">
+        <v>1.25</v>
+      </c>
+      <c r="AI93">
+        <v>2.75</v>
+      </c>
+      <c r="AJ93">
+        <v>1.4</v>
+      </c>
+      <c r="AK93">
+        <v>1.5</v>
+      </c>
+      <c r="AL93">
+        <v>1.35</v>
+      </c>
+      <c r="AM93">
+        <v>1.35</v>
+      </c>
+      <c r="AN93">
+        <v>1.33</v>
+      </c>
+      <c r="AO93">
+        <v>1.33</v>
+      </c>
+      <c r="AP93">
+        <v>1.14</v>
+      </c>
+      <c r="AQ93">
+        <v>1.57</v>
+      </c>
+      <c r="AR93">
+        <v>1.15</v>
+      </c>
+      <c r="AS93">
+        <v>1.23</v>
+      </c>
+      <c r="AT93">
+        <v>2.38</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>11</v>
+      </c>
+      <c r="AZ93">
+        <v>5</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>3</v>
+      </c>
+      <c r="BD93">
+        <v>1.87</v>
+      </c>
+      <c r="BE93">
+        <v>7.1</v>
+      </c>
+      <c r="BF93">
+        <v>2.42</v>
+      </c>
+      <c r="BG93">
+        <v>1.4</v>
+      </c>
+      <c r="BH93">
+        <v>2.75</v>
+      </c>
+      <c r="BI93">
+        <v>1.77</v>
+      </c>
+      <c r="BJ93">
+        <v>1.95</v>
+      </c>
+      <c r="BK93">
+        <v>2.2</v>
+      </c>
+      <c r="BL93">
+        <v>1.65</v>
+      </c>
+      <c r="BM93">
+        <v>2.85</v>
+      </c>
+      <c r="BN93">
+        <v>1.38</v>
+      </c>
+      <c r="BO93">
+        <v>4</v>
+      </c>
+      <c r="BP93">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7345190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45498.78125</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s">
+        <v>79</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94" t="s">
+        <v>164</v>
+      </c>
+      <c r="P94" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q94">
+        <v>2.88</v>
+      </c>
+      <c r="R94">
+        <v>1.91</v>
+      </c>
+      <c r="S94">
+        <v>4.75</v>
+      </c>
+      <c r="T94">
+        <v>1.53</v>
+      </c>
+      <c r="U94">
+        <v>2.38</v>
+      </c>
+      <c r="V94">
+        <v>3.75</v>
+      </c>
+      <c r="W94">
+        <v>1.25</v>
+      </c>
+      <c r="X94">
+        <v>11</v>
+      </c>
+      <c r="Y94">
+        <v>1.05</v>
+      </c>
+      <c r="Z94">
+        <v>2.1</v>
+      </c>
+      <c r="AA94">
+        <v>3.2</v>
+      </c>
+      <c r="AB94">
+        <v>3.9</v>
+      </c>
+      <c r="AC94">
+        <v>1.1</v>
+      </c>
+      <c r="AD94">
+        <v>6.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.5</v>
+      </c>
+      <c r="AF94">
+        <v>2.55</v>
+      </c>
+      <c r="AG94">
+        <v>2.6</v>
+      </c>
+      <c r="AH94">
+        <v>1.48</v>
+      </c>
+      <c r="AI94">
+        <v>2.2</v>
+      </c>
+      <c r="AJ94">
+        <v>1.62</v>
+      </c>
+      <c r="AK94">
+        <v>1.25</v>
+      </c>
+      <c r="AL94">
+        <v>1.3</v>
+      </c>
+      <c r="AM94">
+        <v>1.75</v>
+      </c>
+      <c r="AN94">
+        <v>1.5</v>
+      </c>
+      <c r="AO94">
+        <v>1.83</v>
+      </c>
+      <c r="AP94">
+        <v>1.71</v>
+      </c>
+      <c r="AQ94">
+        <v>1.57</v>
+      </c>
+      <c r="AR94">
+        <v>1.5</v>
+      </c>
+      <c r="AS94">
+        <v>1.23</v>
+      </c>
+      <c r="AT94">
+        <v>2.73</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>13</v>
+      </c>
+      <c r="AZ94">
+        <v>11</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>8</v>
+      </c>
+      <c r="BC94">
+        <v>14</v>
+      </c>
+      <c r="BD94">
+        <v>1.57</v>
+      </c>
+      <c r="BE94">
+        <v>7.6</v>
+      </c>
+      <c r="BF94">
+        <v>3.1</v>
+      </c>
+      <c r="BG94">
+        <v>1.36</v>
+      </c>
+      <c r="BH94">
+        <v>2.95</v>
+      </c>
+      <c r="BI94">
+        <v>1.7</v>
+      </c>
+      <c r="BJ94">
+        <v>2.05</v>
+      </c>
+      <c r="BK94">
+        <v>2.05</v>
+      </c>
+      <c r="BL94">
+        <v>1.7</v>
+      </c>
+      <c r="BM94">
+        <v>2.65</v>
+      </c>
+      <c r="BN94">
+        <v>1.44</v>
+      </c>
+      <c r="BO94">
+        <v>3.6</v>
+      </c>
+      <c r="BP94">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7345198</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45498.875</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>86</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>165</v>
+      </c>
+      <c r="P95" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q95">
+        <v>3.25</v>
+      </c>
+      <c r="R95">
+        <v>1.83</v>
+      </c>
+      <c r="S95">
+        <v>4.33</v>
+      </c>
+      <c r="T95">
+        <v>1.57</v>
+      </c>
+      <c r="U95">
+        <v>2.25</v>
+      </c>
+      <c r="V95">
+        <v>3.75</v>
+      </c>
+      <c r="W95">
+        <v>1.25</v>
+      </c>
+      <c r="X95">
+        <v>13</v>
+      </c>
+      <c r="Y95">
+        <v>1.04</v>
+      </c>
+      <c r="Z95">
+        <v>2.35</v>
+      </c>
+      <c r="AA95">
+        <v>2.9</v>
+      </c>
+      <c r="AB95">
+        <v>3.5</v>
+      </c>
+      <c r="AC95">
+        <v>1.11</v>
+      </c>
+      <c r="AD95">
+        <v>6.28</v>
+      </c>
+      <c r="AE95">
+        <v>1.52</v>
+      </c>
+      <c r="AF95">
+        <v>2.35</v>
+      </c>
+      <c r="AG95">
+        <v>3.1</v>
+      </c>
+      <c r="AH95">
+        <v>1.36</v>
+      </c>
+      <c r="AI95">
+        <v>2.25</v>
+      </c>
+      <c r="AJ95">
+        <v>1.57</v>
+      </c>
+      <c r="AK95">
+        <v>1.36</v>
+      </c>
+      <c r="AL95">
+        <v>1.33</v>
+      </c>
+      <c r="AM95">
+        <v>1.57</v>
+      </c>
+      <c r="AN95">
+        <v>1.17</v>
+      </c>
+      <c r="AO95">
+        <v>2.17</v>
+      </c>
+      <c r="AP95">
+        <v>1.43</v>
+      </c>
+      <c r="AQ95">
+        <v>1.86</v>
+      </c>
+      <c r="AR95">
+        <v>1.55</v>
+      </c>
+      <c r="AS95">
+        <v>1.17</v>
+      </c>
+      <c r="AT95">
+        <v>2.72</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>6</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>11</v>
+      </c>
+      <c r="AZ95">
+        <v>9</v>
+      </c>
+      <c r="BA95">
+        <v>9</v>
+      </c>
+      <c r="BB95">
+        <v>9</v>
+      </c>
+      <c r="BC95">
+        <v>18</v>
+      </c>
+      <c r="BD95">
+        <v>1.72</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.66</v>
+      </c>
+      <c r="BG95">
+        <v>1.3</v>
+      </c>
+      <c r="BH95">
+        <v>3.35</v>
+      </c>
+      <c r="BI95">
+        <v>1.53</v>
+      </c>
+      <c r="BJ95">
+        <v>2.4</v>
+      </c>
+      <c r="BK95">
+        <v>1.95</v>
+      </c>
+      <c r="BL95">
+        <v>1.85</v>
+      </c>
+      <c r="BM95">
+        <v>2.4</v>
+      </c>
+      <c r="BN95">
+        <v>1.53</v>
+      </c>
+      <c r="BO95">
+        <v>3.15</v>
+      </c>
+      <c r="BP95">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7345188</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45498.875</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96" t="s">
+        <v>78</v>
+      </c>
+      <c r="H96" t="s">
+        <v>91</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>166</v>
+      </c>
+      <c r="P96" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q96">
+        <v>2.75</v>
+      </c>
+      <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
+        <v>4.75</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.63</v>
+      </c>
+      <c r="V96">
+        <v>3.25</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+      <c r="AA96">
+        <v>3.1</v>
+      </c>
+      <c r="AB96">
+        <v>4.33</v>
+      </c>
+      <c r="AC96">
+        <v>1.06</v>
+      </c>
+      <c r="AD96">
+        <v>8.6</v>
+      </c>
+      <c r="AE96">
+        <v>1.48</v>
+      </c>
+      <c r="AF96">
+        <v>2.45</v>
+      </c>
+      <c r="AG96">
+        <v>2.6</v>
+      </c>
+      <c r="AH96">
+        <v>1.48</v>
+      </c>
+      <c r="AI96">
+        <v>2.2</v>
+      </c>
+      <c r="AJ96">
+        <v>1.62</v>
+      </c>
+      <c r="AK96">
+        <v>1.28</v>
+      </c>
+      <c r="AL96">
+        <v>1.28</v>
+      </c>
+      <c r="AM96">
+        <v>1.78</v>
+      </c>
+      <c r="AN96">
+        <v>0.83</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0.86</v>
+      </c>
+      <c r="AQ96">
+        <v>0.14</v>
+      </c>
+      <c r="AR96">
+        <v>1.17</v>
+      </c>
+      <c r="AS96">
+        <v>1</v>
+      </c>
+      <c r="AT96">
+        <v>2.17</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>3</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>8</v>
+      </c>
+      <c r="AZ96">
+        <v>7</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>8</v>
+      </c>
+      <c r="BC96">
+        <v>11</v>
+      </c>
+      <c r="BD96">
+        <v>1.59</v>
+      </c>
+      <c r="BE96">
+        <v>7.2</v>
+      </c>
+      <c r="BF96">
+        <v>3.1</v>
+      </c>
+      <c r="BG96">
+        <v>1.45</v>
+      </c>
+      <c r="BH96">
+        <v>2.55</v>
+      </c>
+      <c r="BI96">
+        <v>1.8</v>
+      </c>
+      <c r="BJ96">
+        <v>1.91</v>
+      </c>
+      <c r="BK96">
+        <v>2.3</v>
+      </c>
+      <c r="BL96">
+        <v>1.57</v>
+      </c>
+      <c r="BM96">
+        <v>3.05</v>
+      </c>
+      <c r="BN96">
+        <v>1.35</v>
+      </c>
+      <c r="BO96">
+        <v>4.3</v>
+      </c>
+      <c r="BP96">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -645,6 +645,9 @@
   <si>
     <t>['41', '90']</t>
   </si>
+  <si>
+    <t>['30']</t>
+  </si>
 </sst>
 </file>
 
@@ -1005,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1551,7 +1554,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1754,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>1.14</v>
@@ -1960,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5">
         <v>0.71</v>
@@ -2372,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2787,7 +2790,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3405,7 +3408,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4226,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -5259,7 +5262,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>1.03</v>
@@ -5465,7 +5468,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>0.71</v>
@@ -6080,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ25">
         <v>1.71</v>
@@ -6492,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>0.86</v>
@@ -6907,7 +6910,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ29">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -7113,7 +7116,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -8140,7 +8143,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
         <v>0.71</v>
@@ -8552,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37">
         <v>1.86</v>
@@ -8761,7 +8764,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -9170,7 +9173,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40">
         <v>1.57</v>
@@ -10818,7 +10821,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
         <v>1.71</v>
@@ -11436,7 +11439,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ51">
         <v>1.43</v>
@@ -11645,7 +11648,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
         <v>1.19</v>
@@ -12057,7 +12060,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12260,7 +12263,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>2.33</v>
@@ -12469,7 +12472,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>1.36</v>
@@ -12675,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13084,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59">
         <v>0.83</v>
@@ -14320,7 +14323,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>1.86</v>
@@ -14941,7 +14944,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR68">
         <v>1.68</v>
@@ -15144,10 +15147,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR69">
         <v>1.39</v>
@@ -15762,7 +15765,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
         <v>1.43</v>
@@ -15971,7 +15974,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>1.12</v>
@@ -16177,7 +16180,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ74">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR74">
         <v>1.52</v>
@@ -16586,7 +16589,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
         <v>1.43</v>
@@ -16792,10 +16795,10 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ77">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -18649,7 +18652,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR86">
         <v>1.51</v>
@@ -18852,10 +18855,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19058,7 +19061,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ88">
         <v>0.71</v>
@@ -19882,7 +19885,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
         <v>1.29</v>
@@ -20785,6 +20788,624 @@
       </c>
       <c r="BP96">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7345207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45500.625</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>84</v>
+      </c>
+      <c r="H97" t="s">
+        <v>75</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>121</v>
+      </c>
+      <c r="P97" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q97">
+        <v>3.75</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>1.57</v>
+      </c>
+      <c r="U97">
+        <v>2.25</v>
+      </c>
+      <c r="V97">
+        <v>3.75</v>
+      </c>
+      <c r="W97">
+        <v>1.25</v>
+      </c>
+      <c r="X97">
+        <v>13</v>
+      </c>
+      <c r="Y97">
+        <v>1.04</v>
+      </c>
+      <c r="Z97">
+        <v>2.75</v>
+      </c>
+      <c r="AA97">
+        <v>2.88</v>
+      </c>
+      <c r="AB97">
+        <v>2.9</v>
+      </c>
+      <c r="AC97">
+        <v>1.11</v>
+      </c>
+      <c r="AD97">
+        <v>6.25</v>
+      </c>
+      <c r="AE97">
+        <v>1.55</v>
+      </c>
+      <c r="AF97">
+        <v>2.4</v>
+      </c>
+      <c r="AG97">
+        <v>3.4</v>
+      </c>
+      <c r="AH97">
+        <v>1.33</v>
+      </c>
+      <c r="AI97">
+        <v>2.38</v>
+      </c>
+      <c r="AJ97">
+        <v>1.53</v>
+      </c>
+      <c r="AK97">
+        <v>1.6</v>
+      </c>
+      <c r="AL97">
+        <v>1.33</v>
+      </c>
+      <c r="AM97">
+        <v>1.3</v>
+      </c>
+      <c r="AN97">
+        <v>1.57</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>1.75</v>
+      </c>
+      <c r="AQ97">
+        <v>0.88</v>
+      </c>
+      <c r="AR97">
+        <v>1.13</v>
+      </c>
+      <c r="AS97">
+        <v>1.17</v>
+      </c>
+      <c r="AT97">
+        <v>2.3</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>9</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>2.13</v>
+      </c>
+      <c r="BE97">
+        <v>6.8</v>
+      </c>
+      <c r="BF97">
+        <v>2.07</v>
+      </c>
+      <c r="BG97">
+        <v>1.44</v>
+      </c>
+      <c r="BH97">
+        <v>2.65</v>
+      </c>
+      <c r="BI97">
+        <v>1.77</v>
+      </c>
+      <c r="BJ97">
+        <v>1.95</v>
+      </c>
+      <c r="BK97">
+        <v>2.25</v>
+      </c>
+      <c r="BL97">
+        <v>1.6</v>
+      </c>
+      <c r="BM97">
+        <v>2.95</v>
+      </c>
+      <c r="BN97">
+        <v>1.36</v>
+      </c>
+      <c r="BO97">
+        <v>4.1</v>
+      </c>
+      <c r="BP97">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7345208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45500.70833333334</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>92</v>
+      </c>
+      <c r="H98" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>114</v>
+      </c>
+      <c r="P98" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q98">
+        <v>3.4</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>4.5</v>
+      </c>
+      <c r="T98">
+        <v>1.62</v>
+      </c>
+      <c r="U98">
+        <v>2.2</v>
+      </c>
+      <c r="V98">
+        <v>4</v>
+      </c>
+      <c r="W98">
+        <v>1.22</v>
+      </c>
+      <c r="X98">
+        <v>13</v>
+      </c>
+      <c r="Y98">
+        <v>1.04</v>
+      </c>
+      <c r="Z98">
+        <v>2.38</v>
+      </c>
+      <c r="AA98">
+        <v>2.88</v>
+      </c>
+      <c r="AB98">
+        <v>3.5</v>
+      </c>
+      <c r="AC98">
+        <v>1.12</v>
+      </c>
+      <c r="AD98">
+        <v>6.25</v>
+      </c>
+      <c r="AE98">
+        <v>1.58</v>
+      </c>
+      <c r="AF98">
+        <v>2.25</v>
+      </c>
+      <c r="AG98">
+        <v>3.6</v>
+      </c>
+      <c r="AH98">
+        <v>1.29</v>
+      </c>
+      <c r="AI98">
+        <v>2.63</v>
+      </c>
+      <c r="AJ98">
+        <v>1.44</v>
+      </c>
+      <c r="AK98">
+        <v>1.35</v>
+      </c>
+      <c r="AL98">
+        <v>1.35</v>
+      </c>
+      <c r="AM98">
+        <v>1.48</v>
+      </c>
+      <c r="AN98">
+        <v>0.83</v>
+      </c>
+      <c r="AO98">
+        <v>1.43</v>
+      </c>
+      <c r="AP98">
+        <v>0.86</v>
+      </c>
+      <c r="AQ98">
+        <v>1.38</v>
+      </c>
+      <c r="AR98">
+        <v>1.38</v>
+      </c>
+      <c r="AS98">
+        <v>1.46</v>
+      </c>
+      <c r="AT98">
+        <v>2.84</v>
+      </c>
+      <c r="AU98">
+        <v>10</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>10</v>
+      </c>
+      <c r="AX98">
+        <v>10</v>
+      </c>
+      <c r="AY98">
+        <v>20</v>
+      </c>
+      <c r="AZ98">
+        <v>13</v>
+      </c>
+      <c r="BA98">
+        <v>17</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>18</v>
+      </c>
+      <c r="BD98">
+        <v>1.93</v>
+      </c>
+      <c r="BE98">
+        <v>6.9</v>
+      </c>
+      <c r="BF98">
+        <v>2.3</v>
+      </c>
+      <c r="BG98">
+        <v>1.38</v>
+      </c>
+      <c r="BH98">
+        <v>2.8</v>
+      </c>
+      <c r="BI98">
+        <v>1.7</v>
+      </c>
+      <c r="BJ98">
+        <v>2.05</v>
+      </c>
+      <c r="BK98">
+        <v>2.1</v>
+      </c>
+      <c r="BL98">
+        <v>1.67</v>
+      </c>
+      <c r="BM98">
+        <v>2.75</v>
+      </c>
+      <c r="BN98">
+        <v>1.4</v>
+      </c>
+      <c r="BO98">
+        <v>3.8</v>
+      </c>
+      <c r="BP98">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7345210</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45500.79166666666</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>94</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>102</v>
+      </c>
+      <c r="P99" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q99">
+        <v>3.4</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>4.5</v>
+      </c>
+      <c r="T99">
+        <v>1.67</v>
+      </c>
+      <c r="U99">
+        <v>2.1</v>
+      </c>
+      <c r="V99">
+        <v>4.33</v>
+      </c>
+      <c r="W99">
+        <v>1.2</v>
+      </c>
+      <c r="X99">
+        <v>15</v>
+      </c>
+      <c r="Y99">
+        <v>1.03</v>
+      </c>
+      <c r="Z99">
+        <v>2.4</v>
+      </c>
+      <c r="AA99">
+        <v>3</v>
+      </c>
+      <c r="AB99">
+        <v>3.25</v>
+      </c>
+      <c r="AC99">
+        <v>1.11</v>
+      </c>
+      <c r="AD99">
+        <v>6.25</v>
+      </c>
+      <c r="AE99">
+        <v>1.62</v>
+      </c>
+      <c r="AF99">
+        <v>2.25</v>
+      </c>
+      <c r="AG99">
+        <v>3.4</v>
+      </c>
+      <c r="AH99">
+        <v>1.33</v>
+      </c>
+      <c r="AI99">
+        <v>2.5</v>
+      </c>
+      <c r="AJ99">
+        <v>1.5</v>
+      </c>
+      <c r="AK99">
+        <v>1.3</v>
+      </c>
+      <c r="AL99">
+        <v>1.3</v>
+      </c>
+      <c r="AM99">
+        <v>1.65</v>
+      </c>
+      <c r="AN99">
+        <v>1.5</v>
+      </c>
+      <c r="AO99">
+        <v>2.14</v>
+      </c>
+      <c r="AP99">
+        <v>1.29</v>
+      </c>
+      <c r="AQ99">
+        <v>2.25</v>
+      </c>
+      <c r="AR99">
+        <v>1.36</v>
+      </c>
+      <c r="AS99">
+        <v>1.21</v>
+      </c>
+      <c r="AT99">
+        <v>2.57</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>5</v>
+      </c>
+      <c r="AZ99">
+        <v>9</v>
+      </c>
+      <c r="BA99">
+        <v>9</v>
+      </c>
+      <c r="BB99">
+        <v>2</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>1.84</v>
+      </c>
+      <c r="BE99">
+        <v>7.1</v>
+      </c>
+      <c r="BF99">
+        <v>2.47</v>
+      </c>
+      <c r="BG99">
+        <v>1.38</v>
+      </c>
+      <c r="BH99">
+        <v>2.8</v>
+      </c>
+      <c r="BI99">
+        <v>1.7</v>
+      </c>
+      <c r="BJ99">
+        <v>2.05</v>
+      </c>
+      <c r="BK99">
+        <v>2.1</v>
+      </c>
+      <c r="BL99">
+        <v>1.67</v>
+      </c>
+      <c r="BM99">
+        <v>2.75</v>
+      </c>
+      <c r="BN99">
+        <v>1.4</v>
+      </c>
+      <c r="BO99">
+        <v>3.8</v>
+      </c>
+      <c r="BP99">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,13 +517,22 @@
     <t>['1']</t>
   </si>
   <si>
+    <t>['46', '52', '64', '90+6']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['10', '73']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
     <t>['6', '41']</t>
-  </si>
-  <si>
-    <t>['87']</t>
   </si>
   <si>
     <t>['84']</t>
@@ -631,9 +640,6 @@
     <t>['20', '52']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -647,6 +653,12 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1279,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1345,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1473,7 +1485,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1885,7 +1897,7 @@
         <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -2091,7 +2103,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2297,7 +2309,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2378,7 +2390,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2581,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
         <v>0.14</v>
@@ -2996,7 +3008,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3121,7 +3133,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3202,7 +3214,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ11">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3327,7 +3339,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3614,7 +3626,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3817,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.57</v>
@@ -4023,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4435,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ17">
         <v>1.57</v>
@@ -4563,7 +4575,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4644,7 +4656,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>1.43</v>
@@ -4769,7 +4781,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4847,10 +4859,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.17</v>
@@ -5056,7 +5068,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ20">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5387,7 +5399,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5465,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ22">
         <v>2.25</v>
@@ -5671,7 +5683,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>1.43</v>
@@ -5799,7 +5811,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5880,7 +5892,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>0.5600000000000001</v>
@@ -6005,7 +6017,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6289,7 +6301,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.29</v>
@@ -6417,7 +6429,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6701,7 +6713,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.29</v>
@@ -7035,7 +7047,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7241,7 +7253,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7322,7 +7334,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ31">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7447,7 +7459,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7653,7 +7665,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7734,7 +7746,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ33">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>2.04</v>
@@ -7940,7 +7952,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR34">
         <v>1.51</v>
@@ -8349,10 +8361,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR36">
         <v>1.48</v>
@@ -8558,7 +8570,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ37">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>1.37</v>
@@ -8761,7 +8773,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>1.75</v>
@@ -8967,10 +8979,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9095,7 +9107,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9379,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.71</v>
@@ -9791,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -9919,7 +9931,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10412,7 +10424,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10537,7 +10549,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10618,7 +10630,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR47">
         <v>1.05</v>
@@ -10743,7 +10755,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -11027,7 +11039,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
         <v>0.86</v>
@@ -11233,10 +11245,10 @@
         <v>2.33</v>
       </c>
       <c r="AP50">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.11</v>
@@ -11361,7 +11373,7 @@
         <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11442,7 +11454,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ51">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.56</v>
@@ -11773,7 +11785,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11851,7 +11863,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11979,7 +11991,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12266,7 +12278,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>0.9399999999999999</v>
@@ -12469,7 +12481,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -12803,7 +12815,7 @@
         <v>140</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>1.95</v>
@@ -13009,7 +13021,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13090,7 +13102,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13215,7 +13227,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13293,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>0.71</v>
@@ -13502,7 +13514,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13627,7 +13639,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -13911,10 +13923,10 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14120,7 +14132,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -14245,7 +14257,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14326,7 +14338,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR65">
         <v>1.34</v>
@@ -14529,7 +14541,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>1.57</v>
@@ -14657,7 +14669,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14735,7 +14747,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
         <v>1.14</v>
@@ -14863,7 +14875,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14941,7 +14953,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.86</v>
@@ -15275,7 +15287,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15481,7 +15493,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15768,7 +15780,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.08</v>
@@ -15971,7 +15983,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16099,7 +16111,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16305,7 +16317,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16511,7 +16523,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16592,7 +16604,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
         <v>1.36</v>
@@ -16717,7 +16729,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17001,7 +17013,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17129,7 +17141,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17207,7 +17219,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ79">
         <v>1.43</v>
@@ -17335,7 +17347,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17413,7 +17425,7 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>1.71</v>
@@ -17619,10 +17631,10 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.85</v>
@@ -17747,7 +17759,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17953,7 +17965,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18034,7 +18046,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>1.27</v>
@@ -18240,7 +18252,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR84">
         <v>1.22</v>
@@ -18571,7 +18583,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18649,7 +18661,7 @@
         <v>0.4</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ86">
         <v>0.86</v>
@@ -19189,7 +19201,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19267,7 +19279,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ89">
         <v>0.71</v>
@@ -19473,10 +19485,10 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19601,7 +19613,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19682,7 +19694,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -19888,7 +19900,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.23</v>
@@ -20013,7 +20025,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20219,7 +20231,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20506,7 +20518,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ95">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -20631,7 +20643,7 @@
         <v>166</v>
       </c>
       <c r="P96" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21249,7 +21261,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21406,6 +21418,1036 @@
       </c>
       <c r="BP99">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7345209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45501.625</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>93</v>
+      </c>
+      <c r="H100" t="s">
+        <v>82</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>167</v>
+      </c>
+      <c r="P100" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q100">
+        <v>2.63</v>
+      </c>
+      <c r="R100">
+        <v>2.05</v>
+      </c>
+      <c r="S100">
+        <v>4.75</v>
+      </c>
+      <c r="T100">
+        <v>1.44</v>
+      </c>
+      <c r="U100">
+        <v>2.63</v>
+      </c>
+      <c r="V100">
+        <v>3.25</v>
+      </c>
+      <c r="W100">
+        <v>1.33</v>
+      </c>
+      <c r="X100">
+        <v>9</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>1.95</v>
+      </c>
+      <c r="AA100">
+        <v>3.25</v>
+      </c>
+      <c r="AB100">
+        <v>4.25</v>
+      </c>
+      <c r="AC100">
+        <v>1.06</v>
+      </c>
+      <c r="AD100">
+        <v>8.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.38</v>
+      </c>
+      <c r="AF100">
+        <v>3</v>
+      </c>
+      <c r="AG100">
+        <v>2.25</v>
+      </c>
+      <c r="AH100">
+        <v>1.62</v>
+      </c>
+      <c r="AI100">
+        <v>1.95</v>
+      </c>
+      <c r="AJ100">
+        <v>1.8</v>
+      </c>
+      <c r="AK100">
+        <v>1.2</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.95</v>
+      </c>
+      <c r="AN100">
+        <v>1.29</v>
+      </c>
+      <c r="AO100">
+        <v>1.43</v>
+      </c>
+      <c r="AP100">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100">
+        <v>1.25</v>
+      </c>
+      <c r="AR100">
+        <v>1.73</v>
+      </c>
+      <c r="AS100">
+        <v>1.45</v>
+      </c>
+      <c r="AT100">
+        <v>3.18</v>
+      </c>
+      <c r="AU100">
+        <v>10</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>13</v>
+      </c>
+      <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>3</v>
+      </c>
+      <c r="BB100">
+        <v>8</v>
+      </c>
+      <c r="BC100">
+        <v>11</v>
+      </c>
+      <c r="BD100">
+        <v>1.57</v>
+      </c>
+      <c r="BE100">
+        <v>7.6</v>
+      </c>
+      <c r="BF100">
+        <v>3.1</v>
+      </c>
+      <c r="BG100">
+        <v>1.32</v>
+      </c>
+      <c r="BH100">
+        <v>3.2</v>
+      </c>
+      <c r="BI100">
+        <v>1.55</v>
+      </c>
+      <c r="BJ100">
+        <v>2.3</v>
+      </c>
+      <c r="BK100">
+        <v>1.92</v>
+      </c>
+      <c r="BL100">
+        <v>1.82</v>
+      </c>
+      <c r="BM100">
+        <v>2.45</v>
+      </c>
+      <c r="BN100">
+        <v>1.5</v>
+      </c>
+      <c r="BO100">
+        <v>3.25</v>
+      </c>
+      <c r="BP100">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7345204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45501.625</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>89</v>
+      </c>
+      <c r="H101" t="s">
+        <v>90</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>168</v>
+      </c>
+      <c r="P101" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q101">
+        <v>4.5</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>3.25</v>
+      </c>
+      <c r="T101">
+        <v>1.5</v>
+      </c>
+      <c r="U101">
+        <v>2.5</v>
+      </c>
+      <c r="V101">
+        <v>3.5</v>
+      </c>
+      <c r="W101">
+        <v>1.29</v>
+      </c>
+      <c r="X101">
+        <v>10</v>
+      </c>
+      <c r="Y101">
+        <v>1.06</v>
+      </c>
+      <c r="Z101">
+        <v>3.5</v>
+      </c>
+      <c r="AA101">
+        <v>2.9</v>
+      </c>
+      <c r="AB101">
+        <v>2.35</v>
+      </c>
+      <c r="AC101">
+        <v>1.08</v>
+      </c>
+      <c r="AD101">
+        <v>7.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.42</v>
+      </c>
+      <c r="AF101">
+        <v>2.8</v>
+      </c>
+      <c r="AG101">
+        <v>3.1</v>
+      </c>
+      <c r="AH101">
+        <v>1.36</v>
+      </c>
+      <c r="AI101">
+        <v>2.5</v>
+      </c>
+      <c r="AJ101">
+        <v>1.5</v>
+      </c>
+      <c r="AK101">
+        <v>1.65</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.3</v>
+      </c>
+      <c r="AN101">
+        <v>0.83</v>
+      </c>
+      <c r="AO101">
+        <v>2</v>
+      </c>
+      <c r="AP101">
+        <v>0.86</v>
+      </c>
+      <c r="AQ101">
+        <v>1.88</v>
+      </c>
+      <c r="AR101">
+        <v>1.35</v>
+      </c>
+      <c r="AS101">
+        <v>1.38</v>
+      </c>
+      <c r="AT101">
+        <v>2.73</v>
+      </c>
+      <c r="AU101">
+        <v>4</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>11</v>
+      </c>
+      <c r="BA101">
+        <v>7</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>9</v>
+      </c>
+      <c r="BD101">
+        <v>1.92</v>
+      </c>
+      <c r="BE101">
+        <v>7</v>
+      </c>
+      <c r="BF101">
+        <v>2.3</v>
+      </c>
+      <c r="BG101">
+        <v>1.38</v>
+      </c>
+      <c r="BH101">
+        <v>2.8</v>
+      </c>
+      <c r="BI101">
+        <v>1.67</v>
+      </c>
+      <c r="BJ101">
+        <v>2.1</v>
+      </c>
+      <c r="BK101">
+        <v>2.1</v>
+      </c>
+      <c r="BL101">
+        <v>1.67</v>
+      </c>
+      <c r="BM101">
+        <v>2.75</v>
+      </c>
+      <c r="BN101">
+        <v>1.4</v>
+      </c>
+      <c r="BO101">
+        <v>3.8</v>
+      </c>
+      <c r="BP101">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7345211</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45501.71875</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>95</v>
+      </c>
+      <c r="H102" t="s">
+        <v>83</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>169</v>
+      </c>
+      <c r="P102" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q102">
+        <v>2.4</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>6</v>
+      </c>
+      <c r="T102">
+        <v>1.5</v>
+      </c>
+      <c r="U102">
+        <v>2.5</v>
+      </c>
+      <c r="V102">
+        <v>3.4</v>
+      </c>
+      <c r="W102">
+        <v>1.3</v>
+      </c>
+      <c r="X102">
+        <v>10</v>
+      </c>
+      <c r="Y102">
+        <v>1.06</v>
+      </c>
+      <c r="Z102">
+        <v>1.73</v>
+      </c>
+      <c r="AA102">
+        <v>3.4</v>
+      </c>
+      <c r="AB102">
+        <v>5.75</v>
+      </c>
+      <c r="AC102">
+        <v>1.08</v>
+      </c>
+      <c r="AD102">
+        <v>7.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.42</v>
+      </c>
+      <c r="AF102">
+        <v>2.8</v>
+      </c>
+      <c r="AG102">
+        <v>2.5</v>
+      </c>
+      <c r="AH102">
+        <v>1.5</v>
+      </c>
+      <c r="AI102">
+        <v>2.25</v>
+      </c>
+      <c r="AJ102">
+        <v>1.57</v>
+      </c>
+      <c r="AK102">
+        <v>1.2</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.85</v>
+      </c>
+      <c r="AN102">
+        <v>1.86</v>
+      </c>
+      <c r="AO102">
+        <v>2.33</v>
+      </c>
+      <c r="AP102">
+        <v>2</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1.71</v>
+      </c>
+      <c r="AS102">
+        <v>1.61</v>
+      </c>
+      <c r="AT102">
+        <v>3.32</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>11</v>
+      </c>
+      <c r="AY102">
+        <v>10</v>
+      </c>
+      <c r="AZ102">
+        <v>14</v>
+      </c>
+      <c r="BA102">
+        <v>4</v>
+      </c>
+      <c r="BB102">
+        <v>6</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>1.57</v>
+      </c>
+      <c r="BE102">
+        <v>7.6</v>
+      </c>
+      <c r="BF102">
+        <v>3.1</v>
+      </c>
+      <c r="BG102">
+        <v>1.38</v>
+      </c>
+      <c r="BH102">
+        <v>2.85</v>
+      </c>
+      <c r="BI102">
+        <v>1.67</v>
+      </c>
+      <c r="BJ102">
+        <v>2.15</v>
+      </c>
+      <c r="BK102">
+        <v>2.1</v>
+      </c>
+      <c r="BL102">
+        <v>1.7</v>
+      </c>
+      <c r="BM102">
+        <v>2.7</v>
+      </c>
+      <c r="BN102">
+        <v>1.42</v>
+      </c>
+      <c r="BO102">
+        <v>3.7</v>
+      </c>
+      <c r="BP102">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7345212</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45501.77083333334</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>170</v>
+      </c>
+      <c r="P103" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q103">
+        <v>1.73</v>
+      </c>
+      <c r="R103">
+        <v>2.5</v>
+      </c>
+      <c r="S103">
+        <v>9</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>2.63</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>1.3</v>
+      </c>
+      <c r="AA103">
+        <v>5</v>
+      </c>
+      <c r="AB103">
+        <v>12</v>
+      </c>
+      <c r="AC103">
+        <v>1.04</v>
+      </c>
+      <c r="AD103">
+        <v>12</v>
+      </c>
+      <c r="AE103">
+        <v>1.26</v>
+      </c>
+      <c r="AF103">
+        <v>3.67</v>
+      </c>
+      <c r="AG103">
+        <v>1.8</v>
+      </c>
+      <c r="AH103">
+        <v>2</v>
+      </c>
+      <c r="AI103">
+        <v>2.2</v>
+      </c>
+      <c r="AJ103">
+        <v>1.62</v>
+      </c>
+      <c r="AK103">
+        <v>1.06</v>
+      </c>
+      <c r="AL103">
+        <v>1.15</v>
+      </c>
+      <c r="AM103">
+        <v>3.1</v>
+      </c>
+      <c r="AN103">
+        <v>1.43</v>
+      </c>
+      <c r="AO103">
+        <v>1.43</v>
+      </c>
+      <c r="AP103">
+        <v>1.63</v>
+      </c>
+      <c r="AQ103">
+        <v>1.25</v>
+      </c>
+      <c r="AR103">
+        <v>1.83</v>
+      </c>
+      <c r="AS103">
+        <v>1.25</v>
+      </c>
+      <c r="AT103">
+        <v>3.08</v>
+      </c>
+      <c r="AU103">
+        <v>10</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>14</v>
+      </c>
+      <c r="AX103">
+        <v>2</v>
+      </c>
+      <c r="AY103">
+        <v>24</v>
+      </c>
+      <c r="AZ103">
+        <v>2</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>6</v>
+      </c>
+      <c r="BD103">
+        <v>1.23</v>
+      </c>
+      <c r="BE103">
+        <v>12</v>
+      </c>
+      <c r="BF103">
+        <v>5.16</v>
+      </c>
+      <c r="BG103">
+        <v>1.3</v>
+      </c>
+      <c r="BH103">
+        <v>3.35</v>
+      </c>
+      <c r="BI103">
+        <v>1.53</v>
+      </c>
+      <c r="BJ103">
+        <v>2.4</v>
+      </c>
+      <c r="BK103">
+        <v>2.25</v>
+      </c>
+      <c r="BL103">
+        <v>1.8</v>
+      </c>
+      <c r="BM103">
+        <v>2.4</v>
+      </c>
+      <c r="BN103">
+        <v>1.53</v>
+      </c>
+      <c r="BO103">
+        <v>3.15</v>
+      </c>
+      <c r="BP103">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7345205</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45501.85416666666</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>86</v>
+      </c>
+      <c r="H104" t="s">
+        <v>97</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>102</v>
+      </c>
+      <c r="P104" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q104">
+        <v>3.5</v>
+      </c>
+      <c r="R104">
+        <v>1.83</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>1.44</v>
+      </c>
+      <c r="U104">
+        <v>2.63</v>
+      </c>
+      <c r="V104">
+        <v>3.25</v>
+      </c>
+      <c r="W104">
+        <v>1.33</v>
+      </c>
+      <c r="X104">
+        <v>10</v>
+      </c>
+      <c r="Y104">
+        <v>1.06</v>
+      </c>
+      <c r="Z104">
+        <v>2.6</v>
+      </c>
+      <c r="AA104">
+        <v>2.9</v>
+      </c>
+      <c r="AB104">
+        <v>3.1</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>8.91</v>
+      </c>
+      <c r="AE104">
+        <v>1.38</v>
+      </c>
+      <c r="AF104">
+        <v>2.94</v>
+      </c>
+      <c r="AG104">
+        <v>3.1</v>
+      </c>
+      <c r="AH104">
+        <v>1.36</v>
+      </c>
+      <c r="AI104">
+        <v>2.2</v>
+      </c>
+      <c r="AJ104">
+        <v>1.62</v>
+      </c>
+      <c r="AK104">
+        <v>1.68</v>
+      </c>
+      <c r="AL104">
+        <v>1.28</v>
+      </c>
+      <c r="AM104">
+        <v>1.35</v>
+      </c>
+      <c r="AN104">
+        <v>1.86</v>
+      </c>
+      <c r="AO104">
+        <v>1.33</v>
+      </c>
+      <c r="AP104">
+        <v>1.75</v>
+      </c>
+      <c r="AQ104">
+        <v>1.29</v>
+      </c>
+      <c r="AR104">
+        <v>1.17</v>
+      </c>
+      <c r="AS104">
+        <v>1.23</v>
+      </c>
+      <c r="AT104">
+        <v>2.4</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>7</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>11</v>
+      </c>
+      <c r="AZ104">
+        <v>4</v>
+      </c>
+      <c r="BA104">
+        <v>8</v>
+      </c>
+      <c r="BB104">
+        <v>7</v>
+      </c>
+      <c r="BC104">
+        <v>15</v>
+      </c>
+      <c r="BD104">
+        <v>2.1</v>
+      </c>
+      <c r="BE104">
+        <v>6.8</v>
+      </c>
+      <c r="BF104">
+        <v>2.1</v>
+      </c>
+      <c r="BG104">
+        <v>1.45</v>
+      </c>
+      <c r="BH104">
+        <v>2.5</v>
+      </c>
+      <c r="BI104">
+        <v>1.8</v>
+      </c>
+      <c r="BJ104">
+        <v>2</v>
+      </c>
+      <c r="BK104">
+        <v>2.33</v>
+      </c>
+      <c r="BL104">
+        <v>1.52</v>
+      </c>
+      <c r="BM104">
+        <v>3.15</v>
+      </c>
+      <c r="BN104">
+        <v>1.29</v>
+      </c>
+      <c r="BO104">
+        <v>4.5</v>
+      </c>
+      <c r="BP104">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,18 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['27', '79']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['53', '57']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -595,9 +607,6 @@
     <t>['42', '87']</t>
   </si>
   <si>
-    <t>['77']</t>
-  </si>
-  <si>
     <t>['28']</t>
   </si>
   <si>
@@ -659,6 +668,18 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['5', '90']</t>
+  </si>
+  <si>
+    <t>['34', '53', '70']</t>
+  </si>
+  <si>
+    <t>['22', '72']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1300,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1485,7 +1506,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1563,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>1.29</v>
@@ -1772,7 +1793,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1978,7 +1999,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2103,7 +2124,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2181,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2309,7 +2330,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2596,7 +2617,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2799,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ9">
         <v>0.86</v>
@@ -3005,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3133,7 +3154,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3211,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3339,7 +3360,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3417,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3623,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>1.29</v>
@@ -3832,7 +3853,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4244,7 +4265,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>0.93</v>
@@ -4450,7 +4471,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ17">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>2.66</v>
@@ -4575,7 +4596,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4653,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -4781,7 +4802,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5065,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5271,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5399,7 +5420,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5686,7 +5707,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>1.41</v>
@@ -5811,7 +5832,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5889,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ24">
         <v>1.29</v>
@@ -6017,7 +6038,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6098,7 +6119,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ25">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6304,7 +6325,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR26">
         <v>1.01</v>
@@ -6429,7 +6450,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6510,7 +6531,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.21</v>
@@ -6716,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -6919,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>1.38</v>
@@ -7047,7 +7068,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7125,7 +7146,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30">
         <v>1.29</v>
@@ -7253,7 +7274,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7331,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7459,7 +7480,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7537,10 +7558,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR32">
         <v>0.93</v>
@@ -7665,7 +7686,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7743,7 +7764,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7949,7 +7970,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>1.63</v>
@@ -8158,7 +8179,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR35">
         <v>1.3</v>
@@ -9107,7 +9128,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9188,7 +9209,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.09</v>
@@ -9394,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9597,10 +9618,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -9806,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
         <v>2.06</v>
@@ -9931,7 +9952,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10009,10 +10030,10 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR44">
         <v>1.06</v>
@@ -10215,10 +10236,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -10421,7 +10442,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -10549,7 +10570,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10627,7 +10648,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ47">
         <v>1.88</v>
@@ -10755,7 +10776,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -10836,7 +10857,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11042,7 +11063,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11373,7 +11394,7 @@
         <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11657,7 +11678,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ52">
         <v>0.88</v>
@@ -11785,7 +11806,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11866,7 +11887,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR53">
         <v>1.79</v>
@@ -11991,7 +12012,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12069,7 +12090,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ54">
         <v>2.25</v>
@@ -12687,7 +12708,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ57">
         <v>1.29</v>
@@ -12815,7 +12836,7 @@
         <v>140</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>1.95</v>
@@ -12893,10 +12914,10 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13021,7 +13042,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13227,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13308,7 +13329,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
         <v>1.73</v>
@@ -13511,7 +13532,7 @@
         <v>2.25</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ61">
         <v>1.63</v>
@@ -13639,7 +13660,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -13717,10 +13738,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR62">
         <v>1.21</v>
@@ -14129,7 +14150,7 @@
         <v>2.5</v>
       </c>
       <c r="AP64">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14257,7 +14278,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14544,7 +14565,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR66">
         <v>1.28</v>
@@ -14669,7 +14690,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14750,7 +14771,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14875,7 +14896,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15287,7 +15308,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15365,10 +15386,10 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ70">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR70">
         <v>1.69</v>
@@ -15493,7 +15514,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15571,10 +15592,10 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16111,7 +16132,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16189,7 +16210,7 @@
         <v>1.2</v>
       </c>
       <c r="AP74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ74">
         <v>1.38</v>
@@ -16317,7 +16338,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16395,10 +16416,10 @@
         <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16523,7 +16544,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16729,7 +16750,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17016,7 +17037,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR78">
         <v>1.79</v>
@@ -17141,7 +17162,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17222,7 +17243,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -17347,7 +17368,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17428,7 +17449,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.92</v>
@@ -17759,7 +17780,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17837,10 +17858,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ82">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
         <v>0.98</v>
@@ -17965,7 +17986,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18043,7 +18064,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ83">
         <v>1.29</v>
@@ -18249,7 +18270,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84">
         <v>1.88</v>
@@ -18455,10 +18476,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -19076,7 +19097,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ88">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR88">
         <v>1.06</v>
@@ -19201,7 +19222,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19282,7 +19303,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19613,7 +19634,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19691,7 +19712,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ91">
         <v>1.63</v>
@@ -20025,7 +20046,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20103,10 +20124,10 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR93">
         <v>1.15</v>
@@ -20231,7 +20252,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20309,10 +20330,10 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR94">
         <v>1.5</v>
@@ -20515,7 +20536,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95">
         <v>1.75</v>
@@ -20643,7 +20664,7 @@
         <v>166</v>
       </c>
       <c r="P96" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20721,10 +20742,10 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR96">
         <v>1.17</v>
@@ -21261,7 +21282,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21673,7 +21694,7 @@
         <v>168</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21879,7 +21900,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22448,6 +22469,1242 @@
       </c>
       <c r="BP104">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7345206</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45502.625</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>87</v>
+      </c>
+      <c r="H105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>102</v>
+      </c>
+      <c r="P105" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q105">
+        <v>4.33</v>
+      </c>
+      <c r="R105">
+        <v>1.91</v>
+      </c>
+      <c r="S105">
+        <v>3.1</v>
+      </c>
+      <c r="T105">
+        <v>1.44</v>
+      </c>
+      <c r="U105">
+        <v>2.63</v>
+      </c>
+      <c r="V105">
+        <v>3.25</v>
+      </c>
+      <c r="W105">
+        <v>1.33</v>
+      </c>
+      <c r="X105">
+        <v>9</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>3.5</v>
+      </c>
+      <c r="AA105">
+        <v>3.1</v>
+      </c>
+      <c r="AB105">
+        <v>2.2</v>
+      </c>
+      <c r="AC105">
+        <v>1.07</v>
+      </c>
+      <c r="AD105">
+        <v>7.61</v>
+      </c>
+      <c r="AE105">
+        <v>1.43</v>
+      </c>
+      <c r="AF105">
+        <v>2.76</v>
+      </c>
+      <c r="AG105">
+        <v>2.6</v>
+      </c>
+      <c r="AH105">
+        <v>1.48</v>
+      </c>
+      <c r="AI105">
+        <v>2.2</v>
+      </c>
+      <c r="AJ105">
+        <v>1.62</v>
+      </c>
+      <c r="AK105">
+        <v>1.47</v>
+      </c>
+      <c r="AL105">
+        <v>1.32</v>
+      </c>
+      <c r="AM105">
+        <v>1.5</v>
+      </c>
+      <c r="AN105">
+        <v>0.71</v>
+      </c>
+      <c r="AO105">
+        <v>1.43</v>
+      </c>
+      <c r="AP105">
+        <v>0.63</v>
+      </c>
+      <c r="AQ105">
+        <v>1.63</v>
+      </c>
+      <c r="AR105">
+        <v>1.29</v>
+      </c>
+      <c r="AS105">
+        <v>1.5</v>
+      </c>
+      <c r="AT105">
+        <v>2.79</v>
+      </c>
+      <c r="AU105">
+        <v>2</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>10</v>
+      </c>
+      <c r="AX105">
+        <v>9</v>
+      </c>
+      <c r="AY105">
+        <v>12</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>1</v>
+      </c>
+      <c r="BC105">
+        <v>4</v>
+      </c>
+      <c r="BD105">
+        <v>2.22</v>
+      </c>
+      <c r="BE105">
+        <v>7</v>
+      </c>
+      <c r="BF105">
+        <v>1.98</v>
+      </c>
+      <c r="BG105">
+        <v>1.32</v>
+      </c>
+      <c r="BH105">
+        <v>3</v>
+      </c>
+      <c r="BI105">
+        <v>1.58</v>
+      </c>
+      <c r="BJ105">
+        <v>2.18</v>
+      </c>
+      <c r="BK105">
+        <v>1.95</v>
+      </c>
+      <c r="BL105">
+        <v>1.77</v>
+      </c>
+      <c r="BM105">
+        <v>2.63</v>
+      </c>
+      <c r="BN105">
+        <v>1.42</v>
+      </c>
+      <c r="BO105">
+        <v>3.6</v>
+      </c>
+      <c r="BP105">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7345203</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45502.6875</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>85</v>
+      </c>
+      <c r="H106" t="s">
+        <v>88</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>171</v>
+      </c>
+      <c r="P106" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q106">
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>5</v>
+      </c>
+      <c r="T106">
+        <v>1.62</v>
+      </c>
+      <c r="U106">
+        <v>2.2</v>
+      </c>
+      <c r="V106">
+        <v>4</v>
+      </c>
+      <c r="W106">
+        <v>1.22</v>
+      </c>
+      <c r="X106">
+        <v>13</v>
+      </c>
+      <c r="Y106">
+        <v>1.04</v>
+      </c>
+      <c r="Z106">
+        <v>2.15</v>
+      </c>
+      <c r="AA106">
+        <v>2.88</v>
+      </c>
+      <c r="AB106">
+        <v>4.2</v>
+      </c>
+      <c r="AC106">
+        <v>1.11</v>
+      </c>
+      <c r="AD106">
+        <v>6.18</v>
+      </c>
+      <c r="AE106">
+        <v>1.52</v>
+      </c>
+      <c r="AF106">
+        <v>2.35</v>
+      </c>
+      <c r="AG106">
+        <v>3.4</v>
+      </c>
+      <c r="AH106">
+        <v>1.33</v>
+      </c>
+      <c r="AI106">
+        <v>2.5</v>
+      </c>
+      <c r="AJ106">
+        <v>1.5</v>
+      </c>
+      <c r="AK106">
+        <v>1.26</v>
+      </c>
+      <c r="AL106">
+        <v>1.33</v>
+      </c>
+      <c r="AM106">
+        <v>1.75</v>
+      </c>
+      <c r="AN106">
+        <v>0.71</v>
+      </c>
+      <c r="AO106">
+        <v>1.14</v>
+      </c>
+      <c r="AP106">
+        <v>0.63</v>
+      </c>
+      <c r="AQ106">
+        <v>1.38</v>
+      </c>
+      <c r="AR106">
+        <v>1.32</v>
+      </c>
+      <c r="AS106">
+        <v>1.22</v>
+      </c>
+      <c r="AT106">
+        <v>2.54</v>
+      </c>
+      <c r="AU106">
+        <v>7</v>
+      </c>
+      <c r="AV106">
+        <v>7</v>
+      </c>
+      <c r="AW106">
+        <v>7</v>
+      </c>
+      <c r="AX106">
+        <v>3</v>
+      </c>
+      <c r="AY106">
+        <v>14</v>
+      </c>
+      <c r="AZ106">
+        <v>10</v>
+      </c>
+      <c r="BA106">
+        <v>8</v>
+      </c>
+      <c r="BB106">
+        <v>1</v>
+      </c>
+      <c r="BC106">
+        <v>9</v>
+      </c>
+      <c r="BD106">
+        <v>1.87</v>
+      </c>
+      <c r="BE106">
+        <v>7.3</v>
+      </c>
+      <c r="BF106">
+        <v>2.39</v>
+      </c>
+      <c r="BG106">
+        <v>1.4</v>
+      </c>
+      <c r="BH106">
+        <v>2.7</v>
+      </c>
+      <c r="BI106">
+        <v>1.7</v>
+      </c>
+      <c r="BJ106">
+        <v>2.05</v>
+      </c>
+      <c r="BK106">
+        <v>2.18</v>
+      </c>
+      <c r="BL106">
+        <v>1.58</v>
+      </c>
+      <c r="BM106">
+        <v>2.95</v>
+      </c>
+      <c r="BN106">
+        <v>1.34</v>
+      </c>
+      <c r="BO106">
+        <v>4.1</v>
+      </c>
+      <c r="BP106">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7345202</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45502.78125</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>91</v>
+      </c>
+      <c r="H107" t="s">
+        <v>96</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>102</v>
+      </c>
+      <c r="P107" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q107">
+        <v>5.5</v>
+      </c>
+      <c r="R107">
+        <v>2.1</v>
+      </c>
+      <c r="S107">
+        <v>2.38</v>
+      </c>
+      <c r="T107">
+        <v>1.53</v>
+      </c>
+      <c r="U107">
+        <v>2.38</v>
+      </c>
+      <c r="V107">
+        <v>3.5</v>
+      </c>
+      <c r="W107">
+        <v>1.29</v>
+      </c>
+      <c r="X107">
+        <v>11</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>5</v>
+      </c>
+      <c r="AA107">
+        <v>3.7</v>
+      </c>
+      <c r="AB107">
+        <v>1.7</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>7.77</v>
+      </c>
+      <c r="AE107">
+        <v>1.43</v>
+      </c>
+      <c r="AF107">
+        <v>2.76</v>
+      </c>
+      <c r="AG107">
+        <v>2.1</v>
+      </c>
+      <c r="AH107">
+        <v>1.7</v>
+      </c>
+      <c r="AI107">
+        <v>2.05</v>
+      </c>
+      <c r="AJ107">
+        <v>1.7</v>
+      </c>
+      <c r="AK107">
+        <v>1.83</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.26</v>
+      </c>
+      <c r="AN107">
+        <v>0.14</v>
+      </c>
+      <c r="AO107">
+        <v>1.57</v>
+      </c>
+      <c r="AP107">
+        <v>0.13</v>
+      </c>
+      <c r="AQ107">
+        <v>1.75</v>
+      </c>
+      <c r="AR107">
+        <v>1.03</v>
+      </c>
+      <c r="AS107">
+        <v>1.17</v>
+      </c>
+      <c r="AT107">
+        <v>2.2</v>
+      </c>
+      <c r="AU107">
+        <v>9</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>14</v>
+      </c>
+      <c r="AZ107">
+        <v>5</v>
+      </c>
+      <c r="BA107">
+        <v>8</v>
+      </c>
+      <c r="BB107">
+        <v>1</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>2.47</v>
+      </c>
+      <c r="BE107">
+        <v>7.4</v>
+      </c>
+      <c r="BF107">
+        <v>1.82</v>
+      </c>
+      <c r="BG107">
+        <v>1.4</v>
+      </c>
+      <c r="BH107">
+        <v>2.7</v>
+      </c>
+      <c r="BI107">
+        <v>1.7</v>
+      </c>
+      <c r="BJ107">
+        <v>2.05</v>
+      </c>
+      <c r="BK107">
+        <v>2.18</v>
+      </c>
+      <c r="BL107">
+        <v>1.58</v>
+      </c>
+      <c r="BM107">
+        <v>2.95</v>
+      </c>
+      <c r="BN107">
+        <v>1.34</v>
+      </c>
+      <c r="BO107">
+        <v>4.1</v>
+      </c>
+      <c r="BP107">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7345215</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45502.78125</v>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s">
+        <v>77</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>172</v>
+      </c>
+      <c r="P108" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q108">
+        <v>3.2</v>
+      </c>
+      <c r="R108">
+        <v>1.8</v>
+      </c>
+      <c r="S108">
+        <v>4.75</v>
+      </c>
+      <c r="T108">
+        <v>1.62</v>
+      </c>
+      <c r="U108">
+        <v>2.2</v>
+      </c>
+      <c r="V108">
+        <v>4</v>
+      </c>
+      <c r="W108">
+        <v>1.22</v>
+      </c>
+      <c r="X108">
+        <v>13</v>
+      </c>
+      <c r="Y108">
+        <v>1.04</v>
+      </c>
+      <c r="Z108">
+        <v>2.25</v>
+      </c>
+      <c r="AA108">
+        <v>3</v>
+      </c>
+      <c r="AB108">
+        <v>3.5</v>
+      </c>
+      <c r="AC108">
+        <v>1.12</v>
+      </c>
+      <c r="AD108">
+        <v>5.87</v>
+      </c>
+      <c r="AE108">
+        <v>1.58</v>
+      </c>
+      <c r="AF108">
+        <v>2.25</v>
+      </c>
+      <c r="AG108">
+        <v>3.4</v>
+      </c>
+      <c r="AH108">
+        <v>1.33</v>
+      </c>
+      <c r="AI108">
+        <v>2.5</v>
+      </c>
+      <c r="AJ108">
+        <v>1.5</v>
+      </c>
+      <c r="AK108">
+        <v>1.33</v>
+      </c>
+      <c r="AL108">
+        <v>1.35</v>
+      </c>
+      <c r="AM108">
+        <v>1.6</v>
+      </c>
+      <c r="AN108">
+        <v>0.86</v>
+      </c>
+      <c r="AO108">
+        <v>1.29</v>
+      </c>
+      <c r="AP108">
+        <v>1.13</v>
+      </c>
+      <c r="AQ108">
+        <v>1.13</v>
+      </c>
+      <c r="AR108">
+        <v>1.16</v>
+      </c>
+      <c r="AS108">
+        <v>1.14</v>
+      </c>
+      <c r="AT108">
+        <v>2.3</v>
+      </c>
+      <c r="AU108">
+        <v>10</v>
+      </c>
+      <c r="AV108">
+        <v>6</v>
+      </c>
+      <c r="AW108">
+        <v>7</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>17</v>
+      </c>
+      <c r="AZ108">
+        <v>6</v>
+      </c>
+      <c r="BA108">
+        <v>3</v>
+      </c>
+      <c r="BB108">
+        <v>2</v>
+      </c>
+      <c r="BC108">
+        <v>5</v>
+      </c>
+      <c r="BD108">
+        <v>1.62</v>
+      </c>
+      <c r="BE108">
+        <v>7.7</v>
+      </c>
+      <c r="BF108">
+        <v>2.91</v>
+      </c>
+      <c r="BG108">
+        <v>1.4</v>
+      </c>
+      <c r="BH108">
+        <v>2.7</v>
+      </c>
+      <c r="BI108">
+        <v>1.73</v>
+      </c>
+      <c r="BJ108">
+        <v>1.95</v>
+      </c>
+      <c r="BK108">
+        <v>2.2</v>
+      </c>
+      <c r="BL108">
+        <v>1.58</v>
+      </c>
+      <c r="BM108">
+        <v>2.95</v>
+      </c>
+      <c r="BN108">
+        <v>1.34</v>
+      </c>
+      <c r="BO108">
+        <v>4.1</v>
+      </c>
+      <c r="BP108">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7345213</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45502.875</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>173</v>
+      </c>
+      <c r="P109" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q109">
+        <v>3.25</v>
+      </c>
+      <c r="R109">
+        <v>1.83</v>
+      </c>
+      <c r="S109">
+        <v>4.33</v>
+      </c>
+      <c r="T109">
+        <v>1.62</v>
+      </c>
+      <c r="U109">
+        <v>2.2</v>
+      </c>
+      <c r="V109">
+        <v>4</v>
+      </c>
+      <c r="W109">
+        <v>1.22</v>
+      </c>
+      <c r="X109">
+        <v>13</v>
+      </c>
+      <c r="Y109">
+        <v>1.04</v>
+      </c>
+      <c r="Z109">
+        <v>2.35</v>
+      </c>
+      <c r="AA109">
+        <v>3</v>
+      </c>
+      <c r="AB109">
+        <v>3.4</v>
+      </c>
+      <c r="AC109">
+        <v>1.11</v>
+      </c>
+      <c r="AD109">
+        <v>6.28</v>
+      </c>
+      <c r="AE109">
+        <v>1.52</v>
+      </c>
+      <c r="AF109">
+        <v>2.35</v>
+      </c>
+      <c r="AG109">
+        <v>2.88</v>
+      </c>
+      <c r="AH109">
+        <v>1.4</v>
+      </c>
+      <c r="AI109">
+        <v>2.25</v>
+      </c>
+      <c r="AJ109">
+        <v>1.57</v>
+      </c>
+      <c r="AK109">
+        <v>1.33</v>
+      </c>
+      <c r="AL109">
+        <v>1.33</v>
+      </c>
+      <c r="AM109">
+        <v>1.63</v>
+      </c>
+      <c r="AN109">
+        <v>1.57</v>
+      </c>
+      <c r="AO109">
+        <v>1</v>
+      </c>
+      <c r="AP109">
+        <v>1.75</v>
+      </c>
+      <c r="AQ109">
+        <v>0.86</v>
+      </c>
+      <c r="AR109">
+        <v>1.26</v>
+      </c>
+      <c r="AS109">
+        <v>1.24</v>
+      </c>
+      <c r="AT109">
+        <v>2.5</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>2</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>5</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
+        <v>1.95</v>
+      </c>
+      <c r="BE109">
+        <v>7.1</v>
+      </c>
+      <c r="BF109">
+        <v>2.25</v>
+      </c>
+      <c r="BG109">
+        <v>1.45</v>
+      </c>
+      <c r="BH109">
+        <v>2.5</v>
+      </c>
+      <c r="BI109">
+        <v>1.82</v>
+      </c>
+      <c r="BJ109">
+        <v>1.98</v>
+      </c>
+      <c r="BK109">
+        <v>2.33</v>
+      </c>
+      <c r="BL109">
+        <v>1.52</v>
+      </c>
+      <c r="BM109">
+        <v>3.15</v>
+      </c>
+      <c r="BN109">
+        <v>1.29</v>
+      </c>
+      <c r="BO109">
+        <v>4.5</v>
+      </c>
+      <c r="BP109">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7345214</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45502.875</v>
+      </c>
+      <c r="F110">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>174</v>
+      </c>
+      <c r="P110" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q110">
+        <v>2.75</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>1.44</v>
+      </c>
+      <c r="U110">
+        <v>2.63</v>
+      </c>
+      <c r="V110">
+        <v>3.25</v>
+      </c>
+      <c r="W110">
+        <v>1.33</v>
+      </c>
+      <c r="X110">
+        <v>9</v>
+      </c>
+      <c r="Y110">
+        <v>1.07</v>
+      </c>
+      <c r="Z110">
+        <v>2</v>
+      </c>
+      <c r="AA110">
+        <v>3.3</v>
+      </c>
+      <c r="AB110">
+        <v>3.9</v>
+      </c>
+      <c r="AC110">
+        <v>1.06</v>
+      </c>
+      <c r="AD110">
+        <v>8.6</v>
+      </c>
+      <c r="AE110">
+        <v>1.38</v>
+      </c>
+      <c r="AF110">
+        <v>2.94</v>
+      </c>
+      <c r="AG110">
+        <v>2.6</v>
+      </c>
+      <c r="AH110">
+        <v>1.48</v>
+      </c>
+      <c r="AI110">
+        <v>2.2</v>
+      </c>
+      <c r="AJ110">
+        <v>1.62</v>
+      </c>
+      <c r="AK110">
+        <v>1.3</v>
+      </c>
+      <c r="AL110">
+        <v>1.28</v>
+      </c>
+      <c r="AM110">
+        <v>1.7</v>
+      </c>
+      <c r="AN110">
+        <v>1.29</v>
+      </c>
+      <c r="AO110">
+        <v>1.71</v>
+      </c>
+      <c r="AP110">
+        <v>1.5</v>
+      </c>
+      <c r="AQ110">
+        <v>1.5</v>
+      </c>
+      <c r="AR110">
+        <v>1.53</v>
+      </c>
+      <c r="AS110">
+        <v>1.51</v>
+      </c>
+      <c r="AT110">
+        <v>3.04</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>10</v>
+      </c>
+      <c r="AX110">
+        <v>1</v>
+      </c>
+      <c r="AY110">
+        <v>18</v>
+      </c>
+      <c r="AZ110">
+        <v>3</v>
+      </c>
+      <c r="BA110">
+        <v>5</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
+      <c r="BC110">
+        <v>6</v>
+      </c>
+      <c r="BD110">
+        <v>1.4</v>
+      </c>
+      <c r="BE110">
+        <v>8</v>
+      </c>
+      <c r="BF110">
+        <v>3.75</v>
+      </c>
+      <c r="BG110">
+        <v>1.38</v>
+      </c>
+      <c r="BH110">
+        <v>2.8</v>
+      </c>
+      <c r="BI110">
+        <v>1.52</v>
+      </c>
+      <c r="BJ110">
+        <v>2.33</v>
+      </c>
+      <c r="BK110">
+        <v>1.95</v>
+      </c>
+      <c r="BL110">
+        <v>1.73</v>
+      </c>
+      <c r="BM110">
+        <v>2.45</v>
+      </c>
+      <c r="BN110">
+        <v>1.47</v>
+      </c>
+      <c r="BO110">
+        <v>3.3</v>
+      </c>
+      <c r="BP110">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,12 @@
     <t>['53', '57']</t>
   </si>
   <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['22', '56', '90+5']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -596,9 +602,6 @@
   </si>
   <si>
     <t>['23']</t>
-  </si>
-  <si>
-    <t>['70']</t>
   </si>
   <si>
     <t>['24']</t>
@@ -1041,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1303,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1506,7 +1509,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1587,7 +1590,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2124,7 +2127,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2330,7 +2333,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3154,7 +3157,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3360,7 +3363,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3647,7 +3650,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4056,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4596,7 +4599,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4802,7 +4805,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4883,7 +4886,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR19">
         <v>1.17</v>
@@ -5420,7 +5423,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5498,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ22">
         <v>2.25</v>
@@ -5832,7 +5835,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5913,7 +5916,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>0.5600000000000001</v>
@@ -6038,7 +6041,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6450,7 +6453,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6528,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>1.13</v>
@@ -7068,7 +7071,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7149,7 +7152,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7274,7 +7277,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7480,7 +7483,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7686,7 +7689,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -8382,7 +8385,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1.88</v>
@@ -9003,7 +9006,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9128,7 +9131,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9412,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ41">
         <v>0.63</v>
@@ -9952,7 +9955,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10445,7 +10448,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10570,7 +10573,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10776,7 +10779,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -10854,7 +10857,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11394,7 +11397,7 @@
         <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11806,7 +11809,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12012,7 +12015,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12299,7 +12302,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR55">
         <v>0.9399999999999999</v>
@@ -12502,7 +12505,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -12711,7 +12714,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ57">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13042,7 +13045,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13123,7 +13126,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13248,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13660,7 +13663,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14278,7 +14281,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14562,7 +14565,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1.75</v>
@@ -14690,7 +14693,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14896,7 +14899,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14974,7 +14977,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>0.86</v>
@@ -15308,7 +15311,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15514,7 +15517,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16132,7 +16135,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16338,7 +16341,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16544,7 +16547,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16622,7 +16625,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76">
         <v>1.25</v>
@@ -16750,7 +16753,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17162,7 +17165,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17240,7 +17243,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ79">
         <v>1.63</v>
@@ -17368,7 +17371,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17655,7 +17658,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR81">
         <v>1.85</v>
@@ -17780,7 +17783,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17986,7 +17989,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18067,7 +18070,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.27</v>
@@ -19222,7 +19225,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19634,7 +19637,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20046,7 +20049,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20252,7 +20255,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21282,7 +21285,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21360,7 +21363,7 @@
         <v>2.14</v>
       </c>
       <c r="AP99">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ99">
         <v>2.25</v>
@@ -21694,7 +21697,7 @@
         <v>168</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21772,7 +21775,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101">
         <v>1.88</v>
@@ -21900,7 +21903,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -21981,7 +21984,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR102">
         <v>1.71</v>
@@ -22393,7 +22396,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ104">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR104">
         <v>1.17</v>
@@ -22518,7 +22521,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22724,7 +22727,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22930,7 +22933,7 @@
         <v>102</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q107">
         <v>5.5</v>
@@ -23136,7 +23139,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23705,6 +23708,418 @@
       </c>
       <c r="BP110">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7345193</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45504.77083333334</v>
+      </c>
+      <c r="F111">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
+        <v>83</v>
+      </c>
+      <c r="H111" t="s">
+        <v>94</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>175</v>
+      </c>
+      <c r="P111" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q111">
+        <v>3</v>
+      </c>
+      <c r="R111">
+        <v>1.83</v>
+      </c>
+      <c r="S111">
+        <v>5</v>
+      </c>
+      <c r="T111">
+        <v>1.57</v>
+      </c>
+      <c r="U111">
+        <v>2.25</v>
+      </c>
+      <c r="V111">
+        <v>3.75</v>
+      </c>
+      <c r="W111">
+        <v>1.25</v>
+      </c>
+      <c r="X111">
+        <v>13</v>
+      </c>
+      <c r="Y111">
+        <v>1.04</v>
+      </c>
+      <c r="Z111">
+        <v>2.15</v>
+      </c>
+      <c r="AA111">
+        <v>3</v>
+      </c>
+      <c r="AB111">
+        <v>4</v>
+      </c>
+      <c r="AC111">
+        <v>1.07</v>
+      </c>
+      <c r="AD111">
+        <v>6.35</v>
+      </c>
+      <c r="AE111">
+        <v>1.48</v>
+      </c>
+      <c r="AF111">
+        <v>2.45</v>
+      </c>
+      <c r="AG111">
+        <v>3.1</v>
+      </c>
+      <c r="AH111">
+        <v>1.36</v>
+      </c>
+      <c r="AI111">
+        <v>2.5</v>
+      </c>
+      <c r="AJ111">
+        <v>1.5</v>
+      </c>
+      <c r="AK111">
+        <v>1.33</v>
+      </c>
+      <c r="AL111">
+        <v>1.36</v>
+      </c>
+      <c r="AM111">
+        <v>1.61</v>
+      </c>
+      <c r="AN111">
+        <v>2</v>
+      </c>
+      <c r="AO111">
+        <v>1.29</v>
+      </c>
+      <c r="AP111">
+        <v>2.13</v>
+      </c>
+      <c r="AQ111">
+        <v>1.13</v>
+      </c>
+      <c r="AR111">
+        <v>1.59</v>
+      </c>
+      <c r="AS111">
+        <v>1.28</v>
+      </c>
+      <c r="AT111">
+        <v>2.87</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>3</v>
+      </c>
+      <c r="AW111">
+        <v>3</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>9</v>
+      </c>
+      <c r="AZ111">
+        <v>8</v>
+      </c>
+      <c r="BA111">
+        <v>3</v>
+      </c>
+      <c r="BB111">
+        <v>2</v>
+      </c>
+      <c r="BC111">
+        <v>5</v>
+      </c>
+      <c r="BD111">
+        <v>1.48</v>
+      </c>
+      <c r="BE111">
+        <v>7.5</v>
+      </c>
+      <c r="BF111">
+        <v>3.55</v>
+      </c>
+      <c r="BG111">
+        <v>1.36</v>
+      </c>
+      <c r="BH111">
+        <v>2.8</v>
+      </c>
+      <c r="BI111">
+        <v>1.65</v>
+      </c>
+      <c r="BJ111">
+        <v>2.08</v>
+      </c>
+      <c r="BK111">
+        <v>2.05</v>
+      </c>
+      <c r="BL111">
+        <v>1.7</v>
+      </c>
+      <c r="BM111">
+        <v>2.8</v>
+      </c>
+      <c r="BN111">
+        <v>1.37</v>
+      </c>
+      <c r="BO111">
+        <v>3.85</v>
+      </c>
+      <c r="BP111">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7345199</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45504.85416666666</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+      <c r="G112" t="s">
+        <v>97</v>
+      </c>
+      <c r="H112" t="s">
+        <v>89</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>176</v>
+      </c>
+      <c r="P112" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q112">
+        <v>2.6</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>5.5</v>
+      </c>
+      <c r="T112">
+        <v>1.44</v>
+      </c>
+      <c r="U112">
+        <v>2.63</v>
+      </c>
+      <c r="V112">
+        <v>3.25</v>
+      </c>
+      <c r="W112">
+        <v>1.33</v>
+      </c>
+      <c r="X112">
+        <v>9</v>
+      </c>
+      <c r="Y112">
+        <v>1.07</v>
+      </c>
+      <c r="Z112">
+        <v>1.85</v>
+      </c>
+      <c r="AA112">
+        <v>3.25</v>
+      </c>
+      <c r="AB112">
+        <v>4.75</v>
+      </c>
+      <c r="AC112">
+        <v>1.04</v>
+      </c>
+      <c r="AD112">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE112">
+        <v>1.34</v>
+      </c>
+      <c r="AF112">
+        <v>3.14</v>
+      </c>
+      <c r="AG112">
+        <v>2.6</v>
+      </c>
+      <c r="AH112">
+        <v>1.48</v>
+      </c>
+      <c r="AI112">
+        <v>2.25</v>
+      </c>
+      <c r="AJ112">
+        <v>1.57</v>
+      </c>
+      <c r="AK112">
+        <v>1.17</v>
+      </c>
+      <c r="AL112">
+        <v>1.24</v>
+      </c>
+      <c r="AM112">
+        <v>2.25</v>
+      </c>
+      <c r="AN112">
+        <v>1.29</v>
+      </c>
+      <c r="AO112">
+        <v>0.86</v>
+      </c>
+      <c r="AP112">
+        <v>1.5</v>
+      </c>
+      <c r="AQ112">
+        <v>0.75</v>
+      </c>
+      <c r="AR112">
+        <v>1.1</v>
+      </c>
+      <c r="AS112">
+        <v>1.39</v>
+      </c>
+      <c r="AT112">
+        <v>2.49</v>
+      </c>
+      <c r="AU112">
+        <v>7</v>
+      </c>
+      <c r="AV112">
+        <v>2</v>
+      </c>
+      <c r="AW112">
+        <v>0</v>
+      </c>
+      <c r="AX112">
+        <v>9</v>
+      </c>
+      <c r="AY112">
+        <v>7</v>
+      </c>
+      <c r="AZ112">
+        <v>11</v>
+      </c>
+      <c r="BA112">
+        <v>3</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>6</v>
+      </c>
+      <c r="BD112">
+        <v>1.67</v>
+      </c>
+      <c r="BE112">
+        <v>7.4</v>
+      </c>
+      <c r="BF112">
+        <v>2.81</v>
+      </c>
+      <c r="BG112">
+        <v>1.4</v>
+      </c>
+      <c r="BH112">
+        <v>2.7</v>
+      </c>
+      <c r="BI112">
+        <v>1.77</v>
+      </c>
+      <c r="BJ112">
+        <v>1.95</v>
+      </c>
+      <c r="BK112">
+        <v>2.2</v>
+      </c>
+      <c r="BL112">
+        <v>1.58</v>
+      </c>
+      <c r="BM112">
+        <v>2.95</v>
+      </c>
+      <c r="BN112">
+        <v>1.34</v>
+      </c>
+      <c r="BO112">
+        <v>4.1</v>
+      </c>
+      <c r="BP112">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -517,10 +517,10 @@
     <t>['1']</t>
   </si>
   <si>
-    <t>['46', '52', '64', '90+6']</t>
+    <t>['16']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['46', '52', '64', '90+6']</t>
   </si>
   <si>
     <t>['10', '73']</t>
@@ -535,10 +535,10 @@
     <t>['27', '79']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['53', '57']</t>
   </si>
   <si>
-    <t>['53', '57']</t>
+    <t>['34']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -679,10 +679,10 @@
     <t>['34', '53', '70']</t>
   </si>
   <si>
-    <t>['22', '72']</t>
+    <t>['2']</t>
   </si>
   <si>
-    <t>['2']</t>
+    <t>['22', '72']</t>
   </si>
 </sst>
 </file>
@@ -18607,7 +18607,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -21449,7 +21449,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7345209</v>
+        <v>7345204</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21464,190 +21464,190 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>1</v>
       </c>
       <c r="N100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O100" t="s">
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="Q100">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="R100">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="T100">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U100">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V100">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W100">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X100">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y100">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z100">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="AA100">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="AB100">
-        <v>4.25</v>
+        <v>2.35</v>
       </c>
       <c r="AC100">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD100">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE100">
+        <v>1.42</v>
+      </c>
+      <c r="AF100">
+        <v>2.8</v>
+      </c>
+      <c r="AG100">
+        <v>3.1</v>
+      </c>
+      <c r="AH100">
+        <v>1.36</v>
+      </c>
+      <c r="AI100">
+        <v>2.5</v>
+      </c>
+      <c r="AJ100">
+        <v>1.5</v>
+      </c>
+      <c r="AK100">
+        <v>1.65</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.3</v>
+      </c>
+      <c r="AN100">
+        <v>0.83</v>
+      </c>
+      <c r="AO100">
+        <v>2</v>
+      </c>
+      <c r="AP100">
+        <v>0.75</v>
+      </c>
+      <c r="AQ100">
+        <v>1.88</v>
+      </c>
+      <c r="AR100">
+        <v>1.35</v>
+      </c>
+      <c r="AS100">
         <v>1.38</v>
       </c>
-      <c r="AF100">
-        <v>3</v>
-      </c>
-      <c r="AG100">
-        <v>2.25</v>
-      </c>
-      <c r="AH100">
-        <v>1.62</v>
-      </c>
-      <c r="AI100">
-        <v>1.95</v>
-      </c>
-      <c r="AJ100">
-        <v>1.8</v>
-      </c>
-      <c r="AK100">
-        <v>1.2</v>
-      </c>
-      <c r="AL100">
-        <v>1.25</v>
-      </c>
-      <c r="AM100">
-        <v>1.95</v>
-      </c>
-      <c r="AN100">
-        <v>1.29</v>
-      </c>
-      <c r="AO100">
-        <v>1.43</v>
-      </c>
-      <c r="AP100">
-        <v>1.5</v>
-      </c>
-      <c r="AQ100">
-        <v>1.25</v>
-      </c>
-      <c r="AR100">
-        <v>1.73</v>
-      </c>
-      <c r="AS100">
-        <v>1.45</v>
-      </c>
       <c r="AT100">
-        <v>3.18</v>
+        <v>2.73</v>
       </c>
       <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>6</v>
+      </c>
+      <c r="AW100">
         <v>10</v>
       </c>
-      <c r="AV100">
+      <c r="AX100">
         <v>5</v>
       </c>
-      <c r="AW100">
-        <v>3</v>
-      </c>
-      <c r="AX100">
-        <v>6</v>
-      </c>
       <c r="AY100">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ100">
         <v>11</v>
       </c>
       <c r="BA100">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB100">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD100">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="BE100">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="BF100">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="BG100">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="BH100">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BI100">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="BJ100">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BK100">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="BL100">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="BM100">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="BN100">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="BO100">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="BP100">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -21655,7 +21655,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7345204</v>
+        <v>7345209</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21670,190 +21670,190 @@
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H101" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M101">
         <v>1</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O101" t="s">
         <v>168</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="Q101">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>4.75</v>
+      </c>
+      <c r="T101">
+        <v>1.44</v>
+      </c>
+      <c r="U101">
+        <v>2.63</v>
+      </c>
+      <c r="V101">
+        <v>3.25</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>9</v>
+      </c>
+      <c r="Y101">
+        <v>1.07</v>
+      </c>
+      <c r="Z101">
+        <v>1.95</v>
+      </c>
+      <c r="AA101">
+        <v>3.25</v>
+      </c>
+      <c r="AB101">
+        <v>4.25</v>
+      </c>
+      <c r="AC101">
+        <v>1.06</v>
+      </c>
+      <c r="AD101">
+        <v>8.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.38</v>
+      </c>
+      <c r="AF101">
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <v>2.25</v>
+      </c>
+      <c r="AH101">
+        <v>1.62</v>
+      </c>
+      <c r="AI101">
+        <v>1.95</v>
+      </c>
+      <c r="AJ101">
         <v>1.8</v>
       </c>
-      <c r="S101">
-        <v>3.25</v>
-      </c>
-      <c r="T101">
+      <c r="AK101">
+        <v>1.2</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.95</v>
+      </c>
+      <c r="AN101">
+        <v>1.29</v>
+      </c>
+      <c r="AO101">
+        <v>1.43</v>
+      </c>
+      <c r="AP101">
         <v>1.5</v>
       </c>
-      <c r="U101">
-        <v>2.5</v>
-      </c>
-      <c r="V101">
-        <v>3.5</v>
-      </c>
-      <c r="W101">
-        <v>1.29</v>
-      </c>
-      <c r="X101">
+      <c r="AQ101">
+        <v>1.25</v>
+      </c>
+      <c r="AR101">
+        <v>1.73</v>
+      </c>
+      <c r="AS101">
+        <v>1.45</v>
+      </c>
+      <c r="AT101">
+        <v>3.18</v>
+      </c>
+      <c r="AU101">
         <v>10</v>
       </c>
-      <c r="Y101">
-        <v>1.06</v>
-      </c>
-      <c r="Z101">
-        <v>3.5</v>
-      </c>
-      <c r="AA101">
-        <v>2.9</v>
-      </c>
-      <c r="AB101">
-        <v>2.35</v>
-      </c>
-      <c r="AC101">
-        <v>1.08</v>
-      </c>
-      <c r="AD101">
-        <v>7.5</v>
-      </c>
-      <c r="AE101">
-        <v>1.42</v>
-      </c>
-      <c r="AF101">
-        <v>2.8</v>
-      </c>
-      <c r="AG101">
-        <v>3.1</v>
-      </c>
-      <c r="AH101">
-        <v>1.36</v>
-      </c>
-      <c r="AI101">
-        <v>2.5</v>
-      </c>
-      <c r="AJ101">
-        <v>1.5</v>
-      </c>
-      <c r="AK101">
-        <v>1.65</v>
-      </c>
-      <c r="AL101">
-        <v>1.28</v>
-      </c>
-      <c r="AM101">
-        <v>1.3</v>
-      </c>
-      <c r="AN101">
-        <v>0.83</v>
-      </c>
-      <c r="AO101">
-        <v>2</v>
-      </c>
-      <c r="AP101">
-        <v>0.75</v>
-      </c>
-      <c r="AQ101">
-        <v>1.88</v>
-      </c>
-      <c r="AR101">
-        <v>1.35</v>
-      </c>
-      <c r="AS101">
-        <v>1.38</v>
-      </c>
-      <c r="AT101">
-        <v>2.73</v>
-      </c>
-      <c r="AU101">
-        <v>4</v>
-      </c>
       <c r="AV101">
+        <v>5</v>
+      </c>
+      <c r="AW101">
+        <v>3</v>
+      </c>
+      <c r="AX101">
         <v>6</v>
       </c>
-      <c r="AW101">
-        <v>10</v>
-      </c>
-      <c r="AX101">
-        <v>5</v>
-      </c>
       <c r="AY101">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ101">
         <v>11</v>
       </c>
       <c r="BA101">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB101">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC101">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD101">
+        <v>1.57</v>
+      </c>
+      <c r="BE101">
+        <v>7.6</v>
+      </c>
+      <c r="BF101">
+        <v>3.1</v>
+      </c>
+      <c r="BG101">
+        <v>1.32</v>
+      </c>
+      <c r="BH101">
+        <v>3.2</v>
+      </c>
+      <c r="BI101">
+        <v>1.55</v>
+      </c>
+      <c r="BJ101">
+        <v>2.3</v>
+      </c>
+      <c r="BK101">
         <v>1.92</v>
       </c>
-      <c r="BE101">
-        <v>7</v>
-      </c>
-      <c r="BF101">
-        <v>2.3</v>
-      </c>
-      <c r="BG101">
-        <v>1.38</v>
-      </c>
-      <c r="BH101">
-        <v>2.8</v>
-      </c>
-      <c r="BI101">
-        <v>1.67</v>
-      </c>
-      <c r="BJ101">
-        <v>2.1</v>
-      </c>
-      <c r="BK101">
-        <v>2.1</v>
-      </c>
       <c r="BL101">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="BM101">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="BN101">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BO101">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="BP101">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -22891,7 +22891,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7345202</v>
+        <v>7345215</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22906,160 +22906,160 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H107" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>1</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O107" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="P107" t="s">
         <v>221</v>
       </c>
       <c r="Q107">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="R107">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="T107">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U107">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V107">
+        <v>4</v>
+      </c>
+      <c r="W107">
+        <v>1.22</v>
+      </c>
+      <c r="X107">
+        <v>13</v>
+      </c>
+      <c r="Y107">
+        <v>1.04</v>
+      </c>
+      <c r="Z107">
+        <v>2.25</v>
+      </c>
+      <c r="AA107">
+        <v>3</v>
+      </c>
+      <c r="AB107">
         <v>3.5</v>
       </c>
-      <c r="W107">
+      <c r="AC107">
+        <v>1.12</v>
+      </c>
+      <c r="AD107">
+        <v>5.87</v>
+      </c>
+      <c r="AE107">
+        <v>1.58</v>
+      </c>
+      <c r="AF107">
+        <v>2.25</v>
+      </c>
+      <c r="AG107">
+        <v>3.4</v>
+      </c>
+      <c r="AH107">
+        <v>1.33</v>
+      </c>
+      <c r="AI107">
+        <v>2.5</v>
+      </c>
+      <c r="AJ107">
+        <v>1.5</v>
+      </c>
+      <c r="AK107">
+        <v>1.33</v>
+      </c>
+      <c r="AL107">
+        <v>1.35</v>
+      </c>
+      <c r="AM107">
+        <v>1.6</v>
+      </c>
+      <c r="AN107">
+        <v>0.86</v>
+      </c>
+      <c r="AO107">
         <v>1.29</v>
       </c>
-      <c r="X107">
-        <v>11</v>
-      </c>
-      <c r="Y107">
-        <v>1.05</v>
-      </c>
-      <c r="Z107">
+      <c r="AP107">
+        <v>1.13</v>
+      </c>
+      <c r="AQ107">
+        <v>1.13</v>
+      </c>
+      <c r="AR107">
+        <v>1.16</v>
+      </c>
+      <c r="AS107">
+        <v>1.14</v>
+      </c>
+      <c r="AT107">
+        <v>2.3</v>
+      </c>
+      <c r="AU107">
+        <v>10</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>7</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>17</v>
+      </c>
+      <c r="AZ107">
+        <v>6</v>
+      </c>
+      <c r="BA107">
+        <v>3</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
         <v>5</v>
       </c>
-      <c r="AA107">
-        <v>3.7</v>
-      </c>
-      <c r="AB107">
-        <v>1.7</v>
-      </c>
-      <c r="AC107">
-        <v>1.07</v>
-      </c>
-      <c r="AD107">
-        <v>7.77</v>
-      </c>
-      <c r="AE107">
-        <v>1.43</v>
-      </c>
-      <c r="AF107">
-        <v>2.76</v>
-      </c>
-      <c r="AG107">
-        <v>2.1</v>
-      </c>
-      <c r="AH107">
-        <v>1.7</v>
-      </c>
-      <c r="AI107">
-        <v>2.05</v>
-      </c>
-      <c r="AJ107">
-        <v>1.7</v>
-      </c>
-      <c r="AK107">
-        <v>1.83</v>
-      </c>
-      <c r="AL107">
-        <v>1.28</v>
-      </c>
-      <c r="AM107">
-        <v>1.26</v>
-      </c>
-      <c r="AN107">
-        <v>0.14</v>
-      </c>
-      <c r="AO107">
-        <v>1.57</v>
-      </c>
-      <c r="AP107">
-        <v>0.13</v>
-      </c>
-      <c r="AQ107">
-        <v>1.75</v>
-      </c>
-      <c r="AR107">
-        <v>1.03</v>
-      </c>
-      <c r="AS107">
-        <v>1.17</v>
-      </c>
-      <c r="AT107">
-        <v>2.2</v>
-      </c>
-      <c r="AU107">
-        <v>9</v>
-      </c>
-      <c r="AV107">
-        <v>5</v>
-      </c>
-      <c r="AW107">
-        <v>5</v>
-      </c>
-      <c r="AX107">
-        <v>0</v>
-      </c>
-      <c r="AY107">
-        <v>14</v>
-      </c>
-      <c r="AZ107">
-        <v>5</v>
-      </c>
-      <c r="BA107">
-        <v>8</v>
-      </c>
-      <c r="BB107">
-        <v>1</v>
-      </c>
-      <c r="BC107">
-        <v>9</v>
-      </c>
       <c r="BD107">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="BE107">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="BF107">
-        <v>1.82</v>
+        <v>2.91</v>
       </c>
       <c r="BG107">
         <v>1.4</v>
@@ -23068,13 +23068,13 @@
         <v>2.7</v>
       </c>
       <c r="BI107">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BJ107">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BK107">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="BL107">
         <v>1.58</v>
@@ -23097,7 +23097,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7345215</v>
+        <v>7345202</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23112,160 +23112,160 @@
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H108" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>1</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="P108" t="s">
         <v>222</v>
       </c>
       <c r="Q108">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S108">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="T108">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U108">
+        <v>2.38</v>
+      </c>
+      <c r="V108">
+        <v>3.5</v>
+      </c>
+      <c r="W108">
+        <v>1.29</v>
+      </c>
+      <c r="X108">
+        <v>11</v>
+      </c>
+      <c r="Y108">
+        <v>1.05</v>
+      </c>
+      <c r="Z108">
+        <v>5</v>
+      </c>
+      <c r="AA108">
+        <v>3.7</v>
+      </c>
+      <c r="AB108">
+        <v>1.7</v>
+      </c>
+      <c r="AC108">
+        <v>1.07</v>
+      </c>
+      <c r="AD108">
+        <v>7.77</v>
+      </c>
+      <c r="AE108">
+        <v>1.43</v>
+      </c>
+      <c r="AF108">
+        <v>2.76</v>
+      </c>
+      <c r="AG108">
+        <v>2.1</v>
+      </c>
+      <c r="AH108">
+        <v>1.7</v>
+      </c>
+      <c r="AI108">
+        <v>2.05</v>
+      </c>
+      <c r="AJ108">
+        <v>1.7</v>
+      </c>
+      <c r="AK108">
+        <v>1.83</v>
+      </c>
+      <c r="AL108">
+        <v>1.28</v>
+      </c>
+      <c r="AM108">
+        <v>1.26</v>
+      </c>
+      <c r="AN108">
+        <v>0.14</v>
+      </c>
+      <c r="AO108">
+        <v>1.57</v>
+      </c>
+      <c r="AP108">
+        <v>0.13</v>
+      </c>
+      <c r="AQ108">
+        <v>1.75</v>
+      </c>
+      <c r="AR108">
+        <v>1.03</v>
+      </c>
+      <c r="AS108">
+        <v>1.17</v>
+      </c>
+      <c r="AT108">
         <v>2.2</v>
       </c>
-      <c r="V108">
-        <v>4</v>
-      </c>
-      <c r="W108">
-        <v>1.22</v>
-      </c>
-      <c r="X108">
-        <v>13</v>
-      </c>
-      <c r="Y108">
-        <v>1.04</v>
-      </c>
-      <c r="Z108">
-        <v>2.25</v>
-      </c>
-      <c r="AA108">
-        <v>3</v>
-      </c>
-      <c r="AB108">
-        <v>3.5</v>
-      </c>
-      <c r="AC108">
-        <v>1.12</v>
-      </c>
-      <c r="AD108">
-        <v>5.87</v>
-      </c>
-      <c r="AE108">
-        <v>1.58</v>
-      </c>
-      <c r="AF108">
-        <v>2.25</v>
-      </c>
-      <c r="AG108">
-        <v>3.4</v>
-      </c>
-      <c r="AH108">
-        <v>1.33</v>
-      </c>
-      <c r="AI108">
-        <v>2.5</v>
-      </c>
-      <c r="AJ108">
-        <v>1.5</v>
-      </c>
-      <c r="AK108">
-        <v>1.33</v>
-      </c>
-      <c r="AL108">
-        <v>1.35</v>
-      </c>
-      <c r="AM108">
-        <v>1.6</v>
-      </c>
-      <c r="AN108">
-        <v>0.86</v>
-      </c>
-      <c r="AO108">
-        <v>1.29</v>
-      </c>
-      <c r="AP108">
-        <v>1.13</v>
-      </c>
-      <c r="AQ108">
-        <v>1.13</v>
-      </c>
-      <c r="AR108">
-        <v>1.16</v>
-      </c>
-      <c r="AS108">
-        <v>1.14</v>
-      </c>
-      <c r="AT108">
-        <v>2.3</v>
-      </c>
       <c r="AU108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX108">
         <v>0</v>
       </c>
       <c r="AY108">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA108">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC108">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD108">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="BE108">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="BF108">
-        <v>2.91</v>
+        <v>1.82</v>
       </c>
       <c r="BG108">
         <v>1.4</v>
@@ -23274,13 +23274,13 @@
         <v>2.7</v>
       </c>
       <c r="BI108">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BJ108">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BK108">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="BL108">
         <v>1.58</v>
@@ -23303,7 +23303,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7345213</v>
+        <v>7345214</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23318,28 +23318,28 @@
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H109" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" t="s">
         <v>173</v>
@@ -23348,160 +23348,160 @@
         <v>102</v>
       </c>
       <c r="Q109">
+        <v>2.75</v>
+      </c>
+      <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
+        <v>5</v>
+      </c>
+      <c r="T109">
+        <v>1.44</v>
+      </c>
+      <c r="U109">
+        <v>2.63</v>
+      </c>
+      <c r="V109">
         <v>3.25</v>
       </c>
-      <c r="R109">
-        <v>1.83</v>
-      </c>
-      <c r="S109">
-        <v>4.33</v>
-      </c>
-      <c r="T109">
+      <c r="W109">
+        <v>1.33</v>
+      </c>
+      <c r="X109">
+        <v>9</v>
+      </c>
+      <c r="Y109">
+        <v>1.07</v>
+      </c>
+      <c r="Z109">
+        <v>2</v>
+      </c>
+      <c r="AA109">
+        <v>3.3</v>
+      </c>
+      <c r="AB109">
+        <v>3.9</v>
+      </c>
+      <c r="AC109">
+        <v>1.06</v>
+      </c>
+      <c r="AD109">
+        <v>8.6</v>
+      </c>
+      <c r="AE109">
+        <v>1.38</v>
+      </c>
+      <c r="AF109">
+        <v>2.94</v>
+      </c>
+      <c r="AG109">
+        <v>2.6</v>
+      </c>
+      <c r="AH109">
+        <v>1.48</v>
+      </c>
+      <c r="AI109">
+        <v>2.2</v>
+      </c>
+      <c r="AJ109">
         <v>1.62</v>
       </c>
-      <c r="U109">
-        <v>2.2</v>
-      </c>
-      <c r="V109">
-        <v>4</v>
-      </c>
-      <c r="W109">
-        <v>1.22</v>
-      </c>
-      <c r="X109">
-        <v>13</v>
-      </c>
-      <c r="Y109">
-        <v>1.04</v>
-      </c>
-      <c r="Z109">
-        <v>2.35</v>
-      </c>
-      <c r="AA109">
+      <c r="AK109">
+        <v>1.3</v>
+      </c>
+      <c r="AL109">
+        <v>1.28</v>
+      </c>
+      <c r="AM109">
+        <v>1.7</v>
+      </c>
+      <c r="AN109">
+        <v>1.29</v>
+      </c>
+      <c r="AO109">
+        <v>1.71</v>
+      </c>
+      <c r="AP109">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109">
+        <v>1.5</v>
+      </c>
+      <c r="AR109">
+        <v>1.53</v>
+      </c>
+      <c r="AS109">
+        <v>1.51</v>
+      </c>
+      <c r="AT109">
+        <v>3.04</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>10</v>
+      </c>
+      <c r="AX109">
+        <v>1</v>
+      </c>
+      <c r="AY109">
+        <v>18</v>
+      </c>
+      <c r="AZ109">
         <v>3</v>
       </c>
-      <c r="AB109">
-        <v>3.4</v>
-      </c>
-      <c r="AC109">
-        <v>1.11</v>
-      </c>
-      <c r="AD109">
-        <v>6.28</v>
-      </c>
-      <c r="AE109">
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>1</v>
+      </c>
+      <c r="BC109">
+        <v>6</v>
+      </c>
+      <c r="BD109">
+        <v>1.4</v>
+      </c>
+      <c r="BE109">
+        <v>8</v>
+      </c>
+      <c r="BF109">
+        <v>3.75</v>
+      </c>
+      <c r="BG109">
+        <v>1.38</v>
+      </c>
+      <c r="BH109">
+        <v>2.8</v>
+      </c>
+      <c r="BI109">
         <v>1.52</v>
       </c>
-      <c r="AF109">
-        <v>2.35</v>
-      </c>
-      <c r="AG109">
-        <v>2.88</v>
-      </c>
-      <c r="AH109">
-        <v>1.4</v>
-      </c>
-      <c r="AI109">
-        <v>2.25</v>
-      </c>
-      <c r="AJ109">
-        <v>1.57</v>
-      </c>
-      <c r="AK109">
-        <v>1.33</v>
-      </c>
-      <c r="AL109">
-        <v>1.33</v>
-      </c>
-      <c r="AM109">
-        <v>1.63</v>
-      </c>
-      <c r="AN109">
-        <v>1.57</v>
-      </c>
-      <c r="AO109">
-        <v>1</v>
-      </c>
-      <c r="AP109">
-        <v>1.75</v>
-      </c>
-      <c r="AQ109">
-        <v>0.86</v>
-      </c>
-      <c r="AR109">
-        <v>1.26</v>
-      </c>
-      <c r="AS109">
-        <v>1.24</v>
-      </c>
-      <c r="AT109">
-        <v>2.5</v>
-      </c>
-      <c r="AU109">
-        <v>3</v>
-      </c>
-      <c r="AV109">
-        <v>4</v>
-      </c>
-      <c r="AW109">
-        <v>2</v>
-      </c>
-      <c r="AX109">
-        <v>6</v>
-      </c>
-      <c r="AY109">
-        <v>5</v>
-      </c>
-      <c r="AZ109">
-        <v>10</v>
-      </c>
-      <c r="BA109">
-        <v>7</v>
-      </c>
-      <c r="BB109">
-        <v>4</v>
-      </c>
-      <c r="BC109">
-        <v>11</v>
-      </c>
-      <c r="BD109">
+      <c r="BJ109">
+        <v>2.33</v>
+      </c>
+      <c r="BK109">
         <v>1.95</v>
       </c>
-      <c r="BE109">
-        <v>7.1</v>
-      </c>
-      <c r="BF109">
-        <v>2.25</v>
-      </c>
-      <c r="BG109">
-        <v>1.45</v>
-      </c>
-      <c r="BH109">
-        <v>2.5</v>
-      </c>
-      <c r="BI109">
-        <v>1.82</v>
-      </c>
-      <c r="BJ109">
-        <v>1.98</v>
-      </c>
-      <c r="BK109">
-        <v>2.33</v>
-      </c>
       <c r="BL109">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="BM109">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="BN109">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="BO109">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="BP109">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23509,7 +23509,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7345214</v>
+        <v>7345213</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23524,28 +23524,28 @@
         <v>8</v>
       </c>
       <c r="G110" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H110" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
         <v>174</v>
@@ -23554,160 +23554,160 @@
         <v>102</v>
       </c>
       <c r="Q110">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R110">
+        <v>1.83</v>
+      </c>
+      <c r="S110">
+        <v>4.33</v>
+      </c>
+      <c r="T110">
+        <v>1.62</v>
+      </c>
+      <c r="U110">
+        <v>2.2</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>1.22</v>
+      </c>
+      <c r="X110">
+        <v>13</v>
+      </c>
+      <c r="Y110">
+        <v>1.04</v>
+      </c>
+      <c r="Z110">
+        <v>2.35</v>
+      </c>
+      <c r="AA110">
+        <v>3</v>
+      </c>
+      <c r="AB110">
+        <v>3.4</v>
+      </c>
+      <c r="AC110">
+        <v>1.11</v>
+      </c>
+      <c r="AD110">
+        <v>6.28</v>
+      </c>
+      <c r="AE110">
+        <v>1.52</v>
+      </c>
+      <c r="AF110">
+        <v>2.35</v>
+      </c>
+      <c r="AG110">
+        <v>2.88</v>
+      </c>
+      <c r="AH110">
+        <v>1.4</v>
+      </c>
+      <c r="AI110">
+        <v>2.25</v>
+      </c>
+      <c r="AJ110">
+        <v>1.57</v>
+      </c>
+      <c r="AK110">
+        <v>1.33</v>
+      </c>
+      <c r="AL110">
+        <v>1.33</v>
+      </c>
+      <c r="AM110">
+        <v>1.63</v>
+      </c>
+      <c r="AN110">
+        <v>1.57</v>
+      </c>
+      <c r="AO110">
+        <v>1</v>
+      </c>
+      <c r="AP110">
+        <v>1.75</v>
+      </c>
+      <c r="AQ110">
+        <v>0.86</v>
+      </c>
+      <c r="AR110">
+        <v>1.26</v>
+      </c>
+      <c r="AS110">
+        <v>1.24</v>
+      </c>
+      <c r="AT110">
+        <v>2.5</v>
+      </c>
+      <c r="AU110">
+        <v>3</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>2</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+      <c r="AY110">
+        <v>5</v>
+      </c>
+      <c r="AZ110">
+        <v>10</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>11</v>
+      </c>
+      <c r="BD110">
         <v>1.95</v>
       </c>
-      <c r="S110">
-        <v>5</v>
-      </c>
-      <c r="T110">
-        <v>1.44</v>
-      </c>
-      <c r="U110">
-        <v>2.63</v>
-      </c>
-      <c r="V110">
-        <v>3.25</v>
-      </c>
-      <c r="W110">
-        <v>1.33</v>
-      </c>
-      <c r="X110">
-        <v>9</v>
-      </c>
-      <c r="Y110">
-        <v>1.07</v>
-      </c>
-      <c r="Z110">
-        <v>2</v>
-      </c>
-      <c r="AA110">
-        <v>3.3</v>
-      </c>
-      <c r="AB110">
-        <v>3.9</v>
-      </c>
-      <c r="AC110">
-        <v>1.06</v>
-      </c>
-      <c r="AD110">
-        <v>8.6</v>
-      </c>
-      <c r="AE110">
-        <v>1.38</v>
-      </c>
-      <c r="AF110">
-        <v>2.94</v>
-      </c>
-      <c r="AG110">
-        <v>2.6</v>
-      </c>
-      <c r="AH110">
-        <v>1.48</v>
-      </c>
-      <c r="AI110">
-        <v>2.2</v>
-      </c>
-      <c r="AJ110">
-        <v>1.62</v>
-      </c>
-      <c r="AK110">
-        <v>1.3</v>
-      </c>
-      <c r="AL110">
-        <v>1.28</v>
-      </c>
-      <c r="AM110">
-        <v>1.7</v>
-      </c>
-      <c r="AN110">
+      <c r="BE110">
+        <v>7.1</v>
+      </c>
+      <c r="BF110">
+        <v>2.25</v>
+      </c>
+      <c r="BG110">
+        <v>1.45</v>
+      </c>
+      <c r="BH110">
+        <v>2.5</v>
+      </c>
+      <c r="BI110">
+        <v>1.82</v>
+      </c>
+      <c r="BJ110">
+        <v>1.98</v>
+      </c>
+      <c r="BK110">
+        <v>2.33</v>
+      </c>
+      <c r="BL110">
+        <v>1.52</v>
+      </c>
+      <c r="BM110">
+        <v>3.15</v>
+      </c>
+      <c r="BN110">
         <v>1.29</v>
       </c>
-      <c r="AO110">
-        <v>1.71</v>
-      </c>
-      <c r="AP110">
-        <v>1.5</v>
-      </c>
-      <c r="AQ110">
-        <v>1.5</v>
-      </c>
-      <c r="AR110">
-        <v>1.53</v>
-      </c>
-      <c r="AS110">
-        <v>1.51</v>
-      </c>
-      <c r="AT110">
-        <v>3.04</v>
-      </c>
-      <c r="AU110">
-        <v>8</v>
-      </c>
-      <c r="AV110">
-        <v>2</v>
-      </c>
-      <c r="AW110">
-        <v>10</v>
-      </c>
-      <c r="AX110">
-        <v>1</v>
-      </c>
-      <c r="AY110">
-        <v>18</v>
-      </c>
-      <c r="AZ110">
-        <v>3</v>
-      </c>
-      <c r="BA110">
-        <v>5</v>
-      </c>
-      <c r="BB110">
-        <v>1</v>
-      </c>
-      <c r="BC110">
-        <v>6</v>
-      </c>
-      <c r="BD110">
-        <v>1.4</v>
-      </c>
-      <c r="BE110">
-        <v>8</v>
-      </c>
-      <c r="BF110">
-        <v>3.75</v>
-      </c>
-      <c r="BG110">
-        <v>1.38</v>
-      </c>
-      <c r="BH110">
-        <v>2.8</v>
-      </c>
-      <c r="BI110">
-        <v>1.52</v>
-      </c>
-      <c r="BJ110">
-        <v>2.33</v>
-      </c>
-      <c r="BK110">
-        <v>1.95</v>
-      </c>
-      <c r="BL110">
-        <v>1.73</v>
-      </c>
-      <c r="BM110">
-        <v>2.45</v>
-      </c>
-      <c r="BN110">
-        <v>1.47</v>
-      </c>
       <c r="BO110">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="BP110">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="111" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,9 @@
     <t>['22', '56', '90+5']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -683,6 +686,9 @@
   </si>
   <si>
     <t>['22', '72']</t>
+  </si>
+  <si>
+    <t>['13', '34', '47', '55']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1309,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1509,7 +1515,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1793,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
         <v>1.38</v>
@@ -2127,7 +2133,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2333,7 +2339,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3032,7 +3038,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3157,7 +3163,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3363,7 +3369,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4599,7 +4605,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4805,7 +4811,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5423,7 +5429,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5835,7 +5841,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6041,7 +6047,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6325,7 +6331,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>1.13</v>
@@ -6453,7 +6459,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6946,7 +6952,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -7071,7 +7077,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7277,7 +7283,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7483,7 +7489,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7689,7 +7695,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7770,7 +7776,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>2.04</v>
@@ -8179,7 +8185,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ35">
         <v>0.63</v>
@@ -9131,7 +9137,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9955,7 +9961,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10573,7 +10579,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10779,7 +10785,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -11809,7 +11815,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11887,7 +11893,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>0.86</v>
@@ -12015,7 +12021,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12508,7 +12514,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR56">
         <v>1.36</v>
@@ -13045,7 +13051,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13251,7 +13257,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13663,7 +13669,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -13950,7 +13956,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14281,7 +14287,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14359,7 +14365,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ65">
         <v>1.75</v>
@@ -14693,7 +14699,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14899,7 +14905,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15311,7 +15317,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15517,7 +15523,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16135,7 +16141,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16216,7 +16222,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ74">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR74">
         <v>1.52</v>
@@ -16341,7 +16347,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16547,7 +16553,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16753,7 +16759,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17165,7 +17171,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17371,7 +17377,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17655,7 +17661,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
         <v>2.13</v>
@@ -17783,7 +17789,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17989,7 +17995,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18891,7 +18897,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87">
         <v>1.75</v>
@@ -19225,7 +19231,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19637,7 +19643,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19924,7 +19930,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.23</v>
@@ -20049,7 +20055,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20255,7 +20261,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21160,7 +21166,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR98">
         <v>1.38</v>
@@ -21285,7 +21291,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21491,7 +21497,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21775,7 +21781,7 @@
         <v>1.43</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
         <v>1.25</v>
@@ -21903,7 +21909,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22521,7 +22527,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22727,7 +22733,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22933,7 +22939,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23139,7 +23145,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -24120,6 +24126,212 @@
       </c>
       <c r="BP112">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7345223</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45506.83333333334</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" t="s">
+        <v>93</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113" t="s">
+        <v>177</v>
+      </c>
+      <c r="P113" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q113">
+        <v>3.5</v>
+      </c>
+      <c r="R113">
+        <v>1.83</v>
+      </c>
+      <c r="S113">
+        <v>4</v>
+      </c>
+      <c r="T113">
+        <v>1.6</v>
+      </c>
+      <c r="U113">
+        <v>2.2</v>
+      </c>
+      <c r="V113">
+        <v>3.75</v>
+      </c>
+      <c r="W113">
+        <v>1.22</v>
+      </c>
+      <c r="X113">
+        <v>13</v>
+      </c>
+      <c r="Y113">
+        <v>1.04</v>
+      </c>
+      <c r="Z113">
+        <v>2.63</v>
+      </c>
+      <c r="AA113">
+        <v>2.88</v>
+      </c>
+      <c r="AB113">
+        <v>3.1</v>
+      </c>
+      <c r="AC113">
+        <v>1.12</v>
+      </c>
+      <c r="AD113">
+        <v>5.75</v>
+      </c>
+      <c r="AE113">
+        <v>1.55</v>
+      </c>
+      <c r="AF113">
+        <v>2.4</v>
+      </c>
+      <c r="AG113">
+        <v>3.1</v>
+      </c>
+      <c r="AH113">
+        <v>1.36</v>
+      </c>
+      <c r="AI113">
+        <v>2.25</v>
+      </c>
+      <c r="AJ113">
+        <v>1.57</v>
+      </c>
+      <c r="AK113">
+        <v>1.35</v>
+      </c>
+      <c r="AL113">
+        <v>1.38</v>
+      </c>
+      <c r="AM113">
+        <v>1.48</v>
+      </c>
+      <c r="AN113">
+        <v>1.38</v>
+      </c>
+      <c r="AO113">
+        <v>1.5</v>
+      </c>
+      <c r="AP113">
+        <v>1.22</v>
+      </c>
+      <c r="AQ113">
+        <v>1.67</v>
+      </c>
+      <c r="AR113">
+        <v>1.44</v>
+      </c>
+      <c r="AS113">
+        <v>1.73</v>
+      </c>
+      <c r="AT113">
+        <v>3.17</v>
+      </c>
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
+        <v>6</v>
+      </c>
+      <c r="AW113">
+        <v>5</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>9</v>
+      </c>
+      <c r="AZ113">
+        <v>10</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>1</v>
+      </c>
+      <c r="BC113">
+        <v>4</v>
+      </c>
+      <c r="BD113">
+        <v>1.87</v>
+      </c>
+      <c r="BE113">
+        <v>7.3</v>
+      </c>
+      <c r="BF113">
+        <v>2.39</v>
+      </c>
+      <c r="BG113">
+        <v>1.48</v>
+      </c>
+      <c r="BH113">
+        <v>2.45</v>
+      </c>
+      <c r="BI113">
+        <v>1.9</v>
+      </c>
+      <c r="BJ113">
+        <v>1.9</v>
+      </c>
+      <c r="BK113">
+        <v>2.4</v>
+      </c>
+      <c r="BL113">
+        <v>1.49</v>
+      </c>
+      <c r="BM113">
+        <v>3.3</v>
+      </c>
+      <c r="BN113">
+        <v>1.28</v>
+      </c>
+      <c r="BO113">
+        <v>4.7</v>
+      </c>
+      <c r="BP113">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,12 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['22', '56', '59']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -620,9 +626,6 @@
   </si>
   <si>
     <t>['8', '57']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
   </si>
   <si>
     <t>['36']</t>
@@ -1050,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1312,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1390,7 +1393,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1515,7 +1518,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1593,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -2005,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2133,7 +2136,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2211,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2339,7 +2342,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2417,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ7">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2832,7 +2835,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3163,7 +3166,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3244,7 +3247,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3369,7 +3372,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3862,7 +3865,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4274,7 +4277,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>0.93</v>
@@ -4605,7 +4608,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4683,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -4811,7 +4814,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4889,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>2.13</v>
@@ -5304,7 +5307,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR21">
         <v>1.03</v>
@@ -5429,7 +5432,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5510,7 +5513,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ22">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR22">
         <v>0.71</v>
@@ -5713,7 +5716,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ23">
         <v>1.63</v>
@@ -5841,7 +5844,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6047,7 +6050,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6125,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ25">
         <v>1.5</v>
@@ -6459,7 +6462,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6743,10 +6746,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -6949,7 +6952,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ29">
         <v>1.22</v>
@@ -7077,7 +7080,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7283,7 +7286,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7364,7 +7367,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7489,7 +7492,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7695,7 +7698,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7979,7 +7982,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>1.63</v>
@@ -8188,7 +8191,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ35">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR35">
         <v>1.3</v>
@@ -8394,7 +8397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR36">
         <v>1.48</v>
@@ -8597,10 +8600,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>1.37</v>
@@ -9137,7 +9140,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9215,10 +9218,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR40">
         <v>1.09</v>
@@ -9833,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ43">
         <v>1.13</v>
@@ -9961,7 +9964,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10039,7 +10042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ44">
         <v>1.63</v>
@@ -10248,7 +10251,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -10579,7 +10582,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10660,7 +10663,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ47">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR47">
         <v>1.05</v>
@@ -10785,7 +10788,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -11275,7 +11278,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11481,7 +11484,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ51">
         <v>1.25</v>
@@ -11687,10 +11690,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR52">
         <v>1.19</v>
@@ -11815,7 +11818,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11896,7 +11899,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.79</v>
@@ -12021,7 +12024,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12102,7 +12105,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ54">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12717,7 +12720,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>1.13</v>
@@ -12923,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>0.13</v>
@@ -13051,7 +13054,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13129,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ59">
         <v>0.75</v>
@@ -13257,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13669,7 +13672,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14162,7 +14165,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -14287,7 +14290,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14368,7 +14371,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR65">
         <v>1.34</v>
@@ -14574,7 +14577,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR66">
         <v>1.28</v>
@@ -14699,7 +14702,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14777,7 +14780,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -14905,7 +14908,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14986,7 +14989,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.68</v>
@@ -15189,7 +15192,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69">
         <v>1.75</v>
@@ -15317,7 +15320,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15398,7 +15401,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ70">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70">
         <v>1.69</v>
@@ -15523,7 +15526,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15601,7 +15604,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16013,10 +16016,10 @@
         <v>1.2</v>
       </c>
       <c r="AP73">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR73">
         <v>1.12</v>
@@ -16141,7 +16144,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16347,7 +16350,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16553,7 +16556,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16759,7 +16762,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16837,10 +16840,10 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ77">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17043,10 +17046,10 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR78">
         <v>1.79</v>
@@ -17171,7 +17174,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17377,7 +17380,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17789,7 +17792,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17995,7 +17998,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18073,7 +18076,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18279,10 +18282,10 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ84">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR84">
         <v>1.22</v>
@@ -18488,7 +18491,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -18694,7 +18697,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR86">
         <v>1.51</v>
@@ -19103,7 +19106,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ88">
         <v>0.63</v>
@@ -19231,7 +19234,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19309,10 +19312,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ89">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19518,7 +19521,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19643,7 +19646,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19721,7 +19724,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ91">
         <v>1.63</v>
@@ -19927,7 +19930,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20055,7 +20058,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20136,7 +20139,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR93">
         <v>1.15</v>
@@ -20261,7 +20264,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20548,7 +20551,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -20960,7 +20963,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR97">
         <v>1.13</v>
@@ -21163,7 +21166,7 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ98">
         <v>1.22</v>
@@ -21291,7 +21294,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21372,7 +21375,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ99">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -21497,7 +21500,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21578,7 +21581,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ100">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -21909,7 +21912,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -21987,7 +21990,7 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ102">
         <v>2.13</v>
@@ -22399,7 +22402,7 @@
         <v>1.33</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
         <v>1.5</v>
@@ -22527,7 +22530,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22733,7 +22736,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22811,7 +22814,7 @@
         <v>1.14</v>
       </c>
       <c r="AP106">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ106">
         <v>1.38</v>
@@ -22939,7 +22942,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23145,7 +23148,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23226,7 +23229,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ108">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR108">
         <v>1.03</v>
@@ -23429,7 +23432,7 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ109">
         <v>1.5</v>
@@ -23638,7 +23641,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR110">
         <v>1.26</v>
@@ -24175,7 +24178,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24331,6 +24334,1036 @@
         <v>4.7</v>
       </c>
       <c r="BP113">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7345218</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45507.625</v>
+      </c>
+      <c r="F114">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>178</v>
+      </c>
+      <c r="P114" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q114">
+        <v>3.1</v>
+      </c>
+      <c r="R114">
+        <v>1.83</v>
+      </c>
+      <c r="S114">
+        <v>4.75</v>
+      </c>
+      <c r="T114">
+        <v>1.6</v>
+      </c>
+      <c r="U114">
+        <v>2.2</v>
+      </c>
+      <c r="V114">
+        <v>3.8</v>
+      </c>
+      <c r="W114">
+        <v>1.22</v>
+      </c>
+      <c r="X114">
+        <v>8</v>
+      </c>
+      <c r="Y114">
+        <v>1.05</v>
+      </c>
+      <c r="Z114">
+        <v>2.2</v>
+      </c>
+      <c r="AA114">
+        <v>2.9</v>
+      </c>
+      <c r="AB114">
+        <v>3.9</v>
+      </c>
+      <c r="AC114">
+        <v>1.11</v>
+      </c>
+      <c r="AD114">
+        <v>6.25</v>
+      </c>
+      <c r="AE114">
+        <v>1.55</v>
+      </c>
+      <c r="AF114">
+        <v>2.4</v>
+      </c>
+      <c r="AG114">
+        <v>3.1</v>
+      </c>
+      <c r="AH114">
+        <v>1.36</v>
+      </c>
+      <c r="AI114">
+        <v>2.5</v>
+      </c>
+      <c r="AJ114">
+        <v>1.5</v>
+      </c>
+      <c r="AK114">
+        <v>1.33</v>
+      </c>
+      <c r="AL114">
+        <v>1.33</v>
+      </c>
+      <c r="AM114">
+        <v>1.53</v>
+      </c>
+      <c r="AN114">
+        <v>0.86</v>
+      </c>
+      <c r="AO114">
+        <v>1.5</v>
+      </c>
+      <c r="AP114">
+        <v>1.13</v>
+      </c>
+      <c r="AQ114">
+        <v>1.33</v>
+      </c>
+      <c r="AR114">
+        <v>1.24</v>
+      </c>
+      <c r="AS114">
+        <v>1.59</v>
+      </c>
+      <c r="AT114">
+        <v>2.83</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>4</v>
+      </c>
+      <c r="AX114">
+        <v>3</v>
+      </c>
+      <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>6</v>
+      </c>
+      <c r="BA114">
+        <v>2</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>8</v>
+      </c>
+      <c r="BD114">
+        <v>1.92</v>
+      </c>
+      <c r="BE114">
+        <v>7.3</v>
+      </c>
+      <c r="BF114">
+        <v>2.32</v>
+      </c>
+      <c r="BG114">
+        <v>1.5</v>
+      </c>
+      <c r="BH114">
+        <v>2.35</v>
+      </c>
+      <c r="BI114">
+        <v>1.98</v>
+      </c>
+      <c r="BJ114">
+        <v>1.82</v>
+      </c>
+      <c r="BK114">
+        <v>2.5</v>
+      </c>
+      <c r="BL114">
+        <v>1.46</v>
+      </c>
+      <c r="BM114">
+        <v>3.45</v>
+      </c>
+      <c r="BN114">
+        <v>1.26</v>
+      </c>
+      <c r="BO114">
+        <v>4.9</v>
+      </c>
+      <c r="BP114">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7345229</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45507.625</v>
+      </c>
+      <c r="F115">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>96</v>
+      </c>
+      <c r="H115" t="s">
+        <v>85</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>179</v>
+      </c>
+      <c r="P115" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q115">
+        <v>2.63</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>5</v>
+      </c>
+      <c r="T115">
+        <v>1.55</v>
+      </c>
+      <c r="U115">
+        <v>2.3</v>
+      </c>
+      <c r="V115">
+        <v>3.55</v>
+      </c>
+      <c r="W115">
+        <v>1.25</v>
+      </c>
+      <c r="X115">
+        <v>8</v>
+      </c>
+      <c r="Y115">
+        <v>1.05</v>
+      </c>
+      <c r="Z115">
+        <v>1.91</v>
+      </c>
+      <c r="AA115">
+        <v>3.25</v>
+      </c>
+      <c r="AB115">
+        <v>4.33</v>
+      </c>
+      <c r="AC115">
+        <v>1.1</v>
+      </c>
+      <c r="AD115">
+        <v>6.5</v>
+      </c>
+      <c r="AE115">
+        <v>1.5</v>
+      </c>
+      <c r="AF115">
+        <v>2.55</v>
+      </c>
+      <c r="AG115">
+        <v>2.35</v>
+      </c>
+      <c r="AH115">
+        <v>1.57</v>
+      </c>
+      <c r="AI115">
+        <v>2.1</v>
+      </c>
+      <c r="AJ115">
+        <v>1.67</v>
+      </c>
+      <c r="AK115">
+        <v>1.18</v>
+      </c>
+      <c r="AL115">
+        <v>1.28</v>
+      </c>
+      <c r="AM115">
+        <v>1.85</v>
+      </c>
+      <c r="AN115">
+        <v>1.75</v>
+      </c>
+      <c r="AO115">
+        <v>0.63</v>
+      </c>
+      <c r="AP115">
+        <v>1.89</v>
+      </c>
+      <c r="AQ115">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR115">
+        <v>1.13</v>
+      </c>
+      <c r="AS115">
+        <v>1.38</v>
+      </c>
+      <c r="AT115">
+        <v>2.51</v>
+      </c>
+      <c r="AU115">
+        <v>6</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
+        <v>8</v>
+      </c>
+      <c r="AX115">
+        <v>5</v>
+      </c>
+      <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
+        <v>7</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>10</v>
+      </c>
+      <c r="BD115">
+        <v>1.6</v>
+      </c>
+      <c r="BE115">
+        <v>7.5</v>
+      </c>
+      <c r="BF115">
+        <v>3.01</v>
+      </c>
+      <c r="BG115">
+        <v>1.27</v>
+      </c>
+      <c r="BH115">
+        <v>3.35</v>
+      </c>
+      <c r="BI115">
+        <v>1.49</v>
+      </c>
+      <c r="BJ115">
+        <v>2.4</v>
+      </c>
+      <c r="BK115">
+        <v>2.25</v>
+      </c>
+      <c r="BL115">
+        <v>1.9</v>
+      </c>
+      <c r="BM115">
+        <v>2.38</v>
+      </c>
+      <c r="BN115">
+        <v>1.5</v>
+      </c>
+      <c r="BO115">
+        <v>3.2</v>
+      </c>
+      <c r="BP115">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7345227</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45507.71875</v>
+      </c>
+      <c r="F116">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>90</v>
+      </c>
+      <c r="H116" t="s">
+        <v>86</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>146</v>
+      </c>
+      <c r="P116" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q116">
+        <v>3.1</v>
+      </c>
+      <c r="R116">
+        <v>1.91</v>
+      </c>
+      <c r="S116">
+        <v>4.33</v>
+      </c>
+      <c r="T116">
+        <v>1.58</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>3.6</v>
+      </c>
+      <c r="W116">
+        <v>1.25</v>
+      </c>
+      <c r="X116">
+        <v>12</v>
+      </c>
+      <c r="Y116">
+        <v>1.04</v>
+      </c>
+      <c r="Z116">
+        <v>2.25</v>
+      </c>
+      <c r="AA116">
+        <v>3</v>
+      </c>
+      <c r="AB116">
+        <v>3.7</v>
+      </c>
+      <c r="AC116">
+        <v>1.1</v>
+      </c>
+      <c r="AD116">
+        <v>7.25</v>
+      </c>
+      <c r="AE116">
+        <v>1.5</v>
+      </c>
+      <c r="AF116">
+        <v>2.45</v>
+      </c>
+      <c r="AG116">
+        <v>2.7</v>
+      </c>
+      <c r="AH116">
+        <v>1.44</v>
+      </c>
+      <c r="AI116">
+        <v>2.2</v>
+      </c>
+      <c r="AJ116">
+        <v>1.62</v>
+      </c>
+      <c r="AK116">
+        <v>1.23</v>
+      </c>
+      <c r="AL116">
+        <v>1.3</v>
+      </c>
+      <c r="AM116">
+        <v>1.75</v>
+      </c>
+      <c r="AN116">
+        <v>1.88</v>
+      </c>
+      <c r="AO116">
+        <v>1.75</v>
+      </c>
+      <c r="AP116">
+        <v>1.78</v>
+      </c>
+      <c r="AQ116">
+        <v>1.67</v>
+      </c>
+      <c r="AR116">
+        <v>1.36</v>
+      </c>
+      <c r="AS116">
+        <v>1.15</v>
+      </c>
+      <c r="AT116">
+        <v>2.51</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>3</v>
+      </c>
+      <c r="AX116">
+        <v>7</v>
+      </c>
+      <c r="AY116">
+        <v>6</v>
+      </c>
+      <c r="AZ116">
+        <v>12</v>
+      </c>
+      <c r="BA116">
+        <v>2</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>5</v>
+      </c>
+      <c r="BD116">
+        <v>1.62</v>
+      </c>
+      <c r="BE116">
+        <v>8.1</v>
+      </c>
+      <c r="BF116">
+        <v>2.86</v>
+      </c>
+      <c r="BG116">
+        <v>1.36</v>
+      </c>
+      <c r="BH116">
+        <v>2.85</v>
+      </c>
+      <c r="BI116">
+        <v>1.7</v>
+      </c>
+      <c r="BJ116">
+        <v>2.05</v>
+      </c>
+      <c r="BK116">
+        <v>2.38</v>
+      </c>
+      <c r="BL116">
+        <v>1.7</v>
+      </c>
+      <c r="BM116">
+        <v>2.75</v>
+      </c>
+      <c r="BN116">
+        <v>1.38</v>
+      </c>
+      <c r="BO116">
+        <v>3.85</v>
+      </c>
+      <c r="BP116">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7345224</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45507.80208333334</v>
+      </c>
+      <c r="F117">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s">
+        <v>92</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>102</v>
+      </c>
+      <c r="P117" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q117">
+        <v>2.75</v>
+      </c>
+      <c r="R117">
+        <v>1.83</v>
+      </c>
+      <c r="S117">
+        <v>5.5</v>
+      </c>
+      <c r="T117">
+        <v>1.65</v>
+      </c>
+      <c r="U117">
+        <v>2.1</v>
+      </c>
+      <c r="V117">
+        <v>4</v>
+      </c>
+      <c r="W117">
+        <v>1.2</v>
+      </c>
+      <c r="X117">
+        <v>12</v>
+      </c>
+      <c r="Y117">
+        <v>1.01</v>
+      </c>
+      <c r="Z117">
+        <v>1.91</v>
+      </c>
+      <c r="AA117">
+        <v>3</v>
+      </c>
+      <c r="AB117">
+        <v>5</v>
+      </c>
+      <c r="AC117">
+        <v>1.13</v>
+      </c>
+      <c r="AD117">
+        <v>5.75</v>
+      </c>
+      <c r="AE117">
+        <v>1.6</v>
+      </c>
+      <c r="AF117">
+        <v>2.2</v>
+      </c>
+      <c r="AG117">
+        <v>3.1</v>
+      </c>
+      <c r="AH117">
+        <v>1.36</v>
+      </c>
+      <c r="AI117">
+        <v>2.63</v>
+      </c>
+      <c r="AJ117">
+        <v>1.44</v>
+      </c>
+      <c r="AK117">
+        <v>1.3</v>
+      </c>
+      <c r="AL117">
+        <v>1.33</v>
+      </c>
+      <c r="AM117">
+        <v>1.6</v>
+      </c>
+      <c r="AN117">
+        <v>0.88</v>
+      </c>
+      <c r="AO117">
+        <v>0.86</v>
+      </c>
+      <c r="AP117">
+        <v>0.89</v>
+      </c>
+      <c r="AQ117">
+        <v>0.88</v>
+      </c>
+      <c r="AR117">
+        <v>1.13</v>
+      </c>
+      <c r="AS117">
+        <v>1.51</v>
+      </c>
+      <c r="AT117">
+        <v>2.64</v>
+      </c>
+      <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>11</v>
+      </c>
+      <c r="AZ117">
+        <v>9</v>
+      </c>
+      <c r="BA117">
+        <v>2</v>
+      </c>
+      <c r="BB117">
+        <v>7</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>1.62</v>
+      </c>
+      <c r="BE117">
+        <v>7.7</v>
+      </c>
+      <c r="BF117">
+        <v>2.91</v>
+      </c>
+      <c r="BG117">
+        <v>1.48</v>
+      </c>
+      <c r="BH117">
+        <v>2.45</v>
+      </c>
+      <c r="BI117">
+        <v>1.95</v>
+      </c>
+      <c r="BJ117">
+        <v>1.85</v>
+      </c>
+      <c r="BK117">
+        <v>2.4</v>
+      </c>
+      <c r="BL117">
+        <v>1.49</v>
+      </c>
+      <c r="BM117">
+        <v>3.3</v>
+      </c>
+      <c r="BN117">
+        <v>1.28</v>
+      </c>
+      <c r="BO117">
+        <v>4.7</v>
+      </c>
+      <c r="BP117">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7345221</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45507.85416666666</v>
+      </c>
+      <c r="F118">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>73</v>
+      </c>
+      <c r="H118" t="s">
+        <v>95</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>102</v>
+      </c>
+      <c r="P118" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q118">
+        <v>5</v>
+      </c>
+      <c r="R118">
+        <v>1.91</v>
+      </c>
+      <c r="S118">
+        <v>2.75</v>
+      </c>
+      <c r="T118">
+        <v>1.57</v>
+      </c>
+      <c r="U118">
+        <v>2.25</v>
+      </c>
+      <c r="V118">
+        <v>3.6</v>
+      </c>
+      <c r="W118">
+        <v>1.25</v>
+      </c>
+      <c r="X118">
+        <v>8</v>
+      </c>
+      <c r="Y118">
+        <v>1.05</v>
+      </c>
+      <c r="Z118">
+        <v>4.33</v>
+      </c>
+      <c r="AA118">
+        <v>3.2</v>
+      </c>
+      <c r="AB118">
+        <v>1.91</v>
+      </c>
+      <c r="AC118">
+        <v>1.1</v>
+      </c>
+      <c r="AD118">
+        <v>6.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.48</v>
+      </c>
+      <c r="AF118">
+        <v>2.45</v>
+      </c>
+      <c r="AG118">
+        <v>2.7</v>
+      </c>
+      <c r="AH118">
+        <v>1.44</v>
+      </c>
+      <c r="AI118">
+        <v>2.25</v>
+      </c>
+      <c r="AJ118">
+        <v>1.57</v>
+      </c>
+      <c r="AK118">
+        <v>1.45</v>
+      </c>
+      <c r="AL118">
+        <v>1.3</v>
+      </c>
+      <c r="AM118">
+        <v>1.42</v>
+      </c>
+      <c r="AN118">
+        <v>2.25</v>
+      </c>
+      <c r="AO118">
+        <v>2</v>
+      </c>
+      <c r="AP118">
+        <v>2.11</v>
+      </c>
+      <c r="AQ118">
+        <v>1.89</v>
+      </c>
+      <c r="AR118">
+        <v>1.2</v>
+      </c>
+      <c r="AS118">
+        <v>1.65</v>
+      </c>
+      <c r="AT118">
+        <v>2.85</v>
+      </c>
+      <c r="AU118">
+        <v>4</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>14</v>
+      </c>
+      <c r="AX118">
+        <v>10</v>
+      </c>
+      <c r="AY118">
+        <v>18</v>
+      </c>
+      <c r="AZ118">
+        <v>14</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>3</v>
+      </c>
+      <c r="BC118">
+        <v>7</v>
+      </c>
+      <c r="BD118">
+        <v>2.47</v>
+      </c>
+      <c r="BE118">
+        <v>7.1</v>
+      </c>
+      <c r="BF118">
+        <v>1.84</v>
+      </c>
+      <c r="BG118">
+        <v>1.48</v>
+      </c>
+      <c r="BH118">
+        <v>2.45</v>
+      </c>
+      <c r="BI118">
+        <v>1.95</v>
+      </c>
+      <c r="BJ118">
+        <v>1.85</v>
+      </c>
+      <c r="BK118">
+        <v>2.4</v>
+      </c>
+      <c r="BL118">
+        <v>1.49</v>
+      </c>
+      <c r="BM118">
+        <v>3.3</v>
+      </c>
+      <c r="BN118">
+        <v>1.28</v>
+      </c>
+      <c r="BO118">
+        <v>4.7</v>
+      </c>
+      <c r="BP118">
         <v>1.14</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['22', '56', '59']</t>
   </si>
   <si>
+    <t>['56', '69', '90']</t>
+  </si>
+  <si>
+    <t>['49', '54']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -692,6 +698,12 @@
   </si>
   <si>
     <t>['13', '34', '47', '55']</t>
+  </si>
+  <si>
+    <t>['38', '73']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1324,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1518,7 +1530,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2136,7 +2148,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2217,7 +2229,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2342,7 +2354,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2626,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ8">
         <v>0.13</v>
@@ -3038,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.67</v>
@@ -3166,7 +3178,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3244,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>1.89</v>
@@ -3372,7 +3384,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3450,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3656,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4068,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4274,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4480,10 +4492,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>2.66</v>
@@ -4608,7 +4620,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4814,7 +4826,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4895,7 +4907,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.17</v>
@@ -5098,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5432,7 +5444,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5719,7 +5731,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ23">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR23">
         <v>1.41</v>
@@ -5844,7 +5856,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5925,7 +5937,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>0.5600000000000001</v>
@@ -6050,7 +6062,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6131,7 +6143,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6462,7 +6474,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6543,7 +6555,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.21</v>
@@ -7080,7 +7092,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7286,7 +7298,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7364,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.89</v>
@@ -7492,7 +7504,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7570,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>0.13</v>
@@ -7698,7 +7710,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7776,7 +7788,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7985,7 +7997,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR34">
         <v>1.51</v>
@@ -8394,7 +8406,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ36">
         <v>1.78</v>
@@ -8806,10 +8818,10 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -9140,7 +9152,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9424,10 +9436,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9630,7 +9642,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42">
         <v>1.38</v>
@@ -9964,7 +9976,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10045,7 +10057,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR44">
         <v>1.06</v>
@@ -10248,7 +10260,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10457,7 +10469,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10582,7 +10594,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10788,7 +10800,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -10869,7 +10881,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11072,10 +11084,10 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11487,7 +11499,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
         <v>1.56</v>
@@ -11818,7 +11830,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12024,7 +12036,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12102,7 +12114,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
         <v>2.11</v>
@@ -12308,10 +12320,10 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ55">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>0.9399999999999999</v>
@@ -13054,7 +13066,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13260,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13341,7 +13353,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>1.73</v>
@@ -13547,7 +13559,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ61">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13672,7 +13684,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -13750,10 +13762,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR62">
         <v>1.21</v>
@@ -13956,7 +13968,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -14162,7 +14174,7 @@
         <v>2.5</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>1.89</v>
@@ -14290,7 +14302,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14574,7 +14586,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66">
         <v>1.89</v>
@@ -14908,7 +14920,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14986,7 +14998,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -15195,7 +15207,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ69">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR69">
         <v>1.39</v>
@@ -15320,7 +15332,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15398,7 +15410,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ70">
         <v>0.5600000000000001</v>
@@ -15526,7 +15538,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15607,7 +15619,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15810,7 +15822,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ72">
         <v>1.25</v>
@@ -16144,7 +16156,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16222,7 +16234,7 @@
         <v>1.2</v>
       </c>
       <c r="AP74">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ74">
         <v>1.22</v>
@@ -16350,7 +16362,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16428,7 +16440,7 @@
         <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
         <v>1.13</v>
@@ -16556,7 +16568,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16637,7 +16649,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>1.36</v>
@@ -16762,7 +16774,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17174,7 +17186,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17255,7 +17267,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -17380,7 +17392,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17458,10 +17470,10 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR80">
         <v>1.92</v>
@@ -17667,7 +17679,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.85</v>
@@ -17792,7 +17804,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17998,7 +18010,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18079,7 +18091,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR83">
         <v>1.27</v>
@@ -18903,7 +18915,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19109,7 +19121,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ88">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR88">
         <v>1.06</v>
@@ -19234,7 +19246,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19518,7 +19530,7 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
         <v>1.89</v>
@@ -19646,7 +19658,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19727,7 +19739,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -20058,7 +20070,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20264,7 +20276,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20342,10 +20354,10 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
         <v>1.5</v>
@@ -20548,7 +20560,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20754,7 +20766,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>0.13</v>
@@ -20960,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
         <v>0.89</v>
@@ -21294,7 +21306,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21500,7 +21512,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21912,7 +21924,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -21993,7 +22005,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ102">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.71</v>
@@ -22196,10 +22208,10 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR103">
         <v>1.83</v>
@@ -22405,7 +22417,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR104">
         <v>1.17</v>
@@ -22530,7 +22542,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22608,10 +22620,10 @@
         <v>1.43</v>
       </c>
       <c r="AP105">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ105">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR105">
         <v>1.29</v>
@@ -22736,7 +22748,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22942,7 +22954,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23020,7 +23032,7 @@
         <v>1.29</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>1.13</v>
@@ -23148,7 +23160,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23435,7 +23447,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23638,7 +23650,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110">
         <v>1.13</v>
@@ -23844,7 +23856,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>1.13</v>
@@ -24050,7 +24062,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ112">
         <v>0.75</v>
@@ -24178,7 +24190,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24796,7 +24808,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25365,6 +25377,1036 @@
       </c>
       <c r="BP118">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7345219</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45508.625</v>
+      </c>
+      <c r="F119">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>70</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>102</v>
+      </c>
+      <c r="P119" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <v>1.73</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>1.62</v>
+      </c>
+      <c r="U119">
+        <v>2.19</v>
+      </c>
+      <c r="V119">
+        <v>3.9</v>
+      </c>
+      <c r="W119">
+        <v>1.22</v>
+      </c>
+      <c r="X119">
+        <v>12</v>
+      </c>
+      <c r="Y119">
+        <v>1.03</v>
+      </c>
+      <c r="Z119">
+        <v>2.9</v>
+      </c>
+      <c r="AA119">
+        <v>2.63</v>
+      </c>
+      <c r="AB119">
+        <v>2.9</v>
+      </c>
+      <c r="AC119">
+        <v>1.12</v>
+      </c>
+      <c r="AD119">
+        <v>5.87</v>
+      </c>
+      <c r="AE119">
+        <v>1.58</v>
+      </c>
+      <c r="AF119">
+        <v>2.25</v>
+      </c>
+      <c r="AG119">
+        <v>3.5</v>
+      </c>
+      <c r="AH119">
+        <v>1.3</v>
+      </c>
+      <c r="AI119">
+        <v>2.5</v>
+      </c>
+      <c r="AJ119">
+        <v>1.5</v>
+      </c>
+      <c r="AK119">
+        <v>1.44</v>
+      </c>
+      <c r="AL119">
+        <v>1.36</v>
+      </c>
+      <c r="AM119">
+        <v>1.47</v>
+      </c>
+      <c r="AN119">
+        <v>1.25</v>
+      </c>
+      <c r="AO119">
+        <v>1.75</v>
+      </c>
+      <c r="AP119">
+        <v>1.22</v>
+      </c>
+      <c r="AQ119">
+        <v>1.67</v>
+      </c>
+      <c r="AR119">
+        <v>1.12</v>
+      </c>
+      <c r="AS119">
+        <v>1.21</v>
+      </c>
+      <c r="AT119">
+        <v>2.33</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>5</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>9</v>
+      </c>
+      <c r="AZ119">
+        <v>9</v>
+      </c>
+      <c r="BA119">
+        <v>7</v>
+      </c>
+      <c r="BB119">
+        <v>7</v>
+      </c>
+      <c r="BC119">
+        <v>14</v>
+      </c>
+      <c r="BD119">
+        <v>1.95</v>
+      </c>
+      <c r="BE119">
+        <v>7.1</v>
+      </c>
+      <c r="BF119">
+        <v>2.25</v>
+      </c>
+      <c r="BG119">
+        <v>1.29</v>
+      </c>
+      <c r="BH119">
+        <v>3.14</v>
+      </c>
+      <c r="BI119">
+        <v>1.49</v>
+      </c>
+      <c r="BJ119">
+        <v>2.4</v>
+      </c>
+      <c r="BK119">
+        <v>1.95</v>
+      </c>
+      <c r="BL119">
+        <v>1.85</v>
+      </c>
+      <c r="BM119">
+        <v>2.38</v>
+      </c>
+      <c r="BN119">
+        <v>1.5</v>
+      </c>
+      <c r="BO119">
+        <v>3.2</v>
+      </c>
+      <c r="BP119">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7345220</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45508.625</v>
+      </c>
+      <c r="F120">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>83</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>102</v>
+      </c>
+      <c r="P120" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q120">
+        <v>4.5</v>
+      </c>
+      <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>2.88</v>
+      </c>
+      <c r="T120">
+        <v>1.42</v>
+      </c>
+      <c r="U120">
+        <v>2.68</v>
+      </c>
+      <c r="V120">
+        <v>3.04</v>
+      </c>
+      <c r="W120">
+        <v>1.34</v>
+      </c>
+      <c r="X120">
+        <v>7.73</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>3.8</v>
+      </c>
+      <c r="AA120">
+        <v>3.1</v>
+      </c>
+      <c r="AB120">
+        <v>2.1</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>8.91</v>
+      </c>
+      <c r="AE120">
+        <v>1.36</v>
+      </c>
+      <c r="AF120">
+        <v>3.04</v>
+      </c>
+      <c r="AG120">
+        <v>2.4</v>
+      </c>
+      <c r="AH120">
+        <v>1.53</v>
+      </c>
+      <c r="AI120">
+        <v>2.12</v>
+      </c>
+      <c r="AJ120">
+        <v>1.84</v>
+      </c>
+      <c r="AK120">
+        <v>1.83</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.26</v>
+      </c>
+      <c r="AN120">
+        <v>2.13</v>
+      </c>
+      <c r="AO120">
+        <v>1.63</v>
+      </c>
+      <c r="AP120">
+        <v>2</v>
+      </c>
+      <c r="AQ120">
+        <v>1.56</v>
+      </c>
+      <c r="AR120">
+        <v>1.57</v>
+      </c>
+      <c r="AS120">
+        <v>1.97</v>
+      </c>
+      <c r="AT120">
+        <v>3.54</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>3</v>
+      </c>
+      <c r="AW120">
+        <v>4</v>
+      </c>
+      <c r="AX120">
+        <v>7</v>
+      </c>
+      <c r="AY120">
+        <v>6</v>
+      </c>
+      <c r="AZ120">
+        <v>10</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>7</v>
+      </c>
+      <c r="BC120">
+        <v>9</v>
+      </c>
+      <c r="BD120">
+        <v>2.05</v>
+      </c>
+      <c r="BE120">
+        <v>7.1</v>
+      </c>
+      <c r="BF120">
+        <v>2.13</v>
+      </c>
+      <c r="BG120">
+        <v>1.32</v>
+      </c>
+      <c r="BH120">
+        <v>3</v>
+      </c>
+      <c r="BI120">
+        <v>1.7</v>
+      </c>
+      <c r="BJ120">
+        <v>2.05</v>
+      </c>
+      <c r="BK120">
+        <v>2.05</v>
+      </c>
+      <c r="BL120">
+        <v>1.7</v>
+      </c>
+      <c r="BM120">
+        <v>2.63</v>
+      </c>
+      <c r="BN120">
+        <v>1.42</v>
+      </c>
+      <c r="BO120">
+        <v>3.6</v>
+      </c>
+      <c r="BP120">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7345226</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45508.72916666666</v>
+      </c>
+      <c r="F121">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>97</v>
+      </c>
+      <c r="H121" t="s">
+        <v>87</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>151</v>
+      </c>
+      <c r="P121" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q121">
+        <v>1.91</v>
+      </c>
+      <c r="R121">
+        <v>2.3</v>
+      </c>
+      <c r="S121">
+        <v>8.5</v>
+      </c>
+      <c r="T121">
+        <v>1.37</v>
+      </c>
+      <c r="U121">
+        <v>2.87</v>
+      </c>
+      <c r="V121">
+        <v>2.78</v>
+      </c>
+      <c r="W121">
+        <v>1.4</v>
+      </c>
+      <c r="X121">
+        <v>6.79</v>
+      </c>
+      <c r="Y121">
+        <v>1.08</v>
+      </c>
+      <c r="Z121">
+        <v>1.36</v>
+      </c>
+      <c r="AA121">
+        <v>4.5</v>
+      </c>
+      <c r="AB121">
+        <v>9.5</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>11</v>
+      </c>
+      <c r="AE121">
+        <v>1.29</v>
+      </c>
+      <c r="AF121">
+        <v>3.46</v>
+      </c>
+      <c r="AG121">
+        <v>2</v>
+      </c>
+      <c r="AH121">
+        <v>1.8</v>
+      </c>
+      <c r="AI121">
+        <v>2.38</v>
+      </c>
+      <c r="AJ121">
+        <v>1.53</v>
+      </c>
+      <c r="AK121">
+        <v>1.03</v>
+      </c>
+      <c r="AL121">
+        <v>1.14</v>
+      </c>
+      <c r="AM121">
+        <v>3.4</v>
+      </c>
+      <c r="AN121">
+        <v>1.5</v>
+      </c>
+      <c r="AO121">
+        <v>0.63</v>
+      </c>
+      <c r="AP121">
+        <v>1.44</v>
+      </c>
+      <c r="AQ121">
+        <v>0.67</v>
+      </c>
+      <c r="AR121">
+        <v>1.1</v>
+      </c>
+      <c r="AS121">
+        <v>1.27</v>
+      </c>
+      <c r="AT121">
+        <v>2.37</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>11</v>
+      </c>
+      <c r="AX121">
+        <v>10</v>
+      </c>
+      <c r="AY121">
+        <v>15</v>
+      </c>
+      <c r="AZ121">
+        <v>14</v>
+      </c>
+      <c r="BA121">
+        <v>11</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>13</v>
+      </c>
+      <c r="BD121">
+        <v>1.3</v>
+      </c>
+      <c r="BE121">
+        <v>9.9</v>
+      </c>
+      <c r="BF121">
+        <v>4.56</v>
+      </c>
+      <c r="BG121">
+        <v>1.36</v>
+      </c>
+      <c r="BH121">
+        <v>2.8</v>
+      </c>
+      <c r="BI121">
+        <v>1.7</v>
+      </c>
+      <c r="BJ121">
+        <v>2.05</v>
+      </c>
+      <c r="BK121">
+        <v>2.38</v>
+      </c>
+      <c r="BL121">
+        <v>1.7</v>
+      </c>
+      <c r="BM121">
+        <v>2.8</v>
+      </c>
+      <c r="BN121">
+        <v>1.37</v>
+      </c>
+      <c r="BO121">
+        <v>3.85</v>
+      </c>
+      <c r="BP121">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7345217</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45508.83333333334</v>
+      </c>
+      <c r="F122">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>5</v>
+      </c>
+      <c r="O122" t="s">
+        <v>180</v>
+      </c>
+      <c r="P122" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q122">
+        <v>2.6</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>1.45</v>
+      </c>
+      <c r="U122">
+        <v>2.59</v>
+      </c>
+      <c r="V122">
+        <v>3.24</v>
+      </c>
+      <c r="W122">
+        <v>1.3</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>1.05</v>
+      </c>
+      <c r="Z122">
+        <v>1.85</v>
+      </c>
+      <c r="AA122">
+        <v>3.6</v>
+      </c>
+      <c r="AB122">
+        <v>4.33</v>
+      </c>
+      <c r="AC122">
+        <v>1.06</v>
+      </c>
+      <c r="AD122">
+        <v>8.6</v>
+      </c>
+      <c r="AE122">
+        <v>1.4</v>
+      </c>
+      <c r="AF122">
+        <v>2.85</v>
+      </c>
+      <c r="AG122">
+        <v>2.3</v>
+      </c>
+      <c r="AH122">
+        <v>1.6</v>
+      </c>
+      <c r="AI122">
+        <v>2.1</v>
+      </c>
+      <c r="AJ122">
+        <v>1.67</v>
+      </c>
+      <c r="AK122">
+        <v>1.19</v>
+      </c>
+      <c r="AL122">
+        <v>1.25</v>
+      </c>
+      <c r="AM122">
+        <v>2.1</v>
+      </c>
+      <c r="AN122">
+        <v>1.5</v>
+      </c>
+      <c r="AO122">
+        <v>1.13</v>
+      </c>
+      <c r="AP122">
+        <v>1.67</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.39</v>
+      </c>
+      <c r="AS122">
+        <v>1.31</v>
+      </c>
+      <c r="AT122">
+        <v>2.7</v>
+      </c>
+      <c r="AU122">
+        <v>9</v>
+      </c>
+      <c r="AV122">
+        <v>8</v>
+      </c>
+      <c r="AW122">
+        <v>6</v>
+      </c>
+      <c r="AX122">
+        <v>5</v>
+      </c>
+      <c r="AY122">
+        <v>15</v>
+      </c>
+      <c r="AZ122">
+        <v>13</v>
+      </c>
+      <c r="BA122">
+        <v>4</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>4</v>
+      </c>
+      <c r="BD122">
+        <v>1.59</v>
+      </c>
+      <c r="BE122">
+        <v>7.8</v>
+      </c>
+      <c r="BF122">
+        <v>3</v>
+      </c>
+      <c r="BG122">
+        <v>1.36</v>
+      </c>
+      <c r="BH122">
+        <v>2.8</v>
+      </c>
+      <c r="BI122">
+        <v>1.7</v>
+      </c>
+      <c r="BJ122">
+        <v>2.05</v>
+      </c>
+      <c r="BK122">
+        <v>2.1</v>
+      </c>
+      <c r="BL122">
+        <v>1.64</v>
+      </c>
+      <c r="BM122">
+        <v>2.8</v>
+      </c>
+      <c r="BN122">
+        <v>1.37</v>
+      </c>
+      <c r="BO122">
+        <v>3.85</v>
+      </c>
+      <c r="BP122">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7345225</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45508.83333333334</v>
+      </c>
+      <c r="F123">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>81</v>
+      </c>
+      <c r="H123" t="s">
+        <v>84</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>181</v>
+      </c>
+      <c r="P123" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q123">
+        <v>2.75</v>
+      </c>
+      <c r="R123">
+        <v>1.83</v>
+      </c>
+      <c r="S123">
+        <v>6</v>
+      </c>
+      <c r="T123">
+        <v>1.57</v>
+      </c>
+      <c r="U123">
+        <v>2.29</v>
+      </c>
+      <c r="V123">
+        <v>3.71</v>
+      </c>
+      <c r="W123">
+        <v>1.24</v>
+      </c>
+      <c r="X123">
+        <v>12</v>
+      </c>
+      <c r="Y123">
+        <v>1.03</v>
+      </c>
+      <c r="Z123">
+        <v>1.91</v>
+      </c>
+      <c r="AA123">
+        <v>3.1</v>
+      </c>
+      <c r="AB123">
+        <v>5</v>
+      </c>
+      <c r="AC123">
+        <v>1.1</v>
+      </c>
+      <c r="AD123">
+        <v>6.6</v>
+      </c>
+      <c r="AE123">
+        <v>1.5</v>
+      </c>
+      <c r="AF123">
+        <v>2.45</v>
+      </c>
+      <c r="AG123">
+        <v>3.1</v>
+      </c>
+      <c r="AH123">
+        <v>1.36</v>
+      </c>
+      <c r="AI123">
+        <v>2.63</v>
+      </c>
+      <c r="AJ123">
+        <v>1.44</v>
+      </c>
+      <c r="AK123">
+        <v>1.26</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.75</v>
+      </c>
+      <c r="AN123">
+        <v>1.63</v>
+      </c>
+      <c r="AO123">
+        <v>1.75</v>
+      </c>
+      <c r="AP123">
+        <v>1.78</v>
+      </c>
+      <c r="AQ123">
+        <v>1.56</v>
+      </c>
+      <c r="AR123">
+        <v>1.54</v>
+      </c>
+      <c r="AS123">
+        <v>1.15</v>
+      </c>
+      <c r="AT123">
+        <v>2.69</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>5</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>7</v>
+      </c>
+      <c r="BA123">
+        <v>11</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>16</v>
+      </c>
+      <c r="BD123">
+        <v>1.62</v>
+      </c>
+      <c r="BE123">
+        <v>7.1</v>
+      </c>
+      <c r="BF123">
+        <v>3.01</v>
+      </c>
+      <c r="BG123">
+        <v>1.4</v>
+      </c>
+      <c r="BH123">
+        <v>2.7</v>
+      </c>
+      <c r="BI123">
+        <v>1.7</v>
+      </c>
+      <c r="BJ123">
+        <v>2.05</v>
+      </c>
+      <c r="BK123">
+        <v>2.2</v>
+      </c>
+      <c r="BL123">
+        <v>1.58</v>
+      </c>
+      <c r="BM123">
+        <v>2.95</v>
+      </c>
+      <c r="BN123">
+        <v>1.34</v>
+      </c>
+      <c r="BO123">
+        <v>4.1</v>
+      </c>
+      <c r="BP123">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['49', '54']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -704,6 +707,9 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1330,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1530,7 +1536,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1611,7 +1617,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1817,7 +1823,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2148,7 +2154,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2354,7 +2360,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2641,7 +2647,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2844,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3178,7 +3184,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3384,7 +3390,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3874,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14">
         <v>1.89</v>
@@ -4083,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4620,7 +4626,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4701,7 +4707,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR18">
         <v>1.43</v>
@@ -4826,7 +4832,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5316,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ21">
         <v>0.89</v>
@@ -5444,7 +5450,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5522,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>2.11</v>
@@ -5856,7 +5862,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5934,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ24">
         <v>1.44</v>
@@ -6062,7 +6068,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6349,7 +6355,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.01</v>
@@ -6474,7 +6480,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6552,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7092,7 +7098,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7170,10 +7176,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7298,7 +7304,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7504,7 +7510,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7585,7 +7591,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR32">
         <v>0.93</v>
@@ -7710,7 +7716,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -9024,10 +9030,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9152,7 +9158,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9645,7 +9651,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ42">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -9851,7 +9857,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>2.06</v>
@@ -9976,7 +9982,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10466,7 +10472,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
         <v>1.44</v>
@@ -10594,7 +10600,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10672,7 +10678,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ47">
         <v>1.78</v>
@@ -10800,7 +10806,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -10878,7 +10884,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11293,7 +11299,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.11</v>
@@ -11830,7 +11836,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12036,7 +12042,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12526,7 +12532,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.22</v>
@@ -12735,7 +12741,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ57">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -12941,7 +12947,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13066,7 +13072,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13147,7 +13153,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13272,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13350,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13556,7 +13562,7 @@
         <v>2.25</v>
       </c>
       <c r="AP61">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>1.56</v>
@@ -13684,7 +13690,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14302,7 +14308,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14795,7 +14801,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14920,7 +14926,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15332,7 +15338,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15538,7 +15544,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15825,7 +15831,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ72">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.08</v>
@@ -16156,7 +16162,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16362,7 +16368,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16443,7 +16449,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16568,7 +16574,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16646,7 +16652,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>1.22</v>
@@ -16774,7 +16780,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17186,7 +17192,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17264,7 +17270,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.78</v>
@@ -17392,7 +17398,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17804,7 +17810,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17882,10 +17888,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>0.98</v>
@@ -18010,7 +18016,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18500,7 +18506,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18706,7 +18712,7 @@
         <v>0.4</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ86">
         <v>0.88</v>
@@ -19246,7 +19252,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19658,7 +19664,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20070,7 +20076,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20148,7 +20154,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ93">
         <v>1.89</v>
@@ -20276,7 +20282,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20769,7 +20775,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR96">
         <v>1.17</v>
@@ -21306,7 +21312,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21384,7 +21390,7 @@
         <v>2.14</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
         <v>2.11</v>
@@ -21512,7 +21518,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21590,7 +21596,7 @@
         <v>2</v>
       </c>
       <c r="AP100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>1.78</v>
@@ -21799,7 +21805,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.73</v>
@@ -21924,7 +21930,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22542,7 +22548,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22748,7 +22754,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22829,7 +22835,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -22954,7 +22960,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23035,7 +23041,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.16</v>
@@ -23160,7 +23166,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23238,7 +23244,7 @@
         <v>1.57</v>
       </c>
       <c r="AP108">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ108">
         <v>1.89</v>
@@ -23859,7 +23865,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR111">
         <v>1.59</v>
@@ -24065,7 +24071,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.1</v>
@@ -24190,7 +24196,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24808,7 +24814,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -26044,7 +26050,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26250,7 +26256,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26407,6 +26413,624 @@
       </c>
       <c r="BP123">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7345216</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45509.60416666666</v>
+      </c>
+      <c r="F124">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" t="s">
+        <v>91</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>182</v>
+      </c>
+      <c r="P124" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q124">
+        <v>3.25</v>
+      </c>
+      <c r="R124">
+        <v>1.91</v>
+      </c>
+      <c r="S124">
+        <v>4</v>
+      </c>
+      <c r="T124">
+        <v>1.53</v>
+      </c>
+      <c r="U124">
+        <v>2.38</v>
+      </c>
+      <c r="V124">
+        <v>3.5</v>
+      </c>
+      <c r="W124">
+        <v>1.29</v>
+      </c>
+      <c r="X124">
+        <v>11</v>
+      </c>
+      <c r="Y124">
+        <v>1.05</v>
+      </c>
+      <c r="Z124">
+        <v>2.4</v>
+      </c>
+      <c r="AA124">
+        <v>3</v>
+      </c>
+      <c r="AB124">
+        <v>3.3</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>9.4</v>
+      </c>
+      <c r="AE124">
+        <v>1.45</v>
+      </c>
+      <c r="AF124">
+        <v>2.67</v>
+      </c>
+      <c r="AG124">
+        <v>2.7</v>
+      </c>
+      <c r="AH124">
+        <v>1.44</v>
+      </c>
+      <c r="AI124">
+        <v>2.2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.62</v>
+      </c>
+      <c r="AK124">
+        <v>1.22</v>
+      </c>
+      <c r="AL124">
+        <v>1.28</v>
+      </c>
+      <c r="AM124">
+        <v>1.9</v>
+      </c>
+      <c r="AN124">
+        <v>1.13</v>
+      </c>
+      <c r="AO124">
+        <v>0.13</v>
+      </c>
+      <c r="AP124">
+        <v>1.33</v>
+      </c>
+      <c r="AQ124">
+        <v>0.11</v>
+      </c>
+      <c r="AR124">
+        <v>1.13</v>
+      </c>
+      <c r="AS124">
+        <v>1.15</v>
+      </c>
+      <c r="AT124">
+        <v>2.28</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <v>3</v>
+      </c>
+      <c r="AX124">
+        <v>7</v>
+      </c>
+      <c r="AY124">
+        <v>8</v>
+      </c>
+      <c r="AZ124">
+        <v>7</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>3</v>
+      </c>
+      <c r="BD124">
+        <v>1.65</v>
+      </c>
+      <c r="BE124">
+        <v>7.4</v>
+      </c>
+      <c r="BF124">
+        <v>2.86</v>
+      </c>
+      <c r="BG124">
+        <v>1.4</v>
+      </c>
+      <c r="BH124">
+        <v>2.7</v>
+      </c>
+      <c r="BI124">
+        <v>1.65</v>
+      </c>
+      <c r="BJ124">
+        <v>2.05</v>
+      </c>
+      <c r="BK124">
+        <v>2.2</v>
+      </c>
+      <c r="BL124">
+        <v>1.58</v>
+      </c>
+      <c r="BM124">
+        <v>2.95</v>
+      </c>
+      <c r="BN124">
+        <v>1.34</v>
+      </c>
+      <c r="BO124">
+        <v>4.1</v>
+      </c>
+      <c r="BP124">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7345222</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45509.70833333334</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>82</v>
+      </c>
+      <c r="H125" t="s">
+        <v>94</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>102</v>
+      </c>
+      <c r="P125" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q125">
+        <v>3.25</v>
+      </c>
+      <c r="R125">
+        <v>1.91</v>
+      </c>
+      <c r="S125">
+        <v>4</v>
+      </c>
+      <c r="T125">
+        <v>1.49</v>
+      </c>
+      <c r="U125">
+        <v>2.48</v>
+      </c>
+      <c r="V125">
+        <v>3.35</v>
+      </c>
+      <c r="W125">
+        <v>1.29</v>
+      </c>
+      <c r="X125">
+        <v>9.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.05</v>
+      </c>
+      <c r="Z125">
+        <v>2.4</v>
+      </c>
+      <c r="AA125">
+        <v>3.1</v>
+      </c>
+      <c r="AB125">
+        <v>3.2</v>
+      </c>
+      <c r="AC125">
+        <v>1.07</v>
+      </c>
+      <c r="AD125">
+        <v>7.92</v>
+      </c>
+      <c r="AE125">
+        <v>1.43</v>
+      </c>
+      <c r="AF125">
+        <v>2.75</v>
+      </c>
+      <c r="AG125">
+        <v>2.7</v>
+      </c>
+      <c r="AH125">
+        <v>1.44</v>
+      </c>
+      <c r="AI125">
+        <v>2.2</v>
+      </c>
+      <c r="AJ125">
+        <v>1.62</v>
+      </c>
+      <c r="AK125">
+        <v>1.32</v>
+      </c>
+      <c r="AL125">
+        <v>1.3</v>
+      </c>
+      <c r="AM125">
+        <v>1.7</v>
+      </c>
+      <c r="AN125">
+        <v>1.25</v>
+      </c>
+      <c r="AO125">
+        <v>1.13</v>
+      </c>
+      <c r="AP125">
+        <v>1.11</v>
+      </c>
+      <c r="AQ125">
+        <v>1.33</v>
+      </c>
+      <c r="AR125">
+        <v>1.44</v>
+      </c>
+      <c r="AS125">
+        <v>1.24</v>
+      </c>
+      <c r="AT125">
+        <v>2.68</v>
+      </c>
+      <c r="AU125">
+        <v>7</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>6</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>13</v>
+      </c>
+      <c r="AZ125">
+        <v>9</v>
+      </c>
+      <c r="BA125">
+        <v>11</v>
+      </c>
+      <c r="BB125">
+        <v>3</v>
+      </c>
+      <c r="BC125">
+        <v>14</v>
+      </c>
+      <c r="BD125">
+        <v>1.62</v>
+      </c>
+      <c r="BE125">
+        <v>7.7</v>
+      </c>
+      <c r="BF125">
+        <v>2.91</v>
+      </c>
+      <c r="BG125">
+        <v>1.25</v>
+      </c>
+      <c r="BH125">
+        <v>3.42</v>
+      </c>
+      <c r="BI125">
+        <v>1.49</v>
+      </c>
+      <c r="BJ125">
+        <v>2.44</v>
+      </c>
+      <c r="BK125">
+        <v>1.91</v>
+      </c>
+      <c r="BL125">
+        <v>1.8</v>
+      </c>
+      <c r="BM125">
+        <v>2.39</v>
+      </c>
+      <c r="BN125">
+        <v>1.51</v>
+      </c>
+      <c r="BO125">
+        <v>3.2</v>
+      </c>
+      <c r="BP125">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7345228</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45509.83333333334</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>88</v>
+      </c>
+      <c r="H126" t="s">
+        <v>89</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>102</v>
+      </c>
+      <c r="P126" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q126">
+        <v>3.25</v>
+      </c>
+      <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>4.75</v>
+      </c>
+      <c r="T126">
+        <v>1.71</v>
+      </c>
+      <c r="U126">
+        <v>2.04</v>
+      </c>
+      <c r="V126">
+        <v>4.42</v>
+      </c>
+      <c r="W126">
+        <v>1.18</v>
+      </c>
+      <c r="X126">
+        <v>15</v>
+      </c>
+      <c r="Y126">
+        <v>1.02</v>
+      </c>
+      <c r="Z126">
+        <v>2.3</v>
+      </c>
+      <c r="AA126">
+        <v>2.8</v>
+      </c>
+      <c r="AB126">
+        <v>3.8</v>
+      </c>
+      <c r="AC126">
+        <v>1.15</v>
+      </c>
+      <c r="AD126">
+        <v>5.24</v>
+      </c>
+      <c r="AE126">
+        <v>1.68</v>
+      </c>
+      <c r="AF126">
+        <v>2.1</v>
+      </c>
+      <c r="AG126">
+        <v>3.5</v>
+      </c>
+      <c r="AH126">
+        <v>1.3</v>
+      </c>
+      <c r="AI126">
+        <v>2.5</v>
+      </c>
+      <c r="AJ126">
+        <v>1.5</v>
+      </c>
+      <c r="AK126">
+        <v>1.38</v>
+      </c>
+      <c r="AL126">
+        <v>1.38</v>
+      </c>
+      <c r="AM126">
+        <v>1.52</v>
+      </c>
+      <c r="AN126">
+        <v>1.38</v>
+      </c>
+      <c r="AO126">
+        <v>0.75</v>
+      </c>
+      <c r="AP126">
+        <v>1.22</v>
+      </c>
+      <c r="AQ126">
+        <v>1</v>
+      </c>
+      <c r="AR126">
+        <v>1.25</v>
+      </c>
+      <c r="AS126">
+        <v>1.36</v>
+      </c>
+      <c r="AT126">
+        <v>2.61</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>2</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>13</v>
+      </c>
+      <c r="AZ126">
+        <v>4</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>6</v>
+      </c>
+      <c r="BD126">
+        <v>1.95</v>
+      </c>
+      <c r="BE126">
+        <v>6.9</v>
+      </c>
+      <c r="BF126">
+        <v>2.27</v>
+      </c>
+      <c r="BG126">
+        <v>1.5</v>
+      </c>
+      <c r="BH126">
+        <v>2.41</v>
+      </c>
+      <c r="BI126">
+        <v>1.91</v>
+      </c>
+      <c r="BJ126">
+        <v>1.8</v>
+      </c>
+      <c r="BK126">
+        <v>2.49</v>
+      </c>
+      <c r="BL126">
+        <v>1.47</v>
+      </c>
+      <c r="BM126">
+        <v>3.42</v>
+      </c>
+      <c r="BN126">
+        <v>1.25</v>
+      </c>
+      <c r="BO126">
+        <v>5</v>
+      </c>
+      <c r="BP126">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1071,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -5119,7 +5119,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ20">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -8000,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ34">
         <v>1.56</v>
@@ -8824,7 +8824,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>1.56</v>
@@ -10269,7 +10269,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -11505,7 +11505,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR51">
         <v>1.56</v>
@@ -12944,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
         <v>0.11</v>
@@ -13974,7 +13974,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -15622,7 +15622,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16655,7 +16655,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
         <v>1.36</v>
@@ -18509,7 +18509,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -19536,7 +19536,7 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>1.89</v>
@@ -22217,7 +22217,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR103">
         <v>1.83</v>
@@ -23450,7 +23450,7 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ109">
         <v>1.67</v>
@@ -24483,7 +24483,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ114">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR114">
         <v>1.24</v>
@@ -25510,7 +25510,7 @@
         <v>1.75</v>
       </c>
       <c r="AP119">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ119">
         <v>1.67</v>
@@ -27031,6 +27031,212 @@
       </c>
       <c r="BP126">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7345241</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45512.625</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>102</v>
+      </c>
+      <c r="P127" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q127">
+        <v>2.5</v>
+      </c>
+      <c r="R127">
+        <v>1.91</v>
+      </c>
+      <c r="S127">
+        <v>6.5</v>
+      </c>
+      <c r="T127">
+        <v>1.62</v>
+      </c>
+      <c r="U127">
+        <v>2.2</v>
+      </c>
+      <c r="V127">
+        <v>4</v>
+      </c>
+      <c r="W127">
+        <v>1.22</v>
+      </c>
+      <c r="X127">
+        <v>13</v>
+      </c>
+      <c r="Y127">
+        <v>1.04</v>
+      </c>
+      <c r="Z127">
+        <v>1.73</v>
+      </c>
+      <c r="AA127">
+        <v>3.3</v>
+      </c>
+      <c r="AB127">
+        <v>5.75</v>
+      </c>
+      <c r="AC127">
+        <v>1.08</v>
+      </c>
+      <c r="AD127">
+        <v>5.85</v>
+      </c>
+      <c r="AE127">
+        <v>1.6</v>
+      </c>
+      <c r="AF127">
+        <v>2.35</v>
+      </c>
+      <c r="AG127">
+        <v>2.7</v>
+      </c>
+      <c r="AH127">
+        <v>1.44</v>
+      </c>
+      <c r="AI127">
+        <v>2.5</v>
+      </c>
+      <c r="AJ127">
+        <v>1.5</v>
+      </c>
+      <c r="AK127">
+        <v>1.18</v>
+      </c>
+      <c r="AL127">
+        <v>1.36</v>
+      </c>
+      <c r="AM127">
+        <v>1.8</v>
+      </c>
+      <c r="AN127">
+        <v>1.33</v>
+      </c>
+      <c r="AO127">
+        <v>1.22</v>
+      </c>
+      <c r="AP127">
+        <v>1.3</v>
+      </c>
+      <c r="AQ127">
+        <v>1.2</v>
+      </c>
+      <c r="AR127">
+        <v>1.51</v>
+      </c>
+      <c r="AS127">
+        <v>1.12</v>
+      </c>
+      <c r="AT127">
+        <v>2.63</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>15</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>21</v>
+      </c>
+      <c r="AZ127">
+        <v>8</v>
+      </c>
+      <c r="BA127">
+        <v>9</v>
+      </c>
+      <c r="BB127">
+        <v>1</v>
+      </c>
+      <c r="BC127">
+        <v>10</v>
+      </c>
+      <c r="BD127">
+        <v>1.39</v>
+      </c>
+      <c r="BE127">
+        <v>8.5</v>
+      </c>
+      <c r="BF127">
+        <v>3.96</v>
+      </c>
+      <c r="BG127">
+        <v>1.36</v>
+      </c>
+      <c r="BH127">
+        <v>2.85</v>
+      </c>
+      <c r="BI127">
+        <v>1.64</v>
+      </c>
+      <c r="BJ127">
+        <v>2.1</v>
+      </c>
+      <c r="BK127">
+        <v>2.08</v>
+      </c>
+      <c r="BL127">
+        <v>1.65</v>
+      </c>
+      <c r="BM127">
+        <v>2.75</v>
+      </c>
+      <c r="BN127">
+        <v>1.38</v>
+      </c>
+      <c r="BO127">
+        <v>3.85</v>
+      </c>
+      <c r="BP127">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,12 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['49', '77', '90+5']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -710,6 +716,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1339,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1536,7 +1545,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2154,7 +2163,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2235,7 +2244,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2360,7 +2369,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2441,7 +2450,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ7">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2850,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3184,7 +3193,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3262,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3390,7 +3399,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3468,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.56</v>
@@ -3880,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ14">
         <v>1.89</v>
@@ -4086,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4501,7 +4510,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR17">
         <v>2.66</v>
@@ -4626,7 +4635,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4707,7 +4716,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ18">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR18">
         <v>1.43</v>
@@ -4832,7 +4841,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4913,7 +4922,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR19">
         <v>1.17</v>
@@ -5116,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ20">
         <v>1.2</v>
@@ -5450,7 +5459,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5734,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ23">
         <v>1.78</v>
@@ -5862,7 +5871,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6068,7 +6077,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6149,7 +6158,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6355,7 +6364,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.01</v>
@@ -6480,7 +6489,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6764,7 +6773,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28">
         <v>1.3</v>
@@ -7098,7 +7107,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7176,7 +7185,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7304,7 +7313,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7385,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7510,7 +7519,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7588,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>0.11</v>
@@ -7716,7 +7725,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7794,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -8415,7 +8424,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ36">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR36">
         <v>1.48</v>
@@ -9030,7 +9039,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9158,7 +9167,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9442,10 +9451,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9854,10 +9863,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>2.06</v>
@@ -9982,7 +9991,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10266,7 +10275,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
         <v>1.3</v>
@@ -10600,7 +10609,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10681,7 +10690,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ47">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR47">
         <v>1.05</v>
@@ -10806,7 +10815,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -10887,7 +10896,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11299,7 +11308,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR50">
         <v>1.11</v>
@@ -11836,7 +11845,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12042,7 +12051,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12120,7 +12129,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ54">
         <v>2.11</v>
@@ -12329,7 +12338,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR55">
         <v>0.9399999999999999</v>
@@ -13072,7 +13081,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13278,7 +13287,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13356,10 +13365,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR60">
         <v>1.73</v>
@@ -13562,7 +13571,7 @@
         <v>2.25</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.56</v>
@@ -13690,7 +13699,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -13771,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR62">
         <v>1.21</v>
@@ -14180,10 +14189,10 @@
         <v>2.5</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -14308,7 +14317,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14798,7 +14807,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ67">
         <v>1.22</v>
@@ -14926,7 +14935,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15004,7 +15013,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -15338,7 +15347,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15544,7 +15553,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15831,7 +15840,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR72">
         <v>1.08</v>
@@ -16162,7 +16171,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16240,7 +16249,7 @@
         <v>1.2</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ74">
         <v>1.22</v>
@@ -16368,7 +16377,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16446,10 +16455,10 @@
         <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16574,7 +16583,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16780,7 +16789,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17064,7 +17073,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ78">
         <v>1.13</v>
@@ -17192,7 +17201,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17398,7 +17407,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17479,7 +17488,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.92</v>
@@ -17685,7 +17694,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR81">
         <v>1.85</v>
@@ -17810,7 +17819,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18016,7 +18025,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18303,7 +18312,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ84">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR84">
         <v>1.22</v>
@@ -18506,7 +18515,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1.3</v>
@@ -18712,7 +18721,7 @@
         <v>0.4</v>
       </c>
       <c r="AP86">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ86">
         <v>0.88</v>
@@ -19127,7 +19136,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR88">
         <v>1.06</v>
@@ -19252,7 +19261,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19330,7 +19339,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ89">
         <v>0.5600000000000001</v>
@@ -19539,7 +19548,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ90">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19664,7 +19673,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20076,7 +20085,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20282,7 +20291,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20360,10 +20369,10 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR94">
         <v>1.5</v>
@@ -21312,7 +21321,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21518,7 +21527,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21599,7 +21608,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -21805,7 +21814,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR101">
         <v>1.73</v>
@@ -21930,7 +21939,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22008,10 +22017,10 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR102">
         <v>1.71</v>
@@ -22548,7 +22557,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22626,7 +22635,7 @@
         <v>1.43</v>
       </c>
       <c r="AP105">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ105">
         <v>1.78</v>
@@ -22754,7 +22763,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22960,7 +22969,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23041,7 +23050,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.16</v>
@@ -23166,7 +23175,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23453,7 +23462,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ109">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23656,7 +23665,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ110">
         <v>1.13</v>
@@ -23862,7 +23871,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ111">
         <v>1.33</v>
@@ -24196,7 +24205,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24814,7 +24823,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -24892,7 +24901,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ116">
         <v>1.67</v>
@@ -25307,7 +25316,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ118">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR118">
         <v>1.2</v>
@@ -25513,7 +25522,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ119">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR119">
         <v>1.12</v>
@@ -25716,7 +25725,7 @@
         <v>1.63</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ120">
         <v>1.56</v>
@@ -25925,7 +25934,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR121">
         <v>1.1</v>
@@ -26050,7 +26059,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26128,7 +26137,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26256,7 +26265,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26540,7 +26549,7 @@
         <v>0.13</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124">
         <v>0.11</v>
@@ -26668,7 +26677,7 @@
         <v>102</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q125">
         <v>3.25</v>
@@ -26746,7 +26755,7 @@
         <v>1.13</v>
       </c>
       <c r="AP125">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ125">
         <v>1.33</v>
@@ -27237,6 +27246,830 @@
       </c>
       <c r="BP127">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7345243</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>77</v>
+      </c>
+      <c r="H128" t="s">
+        <v>80</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>183</v>
+      </c>
+      <c r="P128" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q128">
+        <v>4.5</v>
+      </c>
+      <c r="R128">
+        <v>1.91</v>
+      </c>
+      <c r="S128">
+        <v>3.1</v>
+      </c>
+      <c r="T128">
+        <v>1.62</v>
+      </c>
+      <c r="U128">
+        <v>2.2</v>
+      </c>
+      <c r="V128">
+        <v>4</v>
+      </c>
+      <c r="W128">
+        <v>1.22</v>
+      </c>
+      <c r="X128">
+        <v>13</v>
+      </c>
+      <c r="Y128">
+        <v>1.04</v>
+      </c>
+      <c r="Z128">
+        <v>3.6</v>
+      </c>
+      <c r="AA128">
+        <v>3.1</v>
+      </c>
+      <c r="AB128">
+        <v>2.2</v>
+      </c>
+      <c r="AC128">
+        <v>1.12</v>
+      </c>
+      <c r="AD128">
+        <v>5.87</v>
+      </c>
+      <c r="AE128">
+        <v>1.57</v>
+      </c>
+      <c r="AF128">
+        <v>2.25</v>
+      </c>
+      <c r="AG128">
+        <v>2.7</v>
+      </c>
+      <c r="AH128">
+        <v>1.44</v>
+      </c>
+      <c r="AI128">
+        <v>2.2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.62</v>
+      </c>
+      <c r="AK128">
+        <v>1.53</v>
+      </c>
+      <c r="AL128">
+        <v>1.36</v>
+      </c>
+      <c r="AM128">
+        <v>1.38</v>
+      </c>
+      <c r="AN128">
+        <v>1.33</v>
+      </c>
+      <c r="AO128">
+        <v>1.67</v>
+      </c>
+      <c r="AP128">
+        <v>1.5</v>
+      </c>
+      <c r="AQ128">
+        <v>1.5</v>
+      </c>
+      <c r="AR128">
+        <v>1.12</v>
+      </c>
+      <c r="AS128">
+        <v>1.45</v>
+      </c>
+      <c r="AT128">
+        <v>2.57</v>
+      </c>
+      <c r="AU128">
+        <v>15</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>20</v>
+      </c>
+      <c r="AZ128">
+        <v>8</v>
+      </c>
+      <c r="BA128">
+        <v>9</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>13</v>
+      </c>
+      <c r="BD128">
+        <v>1.98</v>
+      </c>
+      <c r="BE128">
+        <v>7</v>
+      </c>
+      <c r="BF128">
+        <v>2.22</v>
+      </c>
+      <c r="BG128">
+        <v>1.36</v>
+      </c>
+      <c r="BH128">
+        <v>2.8</v>
+      </c>
+      <c r="BI128">
+        <v>1.65</v>
+      </c>
+      <c r="BJ128">
+        <v>2.08</v>
+      </c>
+      <c r="BK128">
+        <v>2.1</v>
+      </c>
+      <c r="BL128">
+        <v>1.64</v>
+      </c>
+      <c r="BM128">
+        <v>2.8</v>
+      </c>
+      <c r="BN128">
+        <v>1.37</v>
+      </c>
+      <c r="BO128">
+        <v>3.85</v>
+      </c>
+      <c r="BP128">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7345233</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45513.6875</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>87</v>
+      </c>
+      <c r="H129" t="s">
+        <v>90</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>184</v>
+      </c>
+      <c r="P129" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q129">
+        <v>4.33</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>2.88</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.63</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>10</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>3.7</v>
+      </c>
+      <c r="AA129">
+        <v>3.3</v>
+      </c>
+      <c r="AB129">
+        <v>2.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.03</v>
+      </c>
+      <c r="AD129">
+        <v>7.9</v>
+      </c>
+      <c r="AE129">
+        <v>1.34</v>
+      </c>
+      <c r="AF129">
+        <v>2.89</v>
+      </c>
+      <c r="AG129">
+        <v>2.25</v>
+      </c>
+      <c r="AH129">
+        <v>1.62</v>
+      </c>
+      <c r="AI129">
+        <v>1.95</v>
+      </c>
+      <c r="AJ129">
+        <v>1.8</v>
+      </c>
+      <c r="AK129">
+        <v>1.83</v>
+      </c>
+      <c r="AL129">
+        <v>1.31</v>
+      </c>
+      <c r="AM129">
+        <v>1.26</v>
+      </c>
+      <c r="AN129">
+        <v>0.67</v>
+      </c>
+      <c r="AO129">
+        <v>1.78</v>
+      </c>
+      <c r="AP129">
+        <v>0.7</v>
+      </c>
+      <c r="AQ129">
+        <v>1.7</v>
+      </c>
+      <c r="AR129">
+        <v>1.28</v>
+      </c>
+      <c r="AS129">
+        <v>1.32</v>
+      </c>
+      <c r="AT129">
+        <v>2.6</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>8</v>
+      </c>
+      <c r="AW129">
+        <v>2</v>
+      </c>
+      <c r="AX129">
+        <v>5</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>13</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>6</v>
+      </c>
+      <c r="BD129">
+        <v>2.39</v>
+      </c>
+      <c r="BE129">
+        <v>7.3</v>
+      </c>
+      <c r="BF129">
+        <v>1.87</v>
+      </c>
+      <c r="BG129">
+        <v>1.32</v>
+      </c>
+      <c r="BH129">
+        <v>3.2</v>
+      </c>
+      <c r="BI129">
+        <v>1.48</v>
+      </c>
+      <c r="BJ129">
+        <v>2.34</v>
+      </c>
+      <c r="BK129">
+        <v>1.93</v>
+      </c>
+      <c r="BL129">
+        <v>1.81</v>
+      </c>
+      <c r="BM129">
+        <v>2.5</v>
+      </c>
+      <c r="BN129">
+        <v>1.49</v>
+      </c>
+      <c r="BO129">
+        <v>3.4</v>
+      </c>
+      <c r="BP129">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7345240</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45513.79166666666</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" t="s">
+        <v>83</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>134</v>
+      </c>
+      <c r="P130" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q130">
+        <v>3.75</v>
+      </c>
+      <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
+        <v>4</v>
+      </c>
+      <c r="T130">
+        <v>1.62</v>
+      </c>
+      <c r="U130">
+        <v>2.2</v>
+      </c>
+      <c r="V130">
+        <v>4</v>
+      </c>
+      <c r="W130">
+        <v>1.22</v>
+      </c>
+      <c r="X130">
+        <v>13</v>
+      </c>
+      <c r="Y130">
+        <v>1.04</v>
+      </c>
+      <c r="Z130">
+        <v>2.9</v>
+      </c>
+      <c r="AA130">
+        <v>2.7</v>
+      </c>
+      <c r="AB130">
+        <v>3</v>
+      </c>
+      <c r="AC130">
+        <v>1.11</v>
+      </c>
+      <c r="AD130">
+        <v>6.28</v>
+      </c>
+      <c r="AE130">
+        <v>1.55</v>
+      </c>
+      <c r="AF130">
+        <v>2.39</v>
+      </c>
+      <c r="AG130">
+        <v>3.4</v>
+      </c>
+      <c r="AH130">
+        <v>1.33</v>
+      </c>
+      <c r="AI130">
+        <v>2.38</v>
+      </c>
+      <c r="AJ130">
+        <v>1.53</v>
+      </c>
+      <c r="AK130">
+        <v>1.44</v>
+      </c>
+      <c r="AL130">
+        <v>1.38</v>
+      </c>
+      <c r="AM130">
+        <v>1.46</v>
+      </c>
+      <c r="AN130">
+        <v>1.67</v>
+      </c>
+      <c r="AO130">
+        <v>2</v>
+      </c>
+      <c r="AP130">
+        <v>1.6</v>
+      </c>
+      <c r="AQ130">
+        <v>1.9</v>
+      </c>
+      <c r="AR130">
+        <v>1.22</v>
+      </c>
+      <c r="AS130">
+        <v>1.48</v>
+      </c>
+      <c r="AT130">
+        <v>2.7</v>
+      </c>
+      <c r="AU130">
+        <v>5</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>11</v>
+      </c>
+      <c r="AZ130">
+        <v>6</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>2.2</v>
+      </c>
+      <c r="BE130">
+        <v>6.75</v>
+      </c>
+      <c r="BF130">
+        <v>2</v>
+      </c>
+      <c r="BG130">
+        <v>1.4</v>
+      </c>
+      <c r="BH130">
+        <v>2.7</v>
+      </c>
+      <c r="BI130">
+        <v>1.71</v>
+      </c>
+      <c r="BJ130">
+        <v>2</v>
+      </c>
+      <c r="BK130">
+        <v>2.18</v>
+      </c>
+      <c r="BL130">
+        <v>1.58</v>
+      </c>
+      <c r="BM130">
+        <v>2.95</v>
+      </c>
+      <c r="BN130">
+        <v>1.34</v>
+      </c>
+      <c r="BO130">
+        <v>4.1</v>
+      </c>
+      <c r="BP130">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7345238</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45513.875</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>95</v>
+      </c>
+      <c r="H131" t="s">
+        <v>82</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>102</v>
+      </c>
+      <c r="P131" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q131">
+        <v>2.2</v>
+      </c>
+      <c r="R131">
+        <v>2.25</v>
+      </c>
+      <c r="S131">
+        <v>6</v>
+      </c>
+      <c r="T131">
+        <v>1.36</v>
+      </c>
+      <c r="U131">
+        <v>3</v>
+      </c>
+      <c r="V131">
+        <v>2.63</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>7</v>
+      </c>
+      <c r="Y131">
+        <v>1.1</v>
+      </c>
+      <c r="Z131">
+        <v>1.6</v>
+      </c>
+      <c r="AA131">
+        <v>3.8</v>
+      </c>
+      <c r="AB131">
+        <v>6</v>
+      </c>
+      <c r="AC131">
+        <v>1.04</v>
+      </c>
+      <c r="AD131">
+        <v>8.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.2</v>
+      </c>
+      <c r="AF131">
+        <v>3.9</v>
+      </c>
+      <c r="AG131">
+        <v>1.95</v>
+      </c>
+      <c r="AH131">
+        <v>1.85</v>
+      </c>
+      <c r="AI131">
+        <v>1.95</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.08</v>
+      </c>
+      <c r="AL131">
+        <v>1.22</v>
+      </c>
+      <c r="AM131">
+        <v>2.4</v>
+      </c>
+      <c r="AN131">
+        <v>1.89</v>
+      </c>
+      <c r="AO131">
+        <v>1.11</v>
+      </c>
+      <c r="AP131">
+        <v>1.7</v>
+      </c>
+      <c r="AQ131">
+        <v>1.3</v>
+      </c>
+      <c r="AR131">
+        <v>1.62</v>
+      </c>
+      <c r="AS131">
+        <v>1.48</v>
+      </c>
+      <c r="AT131">
+        <v>3.1</v>
+      </c>
+      <c r="AU131">
+        <v>4</v>
+      </c>
+      <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>4</v>
+      </c>
+      <c r="AY131">
+        <v>11</v>
+      </c>
+      <c r="AZ131">
+        <v>10</v>
+      </c>
+      <c r="BA131">
+        <v>9</v>
+      </c>
+      <c r="BB131">
+        <v>1</v>
+      </c>
+      <c r="BC131">
+        <v>10</v>
+      </c>
+      <c r="BD131">
+        <v>1.42</v>
+      </c>
+      <c r="BE131">
+        <v>9</v>
+      </c>
+      <c r="BF131">
+        <v>3.4</v>
+      </c>
+      <c r="BG131">
+        <v>1.29</v>
+      </c>
+      <c r="BH131">
+        <v>3.4</v>
+      </c>
+      <c r="BI131">
+        <v>1.45</v>
+      </c>
+      <c r="BJ131">
+        <v>2.55</v>
+      </c>
+      <c r="BK131">
+        <v>2.25</v>
+      </c>
+      <c r="BL131">
+        <v>1.94</v>
+      </c>
+      <c r="BM131">
+        <v>2.27</v>
+      </c>
+      <c r="BN131">
+        <v>1.56</v>
+      </c>
+      <c r="BO131">
+        <v>3.05</v>
+      </c>
+      <c r="BP131">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -1080,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1342,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1545,7 +1548,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1626,7 +1629,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1829,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ4">
         <v>1.22</v>
@@ -2035,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.5600000000000001</v>
@@ -2163,7 +2166,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2369,7 +2372,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0.11</v>
@@ -2862,7 +2865,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3193,7 +3196,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3399,7 +3402,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3480,7 +3483,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3683,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4301,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4507,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.6</v>
@@ -4635,7 +4638,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4841,7 +4844,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5459,7 +5462,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5540,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0.71</v>
@@ -5746,7 +5749,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ23">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR23">
         <v>1.41</v>
@@ -5871,7 +5874,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5952,7 +5955,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>0.5600000000000001</v>
@@ -6077,7 +6080,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6155,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ25">
         <v>1.5</v>
@@ -6489,7 +6492,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6567,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6982,7 +6985,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ29">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -7107,7 +7110,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7188,7 +7191,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7313,7 +7316,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7519,7 +7522,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7725,7 +7728,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -8012,7 +8015,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ34">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.51</v>
@@ -8215,7 +8218,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ35">
         <v>0.5600000000000001</v>
@@ -8421,7 +8424,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>1.7</v>
@@ -8627,7 +8630,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1.67</v>
@@ -8836,7 +8839,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -9167,7 +9170,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9657,7 +9660,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ42">
         <v>1.22</v>
@@ -9991,7 +9994,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10072,7 +10075,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ44">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR44">
         <v>1.06</v>
@@ -10484,7 +10487,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ46">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10609,7 +10612,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10815,7 +10818,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -10893,7 +10896,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11099,7 +11102,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11511,7 +11514,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
         <v>1.2</v>
@@ -11845,7 +11848,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12051,7 +12054,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12132,7 +12135,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ54">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12335,7 +12338,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
         <v>1.9</v>
@@ -12544,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR56">
         <v>1.36</v>
@@ -12750,7 +12753,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13081,7 +13084,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13287,7 +13290,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13574,7 +13577,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13699,7 +13702,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14317,7 +14320,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14395,7 +14398,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ65">
         <v>1.67</v>
@@ -14601,7 +14604,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
         <v>1.89</v>
@@ -14935,7 +14938,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15016,7 +15019,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR68">
         <v>1.68</v>
@@ -15219,10 +15222,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.39</v>
@@ -15347,7 +15350,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15425,7 +15428,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ70">
         <v>0.5600000000000001</v>
@@ -15553,7 +15556,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15837,7 +15840,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>1.3</v>
@@ -16171,7 +16174,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16252,7 +16255,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ74">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR74">
         <v>1.52</v>
@@ -16377,7 +16380,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16583,7 +16586,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16661,7 +16664,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>1.2</v>
@@ -16789,7 +16792,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16867,10 +16870,10 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ77">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17201,7 +17204,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17282,7 +17285,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -17407,7 +17410,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17485,7 +17488,7 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -17819,7 +17822,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18025,7 +18028,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18106,7 +18109,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ83">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR83">
         <v>1.27</v>
@@ -18724,7 +18727,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ86">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR86">
         <v>1.51</v>
@@ -18927,10 +18930,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ87">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19261,7 +19264,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19673,7 +19676,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19754,7 +19757,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -19957,7 +19960,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20085,7 +20088,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20291,7 +20294,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20575,7 +20578,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20987,7 +20990,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>0.89</v>
@@ -21193,10 +21196,10 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ98">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR98">
         <v>1.38</v>
@@ -21321,7 +21324,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21399,10 +21402,10 @@
         <v>2.14</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -21527,7 +21530,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21939,7 +21942,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22223,7 +22226,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>1.2</v>
@@ -22432,7 +22435,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR104">
         <v>1.17</v>
@@ -22557,7 +22560,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22638,7 +22641,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ105">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR105">
         <v>1.29</v>
@@ -22763,7 +22766,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22969,7 +22972,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23175,7 +23178,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23874,7 +23877,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ111">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.59</v>
@@ -24077,7 +24080,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24205,7 +24208,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24283,7 +24286,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ113">
         <v>1.67</v>
@@ -24823,7 +24826,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25110,7 +25113,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ117">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR117">
         <v>1.13</v>
@@ -25313,7 +25316,7 @@
         <v>2</v>
       </c>
       <c r="AP118">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>1.7</v>
@@ -25728,7 +25731,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ120">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.57</v>
@@ -25931,7 +25934,7 @@
         <v>0.63</v>
       </c>
       <c r="AP121">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ121">
         <v>0.7</v>
@@ -26059,7 +26062,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26265,7 +26268,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26343,10 +26346,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ123">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.54</v>
@@ -26677,7 +26680,7 @@
         <v>102</v>
       </c>
       <c r="P125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q125">
         <v>3.25</v>
@@ -26758,7 +26761,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ125">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27501,7 +27504,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -27707,7 +27710,7 @@
         <v>134</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27913,7 +27916,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28070,6 +28073,830 @@
       </c>
       <c r="BP131">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7345235</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45514.60416666666</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>92</v>
+      </c>
+      <c r="H132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>102</v>
+      </c>
+      <c r="P132" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q132">
+        <v>3.4</v>
+      </c>
+      <c r="R132">
+        <v>1.8</v>
+      </c>
+      <c r="S132">
+        <v>4.33</v>
+      </c>
+      <c r="T132">
+        <v>1.64</v>
+      </c>
+      <c r="U132">
+        <v>2.18</v>
+      </c>
+      <c r="V132">
+        <v>4.05</v>
+      </c>
+      <c r="W132">
+        <v>1.22</v>
+      </c>
+      <c r="X132">
+        <v>11.7</v>
+      </c>
+      <c r="Y132">
+        <v>1.02</v>
+      </c>
+      <c r="Z132">
+        <v>2.5</v>
+      </c>
+      <c r="AA132">
+        <v>2.75</v>
+      </c>
+      <c r="AB132">
+        <v>3.4</v>
+      </c>
+      <c r="AC132">
+        <v>1.11</v>
+      </c>
+      <c r="AD132">
+        <v>5.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.65</v>
+      </c>
+      <c r="AF132">
+        <v>2.1</v>
+      </c>
+      <c r="AG132">
+        <v>3.4</v>
+      </c>
+      <c r="AH132">
+        <v>1.33</v>
+      </c>
+      <c r="AI132">
+        <v>2.38</v>
+      </c>
+      <c r="AJ132">
+        <v>1.53</v>
+      </c>
+      <c r="AK132">
+        <v>1.26</v>
+      </c>
+      <c r="AL132">
+        <v>1.39</v>
+      </c>
+      <c r="AM132">
+        <v>1.7</v>
+      </c>
+      <c r="AN132">
+        <v>0.88</v>
+      </c>
+      <c r="AO132">
+        <v>1.78</v>
+      </c>
+      <c r="AP132">
+        <v>0.78</v>
+      </c>
+      <c r="AQ132">
+        <v>1.9</v>
+      </c>
+      <c r="AR132">
+        <v>1.48</v>
+      </c>
+      <c r="AS132">
+        <v>1.51</v>
+      </c>
+      <c r="AT132">
+        <v>2.99</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>6</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>2</v>
+      </c>
+      <c r="AY132">
+        <v>10</v>
+      </c>
+      <c r="AZ132">
+        <v>8</v>
+      </c>
+      <c r="BA132">
+        <v>12</v>
+      </c>
+      <c r="BB132">
+        <v>6</v>
+      </c>
+      <c r="BC132">
+        <v>18</v>
+      </c>
+      <c r="BD132">
+        <v>1.87</v>
+      </c>
+      <c r="BE132">
+        <v>7.1</v>
+      </c>
+      <c r="BF132">
+        <v>2.42</v>
+      </c>
+      <c r="BG132">
+        <v>1.36</v>
+      </c>
+      <c r="BH132">
+        <v>2.85</v>
+      </c>
+      <c r="BI132">
+        <v>1.64</v>
+      </c>
+      <c r="BJ132">
+        <v>2.1</v>
+      </c>
+      <c r="BK132">
+        <v>2.08</v>
+      </c>
+      <c r="BL132">
+        <v>1.65</v>
+      </c>
+      <c r="BM132">
+        <v>2.75</v>
+      </c>
+      <c r="BN132">
+        <v>1.38</v>
+      </c>
+      <c r="BO132">
+        <v>3.85</v>
+      </c>
+      <c r="BP132">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7345237</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45514.6875</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>94</v>
+      </c>
+      <c r="H133" t="s">
+        <v>72</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>185</v>
+      </c>
+      <c r="P133" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q133">
+        <v>3.25</v>
+      </c>
+      <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
+        <v>4.5</v>
+      </c>
+      <c r="T133">
+        <v>1.62</v>
+      </c>
+      <c r="U133">
+        <v>2.2</v>
+      </c>
+      <c r="V133">
+        <v>4</v>
+      </c>
+      <c r="W133">
+        <v>1.22</v>
+      </c>
+      <c r="X133">
+        <v>13</v>
+      </c>
+      <c r="Y133">
+        <v>1.04</v>
+      </c>
+      <c r="Z133">
+        <v>2.3</v>
+      </c>
+      <c r="AA133">
+        <v>2.63</v>
+      </c>
+      <c r="AB133">
+        <v>3.8</v>
+      </c>
+      <c r="AC133">
+        <v>1.09</v>
+      </c>
+      <c r="AD133">
+        <v>5.8</v>
+      </c>
+      <c r="AE133">
+        <v>1.52</v>
+      </c>
+      <c r="AF133">
+        <v>2.35</v>
+      </c>
+      <c r="AG133">
+        <v>3.5</v>
+      </c>
+      <c r="AH133">
+        <v>1.3</v>
+      </c>
+      <c r="AI133">
+        <v>2.5</v>
+      </c>
+      <c r="AJ133">
+        <v>1.5</v>
+      </c>
+      <c r="AK133">
+        <v>1.22</v>
+      </c>
+      <c r="AL133">
+        <v>1.42</v>
+      </c>
+      <c r="AM133">
+        <v>1.55</v>
+      </c>
+      <c r="AN133">
+        <v>1.33</v>
+      </c>
+      <c r="AO133">
+        <v>1.22</v>
+      </c>
+      <c r="AP133">
+        <v>1.5</v>
+      </c>
+      <c r="AQ133">
+        <v>1.1</v>
+      </c>
+      <c r="AR133">
+        <v>1.24</v>
+      </c>
+      <c r="AS133">
+        <v>1.4</v>
+      </c>
+      <c r="AT133">
+        <v>2.64</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>3</v>
+      </c>
+      <c r="AW133">
+        <v>4</v>
+      </c>
+      <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>7</v>
+      </c>
+      <c r="AZ133">
+        <v>5</v>
+      </c>
+      <c r="BA133">
+        <v>2</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>5</v>
+      </c>
+      <c r="BD133">
+        <v>2</v>
+      </c>
+      <c r="BE133">
+        <v>7</v>
+      </c>
+      <c r="BF133">
+        <v>2.2</v>
+      </c>
+      <c r="BG133">
+        <v>1.36</v>
+      </c>
+      <c r="BH133">
+        <v>2.8</v>
+      </c>
+      <c r="BI133">
+        <v>1.65</v>
+      </c>
+      <c r="BJ133">
+        <v>2.08</v>
+      </c>
+      <c r="BK133">
+        <v>2.1</v>
+      </c>
+      <c r="BL133">
+        <v>1.64</v>
+      </c>
+      <c r="BM133">
+        <v>2.8</v>
+      </c>
+      <c r="BN133">
+        <v>1.37</v>
+      </c>
+      <c r="BO133">
+        <v>3.85</v>
+      </c>
+      <c r="BP133">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7345234</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45514.78125</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" t="s">
+        <v>97</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>171</v>
+      </c>
+      <c r="P134" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q134">
+        <v>4.5</v>
+      </c>
+      <c r="R134">
+        <v>1.83</v>
+      </c>
+      <c r="S134">
+        <v>3.25</v>
+      </c>
+      <c r="T134">
+        <v>1.62</v>
+      </c>
+      <c r="U134">
+        <v>2.28</v>
+      </c>
+      <c r="V134">
+        <v>3.68</v>
+      </c>
+      <c r="W134">
+        <v>1.24</v>
+      </c>
+      <c r="X134">
+        <v>11</v>
+      </c>
+      <c r="Y134">
+        <v>1.03</v>
+      </c>
+      <c r="Z134">
+        <v>3.6</v>
+      </c>
+      <c r="AA134">
+        <v>2.88</v>
+      </c>
+      <c r="AB134">
+        <v>2.35</v>
+      </c>
+      <c r="AC134">
+        <v>1.11</v>
+      </c>
+      <c r="AD134">
+        <v>6.28</v>
+      </c>
+      <c r="AE134">
+        <v>1.55</v>
+      </c>
+      <c r="AF134">
+        <v>2.39</v>
+      </c>
+      <c r="AG134">
+        <v>3.1</v>
+      </c>
+      <c r="AH134">
+        <v>1.36</v>
+      </c>
+      <c r="AI134">
+        <v>2.38</v>
+      </c>
+      <c r="AJ134">
+        <v>1.53</v>
+      </c>
+      <c r="AK134">
+        <v>1.63</v>
+      </c>
+      <c r="AL134">
+        <v>1.33</v>
+      </c>
+      <c r="AM134">
+        <v>1.33</v>
+      </c>
+      <c r="AN134">
+        <v>1.56</v>
+      </c>
+      <c r="AO134">
+        <v>1.44</v>
+      </c>
+      <c r="AP134">
+        <v>1.5</v>
+      </c>
+      <c r="AQ134">
+        <v>1.4</v>
+      </c>
+      <c r="AR134">
+        <v>1.12</v>
+      </c>
+      <c r="AS134">
+        <v>1.18</v>
+      </c>
+      <c r="AT134">
+        <v>2.3</v>
+      </c>
+      <c r="AU134">
+        <v>5</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134">
+        <v>4</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>9</v>
+      </c>
+      <c r="BA134">
+        <v>6</v>
+      </c>
+      <c r="BB134">
+        <v>5</v>
+      </c>
+      <c r="BC134">
+        <v>11</v>
+      </c>
+      <c r="BD134">
+        <v>2.4</v>
+      </c>
+      <c r="BE134">
+        <v>6.9</v>
+      </c>
+      <c r="BF134">
+        <v>1.89</v>
+      </c>
+      <c r="BG134">
+        <v>1.48</v>
+      </c>
+      <c r="BH134">
+        <v>2.45</v>
+      </c>
+      <c r="BI134">
+        <v>1.92</v>
+      </c>
+      <c r="BJ134">
+        <v>1.88</v>
+      </c>
+      <c r="BK134">
+        <v>2.4</v>
+      </c>
+      <c r="BL134">
+        <v>1.49</v>
+      </c>
+      <c r="BM134">
+        <v>3.3</v>
+      </c>
+      <c r="BN134">
+        <v>1.28</v>
+      </c>
+      <c r="BO134">
+        <v>4.7</v>
+      </c>
+      <c r="BP134">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7345239</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45514.85416666666</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>73</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>150</v>
+      </c>
+      <c r="P135" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q135">
+        <v>2.25</v>
+      </c>
+      <c r="R135">
+        <v>2.1</v>
+      </c>
+      <c r="S135">
+        <v>6</v>
+      </c>
+      <c r="T135">
+        <v>1.44</v>
+      </c>
+      <c r="U135">
+        <v>2.76</v>
+      </c>
+      <c r="V135">
+        <v>3.23</v>
+      </c>
+      <c r="W135">
+        <v>1.34</v>
+      </c>
+      <c r="X135">
+        <v>8.1</v>
+      </c>
+      <c r="Y135">
+        <v>1.06</v>
+      </c>
+      <c r="Z135">
+        <v>1.62</v>
+      </c>
+      <c r="AA135">
+        <v>3.7</v>
+      </c>
+      <c r="AB135">
+        <v>6</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>8</v>
+      </c>
+      <c r="AE135">
+        <v>1.36</v>
+      </c>
+      <c r="AF135">
+        <v>2.9</v>
+      </c>
+      <c r="AG135">
+        <v>2.15</v>
+      </c>
+      <c r="AH135">
+        <v>1.67</v>
+      </c>
+      <c r="AI135">
+        <v>2.2</v>
+      </c>
+      <c r="AJ135">
+        <v>1.62</v>
+      </c>
+      <c r="AK135">
+        <v>1.13</v>
+      </c>
+      <c r="AL135">
+        <v>1.26</v>
+      </c>
+      <c r="AM135">
+        <v>2.36</v>
+      </c>
+      <c r="AN135">
+        <v>1.56</v>
+      </c>
+      <c r="AO135">
+        <v>2.11</v>
+      </c>
+      <c r="AP135">
+        <v>1.5</v>
+      </c>
+      <c r="AQ135">
+        <v>2</v>
+      </c>
+      <c r="AR135">
+        <v>1.88</v>
+      </c>
+      <c r="AS135">
+        <v>1.27</v>
+      </c>
+      <c r="AT135">
+        <v>3.15</v>
+      </c>
+      <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
+        <v>4</v>
+      </c>
+      <c r="AW135">
+        <v>7</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>11</v>
+      </c>
+      <c r="AZ135">
+        <v>9</v>
+      </c>
+      <c r="BA135">
+        <v>6</v>
+      </c>
+      <c r="BB135">
+        <v>4</v>
+      </c>
+      <c r="BC135">
+        <v>10</v>
+      </c>
+      <c r="BD135">
+        <v>1.45</v>
+      </c>
+      <c r="BE135">
+        <v>8.4</v>
+      </c>
+      <c r="BF135">
+        <v>3.55</v>
+      </c>
+      <c r="BG135">
+        <v>1.28</v>
+      </c>
+      <c r="BH135">
+        <v>3.2</v>
+      </c>
+      <c r="BI135">
+        <v>1.53</v>
+      </c>
+      <c r="BJ135">
+        <v>2.33</v>
+      </c>
+      <c r="BK135">
+        <v>2.25</v>
+      </c>
+      <c r="BL135">
+        <v>1.81</v>
+      </c>
+      <c r="BM135">
+        <v>2.52</v>
+      </c>
+      <c r="BN135">
+        <v>1.46</v>
+      </c>
+      <c r="BO135">
+        <v>3.42</v>
+      </c>
+      <c r="BP135">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,15 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['23', '55']</t>
+  </si>
+  <si>
+    <t>['82', '89']</t>
+  </si>
+  <si>
+    <t>['62', '75']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -722,6 +731,12 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['16', '57']</t>
+  </si>
+  <si>
+    <t>['34', '62']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1357,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1423,7 +1438,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1548,7 +1563,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1835,7 +1850,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ4">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2041,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2166,7 +2181,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2372,7 +2387,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2450,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ7">
         <v>1.7</v>
@@ -2659,7 +2674,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3071,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3196,7 +3211,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3402,7 +3417,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3895,7 +3910,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ14">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4638,7 +4653,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4716,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18">
         <v>1.3</v>
@@ -4844,7 +4859,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4922,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
         <v>1.9</v>
@@ -5334,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ21">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR21">
         <v>1.03</v>
@@ -5462,7 +5477,7 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5874,7 +5889,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5952,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AQ24">
         <v>1.4</v>
@@ -6080,7 +6095,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6364,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6492,7 +6507,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6982,7 +6997,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29">
         <v>1.1</v>
@@ -7110,7 +7125,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7316,7 +7331,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7522,7 +7537,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -7603,7 +7618,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR32">
         <v>0.93</v>
@@ -7728,7 +7743,7 @@
         <v>123</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -7809,7 +7824,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>2.04</v>
@@ -8221,7 +8236,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ35">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.3</v>
@@ -8633,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>1.37</v>
@@ -9170,7 +9185,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9248,10 +9263,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ40">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR40">
         <v>1.09</v>
@@ -9663,7 +9678,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ42">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -9994,7 +10009,7 @@
         <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10072,7 +10087,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ44">
         <v>1.9</v>
@@ -10484,7 +10499,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ46">
         <v>1.4</v>
@@ -10612,7 +10627,7 @@
         <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10690,7 +10705,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AQ47">
         <v>1.7</v>
@@ -10818,7 +10833,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>3.1</v>
@@ -11308,7 +11323,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ50">
         <v>1.3</v>
@@ -11720,10 +11735,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR52">
         <v>1.19</v>
@@ -11848,7 +11863,7 @@
         <v>137</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11926,7 +11941,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -12054,7 +12069,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12959,7 +12974,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ58">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13084,7 +13099,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13162,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13290,7 +13305,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13702,7 +13717,7 @@
         <v>113</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -13989,7 +14004,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14320,7 +14335,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14401,7 +14416,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR65">
         <v>1.34</v>
@@ -14607,7 +14622,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR66">
         <v>1.28</v>
@@ -14813,7 +14828,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ67">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14938,7 +14953,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15350,7 +15365,7 @@
         <v>150</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>2.63</v>
@@ -15431,7 +15446,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ70">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>1.69</v>
@@ -15556,7 +15571,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16046,10 +16061,10 @@
         <v>1.2</v>
       </c>
       <c r="AP73">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR73">
         <v>1.12</v>
@@ -16174,7 +16189,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16380,7 +16395,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16586,7 +16601,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -16792,7 +16807,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17204,7 +17219,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17410,7 +17425,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17694,7 +17709,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
         <v>1.9</v>
@@ -17822,7 +17837,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17900,10 +17915,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AQ82">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR82">
         <v>0.98</v>
@@ -18028,7 +18043,7 @@
         <v>159</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18106,7 +18121,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ83">
         <v>1.4</v>
@@ -18312,7 +18327,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ84">
         <v>1.7</v>
@@ -19136,7 +19151,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ88">
         <v>0.7</v>
@@ -19264,7 +19279,7 @@
         <v>162</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19345,7 +19360,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ89">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19676,7 +19691,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19963,7 +19978,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.23</v>
@@ -20088,7 +20103,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20166,10 +20181,10 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ93">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR93">
         <v>1.15</v>
@@ -20294,7 +20309,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20581,7 +20596,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -20787,7 +20802,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR96">
         <v>1.17</v>
@@ -20993,7 +21008,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR97">
         <v>1.13</v>
@@ -21324,7 +21339,7 @@
         <v>102</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21530,7 +21545,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21814,7 +21829,7 @@
         <v>1.43</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>1.3</v>
@@ -21942,7 +21957,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22432,7 +22447,7 @@
         <v>1.33</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>1.4</v>
@@ -22560,7 +22575,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22766,7 +22781,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22844,10 +22859,10 @@
         <v>1.14</v>
       </c>
       <c r="AP106">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ106">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -22972,7 +22987,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23178,7 +23193,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23256,10 +23271,10 @@
         <v>1.57</v>
       </c>
       <c r="AP108">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AQ108">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR108">
         <v>1.03</v>
@@ -24208,7 +24223,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24289,7 +24304,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ113">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24698,10 +24713,10 @@
         <v>0.63</v>
       </c>
       <c r="AP115">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ115">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR115">
         <v>1.13</v>
@@ -24826,7 +24841,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -24907,7 +24922,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ116">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25110,7 +25125,7 @@
         <v>0.86</v>
       </c>
       <c r="AP117">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ117">
         <v>0.78</v>
@@ -26062,7 +26077,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26268,7 +26283,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26555,7 +26570,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ124">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR124">
         <v>1.13</v>
@@ -26680,7 +26695,7 @@
         <v>102</v>
       </c>
       <c r="P125" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>3.25</v>
@@ -26964,7 +26979,7 @@
         <v>0.75</v>
       </c>
       <c r="AP126">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27504,7 +27519,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -27710,7 +27725,7 @@
         <v>134</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27916,7 +27931,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28897,6 +28912,830 @@
       </c>
       <c r="BP135">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7345230</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45515.625</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>91</v>
+      </c>
+      <c r="H136" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>186</v>
+      </c>
+      <c r="P136" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q136">
+        <v>3.5</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>3.4</v>
+      </c>
+      <c r="T136">
+        <v>1.48</v>
+      </c>
+      <c r="U136">
+        <v>2.45</v>
+      </c>
+      <c r="V136">
+        <v>3.15</v>
+      </c>
+      <c r="W136">
+        <v>1.32</v>
+      </c>
+      <c r="X136">
+        <v>9.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>2.75</v>
+      </c>
+      <c r="AA136">
+        <v>3.2</v>
+      </c>
+      <c r="AB136">
+        <v>2.7</v>
+      </c>
+      <c r="AC136">
+        <v>1.07</v>
+      </c>
+      <c r="AD136">
+        <v>9</v>
+      </c>
+      <c r="AE136">
+        <v>1.38</v>
+      </c>
+      <c r="AF136">
+        <v>2.85</v>
+      </c>
+      <c r="AG136">
+        <v>2.3</v>
+      </c>
+      <c r="AH136">
+        <v>1.6</v>
+      </c>
+      <c r="AI136">
+        <v>1.95</v>
+      </c>
+      <c r="AJ136">
+        <v>1.8</v>
+      </c>
+      <c r="AK136">
+        <v>1.5</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.42</v>
+      </c>
+      <c r="AN136">
+        <v>0.11</v>
+      </c>
+      <c r="AO136">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP136">
+        <v>0.4</v>
+      </c>
+      <c r="AQ136">
+        <v>0.5</v>
+      </c>
+      <c r="AR136">
+        <v>1.11</v>
+      </c>
+      <c r="AS136">
+        <v>1.31</v>
+      </c>
+      <c r="AT136">
+        <v>2.42</v>
+      </c>
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>8</v>
+      </c>
+      <c r="AX136">
+        <v>4</v>
+      </c>
+      <c r="AY136">
+        <v>14</v>
+      </c>
+      <c r="AZ136">
+        <v>10</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>6</v>
+      </c>
+      <c r="BD136">
+        <v>1.87</v>
+      </c>
+      <c r="BE136">
+        <v>7.3</v>
+      </c>
+      <c r="BF136">
+        <v>2.39</v>
+      </c>
+      <c r="BG136">
+        <v>1.4</v>
+      </c>
+      <c r="BH136">
+        <v>2.7</v>
+      </c>
+      <c r="BI136">
+        <v>1.71</v>
+      </c>
+      <c r="BJ136">
+        <v>2</v>
+      </c>
+      <c r="BK136">
+        <v>2.18</v>
+      </c>
+      <c r="BL136">
+        <v>1.58</v>
+      </c>
+      <c r="BM136">
+        <v>2.95</v>
+      </c>
+      <c r="BN136">
+        <v>1.34</v>
+      </c>
+      <c r="BO136">
+        <v>4.1</v>
+      </c>
+      <c r="BP136">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7345232</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45515.625</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>86</v>
+      </c>
+      <c r="H137" t="s">
+        <v>88</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>187</v>
+      </c>
+      <c r="P137" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q137">
+        <v>2.88</v>
+      </c>
+      <c r="R137">
+        <v>1.8</v>
+      </c>
+      <c r="S137">
+        <v>6</v>
+      </c>
+      <c r="T137">
+        <v>1.62</v>
+      </c>
+      <c r="U137">
+        <v>2.15</v>
+      </c>
+      <c r="V137">
+        <v>3.8</v>
+      </c>
+      <c r="W137">
+        <v>1.22</v>
+      </c>
+      <c r="X137">
+        <v>14</v>
+      </c>
+      <c r="Y137">
+        <v>1.03</v>
+      </c>
+      <c r="Z137">
+        <v>1.95</v>
+      </c>
+      <c r="AA137">
+        <v>3.1</v>
+      </c>
+      <c r="AB137">
+        <v>4.5</v>
+      </c>
+      <c r="AC137">
+        <v>1.11</v>
+      </c>
+      <c r="AD137">
+        <v>6.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.55</v>
+      </c>
+      <c r="AF137">
+        <v>2.25</v>
+      </c>
+      <c r="AG137">
+        <v>3.5</v>
+      </c>
+      <c r="AH137">
+        <v>1.3</v>
+      </c>
+      <c r="AI137">
+        <v>2.75</v>
+      </c>
+      <c r="AJ137">
+        <v>1.4</v>
+      </c>
+      <c r="AK137">
+        <v>1.2</v>
+      </c>
+      <c r="AL137">
+        <v>1.3</v>
+      </c>
+      <c r="AM137">
+        <v>1.8</v>
+      </c>
+      <c r="AN137">
+        <v>1.67</v>
+      </c>
+      <c r="AO137">
+        <v>1.22</v>
+      </c>
+      <c r="AP137">
+        <v>1.8</v>
+      </c>
+      <c r="AQ137">
+        <v>1.1</v>
+      </c>
+      <c r="AR137">
+        <v>1.17</v>
+      </c>
+      <c r="AS137">
+        <v>1.29</v>
+      </c>
+      <c r="AT137">
+        <v>2.46</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>4</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>8</v>
+      </c>
+      <c r="BA137">
+        <v>5</v>
+      </c>
+      <c r="BB137">
+        <v>7</v>
+      </c>
+      <c r="BC137">
+        <v>12</v>
+      </c>
+      <c r="BD137">
+        <v>1.77</v>
+      </c>
+      <c r="BE137">
+        <v>6.75</v>
+      </c>
+      <c r="BF137">
+        <v>2.6</v>
+      </c>
+      <c r="BG137">
+        <v>1.48</v>
+      </c>
+      <c r="BH137">
+        <v>2.45</v>
+      </c>
+      <c r="BI137">
+        <v>1.85</v>
+      </c>
+      <c r="BJ137">
+        <v>1.95</v>
+      </c>
+      <c r="BK137">
+        <v>2.4</v>
+      </c>
+      <c r="BL137">
+        <v>1.49</v>
+      </c>
+      <c r="BM137">
+        <v>3.3</v>
+      </c>
+      <c r="BN137">
+        <v>1.28</v>
+      </c>
+      <c r="BO137">
+        <v>4.7</v>
+      </c>
+      <c r="BP137">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7345231</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45515.72916666666</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>89</v>
+      </c>
+      <c r="H138" t="s">
+        <v>96</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>188</v>
+      </c>
+      <c r="P138" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q138">
+        <v>4.75</v>
+      </c>
+      <c r="R138">
+        <v>1.91</v>
+      </c>
+      <c r="S138">
+        <v>3</v>
+      </c>
+      <c r="T138">
+        <v>1.6</v>
+      </c>
+      <c r="U138">
+        <v>2.2</v>
+      </c>
+      <c r="V138">
+        <v>3.7</v>
+      </c>
+      <c r="W138">
+        <v>1.23</v>
+      </c>
+      <c r="X138">
+        <v>13</v>
+      </c>
+      <c r="Y138">
+        <v>1.04</v>
+      </c>
+      <c r="Z138">
+        <v>3.9</v>
+      </c>
+      <c r="AA138">
+        <v>3.1</v>
+      </c>
+      <c r="AB138">
+        <v>2.1</v>
+      </c>
+      <c r="AC138">
+        <v>1.1</v>
+      </c>
+      <c r="AD138">
+        <v>6.75</v>
+      </c>
+      <c r="AE138">
+        <v>1.52</v>
+      </c>
+      <c r="AF138">
+        <v>2.35</v>
+      </c>
+      <c r="AG138">
+        <v>2.7</v>
+      </c>
+      <c r="AH138">
+        <v>1.44</v>
+      </c>
+      <c r="AI138">
+        <v>2.25</v>
+      </c>
+      <c r="AJ138">
+        <v>1.57</v>
+      </c>
+      <c r="AK138">
+        <v>1.52</v>
+      </c>
+      <c r="AL138">
+        <v>1.32</v>
+      </c>
+      <c r="AM138">
+        <v>1.32</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
+        <v>1.89</v>
+      </c>
+      <c r="AP138">
+        <v>1</v>
+      </c>
+      <c r="AQ138">
+        <v>1.8</v>
+      </c>
+      <c r="AR138">
+        <v>1.28</v>
+      </c>
+      <c r="AS138">
+        <v>1.19</v>
+      </c>
+      <c r="AT138">
+        <v>2.47</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>8</v>
+      </c>
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
+        <v>14</v>
+      </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
+      <c r="BA138">
+        <v>6</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>8</v>
+      </c>
+      <c r="BD138">
+        <v>1.83</v>
+      </c>
+      <c r="BE138">
+        <v>7</v>
+      </c>
+      <c r="BF138">
+        <v>2.43</v>
+      </c>
+      <c r="BG138">
+        <v>1.36</v>
+      </c>
+      <c r="BH138">
+        <v>2.85</v>
+      </c>
+      <c r="BI138">
+        <v>1.64</v>
+      </c>
+      <c r="BJ138">
+        <v>2.1</v>
+      </c>
+      <c r="BK138">
+        <v>2.08</v>
+      </c>
+      <c r="BL138">
+        <v>1.65</v>
+      </c>
+      <c r="BM138">
+        <v>2.75</v>
+      </c>
+      <c r="BN138">
+        <v>1.38</v>
+      </c>
+      <c r="BO138">
+        <v>3.85</v>
+      </c>
+      <c r="BP138">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7345236</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45515.83333333334</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>93</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>102</v>
+      </c>
+      <c r="P139" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q139">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>1.83</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>1.57</v>
+      </c>
+      <c r="U139">
+        <v>2.25</v>
+      </c>
+      <c r="V139">
+        <v>3.75</v>
+      </c>
+      <c r="W139">
+        <v>1.25</v>
+      </c>
+      <c r="X139">
+        <v>11</v>
+      </c>
+      <c r="Y139">
+        <v>1.05</v>
+      </c>
+      <c r="Z139">
+        <v>2.15</v>
+      </c>
+      <c r="AA139">
+        <v>2.8</v>
+      </c>
+      <c r="AB139">
+        <v>4.2</v>
+      </c>
+      <c r="AC139">
+        <v>1.06</v>
+      </c>
+      <c r="AD139">
+        <v>7</v>
+      </c>
+      <c r="AE139">
+        <v>1.5</v>
+      </c>
+      <c r="AF139">
+        <v>2.45</v>
+      </c>
+      <c r="AG139">
+        <v>3.1</v>
+      </c>
+      <c r="AH139">
+        <v>1.36</v>
+      </c>
+      <c r="AI139">
+        <v>2.38</v>
+      </c>
+      <c r="AJ139">
+        <v>1.53</v>
+      </c>
+      <c r="AK139">
+        <v>1.24</v>
+      </c>
+      <c r="AL139">
+        <v>1.32</v>
+      </c>
+      <c r="AM139">
+        <v>1.8</v>
+      </c>
+      <c r="AN139">
+        <v>1.67</v>
+      </c>
+      <c r="AO139">
+        <v>0.89</v>
+      </c>
+      <c r="AP139">
+        <v>1.5</v>
+      </c>
+      <c r="AQ139">
+        <v>1.1</v>
+      </c>
+      <c r="AR139">
+        <v>1.68</v>
+      </c>
+      <c r="AS139">
+        <v>1.14</v>
+      </c>
+      <c r="AT139">
+        <v>2.82</v>
+      </c>
+      <c r="AU139">
+        <v>4</v>
+      </c>
+      <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>4</v>
+      </c>
+      <c r="AY139">
+        <v>10</v>
+      </c>
+      <c r="AZ139">
+        <v>10</v>
+      </c>
+      <c r="BA139">
+        <v>6</v>
+      </c>
+      <c r="BB139">
+        <v>5</v>
+      </c>
+      <c r="BC139">
+        <v>11</v>
+      </c>
+      <c r="BD139">
+        <v>1.59</v>
+      </c>
+      <c r="BE139">
+        <v>7.8</v>
+      </c>
+      <c r="BF139">
+        <v>3</v>
+      </c>
+      <c r="BG139">
+        <v>1.36</v>
+      </c>
+      <c r="BH139">
+        <v>2.8</v>
+      </c>
+      <c r="BI139">
+        <v>1.65</v>
+      </c>
+      <c r="BJ139">
+        <v>2.08</v>
+      </c>
+      <c r="BK139">
+        <v>2.1</v>
+      </c>
+      <c r="BL139">
+        <v>1.64</v>
+      </c>
+      <c r="BM139">
+        <v>2.8</v>
+      </c>
+      <c r="BN139">
+        <v>1.37</v>
+      </c>
+      <c r="BO139">
+        <v>3.85</v>
+      </c>
+      <c r="BP139">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -738,6 +738,9 @@
   <si>
     <t>['34', '62']</t>
   </si>
+  <si>
+    <t>['36', '74']</t>
+  </si>
 </sst>
 </file>
 
@@ -1098,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2259,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>0.7</v>
@@ -3083,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -4322,7 +4325,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0.93</v>
@@ -6588,7 +6591,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR27">
         <v>1.21</v>
@@ -7409,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ31">
         <v>1.7</v>
@@ -11120,7 +11123,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11944,7 +11947,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.79</v>
@@ -12765,7 +12768,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -13795,7 +13798,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ62">
         <v>1.6</v>
@@ -15652,7 +15655,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -17094,7 +17097,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.79</v>
@@ -19769,7 +19772,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -20799,7 +20802,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ96">
         <v>0.4</v>
@@ -23065,7 +23068,7 @@
         <v>1.29</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23686,7 +23689,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ110">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.26</v>
@@ -24507,7 +24510,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
         <v>1.3</v>
@@ -26158,7 +26161,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR122">
         <v>1.39</v>
@@ -29736,6 +29739,212 @@
       </c>
       <c r="BP139">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7345242</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45516.79166666666</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>102</v>
+      </c>
+      <c r="P140" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q140">
+        <v>3.6</v>
+      </c>
+      <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>4</v>
+      </c>
+      <c r="T140">
+        <v>1.57</v>
+      </c>
+      <c r="U140">
+        <v>2.25</v>
+      </c>
+      <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.25</v>
+      </c>
+      <c r="X140">
+        <v>11</v>
+      </c>
+      <c r="Y140">
+        <v>1.05</v>
+      </c>
+      <c r="Z140">
+        <v>2.6</v>
+      </c>
+      <c r="AA140">
+        <v>2.9</v>
+      </c>
+      <c r="AB140">
+        <v>3</v>
+      </c>
+      <c r="AC140">
+        <v>1.1</v>
+      </c>
+      <c r="AD140">
+        <v>6.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.48</v>
+      </c>
+      <c r="AF140">
+        <v>2.45</v>
+      </c>
+      <c r="AG140">
+        <v>3.4</v>
+      </c>
+      <c r="AH140">
+        <v>1.33</v>
+      </c>
+      <c r="AI140">
+        <v>2.5</v>
+      </c>
+      <c r="AJ140">
+        <v>1.5</v>
+      </c>
+      <c r="AK140">
+        <v>1.48</v>
+      </c>
+      <c r="AL140">
+        <v>1.3</v>
+      </c>
+      <c r="AM140">
+        <v>1.4</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
+        <v>1.13</v>
+      </c>
+      <c r="AP140">
+        <v>0.9</v>
+      </c>
+      <c r="AQ140">
+        <v>1.33</v>
+      </c>
+      <c r="AR140">
+        <v>1.35</v>
+      </c>
+      <c r="AS140">
+        <v>1.21</v>
+      </c>
+      <c r="AT140">
+        <v>2.56</v>
+      </c>
+      <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>10</v>
+      </c>
+      <c r="AZ140">
+        <v>12</v>
+      </c>
+      <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
+        <v>2</v>
+      </c>
+      <c r="BC140">
+        <v>10</v>
+      </c>
+      <c r="BD140">
+        <v>2</v>
+      </c>
+      <c r="BE140">
+        <v>6.75</v>
+      </c>
+      <c r="BF140">
+        <v>2.2</v>
+      </c>
+      <c r="BG140">
+        <v>1.48</v>
+      </c>
+      <c r="BH140">
+        <v>2.45</v>
+      </c>
+      <c r="BI140">
+        <v>1.88</v>
+      </c>
+      <c r="BJ140">
+        <v>1.92</v>
+      </c>
+      <c r="BK140">
+        <v>2.4</v>
+      </c>
+      <c r="BL140">
+        <v>1.49</v>
+      </c>
+      <c r="BM140">
+        <v>3.3</v>
+      </c>
+      <c r="BN140">
+        <v>1.28</v>
+      </c>
+      <c r="BO140">
+        <v>4.7</v>
+      </c>
+      <c r="BP140">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -229,10 +229,10 @@
     <t>Sarmiento</t>
   </si>
   <si>
-    <t>Argentinos Juniors</t>
+    <t>Newell's Old Boys</t>
   </si>
   <si>
-    <t>Newell's Old Boys</t>
+    <t>Argentinos Juniors</t>
   </si>
   <si>
     <t>Huracán</t>
@@ -283,10 +283,10 @@
     <t>Platense</t>
   </si>
   <si>
-    <t>Banfield</t>
+    <t>Talleres Córdoba</t>
   </si>
   <si>
-    <t>Talleres Córdoba</t>
+    <t>Banfield</t>
   </si>
   <si>
     <t>Central Córdoba SdE</t>
@@ -298,10 +298,10 @@
     <t>Estudiantes</t>
   </si>
   <si>
-    <t>Rosario Central</t>
+    <t>Racing Club</t>
   </si>
   <si>
-    <t>Racing Club</t>
+    <t>Rosario Central</t>
   </si>
   <si>
     <t>Vélez Sarsfield</t>
@@ -313,10 +313,10 @@
     <t>['48']</t>
   </si>
   <si>
-    <t>['21', '45+8', '58']</t>
+    <t>['82', '90+4']</t>
   </si>
   <si>
-    <t>['82', '90+4']</t>
+    <t>['21', '45+8', '58']</t>
   </si>
   <si>
     <t>['45', '59', '90+3']</t>
@@ -358,10 +358,10 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['45+3', '48']</t>
   </si>
   <si>
-    <t>['45+3', '48']</t>
+    <t>['80']</t>
   </si>
   <si>
     <t>['3', '45+3']</t>
@@ -373,10 +373,10 @@
     <t>['42', '90+1']</t>
   </si>
   <si>
-    <t>['90+5']</t>
+    <t>['26', '63', '84']</t>
   </si>
   <si>
-    <t>['26', '63', '84']</t>
+    <t>['90+5']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -421,10 +421,10 @@
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['13', '53', '57']</t>
+    <t>['29', '81']</t>
   </si>
   <si>
-    <t>['29', '81']</t>
+    <t>['13', '53', '57']</t>
   </si>
   <si>
     <t>['86']</t>
@@ -439,10 +439,10 @@
     <t>['13', '58']</t>
   </si>
   <si>
-    <t>['3', '52']</t>
+    <t>['29', '85']</t>
   </si>
   <si>
-    <t>['29', '85']</t>
+    <t>['3', '52']</t>
   </si>
   <si>
     <t>['56', '90+2']</t>
@@ -454,10 +454,10 @@
     <t>['44', '65']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['7', '71']</t>
   </si>
   <si>
-    <t>['7', '71']</t>
+    <t>['61']</t>
   </si>
   <si>
     <t>['79', '83']</t>
@@ -535,10 +535,10 @@
     <t>['27', '79']</t>
   </si>
   <si>
-    <t>['53', '57']</t>
+    <t>['34']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['53', '57']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -550,16 +550,16 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['22', '56', '59']</t>
+  </si>
+  <si>
     <t>['45+1']</t>
   </si>
   <si>
-    <t>['22', '56', '59']</t>
+    <t>['49', '54']</t>
   </si>
   <si>
     <t>['56', '69', '90']</t>
-  </si>
-  <si>
-    <t>['49', '54']</t>
   </si>
   <si>
     <t>['39']</t>
@@ -574,10 +574,10 @@
     <t>['83']</t>
   </si>
   <si>
-    <t>['23', '55']</t>
+    <t>['82', '89']</t>
   </si>
   <si>
-    <t>['82', '89']</t>
+    <t>['23', '55']</t>
   </si>
   <si>
     <t>['62', '75']</t>
@@ -646,10 +646,10 @@
     <t>['42', '87']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['58']</t>
   </si>
   <si>
-    <t>['58']</t>
+    <t>['28']</t>
   </si>
   <si>
     <t>['8', '57']</t>
@@ -712,19 +712,19 @@
     <t>['34', '53', '70']</t>
   </si>
   <si>
-    <t>['2']</t>
+    <t>['22', '72']</t>
   </si>
   <si>
-    <t>['22', '72']</t>
+    <t>['2']</t>
   </si>
   <si>
     <t>['13', '34', '47', '55']</t>
   </si>
   <si>
-    <t>['38', '73']</t>
+    <t>['12']</t>
   </si>
   <si>
-    <t>['12']</t>
+    <t>['38', '73']</t>
   </si>
   <si>
     <t>['79']</t>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7345106</v>
+        <v>7345115</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -1542,85 +1542,85 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>2</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
       </c>
       <c r="O3" t="s">
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="Q3">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S3">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="U3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y3">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Z3">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AA3">
         <v>3.25</v>
       </c>
       <c r="AB3">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="AC3">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD3">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="AE3">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
         <v>2.7</v>
       </c>
-      <c r="AG3">
-        <v>2.6</v>
-      </c>
       <c r="AH3">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AI3">
         <v>2.25</v>
@@ -1629,13 +1629,13 @@
         <v>1.57</v>
       </c>
       <c r="AK3">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AL3">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AM3">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1659,70 +1659,70 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>6</v>
+      </c>
+      <c r="AY3">
+        <v>12</v>
+      </c>
+      <c r="AZ3">
+        <v>8</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
         <v>5</v>
-      </c>
-      <c r="AW3">
-        <v>7</v>
-      </c>
-      <c r="AX3">
-        <v>4</v>
-      </c>
-      <c r="AY3">
-        <v>17</v>
-      </c>
-      <c r="AZ3">
-        <v>9</v>
-      </c>
-      <c r="BA3">
-        <v>6</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
       </c>
       <c r="BC3">
         <v>6</v>
       </c>
       <c r="BD3">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="BE3">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF3">
-        <v>3.83</v>
+        <v>2.78</v>
       </c>
       <c r="BG3">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="BH3">
-        <v>3.3</v>
+        <v>2.08</v>
       </c>
       <c r="BI3">
-        <v>1.49</v>
+        <v>2.14</v>
       </c>
       <c r="BJ3">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="BK3">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="BL3">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="BM3">
-        <v>2.38</v>
+        <v>4.1</v>
       </c>
       <c r="BN3">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="BO3">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="BP3">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -1730,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7345115</v>
+        <v>7345106</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1748,85 +1748,85 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="Q4">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R4">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T4">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="W4">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="X4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA4">
         <v>3.25</v>
       </c>
       <c r="AB4">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AC4">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD4">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE4">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="AF4">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AG4">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AH4">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AI4">
         <v>2.25</v>
@@ -1835,13 +1835,13 @@
         <v>1.57</v>
       </c>
       <c r="AK4">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AL4">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AM4">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AQ4">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1865,70 +1865,70 @@
         <v>0</v>
       </c>
       <c r="AU4">
+        <v>10</v>
+      </c>
+      <c r="AV4">
+        <v>5</v>
+      </c>
+      <c r="AW4">
+        <v>7</v>
+      </c>
+      <c r="AX4">
+        <v>4</v>
+      </c>
+      <c r="AY4">
+        <v>17</v>
+      </c>
+      <c r="AZ4">
         <v>9</v>
       </c>
-      <c r="AV4">
-        <v>2</v>
-      </c>
-      <c r="AW4">
-        <v>3</v>
-      </c>
-      <c r="AX4">
+      <c r="BA4">
         <v>6</v>
       </c>
-      <c r="AY4">
-        <v>12</v>
-      </c>
-      <c r="AZ4">
-        <v>8</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
       <c r="BB4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC4">
         <v>6</v>
       </c>
       <c r="BD4">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="BE4">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="BF4">
-        <v>2.78</v>
+        <v>3.83</v>
       </c>
       <c r="BG4">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="BH4">
-        <v>2.08</v>
+        <v>3.3</v>
       </c>
       <c r="BI4">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="BJ4">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="BK4">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="BL4">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="BM4">
-        <v>4.1</v>
+        <v>2.38</v>
       </c>
       <c r="BN4">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="BO4">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="BP4">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -2366,7 +2366,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3190,7 +3190,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7345123</v>
+        <v>7345119</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5456,22 +5456,22 @@
         <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -5480,163 +5480,163 @@
         <v>114</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="Q22">
+        <v>2.4</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>5.5</v>
+      </c>
+      <c r="T22">
+        <v>1.5</v>
+      </c>
+      <c r="U22">
+        <v>2.5</v>
+      </c>
+      <c r="V22">
         <v>3.4</v>
       </c>
-      <c r="R22">
-        <v>1.83</v>
-      </c>
-      <c r="S22">
-        <v>4.33</v>
-      </c>
-      <c r="T22">
-        <v>1.67</v>
-      </c>
-      <c r="U22">
-        <v>2.1</v>
-      </c>
-      <c r="V22">
-        <v>4.33</v>
-      </c>
       <c r="W22">
+        <v>1.3</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>1.06</v>
+      </c>
+      <c r="Z22">
+        <v>1.75</v>
+      </c>
+      <c r="AA22">
+        <v>3.6</v>
+      </c>
+      <c r="AB22">
+        <v>5</v>
+      </c>
+      <c r="AC22">
+        <v>1.07</v>
+      </c>
+      <c r="AD22">
+        <v>7.61</v>
+      </c>
+      <c r="AE22">
+        <v>1.43</v>
+      </c>
+      <c r="AF22">
+        <v>2.76</v>
+      </c>
+      <c r="AG22">
+        <v>2.2</v>
+      </c>
+      <c r="AH22">
+        <v>1.65</v>
+      </c>
+      <c r="AI22">
+        <v>2.05</v>
+      </c>
+      <c r="AJ22">
+        <v>1.7</v>
+      </c>
+      <c r="AK22">
         <v>1.2</v>
       </c>
-      <c r="X22">
-        <v>15</v>
-      </c>
-      <c r="Y22">
-        <v>1.03</v>
-      </c>
-      <c r="Z22">
-        <v>2.7</v>
-      </c>
-      <c r="AA22">
-        <v>2.9</v>
-      </c>
-      <c r="AB22">
-        <v>2.9</v>
-      </c>
-      <c r="AC22">
-        <v>1.13</v>
-      </c>
-      <c r="AD22">
-        <v>5.75</v>
-      </c>
-      <c r="AE22">
-        <v>1.6</v>
-      </c>
-      <c r="AF22">
-        <v>2.2</v>
-      </c>
-      <c r="AG22">
-        <v>2.88</v>
-      </c>
-      <c r="AH22">
-        <v>1.4</v>
-      </c>
-      <c r="AI22">
-        <v>2.2</v>
-      </c>
-      <c r="AJ22">
-        <v>1.62</v>
-      </c>
-      <c r="AK22">
-        <v>1.33</v>
-      </c>
       <c r="AL22">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AM22">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR22">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="AS22">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AT22">
-        <v>2.18</v>
+        <v>2.71</v>
       </c>
       <c r="AU22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX22">
+        <v>15</v>
+      </c>
+      <c r="AY22">
         <v>13</v>
       </c>
-      <c r="AY22">
-        <v>18</v>
-      </c>
       <c r="AZ22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BC22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD22">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="BE22">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="BF22">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="BG22">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="BH22">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="BI22">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="BJ22">
-        <v>2.01</v>
+        <v>2.3</v>
       </c>
       <c r="BK22">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="BL22">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="BM22">
-        <v>2.98</v>
+        <v>2.45</v>
       </c>
       <c r="BN22">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="BO22">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="BP22">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5644,7 +5644,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7345119</v>
+        <v>7345123</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5662,22 +5662,22 @@
         <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -5686,163 +5686,163 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="Q23">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R23">
+        <v>1.83</v>
+      </c>
+      <c r="S23">
+        <v>4.33</v>
+      </c>
+      <c r="T23">
+        <v>1.67</v>
+      </c>
+      <c r="U23">
         <v>2.1</v>
       </c>
-      <c r="S23">
-        <v>5.5</v>
-      </c>
-      <c r="T23">
-        <v>1.5</v>
-      </c>
-      <c r="U23">
-        <v>2.5</v>
-      </c>
       <c r="V23">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W23">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y23">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Z23">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="AA23">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AB23">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="AC23">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AD23">
-        <v>7.61</v>
+        <v>5.75</v>
       </c>
       <c r="AE23">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AF23">
-        <v>2.76</v>
+        <v>2.2</v>
       </c>
       <c r="AG23">
+        <v>2.88</v>
+      </c>
+      <c r="AH23">
+        <v>1.4</v>
+      </c>
+      <c r="AI23">
         <v>2.2</v>
       </c>
-      <c r="AH23">
-        <v>1.65</v>
-      </c>
-      <c r="AI23">
-        <v>2.05</v>
-      </c>
       <c r="AJ23">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AK23">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AL23">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR23">
-        <v>1.41</v>
+        <v>0.71</v>
       </c>
       <c r="AS23">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AT23">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="AU23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX23">
+        <v>13</v>
+      </c>
+      <c r="AY23">
+        <v>18</v>
+      </c>
+      <c r="AZ23">
         <v>15</v>
       </c>
-      <c r="AY23">
-        <v>13</v>
-      </c>
-      <c r="AZ23">
-        <v>20</v>
-      </c>
       <c r="BA23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BC23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD23">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="BE23">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="BF23">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="BG23">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="BH23">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="BI23">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="BJ23">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="BK23">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="BL23">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="BM23">
-        <v>2.45</v>
+        <v>2.98</v>
       </c>
       <c r="BN23">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="BO23">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="BP23">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -6468,7 +6468,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7345129</v>
+        <v>7345130</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6486,148 +6486,148 @@
         <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="Q27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R27">
         <v>2.05</v>
       </c>
       <c r="S27">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="T27">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U27">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V27">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W27">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y27">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z27">
+        <v>1.9</v>
+      </c>
+      <c r="AA27">
+        <v>3.25</v>
+      </c>
+      <c r="AB27">
+        <v>4.5</v>
+      </c>
+      <c r="AC27">
+        <v>1.09</v>
+      </c>
+      <c r="AD27">
+        <v>6.4</v>
+      </c>
+      <c r="AE27">
+        <v>1.38</v>
+      </c>
+      <c r="AF27">
+        <v>2.94</v>
+      </c>
+      <c r="AG27">
+        <v>2.15</v>
+      </c>
+      <c r="AH27">
+        <v>1.67</v>
+      </c>
+      <c r="AI27">
+        <v>1.95</v>
+      </c>
+      <c r="AJ27">
         <v>1.8</v>
       </c>
-      <c r="AA27">
-        <v>3.5</v>
-      </c>
-      <c r="AB27">
-        <v>5</v>
-      </c>
-      <c r="AC27">
-        <v>1.08</v>
-      </c>
-      <c r="AD27">
-        <v>7.2</v>
-      </c>
-      <c r="AE27">
-        <v>1.46</v>
-      </c>
-      <c r="AF27">
-        <v>2.65</v>
-      </c>
-      <c r="AG27">
-        <v>2.35</v>
-      </c>
-      <c r="AH27">
-        <v>1.57</v>
-      </c>
-      <c r="AI27">
-        <v>2.1</v>
-      </c>
-      <c r="AJ27">
-        <v>1.67</v>
-      </c>
       <c r="AK27">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AL27">
+        <v>1.28</v>
+      </c>
+      <c r="AM27">
+        <v>1.83</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>1.7</v>
+      </c>
+      <c r="AQ27">
         <v>1.3</v>
       </c>
-      <c r="AM27">
-        <v>1.92</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1.5</v>
-      </c>
-      <c r="AQ27">
-        <v>0.9</v>
-      </c>
       <c r="AR27">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="AS27">
-        <v>1.34</v>
+        <v>2.28</v>
       </c>
       <c r="AT27">
-        <v>2.55</v>
+        <v>4.15</v>
       </c>
       <c r="AU27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>9</v>
+      </c>
+      <c r="AX27">
+        <v>7</v>
+      </c>
+      <c r="AY27">
+        <v>19</v>
+      </c>
+      <c r="AZ27">
+        <v>7</v>
+      </c>
+      <c r="BA27">
+        <v>3</v>
+      </c>
+      <c r="BB27">
         <v>4</v>
       </c>
-      <c r="AW27">
-        <v>4</v>
-      </c>
-      <c r="AX27">
-        <v>6</v>
-      </c>
-      <c r="AY27">
-        <v>9</v>
-      </c>
-      <c r="AZ27">
-        <v>10</v>
-      </c>
-      <c r="BA27">
+      <c r="BC27">
         <v>7</v>
-      </c>
-      <c r="BB27">
-        <v>2</v>
-      </c>
-      <c r="BC27">
-        <v>9</v>
       </c>
       <c r="BD27">
         <v>1.62</v>
@@ -6639,34 +6639,34 @@
         <v>3.01</v>
       </c>
       <c r="BG27">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BH27">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BI27">
+        <v>1.71</v>
+      </c>
+      <c r="BJ27">
+        <v>2</v>
+      </c>
+      <c r="BK27">
+        <v>2.2</v>
+      </c>
+      <c r="BL27">
         <v>1.58</v>
       </c>
-      <c r="BJ27">
-        <v>2.18</v>
-      </c>
-      <c r="BK27">
-        <v>2</v>
-      </c>
-      <c r="BL27">
-        <v>1.71</v>
-      </c>
       <c r="BM27">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="BN27">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BO27">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="BP27">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6674,7 +6674,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7345130</v>
+        <v>7345129</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6692,148 +6692,148 @@
         <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
         <v>120</v>
       </c>
       <c r="P28" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="Q28">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
         <v>2.05</v>
       </c>
       <c r="S28">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="T28">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U28">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V28">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W28">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X28">
+        <v>11</v>
+      </c>
+      <c r="Y28">
+        <v>1.05</v>
+      </c>
+      <c r="Z28">
+        <v>1.8</v>
+      </c>
+      <c r="AA28">
+        <v>3.5</v>
+      </c>
+      <c r="AB28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <v>1.08</v>
+      </c>
+      <c r="AD28">
+        <v>7.2</v>
+      </c>
+      <c r="AE28">
+        <v>1.46</v>
+      </c>
+      <c r="AF28">
+        <v>2.65</v>
+      </c>
+      <c r="AG28">
+        <v>2.35</v>
+      </c>
+      <c r="AH28">
+        <v>1.57</v>
+      </c>
+      <c r="AI28">
+        <v>2.1</v>
+      </c>
+      <c r="AJ28">
+        <v>1.67</v>
+      </c>
+      <c r="AK28">
+        <v>1.2</v>
+      </c>
+      <c r="AL28">
+        <v>1.3</v>
+      </c>
+      <c r="AM28">
+        <v>1.92</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1.5</v>
+      </c>
+      <c r="AQ28">
+        <v>0.9</v>
+      </c>
+      <c r="AR28">
+        <v>1.21</v>
+      </c>
+      <c r="AS28">
+        <v>1.34</v>
+      </c>
+      <c r="AT28">
+        <v>2.55</v>
+      </c>
+      <c r="AU28">
+        <v>5</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>9</v>
+      </c>
+      <c r="AZ28">
         <v>10</v>
       </c>
-      <c r="Y28">
-        <v>1.06</v>
-      </c>
-      <c r="Z28">
-        <v>1.9</v>
-      </c>
-      <c r="AA28">
-        <v>3.25</v>
-      </c>
-      <c r="AB28">
-        <v>4.5</v>
-      </c>
-      <c r="AC28">
-        <v>1.09</v>
-      </c>
-      <c r="AD28">
-        <v>6.4</v>
-      </c>
-      <c r="AE28">
-        <v>1.38</v>
-      </c>
-      <c r="AF28">
-        <v>2.94</v>
-      </c>
-      <c r="AG28">
-        <v>2.15</v>
-      </c>
-      <c r="AH28">
-        <v>1.67</v>
-      </c>
-      <c r="AI28">
-        <v>1.95</v>
-      </c>
-      <c r="AJ28">
-        <v>1.8</v>
-      </c>
-      <c r="AK28">
-        <v>1.26</v>
-      </c>
-      <c r="AL28">
-        <v>1.28</v>
-      </c>
-      <c r="AM28">
-        <v>1.83</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>3</v>
-      </c>
-      <c r="AP28">
-        <v>1.7</v>
-      </c>
-      <c r="AQ28">
-        <v>1.3</v>
-      </c>
-      <c r="AR28">
-        <v>1.87</v>
-      </c>
-      <c r="AS28">
-        <v>2.28</v>
-      </c>
-      <c r="AT28">
-        <v>4.15</v>
-      </c>
-      <c r="AU28">
-        <v>10</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
+      <c r="BA28">
+        <v>7</v>
+      </c>
+      <c r="BB28">
+        <v>2</v>
+      </c>
+      <c r="BC28">
         <v>9</v>
-      </c>
-      <c r="AX28">
-        <v>7</v>
-      </c>
-      <c r="AY28">
-        <v>19</v>
-      </c>
-      <c r="AZ28">
-        <v>7</v>
-      </c>
-      <c r="BA28">
-        <v>3</v>
-      </c>
-      <c r="BB28">
-        <v>4</v>
-      </c>
-      <c r="BC28">
-        <v>7</v>
       </c>
       <c r="BD28">
         <v>1.62</v>
@@ -6845,34 +6845,34 @@
         <v>3.01</v>
       </c>
       <c r="BG28">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BH28">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BI28">
+        <v>1.58</v>
+      </c>
+      <c r="BJ28">
+        <v>2.18</v>
+      </c>
+      <c r="BK28">
+        <v>2</v>
+      </c>
+      <c r="BL28">
         <v>1.71</v>
       </c>
-      <c r="BJ28">
-        <v>2</v>
-      </c>
-      <c r="BK28">
-        <v>2.2</v>
-      </c>
-      <c r="BL28">
-        <v>1.58</v>
-      </c>
       <c r="BM28">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BN28">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BO28">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="BP28">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6898,7 +6898,7 @@
         <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -7104,7 +7104,7 @@
         <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
         <v>76</v>
@@ -8131,7 +8131,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
         <v>85</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P35" t="s">
         <v>102</v>
@@ -8340,7 +8340,7 @@
         <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s">
         <v>77</v>
@@ -10194,7 +10194,7 @@
         <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>91</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -10809,7 +10809,7 @@
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s">
         <v>80</v>
@@ -11000,7 +11000,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7345158</v>
+        <v>7345151</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -11015,10 +11015,10 @@
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -11030,175 +11030,175 @@
         <v>2</v>
       </c>
       <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
         <v>3</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>4</v>
       </c>
       <c r="O49" t="s">
         <v>135</v>
       </c>
       <c r="P49" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="Q49">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="R49">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="T49">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="U49">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="V49">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="W49">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="X49">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y49">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="Z49">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="AA49">
-        <v>6.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB49">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="AC49">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="AD49">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AE49">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="AF49">
-        <v>4.45</v>
+        <v>2.45</v>
       </c>
       <c r="AG49">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AH49">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="AI49">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ49">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AK49">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="AL49">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AM49">
-        <v>4.25</v>
+        <v>1.65</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AR49">
-        <v>2.19</v>
+        <v>1.11</v>
       </c>
       <c r="AS49">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
       <c r="AT49">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU49">
+        <v>3</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>5</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
         <v>10</v>
       </c>
-      <c r="AV49">
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
         <v>3</v>
       </c>
-      <c r="AW49">
-        <v>4</v>
-      </c>
-      <c r="AX49">
-        <v>4</v>
-      </c>
-      <c r="AY49">
-        <v>14</v>
-      </c>
-      <c r="AZ49">
+      <c r="BC49">
         <v>7</v>
       </c>
-      <c r="BA49">
-        <v>6</v>
-      </c>
-      <c r="BB49">
-        <v>5</v>
-      </c>
-      <c r="BC49">
-        <v>11</v>
-      </c>
       <c r="BD49">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
       <c r="BE49">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="BF49">
-        <v>4.86</v>
+        <v>2.71</v>
       </c>
       <c r="BG49">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BH49">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BI49">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="BJ49">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="BK49">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="BL49">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="BM49">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="BN49">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BO49">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="BP49">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -11206,7 +11206,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7345151</v>
+        <v>7345158</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11221,10 +11221,10 @@
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11236,175 +11236,175 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O50" t="s">
         <v>136</v>
       </c>
       <c r="P50" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="Q50">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="S50">
+        <v>9.5</v>
+      </c>
+      <c r="T50">
+        <v>1.29</v>
+      </c>
+      <c r="U50">
+        <v>3.5</v>
+      </c>
+      <c r="V50">
+        <v>2.25</v>
+      </c>
+      <c r="W50">
+        <v>1.57</v>
+      </c>
+      <c r="X50">
+        <v>5.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.14</v>
+      </c>
+      <c r="Z50">
+        <v>1.25</v>
+      </c>
+      <c r="AA50">
+        <v>6.25</v>
+      </c>
+      <c r="AB50">
+        <v>11</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>19</v>
+      </c>
+      <c r="AE50">
+        <v>1.15</v>
+      </c>
+      <c r="AF50">
+        <v>4.45</v>
+      </c>
+      <c r="AG50">
+        <v>1.6</v>
+      </c>
+      <c r="AH50">
+        <v>2.3</v>
+      </c>
+      <c r="AI50">
+        <v>2.1</v>
+      </c>
+      <c r="AJ50">
+        <v>1.67</v>
+      </c>
+      <c r="AK50">
+        <v>1.04</v>
+      </c>
+      <c r="AL50">
+        <v>1.09</v>
+      </c>
+      <c r="AM50">
+        <v>4.25</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>0.33</v>
+      </c>
+      <c r="AP50">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50">
+        <v>0.9</v>
+      </c>
+      <c r="AR50">
+        <v>2.19</v>
+      </c>
+      <c r="AS50">
+        <v>1.31</v>
+      </c>
+      <c r="AT50">
+        <v>3.5</v>
+      </c>
+      <c r="AU50">
+        <v>10</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
         <v>4</v>
       </c>
-      <c r="T50">
-        <v>1.57</v>
-      </c>
-      <c r="U50">
-        <v>2.25</v>
-      </c>
-      <c r="V50">
-        <v>3.7</v>
-      </c>
-      <c r="W50">
-        <v>1.22</v>
-      </c>
-      <c r="X50">
-        <v>8</v>
-      </c>
-      <c r="Y50">
-        <v>1.05</v>
-      </c>
-      <c r="Z50">
-        <v>2.3</v>
-      </c>
-      <c r="AA50">
-        <v>3.2</v>
-      </c>
-      <c r="AB50">
-        <v>3.2</v>
-      </c>
-      <c r="AC50">
-        <v>1.09</v>
-      </c>
-      <c r="AD50">
-        <v>7.5</v>
-      </c>
-      <c r="AE50">
-        <v>1.48</v>
-      </c>
-      <c r="AF50">
-        <v>2.45</v>
-      </c>
-      <c r="AG50">
-        <v>2.4</v>
-      </c>
-      <c r="AH50">
-        <v>1.53</v>
-      </c>
-      <c r="AI50">
+      <c r="AX50">
+        <v>4</v>
+      </c>
+      <c r="AY50">
+        <v>14</v>
+      </c>
+      <c r="AZ50">
+        <v>7</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>5</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>1.26</v>
+      </c>
+      <c r="BE50">
+        <v>11</v>
+      </c>
+      <c r="BF50">
+        <v>4.86</v>
+      </c>
+      <c r="BG50">
+        <v>1.36</v>
+      </c>
+      <c r="BH50">
+        <v>2.85</v>
+      </c>
+      <c r="BI50">
+        <v>1.7</v>
+      </c>
+      <c r="BJ50">
         <v>2.05</v>
       </c>
-      <c r="AJ50">
-        <v>1.7</v>
-      </c>
-      <c r="AK50">
-        <v>1.3</v>
-      </c>
-      <c r="AL50">
-        <v>1.28</v>
-      </c>
-      <c r="AM50">
+      <c r="BK50">
+        <v>2.38</v>
+      </c>
+      <c r="BL50">
         <v>1.65</v>
       </c>
-      <c r="AN50">
-        <v>1.33</v>
-      </c>
-      <c r="AO50">
-        <v>2.33</v>
-      </c>
-      <c r="AP50">
-        <v>1.8</v>
-      </c>
-      <c r="AQ50">
-        <v>1.3</v>
-      </c>
-      <c r="AR50">
-        <v>1.11</v>
-      </c>
-      <c r="AS50">
-        <v>1.89</v>
-      </c>
-      <c r="AT50">
-        <v>3</v>
-      </c>
-      <c r="AU50">
-        <v>3</v>
-      </c>
-      <c r="AV50">
-        <v>5</v>
-      </c>
-      <c r="AW50">
-        <v>5</v>
-      </c>
-      <c r="AX50">
-        <v>5</v>
-      </c>
-      <c r="AY50">
-        <v>8</v>
-      </c>
-      <c r="AZ50">
-        <v>10</v>
-      </c>
-      <c r="BA50">
-        <v>4</v>
-      </c>
-      <c r="BB50">
-        <v>3</v>
-      </c>
-      <c r="BC50">
-        <v>7</v>
-      </c>
-      <c r="BD50">
-        <v>1.7</v>
-      </c>
-      <c r="BE50">
-        <v>7.5</v>
-      </c>
-      <c r="BF50">
-        <v>2.71</v>
-      </c>
-      <c r="BG50">
-        <v>1.28</v>
-      </c>
-      <c r="BH50">
-        <v>3.4</v>
-      </c>
-      <c r="BI50">
-        <v>1.52</v>
-      </c>
-      <c r="BJ50">
-        <v>2.33</v>
-      </c>
-      <c r="BK50">
-        <v>1.98</v>
-      </c>
-      <c r="BL50">
-        <v>1.82</v>
-      </c>
       <c r="BM50">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="BN50">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BO50">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="BP50">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -12236,7 +12236,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7345153</v>
+        <v>7345150</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12251,10 +12251,10 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -12266,175 +12266,175 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
+        <v>138</v>
+      </c>
+      <c r="P55" t="s">
         <v>102</v>
       </c>
-      <c r="P55" t="s">
-        <v>127</v>
-      </c>
       <c r="Q55">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R55">
         <v>1.83</v>
       </c>
       <c r="S55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T55">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U55">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V55">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W55">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y55">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z55">
         <v>3.4</v>
       </c>
       <c r="AA55">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AB55">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AC55">
         <v>1.09</v>
       </c>
       <c r="AD55">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE55">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AF55">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AG55">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="AH55">
+        <v>1.4</v>
+      </c>
+      <c r="AI55">
+        <v>2.25</v>
+      </c>
+      <c r="AJ55">
+        <v>1.57</v>
+      </c>
+      <c r="AK55">
         <v>1.33</v>
       </c>
-      <c r="AI55">
-        <v>2.5</v>
-      </c>
-      <c r="AJ55">
-        <v>1.5</v>
-      </c>
-      <c r="AK55">
-        <v>1.55</v>
-      </c>
       <c r="AL55">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AM55">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AN55">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AO55">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AR55">
-        <v>0.9399999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="AS55">
-        <v>1.92</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU55">
         <v>6</v>
       </c>
       <c r="AV55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
         <v>7</v>
       </c>
-      <c r="AY55">
-        <v>10</v>
-      </c>
-      <c r="AZ55">
-        <v>9</v>
-      </c>
       <c r="BA55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB55">
         <v>3</v>
       </c>
       <c r="BC55">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD55">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="BE55">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="BF55">
+        <v>2.86</v>
+      </c>
+      <c r="BG55">
+        <v>1.35</v>
+      </c>
+      <c r="BH55">
+        <v>3</v>
+      </c>
+      <c r="BI55">
+        <v>1.62</v>
+      </c>
+      <c r="BJ55">
+        <v>2.2</v>
+      </c>
+      <c r="BK55">
         <v>2</v>
       </c>
-      <c r="BG55">
-        <v>1.42</v>
-      </c>
-      <c r="BH55">
-        <v>2.7</v>
-      </c>
-      <c r="BI55">
-        <v>1.72</v>
-      </c>
-      <c r="BJ55">
-        <v>2.05</v>
-      </c>
-      <c r="BK55">
-        <v>2.2</v>
-      </c>
       <c r="BL55">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="BM55">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BN55">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="BO55">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="BP55">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12442,7 +12442,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7345150</v>
+        <v>7345153</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12457,10 +12457,10 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -12472,175 +12472,175 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="P56" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="Q56">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R56">
         <v>1.83</v>
       </c>
       <c r="S56">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T56">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U56">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V56">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W56">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y56">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z56">
         <v>3.4</v>
       </c>
       <c r="AA56">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AB56">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AC56">
         <v>1.09</v>
       </c>
       <c r="AD56">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AE56">
+        <v>1.48</v>
+      </c>
+      <c r="AF56">
+        <v>2.45</v>
+      </c>
+      <c r="AG56">
+        <v>3.4</v>
+      </c>
+      <c r="AH56">
+        <v>1.33</v>
+      </c>
+      <c r="AI56">
+        <v>2.5</v>
+      </c>
+      <c r="AJ56">
+        <v>1.5</v>
+      </c>
+      <c r="AK56">
         <v>1.55</v>
       </c>
-      <c r="AF56">
-        <v>2.25</v>
-      </c>
-      <c r="AG56">
-        <v>2.88</v>
-      </c>
-      <c r="AH56">
-        <v>1.4</v>
-      </c>
-      <c r="AI56">
-        <v>2.25</v>
-      </c>
-      <c r="AJ56">
-        <v>1.57</v>
-      </c>
-      <c r="AK56">
-        <v>1.33</v>
-      </c>
       <c r="AL56">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AM56">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AN56">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO56">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="AR56">
-        <v>1.36</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS56">
-        <v>1.44</v>
+        <v>1.92</v>
       </c>
       <c r="AT56">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="AU56">
         <v>6</v>
       </c>
       <c r="AV56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB56">
         <v>3</v>
       </c>
       <c r="BC56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD56">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="BE56">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="BF56">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="BG56">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="BH56">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BI56">
+        <v>1.72</v>
+      </c>
+      <c r="BJ56">
+        <v>2.05</v>
+      </c>
+      <c r="BK56">
+        <v>2.2</v>
+      </c>
+      <c r="BL56">
         <v>1.62</v>
       </c>
-      <c r="BJ56">
-        <v>2.2</v>
-      </c>
-      <c r="BK56">
-        <v>2</v>
-      </c>
-      <c r="BL56">
-        <v>1.75</v>
-      </c>
       <c r="BM56">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BN56">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="BO56">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="BP56">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12666,7 +12666,7 @@
         <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -12869,7 +12869,7 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
         <v>91</v>
@@ -13060,7 +13060,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7345170</v>
+        <v>7345168</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13075,19 +13075,19 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -13105,160 +13105,160 @@
         <v>210</v>
       </c>
       <c r="Q59">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="S59">
         <v>5.5</v>
       </c>
       <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.63</v>
+      </c>
+      <c r="V59">
+        <v>3.25</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
         <v>1.62</v>
       </c>
-      <c r="U59">
-        <v>2.2</v>
-      </c>
-      <c r="V59">
+      <c r="AA59">
         <v>4</v>
       </c>
-      <c r="W59">
-        <v>1.22</v>
-      </c>
-      <c r="X59">
-        <v>13</v>
-      </c>
-      <c r="Y59">
-        <v>1.04</v>
-      </c>
-      <c r="Z59">
-        <v>1.9</v>
-      </c>
-      <c r="AA59">
-        <v>3.25</v>
-      </c>
       <c r="AB59">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="AC59">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AD59">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="AE59">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AF59">
-        <v>2.35</v>
+        <v>2.94</v>
       </c>
       <c r="AG59">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="AH59">
+        <v>1.85</v>
+      </c>
+      <c r="AI59">
+        <v>1.95</v>
+      </c>
+      <c r="AJ59">
+        <v>1.8</v>
+      </c>
+      <c r="AK59">
+        <v>1.19</v>
+      </c>
+      <c r="AL59">
+        <v>1.26</v>
+      </c>
+      <c r="AM59">
+        <v>2.1</v>
+      </c>
+      <c r="AN59">
+        <v>1.75</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1.3</v>
+      </c>
+      <c r="AQ59">
+        <v>0.7</v>
+      </c>
+      <c r="AR59">
+        <v>1.73</v>
+      </c>
+      <c r="AS59">
+        <v>1.45</v>
+      </c>
+      <c r="AT59">
+        <v>3.18</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>7</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>10</v>
+      </c>
+      <c r="AY59">
+        <v>11</v>
+      </c>
+      <c r="AZ59">
+        <v>17</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>10</v>
+      </c>
+      <c r="BC59">
+        <v>14</v>
+      </c>
+      <c r="BD59">
+        <v>1.46</v>
+      </c>
+      <c r="BE59">
+        <v>8.1</v>
+      </c>
+      <c r="BF59">
+        <v>3.55</v>
+      </c>
+      <c r="BG59">
+        <v>1.28</v>
+      </c>
+      <c r="BH59">
+        <v>3.5</v>
+      </c>
+      <c r="BI59">
         <v>1.48</v>
       </c>
-      <c r="AI59">
-        <v>2.25</v>
-      </c>
-      <c r="AJ59">
+      <c r="BJ59">
+        <v>2.5</v>
+      </c>
+      <c r="BK59">
+        <v>2.1</v>
+      </c>
+      <c r="BL59">
+        <v>1.8</v>
+      </c>
+      <c r="BM59">
+        <v>2.3</v>
+      </c>
+      <c r="BN59">
         <v>1.57</v>
       </c>
-      <c r="AK59">
-        <v>1.24</v>
-      </c>
-      <c r="AL59">
-        <v>1.32</v>
-      </c>
-      <c r="AM59">
-        <v>1.83</v>
-      </c>
-      <c r="AN59">
-        <v>0.75</v>
-      </c>
-      <c r="AO59">
-        <v>1</v>
-      </c>
-      <c r="AP59">
-        <v>1.1</v>
-      </c>
-      <c r="AQ59">
-        <v>1</v>
-      </c>
-      <c r="AR59">
-        <v>0.95</v>
-      </c>
-      <c r="AS59">
-        <v>1.38</v>
-      </c>
-      <c r="AT59">
-        <v>2.33</v>
-      </c>
-      <c r="AU59">
-        <v>7</v>
-      </c>
-      <c r="AV59">
-        <v>5</v>
-      </c>
-      <c r="AW59">
-        <v>5</v>
-      </c>
-      <c r="AX59">
-        <v>2</v>
-      </c>
-      <c r="AY59">
-        <v>12</v>
-      </c>
-      <c r="AZ59">
-        <v>7</v>
-      </c>
-      <c r="BA59">
-        <v>5</v>
-      </c>
-      <c r="BB59">
-        <v>6</v>
-      </c>
-      <c r="BC59">
-        <v>11</v>
-      </c>
-      <c r="BD59">
-        <v>1.59</v>
-      </c>
-      <c r="BE59">
-        <v>7.8</v>
-      </c>
-      <c r="BF59">
+      <c r="BO59">
         <v>3</v>
       </c>
-      <c r="BG59">
+      <c r="BP59">
         <v>1.35</v>
-      </c>
-      <c r="BH59">
-        <v>3</v>
-      </c>
-      <c r="BI59">
-        <v>1.67</v>
-      </c>
-      <c r="BJ59">
-        <v>2.1</v>
-      </c>
-      <c r="BK59">
-        <v>2</v>
-      </c>
-      <c r="BL59">
-        <v>1.75</v>
-      </c>
-      <c r="BM59">
-        <v>2.6</v>
-      </c>
-      <c r="BN59">
-        <v>1.45</v>
-      </c>
-      <c r="BO59">
-        <v>3.55</v>
-      </c>
-      <c r="BP59">
-        <v>1.27</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13266,7 +13266,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7345168</v>
+        <v>7345170</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13281,19 +13281,19 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -13311,160 +13311,160 @@
         <v>211</v>
       </c>
       <c r="Q60">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="R60">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
         <v>5.5</v>
       </c>
       <c r="T60">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="U60">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="V60">
+        <v>4</v>
+      </c>
+      <c r="W60">
+        <v>1.22</v>
+      </c>
+      <c r="X60">
+        <v>13</v>
+      </c>
+      <c r="Y60">
+        <v>1.04</v>
+      </c>
+      <c r="Z60">
+        <v>1.9</v>
+      </c>
+      <c r="AA60">
         <v>3.25</v>
       </c>
-      <c r="W60">
-        <v>1.33</v>
-      </c>
-      <c r="X60">
-        <v>9</v>
-      </c>
-      <c r="Y60">
-        <v>1.07</v>
-      </c>
-      <c r="Z60">
-        <v>1.62</v>
-      </c>
-      <c r="AA60">
-        <v>4</v>
-      </c>
       <c r="AB60">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="AC60">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AD60">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="AE60">
+        <v>1.52</v>
+      </c>
+      <c r="AF60">
+        <v>2.35</v>
+      </c>
+      <c r="AG60">
+        <v>2.6</v>
+      </c>
+      <c r="AH60">
+        <v>1.48</v>
+      </c>
+      <c r="AI60">
+        <v>2.25</v>
+      </c>
+      <c r="AJ60">
+        <v>1.57</v>
+      </c>
+      <c r="AK60">
+        <v>1.24</v>
+      </c>
+      <c r="AL60">
+        <v>1.32</v>
+      </c>
+      <c r="AM60">
+        <v>1.83</v>
+      </c>
+      <c r="AN60">
+        <v>0.75</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1.1</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>0.95</v>
+      </c>
+      <c r="AS60">
         <v>1.38</v>
       </c>
-      <c r="AF60">
-        <v>2.94</v>
-      </c>
-      <c r="AG60">
-        <v>1.95</v>
-      </c>
-      <c r="AH60">
-        <v>1.85</v>
-      </c>
-      <c r="AI60">
-        <v>1.95</v>
-      </c>
-      <c r="AJ60">
-        <v>1.8</v>
-      </c>
-      <c r="AK60">
-        <v>1.19</v>
-      </c>
-      <c r="AL60">
-        <v>1.26</v>
-      </c>
-      <c r="AM60">
+      <c r="AT60">
+        <v>2.33</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>5</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>7</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>1.59</v>
+      </c>
+      <c r="BE60">
+        <v>7.8</v>
+      </c>
+      <c r="BF60">
+        <v>3</v>
+      </c>
+      <c r="BG60">
+        <v>1.35</v>
+      </c>
+      <c r="BH60">
+        <v>3</v>
+      </c>
+      <c r="BI60">
+        <v>1.67</v>
+      </c>
+      <c r="BJ60">
         <v>2.1</v>
       </c>
-      <c r="AN60">
+      <c r="BK60">
+        <v>2</v>
+      </c>
+      <c r="BL60">
         <v>1.75</v>
       </c>
-      <c r="AO60">
-        <v>1</v>
-      </c>
-      <c r="AP60">
-        <v>1.3</v>
-      </c>
-      <c r="AQ60">
-        <v>0.7</v>
-      </c>
-      <c r="AR60">
-        <v>1.73</v>
-      </c>
-      <c r="AS60">
+      <c r="BM60">
+        <v>2.6</v>
+      </c>
+      <c r="BN60">
         <v>1.45</v>
       </c>
-      <c r="AT60">
-        <v>3.18</v>
-      </c>
-      <c r="AU60">
-        <v>5</v>
-      </c>
-      <c r="AV60">
-        <v>7</v>
-      </c>
-      <c r="AW60">
-        <v>6</v>
-      </c>
-      <c r="AX60">
-        <v>10</v>
-      </c>
-      <c r="AY60">
-        <v>11</v>
-      </c>
-      <c r="AZ60">
-        <v>17</v>
-      </c>
-      <c r="BA60">
-        <v>4</v>
-      </c>
-      <c r="BB60">
-        <v>10</v>
-      </c>
-      <c r="BC60">
-        <v>14</v>
-      </c>
-      <c r="BD60">
-        <v>1.46</v>
-      </c>
-      <c r="BE60">
-        <v>8.1</v>
-      </c>
-      <c r="BF60">
+      <c r="BO60">
         <v>3.55</v>
       </c>
-      <c r="BG60">
-        <v>1.28</v>
-      </c>
-      <c r="BH60">
-        <v>3.5</v>
-      </c>
-      <c r="BI60">
-        <v>1.48</v>
-      </c>
-      <c r="BJ60">
-        <v>2.5</v>
-      </c>
-      <c r="BK60">
-        <v>2.1</v>
-      </c>
-      <c r="BL60">
-        <v>1.8</v>
-      </c>
-      <c r="BM60">
-        <v>2.3</v>
-      </c>
-      <c r="BN60">
-        <v>1.57</v>
-      </c>
-      <c r="BO60">
-        <v>3</v>
-      </c>
       <c r="BP60">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -14108,7 +14108,7 @@
         <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -14311,7 +14311,7 @@
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H65" t="s">
         <v>86</v>
@@ -14502,7 +14502,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7345172</v>
+        <v>7345173</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14517,55 +14517,55 @@
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
         <v>146</v>
       </c>
       <c r="P66" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="Q66">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S66">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="T66">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U66">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V66">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W66">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X66">
         <v>11</v>
@@ -14574,133 +14574,133 @@
         <v>1.05</v>
       </c>
       <c r="Z66">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AA66">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB66">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AC66">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD66">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="AE66">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AF66">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AG66">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AH66">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AI66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AJ66">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AK66">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AL66">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM66">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="AN66">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AO66">
         <v>1.25</v>
       </c>
       <c r="AP66">
+        <v>1.7</v>
+      </c>
+      <c r="AQ66">
+        <v>1.1</v>
+      </c>
+      <c r="AR66">
+        <v>1.43</v>
+      </c>
+      <c r="AS66">
+        <v>1.26</v>
+      </c>
+      <c r="AT66">
+        <v>2.69</v>
+      </c>
+      <c r="AU66">
+        <v>7</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66">
+        <v>7</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>10</v>
+      </c>
+      <c r="BA66">
+        <v>7</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>11</v>
+      </c>
+      <c r="BD66">
+        <v>1.59</v>
+      </c>
+      <c r="BE66">
+        <v>7.8</v>
+      </c>
+      <c r="BF66">
+        <v>3</v>
+      </c>
+      <c r="BG66">
         <v>1.4</v>
       </c>
-      <c r="AQ66">
-        <v>1.8</v>
-      </c>
-      <c r="AR66">
-        <v>1.28</v>
-      </c>
-      <c r="AS66">
-        <v>1.22</v>
-      </c>
-      <c r="AT66">
-        <v>2.5</v>
-      </c>
-      <c r="AU66">
-        <v>4</v>
-      </c>
-      <c r="AV66">
-        <v>4</v>
-      </c>
-      <c r="AW66">
-        <v>5</v>
-      </c>
-      <c r="AX66">
-        <v>4</v>
-      </c>
-      <c r="AY66">
-        <v>9</v>
-      </c>
-      <c r="AZ66">
-        <v>8</v>
-      </c>
-      <c r="BA66">
-        <v>5</v>
-      </c>
-      <c r="BB66">
-        <v>5</v>
-      </c>
-      <c r="BC66">
-        <v>10</v>
-      </c>
-      <c r="BD66">
-        <v>1.57</v>
-      </c>
-      <c r="BE66">
-        <v>7.6</v>
-      </c>
-      <c r="BF66">
-        <v>3.1</v>
-      </c>
-      <c r="BG66">
-        <v>1.36</v>
-      </c>
       <c r="BH66">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BI66">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BJ66">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BK66">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL66">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="BM66">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BN66">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="BO66">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="BP66">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14708,7 +14708,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7345173</v>
+        <v>7345172</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14723,55 +14723,55 @@
         <v>5</v>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67" t="s">
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="Q67">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R67">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="T67">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U67">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V67">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W67">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X67">
         <v>11</v>
@@ -14780,133 +14780,133 @@
         <v>1.05</v>
       </c>
       <c r="Z67">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AA67">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB67">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AC67">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD67">
-        <v>6.95</v>
+        <v>7.2</v>
       </c>
       <c r="AE67">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AF67">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AG67">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AH67">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AI67">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AJ67">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AK67">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AL67">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AM67">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="AN67">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AO67">
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="AR67">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AS67">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AT67">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AU67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY67">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ67">
+        <v>8</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
         <v>10</v>
       </c>
-      <c r="BA67">
-        <v>7</v>
-      </c>
-      <c r="BB67">
-        <v>4</v>
-      </c>
-      <c r="BC67">
-        <v>11</v>
-      </c>
       <c r="BD67">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="BE67">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BF67">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BG67">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BH67">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BI67">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BJ67">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BK67">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL67">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="BM67">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BN67">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="BO67">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="BP67">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -15547,7 +15547,7 @@
         <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H71" t="s">
         <v>78</v>
@@ -16168,7 +16168,7 @@
         <v>87</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H76" t="s">
         <v>70</v>
@@ -16989,7 +16989,7 @@
         <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H78" t="s">
         <v>74</v>
@@ -17195,7 +17195,7 @@
         <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s">
         <v>81</v>
@@ -17592,7 +17592,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7345182</v>
+        <v>7345174</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17607,10 +17607,10 @@
         <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H81" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -17625,172 +17625,172 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O81" t="s">
         <v>102</v>
       </c>
       <c r="P81" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="Q81">
+        <v>4</v>
+      </c>
+      <c r="R81">
+        <v>1.83</v>
+      </c>
+      <c r="S81">
+        <v>3.4</v>
+      </c>
+      <c r="T81">
+        <v>1.44</v>
+      </c>
+      <c r="U81">
+        <v>2.63</v>
+      </c>
+      <c r="V81">
+        <v>3.25</v>
+      </c>
+      <c r="W81">
+        <v>1.33</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>1.06</v>
+      </c>
+      <c r="Z81">
+        <v>3.1</v>
+      </c>
+      <c r="AA81">
+        <v>3.1</v>
+      </c>
+      <c r="AB81">
+        <v>2.45</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>8.91</v>
+      </c>
+      <c r="AE81">
+        <v>1.38</v>
+      </c>
+      <c r="AF81">
+        <v>2.94</v>
+      </c>
+      <c r="AG81">
+        <v>2.88</v>
+      </c>
+      <c r="AH81">
+        <v>1.4</v>
+      </c>
+      <c r="AI81">
+        <v>2.25</v>
+      </c>
+      <c r="AJ81">
+        <v>1.57</v>
+      </c>
+      <c r="AK81">
+        <v>1.58</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.42</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>0.4</v>
+      </c>
+      <c r="AQ81">
+        <v>1.1</v>
+      </c>
+      <c r="AR81">
+        <v>0.98</v>
+      </c>
+      <c r="AS81">
+        <v>1.23</v>
+      </c>
+      <c r="AT81">
+        <v>2.21</v>
+      </c>
+      <c r="AU81">
         <v>3</v>
       </c>
-      <c r="R81">
-        <v>1.8</v>
-      </c>
-      <c r="S81">
-        <v>5</v>
-      </c>
-      <c r="T81">
-        <v>1.57</v>
-      </c>
-      <c r="U81">
-        <v>2.25</v>
-      </c>
-      <c r="V81">
-        <v>3.75</v>
-      </c>
-      <c r="W81">
-        <v>1.25</v>
-      </c>
-      <c r="X81">
-        <v>11</v>
-      </c>
-      <c r="Y81">
-        <v>1.05</v>
-      </c>
-      <c r="Z81">
-        <v>2.15</v>
-      </c>
-      <c r="AA81">
-        <v>2.8</v>
-      </c>
-      <c r="AB81">
-        <v>4.2</v>
-      </c>
-      <c r="AC81">
-        <v>1.1</v>
-      </c>
-      <c r="AD81">
-        <v>6.6</v>
-      </c>
-      <c r="AE81">
-        <v>1.48</v>
-      </c>
-      <c r="AF81">
-        <v>2.45</v>
-      </c>
-      <c r="AG81">
-        <v>3.4</v>
-      </c>
-      <c r="AH81">
-        <v>1.33</v>
-      </c>
-      <c r="AI81">
-        <v>2.5</v>
-      </c>
-      <c r="AJ81">
-        <v>1.5</v>
-      </c>
-      <c r="AK81">
-        <v>1.19</v>
-      </c>
-      <c r="AL81">
-        <v>1.3</v>
-      </c>
-      <c r="AM81">
-        <v>1.95</v>
-      </c>
-      <c r="AN81">
-        <v>1.4</v>
-      </c>
-      <c r="AO81">
-        <v>2.6</v>
-      </c>
-      <c r="AP81">
-        <v>1.5</v>
-      </c>
-      <c r="AQ81">
-        <v>1.9</v>
-      </c>
-      <c r="AR81">
-        <v>1.85</v>
-      </c>
-      <c r="AS81">
-        <v>1.72</v>
-      </c>
-      <c r="AT81">
-        <v>3.57</v>
-      </c>
-      <c r="AU81">
-        <v>8</v>
-      </c>
       <c r="AV81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW81">
         <v>6</v>
       </c>
       <c r="AX81">
+        <v>2</v>
+      </c>
+      <c r="AY81">
+        <v>9</v>
+      </c>
+      <c r="AZ81">
+        <v>5</v>
+      </c>
+      <c r="BA81">
         <v>4</v>
       </c>
-      <c r="AY81">
-        <v>14</v>
-      </c>
-      <c r="AZ81">
-        <v>8</v>
-      </c>
-      <c r="BA81">
+      <c r="BB81">
+        <v>1</v>
+      </c>
+      <c r="BC81">
         <v>5</v>
       </c>
-      <c r="BB81">
-        <v>3</v>
-      </c>
-      <c r="BC81">
-        <v>8</v>
-      </c>
       <c r="BD81">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="BE81">
-        <v>7.6</v>
+        <v>6.75</v>
       </c>
       <c r="BF81">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="BG81">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BH81">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BI81">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="BJ81">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="BK81">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BL81">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BM81">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BN81">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BO81">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BP81">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17798,7 +17798,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7345174</v>
+        <v>7345182</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17813,10 +17813,10 @@
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -17831,172 +17831,172 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O82" t="s">
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <v>1.8</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>1.57</v>
+      </c>
+      <c r="U82">
+        <v>2.25</v>
+      </c>
+      <c r="V82">
+        <v>3.75</v>
+      </c>
+      <c r="W82">
+        <v>1.25</v>
+      </c>
+      <c r="X82">
+        <v>11</v>
+      </c>
+      <c r="Y82">
+        <v>1.05</v>
+      </c>
+      <c r="Z82">
+        <v>2.15</v>
+      </c>
+      <c r="AA82">
+        <v>2.8</v>
+      </c>
+      <c r="AB82">
+        <v>4.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.1</v>
+      </c>
+      <c r="AD82">
+        <v>6.6</v>
+      </c>
+      <c r="AE82">
+        <v>1.48</v>
+      </c>
+      <c r="AF82">
+        <v>2.45</v>
+      </c>
+      <c r="AG82">
+        <v>3.4</v>
+      </c>
+      <c r="AH82">
+        <v>1.33</v>
+      </c>
+      <c r="AI82">
+        <v>2.5</v>
+      </c>
+      <c r="AJ82">
+        <v>1.5</v>
+      </c>
+      <c r="AK82">
+        <v>1.19</v>
+      </c>
+      <c r="AL82">
+        <v>1.3</v>
+      </c>
+      <c r="AM82">
+        <v>1.95</v>
+      </c>
+      <c r="AN82">
+        <v>1.4</v>
+      </c>
+      <c r="AO82">
+        <v>2.6</v>
+      </c>
+      <c r="AP82">
+        <v>1.5</v>
+      </c>
+      <c r="AQ82">
+        <v>1.9</v>
+      </c>
+      <c r="AR82">
+        <v>1.85</v>
+      </c>
+      <c r="AS82">
+        <v>1.72</v>
+      </c>
+      <c r="AT82">
+        <v>3.57</v>
+      </c>
+      <c r="AU82">
+        <v>8</v>
+      </c>
+      <c r="AV82">
         <v>4</v>
-      </c>
-      <c r="R82">
-        <v>1.83</v>
-      </c>
-      <c r="S82">
-        <v>3.4</v>
-      </c>
-      <c r="T82">
-        <v>1.44</v>
-      </c>
-      <c r="U82">
-        <v>2.63</v>
-      </c>
-      <c r="V82">
-        <v>3.25</v>
-      </c>
-      <c r="W82">
-        <v>1.33</v>
-      </c>
-      <c r="X82">
-        <v>10</v>
-      </c>
-      <c r="Y82">
-        <v>1.06</v>
-      </c>
-      <c r="Z82">
-        <v>3.1</v>
-      </c>
-      <c r="AA82">
-        <v>3.1</v>
-      </c>
-      <c r="AB82">
-        <v>2.45</v>
-      </c>
-      <c r="AC82">
-        <v>1.05</v>
-      </c>
-      <c r="AD82">
-        <v>8.91</v>
-      </c>
-      <c r="AE82">
-        <v>1.38</v>
-      </c>
-      <c r="AF82">
-        <v>2.94</v>
-      </c>
-      <c r="AG82">
-        <v>2.88</v>
-      </c>
-      <c r="AH82">
-        <v>1.4</v>
-      </c>
-      <c r="AI82">
-        <v>2.25</v>
-      </c>
-      <c r="AJ82">
-        <v>1.57</v>
-      </c>
-      <c r="AK82">
-        <v>1.58</v>
-      </c>
-      <c r="AL82">
-        <v>1.28</v>
-      </c>
-      <c r="AM82">
-        <v>1.42</v>
-      </c>
-      <c r="AN82">
-        <v>0</v>
-      </c>
-      <c r="AO82">
-        <v>1</v>
-      </c>
-      <c r="AP82">
-        <v>0.4</v>
-      </c>
-      <c r="AQ82">
-        <v>1.1</v>
-      </c>
-      <c r="AR82">
-        <v>0.98</v>
-      </c>
-      <c r="AS82">
-        <v>1.23</v>
-      </c>
-      <c r="AT82">
-        <v>2.21</v>
-      </c>
-      <c r="AU82">
-        <v>3</v>
-      </c>
-      <c r="AV82">
-        <v>3</v>
       </c>
       <c r="AW82">
         <v>6</v>
       </c>
       <c r="AX82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY82">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ82">
+        <v>8</v>
+      </c>
+      <c r="BA82">
         <v>5</v>
       </c>
-      <c r="BA82">
-        <v>4</v>
-      </c>
       <c r="BB82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD82">
+        <v>1.57</v>
+      </c>
+      <c r="BE82">
+        <v>7.6</v>
+      </c>
+      <c r="BF82">
+        <v>3.1</v>
+      </c>
+      <c r="BG82">
+        <v>1.4</v>
+      </c>
+      <c r="BH82">
+        <v>2.7</v>
+      </c>
+      <c r="BI82">
+        <v>1.7</v>
+      </c>
+      <c r="BJ82">
+        <v>2.05</v>
+      </c>
+      <c r="BK82">
         <v>2.2</v>
       </c>
-      <c r="BE82">
-        <v>6.75</v>
-      </c>
-      <c r="BF82">
-        <v>2</v>
-      </c>
-      <c r="BG82">
-        <v>1.48</v>
-      </c>
-      <c r="BH82">
-        <v>2.45</v>
-      </c>
-      <c r="BI82">
-        <v>1.9</v>
-      </c>
-      <c r="BJ82">
-        <v>1.9</v>
-      </c>
-      <c r="BK82">
-        <v>2.4</v>
-      </c>
       <c r="BL82">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BM82">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BN82">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BO82">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BP82">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -18228,7 +18228,7 @@
         <v>96</v>
       </c>
       <c r="H84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -18434,7 +18434,7 @@
         <v>77</v>
       </c>
       <c r="H85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -18843,7 +18843,7 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H87" t="s">
         <v>84</v>
@@ -19255,7 +19255,7 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s">
         <v>85</v>
@@ -19464,7 +19464,7 @@
         <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -21112,7 +21112,7 @@
         <v>92</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -21133,7 +21133,7 @@
         <v>2</v>
       </c>
       <c r="O98" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P98" t="s">
         <v>113</v>
@@ -21315,7 +21315,7 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H99" t="s">
         <v>73</v>
@@ -21521,10 +21521,10 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s">
         <v>89</v>
-      </c>
-      <c r="H100" t="s">
-        <v>90</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H102" t="s">
         <v>83</v>
@@ -22948,7 +22948,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7345215</v>
+        <v>7345202</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22963,160 +22963,160 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H107" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>1</v>
       </c>
       <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
         <v>2</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>2</v>
       </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="N107">
-        <v>3</v>
-      </c>
       <c r="O107" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="P107" t="s">
         <v>232</v>
       </c>
       <c r="Q107">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="R107">
+        <v>2.1</v>
+      </c>
+      <c r="S107">
+        <v>2.38</v>
+      </c>
+      <c r="T107">
+        <v>1.53</v>
+      </c>
+      <c r="U107">
+        <v>2.38</v>
+      </c>
+      <c r="V107">
+        <v>3.5</v>
+      </c>
+      <c r="W107">
+        <v>1.29</v>
+      </c>
+      <c r="X107">
+        <v>11</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>5</v>
+      </c>
+      <c r="AA107">
+        <v>3.7</v>
+      </c>
+      <c r="AB107">
+        <v>1.7</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>7.77</v>
+      </c>
+      <c r="AE107">
+        <v>1.43</v>
+      </c>
+      <c r="AF107">
+        <v>2.76</v>
+      </c>
+      <c r="AG107">
+        <v>2.1</v>
+      </c>
+      <c r="AH107">
+        <v>1.7</v>
+      </c>
+      <c r="AI107">
+        <v>2.05</v>
+      </c>
+      <c r="AJ107">
+        <v>1.7</v>
+      </c>
+      <c r="AK107">
+        <v>1.83</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.26</v>
+      </c>
+      <c r="AN107">
+        <v>0.14</v>
+      </c>
+      <c r="AO107">
+        <v>1.57</v>
+      </c>
+      <c r="AP107">
+        <v>0.4</v>
+      </c>
+      <c r="AQ107">
         <v>1.8</v>
       </c>
-      <c r="S107">
-        <v>4.75</v>
-      </c>
-      <c r="T107">
-        <v>1.62</v>
-      </c>
-      <c r="U107">
+      <c r="AR107">
+        <v>1.03</v>
+      </c>
+      <c r="AS107">
+        <v>1.17</v>
+      </c>
+      <c r="AT107">
         <v>2.2</v>
       </c>
-      <c r="V107">
-        <v>4</v>
-      </c>
-      <c r="W107">
-        <v>1.22</v>
-      </c>
-      <c r="X107">
-        <v>13</v>
-      </c>
-      <c r="Y107">
-        <v>1.04</v>
-      </c>
-      <c r="Z107">
-        <v>2.25</v>
-      </c>
-      <c r="AA107">
-        <v>3</v>
-      </c>
-      <c r="AB107">
-        <v>3.5</v>
-      </c>
-      <c r="AC107">
-        <v>1.12</v>
-      </c>
-      <c r="AD107">
-        <v>5.87</v>
-      </c>
-      <c r="AE107">
-        <v>1.58</v>
-      </c>
-      <c r="AF107">
-        <v>2.25</v>
-      </c>
-      <c r="AG107">
-        <v>3.4</v>
-      </c>
-      <c r="AH107">
-        <v>1.33</v>
-      </c>
-      <c r="AI107">
-        <v>2.5</v>
-      </c>
-      <c r="AJ107">
-        <v>1.5</v>
-      </c>
-      <c r="AK107">
-        <v>1.33</v>
-      </c>
-      <c r="AL107">
-        <v>1.35</v>
-      </c>
-      <c r="AM107">
-        <v>1.6</v>
-      </c>
-      <c r="AN107">
-        <v>0.86</v>
-      </c>
-      <c r="AO107">
-        <v>1.29</v>
-      </c>
-      <c r="AP107">
-        <v>0.9</v>
-      </c>
-      <c r="AQ107">
-        <v>1.5</v>
-      </c>
-      <c r="AR107">
-        <v>1.16</v>
-      </c>
-      <c r="AS107">
-        <v>1.14</v>
-      </c>
-      <c r="AT107">
-        <v>2.3</v>
-      </c>
       <c r="AU107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW107">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX107">
         <v>0</v>
       </c>
       <c r="AY107">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA107">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC107">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD107">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="BE107">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="BF107">
-        <v>2.91</v>
+        <v>1.82</v>
       </c>
       <c r="BG107">
         <v>1.4</v>
@@ -23125,13 +23125,13 @@
         <v>2.7</v>
       </c>
       <c r="BI107">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BJ107">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BK107">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="BL107">
         <v>1.58</v>
@@ -23154,7 +23154,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7345202</v>
+        <v>7345215</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23169,160 +23169,160 @@
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H108" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>1</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O108" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="P108" t="s">
         <v>233</v>
       </c>
       <c r="Q108">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="R108">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="T108">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U108">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V108">
+        <v>4</v>
+      </c>
+      <c r="W108">
+        <v>1.22</v>
+      </c>
+      <c r="X108">
+        <v>13</v>
+      </c>
+      <c r="Y108">
+        <v>1.04</v>
+      </c>
+      <c r="Z108">
+        <v>2.25</v>
+      </c>
+      <c r="AA108">
+        <v>3</v>
+      </c>
+      <c r="AB108">
         <v>3.5</v>
       </c>
-      <c r="W108">
+      <c r="AC108">
+        <v>1.12</v>
+      </c>
+      <c r="AD108">
+        <v>5.87</v>
+      </c>
+      <c r="AE108">
+        <v>1.58</v>
+      </c>
+      <c r="AF108">
+        <v>2.25</v>
+      </c>
+      <c r="AG108">
+        <v>3.4</v>
+      </c>
+      <c r="AH108">
+        <v>1.33</v>
+      </c>
+      <c r="AI108">
+        <v>2.5</v>
+      </c>
+      <c r="AJ108">
+        <v>1.5</v>
+      </c>
+      <c r="AK108">
+        <v>1.33</v>
+      </c>
+      <c r="AL108">
+        <v>1.35</v>
+      </c>
+      <c r="AM108">
+        <v>1.6</v>
+      </c>
+      <c r="AN108">
+        <v>0.86</v>
+      </c>
+      <c r="AO108">
         <v>1.29</v>
       </c>
-      <c r="X108">
-        <v>11</v>
-      </c>
-      <c r="Y108">
-        <v>1.05</v>
-      </c>
-      <c r="Z108">
+      <c r="AP108">
+        <v>0.9</v>
+      </c>
+      <c r="AQ108">
+        <v>1.5</v>
+      </c>
+      <c r="AR108">
+        <v>1.16</v>
+      </c>
+      <c r="AS108">
+        <v>1.14</v>
+      </c>
+      <c r="AT108">
+        <v>2.3</v>
+      </c>
+      <c r="AU108">
+        <v>10</v>
+      </c>
+      <c r="AV108">
+        <v>6</v>
+      </c>
+      <c r="AW108">
+        <v>7</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>17</v>
+      </c>
+      <c r="AZ108">
+        <v>6</v>
+      </c>
+      <c r="BA108">
+        <v>3</v>
+      </c>
+      <c r="BB108">
+        <v>2</v>
+      </c>
+      <c r="BC108">
         <v>5</v>
       </c>
-      <c r="AA108">
-        <v>3.7</v>
-      </c>
-      <c r="AB108">
-        <v>1.7</v>
-      </c>
-      <c r="AC108">
-        <v>1.07</v>
-      </c>
-      <c r="AD108">
-        <v>7.77</v>
-      </c>
-      <c r="AE108">
-        <v>1.43</v>
-      </c>
-      <c r="AF108">
-        <v>2.76</v>
-      </c>
-      <c r="AG108">
-        <v>2.1</v>
-      </c>
-      <c r="AH108">
-        <v>1.7</v>
-      </c>
-      <c r="AI108">
-        <v>2.05</v>
-      </c>
-      <c r="AJ108">
-        <v>1.7</v>
-      </c>
-      <c r="AK108">
-        <v>1.83</v>
-      </c>
-      <c r="AL108">
-        <v>1.28</v>
-      </c>
-      <c r="AM108">
-        <v>1.26</v>
-      </c>
-      <c r="AN108">
-        <v>0.14</v>
-      </c>
-      <c r="AO108">
-        <v>1.57</v>
-      </c>
-      <c r="AP108">
-        <v>0.4</v>
-      </c>
-      <c r="AQ108">
-        <v>1.8</v>
-      </c>
-      <c r="AR108">
-        <v>1.03</v>
-      </c>
-      <c r="AS108">
-        <v>1.17</v>
-      </c>
-      <c r="AT108">
-        <v>2.2</v>
-      </c>
-      <c r="AU108">
-        <v>9</v>
-      </c>
-      <c r="AV108">
-        <v>5</v>
-      </c>
-      <c r="AW108">
-        <v>5</v>
-      </c>
-      <c r="AX108">
-        <v>0</v>
-      </c>
-      <c r="AY108">
-        <v>14</v>
-      </c>
-      <c r="AZ108">
-        <v>5</v>
-      </c>
-      <c r="BA108">
-        <v>8</v>
-      </c>
-      <c r="BB108">
-        <v>1</v>
-      </c>
-      <c r="BC108">
-        <v>9</v>
-      </c>
       <c r="BD108">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="BE108">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="BF108">
-        <v>1.82</v>
+        <v>2.91</v>
       </c>
       <c r="BG108">
         <v>1.4</v>
@@ -23331,13 +23331,13 @@
         <v>2.7</v>
       </c>
       <c r="BI108">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BJ108">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BK108">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="BL108">
         <v>1.58</v>
@@ -23360,7 +23360,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7345214</v>
+        <v>7345213</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23375,28 +23375,28 @@
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H109" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
         <v>173</v>
@@ -23405,160 +23405,160 @@
         <v>102</v>
       </c>
       <c r="Q109">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R109">
+        <v>1.83</v>
+      </c>
+      <c r="S109">
+        <v>4.33</v>
+      </c>
+      <c r="T109">
+        <v>1.62</v>
+      </c>
+      <c r="U109">
+        <v>2.2</v>
+      </c>
+      <c r="V109">
+        <v>4</v>
+      </c>
+      <c r="W109">
+        <v>1.22</v>
+      </c>
+      <c r="X109">
+        <v>13</v>
+      </c>
+      <c r="Y109">
+        <v>1.04</v>
+      </c>
+      <c r="Z109">
+        <v>2.35</v>
+      </c>
+      <c r="AA109">
+        <v>3</v>
+      </c>
+      <c r="AB109">
+        <v>3.4</v>
+      </c>
+      <c r="AC109">
+        <v>1.11</v>
+      </c>
+      <c r="AD109">
+        <v>6.28</v>
+      </c>
+      <c r="AE109">
+        <v>1.52</v>
+      </c>
+      <c r="AF109">
+        <v>2.35</v>
+      </c>
+      <c r="AG109">
+        <v>2.88</v>
+      </c>
+      <c r="AH109">
+        <v>1.4</v>
+      </c>
+      <c r="AI109">
+        <v>2.25</v>
+      </c>
+      <c r="AJ109">
+        <v>1.57</v>
+      </c>
+      <c r="AK109">
+        <v>1.33</v>
+      </c>
+      <c r="AL109">
+        <v>1.33</v>
+      </c>
+      <c r="AM109">
+        <v>1.63</v>
+      </c>
+      <c r="AN109">
+        <v>1.57</v>
+      </c>
+      <c r="AO109">
+        <v>1</v>
+      </c>
+      <c r="AP109">
+        <v>1.6</v>
+      </c>
+      <c r="AQ109">
+        <v>1.33</v>
+      </c>
+      <c r="AR109">
+        <v>1.26</v>
+      </c>
+      <c r="AS109">
+        <v>1.24</v>
+      </c>
+      <c r="AT109">
+        <v>2.5</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>2</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>5</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
         <v>1.95</v>
       </c>
-      <c r="S109">
-        <v>5</v>
-      </c>
-      <c r="T109">
-        <v>1.44</v>
-      </c>
-      <c r="U109">
-        <v>2.63</v>
-      </c>
-      <c r="V109">
-        <v>3.25</v>
-      </c>
-      <c r="W109">
-        <v>1.33</v>
-      </c>
-      <c r="X109">
-        <v>9</v>
-      </c>
-      <c r="Y109">
-        <v>1.07</v>
-      </c>
-      <c r="Z109">
-        <v>2</v>
-      </c>
-      <c r="AA109">
-        <v>3.3</v>
-      </c>
-      <c r="AB109">
-        <v>3.9</v>
-      </c>
-      <c r="AC109">
-        <v>1.06</v>
-      </c>
-      <c r="AD109">
-        <v>8.6</v>
-      </c>
-      <c r="AE109">
-        <v>1.38</v>
-      </c>
-      <c r="AF109">
-        <v>2.94</v>
-      </c>
-      <c r="AG109">
-        <v>2.6</v>
-      </c>
-      <c r="AH109">
-        <v>1.48</v>
-      </c>
-      <c r="AI109">
-        <v>2.2</v>
-      </c>
-      <c r="AJ109">
-        <v>1.62</v>
-      </c>
-      <c r="AK109">
-        <v>1.3</v>
-      </c>
-      <c r="AL109">
-        <v>1.28</v>
-      </c>
-      <c r="AM109">
-        <v>1.7</v>
-      </c>
-      <c r="AN109">
+      <c r="BE109">
+        <v>7.1</v>
+      </c>
+      <c r="BF109">
+        <v>2.25</v>
+      </c>
+      <c r="BG109">
+        <v>1.45</v>
+      </c>
+      <c r="BH109">
+        <v>2.5</v>
+      </c>
+      <c r="BI109">
+        <v>1.82</v>
+      </c>
+      <c r="BJ109">
+        <v>1.98</v>
+      </c>
+      <c r="BK109">
+        <v>2.33</v>
+      </c>
+      <c r="BL109">
+        <v>1.52</v>
+      </c>
+      <c r="BM109">
+        <v>3.15</v>
+      </c>
+      <c r="BN109">
         <v>1.29</v>
       </c>
-      <c r="AO109">
-        <v>1.71</v>
-      </c>
-      <c r="AP109">
-        <v>1.3</v>
-      </c>
-      <c r="AQ109">
-        <v>1.5</v>
-      </c>
-      <c r="AR109">
-        <v>1.53</v>
-      </c>
-      <c r="AS109">
-        <v>1.51</v>
-      </c>
-      <c r="AT109">
-        <v>3.04</v>
-      </c>
-      <c r="AU109">
-        <v>8</v>
-      </c>
-      <c r="AV109">
-        <v>2</v>
-      </c>
-      <c r="AW109">
-        <v>10</v>
-      </c>
-      <c r="AX109">
-        <v>1</v>
-      </c>
-      <c r="AY109">
-        <v>18</v>
-      </c>
-      <c r="AZ109">
-        <v>3</v>
-      </c>
-      <c r="BA109">
-        <v>5</v>
-      </c>
-      <c r="BB109">
-        <v>1</v>
-      </c>
-      <c r="BC109">
-        <v>6</v>
-      </c>
-      <c r="BD109">
-        <v>1.4</v>
-      </c>
-      <c r="BE109">
-        <v>8</v>
-      </c>
-      <c r="BF109">
-        <v>3.75</v>
-      </c>
-      <c r="BG109">
-        <v>1.38</v>
-      </c>
-      <c r="BH109">
-        <v>2.8</v>
-      </c>
-      <c r="BI109">
-        <v>1.52</v>
-      </c>
-      <c r="BJ109">
-        <v>2.33</v>
-      </c>
-      <c r="BK109">
-        <v>1.95</v>
-      </c>
-      <c r="BL109">
-        <v>1.73</v>
-      </c>
-      <c r="BM109">
-        <v>2.45</v>
-      </c>
-      <c r="BN109">
-        <v>1.47</v>
-      </c>
       <c r="BO109">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="BP109">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23566,7 +23566,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7345213</v>
+        <v>7345214</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23581,28 +23581,28 @@
         <v>8</v>
       </c>
       <c r="G110" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H110" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O110" t="s">
         <v>174</v>
@@ -23611,160 +23611,160 @@
         <v>102</v>
       </c>
       <c r="Q110">
+        <v>2.75</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>1.44</v>
+      </c>
+      <c r="U110">
+        <v>2.63</v>
+      </c>
+      <c r="V110">
         <v>3.25</v>
       </c>
-      <c r="R110">
-        <v>1.83</v>
-      </c>
-      <c r="S110">
-        <v>4.33</v>
-      </c>
-      <c r="T110">
+      <c r="W110">
+        <v>1.33</v>
+      </c>
+      <c r="X110">
+        <v>9</v>
+      </c>
+      <c r="Y110">
+        <v>1.07</v>
+      </c>
+      <c r="Z110">
+        <v>2</v>
+      </c>
+      <c r="AA110">
+        <v>3.3</v>
+      </c>
+      <c r="AB110">
+        <v>3.9</v>
+      </c>
+      <c r="AC110">
+        <v>1.06</v>
+      </c>
+      <c r="AD110">
+        <v>8.6</v>
+      </c>
+      <c r="AE110">
+        <v>1.38</v>
+      </c>
+      <c r="AF110">
+        <v>2.94</v>
+      </c>
+      <c r="AG110">
+        <v>2.6</v>
+      </c>
+      <c r="AH110">
+        <v>1.48</v>
+      </c>
+      <c r="AI110">
+        <v>2.2</v>
+      </c>
+      <c r="AJ110">
         <v>1.62</v>
       </c>
-      <c r="U110">
-        <v>2.2</v>
-      </c>
-      <c r="V110">
-        <v>4</v>
-      </c>
-      <c r="W110">
-        <v>1.22</v>
-      </c>
-      <c r="X110">
-        <v>13</v>
-      </c>
-      <c r="Y110">
-        <v>1.04</v>
-      </c>
-      <c r="Z110">
-        <v>2.35</v>
-      </c>
-      <c r="AA110">
+      <c r="AK110">
+        <v>1.3</v>
+      </c>
+      <c r="AL110">
+        <v>1.28</v>
+      </c>
+      <c r="AM110">
+        <v>1.7</v>
+      </c>
+      <c r="AN110">
+        <v>1.29</v>
+      </c>
+      <c r="AO110">
+        <v>1.71</v>
+      </c>
+      <c r="AP110">
+        <v>1.3</v>
+      </c>
+      <c r="AQ110">
+        <v>1.5</v>
+      </c>
+      <c r="AR110">
+        <v>1.53</v>
+      </c>
+      <c r="AS110">
+        <v>1.51</v>
+      </c>
+      <c r="AT110">
+        <v>3.04</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>10</v>
+      </c>
+      <c r="AX110">
+        <v>1</v>
+      </c>
+      <c r="AY110">
+        <v>18</v>
+      </c>
+      <c r="AZ110">
         <v>3</v>
       </c>
-      <c r="AB110">
-        <v>3.4</v>
-      </c>
-      <c r="AC110">
-        <v>1.11</v>
-      </c>
-      <c r="AD110">
-        <v>6.28</v>
-      </c>
-      <c r="AE110">
+      <c r="BA110">
+        <v>5</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
+      <c r="BC110">
+        <v>6</v>
+      </c>
+      <c r="BD110">
+        <v>1.4</v>
+      </c>
+      <c r="BE110">
+        <v>8</v>
+      </c>
+      <c r="BF110">
+        <v>3.75</v>
+      </c>
+      <c r="BG110">
+        <v>1.38</v>
+      </c>
+      <c r="BH110">
+        <v>2.8</v>
+      </c>
+      <c r="BI110">
         <v>1.52</v>
       </c>
-      <c r="AF110">
-        <v>2.35</v>
-      </c>
-      <c r="AG110">
-        <v>2.88</v>
-      </c>
-      <c r="AH110">
-        <v>1.4</v>
-      </c>
-      <c r="AI110">
-        <v>2.25</v>
-      </c>
-      <c r="AJ110">
-        <v>1.57</v>
-      </c>
-      <c r="AK110">
-        <v>1.33</v>
-      </c>
-      <c r="AL110">
-        <v>1.33</v>
-      </c>
-      <c r="AM110">
-        <v>1.63</v>
-      </c>
-      <c r="AN110">
-        <v>1.57</v>
-      </c>
-      <c r="AO110">
-        <v>1</v>
-      </c>
-      <c r="AP110">
-        <v>1.6</v>
-      </c>
-      <c r="AQ110">
-        <v>1.33</v>
-      </c>
-      <c r="AR110">
-        <v>1.26</v>
-      </c>
-      <c r="AS110">
-        <v>1.24</v>
-      </c>
-      <c r="AT110">
-        <v>2.5</v>
-      </c>
-      <c r="AU110">
-        <v>3</v>
-      </c>
-      <c r="AV110">
-        <v>4</v>
-      </c>
-      <c r="AW110">
-        <v>2</v>
-      </c>
-      <c r="AX110">
-        <v>6</v>
-      </c>
-      <c r="AY110">
-        <v>5</v>
-      </c>
-      <c r="AZ110">
-        <v>10</v>
-      </c>
-      <c r="BA110">
-        <v>7</v>
-      </c>
-      <c r="BB110">
-        <v>4</v>
-      </c>
-      <c r="BC110">
-        <v>11</v>
-      </c>
-      <c r="BD110">
+      <c r="BJ110">
+        <v>2.33</v>
+      </c>
+      <c r="BK110">
         <v>1.95</v>
       </c>
-      <c r="BE110">
-        <v>7.1</v>
-      </c>
-      <c r="BF110">
-        <v>2.25</v>
-      </c>
-      <c r="BG110">
-        <v>1.45</v>
-      </c>
-      <c r="BH110">
-        <v>2.5</v>
-      </c>
-      <c r="BI110">
-        <v>1.82</v>
-      </c>
-      <c r="BJ110">
-        <v>1.98</v>
-      </c>
-      <c r="BK110">
-        <v>2.33</v>
-      </c>
       <c r="BL110">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="BM110">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="BN110">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="BO110">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="BP110">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23790,7 +23790,7 @@
         <v>83</v>
       </c>
       <c r="H111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -23996,7 +23996,7 @@
         <v>97</v>
       </c>
       <c r="H112" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -24199,7 +24199,7 @@
         <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H113" t="s">
         <v>93</v>
@@ -24390,7 +24390,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7345218</v>
+        <v>7345229</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24405,10 +24405,10 @@
         <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="H114" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -24420,13 +24420,13 @@
         <v>1</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O114" t="s">
         <v>178</v>
@@ -24435,25 +24435,25 @@
         <v>102</v>
       </c>
       <c r="Q114">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="R114">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T114">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U114">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V114">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="W114">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X114">
         <v>8</v>
@@ -24462,133 +24462,133 @@
         <v>1.05</v>
       </c>
       <c r="Z114">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AA114">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="AB114">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="AC114">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD114">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE114">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AF114">
+        <v>2.55</v>
+      </c>
+      <c r="AG114">
+        <v>2.35</v>
+      </c>
+      <c r="AH114">
+        <v>1.57</v>
+      </c>
+      <c r="AI114">
+        <v>2.1</v>
+      </c>
+      <c r="AJ114">
+        <v>1.67</v>
+      </c>
+      <c r="AK114">
+        <v>1.18</v>
+      </c>
+      <c r="AL114">
+        <v>1.28</v>
+      </c>
+      <c r="AM114">
+        <v>1.85</v>
+      </c>
+      <c r="AN114">
+        <v>1.75</v>
+      </c>
+      <c r="AO114">
+        <v>0.63</v>
+      </c>
+      <c r="AP114">
+        <v>1.8</v>
+      </c>
+      <c r="AQ114">
+        <v>0.5</v>
+      </c>
+      <c r="AR114">
+        <v>1.13</v>
+      </c>
+      <c r="AS114">
+        <v>1.38</v>
+      </c>
+      <c r="AT114">
+        <v>2.51</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>2</v>
+      </c>
+      <c r="AW114">
+        <v>8</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>14</v>
+      </c>
+      <c r="AZ114">
+        <v>7</v>
+      </c>
+      <c r="BA114">
+        <v>5</v>
+      </c>
+      <c r="BB114">
+        <v>5</v>
+      </c>
+      <c r="BC114">
+        <v>10</v>
+      </c>
+      <c r="BD114">
+        <v>1.6</v>
+      </c>
+      <c r="BE114">
+        <v>7.5</v>
+      </c>
+      <c r="BF114">
+        <v>3.01</v>
+      </c>
+      <c r="BG114">
+        <v>1.27</v>
+      </c>
+      <c r="BH114">
+        <v>3.35</v>
+      </c>
+      <c r="BI114">
+        <v>1.49</v>
+      </c>
+      <c r="BJ114">
         <v>2.4</v>
       </c>
-      <c r="AG114">
-        <v>3.1</v>
-      </c>
-      <c r="AH114">
-        <v>1.36</v>
-      </c>
-      <c r="AI114">
-        <v>2.5</v>
-      </c>
-      <c r="AJ114">
+      <c r="BK114">
+        <v>2.25</v>
+      </c>
+      <c r="BL114">
+        <v>1.9</v>
+      </c>
+      <c r="BM114">
+        <v>2.38</v>
+      </c>
+      <c r="BN114">
         <v>1.5</v>
       </c>
-      <c r="AK114">
-        <v>1.33</v>
-      </c>
-      <c r="AL114">
-        <v>1.33</v>
-      </c>
-      <c r="AM114">
-        <v>1.53</v>
-      </c>
-      <c r="AN114">
-        <v>0.86</v>
-      </c>
-      <c r="AO114">
-        <v>1.5</v>
-      </c>
-      <c r="AP114">
-        <v>1.33</v>
-      </c>
-      <c r="AQ114">
-        <v>1.3</v>
-      </c>
-      <c r="AR114">
-        <v>1.24</v>
-      </c>
-      <c r="AS114">
-        <v>1.59</v>
-      </c>
-      <c r="AT114">
-        <v>2.83</v>
-      </c>
-      <c r="AU114">
-        <v>3</v>
-      </c>
-      <c r="AV114">
-        <v>3</v>
-      </c>
-      <c r="AW114">
-        <v>4</v>
-      </c>
-      <c r="AX114">
-        <v>3</v>
-      </c>
-      <c r="AY114">
-        <v>7</v>
-      </c>
-      <c r="AZ114">
-        <v>6</v>
-      </c>
-      <c r="BA114">
-        <v>2</v>
-      </c>
-      <c r="BB114">
-        <v>6</v>
-      </c>
-      <c r="BC114">
-        <v>8</v>
-      </c>
-      <c r="BD114">
-        <v>1.92</v>
-      </c>
-      <c r="BE114">
-        <v>7.3</v>
-      </c>
-      <c r="BF114">
-        <v>2.32</v>
-      </c>
-      <c r="BG114">
-        <v>1.5</v>
-      </c>
-      <c r="BH114">
-        <v>2.35</v>
-      </c>
-      <c r="BI114">
-        <v>1.98</v>
-      </c>
-      <c r="BJ114">
-        <v>1.82</v>
-      </c>
-      <c r="BK114">
-        <v>2.5</v>
-      </c>
-      <c r="BL114">
-        <v>1.46</v>
-      </c>
-      <c r="BM114">
-        <v>3.45</v>
-      </c>
-      <c r="BN114">
-        <v>1.26</v>
-      </c>
       <c r="BO114">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="BP114">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24596,7 +24596,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7345229</v>
+        <v>7345218</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24611,10 +24611,10 @@
         <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H115" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -24626,13 +24626,13 @@
         <v>1</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O115" t="s">
         <v>179</v>
@@ -24641,25 +24641,25 @@
         <v>102</v>
       </c>
       <c r="Q115">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S115">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T115">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U115">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V115">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="W115">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X115">
         <v>8</v>
@@ -24668,133 +24668,133 @@
         <v>1.05</v>
       </c>
       <c r="Z115">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AA115">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="AB115">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="AC115">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD115">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE115">
+        <v>1.55</v>
+      </c>
+      <c r="AF115">
+        <v>2.4</v>
+      </c>
+      <c r="AG115">
+        <v>3.1</v>
+      </c>
+      <c r="AH115">
+        <v>1.36</v>
+      </c>
+      <c r="AI115">
+        <v>2.5</v>
+      </c>
+      <c r="AJ115">
         <v>1.5</v>
       </c>
-      <c r="AF115">
-        <v>2.55</v>
-      </c>
-      <c r="AG115">
+      <c r="AK115">
+        <v>1.33</v>
+      </c>
+      <c r="AL115">
+        <v>1.33</v>
+      </c>
+      <c r="AM115">
+        <v>1.53</v>
+      </c>
+      <c r="AN115">
+        <v>0.86</v>
+      </c>
+      <c r="AO115">
+        <v>1.5</v>
+      </c>
+      <c r="AP115">
+        <v>1.33</v>
+      </c>
+      <c r="AQ115">
+        <v>1.3</v>
+      </c>
+      <c r="AR115">
+        <v>1.24</v>
+      </c>
+      <c r="AS115">
+        <v>1.59</v>
+      </c>
+      <c r="AT115">
+        <v>2.83</v>
+      </c>
+      <c r="AU115">
+        <v>3</v>
+      </c>
+      <c r="AV115">
+        <v>3</v>
+      </c>
+      <c r="AW115">
+        <v>4</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>7</v>
+      </c>
+      <c r="AZ115">
+        <v>6</v>
+      </c>
+      <c r="BA115">
+        <v>2</v>
+      </c>
+      <c r="BB115">
+        <v>6</v>
+      </c>
+      <c r="BC115">
+        <v>8</v>
+      </c>
+      <c r="BD115">
+        <v>1.92</v>
+      </c>
+      <c r="BE115">
+        <v>7.3</v>
+      </c>
+      <c r="BF115">
+        <v>2.32</v>
+      </c>
+      <c r="BG115">
+        <v>1.5</v>
+      </c>
+      <c r="BH115">
         <v>2.35</v>
       </c>
-      <c r="AH115">
-        <v>1.57</v>
-      </c>
-      <c r="AI115">
-        <v>2.1</v>
-      </c>
-      <c r="AJ115">
-        <v>1.67</v>
-      </c>
-      <c r="AK115">
-        <v>1.18</v>
-      </c>
-      <c r="AL115">
-        <v>1.28</v>
-      </c>
-      <c r="AM115">
-        <v>1.85</v>
-      </c>
-      <c r="AN115">
-        <v>1.75</v>
-      </c>
-      <c r="AO115">
-        <v>0.63</v>
-      </c>
-      <c r="AP115">
-        <v>1.8</v>
-      </c>
-      <c r="AQ115">
-        <v>0.5</v>
-      </c>
-      <c r="AR115">
+      <c r="BI115">
+        <v>1.98</v>
+      </c>
+      <c r="BJ115">
+        <v>1.82</v>
+      </c>
+      <c r="BK115">
+        <v>2.5</v>
+      </c>
+      <c r="BL115">
+        <v>1.46</v>
+      </c>
+      <c r="BM115">
+        <v>3.45</v>
+      </c>
+      <c r="BN115">
+        <v>1.26</v>
+      </c>
+      <c r="BO115">
+        <v>4.9</v>
+      </c>
+      <c r="BP115">
         <v>1.13</v>
-      </c>
-      <c r="AS115">
-        <v>1.38</v>
-      </c>
-      <c r="AT115">
-        <v>2.51</v>
-      </c>
-      <c r="AU115">
-        <v>6</v>
-      </c>
-      <c r="AV115">
-        <v>2</v>
-      </c>
-      <c r="AW115">
-        <v>8</v>
-      </c>
-      <c r="AX115">
-        <v>5</v>
-      </c>
-      <c r="AY115">
-        <v>14</v>
-      </c>
-      <c r="AZ115">
-        <v>7</v>
-      </c>
-      <c r="BA115">
-        <v>5</v>
-      </c>
-      <c r="BB115">
-        <v>5</v>
-      </c>
-      <c r="BC115">
-        <v>10</v>
-      </c>
-      <c r="BD115">
-        <v>1.6</v>
-      </c>
-      <c r="BE115">
-        <v>7.5</v>
-      </c>
-      <c r="BF115">
-        <v>3.01</v>
-      </c>
-      <c r="BG115">
-        <v>1.27</v>
-      </c>
-      <c r="BH115">
-        <v>3.35</v>
-      </c>
-      <c r="BI115">
-        <v>1.49</v>
-      </c>
-      <c r="BJ115">
-        <v>2.4</v>
-      </c>
-      <c r="BK115">
-        <v>2.25</v>
-      </c>
-      <c r="BL115">
-        <v>1.9</v>
-      </c>
-      <c r="BM115">
-        <v>2.38</v>
-      </c>
-      <c r="BN115">
-        <v>1.5</v>
-      </c>
-      <c r="BO115">
-        <v>3.2</v>
-      </c>
-      <c r="BP115">
-        <v>1.29</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24817,7 +24817,7 @@
         <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H116" t="s">
         <v>86</v>
@@ -24841,7 +24841,7 @@
         <v>2</v>
       </c>
       <c r="O116" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P116" t="s">
         <v>219</v>
@@ -25232,7 +25232,7 @@
         <v>73</v>
       </c>
       <c r="H118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7345217</v>
+        <v>7345225</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26053,10 +26053,10 @@
         <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>1</v>
       </c>
       <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
         <v>3</v>
-      </c>
-      <c r="M122">
-        <v>2</v>
-      </c>
-      <c r="N122">
-        <v>5</v>
       </c>
       <c r="O122" t="s">
         <v>180</v>
@@ -26083,136 +26083,136 @@
         <v>235</v>
       </c>
       <c r="Q122">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S122">
+        <v>6</v>
+      </c>
+      <c r="T122">
+        <v>1.57</v>
+      </c>
+      <c r="U122">
+        <v>2.29</v>
+      </c>
+      <c r="V122">
+        <v>3.71</v>
+      </c>
+      <c r="W122">
+        <v>1.24</v>
+      </c>
+      <c r="X122">
+        <v>12</v>
+      </c>
+      <c r="Y122">
+        <v>1.03</v>
+      </c>
+      <c r="Z122">
+        <v>1.91</v>
+      </c>
+      <c r="AA122">
+        <v>3.1</v>
+      </c>
+      <c r="AB122">
         <v>5</v>
       </c>
-      <c r="T122">
-        <v>1.45</v>
-      </c>
-      <c r="U122">
-        <v>2.59</v>
-      </c>
-      <c r="V122">
-        <v>3.24</v>
-      </c>
-      <c r="W122">
+      <c r="AC122">
+        <v>1.1</v>
+      </c>
+      <c r="AD122">
+        <v>6.6</v>
+      </c>
+      <c r="AE122">
+        <v>1.5</v>
+      </c>
+      <c r="AF122">
+        <v>2.45</v>
+      </c>
+      <c r="AG122">
+        <v>3.1</v>
+      </c>
+      <c r="AH122">
+        <v>1.36</v>
+      </c>
+      <c r="AI122">
+        <v>2.63</v>
+      </c>
+      <c r="AJ122">
+        <v>1.44</v>
+      </c>
+      <c r="AK122">
+        <v>1.26</v>
+      </c>
+      <c r="AL122">
         <v>1.3</v>
       </c>
-      <c r="X122">
+      <c r="AM122">
+        <v>1.75</v>
+      </c>
+      <c r="AN122">
+        <v>1.63</v>
+      </c>
+      <c r="AO122">
+        <v>1.75</v>
+      </c>
+      <c r="AP122">
+        <v>1.9</v>
+      </c>
+      <c r="AQ122">
+        <v>1.5</v>
+      </c>
+      <c r="AR122">
+        <v>1.54</v>
+      </c>
+      <c r="AS122">
+        <v>1.15</v>
+      </c>
+      <c r="AT122">
+        <v>2.69</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>4</v>
+      </c>
+      <c r="AY122">
         <v>9</v>
       </c>
-      <c r="Y122">
-        <v>1.05</v>
-      </c>
-      <c r="Z122">
-        <v>1.85</v>
-      </c>
-      <c r="AA122">
-        <v>3.6</v>
-      </c>
-      <c r="AB122">
-        <v>4.33</v>
-      </c>
-      <c r="AC122">
-        <v>1.06</v>
-      </c>
-      <c r="AD122">
-        <v>8.6</v>
-      </c>
-      <c r="AE122">
+      <c r="AZ122">
+        <v>7</v>
+      </c>
+      <c r="BA122">
+        <v>11</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>16</v>
+      </c>
+      <c r="BD122">
+        <v>1.62</v>
+      </c>
+      <c r="BE122">
+        <v>7.1</v>
+      </c>
+      <c r="BF122">
+        <v>3.01</v>
+      </c>
+      <c r="BG122">
         <v>1.4</v>
       </c>
-      <c r="AF122">
-        <v>2.85</v>
-      </c>
-      <c r="AG122">
-        <v>2.3</v>
-      </c>
-      <c r="AH122">
-        <v>1.6</v>
-      </c>
-      <c r="AI122">
-        <v>2.1</v>
-      </c>
-      <c r="AJ122">
-        <v>1.67</v>
-      </c>
-      <c r="AK122">
-        <v>1.19</v>
-      </c>
-      <c r="AL122">
-        <v>1.25</v>
-      </c>
-      <c r="AM122">
-        <v>2.1</v>
-      </c>
-      <c r="AN122">
-        <v>1.5</v>
-      </c>
-      <c r="AO122">
-        <v>1.13</v>
-      </c>
-      <c r="AP122">
-        <v>1.5</v>
-      </c>
-      <c r="AQ122">
-        <v>0.9</v>
-      </c>
-      <c r="AR122">
-        <v>1.39</v>
-      </c>
-      <c r="AS122">
-        <v>1.31</v>
-      </c>
-      <c r="AT122">
+      <c r="BH122">
         <v>2.7</v>
-      </c>
-      <c r="AU122">
-        <v>9</v>
-      </c>
-      <c r="AV122">
-        <v>8</v>
-      </c>
-      <c r="AW122">
-        <v>6</v>
-      </c>
-      <c r="AX122">
-        <v>5</v>
-      </c>
-      <c r="AY122">
-        <v>15</v>
-      </c>
-      <c r="AZ122">
-        <v>13</v>
-      </c>
-      <c r="BA122">
-        <v>4</v>
-      </c>
-      <c r="BB122">
-        <v>0</v>
-      </c>
-      <c r="BC122">
-        <v>4</v>
-      </c>
-      <c r="BD122">
-        <v>1.59</v>
-      </c>
-      <c r="BE122">
-        <v>7.8</v>
-      </c>
-      <c r="BF122">
-        <v>3</v>
-      </c>
-      <c r="BG122">
-        <v>1.36</v>
-      </c>
-      <c r="BH122">
-        <v>2.8</v>
       </c>
       <c r="BI122">
         <v>1.7</v>
@@ -26221,22 +26221,22 @@
         <v>2.05</v>
       </c>
       <c r="BK122">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL122">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="BM122">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BN122">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="BO122">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="BP122">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26244,7 +26244,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7345225</v>
+        <v>7345217</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26259,10 +26259,10 @@
         <v>9</v>
       </c>
       <c r="G123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H123" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -26274,13 +26274,13 @@
         <v>1</v>
       </c>
       <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
         <v>2</v>
       </c>
-      <c r="M123">
-        <v>1</v>
-      </c>
       <c r="N123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O123" t="s">
         <v>181</v>
@@ -26289,136 +26289,136 @@
         <v>236</v>
       </c>
       <c r="Q123">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R123">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>1.45</v>
+      </c>
+      <c r="U123">
+        <v>2.59</v>
+      </c>
+      <c r="V123">
+        <v>3.24</v>
+      </c>
+      <c r="W123">
+        <v>1.3</v>
+      </c>
+      <c r="X123">
+        <v>9</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>1.85</v>
+      </c>
+      <c r="AA123">
+        <v>3.6</v>
+      </c>
+      <c r="AB123">
+        <v>4.33</v>
+      </c>
+      <c r="AC123">
+        <v>1.06</v>
+      </c>
+      <c r="AD123">
+        <v>8.6</v>
+      </c>
+      <c r="AE123">
+        <v>1.4</v>
+      </c>
+      <c r="AF123">
+        <v>2.85</v>
+      </c>
+      <c r="AG123">
+        <v>2.3</v>
+      </c>
+      <c r="AH123">
+        <v>1.6</v>
+      </c>
+      <c r="AI123">
+        <v>2.1</v>
+      </c>
+      <c r="AJ123">
+        <v>1.67</v>
+      </c>
+      <c r="AK123">
+        <v>1.19</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>2.1</v>
+      </c>
+      <c r="AN123">
+        <v>1.5</v>
+      </c>
+      <c r="AO123">
+        <v>1.13</v>
+      </c>
+      <c r="AP123">
+        <v>1.5</v>
+      </c>
+      <c r="AQ123">
+        <v>0.9</v>
+      </c>
+      <c r="AR123">
+        <v>1.39</v>
+      </c>
+      <c r="AS123">
+        <v>1.31</v>
+      </c>
+      <c r="AT123">
+        <v>2.7</v>
+      </c>
+      <c r="AU123">
+        <v>9</v>
+      </c>
+      <c r="AV123">
+        <v>8</v>
+      </c>
+      <c r="AW123">
         <v>6</v>
       </c>
-      <c r="T123">
-        <v>1.57</v>
-      </c>
-      <c r="U123">
-        <v>2.29</v>
-      </c>
-      <c r="V123">
-        <v>3.71</v>
-      </c>
-      <c r="W123">
-        <v>1.24</v>
-      </c>
-      <c r="X123">
-        <v>12</v>
-      </c>
-      <c r="Y123">
-        <v>1.03</v>
-      </c>
-      <c r="Z123">
-        <v>1.91</v>
-      </c>
-      <c r="AA123">
-        <v>3.1</v>
-      </c>
-      <c r="AB123">
+      <c r="AX123">
         <v>5</v>
       </c>
-      <c r="AC123">
-        <v>1.1</v>
-      </c>
-      <c r="AD123">
-        <v>6.6</v>
-      </c>
-      <c r="AE123">
-        <v>1.5</v>
-      </c>
-      <c r="AF123">
-        <v>2.45</v>
-      </c>
-      <c r="AG123">
-        <v>3.1</v>
-      </c>
-      <c r="AH123">
+      <c r="AY123">
+        <v>15</v>
+      </c>
+      <c r="AZ123">
+        <v>13</v>
+      </c>
+      <c r="BA123">
+        <v>4</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>4</v>
+      </c>
+      <c r="BD123">
+        <v>1.59</v>
+      </c>
+      <c r="BE123">
+        <v>7.8</v>
+      </c>
+      <c r="BF123">
+        <v>3</v>
+      </c>
+      <c r="BG123">
         <v>1.36</v>
       </c>
-      <c r="AI123">
-        <v>2.63</v>
-      </c>
-      <c r="AJ123">
-        <v>1.44</v>
-      </c>
-      <c r="AK123">
-        <v>1.26</v>
-      </c>
-      <c r="AL123">
-        <v>1.3</v>
-      </c>
-      <c r="AM123">
-        <v>1.75</v>
-      </c>
-      <c r="AN123">
-        <v>1.63</v>
-      </c>
-      <c r="AO123">
-        <v>1.75</v>
-      </c>
-      <c r="AP123">
-        <v>1.9</v>
-      </c>
-      <c r="AQ123">
-        <v>1.5</v>
-      </c>
-      <c r="AR123">
-        <v>1.54</v>
-      </c>
-      <c r="AS123">
-        <v>1.15</v>
-      </c>
-      <c r="AT123">
-        <v>2.69</v>
-      </c>
-      <c r="AU123">
-        <v>4</v>
-      </c>
-      <c r="AV123">
-        <v>3</v>
-      </c>
-      <c r="AW123">
-        <v>5</v>
-      </c>
-      <c r="AX123">
-        <v>4</v>
-      </c>
-      <c r="AY123">
-        <v>9</v>
-      </c>
-      <c r="AZ123">
-        <v>7</v>
-      </c>
-      <c r="BA123">
-        <v>11</v>
-      </c>
-      <c r="BB123">
-        <v>5</v>
-      </c>
-      <c r="BC123">
-        <v>16</v>
-      </c>
-      <c r="BD123">
-        <v>1.62</v>
-      </c>
-      <c r="BE123">
-        <v>7.1</v>
-      </c>
-      <c r="BF123">
-        <v>3.01</v>
-      </c>
-      <c r="BG123">
-        <v>1.4</v>
-      </c>
       <c r="BH123">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BI123">
         <v>1.7</v>
@@ -26427,22 +26427,22 @@
         <v>2.05</v>
       </c>
       <c r="BK123">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL123">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="BM123">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BN123">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="BO123">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="BP123">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26674,7 +26674,7 @@
         <v>82</v>
       </c>
       <c r="H125" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -26880,7 +26880,7 @@
         <v>88</v>
       </c>
       <c r="H126" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -27083,7 +27083,7 @@
         <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H127" t="s">
         <v>70</v>
@@ -27316,7 +27316,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -27498,7 +27498,7 @@
         <v>87</v>
       </c>
       <c r="H129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H131" t="s">
         <v>82</v>
@@ -28140,7 +28140,7 @@
         <v>102</v>
       </c>
       <c r="P132" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28319,10 +28319,10 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -28552,7 +28552,7 @@
         <v>171</v>
       </c>
       <c r="P134" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28922,7 +28922,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7345230</v>
+        <v>7345232</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28937,19 +28937,19 @@
         <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H136" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
         <v>2</v>
@@ -28967,160 +28967,160 @@
         <v>102</v>
       </c>
       <c r="Q136">
+        <v>2.88</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>6</v>
+      </c>
+      <c r="T136">
+        <v>1.62</v>
+      </c>
+      <c r="U136">
+        <v>2.15</v>
+      </c>
+      <c r="V136">
+        <v>3.8</v>
+      </c>
+      <c r="W136">
+        <v>1.22</v>
+      </c>
+      <c r="X136">
+        <v>14</v>
+      </c>
+      <c r="Y136">
+        <v>1.03</v>
+      </c>
+      <c r="Z136">
+        <v>1.95</v>
+      </c>
+      <c r="AA136">
+        <v>3.1</v>
+      </c>
+      <c r="AB136">
+        <v>4.5</v>
+      </c>
+      <c r="AC136">
+        <v>1.11</v>
+      </c>
+      <c r="AD136">
+        <v>6.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.55</v>
+      </c>
+      <c r="AF136">
+        <v>2.25</v>
+      </c>
+      <c r="AG136">
         <v>3.5</v>
       </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>3.4</v>
-      </c>
-      <c r="T136">
-        <v>1.48</v>
-      </c>
-      <c r="U136">
-        <v>2.45</v>
-      </c>
-      <c r="V136">
-        <v>3.15</v>
-      </c>
-      <c r="W136">
-        <v>1.32</v>
-      </c>
-      <c r="X136">
-        <v>9.5</v>
-      </c>
-      <c r="Y136">
-        <v>1.06</v>
-      </c>
-      <c r="Z136">
+      <c r="AH136">
+        <v>1.3</v>
+      </c>
+      <c r="AI136">
         <v>2.75</v>
       </c>
-      <c r="AA136">
-        <v>3.2</v>
-      </c>
-      <c r="AB136">
-        <v>2.7</v>
-      </c>
-      <c r="AC136">
-        <v>1.07</v>
-      </c>
-      <c r="AD136">
-        <v>9</v>
-      </c>
-      <c r="AE136">
-        <v>1.38</v>
-      </c>
-      <c r="AF136">
-        <v>2.85</v>
-      </c>
-      <c r="AG136">
-        <v>2.3</v>
-      </c>
-      <c r="AH136">
-        <v>1.6</v>
-      </c>
-      <c r="AI136">
-        <v>1.95</v>
-      </c>
       <c r="AJ136">
+        <v>1.4</v>
+      </c>
+      <c r="AK136">
+        <v>1.2</v>
+      </c>
+      <c r="AL136">
+        <v>1.3</v>
+      </c>
+      <c r="AM136">
         <v>1.8</v>
       </c>
-      <c r="AK136">
-        <v>1.5</v>
-      </c>
-      <c r="AL136">
-        <v>1.28</v>
-      </c>
-      <c r="AM136">
-        <v>1.42</v>
-      </c>
       <c r="AN136">
-        <v>0.11</v>
+        <v>1.67</v>
       </c>
       <c r="AO136">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="AP136">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ136">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AR136">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AS136">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT136">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV136">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW136">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX136">
         <v>4</v>
       </c>
       <c r="AY136">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ136">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA136">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB136">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC136">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD136">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="BE136">
-        <v>7.3</v>
+        <v>6.75</v>
       </c>
       <c r="BF136">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="BG136">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BH136">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BI136">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="BJ136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BK136">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="BL136">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BM136">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BN136">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BO136">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="BP136">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -29128,7 +29128,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7345232</v>
+        <v>7345230</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29143,19 +29143,19 @@
         <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H137" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
         <v>2</v>
@@ -29173,160 +29173,160 @@
         <v>102</v>
       </c>
       <c r="Q137">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>3.4</v>
+      </c>
+      <c r="T137">
+        <v>1.48</v>
+      </c>
+      <c r="U137">
+        <v>2.45</v>
+      </c>
+      <c r="V137">
+        <v>3.15</v>
+      </c>
+      <c r="W137">
+        <v>1.32</v>
+      </c>
+      <c r="X137">
+        <v>9.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.06</v>
+      </c>
+      <c r="Z137">
+        <v>2.75</v>
+      </c>
+      <c r="AA137">
+        <v>3.2</v>
+      </c>
+      <c r="AB137">
+        <v>2.7</v>
+      </c>
+      <c r="AC137">
+        <v>1.07</v>
+      </c>
+      <c r="AD137">
+        <v>9</v>
+      </c>
+      <c r="AE137">
+        <v>1.38</v>
+      </c>
+      <c r="AF137">
+        <v>2.85</v>
+      </c>
+      <c r="AG137">
+        <v>2.3</v>
+      </c>
+      <c r="AH137">
+        <v>1.6</v>
+      </c>
+      <c r="AI137">
+        <v>1.95</v>
+      </c>
+      <c r="AJ137">
         <v>1.8</v>
       </c>
-      <c r="S137">
+      <c r="AK137">
+        <v>1.5</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.42</v>
+      </c>
+      <c r="AN137">
+        <v>0.11</v>
+      </c>
+      <c r="AO137">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP137">
+        <v>0.4</v>
+      </c>
+      <c r="AQ137">
+        <v>0.5</v>
+      </c>
+      <c r="AR137">
+        <v>1.11</v>
+      </c>
+      <c r="AS137">
+        <v>1.31</v>
+      </c>
+      <c r="AT137">
+        <v>2.42</v>
+      </c>
+      <c r="AU137">
         <v>6</v>
       </c>
-      <c r="T137">
-        <v>1.62</v>
-      </c>
-      <c r="U137">
-        <v>2.15</v>
-      </c>
-      <c r="V137">
-        <v>3.8</v>
-      </c>
-      <c r="W137">
-        <v>1.22</v>
-      </c>
-      <c r="X137">
-        <v>14</v>
-      </c>
-      <c r="Y137">
-        <v>1.03</v>
-      </c>
-      <c r="Z137">
-        <v>1.95</v>
-      </c>
-      <c r="AA137">
-        <v>3.1</v>
-      </c>
-      <c r="AB137">
-        <v>4.5</v>
-      </c>
-      <c r="AC137">
-        <v>1.11</v>
-      </c>
-      <c r="AD137">
-        <v>6.5</v>
-      </c>
-      <c r="AE137">
-        <v>1.55</v>
-      </c>
-      <c r="AF137">
-        <v>2.25</v>
-      </c>
-      <c r="AG137">
-        <v>3.5</v>
-      </c>
-      <c r="AH137">
-        <v>1.3</v>
-      </c>
-      <c r="AI137">
-        <v>2.75</v>
-      </c>
-      <c r="AJ137">
-        <v>1.4</v>
-      </c>
-      <c r="AK137">
-        <v>1.2</v>
-      </c>
-      <c r="AL137">
-        <v>1.3</v>
-      </c>
-      <c r="AM137">
-        <v>1.8</v>
-      </c>
-      <c r="AN137">
-        <v>1.67</v>
-      </c>
-      <c r="AO137">
-        <v>1.22</v>
-      </c>
-      <c r="AP137">
-        <v>1.8</v>
-      </c>
-      <c r="AQ137">
-        <v>1.1</v>
-      </c>
-      <c r="AR137">
-        <v>1.17</v>
-      </c>
-      <c r="AS137">
-        <v>1.29</v>
-      </c>
-      <c r="AT137">
-        <v>2.46</v>
-      </c>
-      <c r="AU137">
-        <v>5</v>
-      </c>
       <c r="AV137">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW137">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX137">
         <v>4</v>
       </c>
       <c r="AY137">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA137">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB137">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC137">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD137">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="BE137">
-        <v>6.75</v>
+        <v>7.3</v>
       </c>
       <c r="BF137">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="BG137">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BH137">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="BI137">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="BJ137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BK137">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="BL137">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BM137">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BN137">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BO137">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="BP137">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -29349,7 +29349,7 @@
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H138" t="s">
         <v>96</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(20